--- a/VerveStacks_CHE_grids/SubRES_Tmpl/SubRES_New_RE_and_Conventional.xlsx
+++ b/VerveStacks_CHE_grids/SubRES_Tmpl/SubRES_New_RE_and_Conventional.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_CHE_grids\SubRES_Tmpl\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{85C69D0E-C6A2-4B6B-BF39-3C79E6D75CD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{40A61003-E65C-4FF8-A972-882AD8243A1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="6" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -815,16 +815,148 @@
     <t>pre</t>
   </si>
   <si>
+    <t>distr_elc_won-CHE_0024</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell CHE_24</t>
+  </si>
+  <si>
+    <t>NRGI</t>
+  </si>
+  <si>
+    <t>daynite</t>
+  </si>
+  <si>
+    <t>distr_elc_won-CHE_0008</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell CHE_8</t>
+  </si>
+  <si>
+    <t>distr_elc_won-CHE_0005</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell CHE_5</t>
+  </si>
+  <si>
+    <t>distr_elc_won-CHE_0020</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell CHE_20</t>
+  </si>
+  <si>
+    <t>distr_elc_won-CHE_0001</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell CHE_1</t>
+  </si>
+  <si>
+    <t>distr_elc_won-CHE_0006</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell CHE_6</t>
+  </si>
+  <si>
+    <t>distr_elc_won-CHE_0017</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell CHE_17</t>
+  </si>
+  <si>
+    <t>distr_elc_won-CHE_0019</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell CHE_19</t>
+  </si>
+  <si>
+    <t>distr_elc_won-CHE_0023</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell CHE_23</t>
+  </si>
+  <si>
     <t>distr_elc_won-CHE_0000</t>
   </si>
   <si>
     <t>connecting solar and wind to buses in grid cell CHE_0</t>
   </si>
   <si>
-    <t>NRGI</t>
-  </si>
-  <si>
-    <t>daynite</t>
+    <t>distr_elc_won-CHE_0007</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell CHE_7</t>
+  </si>
+  <si>
+    <t>distr_elc_won-CHE_0010</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell CHE_10</t>
+  </si>
+  <si>
+    <t>distr_elc_won-CHE_0022</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell CHE_22</t>
+  </si>
+  <si>
+    <t>distr_elc_won-CHE_0012</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell CHE_12</t>
+  </si>
+  <si>
+    <t>distr_elc_won-CHE_0011</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell CHE_11</t>
+  </si>
+  <si>
+    <t>distr_elc_won-CHE_0015</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell CHE_15</t>
+  </si>
+  <si>
+    <t>distr_elc_won-CHE_0025</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell CHE_25</t>
+  </si>
+  <si>
+    <t>distr_elc_won-CHE_0009</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell CHE_9</t>
+  </si>
+  <si>
+    <t>distr_elc_won-CHE_0021</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell CHE_21</t>
+  </si>
+  <si>
+    <t>distr_elc_won-CHE_0004</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell CHE_4</t>
+  </si>
+  <si>
+    <t>distr_elc_won-CHE_0014</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell CHE_14</t>
+  </si>
+  <si>
+    <t>distr_elc_won-CHE_0018</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell CHE_18</t>
+  </si>
+  <si>
+    <t>distr_elc_won-CHE_0013</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell CHE_13</t>
   </si>
   <si>
     <t>distr_elc_won-CHE_0003</t>
@@ -833,298 +965,166 @@
     <t>connecting solar and wind to buses in grid cell CHE_3</t>
   </si>
   <si>
-    <t>distr_elc_won-CHE_0012</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell CHE_12</t>
-  </si>
-  <si>
-    <t>distr_elc_won-CHE_0017</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell CHE_17</t>
-  </si>
-  <si>
-    <t>distr_elc_won-CHE_0019</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell CHE_19</t>
-  </si>
-  <si>
-    <t>distr_elc_won-CHE_0023</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell CHE_23</t>
-  </si>
-  <si>
-    <t>distr_elc_won-CHE_0013</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell CHE_13</t>
-  </si>
-  <si>
-    <t>distr_elc_won-CHE_0011</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell CHE_11</t>
-  </si>
-  <si>
-    <t>distr_elc_won-CHE_0015</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell CHE_15</t>
-  </si>
-  <si>
-    <t>distr_elc_won-CHE_0025</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell CHE_25</t>
-  </si>
-  <si>
-    <t>distr_elc_won-CHE_0010</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell CHE_10</t>
-  </si>
-  <si>
-    <t>distr_elc_won-CHE_0022</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell CHE_22</t>
-  </si>
-  <si>
-    <t>distr_elc_won-CHE_0009</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell CHE_9</t>
-  </si>
-  <si>
-    <t>distr_elc_won-CHE_0021</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell CHE_21</t>
-  </si>
-  <si>
-    <t>distr_elc_won-CHE_0004</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell CHE_4</t>
-  </si>
-  <si>
-    <t>distr_elc_won-CHE_0020</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell CHE_20</t>
-  </si>
-  <si>
-    <t>distr_elc_won-CHE_0001</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell CHE_1</t>
-  </si>
-  <si>
-    <t>distr_elc_won-CHE_0006</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell CHE_6</t>
-  </si>
-  <si>
     <t>distr_elc_won-CHE_0002</t>
   </si>
   <si>
     <t>connecting solar and wind to buses in grid cell CHE_2</t>
   </si>
   <si>
-    <t>distr_elc_won-CHE_0014</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell CHE_14</t>
-  </si>
-  <si>
-    <t>distr_elc_won-CHE_0018</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell CHE_18</t>
-  </si>
-  <si>
-    <t>distr_elc_won-CHE_0024</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell CHE_24</t>
-  </si>
-  <si>
-    <t>distr_elc_won-CHE_0008</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell CHE_8</t>
-  </si>
-  <si>
-    <t>distr_elc_won-CHE_0005</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell CHE_5</t>
-  </si>
-  <si>
-    <t>distr_elc_won-CHE_0007</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell CHE_7</t>
-  </si>
-  <si>
     <t>comm-in</t>
   </si>
   <si>
     <t>efficiency</t>
   </si>
   <si>
+    <t>elc_won-CHE_0024,elc_spv-CHE_0024</t>
+  </si>
+  <si>
+    <t>e_CH30-380,e_CH33-380,e_CH37-380,e_r7933294-380</t>
+  </si>
+  <si>
+    <t>elc_won-CHE_0008,elc_spv-CHE_0008</t>
+  </si>
+  <si>
+    <t>e_CH43-220,e_w209324991-220,e_w26166640-220,e_w402055336-220,e_w758315582-220</t>
+  </si>
+  <si>
+    <t>elc_won-CHE_0005,elc_spv-CHE_0005</t>
+  </si>
+  <si>
+    <t>e_r5378910-220,e_w161853746-220</t>
+  </si>
+  <si>
+    <t>elc_won-CHE_0020,elc_spv-CHE_0020</t>
+  </si>
+  <si>
+    <t>e_CH21-220,e_CH22-220,e_CH22-380,e_CH29-220,e_CH29-380,e_CH41-380,e_w1208713169-220,e_w207993342-220,e_w207993342-380,e_w208780268-380,e_w212498548-220,e_w36348118-220,e_w365556107-220,e_w71500123-220,e_w71500123-380</t>
+  </si>
+  <si>
+    <t>elc_won-CHE_0001,elc_spv-CHE_0001</t>
+  </si>
+  <si>
+    <t>e_CH31-220,e_w132373704-220,e_w232662311-220,e_w44496892-220,e_w55695765-220</t>
+  </si>
+  <si>
+    <t>elc_won-CHE_0006,elc_spv-CHE_0006</t>
+  </si>
+  <si>
+    <t>e_w127004407-400</t>
+  </si>
+  <si>
+    <t>elc_won-CHE_0017,elc_spv-CHE_0017</t>
+  </si>
+  <si>
+    <t>e_CH12-220,e_CH12-380,e_CH13-220,e_CH16-380,e_CH18-220,e_CH18-380,e_w192677427-220,e_w192677427-380,e_w52738225-220,e_w52738225-380</t>
+  </si>
+  <si>
+    <t>elc_won-CHE_0019,elc_spv-CHE_0019</t>
+  </si>
+  <si>
+    <t>e_CH45-220,e_w281804158-220,e_w281804158-380</t>
+  </si>
+  <si>
+    <t>elc_won-CHE_0023,elc_spv-CHE_0023</t>
+  </si>
+  <si>
+    <t>e_w207991759-380</t>
+  </si>
+  <si>
     <t>elc_won-CHE_0000,elc_spv-CHE_0000</t>
   </si>
   <si>
     <t>e_CH51-220,e_CH51-225,e_CH51-400,e_CH52-220,e_CH57-220,e_CH57-225,e_w177392130-220,e_w177392130-400,e_w239937062-220</t>
   </si>
   <si>
+    <t>elc_won-CHE_0007,elc_spv-CHE_0007</t>
+  </si>
+  <si>
+    <t>e_CH44-220,e_w212722603-220,e_w212722603-380,e_w236819191-220,e_w758943072-220</t>
+  </si>
+  <si>
+    <t>elc_won-CHE_0010,elc_spv-CHE_0010</t>
+  </si>
+  <si>
+    <t>e_CH11-220,e_w109037817-220,e_w109037817-380,e_w127004407-380,e_w127004407-400,e_w27435934-220,e_w30350721-220,e_w397960460-380,e_w397960460-400,e_w88901626-380</t>
+  </si>
+  <si>
+    <t>elc_won-CHE_0022,elc_spv-CHE_0022</t>
+  </si>
+  <si>
+    <t>e_CH4-220,e_CH9-220,e_w455120191-220,e_w83861269-220,e_w92798668-220,e_w92873516-220</t>
+  </si>
+  <si>
+    <t>elc_won-CHE_0012,elc_spv-CHE_0012</t>
+  </si>
+  <si>
+    <t>e_CH19-220,e_CH20-220,e_CH25-220,e_CH27-220,e_CH34-220,e_CH34-380,e_CH35-220,e_CH36-220,e_CH38-220,e_CH39-220,e_CH40-220,e_w1086214433-220,e_w1092884227-220,e_w240959264-220,e_w364949845-220,e_w364949845-380</t>
+  </si>
+  <si>
+    <t>elc_won-CHE_0011,elc_spv-CHE_0011</t>
+  </si>
+  <si>
+    <t>e_CH46-220,e_CH47-220,e_w228003081-220,e_w391576135-220,e_w391577741-220,e_w969819301-220,e_w969819301-380</t>
+  </si>
+  <si>
+    <t>elc_won-CHE_0015,elc_spv-CHE_0015</t>
+  </si>
+  <si>
+    <t>e_CH50-220,e_CH56-220,e_CH58-220,e_CH59-220,e_w1327084723-220,e_w281800404-220,e_w281803398-220,e_w281815404-220,e_w35487135-220</t>
+  </si>
+  <si>
+    <t>elc_won-CHE_0025,elc_spv-CHE_0025</t>
+  </si>
+  <si>
+    <t>e_r7933294-380</t>
+  </si>
+  <si>
+    <t>elc_won-CHE_0009,elc_spv-CHE_0009</t>
+  </si>
+  <si>
+    <t>e_CH14-220,e_CH14-380,e_w1105061707-220,e_w1105061707-380,e_w147557680-220,e_w165254212-220,e_w402053379-220</t>
+  </si>
+  <si>
+    <t>elc_won-CHE_0021,elc_spv-CHE_0021</t>
+  </si>
+  <si>
+    <t>e_CH17-380,e_w211907009-220</t>
+  </si>
+  <si>
+    <t>elc_won-CHE_0004,elc_spv-CHE_0004</t>
+  </si>
+  <si>
+    <t>e_w111162936-220,e_w111162936-380,e_w111162936-400,e_w122720993-220,e_w194258388-220</t>
+  </si>
+  <si>
+    <t>elc_won-CHE_0014,elc_spv-CHE_0014</t>
+  </si>
+  <si>
+    <t>e_CH1-220,e_CH2-220,e_CH5-220,e_CH7-220,e_w108257952-220,e_w1284913429-220,e_w165513396-220,e_w165513396-380,e_w190819048-220,e_w27107779-220,e_w31308888-220,e_w33271433-220,e_w356292116-220,e_w356292116-380,e_w35840165-380,e_w50319857-220,e_w50319857-380,e_w50319857-400,e_w89405664-220,e_w89977424-220,e_w98648381-220,e_w98648381-380</t>
+  </si>
+  <si>
+    <t>elc_won-CHE_0018,elc_spv-CHE_0018</t>
+  </si>
+  <si>
+    <t>e_CH3-220,e_CH6-220,e_r9310861-220,e_w11282314-220,e_w147714395-220,e_w147714395-380,e_w148015471-220,e_w22899676-220,e_w240575085-220,e_w26843160-220,e_w281809991-220,e_w50561341-220,e_w87281514-220</t>
+  </si>
+  <si>
+    <t>elc_won-CHE_0013,elc_spv-CHE_0013</t>
+  </si>
+  <si>
+    <t>e_CH15-220,e_w146225999-220,e_w159527493-220,e_w242269161-220,e_w281799252-220,e_w35002638-220,e_w35002638-380,e_w97941869-220</t>
+  </si>
+  <si>
     <t>elc_won-CHE_0003,elc_spv-CHE_0003</t>
   </si>
   <si>
     <t>e_CH48-225,e_CH49-225,e_CH53-225,e_CH60-225,e_w234983117-220,e_w234983117-380,e_w238138373-380,e_w260211728-225,e_w260211728-380,e_w55698557-220,e_w55698557-225,e_w802058337-220,e_w802058337-225,e_w936521586-380</t>
   </si>
   <si>
-    <t>elc_won-CHE_0012,elc_spv-CHE_0012</t>
-  </si>
-  <si>
-    <t>e_CH19-220,e_CH20-220,e_CH25-220,e_CH27-220,e_CH34-220,e_CH34-380,e_CH35-220,e_CH36-220,e_CH38-220,e_CH39-220,e_CH40-220,e_w1086214433-220,e_w1092884227-220,e_w240959264-220,e_w364949845-220,e_w364949845-380</t>
-  </si>
-  <si>
-    <t>elc_won-CHE_0017,elc_spv-CHE_0017</t>
-  </si>
-  <si>
-    <t>e_CH12-220,e_CH12-380,e_CH13-220,e_CH16-380,e_CH18-220,e_CH18-380,e_w192677427-220,e_w192677427-380,e_w52738225-220,e_w52738225-380</t>
-  </si>
-  <si>
-    <t>elc_won-CHE_0019,elc_spv-CHE_0019</t>
-  </si>
-  <si>
-    <t>e_CH45-220,e_w281804158-220,e_w281804158-380</t>
-  </si>
-  <si>
-    <t>elc_won-CHE_0023,elc_spv-CHE_0023</t>
-  </si>
-  <si>
-    <t>e_w207991759-380</t>
-  </si>
-  <si>
-    <t>elc_won-CHE_0013,elc_spv-CHE_0013</t>
-  </si>
-  <si>
-    <t>e_CH15-220,e_w146225999-220,e_w159527493-220,e_w242269161-220,e_w281799252-220,e_w35002638-220,e_w35002638-380,e_w97941869-220</t>
-  </si>
-  <si>
-    <t>elc_won-CHE_0011,elc_spv-CHE_0011</t>
-  </si>
-  <si>
-    <t>e_CH46-220,e_CH47-220,e_w228003081-220,e_w391576135-220,e_w391577741-220,e_w969819301-220,e_w969819301-380</t>
-  </si>
-  <si>
-    <t>elc_won-CHE_0015,elc_spv-CHE_0015</t>
-  </si>
-  <si>
-    <t>e_CH50-220,e_CH56-220,e_CH58-220,e_CH59-220,e_w1327084723-220,e_w281800404-220,e_w281803398-220,e_w281815404-220,e_w35487135-220</t>
-  </si>
-  <si>
-    <t>elc_won-CHE_0025,elc_spv-CHE_0025</t>
-  </si>
-  <si>
-    <t>e_r7933294-380</t>
-  </si>
-  <si>
-    <t>elc_won-CHE_0010,elc_spv-CHE_0010</t>
-  </si>
-  <si>
-    <t>e_CH11-220,e_w109037817-220,e_w109037817-380,e_w127004407-380,e_w127004407-400,e_w27435934-220,e_w30350721-220,e_w397960460-380,e_w397960460-400,e_w88901626-380</t>
-  </si>
-  <si>
-    <t>elc_won-CHE_0022,elc_spv-CHE_0022</t>
-  </si>
-  <si>
-    <t>e_CH4-220,e_CH9-220,e_w455120191-220,e_w83861269-220,e_w92798668-220,e_w92873516-220</t>
-  </si>
-  <si>
-    <t>elc_won-CHE_0009,elc_spv-CHE_0009</t>
-  </si>
-  <si>
-    <t>e_CH14-220,e_CH14-380,e_w1105061707-220,e_w1105061707-380,e_w147557680-220,e_w165254212-220,e_w402053379-220</t>
-  </si>
-  <si>
-    <t>elc_won-CHE_0021,elc_spv-CHE_0021</t>
-  </si>
-  <si>
-    <t>e_CH17-380,e_w211907009-220</t>
-  </si>
-  <si>
-    <t>elc_won-CHE_0004,elc_spv-CHE_0004</t>
-  </si>
-  <si>
-    <t>e_w111162936-220,e_w111162936-380,e_w111162936-400,e_w122720993-220,e_w194258388-220</t>
-  </si>
-  <si>
-    <t>elc_won-CHE_0020,elc_spv-CHE_0020</t>
-  </si>
-  <si>
-    <t>e_CH21-220,e_CH22-220,e_CH22-380,e_CH29-220,e_CH29-380,e_CH41-380,e_w1208713169-220,e_w207993342-220,e_w207993342-380,e_w208780268-380,e_w212498548-220,e_w36348118-220,e_w365556107-220,e_w71500123-220,e_w71500123-380</t>
-  </si>
-  <si>
-    <t>elc_won-CHE_0001,elc_spv-CHE_0001</t>
-  </si>
-  <si>
-    <t>e_CH31-220,e_w132373704-220,e_w232662311-220,e_w44496892-220,e_w55695765-220</t>
-  </si>
-  <si>
-    <t>elc_won-CHE_0006,elc_spv-CHE_0006</t>
-  </si>
-  <si>
-    <t>e_w127004407-400</t>
-  </si>
-  <si>
     <t>elc_won-CHE_0002,elc_spv-CHE_0002</t>
   </si>
   <si>
     <t>e_w232662311-220</t>
-  </si>
-  <si>
-    <t>elc_won-CHE_0014,elc_spv-CHE_0014</t>
-  </si>
-  <si>
-    <t>e_CH1-220,e_CH2-220,e_CH5-220,e_CH7-220,e_w108257952-220,e_w1284913429-220,e_w165513396-220,e_w165513396-380,e_w190819048-220,e_w27107779-220,e_w31308888-220,e_w33271433-220,e_w356292116-220,e_w356292116-380,e_w35840165-380,e_w50319857-220,e_w50319857-380,e_w50319857-400,e_w89405664-220,e_w89977424-220,e_w98648381-220,e_w98648381-380</t>
-  </si>
-  <si>
-    <t>elc_won-CHE_0018,elc_spv-CHE_0018</t>
-  </si>
-  <si>
-    <t>e_CH3-220,e_CH6-220,e_r9310861-220,e_w11282314-220,e_w147714395-220,e_w147714395-380,e_w148015471-220,e_w22899676-220,e_w240575085-220,e_w26843160-220,e_w281809991-220,e_w50561341-220,e_w87281514-220</t>
-  </si>
-  <si>
-    <t>elc_won-CHE_0024,elc_spv-CHE_0024</t>
-  </si>
-  <si>
-    <t>e_CH30-380,e_CH33-380,e_CH37-380,e_r7933294-380</t>
-  </si>
-  <si>
-    <t>elc_won-CHE_0008,elc_spv-CHE_0008</t>
-  </si>
-  <si>
-    <t>e_CH43-220,e_w209324991-220,e_w26166640-220,e_w402055336-220,e_w758315582-220</t>
-  </si>
-  <si>
-    <t>elc_won-CHE_0005,elc_spv-CHE_0005</t>
-  </si>
-  <si>
-    <t>e_r5378910-220,e_w161853746-220</t>
-  </si>
-  <si>
-    <t>elc_won-CHE_0007,elc_spv-CHE_0007</t>
-  </si>
-  <si>
-    <t>e_CH44-220,e_w212722603-220,e_w212722603-380,e_w236819191-220,e_w758943072-220</t>
   </si>
   <si>
     <t>e_won-CHE_0000</t>
@@ -1806,7 +1806,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CF0F741B-9592-B65F-65BA-DE06E6DC6FD6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BF28F3A2-94C6-D5B2-19A0-D8C266FACC9C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1861,7 +1861,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{18849DCD-2160-1673-F482-F9D1AB4DA896}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0CC0ED89-7F58-472C-60CC-69EA42C0E1F8}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1916,7 +1916,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F48093D5-AB15-3535-847C-F9E8C01711C6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E767E434-9F76-D5E6-E617-7775344B2ACE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1971,7 +1971,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BACFEBE6-49EF-76DC-3629-A89711B62024}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{77DBC304-ADEE-8C46-A18E-A0808CDC6628}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4474,7 +4474,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5BA5F30-C88B-4472-AAA2-7FC7D07EC7C1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7551BCB4-D829-4FAF-BE94-9BB228E1EDF7}">
   <dimension ref="A1:AG28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4685,7 +4685,7 @@
         <v>1</v>
       </c>
       <c r="AG4" s="30" t="s">
-        <v>184</v>
+        <v>216</v>
       </c>
     </row>
     <row r="5" spans="1:33">
@@ -4762,7 +4762,7 @@
         <v>1</v>
       </c>
       <c r="AG5" s="31" t="s">
-        <v>220</v>
+        <v>230</v>
       </c>
     </row>
     <row r="6" spans="1:33">
@@ -4839,7 +4839,7 @@
         <v>1</v>
       </c>
       <c r="AG6" s="30" t="s">
-        <v>192</v>
+        <v>224</v>
       </c>
     </row>
     <row r="7" spans="1:33">
@@ -4916,7 +4916,7 @@
         <v>1</v>
       </c>
       <c r="AG7" s="31" t="s">
-        <v>200</v>
+        <v>208</v>
       </c>
     </row>
     <row r="8" spans="1:33">
@@ -4993,7 +4993,7 @@
         <v>1</v>
       </c>
       <c r="AG8" s="30" t="s">
-        <v>204</v>
+        <v>186</v>
       </c>
     </row>
     <row r="9" spans="1:33">
@@ -5070,7 +5070,7 @@
         <v>1</v>
       </c>
       <c r="AG9" s="31" t="s">
-        <v>214</v>
+        <v>226</v>
       </c>
     </row>
     <row r="10" spans="1:33">
@@ -5147,7 +5147,7 @@
         <v>1</v>
       </c>
       <c r="AG10" s="30" t="s">
-        <v>194</v>
+        <v>200</v>
       </c>
     </row>
     <row r="11" spans="1:33">
@@ -5224,7 +5224,7 @@
         <v>1</v>
       </c>
       <c r="AG11" s="31" t="s">
-        <v>190</v>
+        <v>204</v>
       </c>
     </row>
     <row r="12" spans="1:33">
@@ -5301,7 +5301,7 @@
         <v>1</v>
       </c>
       <c r="AG12" s="30" t="s">
-        <v>198</v>
+        <v>214</v>
       </c>
     </row>
     <row r="13" spans="1:33">
@@ -5378,7 +5378,7 @@
         <v>1</v>
       </c>
       <c r="AG13" s="31" t="s">
-        <v>218</v>
+        <v>184</v>
       </c>
     </row>
     <row r="14" spans="1:33">
@@ -5455,7 +5455,7 @@
         <v>1</v>
       </c>
       <c r="AG14" s="30" t="s">
-        <v>188</v>
+        <v>228</v>
       </c>
     </row>
     <row r="15" spans="1:33">
@@ -5532,7 +5532,7 @@
         <v>1</v>
       </c>
       <c r="AG15" s="31" t="s">
-        <v>212</v>
+        <v>188</v>
       </c>
     </row>
     <row r="16" spans="1:33">
@@ -5609,7 +5609,7 @@
         <v>1</v>
       </c>
       <c r="AG16" s="30" t="s">
-        <v>232</v>
+        <v>212</v>
       </c>
     </row>
     <row r="17" spans="2:33">
@@ -5686,7 +5686,7 @@
         <v>1</v>
       </c>
       <c r="AG17" s="31" t="s">
-        <v>210</v>
+        <v>192</v>
       </c>
     </row>
     <row r="18" spans="2:33">
@@ -5763,7 +5763,7 @@
         <v>1</v>
       </c>
       <c r="AG18" s="30" t="s">
-        <v>222</v>
+        <v>190</v>
       </c>
     </row>
     <row r="19" spans="2:33">
@@ -5840,7 +5840,7 @@
         <v>1</v>
       </c>
       <c r="AG19" s="31" t="s">
-        <v>208</v>
+        <v>198</v>
       </c>
     </row>
     <row r="20" spans="2:33">
@@ -5917,7 +5917,7 @@
         <v>1</v>
       </c>
       <c r="AG20" s="30" t="s">
-        <v>186</v>
+        <v>218</v>
       </c>
     </row>
     <row r="21" spans="2:33">
@@ -5994,7 +5994,7 @@
         <v>1</v>
       </c>
       <c r="AG21" s="31" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
     </row>
     <row r="22" spans="2:33">
@@ -6071,7 +6071,7 @@
         <v>1</v>
       </c>
       <c r="AG22" s="30" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
     </row>
     <row r="23" spans="2:33">
@@ -6148,7 +6148,7 @@
         <v>1</v>
       </c>
       <c r="AG23" s="31" t="s">
-        <v>196</v>
+        <v>222</v>
       </c>
     </row>
     <row r="24" spans="2:33">
@@ -6225,7 +6225,7 @@
         <v>1</v>
       </c>
       <c r="AG24" s="30" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
     </row>
     <row r="25" spans="2:33">
@@ -6302,7 +6302,7 @@
         <v>1</v>
       </c>
       <c r="AG25" s="31" t="s">
-        <v>216</v>
+        <v>202</v>
       </c>
     </row>
     <row r="26" spans="2:33">
@@ -6379,7 +6379,7 @@
         <v>1</v>
       </c>
       <c r="AG26" s="30" t="s">
-        <v>230</v>
+        <v>194</v>
       </c>
     </row>
     <row r="27" spans="2:33">
@@ -6456,7 +6456,7 @@
         <v>1</v>
       </c>
       <c r="AG27" s="31" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
     </row>
     <row r="28" spans="2:33">
@@ -6533,7 +6533,7 @@
         <v>1</v>
       </c>
       <c r="AG28" s="30" t="s">
-        <v>228</v>
+        <v>206</v>
       </c>
     </row>
   </sheetData>
@@ -6546,7 +6546,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07BA8331-EEBC-4B63-81F4-2A1CFE1EF955}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C64F45C2-0808-493F-9F23-AAEB1FA62855}">
   <dimension ref="A1:O29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7624,7 +7624,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{482DA79B-7C3E-4282-9052-80F0A63E7BA2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B69DE62-022B-4FAC-94E9-82F7A49464C9}">
   <dimension ref="A1:Q69"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/VerveStacks_CHE_grids/SubRES_Tmpl/SubRES_New_RE_and_Conventional.xlsx
+++ b/VerveStacks_CHE_grids/SubRES_Tmpl/SubRES_New_RE_and_Conventional.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_CHE_grids\SubRES_Tmpl\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{40A61003-E65C-4FF8-A972-882AD8243A1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1391E9A6-3E58-4B2F-9AD6-C74E660FCAE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="6" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -815,18 +815,36 @@
     <t>pre</t>
   </si>
   <si>
+    <t>distr_elc_won-CHE_0012</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell CHE_12</t>
+  </si>
+  <si>
+    <t>NRGI</t>
+  </si>
+  <si>
+    <t>daynite</t>
+  </si>
+  <si>
+    <t>distr_elc_won-CHE_0010</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell CHE_10</t>
+  </si>
+  <si>
+    <t>distr_elc_won-CHE_0022</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell CHE_22</t>
+  </si>
+  <si>
     <t>distr_elc_won-CHE_0024</t>
   </si>
   <si>
     <t>connecting solar and wind to buses in grid cell CHE_24</t>
   </si>
   <si>
-    <t>NRGI</t>
-  </si>
-  <si>
-    <t>daynite</t>
-  </si>
-  <si>
     <t>distr_elc_won-CHE_0008</t>
   </si>
   <si>
@@ -839,6 +857,54 @@
     <t>connecting solar and wind to buses in grid cell CHE_5</t>
   </si>
   <si>
+    <t>distr_elc_won-CHE_0011</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell CHE_11</t>
+  </si>
+  <si>
+    <t>distr_elc_won-CHE_0015</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell CHE_15</t>
+  </si>
+  <si>
+    <t>distr_elc_won-CHE_0025</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell CHE_25</t>
+  </si>
+  <si>
+    <t>distr_elc_won-CHE_0003</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell CHE_3</t>
+  </si>
+  <si>
+    <t>distr_elc_won-CHE_0013</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell CHE_13</t>
+  </si>
+  <si>
+    <t>distr_elc_won-CHE_0009</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell CHE_9</t>
+  </si>
+  <si>
+    <t>distr_elc_won-CHE_0021</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell CHE_21</t>
+  </si>
+  <si>
+    <t>distr_elc_won-CHE_0004</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell CHE_4</t>
+  </si>
+  <si>
     <t>distr_elc_won-CHE_0020</t>
   </si>
   <si>
@@ -857,6 +923,18 @@
     <t>connecting solar and wind to buses in grid cell CHE_6</t>
   </si>
   <si>
+    <t>distr_elc_won-CHE_0000</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell CHE_0</t>
+  </si>
+  <si>
+    <t>distr_elc_won-CHE_0007</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell CHE_7</t>
+  </si>
+  <si>
     <t>distr_elc_won-CHE_0017</t>
   </si>
   <si>
@@ -875,70 +953,10 @@
     <t>connecting solar and wind to buses in grid cell CHE_23</t>
   </si>
   <si>
-    <t>distr_elc_won-CHE_0000</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell CHE_0</t>
-  </si>
-  <si>
-    <t>distr_elc_won-CHE_0007</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell CHE_7</t>
-  </si>
-  <si>
-    <t>distr_elc_won-CHE_0010</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell CHE_10</t>
-  </si>
-  <si>
-    <t>distr_elc_won-CHE_0022</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell CHE_22</t>
-  </si>
-  <si>
-    <t>distr_elc_won-CHE_0012</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell CHE_12</t>
-  </si>
-  <si>
-    <t>distr_elc_won-CHE_0011</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell CHE_11</t>
-  </si>
-  <si>
-    <t>distr_elc_won-CHE_0015</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell CHE_15</t>
-  </si>
-  <si>
-    <t>distr_elc_won-CHE_0025</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell CHE_25</t>
-  </si>
-  <si>
-    <t>distr_elc_won-CHE_0009</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell CHE_9</t>
-  </si>
-  <si>
-    <t>distr_elc_won-CHE_0021</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell CHE_21</t>
-  </si>
-  <si>
-    <t>distr_elc_won-CHE_0004</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell CHE_4</t>
+    <t>distr_elc_won-CHE_0002</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell CHE_2</t>
   </si>
   <si>
     <t>distr_elc_won-CHE_0014</t>
@@ -953,30 +971,30 @@
     <t>connecting solar and wind to buses in grid cell CHE_18</t>
   </si>
   <si>
-    <t>distr_elc_won-CHE_0013</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell CHE_13</t>
-  </si>
-  <si>
-    <t>distr_elc_won-CHE_0003</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell CHE_3</t>
-  </si>
-  <si>
-    <t>distr_elc_won-CHE_0002</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell CHE_2</t>
-  </si>
-  <si>
     <t>comm-in</t>
   </si>
   <si>
     <t>efficiency</t>
   </si>
   <si>
+    <t>elc_won-CHE_0012,elc_spv-CHE_0012</t>
+  </si>
+  <si>
+    <t>e_CH19-220,e_CH20-220,e_CH25-220,e_CH27-220,e_CH34-220,e_CH34-380,e_CH35-220,e_CH36-220,e_CH38-220,e_CH39-220,e_CH40-220,e_w1086214433-220,e_w1092884227-220,e_w240959264-220,e_w364949845-220,e_w364949845-380</t>
+  </si>
+  <si>
+    <t>elc_won-CHE_0010,elc_spv-CHE_0010</t>
+  </si>
+  <si>
+    <t>e_CH11-220,e_w109037817-220,e_w109037817-380,e_w127004407-380,e_w127004407-400,e_w27435934-220,e_w30350721-220,e_w397960460-380,e_w397960460-400,e_w88901626-380</t>
+  </si>
+  <si>
+    <t>elc_won-CHE_0022,elc_spv-CHE_0022</t>
+  </si>
+  <si>
+    <t>e_CH4-220,e_CH9-220,e_w455120191-220,e_w83861269-220,e_w92798668-220,e_w92873516-220</t>
+  </si>
+  <si>
     <t>elc_won-CHE_0024,elc_spv-CHE_0024</t>
   </si>
   <si>
@@ -995,6 +1013,54 @@
     <t>e_r5378910-220,e_w161853746-220</t>
   </si>
   <si>
+    <t>elc_won-CHE_0011,elc_spv-CHE_0011</t>
+  </si>
+  <si>
+    <t>e_CH46-220,e_CH47-220,e_w228003081-220,e_w391576135-220,e_w391577741-220,e_w969819301-220,e_w969819301-380</t>
+  </si>
+  <si>
+    <t>elc_won-CHE_0015,elc_spv-CHE_0015</t>
+  </si>
+  <si>
+    <t>e_CH50-220,e_CH56-220,e_CH58-220,e_CH59-220,e_w1327084723-220,e_w281800404-220,e_w281803398-220,e_w281815404-220,e_w35487135-220</t>
+  </si>
+  <si>
+    <t>elc_won-CHE_0025,elc_spv-CHE_0025</t>
+  </si>
+  <si>
+    <t>e_r7933294-380</t>
+  </si>
+  <si>
+    <t>elc_won-CHE_0003,elc_spv-CHE_0003</t>
+  </si>
+  <si>
+    <t>e_CH48-225,e_CH49-225,e_CH53-225,e_CH60-225,e_w234983117-220,e_w234983117-380,e_w238138373-380,e_w260211728-225,e_w260211728-380,e_w55698557-220,e_w55698557-225,e_w802058337-220,e_w802058337-225,e_w936521586-380</t>
+  </si>
+  <si>
+    <t>elc_won-CHE_0013,elc_spv-CHE_0013</t>
+  </si>
+  <si>
+    <t>e_CH15-220,e_w146225999-220,e_w159527493-220,e_w242269161-220,e_w281799252-220,e_w35002638-220,e_w35002638-380,e_w97941869-220</t>
+  </si>
+  <si>
+    <t>elc_won-CHE_0009,elc_spv-CHE_0009</t>
+  </si>
+  <si>
+    <t>e_CH14-220,e_CH14-380,e_w1105061707-220,e_w1105061707-380,e_w147557680-220,e_w165254212-220,e_w402053379-220</t>
+  </si>
+  <si>
+    <t>elc_won-CHE_0021,elc_spv-CHE_0021</t>
+  </si>
+  <si>
+    <t>e_CH17-380,e_w211907009-220</t>
+  </si>
+  <si>
+    <t>elc_won-CHE_0004,elc_spv-CHE_0004</t>
+  </si>
+  <si>
+    <t>e_w111162936-220,e_w111162936-380,e_w111162936-400,e_w122720993-220,e_w194258388-220</t>
+  </si>
+  <si>
     <t>elc_won-CHE_0020,elc_spv-CHE_0020</t>
   </si>
   <si>
@@ -1013,6 +1079,18 @@
     <t>e_w127004407-400</t>
   </si>
   <si>
+    <t>elc_won-CHE_0000,elc_spv-CHE_0000</t>
+  </si>
+  <si>
+    <t>e_CH51-220,e_CH51-225,e_CH51-400,e_CH52-220,e_CH57-220,e_CH57-225,e_w177392130-220,e_w177392130-400,e_w239937062-220</t>
+  </si>
+  <si>
+    <t>elc_won-CHE_0007,elc_spv-CHE_0007</t>
+  </si>
+  <si>
+    <t>e_CH44-220,e_w212722603-220,e_w212722603-380,e_w236819191-220,e_w758943072-220</t>
+  </si>
+  <si>
     <t>elc_won-CHE_0017,elc_spv-CHE_0017</t>
   </si>
   <si>
@@ -1031,70 +1109,10 @@
     <t>e_w207991759-380</t>
   </si>
   <si>
-    <t>elc_won-CHE_0000,elc_spv-CHE_0000</t>
-  </si>
-  <si>
-    <t>e_CH51-220,e_CH51-225,e_CH51-400,e_CH52-220,e_CH57-220,e_CH57-225,e_w177392130-220,e_w177392130-400,e_w239937062-220</t>
-  </si>
-  <si>
-    <t>elc_won-CHE_0007,elc_spv-CHE_0007</t>
-  </si>
-  <si>
-    <t>e_CH44-220,e_w212722603-220,e_w212722603-380,e_w236819191-220,e_w758943072-220</t>
-  </si>
-  <si>
-    <t>elc_won-CHE_0010,elc_spv-CHE_0010</t>
-  </si>
-  <si>
-    <t>e_CH11-220,e_w109037817-220,e_w109037817-380,e_w127004407-380,e_w127004407-400,e_w27435934-220,e_w30350721-220,e_w397960460-380,e_w397960460-400,e_w88901626-380</t>
-  </si>
-  <si>
-    <t>elc_won-CHE_0022,elc_spv-CHE_0022</t>
-  </si>
-  <si>
-    <t>e_CH4-220,e_CH9-220,e_w455120191-220,e_w83861269-220,e_w92798668-220,e_w92873516-220</t>
-  </si>
-  <si>
-    <t>elc_won-CHE_0012,elc_spv-CHE_0012</t>
-  </si>
-  <si>
-    <t>e_CH19-220,e_CH20-220,e_CH25-220,e_CH27-220,e_CH34-220,e_CH34-380,e_CH35-220,e_CH36-220,e_CH38-220,e_CH39-220,e_CH40-220,e_w1086214433-220,e_w1092884227-220,e_w240959264-220,e_w364949845-220,e_w364949845-380</t>
-  </si>
-  <si>
-    <t>elc_won-CHE_0011,elc_spv-CHE_0011</t>
-  </si>
-  <si>
-    <t>e_CH46-220,e_CH47-220,e_w228003081-220,e_w391576135-220,e_w391577741-220,e_w969819301-220,e_w969819301-380</t>
-  </si>
-  <si>
-    <t>elc_won-CHE_0015,elc_spv-CHE_0015</t>
-  </si>
-  <si>
-    <t>e_CH50-220,e_CH56-220,e_CH58-220,e_CH59-220,e_w1327084723-220,e_w281800404-220,e_w281803398-220,e_w281815404-220,e_w35487135-220</t>
-  </si>
-  <si>
-    <t>elc_won-CHE_0025,elc_spv-CHE_0025</t>
-  </si>
-  <si>
-    <t>e_r7933294-380</t>
-  </si>
-  <si>
-    <t>elc_won-CHE_0009,elc_spv-CHE_0009</t>
-  </si>
-  <si>
-    <t>e_CH14-220,e_CH14-380,e_w1105061707-220,e_w1105061707-380,e_w147557680-220,e_w165254212-220,e_w402053379-220</t>
-  </si>
-  <si>
-    <t>elc_won-CHE_0021,elc_spv-CHE_0021</t>
-  </si>
-  <si>
-    <t>e_CH17-380,e_w211907009-220</t>
-  </si>
-  <si>
-    <t>elc_won-CHE_0004,elc_spv-CHE_0004</t>
-  </si>
-  <si>
-    <t>e_w111162936-220,e_w111162936-380,e_w111162936-400,e_w122720993-220,e_w194258388-220</t>
+    <t>elc_won-CHE_0002,elc_spv-CHE_0002</t>
+  </si>
+  <si>
+    <t>e_w232662311-220</t>
   </si>
   <si>
     <t>elc_won-CHE_0014,elc_spv-CHE_0014</t>
@@ -1107,24 +1125,6 @@
   </si>
   <si>
     <t>e_CH3-220,e_CH6-220,e_r9310861-220,e_w11282314-220,e_w147714395-220,e_w147714395-380,e_w148015471-220,e_w22899676-220,e_w240575085-220,e_w26843160-220,e_w281809991-220,e_w50561341-220,e_w87281514-220</t>
-  </si>
-  <si>
-    <t>elc_won-CHE_0013,elc_spv-CHE_0013</t>
-  </si>
-  <si>
-    <t>e_CH15-220,e_w146225999-220,e_w159527493-220,e_w242269161-220,e_w281799252-220,e_w35002638-220,e_w35002638-380,e_w97941869-220</t>
-  </si>
-  <si>
-    <t>elc_won-CHE_0003,elc_spv-CHE_0003</t>
-  </si>
-  <si>
-    <t>e_CH48-225,e_CH49-225,e_CH53-225,e_CH60-225,e_w234983117-220,e_w234983117-380,e_w238138373-380,e_w260211728-225,e_w260211728-380,e_w55698557-220,e_w55698557-225,e_w802058337-220,e_w802058337-225,e_w936521586-380</t>
-  </si>
-  <si>
-    <t>elc_won-CHE_0002,elc_spv-CHE_0002</t>
-  </si>
-  <si>
-    <t>e_w232662311-220</t>
   </si>
   <si>
     <t>e_won-CHE_0000</t>
@@ -1806,7 +1806,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BF28F3A2-94C6-D5B2-19A0-D8C266FACC9C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2F17D264-5E50-DE69-D291-F1EF8E19FF54}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1861,7 +1861,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0CC0ED89-7F58-472C-60CC-69EA42C0E1F8}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B02FF1A7-0B49-7227-DB3B-D6303749606F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1916,7 +1916,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E767E434-9F76-D5E6-E617-7775344B2ACE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5E957ECC-F612-591A-57B1-D83711BB66D3}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1971,7 +1971,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{77DBC304-ADEE-8C46-A18E-A0808CDC6628}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A7959F6A-AD9B-A5BB-E277-3B2D0F02260A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4474,7 +4474,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7551BCB4-D829-4FAF-BE94-9BB228E1EDF7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13620E3B-38BE-4480-80DD-8A13EA67A3BD}">
   <dimension ref="A1:AG28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4685,7 +4685,7 @@
         <v>1</v>
       </c>
       <c r="AG4" s="30" t="s">
-        <v>216</v>
+        <v>192</v>
       </c>
     </row>
     <row r="5" spans="1:33">
@@ -4762,7 +4762,7 @@
         <v>1</v>
       </c>
       <c r="AG5" s="31" t="s">
-        <v>230</v>
+        <v>188</v>
       </c>
     </row>
     <row r="6" spans="1:33">
@@ -4839,7 +4839,7 @@
         <v>1</v>
       </c>
       <c r="AG6" s="30" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
     </row>
     <row r="7" spans="1:33">
@@ -4916,7 +4916,7 @@
         <v>1</v>
       </c>
       <c r="AG7" s="31" t="s">
-        <v>208</v>
+        <v>216</v>
       </c>
     </row>
     <row r="8" spans="1:33">
@@ -4993,7 +4993,7 @@
         <v>1</v>
       </c>
       <c r="AG8" s="30" t="s">
-        <v>186</v>
+        <v>230</v>
       </c>
     </row>
     <row r="9" spans="1:33">
@@ -5070,7 +5070,7 @@
         <v>1</v>
       </c>
       <c r="AG9" s="31" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
     </row>
     <row r="10" spans="1:33">
@@ -5147,7 +5147,7 @@
         <v>1</v>
       </c>
       <c r="AG10" s="30" t="s">
-        <v>200</v>
+        <v>190</v>
       </c>
     </row>
     <row r="11" spans="1:33">
@@ -5224,7 +5224,7 @@
         <v>1</v>
       </c>
       <c r="AG11" s="31" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
     </row>
     <row r="12" spans="1:33">
@@ -5301,7 +5301,7 @@
         <v>1</v>
       </c>
       <c r="AG12" s="30" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
     </row>
     <row r="13" spans="1:33">
@@ -5378,7 +5378,7 @@
         <v>1</v>
       </c>
       <c r="AG13" s="31" t="s">
-        <v>184</v>
+        <v>220</v>
       </c>
     </row>
     <row r="14" spans="1:33">
@@ -5455,7 +5455,7 @@
         <v>1</v>
       </c>
       <c r="AG14" s="30" t="s">
-        <v>228</v>
+        <v>194</v>
       </c>
     </row>
     <row r="15" spans="1:33">
@@ -5532,7 +5532,7 @@
         <v>1</v>
       </c>
       <c r="AG15" s="31" t="s">
-        <v>188</v>
+        <v>232</v>
       </c>
     </row>
     <row r="16" spans="1:33">
@@ -5609,7 +5609,7 @@
         <v>1</v>
       </c>
       <c r="AG16" s="30" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="17" spans="2:33">
@@ -5686,7 +5686,7 @@
         <v>1</v>
       </c>
       <c r="AG17" s="31" t="s">
-        <v>192</v>
+        <v>222</v>
       </c>
     </row>
     <row r="18" spans="2:33">
@@ -5763,7 +5763,7 @@
         <v>1</v>
       </c>
       <c r="AG18" s="30" t="s">
-        <v>190</v>
+        <v>208</v>
       </c>
     </row>
     <row r="19" spans="2:33">
@@ -5840,7 +5840,7 @@
         <v>1</v>
       </c>
       <c r="AG19" s="31" t="s">
-        <v>198</v>
+        <v>186</v>
       </c>
     </row>
     <row r="20" spans="2:33">
@@ -5917,7 +5917,7 @@
         <v>1</v>
       </c>
       <c r="AG20" s="30" t="s">
-        <v>218</v>
+        <v>226</v>
       </c>
     </row>
     <row r="21" spans="2:33">
@@ -5994,7 +5994,7 @@
         <v>1</v>
       </c>
       <c r="AG21" s="31" t="s">
-        <v>232</v>
+        <v>184</v>
       </c>
     </row>
     <row r="22" spans="2:33">
@@ -6071,7 +6071,7 @@
         <v>1</v>
       </c>
       <c r="AG22" s="30" t="s">
-        <v>210</v>
+        <v>228</v>
       </c>
     </row>
     <row r="23" spans="2:33">
@@ -6148,7 +6148,7 @@
         <v>1</v>
       </c>
       <c r="AG23" s="31" t="s">
-        <v>222</v>
+        <v>200</v>
       </c>
     </row>
     <row r="24" spans="2:33">
@@ -6225,7 +6225,7 @@
         <v>1</v>
       </c>
       <c r="AG24" s="30" t="s">
-        <v>196</v>
+        <v>204</v>
       </c>
     </row>
     <row r="25" spans="2:33">
@@ -6302,7 +6302,7 @@
         <v>1</v>
       </c>
       <c r="AG25" s="31" t="s">
-        <v>202</v>
+        <v>214</v>
       </c>
     </row>
     <row r="26" spans="2:33">
@@ -6379,7 +6379,7 @@
         <v>1</v>
       </c>
       <c r="AG26" s="30" t="s">
-        <v>194</v>
+        <v>206</v>
       </c>
     </row>
     <row r="27" spans="2:33">
@@ -6456,7 +6456,7 @@
         <v>1</v>
       </c>
       <c r="AG27" s="31" t="s">
-        <v>220</v>
+        <v>196</v>
       </c>
     </row>
     <row r="28" spans="2:33">
@@ -6533,7 +6533,7 @@
         <v>1</v>
       </c>
       <c r="AG28" s="30" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
     </row>
   </sheetData>
@@ -6546,7 +6546,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C64F45C2-0808-493F-9F23-AAEB1FA62855}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FC03E67-18D9-4439-912F-8493FF8D6601}">
   <dimension ref="A1:O29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7624,7 +7624,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B69DE62-022B-4FAC-94E9-82F7A49464C9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3A255EC-1759-44A2-8189-C0410C97F9E6}">
   <dimension ref="A1:Q69"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/VerveStacks_CHE_grids/SubRES_Tmpl/SubRES_New_RE_and_Conventional.xlsx
+++ b/VerveStacks_CHE_grids/SubRES_Tmpl/SubRES_New_RE_and_Conventional.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_CHE_grids\SubRES_Tmpl\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1391E9A6-3E58-4B2F-9AD6-C74E660FCAE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E8A743A8-EDB3-49D0-AFA7-E1874C979349}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="6" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -815,316 +815,316 @@
     <t>pre</t>
   </si>
   <si>
+    <t>distr_elc_won-CHE_0000</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell CHE_0</t>
+  </si>
+  <si>
+    <t>NRGI</t>
+  </si>
+  <si>
+    <t>daynite</t>
+  </si>
+  <si>
+    <t>distr_elc_won-CHE_0003</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell CHE_3</t>
+  </si>
+  <si>
+    <t>distr_elc_won-CHE_0010</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell CHE_10</t>
+  </si>
+  <si>
+    <t>distr_elc_won-CHE_0022</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell CHE_22</t>
+  </si>
+  <si>
+    <t>distr_elc_won-CHE_0017</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell CHE_17</t>
+  </si>
+  <si>
+    <t>distr_elc_won-CHE_0019</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell CHE_19</t>
+  </si>
+  <si>
+    <t>distr_elc_won-CHE_0023</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell CHE_23</t>
+  </si>
+  <si>
+    <t>distr_elc_won-CHE_0011</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell CHE_11</t>
+  </si>
+  <si>
+    <t>distr_elc_won-CHE_0015</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell CHE_15</t>
+  </si>
+  <si>
+    <t>distr_elc_won-CHE_0025</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell CHE_25</t>
+  </si>
+  <si>
+    <t>distr_elc_won-CHE_0002</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell CHE_2</t>
+  </si>
+  <si>
+    <t>distr_elc_won-CHE_0020</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell CHE_20</t>
+  </si>
+  <si>
+    <t>distr_elc_won-CHE_0001</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell CHE_1</t>
+  </si>
+  <si>
+    <t>distr_elc_won-CHE_0006</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell CHE_6</t>
+  </si>
+  <si>
+    <t>distr_elc_won-CHE_0024</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell CHE_24</t>
+  </si>
+  <si>
+    <t>distr_elc_won-CHE_0008</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell CHE_8</t>
+  </si>
+  <si>
+    <t>distr_elc_won-CHE_0005</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell CHE_5</t>
+  </si>
+  <si>
+    <t>distr_elc_won-CHE_0007</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell CHE_7</t>
+  </si>
+  <si>
+    <t>distr_elc_won-CHE_0013</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell CHE_13</t>
+  </si>
+  <si>
+    <t>distr_elc_won-CHE_0014</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell CHE_14</t>
+  </si>
+  <si>
+    <t>distr_elc_won-CHE_0018</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell CHE_18</t>
+  </si>
+  <si>
+    <t>distr_elc_won-CHE_0009</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell CHE_9</t>
+  </si>
+  <si>
+    <t>distr_elc_won-CHE_0021</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell CHE_21</t>
+  </si>
+  <si>
+    <t>distr_elc_won-CHE_0004</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell CHE_4</t>
+  </si>
+  <si>
     <t>distr_elc_won-CHE_0012</t>
   </si>
   <si>
     <t>connecting solar and wind to buses in grid cell CHE_12</t>
   </si>
   <si>
-    <t>NRGI</t>
-  </si>
-  <si>
-    <t>daynite</t>
-  </si>
-  <si>
-    <t>distr_elc_won-CHE_0010</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell CHE_10</t>
-  </si>
-  <si>
-    <t>distr_elc_won-CHE_0022</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell CHE_22</t>
-  </si>
-  <si>
-    <t>distr_elc_won-CHE_0024</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell CHE_24</t>
-  </si>
-  <si>
-    <t>distr_elc_won-CHE_0008</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell CHE_8</t>
-  </si>
-  <si>
-    <t>distr_elc_won-CHE_0005</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell CHE_5</t>
-  </si>
-  <si>
-    <t>distr_elc_won-CHE_0011</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell CHE_11</t>
-  </si>
-  <si>
-    <t>distr_elc_won-CHE_0015</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell CHE_15</t>
-  </si>
-  <si>
-    <t>distr_elc_won-CHE_0025</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell CHE_25</t>
-  </si>
-  <si>
-    <t>distr_elc_won-CHE_0003</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell CHE_3</t>
-  </si>
-  <si>
-    <t>distr_elc_won-CHE_0013</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell CHE_13</t>
-  </si>
-  <si>
-    <t>distr_elc_won-CHE_0009</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell CHE_9</t>
-  </si>
-  <si>
-    <t>distr_elc_won-CHE_0021</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell CHE_21</t>
-  </si>
-  <si>
-    <t>distr_elc_won-CHE_0004</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell CHE_4</t>
-  </si>
-  <si>
-    <t>distr_elc_won-CHE_0020</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell CHE_20</t>
-  </si>
-  <si>
-    <t>distr_elc_won-CHE_0001</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell CHE_1</t>
-  </si>
-  <si>
-    <t>distr_elc_won-CHE_0006</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell CHE_6</t>
-  </si>
-  <si>
-    <t>distr_elc_won-CHE_0000</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell CHE_0</t>
-  </si>
-  <si>
-    <t>distr_elc_won-CHE_0007</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell CHE_7</t>
-  </si>
-  <si>
-    <t>distr_elc_won-CHE_0017</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell CHE_17</t>
-  </si>
-  <si>
-    <t>distr_elc_won-CHE_0019</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell CHE_19</t>
-  </si>
-  <si>
-    <t>distr_elc_won-CHE_0023</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell CHE_23</t>
-  </si>
-  <si>
-    <t>distr_elc_won-CHE_0002</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell CHE_2</t>
-  </si>
-  <si>
-    <t>distr_elc_won-CHE_0014</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell CHE_14</t>
-  </si>
-  <si>
-    <t>distr_elc_won-CHE_0018</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell CHE_18</t>
-  </si>
-  <si>
     <t>comm-in</t>
   </si>
   <si>
     <t>efficiency</t>
   </si>
   <si>
+    <t>elc_won-CHE_0000,elc_spv-CHE_0000</t>
+  </si>
+  <si>
+    <t>e_CH51-220,e_CH51-225,e_CH51-400,e_CH52-220,e_CH57-220,e_CH57-225,e_w177392130-220,e_w177392130-400,e_w239937062-220</t>
+  </si>
+  <si>
+    <t>elc_won-CHE_0003,elc_spv-CHE_0003</t>
+  </si>
+  <si>
+    <t>e_CH48-225,e_CH49-225,e_CH53-225,e_CH60-225,e_w234983117-220,e_w234983117-380,e_w238138373-380,e_w260211728-225,e_w260211728-380,e_w55698557-220,e_w55698557-225,e_w802058337-220,e_w802058337-225,e_w936521586-380</t>
+  </si>
+  <si>
+    <t>elc_won-CHE_0010,elc_spv-CHE_0010</t>
+  </si>
+  <si>
+    <t>e_CH11-220,e_w109037817-220,e_w109037817-380,e_w127004407-380,e_w127004407-400,e_w27435934-220,e_w30350721-220,e_w397960460-380,e_w397960460-400,e_w88901626-380</t>
+  </si>
+  <si>
+    <t>elc_won-CHE_0022,elc_spv-CHE_0022</t>
+  </si>
+  <si>
+    <t>e_CH4-220,e_CH9-220,e_w455120191-220,e_w83861269-220,e_w92798668-220,e_w92873516-220</t>
+  </si>
+  <si>
+    <t>elc_won-CHE_0017,elc_spv-CHE_0017</t>
+  </si>
+  <si>
+    <t>e_CH12-220,e_CH12-380,e_CH13-220,e_CH16-380,e_CH18-220,e_CH18-380,e_w192677427-220,e_w192677427-380,e_w52738225-220,e_w52738225-380</t>
+  </si>
+  <si>
+    <t>elc_won-CHE_0019,elc_spv-CHE_0019</t>
+  </si>
+  <si>
+    <t>e_CH45-220,e_w281804158-220,e_w281804158-380</t>
+  </si>
+  <si>
+    <t>elc_won-CHE_0023,elc_spv-CHE_0023</t>
+  </si>
+  <si>
+    <t>e_w207991759-380</t>
+  </si>
+  <si>
+    <t>elc_won-CHE_0011,elc_spv-CHE_0011</t>
+  </si>
+  <si>
+    <t>e_CH46-220,e_CH47-220,e_w228003081-220,e_w391576135-220,e_w391577741-220,e_w969819301-220,e_w969819301-380</t>
+  </si>
+  <si>
+    <t>elc_won-CHE_0015,elc_spv-CHE_0015</t>
+  </si>
+  <si>
+    <t>e_CH50-220,e_CH56-220,e_CH58-220,e_CH59-220,e_w1327084723-220,e_w281800404-220,e_w281803398-220,e_w281815404-220,e_w35487135-220</t>
+  </si>
+  <si>
+    <t>elc_won-CHE_0025,elc_spv-CHE_0025</t>
+  </si>
+  <si>
+    <t>e_r7933294-380</t>
+  </si>
+  <si>
+    <t>elc_won-CHE_0002,elc_spv-CHE_0002</t>
+  </si>
+  <si>
+    <t>e_w232662311-220</t>
+  </si>
+  <si>
+    <t>elc_won-CHE_0020,elc_spv-CHE_0020</t>
+  </si>
+  <si>
+    <t>e_CH21-220,e_CH22-220,e_CH22-380,e_CH29-220,e_CH29-380,e_CH41-380,e_w1208713169-220,e_w207993342-220,e_w207993342-380,e_w208780268-380,e_w212498548-220,e_w36348118-220,e_w365556107-220,e_w71500123-220,e_w71500123-380</t>
+  </si>
+  <si>
+    <t>elc_won-CHE_0001,elc_spv-CHE_0001</t>
+  </si>
+  <si>
+    <t>e_CH31-220,e_w132373704-220,e_w232662311-220,e_w44496892-220,e_w55695765-220</t>
+  </si>
+  <si>
+    <t>elc_won-CHE_0006,elc_spv-CHE_0006</t>
+  </si>
+  <si>
+    <t>e_w127004407-400</t>
+  </si>
+  <si>
+    <t>elc_won-CHE_0024,elc_spv-CHE_0024</t>
+  </si>
+  <si>
+    <t>e_CH30-380,e_CH33-380,e_CH37-380,e_r7933294-380</t>
+  </si>
+  <si>
+    <t>elc_won-CHE_0008,elc_spv-CHE_0008</t>
+  </si>
+  <si>
+    <t>e_CH43-220,e_w209324991-220,e_w26166640-220,e_w402055336-220,e_w758315582-220</t>
+  </si>
+  <si>
+    <t>elc_won-CHE_0005,elc_spv-CHE_0005</t>
+  </si>
+  <si>
+    <t>e_r5378910-220,e_w161853746-220</t>
+  </si>
+  <si>
+    <t>elc_won-CHE_0007,elc_spv-CHE_0007</t>
+  </si>
+  <si>
+    <t>e_CH44-220,e_w212722603-220,e_w212722603-380,e_w236819191-220,e_w758943072-220</t>
+  </si>
+  <si>
+    <t>elc_won-CHE_0013,elc_spv-CHE_0013</t>
+  </si>
+  <si>
+    <t>e_CH15-220,e_w146225999-220,e_w159527493-220,e_w242269161-220,e_w281799252-220,e_w35002638-220,e_w35002638-380,e_w97941869-220</t>
+  </si>
+  <si>
+    <t>elc_won-CHE_0014,elc_spv-CHE_0014</t>
+  </si>
+  <si>
+    <t>e_CH1-220,e_CH2-220,e_CH5-220,e_CH7-220,e_w108257952-220,e_w1284913429-220,e_w165513396-220,e_w165513396-380,e_w190819048-220,e_w27107779-220,e_w31308888-220,e_w33271433-220,e_w356292116-220,e_w356292116-380,e_w35840165-380,e_w50319857-220,e_w50319857-380,e_w50319857-400,e_w89405664-220,e_w89977424-220,e_w98648381-220,e_w98648381-380</t>
+  </si>
+  <si>
+    <t>elc_won-CHE_0018,elc_spv-CHE_0018</t>
+  </si>
+  <si>
+    <t>e_CH3-220,e_CH6-220,e_r9310861-220,e_w11282314-220,e_w147714395-220,e_w147714395-380,e_w148015471-220,e_w22899676-220,e_w240575085-220,e_w26843160-220,e_w281809991-220,e_w50561341-220,e_w87281514-220</t>
+  </si>
+  <si>
+    <t>elc_won-CHE_0009,elc_spv-CHE_0009</t>
+  </si>
+  <si>
+    <t>e_CH14-220,e_CH14-380,e_w1105061707-220,e_w1105061707-380,e_w147557680-220,e_w165254212-220,e_w402053379-220</t>
+  </si>
+  <si>
+    <t>elc_won-CHE_0021,elc_spv-CHE_0021</t>
+  </si>
+  <si>
+    <t>e_CH17-380,e_w211907009-220</t>
+  </si>
+  <si>
+    <t>elc_won-CHE_0004,elc_spv-CHE_0004</t>
+  </si>
+  <si>
+    <t>e_w111162936-220,e_w111162936-380,e_w111162936-400,e_w122720993-220,e_w194258388-220</t>
+  </si>
+  <si>
     <t>elc_won-CHE_0012,elc_spv-CHE_0012</t>
   </si>
   <si>
     <t>e_CH19-220,e_CH20-220,e_CH25-220,e_CH27-220,e_CH34-220,e_CH34-380,e_CH35-220,e_CH36-220,e_CH38-220,e_CH39-220,e_CH40-220,e_w1086214433-220,e_w1092884227-220,e_w240959264-220,e_w364949845-220,e_w364949845-380</t>
-  </si>
-  <si>
-    <t>elc_won-CHE_0010,elc_spv-CHE_0010</t>
-  </si>
-  <si>
-    <t>e_CH11-220,e_w109037817-220,e_w109037817-380,e_w127004407-380,e_w127004407-400,e_w27435934-220,e_w30350721-220,e_w397960460-380,e_w397960460-400,e_w88901626-380</t>
-  </si>
-  <si>
-    <t>elc_won-CHE_0022,elc_spv-CHE_0022</t>
-  </si>
-  <si>
-    <t>e_CH4-220,e_CH9-220,e_w455120191-220,e_w83861269-220,e_w92798668-220,e_w92873516-220</t>
-  </si>
-  <si>
-    <t>elc_won-CHE_0024,elc_spv-CHE_0024</t>
-  </si>
-  <si>
-    <t>e_CH30-380,e_CH33-380,e_CH37-380,e_r7933294-380</t>
-  </si>
-  <si>
-    <t>elc_won-CHE_0008,elc_spv-CHE_0008</t>
-  </si>
-  <si>
-    <t>e_CH43-220,e_w209324991-220,e_w26166640-220,e_w402055336-220,e_w758315582-220</t>
-  </si>
-  <si>
-    <t>elc_won-CHE_0005,elc_spv-CHE_0005</t>
-  </si>
-  <si>
-    <t>e_r5378910-220,e_w161853746-220</t>
-  </si>
-  <si>
-    <t>elc_won-CHE_0011,elc_spv-CHE_0011</t>
-  </si>
-  <si>
-    <t>e_CH46-220,e_CH47-220,e_w228003081-220,e_w391576135-220,e_w391577741-220,e_w969819301-220,e_w969819301-380</t>
-  </si>
-  <si>
-    <t>elc_won-CHE_0015,elc_spv-CHE_0015</t>
-  </si>
-  <si>
-    <t>e_CH50-220,e_CH56-220,e_CH58-220,e_CH59-220,e_w1327084723-220,e_w281800404-220,e_w281803398-220,e_w281815404-220,e_w35487135-220</t>
-  </si>
-  <si>
-    <t>elc_won-CHE_0025,elc_spv-CHE_0025</t>
-  </si>
-  <si>
-    <t>e_r7933294-380</t>
-  </si>
-  <si>
-    <t>elc_won-CHE_0003,elc_spv-CHE_0003</t>
-  </si>
-  <si>
-    <t>e_CH48-225,e_CH49-225,e_CH53-225,e_CH60-225,e_w234983117-220,e_w234983117-380,e_w238138373-380,e_w260211728-225,e_w260211728-380,e_w55698557-220,e_w55698557-225,e_w802058337-220,e_w802058337-225,e_w936521586-380</t>
-  </si>
-  <si>
-    <t>elc_won-CHE_0013,elc_spv-CHE_0013</t>
-  </si>
-  <si>
-    <t>e_CH15-220,e_w146225999-220,e_w159527493-220,e_w242269161-220,e_w281799252-220,e_w35002638-220,e_w35002638-380,e_w97941869-220</t>
-  </si>
-  <si>
-    <t>elc_won-CHE_0009,elc_spv-CHE_0009</t>
-  </si>
-  <si>
-    <t>e_CH14-220,e_CH14-380,e_w1105061707-220,e_w1105061707-380,e_w147557680-220,e_w165254212-220,e_w402053379-220</t>
-  </si>
-  <si>
-    <t>elc_won-CHE_0021,elc_spv-CHE_0021</t>
-  </si>
-  <si>
-    <t>e_CH17-380,e_w211907009-220</t>
-  </si>
-  <si>
-    <t>elc_won-CHE_0004,elc_spv-CHE_0004</t>
-  </si>
-  <si>
-    <t>e_w111162936-220,e_w111162936-380,e_w111162936-400,e_w122720993-220,e_w194258388-220</t>
-  </si>
-  <si>
-    <t>elc_won-CHE_0020,elc_spv-CHE_0020</t>
-  </si>
-  <si>
-    <t>e_CH21-220,e_CH22-220,e_CH22-380,e_CH29-220,e_CH29-380,e_CH41-380,e_w1208713169-220,e_w207993342-220,e_w207993342-380,e_w208780268-380,e_w212498548-220,e_w36348118-220,e_w365556107-220,e_w71500123-220,e_w71500123-380</t>
-  </si>
-  <si>
-    <t>elc_won-CHE_0001,elc_spv-CHE_0001</t>
-  </si>
-  <si>
-    <t>e_CH31-220,e_w132373704-220,e_w232662311-220,e_w44496892-220,e_w55695765-220</t>
-  </si>
-  <si>
-    <t>elc_won-CHE_0006,elc_spv-CHE_0006</t>
-  </si>
-  <si>
-    <t>e_w127004407-400</t>
-  </si>
-  <si>
-    <t>elc_won-CHE_0000,elc_spv-CHE_0000</t>
-  </si>
-  <si>
-    <t>e_CH51-220,e_CH51-225,e_CH51-400,e_CH52-220,e_CH57-220,e_CH57-225,e_w177392130-220,e_w177392130-400,e_w239937062-220</t>
-  </si>
-  <si>
-    <t>elc_won-CHE_0007,elc_spv-CHE_0007</t>
-  </si>
-  <si>
-    <t>e_CH44-220,e_w212722603-220,e_w212722603-380,e_w236819191-220,e_w758943072-220</t>
-  </si>
-  <si>
-    <t>elc_won-CHE_0017,elc_spv-CHE_0017</t>
-  </si>
-  <si>
-    <t>e_CH12-220,e_CH12-380,e_CH13-220,e_CH16-380,e_CH18-220,e_CH18-380,e_w192677427-220,e_w192677427-380,e_w52738225-220,e_w52738225-380</t>
-  </si>
-  <si>
-    <t>elc_won-CHE_0019,elc_spv-CHE_0019</t>
-  </si>
-  <si>
-    <t>e_CH45-220,e_w281804158-220,e_w281804158-380</t>
-  </si>
-  <si>
-    <t>elc_won-CHE_0023,elc_spv-CHE_0023</t>
-  </si>
-  <si>
-    <t>e_w207991759-380</t>
-  </si>
-  <si>
-    <t>elc_won-CHE_0002,elc_spv-CHE_0002</t>
-  </si>
-  <si>
-    <t>e_w232662311-220</t>
-  </si>
-  <si>
-    <t>elc_won-CHE_0014,elc_spv-CHE_0014</t>
-  </si>
-  <si>
-    <t>e_CH1-220,e_CH2-220,e_CH5-220,e_CH7-220,e_w108257952-220,e_w1284913429-220,e_w165513396-220,e_w165513396-380,e_w190819048-220,e_w27107779-220,e_w31308888-220,e_w33271433-220,e_w356292116-220,e_w356292116-380,e_w35840165-380,e_w50319857-220,e_w50319857-380,e_w50319857-400,e_w89405664-220,e_w89977424-220,e_w98648381-220,e_w98648381-380</t>
-  </si>
-  <si>
-    <t>elc_won-CHE_0018,elc_spv-CHE_0018</t>
-  </si>
-  <si>
-    <t>e_CH3-220,e_CH6-220,e_r9310861-220,e_w11282314-220,e_w147714395-220,e_w147714395-380,e_w148015471-220,e_w22899676-220,e_w240575085-220,e_w26843160-220,e_w281809991-220,e_w50561341-220,e_w87281514-220</t>
   </si>
   <si>
     <t>e_won-CHE_0000</t>
@@ -1806,7 +1806,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2F17D264-5E50-DE69-D291-F1EF8E19FF54}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E6538C99-08EB-BE5F-0D60-FA6606BA6ED8}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1861,7 +1861,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B02FF1A7-0B49-7227-DB3B-D6303749606F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C6061C04-74CB-C4AA-6A0D-2CB63E124A3B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1916,7 +1916,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5E957ECC-F612-591A-57B1-D83711BB66D3}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D16101D4-3DC8-6CD3-5972-286D5A45A902}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1971,7 +1971,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A7959F6A-AD9B-A5BB-E277-3B2D0F02260A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BE977759-B969-B448-CEE6-03091AF6CEB7}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4474,7 +4474,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13620E3B-38BE-4480-80DD-8A13EA67A3BD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35CE1066-D97E-46A2-801D-98AC49CFFF92}">
   <dimension ref="A1:AG28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4685,7 +4685,7 @@
         <v>1</v>
       </c>
       <c r="AG4" s="30" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
     </row>
     <row r="5" spans="1:33">
@@ -4762,7 +4762,7 @@
         <v>1</v>
       </c>
       <c r="AG5" s="31" t="s">
-        <v>188</v>
+        <v>220</v>
       </c>
     </row>
     <row r="6" spans="1:33">
@@ -4839,7 +4839,7 @@
         <v>1</v>
       </c>
       <c r="AG6" s="30" t="s">
-        <v>212</v>
+        <v>188</v>
       </c>
     </row>
     <row r="7" spans="1:33">
@@ -4916,7 +4916,7 @@
         <v>1</v>
       </c>
       <c r="AG7" s="31" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
     </row>
     <row r="8" spans="1:33">
@@ -4993,7 +4993,7 @@
         <v>1</v>
       </c>
       <c r="AG8" s="30" t="s">
-        <v>230</v>
+        <v>200</v>
       </c>
     </row>
     <row r="9" spans="1:33">
@@ -5070,7 +5070,7 @@
         <v>1</v>
       </c>
       <c r="AG9" s="31" t="s">
-        <v>224</v>
+        <v>204</v>
       </c>
     </row>
     <row r="10" spans="1:33">
@@ -5147,7 +5147,7 @@
         <v>1</v>
       </c>
       <c r="AG10" s="30" t="s">
-        <v>190</v>
+        <v>214</v>
       </c>
     </row>
     <row r="11" spans="1:33">
@@ -5224,7 +5224,7 @@
         <v>1</v>
       </c>
       <c r="AG11" s="31" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
     </row>
     <row r="12" spans="1:33">
@@ -5301,7 +5301,7 @@
         <v>1</v>
       </c>
       <c r="AG12" s="30" t="s">
-        <v>218</v>
+        <v>198</v>
       </c>
     </row>
     <row r="13" spans="1:33">
@@ -5378,7 +5378,7 @@
         <v>1</v>
       </c>
       <c r="AG13" s="31" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="14" spans="1:33">
@@ -5455,7 +5455,7 @@
         <v>1</v>
       </c>
       <c r="AG14" s="30" t="s">
-        <v>194</v>
+        <v>206</v>
       </c>
     </row>
     <row r="15" spans="1:33">
@@ -5532,7 +5532,7 @@
         <v>1</v>
       </c>
       <c r="AG15" s="31" t="s">
-        <v>232</v>
+        <v>208</v>
       </c>
     </row>
     <row r="16" spans="1:33">
@@ -5609,7 +5609,7 @@
         <v>1</v>
       </c>
       <c r="AG16" s="30" t="s">
-        <v>210</v>
+        <v>186</v>
       </c>
     </row>
     <row r="17" spans="2:33">
@@ -5686,7 +5686,7 @@
         <v>1</v>
       </c>
       <c r="AG17" s="31" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
     </row>
     <row r="18" spans="2:33">
@@ -5763,7 +5763,7 @@
         <v>1</v>
       </c>
       <c r="AG18" s="30" t="s">
-        <v>208</v>
+        <v>216</v>
       </c>
     </row>
     <row r="19" spans="2:33">
@@ -5840,7 +5840,7 @@
         <v>1</v>
       </c>
       <c r="AG19" s="31" t="s">
-        <v>186</v>
+        <v>230</v>
       </c>
     </row>
     <row r="20" spans="2:33">
@@ -5917,7 +5917,7 @@
         <v>1</v>
       </c>
       <c r="AG20" s="30" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
     </row>
     <row r="21" spans="2:33">
@@ -5994,7 +5994,7 @@
         <v>1</v>
       </c>
       <c r="AG21" s="31" t="s">
-        <v>184</v>
+        <v>228</v>
       </c>
     </row>
     <row r="22" spans="2:33">
@@ -6071,7 +6071,7 @@
         <v>1</v>
       </c>
       <c r="AG22" s="30" t="s">
-        <v>228</v>
+        <v>194</v>
       </c>
     </row>
     <row r="23" spans="2:33">
@@ -6148,7 +6148,7 @@
         <v>1</v>
       </c>
       <c r="AG23" s="31" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
     </row>
     <row r="24" spans="2:33">
@@ -6225,7 +6225,7 @@
         <v>1</v>
       </c>
       <c r="AG24" s="30" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="25" spans="2:33">
@@ -6302,7 +6302,7 @@
         <v>1</v>
       </c>
       <c r="AG25" s="31" t="s">
-        <v>214</v>
+        <v>232</v>
       </c>
     </row>
     <row r="26" spans="2:33">
@@ -6379,7 +6379,7 @@
         <v>1</v>
       </c>
       <c r="AG26" s="30" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
     </row>
     <row r="27" spans="2:33">
@@ -6456,7 +6456,7 @@
         <v>1</v>
       </c>
       <c r="AG27" s="31" t="s">
-        <v>196</v>
+        <v>222</v>
       </c>
     </row>
     <row r="28" spans="2:33">
@@ -6533,7 +6533,7 @@
         <v>1</v>
       </c>
       <c r="AG28" s="30" t="s">
-        <v>202</v>
+        <v>192</v>
       </c>
     </row>
   </sheetData>
@@ -6546,7 +6546,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FC03E67-18D9-4439-912F-8493FF8D6601}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C01165B-92AA-4B51-8794-35FA9E23017D}">
   <dimension ref="A1:O29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7624,7 +7624,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3A255EC-1759-44A2-8189-C0410C97F9E6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E2A45AB-49D7-42E3-938C-6CA3598496BA}">
   <dimension ref="A1:Q69"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/VerveStacks_CHE_grids/SubRES_Tmpl/SubRES_New_RE_and_Conventional.xlsx
+++ b/VerveStacks_CHE_grids/SubRES_Tmpl/SubRES_New_RE_and_Conventional.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_CHE_grids\SubRES_Tmpl\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E8A743A8-EDB3-49D0-AFA7-E1874C979349}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3188C617-2056-4CED-9C3B-81A8B74DAC31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="6" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -815,34 +815,118 @@
     <t>pre</t>
   </si>
   <si>
+    <t>distr_elc_won-CHE_0024</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell CHE_24</t>
+  </si>
+  <si>
+    <t>NRGI</t>
+  </si>
+  <si>
+    <t>daynite</t>
+  </si>
+  <si>
+    <t>distr_elc_won-CHE_0008</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell CHE_8</t>
+  </si>
+  <si>
+    <t>distr_elc_won-CHE_0005</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell CHE_5</t>
+  </si>
+  <si>
+    <t>distr_elc_won-CHE_0003</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell CHE_3</t>
+  </si>
+  <si>
+    <t>distr_elc_won-CHE_0010</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell CHE_10</t>
+  </si>
+  <si>
+    <t>distr_elc_won-CHE_0022</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell CHE_22</t>
+  </si>
+  <si>
+    <t>distr_elc_won-CHE_0012</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell CHE_12</t>
+  </si>
+  <si>
+    <t>distr_elc_won-CHE_0020</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell CHE_20</t>
+  </si>
+  <si>
+    <t>distr_elc_won-CHE_0001</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell CHE_1</t>
+  </si>
+  <si>
+    <t>distr_elc_won-CHE_0006</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell CHE_6</t>
+  </si>
+  <si>
     <t>distr_elc_won-CHE_0000</t>
   </si>
   <si>
     <t>connecting solar and wind to buses in grid cell CHE_0</t>
   </si>
   <si>
-    <t>NRGI</t>
-  </si>
-  <si>
-    <t>daynite</t>
-  </si>
-  <si>
-    <t>distr_elc_won-CHE_0003</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell CHE_3</t>
-  </si>
-  <si>
-    <t>distr_elc_won-CHE_0010</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell CHE_10</t>
-  </si>
-  <si>
-    <t>distr_elc_won-CHE_0022</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell CHE_22</t>
+    <t>distr_elc_won-CHE_0013</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell CHE_13</t>
+  </si>
+  <si>
+    <t>distr_elc_won-CHE_0009</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell CHE_9</t>
+  </si>
+  <si>
+    <t>distr_elc_won-CHE_0021</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell CHE_21</t>
+  </si>
+  <si>
+    <t>distr_elc_won-CHE_0004</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell CHE_4</t>
+  </si>
+  <si>
+    <t>distr_elc_won-CHE_0002</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell CHE_2</t>
+  </si>
+  <si>
+    <t>distr_elc_won-CHE_0014</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell CHE_14</t>
+  </si>
+  <si>
+    <t>distr_elc_won-CHE_0018</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell CHE_18</t>
   </si>
   <si>
     <t>distr_elc_won-CHE_0017</t>
@@ -881,124 +965,124 @@
     <t>connecting solar and wind to buses in grid cell CHE_25</t>
   </si>
   <si>
-    <t>distr_elc_won-CHE_0002</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell CHE_2</t>
-  </si>
-  <si>
-    <t>distr_elc_won-CHE_0020</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell CHE_20</t>
-  </si>
-  <si>
-    <t>distr_elc_won-CHE_0001</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell CHE_1</t>
-  </si>
-  <si>
-    <t>distr_elc_won-CHE_0006</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell CHE_6</t>
-  </si>
-  <si>
-    <t>distr_elc_won-CHE_0024</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell CHE_24</t>
-  </si>
-  <si>
-    <t>distr_elc_won-CHE_0008</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell CHE_8</t>
-  </si>
-  <si>
-    <t>distr_elc_won-CHE_0005</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell CHE_5</t>
-  </si>
-  <si>
     <t>distr_elc_won-CHE_0007</t>
   </si>
   <si>
     <t>connecting solar and wind to buses in grid cell CHE_7</t>
   </si>
   <si>
-    <t>distr_elc_won-CHE_0013</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell CHE_13</t>
-  </si>
-  <si>
-    <t>distr_elc_won-CHE_0014</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell CHE_14</t>
-  </si>
-  <si>
-    <t>distr_elc_won-CHE_0018</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell CHE_18</t>
-  </si>
-  <si>
-    <t>distr_elc_won-CHE_0009</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell CHE_9</t>
-  </si>
-  <si>
-    <t>distr_elc_won-CHE_0021</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell CHE_21</t>
-  </si>
-  <si>
-    <t>distr_elc_won-CHE_0004</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell CHE_4</t>
-  </si>
-  <si>
-    <t>distr_elc_won-CHE_0012</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell CHE_12</t>
-  </si>
-  <si>
     <t>comm-in</t>
   </si>
   <si>
     <t>efficiency</t>
   </si>
   <si>
+    <t>elc_won-CHE_0024,elc_spv-CHE_0024</t>
+  </si>
+  <si>
+    <t>e_CH30-380,e_CH33-380,e_CH37-380,e_r7933294-380</t>
+  </si>
+  <si>
+    <t>elc_won-CHE_0008,elc_spv-CHE_0008</t>
+  </si>
+  <si>
+    <t>e_CH43-220,e_w209324991-220,e_w26166640-220,e_w402055336-220,e_w758315582-220</t>
+  </si>
+  <si>
+    <t>elc_won-CHE_0005,elc_spv-CHE_0005</t>
+  </si>
+  <si>
+    <t>e_r5378910-220,e_w161853746-220</t>
+  </si>
+  <si>
+    <t>elc_won-CHE_0003,elc_spv-CHE_0003</t>
+  </si>
+  <si>
+    <t>e_CH48-225,e_CH49-225,e_CH53-225,e_CH60-225,e_w234983117-220,e_w234983117-380,e_w238138373-380,e_w260211728-225,e_w260211728-380,e_w55698557-220,e_w55698557-225,e_w802058337-220,e_w802058337-225,e_w936521586-380</t>
+  </si>
+  <si>
+    <t>elc_won-CHE_0010,elc_spv-CHE_0010</t>
+  </si>
+  <si>
+    <t>e_CH11-220,e_w109037817-220,e_w109037817-380,e_w127004407-380,e_w127004407-400,e_w27435934-220,e_w30350721-220,e_w397960460-380,e_w397960460-400,e_w88901626-380</t>
+  </si>
+  <si>
+    <t>elc_won-CHE_0022,elc_spv-CHE_0022</t>
+  </si>
+  <si>
+    <t>e_CH4-220,e_CH9-220,e_w455120191-220,e_w83861269-220,e_w92798668-220,e_w92873516-220</t>
+  </si>
+  <si>
+    <t>elc_won-CHE_0012,elc_spv-CHE_0012</t>
+  </si>
+  <si>
+    <t>e_CH19-220,e_CH20-220,e_CH25-220,e_CH27-220,e_CH34-220,e_CH34-380,e_CH35-220,e_CH36-220,e_CH38-220,e_CH39-220,e_CH40-220,e_w1086214433-220,e_w1092884227-220,e_w240959264-220,e_w364949845-220,e_w364949845-380</t>
+  </si>
+  <si>
+    <t>elc_won-CHE_0020,elc_spv-CHE_0020</t>
+  </si>
+  <si>
+    <t>e_CH21-220,e_CH22-220,e_CH22-380,e_CH29-220,e_CH29-380,e_CH41-380,e_w1208713169-220,e_w207993342-220,e_w207993342-380,e_w208780268-380,e_w212498548-220,e_w36348118-220,e_w365556107-220,e_w71500123-220,e_w71500123-380</t>
+  </si>
+  <si>
+    <t>elc_won-CHE_0001,elc_spv-CHE_0001</t>
+  </si>
+  <si>
+    <t>e_CH31-220,e_w132373704-220,e_w232662311-220,e_w44496892-220,e_w55695765-220</t>
+  </si>
+  <si>
+    <t>elc_won-CHE_0006,elc_spv-CHE_0006</t>
+  </si>
+  <si>
+    <t>e_w127004407-400</t>
+  </si>
+  <si>
     <t>elc_won-CHE_0000,elc_spv-CHE_0000</t>
   </si>
   <si>
     <t>e_CH51-220,e_CH51-225,e_CH51-400,e_CH52-220,e_CH57-220,e_CH57-225,e_w177392130-220,e_w177392130-400,e_w239937062-220</t>
   </si>
   <si>
-    <t>elc_won-CHE_0003,elc_spv-CHE_0003</t>
-  </si>
-  <si>
-    <t>e_CH48-225,e_CH49-225,e_CH53-225,e_CH60-225,e_w234983117-220,e_w234983117-380,e_w238138373-380,e_w260211728-225,e_w260211728-380,e_w55698557-220,e_w55698557-225,e_w802058337-220,e_w802058337-225,e_w936521586-380</t>
-  </si>
-  <si>
-    <t>elc_won-CHE_0010,elc_spv-CHE_0010</t>
-  </si>
-  <si>
-    <t>e_CH11-220,e_w109037817-220,e_w109037817-380,e_w127004407-380,e_w127004407-400,e_w27435934-220,e_w30350721-220,e_w397960460-380,e_w397960460-400,e_w88901626-380</t>
-  </si>
-  <si>
-    <t>elc_won-CHE_0022,elc_spv-CHE_0022</t>
-  </si>
-  <si>
-    <t>e_CH4-220,e_CH9-220,e_w455120191-220,e_w83861269-220,e_w92798668-220,e_w92873516-220</t>
+    <t>elc_won-CHE_0013,elc_spv-CHE_0013</t>
+  </si>
+  <si>
+    <t>e_CH15-220,e_w146225999-220,e_w159527493-220,e_w242269161-220,e_w281799252-220,e_w35002638-220,e_w35002638-380,e_w97941869-220</t>
+  </si>
+  <si>
+    <t>elc_won-CHE_0009,elc_spv-CHE_0009</t>
+  </si>
+  <si>
+    <t>e_CH14-220,e_CH14-380,e_w1105061707-220,e_w1105061707-380,e_w147557680-220,e_w165254212-220,e_w402053379-220</t>
+  </si>
+  <si>
+    <t>elc_won-CHE_0021,elc_spv-CHE_0021</t>
+  </si>
+  <si>
+    <t>e_CH17-380,e_w211907009-220</t>
+  </si>
+  <si>
+    <t>elc_won-CHE_0004,elc_spv-CHE_0004</t>
+  </si>
+  <si>
+    <t>e_w111162936-220,e_w111162936-380,e_w111162936-400,e_w122720993-220,e_w194258388-220</t>
+  </si>
+  <si>
+    <t>elc_won-CHE_0002,elc_spv-CHE_0002</t>
+  </si>
+  <si>
+    <t>e_w232662311-220</t>
+  </si>
+  <si>
+    <t>elc_won-CHE_0014,elc_spv-CHE_0014</t>
+  </si>
+  <si>
+    <t>e_CH1-220,e_CH2-220,e_CH5-220,e_CH7-220,e_w108257952-220,e_w1284913429-220,e_w165513396-220,e_w165513396-380,e_w190819048-220,e_w27107779-220,e_w31308888-220,e_w33271433-220,e_w356292116-220,e_w356292116-380,e_w35840165-380,e_w50319857-220,e_w50319857-380,e_w50319857-400,e_w89405664-220,e_w89977424-220,e_w98648381-220,e_w98648381-380</t>
+  </si>
+  <si>
+    <t>elc_won-CHE_0018,elc_spv-CHE_0018</t>
+  </si>
+  <si>
+    <t>e_CH3-220,e_CH6-220,e_r9310861-220,e_w11282314-220,e_w147714395-220,e_w147714395-380,e_w148015471-220,e_w22899676-220,e_w240575085-220,e_w26843160-220,e_w281809991-220,e_w50561341-220,e_w87281514-220</t>
   </si>
   <si>
     <t>elc_won-CHE_0017,elc_spv-CHE_0017</t>
@@ -1037,94 +1121,10 @@
     <t>e_r7933294-380</t>
   </si>
   <si>
-    <t>elc_won-CHE_0002,elc_spv-CHE_0002</t>
-  </si>
-  <si>
-    <t>e_w232662311-220</t>
-  </si>
-  <si>
-    <t>elc_won-CHE_0020,elc_spv-CHE_0020</t>
-  </si>
-  <si>
-    <t>e_CH21-220,e_CH22-220,e_CH22-380,e_CH29-220,e_CH29-380,e_CH41-380,e_w1208713169-220,e_w207993342-220,e_w207993342-380,e_w208780268-380,e_w212498548-220,e_w36348118-220,e_w365556107-220,e_w71500123-220,e_w71500123-380</t>
-  </si>
-  <si>
-    <t>elc_won-CHE_0001,elc_spv-CHE_0001</t>
-  </si>
-  <si>
-    <t>e_CH31-220,e_w132373704-220,e_w232662311-220,e_w44496892-220,e_w55695765-220</t>
-  </si>
-  <si>
-    <t>elc_won-CHE_0006,elc_spv-CHE_0006</t>
-  </si>
-  <si>
-    <t>e_w127004407-400</t>
-  </si>
-  <si>
-    <t>elc_won-CHE_0024,elc_spv-CHE_0024</t>
-  </si>
-  <si>
-    <t>e_CH30-380,e_CH33-380,e_CH37-380,e_r7933294-380</t>
-  </si>
-  <si>
-    <t>elc_won-CHE_0008,elc_spv-CHE_0008</t>
-  </si>
-  <si>
-    <t>e_CH43-220,e_w209324991-220,e_w26166640-220,e_w402055336-220,e_w758315582-220</t>
-  </si>
-  <si>
-    <t>elc_won-CHE_0005,elc_spv-CHE_0005</t>
-  </si>
-  <si>
-    <t>e_r5378910-220,e_w161853746-220</t>
-  </si>
-  <si>
     <t>elc_won-CHE_0007,elc_spv-CHE_0007</t>
   </si>
   <si>
     <t>e_CH44-220,e_w212722603-220,e_w212722603-380,e_w236819191-220,e_w758943072-220</t>
-  </si>
-  <si>
-    <t>elc_won-CHE_0013,elc_spv-CHE_0013</t>
-  </si>
-  <si>
-    <t>e_CH15-220,e_w146225999-220,e_w159527493-220,e_w242269161-220,e_w281799252-220,e_w35002638-220,e_w35002638-380,e_w97941869-220</t>
-  </si>
-  <si>
-    <t>elc_won-CHE_0014,elc_spv-CHE_0014</t>
-  </si>
-  <si>
-    <t>e_CH1-220,e_CH2-220,e_CH5-220,e_CH7-220,e_w108257952-220,e_w1284913429-220,e_w165513396-220,e_w165513396-380,e_w190819048-220,e_w27107779-220,e_w31308888-220,e_w33271433-220,e_w356292116-220,e_w356292116-380,e_w35840165-380,e_w50319857-220,e_w50319857-380,e_w50319857-400,e_w89405664-220,e_w89977424-220,e_w98648381-220,e_w98648381-380</t>
-  </si>
-  <si>
-    <t>elc_won-CHE_0018,elc_spv-CHE_0018</t>
-  </si>
-  <si>
-    <t>e_CH3-220,e_CH6-220,e_r9310861-220,e_w11282314-220,e_w147714395-220,e_w147714395-380,e_w148015471-220,e_w22899676-220,e_w240575085-220,e_w26843160-220,e_w281809991-220,e_w50561341-220,e_w87281514-220</t>
-  </si>
-  <si>
-    <t>elc_won-CHE_0009,elc_spv-CHE_0009</t>
-  </si>
-  <si>
-    <t>e_CH14-220,e_CH14-380,e_w1105061707-220,e_w1105061707-380,e_w147557680-220,e_w165254212-220,e_w402053379-220</t>
-  </si>
-  <si>
-    <t>elc_won-CHE_0021,elc_spv-CHE_0021</t>
-  </si>
-  <si>
-    <t>e_CH17-380,e_w211907009-220</t>
-  </si>
-  <si>
-    <t>elc_won-CHE_0004,elc_spv-CHE_0004</t>
-  </si>
-  <si>
-    <t>e_w111162936-220,e_w111162936-380,e_w111162936-400,e_w122720993-220,e_w194258388-220</t>
-  </si>
-  <si>
-    <t>elc_won-CHE_0012,elc_spv-CHE_0012</t>
-  </si>
-  <si>
-    <t>e_CH19-220,e_CH20-220,e_CH25-220,e_CH27-220,e_CH34-220,e_CH34-380,e_CH35-220,e_CH36-220,e_CH38-220,e_CH39-220,e_CH40-220,e_w1086214433-220,e_w1092884227-220,e_w240959264-220,e_w364949845-220,e_w364949845-380</t>
   </si>
   <si>
     <t>e_won-CHE_0000</t>
@@ -1806,7 +1806,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E6538C99-08EB-BE5F-0D60-FA6606BA6ED8}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1859D984-633A-C4BF-E74B-DF6D9C050EE1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1861,7 +1861,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C6061C04-74CB-C4AA-6A0D-2CB63E124A3B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CE041C73-345A-72B6-1A40-7ED4487DC27D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1916,7 +1916,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D16101D4-3DC8-6CD3-5972-286D5A45A902}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1F24D371-D6A3-E99B-6F11-A10BCE70460D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1971,7 +1971,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BE977759-B969-B448-CEE6-03091AF6CEB7}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C6C284EC-858C-E7AB-7C4A-FD9EF6E0D3E8}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4474,7 +4474,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35CE1066-D97E-46A2-801D-98AC49CFFF92}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F31FD461-9353-45ED-A77C-45DC0E9C7F0D}">
   <dimension ref="A1:AG28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4685,7 +4685,7 @@
         <v>1</v>
       </c>
       <c r="AG4" s="30" t="s">
-        <v>184</v>
+        <v>216</v>
       </c>
     </row>
     <row r="5" spans="1:33">
@@ -4762,7 +4762,7 @@
         <v>1</v>
       </c>
       <c r="AG5" s="31" t="s">
-        <v>220</v>
+        <v>230</v>
       </c>
     </row>
     <row r="6" spans="1:33">
@@ -4839,7 +4839,7 @@
         <v>1</v>
       </c>
       <c r="AG6" s="30" t="s">
-        <v>188</v>
+        <v>224</v>
       </c>
     </row>
     <row r="7" spans="1:33">
@@ -4916,7 +4916,7 @@
         <v>1</v>
       </c>
       <c r="AG7" s="31" t="s">
-        <v>212</v>
+        <v>220</v>
       </c>
     </row>
     <row r="8" spans="1:33">
@@ -4993,7 +4993,7 @@
         <v>1</v>
       </c>
       <c r="AG8" s="30" t="s">
-        <v>200</v>
+        <v>188</v>
       </c>
     </row>
     <row r="9" spans="1:33">
@@ -5070,7 +5070,7 @@
         <v>1</v>
       </c>
       <c r="AG9" s="31" t="s">
-        <v>204</v>
+        <v>212</v>
       </c>
     </row>
     <row r="10" spans="1:33">
@@ -5147,7 +5147,7 @@
         <v>1</v>
       </c>
       <c r="AG10" s="30" t="s">
-        <v>214</v>
+        <v>192</v>
       </c>
     </row>
     <row r="11" spans="1:33">
@@ -5224,7 +5224,7 @@
         <v>1</v>
       </c>
       <c r="AG11" s="31" t="s">
-        <v>190</v>
+        <v>208</v>
       </c>
     </row>
     <row r="12" spans="1:33">
@@ -5301,7 +5301,7 @@
         <v>1</v>
       </c>
       <c r="AG12" s="30" t="s">
-        <v>198</v>
+        <v>186</v>
       </c>
     </row>
     <row r="13" spans="1:33">
@@ -5378,7 +5378,7 @@
         <v>1</v>
       </c>
       <c r="AG13" s="31" t="s">
-        <v>218</v>
+        <v>226</v>
       </c>
     </row>
     <row r="14" spans="1:33">
@@ -5455,7 +5455,7 @@
         <v>1</v>
       </c>
       <c r="AG14" s="30" t="s">
-        <v>206</v>
+        <v>184</v>
       </c>
     </row>
     <row r="15" spans="1:33">
@@ -5532,7 +5532,7 @@
         <v>1</v>
       </c>
       <c r="AG15" s="31" t="s">
-        <v>208</v>
+        <v>194</v>
       </c>
     </row>
     <row r="16" spans="1:33">
@@ -5609,7 +5609,7 @@
         <v>1</v>
       </c>
       <c r="AG16" s="30" t="s">
-        <v>186</v>
+        <v>232</v>
       </c>
     </row>
     <row r="17" spans="2:33">
@@ -5686,7 +5686,7 @@
         <v>1</v>
       </c>
       <c r="AG17" s="31" t="s">
-        <v>226</v>
+        <v>210</v>
       </c>
     </row>
     <row r="18" spans="2:33">
@@ -5763,7 +5763,7 @@
         <v>1</v>
       </c>
       <c r="AG18" s="30" t="s">
-        <v>216</v>
+        <v>222</v>
       </c>
     </row>
     <row r="19" spans="2:33">
@@ -5840,7 +5840,7 @@
         <v>1</v>
       </c>
       <c r="AG19" s="31" t="s">
-        <v>230</v>
+        <v>206</v>
       </c>
     </row>
     <row r="20" spans="2:33">
@@ -5917,7 +5917,7 @@
         <v>1</v>
       </c>
       <c r="AG20" s="30" t="s">
-        <v>224</v>
+        <v>196</v>
       </c>
     </row>
     <row r="21" spans="2:33">
@@ -5994,7 +5994,7 @@
         <v>1</v>
       </c>
       <c r="AG21" s="31" t="s">
-        <v>228</v>
+        <v>202</v>
       </c>
     </row>
     <row r="22" spans="2:33">
@@ -6071,7 +6071,7 @@
         <v>1</v>
       </c>
       <c r="AG22" s="30" t="s">
-        <v>194</v>
+        <v>200</v>
       </c>
     </row>
     <row r="23" spans="2:33">
@@ -6148,7 +6148,7 @@
         <v>1</v>
       </c>
       <c r="AG23" s="31" t="s">
-        <v>196</v>
+        <v>204</v>
       </c>
     </row>
     <row r="24" spans="2:33">
@@ -6225,7 +6225,7 @@
         <v>1</v>
       </c>
       <c r="AG24" s="30" t="s">
-        <v>202</v>
+        <v>214</v>
       </c>
     </row>
     <row r="25" spans="2:33">
@@ -6302,7 +6302,7 @@
         <v>1</v>
       </c>
       <c r="AG25" s="31" t="s">
-        <v>232</v>
+        <v>190</v>
       </c>
     </row>
     <row r="26" spans="2:33">
@@ -6379,7 +6379,7 @@
         <v>1</v>
       </c>
       <c r="AG26" s="30" t="s">
-        <v>210</v>
+        <v>198</v>
       </c>
     </row>
     <row r="27" spans="2:33">
@@ -6456,7 +6456,7 @@
         <v>1</v>
       </c>
       <c r="AG27" s="31" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
     </row>
     <row r="28" spans="2:33">
@@ -6533,7 +6533,7 @@
         <v>1</v>
       </c>
       <c r="AG28" s="30" t="s">
-        <v>192</v>
+        <v>228</v>
       </c>
     </row>
   </sheetData>
@@ -6546,7 +6546,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C01165B-92AA-4B51-8794-35FA9E23017D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{047644EF-6E83-4893-8BF3-B820B383DF67}">
   <dimension ref="A1:O29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7624,7 +7624,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E2A45AB-49D7-42E3-938C-6CA3598496BA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5DB6E10E-6D63-444B-98C4-632D0E560EEB}">
   <dimension ref="A1:Q69"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/VerveStacks_CHE_grids/SubRES_Tmpl/SubRES_New_RE_and_Conventional.xlsx
+++ b/VerveStacks_CHE_grids/SubRES_Tmpl/SubRES_New_RE_and_Conventional.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_CHE_grids\SubRES_Tmpl\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3188C617-2056-4CED-9C3B-81A8B74DAC31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F4A07860-8FD9-443F-A5F6-576EF772D801}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="6" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -815,18 +815,108 @@
     <t>pre</t>
   </si>
   <si>
+    <t>distr_elc_won-CHE_0011</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell CHE_11</t>
+  </si>
+  <si>
+    <t>NRGI</t>
+  </si>
+  <si>
+    <t>daynite</t>
+  </si>
+  <si>
+    <t>distr_elc_won-CHE_0015</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell CHE_15</t>
+  </si>
+  <si>
+    <t>distr_elc_won-CHE_0025</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell CHE_25</t>
+  </si>
+  <si>
+    <t>distr_elc_won-CHE_0000</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell CHE_0</t>
+  </si>
+  <si>
+    <t>distr_elc_won-CHE_0012</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell CHE_12</t>
+  </si>
+  <si>
+    <t>distr_elc_won-CHE_0007</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell CHE_7</t>
+  </si>
+  <si>
+    <t>distr_elc_won-CHE_0014</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell CHE_14</t>
+  </si>
+  <si>
+    <t>distr_elc_won-CHE_0018</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell CHE_18</t>
+  </si>
+  <si>
+    <t>distr_elc_won-CHE_0017</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell CHE_17</t>
+  </si>
+  <si>
+    <t>distr_elc_won-CHE_0019</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell CHE_19</t>
+  </si>
+  <si>
+    <t>distr_elc_won-CHE_0023</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell CHE_23</t>
+  </si>
+  <si>
+    <t>distr_elc_won-CHE_0009</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell CHE_9</t>
+  </si>
+  <si>
+    <t>distr_elc_won-CHE_0021</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell CHE_21</t>
+  </si>
+  <si>
+    <t>distr_elc_won-CHE_0004</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell CHE_4</t>
+  </si>
+  <si>
+    <t>distr_elc_won-CHE_0013</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell CHE_13</t>
+  </si>
+  <si>
     <t>distr_elc_won-CHE_0024</t>
   </si>
   <si>
     <t>connecting solar and wind to buses in grid cell CHE_24</t>
   </si>
   <si>
-    <t>NRGI</t>
-  </si>
-  <si>
-    <t>daynite</t>
-  </si>
-  <si>
     <t>distr_elc_won-CHE_0008</t>
   </si>
   <si>
@@ -839,144 +929,144 @@
     <t>connecting solar and wind to buses in grid cell CHE_5</t>
   </si>
   <si>
+    <t>distr_elc_won-CHE_0020</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell CHE_20</t>
+  </si>
+  <si>
+    <t>distr_elc_won-CHE_0001</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell CHE_1</t>
+  </si>
+  <si>
+    <t>distr_elc_won-CHE_0006</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell CHE_6</t>
+  </si>
+  <si>
+    <t>distr_elc_won-CHE_0002</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell CHE_2</t>
+  </si>
+  <si>
+    <t>distr_elc_won-CHE_0010</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell CHE_10</t>
+  </si>
+  <si>
+    <t>distr_elc_won-CHE_0022</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell CHE_22</t>
+  </si>
+  <si>
     <t>distr_elc_won-CHE_0003</t>
   </si>
   <si>
     <t>connecting solar and wind to buses in grid cell CHE_3</t>
   </si>
   <si>
-    <t>distr_elc_won-CHE_0010</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell CHE_10</t>
-  </si>
-  <si>
-    <t>distr_elc_won-CHE_0022</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell CHE_22</t>
-  </si>
-  <si>
-    <t>distr_elc_won-CHE_0012</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell CHE_12</t>
-  </si>
-  <si>
-    <t>distr_elc_won-CHE_0020</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell CHE_20</t>
-  </si>
-  <si>
-    <t>distr_elc_won-CHE_0001</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell CHE_1</t>
-  </si>
-  <si>
-    <t>distr_elc_won-CHE_0006</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell CHE_6</t>
-  </si>
-  <si>
-    <t>distr_elc_won-CHE_0000</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell CHE_0</t>
-  </si>
-  <si>
-    <t>distr_elc_won-CHE_0013</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell CHE_13</t>
-  </si>
-  <si>
-    <t>distr_elc_won-CHE_0009</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell CHE_9</t>
-  </si>
-  <si>
-    <t>distr_elc_won-CHE_0021</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell CHE_21</t>
-  </si>
-  <si>
-    <t>distr_elc_won-CHE_0004</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell CHE_4</t>
-  </si>
-  <si>
-    <t>distr_elc_won-CHE_0002</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell CHE_2</t>
-  </si>
-  <si>
-    <t>distr_elc_won-CHE_0014</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell CHE_14</t>
-  </si>
-  <si>
-    <t>distr_elc_won-CHE_0018</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell CHE_18</t>
-  </si>
-  <si>
-    <t>distr_elc_won-CHE_0017</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell CHE_17</t>
-  </si>
-  <si>
-    <t>distr_elc_won-CHE_0019</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell CHE_19</t>
-  </si>
-  <si>
-    <t>distr_elc_won-CHE_0023</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell CHE_23</t>
-  </si>
-  <si>
-    <t>distr_elc_won-CHE_0011</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell CHE_11</t>
-  </si>
-  <si>
-    <t>distr_elc_won-CHE_0015</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell CHE_15</t>
-  </si>
-  <si>
-    <t>distr_elc_won-CHE_0025</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell CHE_25</t>
-  </si>
-  <si>
-    <t>distr_elc_won-CHE_0007</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell CHE_7</t>
-  </si>
-  <si>
     <t>comm-in</t>
   </si>
   <si>
     <t>efficiency</t>
   </si>
   <si>
+    <t>elc_won-CHE_0011,elc_spv-CHE_0011</t>
+  </si>
+  <si>
+    <t>e_CH46-220,e_CH47-220,e_w228003081-220,e_w391576135-220,e_w391577741-220,e_w969819301-220,e_w969819301-380</t>
+  </si>
+  <si>
+    <t>elc_won-CHE_0015,elc_spv-CHE_0015</t>
+  </si>
+  <si>
+    <t>e_CH50-220,e_CH56-220,e_CH58-220,e_CH59-220,e_w1327084723-220,e_w281800404-220,e_w281803398-220,e_w281815404-220,e_w35487135-220</t>
+  </si>
+  <si>
+    <t>elc_won-CHE_0025,elc_spv-CHE_0025</t>
+  </si>
+  <si>
+    <t>e_r7933294-380</t>
+  </si>
+  <si>
+    <t>elc_won-CHE_0000,elc_spv-CHE_0000</t>
+  </si>
+  <si>
+    <t>e_CH51-220,e_CH51-225,e_CH51-400,e_CH52-220,e_CH57-220,e_CH57-225,e_w177392130-220,e_w177392130-400,e_w239937062-220</t>
+  </si>
+  <si>
+    <t>elc_won-CHE_0012,elc_spv-CHE_0012</t>
+  </si>
+  <si>
+    <t>e_CH19-220,e_CH20-220,e_CH25-220,e_CH27-220,e_CH34-220,e_CH34-380,e_CH35-220,e_CH36-220,e_CH38-220,e_CH39-220,e_CH40-220,e_w1086214433-220,e_w1092884227-220,e_w240959264-220,e_w364949845-220,e_w364949845-380</t>
+  </si>
+  <si>
+    <t>elc_won-CHE_0007,elc_spv-CHE_0007</t>
+  </si>
+  <si>
+    <t>e_CH44-220,e_w212722603-220,e_w212722603-380,e_w236819191-220,e_w758943072-220</t>
+  </si>
+  <si>
+    <t>elc_won-CHE_0014,elc_spv-CHE_0014</t>
+  </si>
+  <si>
+    <t>e_CH1-220,e_CH2-220,e_CH5-220,e_CH7-220,e_w108257952-220,e_w1284913429-220,e_w165513396-220,e_w165513396-380,e_w190819048-220,e_w27107779-220,e_w31308888-220,e_w33271433-220,e_w356292116-220,e_w356292116-380,e_w35840165-380,e_w50319857-220,e_w50319857-380,e_w50319857-400,e_w89405664-220,e_w89977424-220,e_w98648381-220,e_w98648381-380</t>
+  </si>
+  <si>
+    <t>elc_won-CHE_0018,elc_spv-CHE_0018</t>
+  </si>
+  <si>
+    <t>e_CH3-220,e_CH6-220,e_r9310861-220,e_w11282314-220,e_w147714395-220,e_w147714395-380,e_w148015471-220,e_w22899676-220,e_w240575085-220,e_w26843160-220,e_w281809991-220,e_w50561341-220,e_w87281514-220</t>
+  </si>
+  <si>
+    <t>elc_won-CHE_0017,elc_spv-CHE_0017</t>
+  </si>
+  <si>
+    <t>e_CH12-220,e_CH12-380,e_CH13-220,e_CH16-380,e_CH18-220,e_CH18-380,e_w192677427-220,e_w192677427-380,e_w52738225-220,e_w52738225-380</t>
+  </si>
+  <si>
+    <t>elc_won-CHE_0019,elc_spv-CHE_0019</t>
+  </si>
+  <si>
+    <t>e_CH45-220,e_w281804158-220,e_w281804158-380</t>
+  </si>
+  <si>
+    <t>elc_won-CHE_0023,elc_spv-CHE_0023</t>
+  </si>
+  <si>
+    <t>e_w207991759-380</t>
+  </si>
+  <si>
+    <t>elc_won-CHE_0009,elc_spv-CHE_0009</t>
+  </si>
+  <si>
+    <t>e_CH14-220,e_CH14-380,e_w1105061707-220,e_w1105061707-380,e_w147557680-220,e_w165254212-220,e_w402053379-220</t>
+  </si>
+  <si>
+    <t>elc_won-CHE_0021,elc_spv-CHE_0021</t>
+  </si>
+  <si>
+    <t>e_CH17-380,e_w211907009-220</t>
+  </si>
+  <si>
+    <t>elc_won-CHE_0004,elc_spv-CHE_0004</t>
+  </si>
+  <si>
+    <t>e_w111162936-220,e_w111162936-380,e_w111162936-400,e_w122720993-220,e_w194258388-220</t>
+  </si>
+  <si>
+    <t>elc_won-CHE_0013,elc_spv-CHE_0013</t>
+  </si>
+  <si>
+    <t>e_CH15-220,e_w146225999-220,e_w159527493-220,e_w242269161-220,e_w281799252-220,e_w35002638-220,e_w35002638-380,e_w97941869-220</t>
+  </si>
+  <si>
     <t>elc_won-CHE_0024,elc_spv-CHE_0024</t>
   </si>
   <si>
@@ -995,136 +1085,46 @@
     <t>e_r5378910-220,e_w161853746-220</t>
   </si>
   <si>
+    <t>elc_won-CHE_0020,elc_spv-CHE_0020</t>
+  </si>
+  <si>
+    <t>e_CH21-220,e_CH22-220,e_CH22-380,e_CH29-220,e_CH29-380,e_CH41-380,e_w1208713169-220,e_w207993342-220,e_w207993342-380,e_w208780268-380,e_w212498548-220,e_w36348118-220,e_w365556107-220,e_w71500123-220,e_w71500123-380</t>
+  </si>
+  <si>
+    <t>elc_won-CHE_0001,elc_spv-CHE_0001</t>
+  </si>
+  <si>
+    <t>e_CH31-220,e_w132373704-220,e_w232662311-220,e_w44496892-220,e_w55695765-220</t>
+  </si>
+  <si>
+    <t>elc_won-CHE_0006,elc_spv-CHE_0006</t>
+  </si>
+  <si>
+    <t>e_w127004407-400</t>
+  </si>
+  <si>
+    <t>elc_won-CHE_0002,elc_spv-CHE_0002</t>
+  </si>
+  <si>
+    <t>e_w232662311-220</t>
+  </si>
+  <si>
+    <t>elc_won-CHE_0010,elc_spv-CHE_0010</t>
+  </si>
+  <si>
+    <t>e_CH11-220,e_w109037817-220,e_w109037817-380,e_w127004407-380,e_w127004407-400,e_w27435934-220,e_w30350721-220,e_w397960460-380,e_w397960460-400,e_w88901626-380</t>
+  </si>
+  <si>
+    <t>elc_won-CHE_0022,elc_spv-CHE_0022</t>
+  </si>
+  <si>
+    <t>e_CH4-220,e_CH9-220,e_w455120191-220,e_w83861269-220,e_w92798668-220,e_w92873516-220</t>
+  </si>
+  <si>
     <t>elc_won-CHE_0003,elc_spv-CHE_0003</t>
   </si>
   <si>
     <t>e_CH48-225,e_CH49-225,e_CH53-225,e_CH60-225,e_w234983117-220,e_w234983117-380,e_w238138373-380,e_w260211728-225,e_w260211728-380,e_w55698557-220,e_w55698557-225,e_w802058337-220,e_w802058337-225,e_w936521586-380</t>
-  </si>
-  <si>
-    <t>elc_won-CHE_0010,elc_spv-CHE_0010</t>
-  </si>
-  <si>
-    <t>e_CH11-220,e_w109037817-220,e_w109037817-380,e_w127004407-380,e_w127004407-400,e_w27435934-220,e_w30350721-220,e_w397960460-380,e_w397960460-400,e_w88901626-380</t>
-  </si>
-  <si>
-    <t>elc_won-CHE_0022,elc_spv-CHE_0022</t>
-  </si>
-  <si>
-    <t>e_CH4-220,e_CH9-220,e_w455120191-220,e_w83861269-220,e_w92798668-220,e_w92873516-220</t>
-  </si>
-  <si>
-    <t>elc_won-CHE_0012,elc_spv-CHE_0012</t>
-  </si>
-  <si>
-    <t>e_CH19-220,e_CH20-220,e_CH25-220,e_CH27-220,e_CH34-220,e_CH34-380,e_CH35-220,e_CH36-220,e_CH38-220,e_CH39-220,e_CH40-220,e_w1086214433-220,e_w1092884227-220,e_w240959264-220,e_w364949845-220,e_w364949845-380</t>
-  </si>
-  <si>
-    <t>elc_won-CHE_0020,elc_spv-CHE_0020</t>
-  </si>
-  <si>
-    <t>e_CH21-220,e_CH22-220,e_CH22-380,e_CH29-220,e_CH29-380,e_CH41-380,e_w1208713169-220,e_w207993342-220,e_w207993342-380,e_w208780268-380,e_w212498548-220,e_w36348118-220,e_w365556107-220,e_w71500123-220,e_w71500123-380</t>
-  </si>
-  <si>
-    <t>elc_won-CHE_0001,elc_spv-CHE_0001</t>
-  </si>
-  <si>
-    <t>e_CH31-220,e_w132373704-220,e_w232662311-220,e_w44496892-220,e_w55695765-220</t>
-  </si>
-  <si>
-    <t>elc_won-CHE_0006,elc_spv-CHE_0006</t>
-  </si>
-  <si>
-    <t>e_w127004407-400</t>
-  </si>
-  <si>
-    <t>elc_won-CHE_0000,elc_spv-CHE_0000</t>
-  </si>
-  <si>
-    <t>e_CH51-220,e_CH51-225,e_CH51-400,e_CH52-220,e_CH57-220,e_CH57-225,e_w177392130-220,e_w177392130-400,e_w239937062-220</t>
-  </si>
-  <si>
-    <t>elc_won-CHE_0013,elc_spv-CHE_0013</t>
-  </si>
-  <si>
-    <t>e_CH15-220,e_w146225999-220,e_w159527493-220,e_w242269161-220,e_w281799252-220,e_w35002638-220,e_w35002638-380,e_w97941869-220</t>
-  </si>
-  <si>
-    <t>elc_won-CHE_0009,elc_spv-CHE_0009</t>
-  </si>
-  <si>
-    <t>e_CH14-220,e_CH14-380,e_w1105061707-220,e_w1105061707-380,e_w147557680-220,e_w165254212-220,e_w402053379-220</t>
-  </si>
-  <si>
-    <t>elc_won-CHE_0021,elc_spv-CHE_0021</t>
-  </si>
-  <si>
-    <t>e_CH17-380,e_w211907009-220</t>
-  </si>
-  <si>
-    <t>elc_won-CHE_0004,elc_spv-CHE_0004</t>
-  </si>
-  <si>
-    <t>e_w111162936-220,e_w111162936-380,e_w111162936-400,e_w122720993-220,e_w194258388-220</t>
-  </si>
-  <si>
-    <t>elc_won-CHE_0002,elc_spv-CHE_0002</t>
-  </si>
-  <si>
-    <t>e_w232662311-220</t>
-  </si>
-  <si>
-    <t>elc_won-CHE_0014,elc_spv-CHE_0014</t>
-  </si>
-  <si>
-    <t>e_CH1-220,e_CH2-220,e_CH5-220,e_CH7-220,e_w108257952-220,e_w1284913429-220,e_w165513396-220,e_w165513396-380,e_w190819048-220,e_w27107779-220,e_w31308888-220,e_w33271433-220,e_w356292116-220,e_w356292116-380,e_w35840165-380,e_w50319857-220,e_w50319857-380,e_w50319857-400,e_w89405664-220,e_w89977424-220,e_w98648381-220,e_w98648381-380</t>
-  </si>
-  <si>
-    <t>elc_won-CHE_0018,elc_spv-CHE_0018</t>
-  </si>
-  <si>
-    <t>e_CH3-220,e_CH6-220,e_r9310861-220,e_w11282314-220,e_w147714395-220,e_w147714395-380,e_w148015471-220,e_w22899676-220,e_w240575085-220,e_w26843160-220,e_w281809991-220,e_w50561341-220,e_w87281514-220</t>
-  </si>
-  <si>
-    <t>elc_won-CHE_0017,elc_spv-CHE_0017</t>
-  </si>
-  <si>
-    <t>e_CH12-220,e_CH12-380,e_CH13-220,e_CH16-380,e_CH18-220,e_CH18-380,e_w192677427-220,e_w192677427-380,e_w52738225-220,e_w52738225-380</t>
-  </si>
-  <si>
-    <t>elc_won-CHE_0019,elc_spv-CHE_0019</t>
-  </si>
-  <si>
-    <t>e_CH45-220,e_w281804158-220,e_w281804158-380</t>
-  </si>
-  <si>
-    <t>elc_won-CHE_0023,elc_spv-CHE_0023</t>
-  </si>
-  <si>
-    <t>e_w207991759-380</t>
-  </si>
-  <si>
-    <t>elc_won-CHE_0011,elc_spv-CHE_0011</t>
-  </si>
-  <si>
-    <t>e_CH46-220,e_CH47-220,e_w228003081-220,e_w391576135-220,e_w391577741-220,e_w969819301-220,e_w969819301-380</t>
-  </si>
-  <si>
-    <t>elc_won-CHE_0015,elc_spv-CHE_0015</t>
-  </si>
-  <si>
-    <t>e_CH50-220,e_CH56-220,e_CH58-220,e_CH59-220,e_w1327084723-220,e_w281800404-220,e_w281803398-220,e_w281815404-220,e_w35487135-220</t>
-  </si>
-  <si>
-    <t>elc_won-CHE_0025,elc_spv-CHE_0025</t>
-  </si>
-  <si>
-    <t>e_r7933294-380</t>
-  </si>
-  <si>
-    <t>elc_won-CHE_0007,elc_spv-CHE_0007</t>
-  </si>
-  <si>
-    <t>e_CH44-220,e_w212722603-220,e_w212722603-380,e_w236819191-220,e_w758943072-220</t>
   </si>
   <si>
     <t>e_won-CHE_0000</t>
@@ -1745,15 +1745,33 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="15" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="15" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="15" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="15" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="15" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="15" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="168" fontId="15" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="168" fontId="15" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="169" fontId="15" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="169" fontId="15" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="15" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="15" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="16">
     <cellStyle name="20% - Accent3 3 2" xfId="4" xr:uid="{ABC4988B-8BA7-47D0-A9D6-448C999748B6}"/>
@@ -1797,7 +1815,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>130175</xdr:colOff>
+      <xdr:colOff>296862</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>266700</xdr:rowOff>
     </xdr:to>
@@ -1806,7 +1824,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1859D984-633A-C4BF-E74B-DF6D9C050EE1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C9B7E0FC-5A66-DDAD-695E-36E44C3778D4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1861,7 +1879,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CE041C73-345A-72B6-1A40-7ED4487DC27D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D021E6FC-D259-94D6-DE53-45FD00B523A5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1916,7 +1934,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1F24D371-D6A3-E99B-6F11-A10BCE70460D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9DCD9A89-8AC3-0D89-F21A-F4CB3378AB8D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1971,7 +1989,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C6C284EC-858C-E7AB-7C4A-FD9EF6E0D3E8}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8C0FE391-D573-517E-7CF2-7EF61A19AA37}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2776,17 +2794,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="2" max="2" width="10.59765625" customWidth="1"/>
-    <col min="3" max="3" width="12.9296875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="30.59765625" customWidth="1"/>
-    <col min="5" max="6" width="10.59765625" customWidth="1"/>
-    <col min="7" max="7" width="12.46484375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.9296875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.59765625" customWidth="1"/>
-    <col min="11" max="11" width="10.796875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.59765625" customWidth="1"/>
-    <col min="13" max="13" width="18.6640625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.59765625" customWidth="1"/>
+    <col min="2" max="7" width="10.59765625" customWidth="1"/>
+    <col min="9" max="14" width="10.59765625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="22.05" customHeight="1">
@@ -2809,7 +2818,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="3" spans="1:14" ht="15.75" thickBot="1">
+    <row r="3" spans="1:14" ht="31.15" thickBot="1">
       <c r="B3" s="29" t="s">
         <v>6</v>
       </c>
@@ -2847,7 +2856,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="4" spans="1:14">
+    <row r="4" spans="1:14" ht="52.5">
       <c r="B4" s="30" t="s">
         <v>17</v>
       </c>
@@ -2881,7 +2890,7 @@
       <c r="M4" s="30"/>
       <c r="N4" s="30"/>
     </row>
-    <row r="5" spans="1:14">
+    <row r="5" spans="1:14" ht="52.5">
       <c r="B5" s="31" t="s">
         <v>17</v>
       </c>
@@ -2915,7 +2924,7 @@
       <c r="M5" s="31"/>
       <c r="N5" s="31"/>
     </row>
-    <row r="6" spans="1:14">
+    <row r="6" spans="1:14" ht="52.5">
       <c r="B6" s="30" t="s">
         <v>17</v>
       </c>
@@ -4474,7 +4483,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F31FD461-9353-45ED-A77C-45DC0E9C7F0D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E460B43-C2E9-4134-B546-D8214582C8FB}">
   <dimension ref="A1:AG28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4483,28 +4492,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="2" max="2" width="10.59765625" customWidth="1"/>
-    <col min="3" max="3" width="12.3984375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="24.53125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.265625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.46484375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.59765625" customWidth="1"/>
-    <col min="11" max="11" width="10.59765625" customWidth="1"/>
-    <col min="12" max="12" width="12.3984375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.59765625" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="10.59765625" customWidth="1"/>
-    <col min="18" max="18" width="10.59765625" customWidth="1"/>
-    <col min="19" max="19" width="18" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="30.59765625" customWidth="1"/>
-    <col min="21" max="21" width="12" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="11.265625" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="10.59765625" customWidth="1"/>
-    <col min="24" max="24" width="12.46484375" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="10.59765625" customWidth="1"/>
-    <col min="29" max="29" width="18" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="27.53125" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="30.59765625" customWidth="1"/>
+    <col min="2" max="8" width="10.59765625" customWidth="1"/>
+    <col min="11" max="15" width="10.59765625" customWidth="1"/>
+    <col min="18" max="25" width="10.59765625" customWidth="1"/>
+    <col min="29" max="30" width="10.59765625" customWidth="1"/>
+    <col min="31" max="31" width="13.33203125" bestFit="1" customWidth="1"/>
     <col min="32" max="33" width="10.59765625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -4534,7 +4526,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="3" spans="1:33" ht="15.75" thickBot="1">
+    <row r="3" spans="1:33" ht="31.15" thickBot="1">
       <c r="B3" s="29" t="s">
         <v>123</v>
       </c>
@@ -4611,7 +4603,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="4" spans="1:33">
+    <row r="4" spans="1:33" ht="157.5">
       <c r="B4" s="30" t="s">
         <v>127</v>
       </c>
@@ -4685,10 +4677,10 @@
         <v>1</v>
       </c>
       <c r="AG4" s="30" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="5" spans="1:33">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="5" spans="1:33" ht="183.75">
       <c r="B5" s="31" t="s">
         <v>127</v>
       </c>
@@ -4762,10 +4754,10 @@
         <v>1</v>
       </c>
       <c r="AG5" s="31" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="6" spans="1:33">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="6" spans="1:33" ht="65.650000000000006">
       <c r="B6" s="30" t="s">
         <v>127</v>
       </c>
@@ -4839,10 +4831,10 @@
         <v>1</v>
       </c>
       <c r="AG6" s="30" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="7" spans="1:33">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="7" spans="1:33" ht="157.5">
       <c r="B7" s="31" t="s">
         <v>127</v>
       </c>
@@ -4916,10 +4908,10 @@
         <v>1</v>
       </c>
       <c r="AG7" s="31" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="8" spans="1:33">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="8" spans="1:33" ht="275.64999999999998">
       <c r="B8" s="30" t="s">
         <v>127</v>
       </c>
@@ -4993,10 +4985,10 @@
         <v>1</v>
       </c>
       <c r="AG8" s="30" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="9" spans="1:33">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="9" spans="1:33" ht="118.15">
       <c r="B9" s="31" t="s">
         <v>127</v>
       </c>
@@ -5070,10 +5062,10 @@
         <v>1</v>
       </c>
       <c r="AG9" s="31" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="10" spans="1:33">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="10" spans="1:33" ht="393.75">
       <c r="B10" s="30" t="s">
         <v>127</v>
       </c>
@@ -5147,10 +5139,10 @@
         <v>1</v>
       </c>
       <c r="AG10" s="30" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="11" spans="1:33">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="11" spans="1:33" ht="249.4">
       <c r="B11" s="31" t="s">
         <v>127</v>
       </c>
@@ -5224,10 +5216,10 @@
         <v>1</v>
       </c>
       <c r="AG11" s="31" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="12" spans="1:33">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="12" spans="1:33" ht="170.65">
       <c r="B12" s="30" t="s">
         <v>127</v>
       </c>
@@ -5301,10 +5293,10 @@
         <v>1</v>
       </c>
       <c r="AG12" s="30" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="13" spans="1:33">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="13" spans="1:33" ht="65.650000000000006">
       <c r="B13" s="31" t="s">
         <v>127</v>
       </c>
@@ -5378,10 +5370,10 @@
         <v>1</v>
       </c>
       <c r="AG13" s="31" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="14" spans="1:33">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="14" spans="1:33" ht="65.650000000000006">
       <c r="B14" s="30" t="s">
         <v>127</v>
       </c>
@@ -5455,10 +5447,10 @@
         <v>1</v>
       </c>
       <c r="AG14" s="30" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="15" spans="1:33">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="15" spans="1:33" ht="157.5">
       <c r="B15" s="31" t="s">
         <v>127</v>
       </c>
@@ -5532,10 +5524,10 @@
         <v>1</v>
       </c>
       <c r="AG15" s="31" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="16" spans="1:33">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="16" spans="1:33" ht="65.650000000000006">
       <c r="B16" s="30" t="s">
         <v>127</v>
       </c>
@@ -5609,10 +5601,10 @@
         <v>1</v>
       </c>
       <c r="AG16" s="30" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="17" spans="2:33">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="17" spans="2:33" ht="118.15">
       <c r="B17" s="31" t="s">
         <v>127</v>
       </c>
@@ -5686,10 +5678,10 @@
         <v>1</v>
       </c>
       <c r="AG17" s="31" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="18" spans="2:33">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="18" spans="2:33" ht="170.65">
       <c r="B18" s="30" t="s">
         <v>127</v>
       </c>
@@ -5763,10 +5755,10 @@
         <v>1</v>
       </c>
       <c r="AG18" s="30" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="19" spans="2:33">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="19" spans="2:33" ht="65.650000000000006">
       <c r="B19" s="31" t="s">
         <v>127</v>
       </c>
@@ -5840,10 +5832,10 @@
         <v>1</v>
       </c>
       <c r="AG19" s="31" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="20" spans="2:33">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="20" spans="2:33" ht="105">
       <c r="B20" s="30" t="s">
         <v>127</v>
       </c>
@@ -5917,10 +5909,10 @@
         <v>1</v>
       </c>
       <c r="AG20" s="30" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="21" spans="2:33">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="21" spans="2:33" ht="65.650000000000006">
       <c r="B21" s="31" t="s">
         <v>127</v>
       </c>
@@ -5994,10 +5986,10 @@
         <v>1</v>
       </c>
       <c r="AG21" s="31" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="22" spans="2:33">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="22" spans="2:33" ht="288.75">
       <c r="B22" s="30" t="s">
         <v>127</v>
       </c>
@@ -6071,10 +6063,10 @@
         <v>1</v>
       </c>
       <c r="AG22" s="30" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="23" spans="2:33">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="23" spans="2:33" ht="105">
       <c r="B23" s="31" t="s">
         <v>127</v>
       </c>
@@ -6148,10 +6140,10 @@
         <v>1</v>
       </c>
       <c r="AG23" s="31" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="24" spans="2:33">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="24" spans="2:33" ht="65.650000000000006">
       <c r="B24" s="30" t="s">
         <v>127</v>
       </c>
@@ -6225,10 +6217,10 @@
         <v>1</v>
       </c>
       <c r="AG24" s="30" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="25" spans="2:33">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="25" spans="2:33" ht="65.650000000000006">
       <c r="B25" s="31" t="s">
         <v>127</v>
       </c>
@@ -6302,10 +6294,10 @@
         <v>1</v>
       </c>
       <c r="AG25" s="31" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="26" spans="2:33">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="26" spans="2:33" ht="223.15">
       <c r="B26" s="30" t="s">
         <v>127</v>
       </c>
@@ -6379,10 +6371,10 @@
         <v>1</v>
       </c>
       <c r="AG26" s="30" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="27" spans="2:33">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="27" spans="2:33" ht="105">
       <c r="B27" s="31" t="s">
         <v>127</v>
       </c>
@@ -6456,10 +6448,10 @@
         <v>1</v>
       </c>
       <c r="AG27" s="31" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="28" spans="2:33">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="28" spans="2:33" ht="288.75">
       <c r="B28" s="30" t="s">
         <v>127</v>
       </c>
@@ -6533,7 +6525,7 @@
         <v>1</v>
       </c>
       <c r="AG28" s="30" t="s">
-        <v>228</v>
+        <v>220</v>
       </c>
     </row>
   </sheetData>
@@ -6546,7 +6538,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{047644EF-6E83-4893-8BF3-B820B383DF67}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D8E5D4D-A76A-4690-94B5-107F0CEFFA52}">
   <dimension ref="A1:O29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6555,17 +6547,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="2" max="2" width="10.59765625" customWidth="1"/>
-    <col min="3" max="3" width="13.06640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="24.59765625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.265625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.46484375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.59765625" customWidth="1"/>
-    <col min="11" max="11" width="10.59765625" customWidth="1"/>
-    <col min="12" max="12" width="13.06640625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.19921875" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="10.59765625" customWidth="1"/>
+    <col min="2" max="8" width="10.59765625" customWidth="1"/>
+    <col min="11" max="15" width="10.59765625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="22.05" customHeight="1">
@@ -6588,7 +6571,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="15.75" thickBot="1">
+    <row r="3" spans="1:15" ht="31.15" thickBot="1">
       <c r="B3" s="29" t="s">
         <v>123</v>
       </c>
@@ -6626,7 +6609,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="4" spans="1:15">
+    <row r="4" spans="1:15" ht="52.5">
       <c r="B4" s="30" t="s">
         <v>127</v>
       </c>
@@ -6664,7 +6647,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="5" spans="1:15">
+    <row r="5" spans="1:15" ht="52.5">
       <c r="B5" s="31" t="s">
         <v>127</v>
       </c>
@@ -6702,7 +6685,7 @@
         <v>0.22</v>
       </c>
     </row>
-    <row r="6" spans="1:15">
+    <row r="6" spans="1:15" ht="52.5">
       <c r="B6" s="30" t="s">
         <v>127</v>
       </c>
@@ -6740,7 +6723,7 @@
         <v>0.17799999999999999</v>
       </c>
     </row>
-    <row r="7" spans="1:15">
+    <row r="7" spans="1:15" ht="52.5">
       <c r="B7" s="31" t="s">
         <v>127</v>
       </c>
@@ -6778,7 +6761,7 @@
         <v>0.19600000000000001</v>
       </c>
     </row>
-    <row r="8" spans="1:15">
+    <row r="8" spans="1:15" ht="52.5">
       <c r="B8" s="30" t="s">
         <v>127</v>
       </c>
@@ -6816,7 +6799,7 @@
         <v>0.221</v>
       </c>
     </row>
-    <row r="9" spans="1:15">
+    <row r="9" spans="1:15" ht="52.5">
       <c r="B9" s="31" t="s">
         <v>127</v>
       </c>
@@ -6854,7 +6837,7 @@
         <v>0.14299999999999999</v>
       </c>
     </row>
-    <row r="10" spans="1:15">
+    <row r="10" spans="1:15" ht="52.5">
       <c r="B10" s="30" t="s">
         <v>127</v>
       </c>
@@ -6892,7 +6875,7 @@
         <v>0.16900000000000001</v>
       </c>
     </row>
-    <row r="11" spans="1:15">
+    <row r="11" spans="1:15" ht="52.5">
       <c r="B11" s="31" t="s">
         <v>127</v>
       </c>
@@ -6930,7 +6913,7 @@
         <v>0.14099999999999999</v>
       </c>
     </row>
-    <row r="12" spans="1:15">
+    <row r="12" spans="1:15" ht="52.5">
       <c r="B12" s="30" t="s">
         <v>127</v>
       </c>
@@ -6968,7 +6951,7 @@
         <v>0.246</v>
       </c>
     </row>
-    <row r="13" spans="1:15">
+    <row r="13" spans="1:15" ht="52.5">
       <c r="B13" s="31" t="s">
         <v>127</v>
       </c>
@@ -7006,7 +6989,7 @@
         <v>0.14399999999999999</v>
       </c>
     </row>
-    <row r="14" spans="1:15">
+    <row r="14" spans="1:15" ht="52.5">
       <c r="B14" s="30" t="s">
         <v>127</v>
       </c>
@@ -7044,7 +7027,7 @@
         <v>0.153</v>
       </c>
     </row>
-    <row r="15" spans="1:15">
+    <row r="15" spans="1:15" ht="52.5">
       <c r="B15" s="31" t="s">
         <v>127</v>
       </c>
@@ -7082,7 +7065,7 @@
         <v>0.13700000000000001</v>
       </c>
     </row>
-    <row r="16" spans="1:15">
+    <row r="16" spans="1:15" ht="52.5">
       <c r="B16" s="30" t="s">
         <v>127</v>
       </c>
@@ -7120,7 +7103,7 @@
         <v>0.24199999999999999</v>
       </c>
     </row>
-    <row r="17" spans="2:15">
+    <row r="17" spans="2:15" ht="52.5">
       <c r="B17" s="31" t="s">
         <v>127</v>
       </c>
@@ -7158,7 +7141,7 @@
         <v>0.23200000000000001</v>
       </c>
     </row>
-    <row r="18" spans="2:15">
+    <row r="18" spans="2:15" ht="52.5">
       <c r="B18" s="30" t="s">
         <v>127</v>
       </c>
@@ -7196,7 +7179,7 @@
         <v>0.156</v>
       </c>
     </row>
-    <row r="19" spans="2:15">
+    <row r="19" spans="2:15" ht="52.5">
       <c r="B19" s="31" t="s">
         <v>127</v>
       </c>
@@ -7234,7 +7217,7 @@
         <v>0.153</v>
       </c>
     </row>
-    <row r="20" spans="2:15">
+    <row r="20" spans="2:15" ht="52.5">
       <c r="B20" s="30" t="s">
         <v>127</v>
       </c>
@@ -7272,7 +7255,7 @@
         <v>0.156</v>
       </c>
     </row>
-    <row r="21" spans="2:15">
+    <row r="21" spans="2:15" ht="52.5">
       <c r="B21" s="31" t="s">
         <v>127</v>
       </c>
@@ -7310,7 +7293,7 @@
         <v>0.23</v>
       </c>
     </row>
-    <row r="22" spans="2:15">
+    <row r="22" spans="2:15" ht="52.5">
       <c r="B22" s="30" t="s">
         <v>127</v>
       </c>
@@ -7348,7 +7331,7 @@
         <v>0.22700000000000001</v>
       </c>
     </row>
-    <row r="23" spans="2:15">
+    <row r="23" spans="2:15" ht="52.5">
       <c r="B23" s="31" t="s">
         <v>127</v>
       </c>
@@ -7386,7 +7369,7 @@
         <v>0.17100000000000001</v>
       </c>
     </row>
-    <row r="24" spans="2:15">
+    <row r="24" spans="2:15" ht="52.5">
       <c r="B24" s="30" t="s">
         <v>127</v>
       </c>
@@ -7424,7 +7407,7 @@
         <v>0.19600000000000001</v>
       </c>
     </row>
-    <row r="25" spans="2:15">
+    <row r="25" spans="2:15" ht="52.5">
       <c r="B25" s="31" t="s">
         <v>127</v>
       </c>
@@ -7462,7 +7445,7 @@
         <v>0.219</v>
       </c>
     </row>
-    <row r="26" spans="2:15">
+    <row r="26" spans="2:15" ht="52.5">
       <c r="B26" s="30" t="s">
         <v>127</v>
       </c>
@@ -7500,7 +7483,7 @@
         <v>0.223</v>
       </c>
     </row>
-    <row r="27" spans="2:15">
+    <row r="27" spans="2:15" ht="52.5">
       <c r="B27" s="31" t="s">
         <v>127</v>
       </c>
@@ -7538,7 +7521,7 @@
         <v>0.183</v>
       </c>
     </row>
-    <row r="28" spans="2:15">
+    <row r="28" spans="2:15" ht="52.5">
       <c r="B28" s="30" t="s">
         <v>127</v>
       </c>
@@ -7576,7 +7559,7 @@
         <v>0.17199999999999999</v>
       </c>
     </row>
-    <row r="29" spans="2:15">
+    <row r="29" spans="2:15" ht="52.5">
       <c r="B29" s="31" t="s">
         <v>127</v>
       </c>
@@ -7624,22 +7607,15 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5DB6E10E-6D63-444B-98C4-632D0E560EEB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02D4B206-7B81-40BB-969B-8F548C831770}">
   <dimension ref="A1:Q69"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="2" max="2" width="30.59765625" customWidth="1"/>
-    <col min="3" max="8" width="10.59765625" customWidth="1"/>
-    <col min="11" max="11" width="10.59765625" customWidth="1"/>
-    <col min="12" max="12" width="30.59765625" customWidth="1"/>
-    <col min="13" max="13" width="10.59765625" customWidth="1"/>
-    <col min="14" max="14" width="12" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="11.265625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="12.46484375" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="10.59765625" customWidth="1"/>
+    <col min="2" max="8" width="10.59765625" customWidth="1"/>
+    <col min="11" max="17" width="10.59765625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="22.05" customHeight="1">
@@ -7662,7 +7638,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="3" spans="1:17" ht="15.75" thickBot="1">
+    <row r="3" spans="1:17" ht="31.15" thickBot="1">
       <c r="B3" s="29" t="s">
         <v>108</v>
       </c>
@@ -7706,7 +7682,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="4" spans="1:17">
+    <row r="4" spans="1:17" ht="26.25">
       <c r="B4" s="30" t="s">
         <v>419</v>
       </c>
@@ -7748,7 +7724,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="5" spans="1:17">
+    <row r="5" spans="1:17" ht="39.4">
       <c r="B5" s="31" t="s">
         <v>419</v>
       </c>
@@ -7790,7 +7766,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="6" spans="1:17">
+    <row r="6" spans="1:17" ht="26.25">
       <c r="B6" s="30" t="s">
         <v>419</v>
       </c>
@@ -7832,7 +7808,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="7" spans="1:17">
+    <row r="7" spans="1:17" ht="26.25">
       <c r="B7" s="31" t="s">
         <v>419</v>
       </c>
@@ -7874,7 +7850,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="8" spans="1:17">
+    <row r="8" spans="1:17" ht="26.25">
       <c r="B8" s="30" t="s">
         <v>419</v>
       </c>
@@ -7916,7 +7892,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="9" spans="1:17">
+    <row r="9" spans="1:17" ht="52.5">
       <c r="B9" s="31" t="s">
         <v>424</v>
       </c>
@@ -7958,7 +7934,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="10" spans="1:17">
+    <row r="10" spans="1:17" ht="39.4">
       <c r="B10" s="30" t="s">
         <v>424</v>
       </c>
@@ -8000,7 +7976,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="11" spans="1:17">
+    <row r="11" spans="1:17" ht="39.4">
       <c r="B11" s="31" t="s">
         <v>424</v>
       </c>
@@ -8042,7 +8018,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="12" spans="1:17">
+    <row r="12" spans="1:17" ht="39.4">
       <c r="B12" s="30" t="s">
         <v>424</v>
       </c>
@@ -8084,7 +8060,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="13" spans="1:17">
+    <row r="13" spans="1:17" ht="39.4">
       <c r="B13" s="31" t="s">
         <v>424</v>
       </c>
@@ -8168,7 +8144,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="15" spans="1:17">
+    <row r="15" spans="1:17" ht="26.25">
       <c r="B15" s="31" t="s">
         <v>425</v>
       </c>
@@ -8210,7 +8186,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="16" spans="1:17">
+    <row r="16" spans="1:17" ht="52.5">
       <c r="B16" s="30" t="s">
         <v>425</v>
       </c>
@@ -8252,7 +8228,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="17" spans="2:17">
+    <row r="17" spans="2:17" ht="26.25">
       <c r="B17" s="31" t="s">
         <v>426</v>
       </c>
@@ -8294,7 +8270,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="18" spans="2:17">
+    <row r="18" spans="2:17" ht="39.4">
       <c r="B18" s="30" t="s">
         <v>426</v>
       </c>
@@ -8336,7 +8312,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="19" spans="2:17">
+    <row r="19" spans="2:17" ht="39.4">
       <c r="B19" s="31" t="s">
         <v>426</v>
       </c>
@@ -8378,7 +8354,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="20" spans="2:17">
+    <row r="20" spans="2:17" ht="26.25">
       <c r="B20" s="30" t="s">
         <v>427</v>
       </c>
@@ -8420,7 +8396,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="21" spans="2:17">
+    <row r="21" spans="2:17" ht="26.25">
       <c r="B21" s="31" t="s">
         <v>427</v>
       </c>
@@ -8485,7 +8461,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="23" spans="2:17">
+    <row r="23" spans="2:17" ht="52.5">
       <c r="B23" s="31" t="s">
         <v>428</v>
       </c>
@@ -8508,7 +8484,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="24" spans="2:17">
+    <row r="24" spans="2:17" ht="52.5">
       <c r="B24" s="30" t="s">
         <v>428</v>
       </c>
@@ -8531,7 +8507,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="25" spans="2:17">
+    <row r="25" spans="2:17" ht="52.5">
       <c r="B25" s="31" t="s">
         <v>428</v>
       </c>
@@ -8623,7 +8599,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="29" spans="2:17">
+    <row r="29" spans="2:17" ht="39.4">
       <c r="B29" s="31" t="s">
         <v>430</v>
       </c>
@@ -8646,7 +8622,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="30" spans="2:17">
+    <row r="30" spans="2:17" ht="39.4">
       <c r="B30" s="30" t="s">
         <v>430</v>
       </c>
@@ -8669,7 +8645,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="31" spans="2:17">
+    <row r="31" spans="2:17" ht="39.4">
       <c r="B31" s="31" t="s">
         <v>430</v>
       </c>
@@ -8692,7 +8668,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="32" spans="2:17">
+    <row r="32" spans="2:17" ht="39.4">
       <c r="B32" s="30" t="s">
         <v>430</v>
       </c>
@@ -8715,7 +8691,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="33" spans="2:8">
+    <row r="33" spans="2:8" ht="39.4">
       <c r="B33" s="31" t="s">
         <v>430</v>
       </c>
@@ -8945,7 +8921,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="43" spans="2:8">
+    <row r="43" spans="2:8" ht="26.25">
       <c r="B43" s="31" t="s">
         <v>434</v>
       </c>
@@ -8968,7 +8944,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="44" spans="2:8">
+    <row r="44" spans="2:8" ht="26.25">
       <c r="B44" s="30" t="s">
         <v>434</v>
       </c>
@@ -8991,7 +8967,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="45" spans="2:8">
+    <row r="45" spans="2:8" ht="26.25">
       <c r="B45" s="31" t="s">
         <v>434</v>
       </c>
@@ -9014,7 +8990,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="46" spans="2:8">
+    <row r="46" spans="2:8" ht="52.5">
       <c r="B46" s="30" t="s">
         <v>435</v>
       </c>
@@ -9037,7 +9013,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="47" spans="2:8">
+    <row r="47" spans="2:8" ht="52.5">
       <c r="B47" s="31" t="s">
         <v>435</v>
       </c>
@@ -9060,7 +9036,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="48" spans="2:8">
+    <row r="48" spans="2:8" ht="52.5">
       <c r="B48" s="30" t="s">
         <v>435</v>
       </c>
@@ -9083,7 +9059,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="49" spans="2:8">
+    <row r="49" spans="2:8" ht="52.5">
       <c r="B49" s="31" t="s">
         <v>435</v>
       </c>
@@ -9106,7 +9082,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="50" spans="2:8">
+    <row r="50" spans="2:8" ht="52.5">
       <c r="B50" s="30" t="s">
         <v>435</v>
       </c>
@@ -9129,7 +9105,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="51" spans="2:8">
+    <row r="51" spans="2:8" ht="26.25">
       <c r="B51" s="31" t="s">
         <v>436</v>
       </c>
@@ -9152,7 +9128,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="52" spans="2:8">
+    <row r="52" spans="2:8" ht="26.25">
       <c r="B52" s="30" t="s">
         <v>436</v>
       </c>
@@ -9175,7 +9151,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="53" spans="2:8">
+    <row r="53" spans="2:8" ht="26.25">
       <c r="B53" s="31" t="s">
         <v>436</v>
       </c>
@@ -9198,7 +9174,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="54" spans="2:8">
+    <row r="54" spans="2:8" ht="39.4">
       <c r="B54" s="30" t="s">
         <v>437</v>
       </c>
@@ -9221,7 +9197,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="55" spans="2:8">
+    <row r="55" spans="2:8" ht="39.4">
       <c r="B55" s="31" t="s">
         <v>437</v>
       </c>
@@ -9244,7 +9220,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="56" spans="2:8">
+    <row r="56" spans="2:8" ht="39.4">
       <c r="B56" s="30" t="s">
         <v>437</v>
       </c>
@@ -9267,7 +9243,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="57" spans="2:8">
+    <row r="57" spans="2:8" ht="39.4">
       <c r="B57" s="31" t="s">
         <v>438</v>
       </c>
@@ -9290,7 +9266,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="58" spans="2:8">
+    <row r="58" spans="2:8" ht="39.4">
       <c r="B58" s="30" t="s">
         <v>438</v>
       </c>
@@ -9313,7 +9289,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="59" spans="2:8">
+    <row r="59" spans="2:8" ht="39.4">
       <c r="B59" s="31" t="s">
         <v>438</v>
       </c>
@@ -9336,7 +9312,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="60" spans="2:8">
+    <row r="60" spans="2:8" ht="26.25">
       <c r="B60" s="30" t="s">
         <v>439</v>
       </c>
@@ -9359,7 +9335,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="61" spans="2:8">
+    <row r="61" spans="2:8" ht="26.25">
       <c r="B61" s="31" t="s">
         <v>439</v>
       </c>
@@ -9382,7 +9358,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="62" spans="2:8">
+    <row r="62" spans="2:8" ht="26.25">
       <c r="B62" s="30" t="s">
         <v>439</v>
       </c>
@@ -9405,7 +9381,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="63" spans="2:8">
+    <row r="63" spans="2:8" ht="26.25">
       <c r="B63" s="31" t="s">
         <v>439</v>
       </c>
@@ -9428,7 +9404,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="64" spans="2:8">
+    <row r="64" spans="2:8" ht="26.25">
       <c r="B64" s="30" t="s">
         <v>439</v>
       </c>
@@ -9451,7 +9427,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="65" spans="2:8">
+    <row r="65" spans="2:8" ht="26.25">
       <c r="B65" s="31" t="s">
         <v>440</v>
       </c>
@@ -9474,7 +9450,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="66" spans="2:8">
+    <row r="66" spans="2:8" ht="26.25">
       <c r="B66" s="30" t="s">
         <v>440</v>
       </c>
@@ -9497,7 +9473,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="67" spans="2:8">
+    <row r="67" spans="2:8" ht="26.25">
       <c r="B67" s="31" t="s">
         <v>440</v>
       </c>
@@ -9520,7 +9496,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="68" spans="2:8">
+    <row r="68" spans="2:8" ht="26.25">
       <c r="B68" s="30" t="s">
         <v>440</v>
       </c>
@@ -9543,7 +9519,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="69" spans="2:8">
+    <row r="69" spans="2:8" ht="26.25">
       <c r="B69" s="31" t="s">
         <v>440</v>
       </c>

--- a/VerveStacks_CHE_grids/SubRES_Tmpl/SubRES_New_RE_and_Conventional.xlsx
+++ b/VerveStacks_CHE_grids/SubRES_Tmpl/SubRES_New_RE_and_Conventional.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_CHE_grids\SubRES_Tmpl\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F4A07860-8FD9-443F-A5F6-576EF772D801}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{BC66A40B-F00C-4F78-A3F9-4A3F9B2BCA05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="6" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -815,18 +815,72 @@
     <t>pre</t>
   </si>
   <si>
+    <t>distr_elc_won-CHE_0000</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell CHE_0</t>
+  </si>
+  <si>
+    <t>NRGI</t>
+  </si>
+  <si>
+    <t>daynite</t>
+  </si>
+  <si>
+    <t>distr_elc_won-CHE_0002</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell CHE_2</t>
+  </si>
+  <si>
+    <t>distr_elc_won-CHE_0009</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell CHE_9</t>
+  </si>
+  <si>
+    <t>distr_elc_won-CHE_0021</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell CHE_21</t>
+  </si>
+  <si>
+    <t>distr_elc_won-CHE_0004</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell CHE_4</t>
+  </si>
+  <si>
+    <t>distr_elc_won-CHE_0007</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell CHE_7</t>
+  </si>
+  <si>
+    <t>distr_elc_won-CHE_0024</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell CHE_24</t>
+  </si>
+  <si>
+    <t>distr_elc_won-CHE_0008</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell CHE_8</t>
+  </si>
+  <si>
+    <t>distr_elc_won-CHE_0005</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell CHE_5</t>
+  </si>
+  <si>
     <t>distr_elc_won-CHE_0011</t>
   </si>
   <si>
     <t>connecting solar and wind to buses in grid cell CHE_11</t>
   </si>
   <si>
-    <t>NRGI</t>
-  </si>
-  <si>
-    <t>daynite</t>
-  </si>
-  <si>
     <t>distr_elc_won-CHE_0015</t>
   </si>
   <si>
@@ -839,10 +893,52 @@
     <t>connecting solar and wind to buses in grid cell CHE_25</t>
   </si>
   <si>
-    <t>distr_elc_won-CHE_0000</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell CHE_0</t>
+    <t>distr_elc_won-CHE_0010</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell CHE_10</t>
+  </si>
+  <si>
+    <t>distr_elc_won-CHE_0022</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell CHE_22</t>
+  </si>
+  <si>
+    <t>distr_elc_won-CHE_0013</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell CHE_13</t>
+  </si>
+  <si>
+    <t>distr_elc_won-CHE_0014</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell CHE_14</t>
+  </si>
+  <si>
+    <t>distr_elc_won-CHE_0018</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell CHE_18</t>
+  </si>
+  <si>
+    <t>distr_elc_won-CHE_0017</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell CHE_17</t>
+  </si>
+  <si>
+    <t>distr_elc_won-CHE_0019</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell CHE_19</t>
+  </si>
+  <si>
+    <t>distr_elc_won-CHE_0023</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell CHE_23</t>
   </si>
   <si>
     <t>distr_elc_won-CHE_0012</t>
@@ -851,84 +947,6 @@
     <t>connecting solar and wind to buses in grid cell CHE_12</t>
   </si>
   <si>
-    <t>distr_elc_won-CHE_0007</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell CHE_7</t>
-  </si>
-  <si>
-    <t>distr_elc_won-CHE_0014</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell CHE_14</t>
-  </si>
-  <si>
-    <t>distr_elc_won-CHE_0018</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell CHE_18</t>
-  </si>
-  <si>
-    <t>distr_elc_won-CHE_0017</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell CHE_17</t>
-  </si>
-  <si>
-    <t>distr_elc_won-CHE_0019</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell CHE_19</t>
-  </si>
-  <si>
-    <t>distr_elc_won-CHE_0023</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell CHE_23</t>
-  </si>
-  <si>
-    <t>distr_elc_won-CHE_0009</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell CHE_9</t>
-  </si>
-  <si>
-    <t>distr_elc_won-CHE_0021</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell CHE_21</t>
-  </si>
-  <si>
-    <t>distr_elc_won-CHE_0004</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell CHE_4</t>
-  </si>
-  <si>
-    <t>distr_elc_won-CHE_0013</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell CHE_13</t>
-  </si>
-  <si>
-    <t>distr_elc_won-CHE_0024</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell CHE_24</t>
-  </si>
-  <si>
-    <t>distr_elc_won-CHE_0008</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell CHE_8</t>
-  </si>
-  <si>
-    <t>distr_elc_won-CHE_0005</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell CHE_5</t>
-  </si>
-  <si>
     <t>distr_elc_won-CHE_0020</t>
   </si>
   <si>
@@ -947,24 +965,6 @@
     <t>connecting solar and wind to buses in grid cell CHE_6</t>
   </si>
   <si>
-    <t>distr_elc_won-CHE_0002</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell CHE_2</t>
-  </si>
-  <si>
-    <t>distr_elc_won-CHE_0010</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell CHE_10</t>
-  </si>
-  <si>
-    <t>distr_elc_won-CHE_0022</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell CHE_22</t>
-  </si>
-  <si>
     <t>distr_elc_won-CHE_0003</t>
   </si>
   <si>
@@ -977,6 +977,60 @@
     <t>efficiency</t>
   </si>
   <si>
+    <t>elc_won-CHE_0000,elc_spv-CHE_0000</t>
+  </si>
+  <si>
+    <t>e_CH51-220,e_CH51-225,e_CH51-400,e_CH52-220,e_CH57-220,e_CH57-225,e_w177392130-220,e_w177392130-400,e_w239937062-220</t>
+  </si>
+  <si>
+    <t>elc_won-CHE_0002,elc_spv-CHE_0002</t>
+  </si>
+  <si>
+    <t>e_w232662311-220</t>
+  </si>
+  <si>
+    <t>elc_won-CHE_0009,elc_spv-CHE_0009</t>
+  </si>
+  <si>
+    <t>e_CH14-220,e_CH14-380,e_w1105061707-220,e_w1105061707-380,e_w147557680-220,e_w165254212-220,e_w402053379-220</t>
+  </si>
+  <si>
+    <t>elc_won-CHE_0021,elc_spv-CHE_0021</t>
+  </si>
+  <si>
+    <t>e_CH17-380,e_w211907009-220</t>
+  </si>
+  <si>
+    <t>elc_won-CHE_0004,elc_spv-CHE_0004</t>
+  </si>
+  <si>
+    <t>e_w111162936-220,e_w111162936-380,e_w111162936-400,e_w122720993-220,e_w194258388-220</t>
+  </si>
+  <si>
+    <t>elc_won-CHE_0007,elc_spv-CHE_0007</t>
+  </si>
+  <si>
+    <t>e_CH44-220,e_w212722603-220,e_w212722603-380,e_w236819191-220,e_w758943072-220</t>
+  </si>
+  <si>
+    <t>elc_won-CHE_0024,elc_spv-CHE_0024</t>
+  </si>
+  <si>
+    <t>e_CH30-380,e_CH33-380,e_CH37-380,e_r7933294-380</t>
+  </si>
+  <si>
+    <t>elc_won-CHE_0008,elc_spv-CHE_0008</t>
+  </si>
+  <si>
+    <t>e_CH43-220,e_w209324991-220,e_w26166640-220,e_w402055336-220,e_w758315582-220</t>
+  </si>
+  <si>
+    <t>elc_won-CHE_0005,elc_spv-CHE_0005</t>
+  </si>
+  <si>
+    <t>e_r5378910-220,e_w161853746-220</t>
+  </si>
+  <si>
     <t>elc_won-CHE_0011,elc_spv-CHE_0011</t>
   </si>
   <si>
@@ -995,10 +1049,52 @@
     <t>e_r7933294-380</t>
   </si>
   <si>
-    <t>elc_won-CHE_0000,elc_spv-CHE_0000</t>
-  </si>
-  <si>
-    <t>e_CH51-220,e_CH51-225,e_CH51-400,e_CH52-220,e_CH57-220,e_CH57-225,e_w177392130-220,e_w177392130-400,e_w239937062-220</t>
+    <t>elc_won-CHE_0010,elc_spv-CHE_0010</t>
+  </si>
+  <si>
+    <t>e_CH11-220,e_w109037817-220,e_w109037817-380,e_w127004407-380,e_w127004407-400,e_w27435934-220,e_w30350721-220,e_w397960460-380,e_w397960460-400,e_w88901626-380</t>
+  </si>
+  <si>
+    <t>elc_won-CHE_0022,elc_spv-CHE_0022</t>
+  </si>
+  <si>
+    <t>e_CH4-220,e_CH9-220,e_w455120191-220,e_w83861269-220,e_w92798668-220,e_w92873516-220</t>
+  </si>
+  <si>
+    <t>elc_won-CHE_0013,elc_spv-CHE_0013</t>
+  </si>
+  <si>
+    <t>e_CH15-220,e_w146225999-220,e_w159527493-220,e_w242269161-220,e_w281799252-220,e_w35002638-220,e_w35002638-380,e_w97941869-220</t>
+  </si>
+  <si>
+    <t>elc_won-CHE_0014,elc_spv-CHE_0014</t>
+  </si>
+  <si>
+    <t>e_CH1-220,e_CH2-220,e_CH5-220,e_CH7-220,e_w108257952-220,e_w1284913429-220,e_w165513396-220,e_w165513396-380,e_w190819048-220,e_w27107779-220,e_w31308888-220,e_w33271433-220,e_w356292116-220,e_w356292116-380,e_w35840165-380,e_w50319857-220,e_w50319857-380,e_w50319857-400,e_w89405664-220,e_w89977424-220,e_w98648381-220,e_w98648381-380</t>
+  </si>
+  <si>
+    <t>elc_won-CHE_0018,elc_spv-CHE_0018</t>
+  </si>
+  <si>
+    <t>e_CH3-220,e_CH6-220,e_r9310861-220,e_w11282314-220,e_w147714395-220,e_w147714395-380,e_w148015471-220,e_w22899676-220,e_w240575085-220,e_w26843160-220,e_w281809991-220,e_w50561341-220,e_w87281514-220</t>
+  </si>
+  <si>
+    <t>elc_won-CHE_0017,elc_spv-CHE_0017</t>
+  </si>
+  <si>
+    <t>e_CH12-220,e_CH12-380,e_CH13-220,e_CH16-380,e_CH18-220,e_CH18-380,e_w192677427-220,e_w192677427-380,e_w52738225-220,e_w52738225-380</t>
+  </si>
+  <si>
+    <t>elc_won-CHE_0019,elc_spv-CHE_0019</t>
+  </si>
+  <si>
+    <t>e_CH45-220,e_w281804158-220,e_w281804158-380</t>
+  </si>
+  <si>
+    <t>elc_won-CHE_0023,elc_spv-CHE_0023</t>
+  </si>
+  <si>
+    <t>e_w207991759-380</t>
   </si>
   <si>
     <t>elc_won-CHE_0012,elc_spv-CHE_0012</t>
@@ -1007,84 +1103,6 @@
     <t>e_CH19-220,e_CH20-220,e_CH25-220,e_CH27-220,e_CH34-220,e_CH34-380,e_CH35-220,e_CH36-220,e_CH38-220,e_CH39-220,e_CH40-220,e_w1086214433-220,e_w1092884227-220,e_w240959264-220,e_w364949845-220,e_w364949845-380</t>
   </si>
   <si>
-    <t>elc_won-CHE_0007,elc_spv-CHE_0007</t>
-  </si>
-  <si>
-    <t>e_CH44-220,e_w212722603-220,e_w212722603-380,e_w236819191-220,e_w758943072-220</t>
-  </si>
-  <si>
-    <t>elc_won-CHE_0014,elc_spv-CHE_0014</t>
-  </si>
-  <si>
-    <t>e_CH1-220,e_CH2-220,e_CH5-220,e_CH7-220,e_w108257952-220,e_w1284913429-220,e_w165513396-220,e_w165513396-380,e_w190819048-220,e_w27107779-220,e_w31308888-220,e_w33271433-220,e_w356292116-220,e_w356292116-380,e_w35840165-380,e_w50319857-220,e_w50319857-380,e_w50319857-400,e_w89405664-220,e_w89977424-220,e_w98648381-220,e_w98648381-380</t>
-  </si>
-  <si>
-    <t>elc_won-CHE_0018,elc_spv-CHE_0018</t>
-  </si>
-  <si>
-    <t>e_CH3-220,e_CH6-220,e_r9310861-220,e_w11282314-220,e_w147714395-220,e_w147714395-380,e_w148015471-220,e_w22899676-220,e_w240575085-220,e_w26843160-220,e_w281809991-220,e_w50561341-220,e_w87281514-220</t>
-  </si>
-  <si>
-    <t>elc_won-CHE_0017,elc_spv-CHE_0017</t>
-  </si>
-  <si>
-    <t>e_CH12-220,e_CH12-380,e_CH13-220,e_CH16-380,e_CH18-220,e_CH18-380,e_w192677427-220,e_w192677427-380,e_w52738225-220,e_w52738225-380</t>
-  </si>
-  <si>
-    <t>elc_won-CHE_0019,elc_spv-CHE_0019</t>
-  </si>
-  <si>
-    <t>e_CH45-220,e_w281804158-220,e_w281804158-380</t>
-  </si>
-  <si>
-    <t>elc_won-CHE_0023,elc_spv-CHE_0023</t>
-  </si>
-  <si>
-    <t>e_w207991759-380</t>
-  </si>
-  <si>
-    <t>elc_won-CHE_0009,elc_spv-CHE_0009</t>
-  </si>
-  <si>
-    <t>e_CH14-220,e_CH14-380,e_w1105061707-220,e_w1105061707-380,e_w147557680-220,e_w165254212-220,e_w402053379-220</t>
-  </si>
-  <si>
-    <t>elc_won-CHE_0021,elc_spv-CHE_0021</t>
-  </si>
-  <si>
-    <t>e_CH17-380,e_w211907009-220</t>
-  </si>
-  <si>
-    <t>elc_won-CHE_0004,elc_spv-CHE_0004</t>
-  </si>
-  <si>
-    <t>e_w111162936-220,e_w111162936-380,e_w111162936-400,e_w122720993-220,e_w194258388-220</t>
-  </si>
-  <si>
-    <t>elc_won-CHE_0013,elc_spv-CHE_0013</t>
-  </si>
-  <si>
-    <t>e_CH15-220,e_w146225999-220,e_w159527493-220,e_w242269161-220,e_w281799252-220,e_w35002638-220,e_w35002638-380,e_w97941869-220</t>
-  </si>
-  <si>
-    <t>elc_won-CHE_0024,elc_spv-CHE_0024</t>
-  </si>
-  <si>
-    <t>e_CH30-380,e_CH33-380,e_CH37-380,e_r7933294-380</t>
-  </si>
-  <si>
-    <t>elc_won-CHE_0008,elc_spv-CHE_0008</t>
-  </si>
-  <si>
-    <t>e_CH43-220,e_w209324991-220,e_w26166640-220,e_w402055336-220,e_w758315582-220</t>
-  </si>
-  <si>
-    <t>elc_won-CHE_0005,elc_spv-CHE_0005</t>
-  </si>
-  <si>
-    <t>e_r5378910-220,e_w161853746-220</t>
-  </si>
-  <si>
     <t>elc_won-CHE_0020,elc_spv-CHE_0020</t>
   </si>
   <si>
@@ -1101,24 +1119,6 @@
   </si>
   <si>
     <t>e_w127004407-400</t>
-  </si>
-  <si>
-    <t>elc_won-CHE_0002,elc_spv-CHE_0002</t>
-  </si>
-  <si>
-    <t>e_w232662311-220</t>
-  </si>
-  <si>
-    <t>elc_won-CHE_0010,elc_spv-CHE_0010</t>
-  </si>
-  <si>
-    <t>e_CH11-220,e_w109037817-220,e_w109037817-380,e_w127004407-380,e_w127004407-400,e_w27435934-220,e_w30350721-220,e_w397960460-380,e_w397960460-400,e_w88901626-380</t>
-  </si>
-  <si>
-    <t>elc_won-CHE_0022,elc_spv-CHE_0022</t>
-  </si>
-  <si>
-    <t>e_CH4-220,e_CH9-220,e_w455120191-220,e_w83861269-220,e_w92798668-220,e_w92873516-220</t>
   </si>
   <si>
     <t>elc_won-CHE_0003,elc_spv-CHE_0003</t>
@@ -1745,33 +1745,15 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="168" fontId="15" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="168" fontId="15" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="169" fontId="15" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="169" fontId="15" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="15" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="15" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="168" fontId="15" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="168" fontId="15" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="169" fontId="15" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="169" fontId="15" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="2" fontId="15" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="2" fontId="15" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="16">
     <cellStyle name="20% - Accent3 3 2" xfId="4" xr:uid="{ABC4988B-8BA7-47D0-A9D6-448C999748B6}"/>
@@ -1815,7 +1797,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>296862</xdr:colOff>
+      <xdr:colOff>130175</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>266700</xdr:rowOff>
     </xdr:to>
@@ -1824,7 +1806,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C9B7E0FC-5A66-DDAD-695E-36E44C3778D4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D9E1BB19-49DC-C8BD-5D36-F42D3E7EAD4B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1879,7 +1861,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D021E6FC-D259-94D6-DE53-45FD00B523A5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F327D75E-7FFF-0A86-DDD9-1C78100700B1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1934,7 +1916,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9DCD9A89-8AC3-0D89-F21A-F4CB3378AB8D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1A2E4B65-4CFF-DE42-F1FB-42EEFAD01E14}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1989,7 +1971,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8C0FE391-D573-517E-7CF2-7EF61A19AA37}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{91902494-60A6-4EDF-BB5E-BC798EBF2CCC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2794,8 +2776,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="2" max="7" width="10.59765625" customWidth="1"/>
-    <col min="9" max="14" width="10.59765625" customWidth="1"/>
+    <col min="2" max="2" width="10.59765625" customWidth="1"/>
+    <col min="3" max="3" width="12.9296875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="30.59765625" customWidth="1"/>
+    <col min="5" max="6" width="10.59765625" customWidth="1"/>
+    <col min="7" max="7" width="12.46484375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.9296875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.59765625" customWidth="1"/>
+    <col min="11" max="11" width="10.796875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.59765625" customWidth="1"/>
+    <col min="13" max="13" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.59765625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="22.05" customHeight="1">
@@ -2818,7 +2809,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="3" spans="1:14" ht="31.15" thickBot="1">
+    <row r="3" spans="1:14" ht="15.75" thickBot="1">
       <c r="B3" s="29" t="s">
         <v>6</v>
       </c>
@@ -2856,7 +2847,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="4" spans="1:14" ht="52.5">
+    <row r="4" spans="1:14">
       <c r="B4" s="30" t="s">
         <v>17</v>
       </c>
@@ -2890,7 +2881,7 @@
       <c r="M4" s="30"/>
       <c r="N4" s="30"/>
     </row>
-    <row r="5" spans="1:14" ht="52.5">
+    <row r="5" spans="1:14">
       <c r="B5" s="31" t="s">
         <v>17</v>
       </c>
@@ -2924,7 +2915,7 @@
       <c r="M5" s="31"/>
       <c r="N5" s="31"/>
     </row>
-    <row r="6" spans="1:14" ht="52.5">
+    <row r="6" spans="1:14">
       <c r="B6" s="30" t="s">
         <v>17</v>
       </c>
@@ -4483,7 +4474,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E460B43-C2E9-4134-B546-D8214582C8FB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7AFF12E-A44F-4DD2-A4D8-F4648BC95315}">
   <dimension ref="A1:AG28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4492,11 +4483,28 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="2" max="8" width="10.59765625" customWidth="1"/>
-    <col min="11" max="15" width="10.59765625" customWidth="1"/>
-    <col min="18" max="25" width="10.59765625" customWidth="1"/>
-    <col min="29" max="30" width="10.59765625" customWidth="1"/>
-    <col min="31" max="31" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.59765625" customWidth="1"/>
+    <col min="3" max="3" width="12.3984375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.53125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.265625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.46484375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.59765625" customWidth="1"/>
+    <col min="11" max="11" width="10.59765625" customWidth="1"/>
+    <col min="12" max="12" width="12.3984375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.59765625" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="10.59765625" customWidth="1"/>
+    <col min="18" max="18" width="10.59765625" customWidth="1"/>
+    <col min="19" max="19" width="18" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="30.59765625" customWidth="1"/>
+    <col min="21" max="21" width="12" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="11.265625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="10.59765625" customWidth="1"/>
+    <col min="24" max="24" width="12.46484375" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="10.59765625" customWidth="1"/>
+    <col min="29" max="29" width="18" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="27.53125" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="30.59765625" customWidth="1"/>
     <col min="32" max="33" width="10.59765625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -4526,7 +4534,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="3" spans="1:33" ht="31.15" thickBot="1">
+    <row r="3" spans="1:33" ht="15.75" thickBot="1">
       <c r="B3" s="29" t="s">
         <v>123</v>
       </c>
@@ -4603,7 +4611,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="4" spans="1:33" ht="157.5">
+    <row r="4" spans="1:33">
       <c r="B4" s="30" t="s">
         <v>127</v>
       </c>
@@ -4677,10 +4685,10 @@
         <v>1</v>
       </c>
       <c r="AG4" s="30" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="5" spans="1:33" ht="183.75">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="5" spans="1:33">
       <c r="B5" s="31" t="s">
         <v>127</v>
       </c>
@@ -4754,10 +4762,10 @@
         <v>1</v>
       </c>
       <c r="AG5" s="31" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="6" spans="1:33" ht="65.650000000000006">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="6" spans="1:33">
       <c r="B6" s="30" t="s">
         <v>127</v>
       </c>
@@ -4831,10 +4839,10 @@
         <v>1</v>
       </c>
       <c r="AG6" s="30" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="7" spans="1:33" ht="157.5">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="7" spans="1:33">
       <c r="B7" s="31" t="s">
         <v>127</v>
       </c>
@@ -4908,10 +4916,10 @@
         <v>1</v>
       </c>
       <c r="AG7" s="31" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="8" spans="1:33" ht="275.64999999999998">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="8" spans="1:33">
       <c r="B8" s="30" t="s">
         <v>127</v>
       </c>
@@ -4985,10 +4993,10 @@
         <v>1</v>
       </c>
       <c r="AG8" s="30" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="9" spans="1:33" ht="118.15">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="9" spans="1:33">
       <c r="B9" s="31" t="s">
         <v>127</v>
       </c>
@@ -5065,7 +5073,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="10" spans="1:33" ht="393.75">
+    <row r="10" spans="1:33">
       <c r="B10" s="30" t="s">
         <v>127</v>
       </c>
@@ -5139,10 +5147,10 @@
         <v>1</v>
       </c>
       <c r="AG10" s="30" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="11" spans="1:33" ht="249.4">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="11" spans="1:33">
       <c r="B11" s="31" t="s">
         <v>127</v>
       </c>
@@ -5216,10 +5224,10 @@
         <v>1</v>
       </c>
       <c r="AG11" s="31" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="12" spans="1:33" ht="170.65">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="12" spans="1:33">
       <c r="B12" s="30" t="s">
         <v>127</v>
       </c>
@@ -5293,10 +5301,10 @@
         <v>1</v>
       </c>
       <c r="AG12" s="30" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="13" spans="1:33" ht="65.650000000000006">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="13" spans="1:33">
       <c r="B13" s="31" t="s">
         <v>127</v>
       </c>
@@ -5370,10 +5378,10 @@
         <v>1</v>
       </c>
       <c r="AG13" s="31" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="14" spans="1:33" ht="65.650000000000006">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="14" spans="1:33">
       <c r="B14" s="30" t="s">
         <v>127</v>
       </c>
@@ -5447,10 +5455,10 @@
         <v>1</v>
       </c>
       <c r="AG14" s="30" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="15" spans="1:33" ht="157.5">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="15" spans="1:33">
       <c r="B15" s="31" t="s">
         <v>127</v>
       </c>
@@ -5524,10 +5532,10 @@
         <v>1</v>
       </c>
       <c r="AG15" s="31" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="16" spans="1:33" ht="65.650000000000006">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="16" spans="1:33">
       <c r="B16" s="30" t="s">
         <v>127</v>
       </c>
@@ -5601,10 +5609,10 @@
         <v>1</v>
       </c>
       <c r="AG16" s="30" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="17" spans="2:33" ht="118.15">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="17" spans="2:33">
       <c r="B17" s="31" t="s">
         <v>127</v>
       </c>
@@ -5678,10 +5686,10 @@
         <v>1</v>
       </c>
       <c r="AG17" s="31" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="18" spans="2:33" ht="170.65">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="18" spans="2:33">
       <c r="B18" s="30" t="s">
         <v>127</v>
       </c>
@@ -5758,7 +5766,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="19" spans="2:33" ht="65.650000000000006">
+    <row r="19" spans="2:33">
       <c r="B19" s="31" t="s">
         <v>127</v>
       </c>
@@ -5832,10 +5840,10 @@
         <v>1</v>
       </c>
       <c r="AG19" s="31" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="20" spans="2:33" ht="105">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="20" spans="2:33">
       <c r="B20" s="30" t="s">
         <v>127</v>
       </c>
@@ -5909,10 +5917,10 @@
         <v>1</v>
       </c>
       <c r="AG20" s="30" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="21" spans="2:33" ht="65.650000000000006">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="21" spans="2:33">
       <c r="B21" s="31" t="s">
         <v>127</v>
       </c>
@@ -5986,10 +5994,10 @@
         <v>1</v>
       </c>
       <c r="AG21" s="31" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="22" spans="2:33" ht="288.75">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="22" spans="2:33">
       <c r="B22" s="30" t="s">
         <v>127</v>
       </c>
@@ -6063,10 +6071,10 @@
         <v>1</v>
       </c>
       <c r="AG22" s="30" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="23" spans="2:33" ht="105">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="23" spans="2:33">
       <c r="B23" s="31" t="s">
         <v>127</v>
       </c>
@@ -6140,10 +6148,10 @@
         <v>1</v>
       </c>
       <c r="AG23" s="31" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="24" spans="2:33" ht="65.650000000000006">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="24" spans="2:33">
       <c r="B24" s="30" t="s">
         <v>127</v>
       </c>
@@ -6217,10 +6225,10 @@
         <v>1</v>
       </c>
       <c r="AG24" s="30" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="25" spans="2:33" ht="65.650000000000006">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="25" spans="2:33">
       <c r="B25" s="31" t="s">
         <v>127</v>
       </c>
@@ -6294,10 +6302,10 @@
         <v>1</v>
       </c>
       <c r="AG25" s="31" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="26" spans="2:33" ht="223.15">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="26" spans="2:33">
       <c r="B26" s="30" t="s">
         <v>127</v>
       </c>
@@ -6371,10 +6379,10 @@
         <v>1</v>
       </c>
       <c r="AG26" s="30" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="27" spans="2:33" ht="105">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="27" spans="2:33">
       <c r="B27" s="31" t="s">
         <v>127</v>
       </c>
@@ -6448,10 +6456,10 @@
         <v>1</v>
       </c>
       <c r="AG27" s="31" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="28" spans="2:33" ht="288.75">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="28" spans="2:33">
       <c r="B28" s="30" t="s">
         <v>127</v>
       </c>
@@ -6538,7 +6546,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D8E5D4D-A76A-4690-94B5-107F0CEFFA52}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7CF16765-DA2B-4117-8983-5F76C938EF76}">
   <dimension ref="A1:O29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6547,8 +6555,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="2" max="8" width="10.59765625" customWidth="1"/>
-    <col min="11" max="15" width="10.59765625" customWidth="1"/>
+    <col min="2" max="2" width="10.59765625" customWidth="1"/>
+    <col min="3" max="3" width="13.06640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.59765625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.265625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.46484375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.59765625" customWidth="1"/>
+    <col min="11" max="11" width="10.59765625" customWidth="1"/>
+    <col min="12" max="12" width="13.06640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.19921875" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="10.59765625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="22.05" customHeight="1">
@@ -6571,7 +6588,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="31.15" thickBot="1">
+    <row r="3" spans="1:15" ht="15.75" thickBot="1">
       <c r="B3" s="29" t="s">
         <v>123</v>
       </c>
@@ -6609,7 +6626,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="4" spans="1:15" ht="52.5">
+    <row r="4" spans="1:15">
       <c r="B4" s="30" t="s">
         <v>127</v>
       </c>
@@ -6647,7 +6664,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="52.5">
+    <row r="5" spans="1:15">
       <c r="B5" s="31" t="s">
         <v>127</v>
       </c>
@@ -6685,7 +6702,7 @@
         <v>0.22</v>
       </c>
     </row>
-    <row r="6" spans="1:15" ht="52.5">
+    <row r="6" spans="1:15">
       <c r="B6" s="30" t="s">
         <v>127</v>
       </c>
@@ -6723,7 +6740,7 @@
         <v>0.17799999999999999</v>
       </c>
     </row>
-    <row r="7" spans="1:15" ht="52.5">
+    <row r="7" spans="1:15">
       <c r="B7" s="31" t="s">
         <v>127</v>
       </c>
@@ -6761,7 +6778,7 @@
         <v>0.19600000000000001</v>
       </c>
     </row>
-    <row r="8" spans="1:15" ht="52.5">
+    <row r="8" spans="1:15">
       <c r="B8" s="30" t="s">
         <v>127</v>
       </c>
@@ -6799,7 +6816,7 @@
         <v>0.221</v>
       </c>
     </row>
-    <row r="9" spans="1:15" ht="52.5">
+    <row r="9" spans="1:15">
       <c r="B9" s="31" t="s">
         <v>127</v>
       </c>
@@ -6837,7 +6854,7 @@
         <v>0.14299999999999999</v>
       </c>
     </row>
-    <row r="10" spans="1:15" ht="52.5">
+    <row r="10" spans="1:15">
       <c r="B10" s="30" t="s">
         <v>127</v>
       </c>
@@ -6875,7 +6892,7 @@
         <v>0.16900000000000001</v>
       </c>
     </row>
-    <row r="11" spans="1:15" ht="52.5">
+    <row r="11" spans="1:15">
       <c r="B11" s="31" t="s">
         <v>127</v>
       </c>
@@ -6913,7 +6930,7 @@
         <v>0.14099999999999999</v>
       </c>
     </row>
-    <row r="12" spans="1:15" ht="52.5">
+    <row r="12" spans="1:15">
       <c r="B12" s="30" t="s">
         <v>127</v>
       </c>
@@ -6951,7 +6968,7 @@
         <v>0.246</v>
       </c>
     </row>
-    <row r="13" spans="1:15" ht="52.5">
+    <row r="13" spans="1:15">
       <c r="B13" s="31" t="s">
         <v>127</v>
       </c>
@@ -6989,7 +7006,7 @@
         <v>0.14399999999999999</v>
       </c>
     </row>
-    <row r="14" spans="1:15" ht="52.5">
+    <row r="14" spans="1:15">
       <c r="B14" s="30" t="s">
         <v>127</v>
       </c>
@@ -7027,7 +7044,7 @@
         <v>0.153</v>
       </c>
     </row>
-    <row r="15" spans="1:15" ht="52.5">
+    <row r="15" spans="1:15">
       <c r="B15" s="31" t="s">
         <v>127</v>
       </c>
@@ -7065,7 +7082,7 @@
         <v>0.13700000000000001</v>
       </c>
     </row>
-    <row r="16" spans="1:15" ht="52.5">
+    <row r="16" spans="1:15">
       <c r="B16" s="30" t="s">
         <v>127</v>
       </c>
@@ -7103,7 +7120,7 @@
         <v>0.24199999999999999</v>
       </c>
     </row>
-    <row r="17" spans="2:15" ht="52.5">
+    <row r="17" spans="2:15">
       <c r="B17" s="31" t="s">
         <v>127</v>
       </c>
@@ -7141,7 +7158,7 @@
         <v>0.23200000000000001</v>
       </c>
     </row>
-    <row r="18" spans="2:15" ht="52.5">
+    <row r="18" spans="2:15">
       <c r="B18" s="30" t="s">
         <v>127</v>
       </c>
@@ -7179,7 +7196,7 @@
         <v>0.156</v>
       </c>
     </row>
-    <row r="19" spans="2:15" ht="52.5">
+    <row r="19" spans="2:15">
       <c r="B19" s="31" t="s">
         <v>127</v>
       </c>
@@ -7217,7 +7234,7 @@
         <v>0.153</v>
       </c>
     </row>
-    <row r="20" spans="2:15" ht="52.5">
+    <row r="20" spans="2:15">
       <c r="B20" s="30" t="s">
         <v>127</v>
       </c>
@@ -7255,7 +7272,7 @@
         <v>0.156</v>
       </c>
     </row>
-    <row r="21" spans="2:15" ht="52.5">
+    <row r="21" spans="2:15">
       <c r="B21" s="31" t="s">
         <v>127</v>
       </c>
@@ -7293,7 +7310,7 @@
         <v>0.23</v>
       </c>
     </row>
-    <row r="22" spans="2:15" ht="52.5">
+    <row r="22" spans="2:15">
       <c r="B22" s="30" t="s">
         <v>127</v>
       </c>
@@ -7331,7 +7348,7 @@
         <v>0.22700000000000001</v>
       </c>
     </row>
-    <row r="23" spans="2:15" ht="52.5">
+    <row r="23" spans="2:15">
       <c r="B23" s="31" t="s">
         <v>127</v>
       </c>
@@ -7369,7 +7386,7 @@
         <v>0.17100000000000001</v>
       </c>
     </row>
-    <row r="24" spans="2:15" ht="52.5">
+    <row r="24" spans="2:15">
       <c r="B24" s="30" t="s">
         <v>127</v>
       </c>
@@ -7407,7 +7424,7 @@
         <v>0.19600000000000001</v>
       </c>
     </row>
-    <row r="25" spans="2:15" ht="52.5">
+    <row r="25" spans="2:15">
       <c r="B25" s="31" t="s">
         <v>127</v>
       </c>
@@ -7445,7 +7462,7 @@
         <v>0.219</v>
       </c>
     </row>
-    <row r="26" spans="2:15" ht="52.5">
+    <row r="26" spans="2:15">
       <c r="B26" s="30" t="s">
         <v>127</v>
       </c>
@@ -7483,7 +7500,7 @@
         <v>0.223</v>
       </c>
     </row>
-    <row r="27" spans="2:15" ht="52.5">
+    <row r="27" spans="2:15">
       <c r="B27" s="31" t="s">
         <v>127</v>
       </c>
@@ -7521,7 +7538,7 @@
         <v>0.183</v>
       </c>
     </row>
-    <row r="28" spans="2:15" ht="52.5">
+    <row r="28" spans="2:15">
       <c r="B28" s="30" t="s">
         <v>127</v>
       </c>
@@ -7559,7 +7576,7 @@
         <v>0.17199999999999999</v>
       </c>
     </row>
-    <row r="29" spans="2:15" ht="52.5">
+    <row r="29" spans="2:15">
       <c r="B29" s="31" t="s">
         <v>127</v>
       </c>
@@ -7607,15 +7624,22 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02D4B206-7B81-40BB-969B-8F548C831770}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{770D557E-9C91-46EF-B281-7F4D115EC9EF}">
   <dimension ref="A1:Q69"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="2" max="8" width="10.59765625" customWidth="1"/>
-    <col min="11" max="17" width="10.59765625" customWidth="1"/>
+    <col min="2" max="2" width="30.59765625" customWidth="1"/>
+    <col min="3" max="8" width="10.59765625" customWidth="1"/>
+    <col min="11" max="11" width="10.59765625" customWidth="1"/>
+    <col min="12" max="12" width="30.59765625" customWidth="1"/>
+    <col min="13" max="13" width="10.59765625" customWidth="1"/>
+    <col min="14" max="14" width="12" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.265625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.46484375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="10.59765625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="22.05" customHeight="1">
@@ -7638,7 +7662,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="3" spans="1:17" ht="31.15" thickBot="1">
+    <row r="3" spans="1:17" ht="15.75" thickBot="1">
       <c r="B3" s="29" t="s">
         <v>108</v>
       </c>
@@ -7682,7 +7706,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="4" spans="1:17" ht="26.25">
+    <row r="4" spans="1:17">
       <c r="B4" s="30" t="s">
         <v>419</v>
       </c>
@@ -7724,7 +7748,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="5" spans="1:17" ht="39.4">
+    <row r="5" spans="1:17">
       <c r="B5" s="31" t="s">
         <v>419</v>
       </c>
@@ -7766,7 +7790,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="6" spans="1:17" ht="26.25">
+    <row r="6" spans="1:17">
       <c r="B6" s="30" t="s">
         <v>419</v>
       </c>
@@ -7808,7 +7832,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="7" spans="1:17" ht="26.25">
+    <row r="7" spans="1:17">
       <c r="B7" s="31" t="s">
         <v>419</v>
       </c>
@@ -7850,7 +7874,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="8" spans="1:17" ht="26.25">
+    <row r="8" spans="1:17">
       <c r="B8" s="30" t="s">
         <v>419</v>
       </c>
@@ -7892,7 +7916,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="9" spans="1:17" ht="52.5">
+    <row r="9" spans="1:17">
       <c r="B9" s="31" t="s">
         <v>424</v>
       </c>
@@ -7934,7 +7958,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="10" spans="1:17" ht="39.4">
+    <row r="10" spans="1:17">
       <c r="B10" s="30" t="s">
         <v>424</v>
       </c>
@@ -7976,7 +8000,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="11" spans="1:17" ht="39.4">
+    <row r="11" spans="1:17">
       <c r="B11" s="31" t="s">
         <v>424</v>
       </c>
@@ -8018,7 +8042,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="12" spans="1:17" ht="39.4">
+    <row r="12" spans="1:17">
       <c r="B12" s="30" t="s">
         <v>424</v>
       </c>
@@ -8060,7 +8084,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="13" spans="1:17" ht="39.4">
+    <row r="13" spans="1:17">
       <c r="B13" s="31" t="s">
         <v>424</v>
       </c>
@@ -8144,7 +8168,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="15" spans="1:17" ht="26.25">
+    <row r="15" spans="1:17">
       <c r="B15" s="31" t="s">
         <v>425</v>
       </c>
@@ -8186,7 +8210,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="16" spans="1:17" ht="52.5">
+    <row r="16" spans="1:17">
       <c r="B16" s="30" t="s">
         <v>425</v>
       </c>
@@ -8228,7 +8252,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="17" spans="2:17" ht="26.25">
+    <row r="17" spans="2:17">
       <c r="B17" s="31" t="s">
         <v>426</v>
       </c>
@@ -8270,7 +8294,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="18" spans="2:17" ht="39.4">
+    <row r="18" spans="2:17">
       <c r="B18" s="30" t="s">
         <v>426</v>
       </c>
@@ -8312,7 +8336,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="19" spans="2:17" ht="39.4">
+    <row r="19" spans="2:17">
       <c r="B19" s="31" t="s">
         <v>426</v>
       </c>
@@ -8354,7 +8378,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="20" spans="2:17" ht="26.25">
+    <row r="20" spans="2:17">
       <c r="B20" s="30" t="s">
         <v>427</v>
       </c>
@@ -8396,7 +8420,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="21" spans="2:17" ht="26.25">
+    <row r="21" spans="2:17">
       <c r="B21" s="31" t="s">
         <v>427</v>
       </c>
@@ -8461,7 +8485,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="23" spans="2:17" ht="52.5">
+    <row r="23" spans="2:17">
       <c r="B23" s="31" t="s">
         <v>428</v>
       </c>
@@ -8484,7 +8508,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="24" spans="2:17" ht="52.5">
+    <row r="24" spans="2:17">
       <c r="B24" s="30" t="s">
         <v>428</v>
       </c>
@@ -8507,7 +8531,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="25" spans="2:17" ht="52.5">
+    <row r="25" spans="2:17">
       <c r="B25" s="31" t="s">
         <v>428</v>
       </c>
@@ -8599,7 +8623,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="29" spans="2:17" ht="39.4">
+    <row r="29" spans="2:17">
       <c r="B29" s="31" t="s">
         <v>430</v>
       </c>
@@ -8622,7 +8646,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="30" spans="2:17" ht="39.4">
+    <row r="30" spans="2:17">
       <c r="B30" s="30" t="s">
         <v>430</v>
       </c>
@@ -8645,7 +8669,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="31" spans="2:17" ht="39.4">
+    <row r="31" spans="2:17">
       <c r="B31" s="31" t="s">
         <v>430</v>
       </c>
@@ -8668,7 +8692,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="32" spans="2:17" ht="39.4">
+    <row r="32" spans="2:17">
       <c r="B32" s="30" t="s">
         <v>430</v>
       </c>
@@ -8691,7 +8715,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="33" spans="2:8" ht="39.4">
+    <row r="33" spans="2:8">
       <c r="B33" s="31" t="s">
         <v>430</v>
       </c>
@@ -8921,7 +8945,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="43" spans="2:8" ht="26.25">
+    <row r="43" spans="2:8">
       <c r="B43" s="31" t="s">
         <v>434</v>
       </c>
@@ -8944,7 +8968,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="44" spans="2:8" ht="26.25">
+    <row r="44" spans="2:8">
       <c r="B44" s="30" t="s">
         <v>434</v>
       </c>
@@ -8967,7 +8991,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="45" spans="2:8" ht="26.25">
+    <row r="45" spans="2:8">
       <c r="B45" s="31" t="s">
         <v>434</v>
       </c>
@@ -8990,7 +9014,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="46" spans="2:8" ht="52.5">
+    <row r="46" spans="2:8">
       <c r="B46" s="30" t="s">
         <v>435</v>
       </c>
@@ -9013,7 +9037,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="47" spans="2:8" ht="52.5">
+    <row r="47" spans="2:8">
       <c r="B47" s="31" t="s">
         <v>435</v>
       </c>
@@ -9036,7 +9060,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="48" spans="2:8" ht="52.5">
+    <row r="48" spans="2:8">
       <c r="B48" s="30" t="s">
         <v>435</v>
       </c>
@@ -9059,7 +9083,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="49" spans="2:8" ht="52.5">
+    <row r="49" spans="2:8">
       <c r="B49" s="31" t="s">
         <v>435</v>
       </c>
@@ -9082,7 +9106,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="50" spans="2:8" ht="52.5">
+    <row r="50" spans="2:8">
       <c r="B50" s="30" t="s">
         <v>435</v>
       </c>
@@ -9105,7 +9129,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="51" spans="2:8" ht="26.25">
+    <row r="51" spans="2:8">
       <c r="B51" s="31" t="s">
         <v>436</v>
       </c>
@@ -9128,7 +9152,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="52" spans="2:8" ht="26.25">
+    <row r="52" spans="2:8">
       <c r="B52" s="30" t="s">
         <v>436</v>
       </c>
@@ -9151,7 +9175,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="53" spans="2:8" ht="26.25">
+    <row r="53" spans="2:8">
       <c r="B53" s="31" t="s">
         <v>436</v>
       </c>
@@ -9174,7 +9198,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="54" spans="2:8" ht="39.4">
+    <row r="54" spans="2:8">
       <c r="B54" s="30" t="s">
         <v>437</v>
       </c>
@@ -9197,7 +9221,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="55" spans="2:8" ht="39.4">
+    <row r="55" spans="2:8">
       <c r="B55" s="31" t="s">
         <v>437</v>
       </c>
@@ -9220,7 +9244,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="56" spans="2:8" ht="39.4">
+    <row r="56" spans="2:8">
       <c r="B56" s="30" t="s">
         <v>437</v>
       </c>
@@ -9243,7 +9267,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="57" spans="2:8" ht="39.4">
+    <row r="57" spans="2:8">
       <c r="B57" s="31" t="s">
         <v>438</v>
       </c>
@@ -9266,7 +9290,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="58" spans="2:8" ht="39.4">
+    <row r="58" spans="2:8">
       <c r="B58" s="30" t="s">
         <v>438</v>
       </c>
@@ -9289,7 +9313,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="59" spans="2:8" ht="39.4">
+    <row r="59" spans="2:8">
       <c r="B59" s="31" t="s">
         <v>438</v>
       </c>
@@ -9312,7 +9336,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="60" spans="2:8" ht="26.25">
+    <row r="60" spans="2:8">
       <c r="B60" s="30" t="s">
         <v>439</v>
       </c>
@@ -9335,7 +9359,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="61" spans="2:8" ht="26.25">
+    <row r="61" spans="2:8">
       <c r="B61" s="31" t="s">
         <v>439</v>
       </c>
@@ -9358,7 +9382,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="62" spans="2:8" ht="26.25">
+    <row r="62" spans="2:8">
       <c r="B62" s="30" t="s">
         <v>439</v>
       </c>
@@ -9381,7 +9405,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="63" spans="2:8" ht="26.25">
+    <row r="63" spans="2:8">
       <c r="B63" s="31" t="s">
         <v>439</v>
       </c>
@@ -9404,7 +9428,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="64" spans="2:8" ht="26.25">
+    <row r="64" spans="2:8">
       <c r="B64" s="30" t="s">
         <v>439</v>
       </c>
@@ -9427,7 +9451,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="65" spans="2:8" ht="26.25">
+    <row r="65" spans="2:8">
       <c r="B65" s="31" t="s">
         <v>440</v>
       </c>
@@ -9450,7 +9474,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="66" spans="2:8" ht="26.25">
+    <row r="66" spans="2:8">
       <c r="B66" s="30" t="s">
         <v>440</v>
       </c>
@@ -9473,7 +9497,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="67" spans="2:8" ht="26.25">
+    <row r="67" spans="2:8">
       <c r="B67" s="31" t="s">
         <v>440</v>
       </c>
@@ -9496,7 +9520,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="68" spans="2:8" ht="26.25">
+    <row r="68" spans="2:8">
       <c r="B68" s="30" t="s">
         <v>440</v>
       </c>
@@ -9519,7 +9543,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="69" spans="2:8" ht="26.25">
+    <row r="69" spans="2:8">
       <c r="B69" s="31" t="s">
         <v>440</v>
       </c>

--- a/VerveStacks_CHE_grids/SubRES_Tmpl/SubRES_New_RE_and_Conventional.xlsx
+++ b/VerveStacks_CHE_grids/SubRES_Tmpl/SubRES_New_RE_and_Conventional.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_CHE_grids\SubRES_Tmpl\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BC66A40B-F00C-4F78-A3F9-4A3F9B2BCA05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{199B00AC-7883-4134-A895-0662DADA300B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="6" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -815,16 +815,154 @@
     <t>pre</t>
   </si>
   <si>
+    <t>distr_elc_won-CHE_0024</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell CHE_24</t>
+  </si>
+  <si>
+    <t>NRGI</t>
+  </si>
+  <si>
+    <t>daynite</t>
+  </si>
+  <si>
+    <t>distr_elc_won-CHE_0008</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell CHE_8</t>
+  </si>
+  <si>
+    <t>distr_elc_won-CHE_0005</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell CHE_5</t>
+  </si>
+  <si>
+    <t>distr_elc_won-CHE_0007</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell CHE_7</t>
+  </si>
+  <si>
+    <t>distr_elc_won-CHE_0012</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell CHE_12</t>
+  </si>
+  <si>
+    <t>distr_elc_won-CHE_0013</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell CHE_13</t>
+  </si>
+  <si>
+    <t>distr_elc_won-CHE_0011</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell CHE_11</t>
+  </si>
+  <si>
+    <t>distr_elc_won-CHE_0015</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell CHE_15</t>
+  </si>
+  <si>
+    <t>distr_elc_won-CHE_0025</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell CHE_25</t>
+  </si>
+  <si>
+    <t>distr_elc_won-CHE_0010</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell CHE_10</t>
+  </si>
+  <si>
+    <t>distr_elc_won-CHE_0022</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell CHE_22</t>
+  </si>
+  <si>
+    <t>distr_elc_won-CHE_0009</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell CHE_9</t>
+  </si>
+  <si>
+    <t>distr_elc_won-CHE_0021</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell CHE_21</t>
+  </si>
+  <si>
+    <t>distr_elc_won-CHE_0004</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell CHE_4</t>
+  </si>
+  <si>
     <t>distr_elc_won-CHE_0000</t>
   </si>
   <si>
     <t>connecting solar and wind to buses in grid cell CHE_0</t>
   </si>
   <si>
-    <t>NRGI</t>
-  </si>
-  <si>
-    <t>daynite</t>
+    <t>distr_elc_won-CHE_0020</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell CHE_20</t>
+  </si>
+  <si>
+    <t>distr_elc_won-CHE_0001</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell CHE_1</t>
+  </si>
+  <si>
+    <t>distr_elc_won-CHE_0006</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell CHE_6</t>
+  </si>
+  <si>
+    <t>distr_elc_won-CHE_0003</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell CHE_3</t>
+  </si>
+  <si>
+    <t>distr_elc_won-CHE_0017</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell CHE_17</t>
+  </si>
+  <si>
+    <t>distr_elc_won-CHE_0019</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell CHE_19</t>
+  </si>
+  <si>
+    <t>distr_elc_won-CHE_0023</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell CHE_23</t>
+  </si>
+  <si>
+    <t>distr_elc_won-CHE_0014</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell CHE_14</t>
+  </si>
+  <si>
+    <t>distr_elc_won-CHE_0018</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell CHE_18</t>
   </si>
   <si>
     <t>distr_elc_won-CHE_0002</t>
@@ -833,298 +971,160 @@
     <t>connecting solar and wind to buses in grid cell CHE_2</t>
   </si>
   <si>
-    <t>distr_elc_won-CHE_0009</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell CHE_9</t>
-  </si>
-  <si>
-    <t>distr_elc_won-CHE_0021</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell CHE_21</t>
-  </si>
-  <si>
-    <t>distr_elc_won-CHE_0004</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell CHE_4</t>
-  </si>
-  <si>
-    <t>distr_elc_won-CHE_0007</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell CHE_7</t>
-  </si>
-  <si>
-    <t>distr_elc_won-CHE_0024</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell CHE_24</t>
-  </si>
-  <si>
-    <t>distr_elc_won-CHE_0008</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell CHE_8</t>
-  </si>
-  <si>
-    <t>distr_elc_won-CHE_0005</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell CHE_5</t>
-  </si>
-  <si>
-    <t>distr_elc_won-CHE_0011</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell CHE_11</t>
-  </si>
-  <si>
-    <t>distr_elc_won-CHE_0015</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell CHE_15</t>
-  </si>
-  <si>
-    <t>distr_elc_won-CHE_0025</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell CHE_25</t>
-  </si>
-  <si>
-    <t>distr_elc_won-CHE_0010</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell CHE_10</t>
-  </si>
-  <si>
-    <t>distr_elc_won-CHE_0022</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell CHE_22</t>
-  </si>
-  <si>
-    <t>distr_elc_won-CHE_0013</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell CHE_13</t>
-  </si>
-  <si>
-    <t>distr_elc_won-CHE_0014</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell CHE_14</t>
-  </si>
-  <si>
-    <t>distr_elc_won-CHE_0018</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell CHE_18</t>
-  </si>
-  <si>
-    <t>distr_elc_won-CHE_0017</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell CHE_17</t>
-  </si>
-  <si>
-    <t>distr_elc_won-CHE_0019</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell CHE_19</t>
-  </si>
-  <si>
-    <t>distr_elc_won-CHE_0023</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell CHE_23</t>
-  </si>
-  <si>
-    <t>distr_elc_won-CHE_0012</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell CHE_12</t>
-  </si>
-  <si>
-    <t>distr_elc_won-CHE_0020</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell CHE_20</t>
-  </si>
-  <si>
-    <t>distr_elc_won-CHE_0001</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell CHE_1</t>
-  </si>
-  <si>
-    <t>distr_elc_won-CHE_0006</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell CHE_6</t>
-  </si>
-  <si>
-    <t>distr_elc_won-CHE_0003</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell CHE_3</t>
-  </si>
-  <si>
     <t>comm-in</t>
   </si>
   <si>
     <t>efficiency</t>
   </si>
   <si>
+    <t>elc_won-CHE_0024,elc_spv-CHE_0024</t>
+  </si>
+  <si>
+    <t>e_CH30-380,e_CH33-380,e_CH37-380,e_r7933294-380</t>
+  </si>
+  <si>
+    <t>elc_won-CHE_0008,elc_spv-CHE_0008</t>
+  </si>
+  <si>
+    <t>e_CH43-220,e_w209324991-220,e_w26166640-220,e_w402055336-220,e_w758315582-220</t>
+  </si>
+  <si>
+    <t>elc_won-CHE_0005,elc_spv-CHE_0005</t>
+  </si>
+  <si>
+    <t>e_r5378910-220,e_w161853746-220</t>
+  </si>
+  <si>
+    <t>elc_won-CHE_0007,elc_spv-CHE_0007</t>
+  </si>
+  <si>
+    <t>e_CH44-220,e_w212722603-220,e_w212722603-380,e_w236819191-220,e_w758943072-220</t>
+  </si>
+  <si>
+    <t>elc_won-CHE_0012,elc_spv-CHE_0012</t>
+  </si>
+  <si>
+    <t>e_CH19-220,e_CH20-220,e_CH25-220,e_CH27-220,e_CH34-220,e_CH34-380,e_CH35-220,e_CH36-220,e_CH38-220,e_CH39-220,e_CH40-220,e_w1086214433-220,e_w1092884227-220,e_w240959264-220,e_w364949845-220,e_w364949845-380</t>
+  </si>
+  <si>
+    <t>elc_won-CHE_0013,elc_spv-CHE_0013</t>
+  </si>
+  <si>
+    <t>e_CH15-220,e_w146225999-220,e_w159527493-220,e_w242269161-220,e_w281799252-220,e_w35002638-220,e_w35002638-380,e_w97941869-220</t>
+  </si>
+  <si>
+    <t>elc_won-CHE_0011,elc_spv-CHE_0011</t>
+  </si>
+  <si>
+    <t>e_CH46-220,e_CH47-220,e_w228003081-220,e_w391576135-220,e_w391577741-220,e_w969819301-220,e_w969819301-380</t>
+  </si>
+  <si>
+    <t>elc_won-CHE_0015,elc_spv-CHE_0015</t>
+  </si>
+  <si>
+    <t>e_CH50-220,e_CH56-220,e_CH58-220,e_CH59-220,e_w1327084723-220,e_w281800404-220,e_w281803398-220,e_w281815404-220,e_w35487135-220</t>
+  </si>
+  <si>
+    <t>elc_won-CHE_0025,elc_spv-CHE_0025</t>
+  </si>
+  <si>
+    <t>e_r7933294-380</t>
+  </si>
+  <si>
+    <t>elc_won-CHE_0010,elc_spv-CHE_0010</t>
+  </si>
+  <si>
+    <t>e_CH11-220,e_w109037817-220,e_w109037817-380,e_w127004407-380,e_w127004407-400,e_w27435934-220,e_w30350721-220,e_w397960460-380,e_w397960460-400,e_w88901626-380</t>
+  </si>
+  <si>
+    <t>elc_won-CHE_0022,elc_spv-CHE_0022</t>
+  </si>
+  <si>
+    <t>e_CH4-220,e_CH9-220,e_w455120191-220,e_w83861269-220,e_w92798668-220,e_w92873516-220</t>
+  </si>
+  <si>
+    <t>elc_won-CHE_0009,elc_spv-CHE_0009</t>
+  </si>
+  <si>
+    <t>e_CH14-220,e_CH14-380,e_w1105061707-220,e_w1105061707-380,e_w147557680-220,e_w165254212-220,e_w402053379-220</t>
+  </si>
+  <si>
+    <t>elc_won-CHE_0021,elc_spv-CHE_0021</t>
+  </si>
+  <si>
+    <t>e_CH17-380,e_w211907009-220</t>
+  </si>
+  <si>
+    <t>elc_won-CHE_0004,elc_spv-CHE_0004</t>
+  </si>
+  <si>
+    <t>e_w111162936-220,e_w111162936-380,e_w111162936-400,e_w122720993-220,e_w194258388-220</t>
+  </si>
+  <si>
     <t>elc_won-CHE_0000,elc_spv-CHE_0000</t>
   </si>
   <si>
     <t>e_CH51-220,e_CH51-225,e_CH51-400,e_CH52-220,e_CH57-220,e_CH57-225,e_w177392130-220,e_w177392130-400,e_w239937062-220</t>
   </si>
   <si>
+    <t>elc_won-CHE_0020,elc_spv-CHE_0020</t>
+  </si>
+  <si>
+    <t>e_CH21-220,e_CH22-220,e_CH22-380,e_CH29-220,e_CH29-380,e_CH41-380,e_w1208713169-220,e_w207993342-220,e_w207993342-380,e_w208780268-380,e_w212498548-220,e_w36348118-220,e_w365556107-220,e_w71500123-220,e_w71500123-380</t>
+  </si>
+  <si>
+    <t>elc_won-CHE_0001,elc_spv-CHE_0001</t>
+  </si>
+  <si>
+    <t>e_CH31-220,e_w132373704-220,e_w232662311-220,e_w44496892-220,e_w55695765-220</t>
+  </si>
+  <si>
+    <t>elc_won-CHE_0006,elc_spv-CHE_0006</t>
+  </si>
+  <si>
+    <t>e_w127004407-400</t>
+  </si>
+  <si>
+    <t>elc_won-CHE_0003,elc_spv-CHE_0003</t>
+  </si>
+  <si>
+    <t>e_CH48-225,e_CH49-225,e_CH53-225,e_CH60-225,e_w234983117-220,e_w234983117-380,e_w238138373-380,e_w260211728-225,e_w260211728-380,e_w55698557-220,e_w55698557-225,e_w802058337-220,e_w802058337-225,e_w936521586-380</t>
+  </si>
+  <si>
+    <t>elc_won-CHE_0017,elc_spv-CHE_0017</t>
+  </si>
+  <si>
+    <t>e_CH12-220,e_CH12-380,e_CH13-220,e_CH16-380,e_CH18-220,e_CH18-380,e_w192677427-220,e_w192677427-380,e_w52738225-220,e_w52738225-380</t>
+  </si>
+  <si>
+    <t>elc_won-CHE_0019,elc_spv-CHE_0019</t>
+  </si>
+  <si>
+    <t>e_CH45-220,e_w281804158-220,e_w281804158-380</t>
+  </si>
+  <si>
+    <t>elc_won-CHE_0023,elc_spv-CHE_0023</t>
+  </si>
+  <si>
+    <t>e_w207991759-380</t>
+  </si>
+  <si>
+    <t>elc_won-CHE_0014,elc_spv-CHE_0014</t>
+  </si>
+  <si>
+    <t>e_CH1-220,e_CH2-220,e_CH5-220,e_CH7-220,e_w108257952-220,e_w1284913429-220,e_w165513396-220,e_w165513396-380,e_w190819048-220,e_w27107779-220,e_w31308888-220,e_w33271433-220,e_w356292116-220,e_w356292116-380,e_w35840165-380,e_w50319857-220,e_w50319857-380,e_w50319857-400,e_w89405664-220,e_w89977424-220,e_w98648381-220,e_w98648381-380</t>
+  </si>
+  <si>
+    <t>elc_won-CHE_0018,elc_spv-CHE_0018</t>
+  </si>
+  <si>
+    <t>e_CH3-220,e_CH6-220,e_r9310861-220,e_w11282314-220,e_w147714395-220,e_w147714395-380,e_w148015471-220,e_w22899676-220,e_w240575085-220,e_w26843160-220,e_w281809991-220,e_w50561341-220,e_w87281514-220</t>
+  </si>
+  <si>
     <t>elc_won-CHE_0002,elc_spv-CHE_0002</t>
   </si>
   <si>
     <t>e_w232662311-220</t>
-  </si>
-  <si>
-    <t>elc_won-CHE_0009,elc_spv-CHE_0009</t>
-  </si>
-  <si>
-    <t>e_CH14-220,e_CH14-380,e_w1105061707-220,e_w1105061707-380,e_w147557680-220,e_w165254212-220,e_w402053379-220</t>
-  </si>
-  <si>
-    <t>elc_won-CHE_0021,elc_spv-CHE_0021</t>
-  </si>
-  <si>
-    <t>e_CH17-380,e_w211907009-220</t>
-  </si>
-  <si>
-    <t>elc_won-CHE_0004,elc_spv-CHE_0004</t>
-  </si>
-  <si>
-    <t>e_w111162936-220,e_w111162936-380,e_w111162936-400,e_w122720993-220,e_w194258388-220</t>
-  </si>
-  <si>
-    <t>elc_won-CHE_0007,elc_spv-CHE_0007</t>
-  </si>
-  <si>
-    <t>e_CH44-220,e_w212722603-220,e_w212722603-380,e_w236819191-220,e_w758943072-220</t>
-  </si>
-  <si>
-    <t>elc_won-CHE_0024,elc_spv-CHE_0024</t>
-  </si>
-  <si>
-    <t>e_CH30-380,e_CH33-380,e_CH37-380,e_r7933294-380</t>
-  </si>
-  <si>
-    <t>elc_won-CHE_0008,elc_spv-CHE_0008</t>
-  </si>
-  <si>
-    <t>e_CH43-220,e_w209324991-220,e_w26166640-220,e_w402055336-220,e_w758315582-220</t>
-  </si>
-  <si>
-    <t>elc_won-CHE_0005,elc_spv-CHE_0005</t>
-  </si>
-  <si>
-    <t>e_r5378910-220,e_w161853746-220</t>
-  </si>
-  <si>
-    <t>elc_won-CHE_0011,elc_spv-CHE_0011</t>
-  </si>
-  <si>
-    <t>e_CH46-220,e_CH47-220,e_w228003081-220,e_w391576135-220,e_w391577741-220,e_w969819301-220,e_w969819301-380</t>
-  </si>
-  <si>
-    <t>elc_won-CHE_0015,elc_spv-CHE_0015</t>
-  </si>
-  <si>
-    <t>e_CH50-220,e_CH56-220,e_CH58-220,e_CH59-220,e_w1327084723-220,e_w281800404-220,e_w281803398-220,e_w281815404-220,e_w35487135-220</t>
-  </si>
-  <si>
-    <t>elc_won-CHE_0025,elc_spv-CHE_0025</t>
-  </si>
-  <si>
-    <t>e_r7933294-380</t>
-  </si>
-  <si>
-    <t>elc_won-CHE_0010,elc_spv-CHE_0010</t>
-  </si>
-  <si>
-    <t>e_CH11-220,e_w109037817-220,e_w109037817-380,e_w127004407-380,e_w127004407-400,e_w27435934-220,e_w30350721-220,e_w397960460-380,e_w397960460-400,e_w88901626-380</t>
-  </si>
-  <si>
-    <t>elc_won-CHE_0022,elc_spv-CHE_0022</t>
-  </si>
-  <si>
-    <t>e_CH4-220,e_CH9-220,e_w455120191-220,e_w83861269-220,e_w92798668-220,e_w92873516-220</t>
-  </si>
-  <si>
-    <t>elc_won-CHE_0013,elc_spv-CHE_0013</t>
-  </si>
-  <si>
-    <t>e_CH15-220,e_w146225999-220,e_w159527493-220,e_w242269161-220,e_w281799252-220,e_w35002638-220,e_w35002638-380,e_w97941869-220</t>
-  </si>
-  <si>
-    <t>elc_won-CHE_0014,elc_spv-CHE_0014</t>
-  </si>
-  <si>
-    <t>e_CH1-220,e_CH2-220,e_CH5-220,e_CH7-220,e_w108257952-220,e_w1284913429-220,e_w165513396-220,e_w165513396-380,e_w190819048-220,e_w27107779-220,e_w31308888-220,e_w33271433-220,e_w356292116-220,e_w356292116-380,e_w35840165-380,e_w50319857-220,e_w50319857-380,e_w50319857-400,e_w89405664-220,e_w89977424-220,e_w98648381-220,e_w98648381-380</t>
-  </si>
-  <si>
-    <t>elc_won-CHE_0018,elc_spv-CHE_0018</t>
-  </si>
-  <si>
-    <t>e_CH3-220,e_CH6-220,e_r9310861-220,e_w11282314-220,e_w147714395-220,e_w147714395-380,e_w148015471-220,e_w22899676-220,e_w240575085-220,e_w26843160-220,e_w281809991-220,e_w50561341-220,e_w87281514-220</t>
-  </si>
-  <si>
-    <t>elc_won-CHE_0017,elc_spv-CHE_0017</t>
-  </si>
-  <si>
-    <t>e_CH12-220,e_CH12-380,e_CH13-220,e_CH16-380,e_CH18-220,e_CH18-380,e_w192677427-220,e_w192677427-380,e_w52738225-220,e_w52738225-380</t>
-  </si>
-  <si>
-    <t>elc_won-CHE_0019,elc_spv-CHE_0019</t>
-  </si>
-  <si>
-    <t>e_CH45-220,e_w281804158-220,e_w281804158-380</t>
-  </si>
-  <si>
-    <t>elc_won-CHE_0023,elc_spv-CHE_0023</t>
-  </si>
-  <si>
-    <t>e_w207991759-380</t>
-  </si>
-  <si>
-    <t>elc_won-CHE_0012,elc_spv-CHE_0012</t>
-  </si>
-  <si>
-    <t>e_CH19-220,e_CH20-220,e_CH25-220,e_CH27-220,e_CH34-220,e_CH34-380,e_CH35-220,e_CH36-220,e_CH38-220,e_CH39-220,e_CH40-220,e_w1086214433-220,e_w1092884227-220,e_w240959264-220,e_w364949845-220,e_w364949845-380</t>
-  </si>
-  <si>
-    <t>elc_won-CHE_0020,elc_spv-CHE_0020</t>
-  </si>
-  <si>
-    <t>e_CH21-220,e_CH22-220,e_CH22-380,e_CH29-220,e_CH29-380,e_CH41-380,e_w1208713169-220,e_w207993342-220,e_w207993342-380,e_w208780268-380,e_w212498548-220,e_w36348118-220,e_w365556107-220,e_w71500123-220,e_w71500123-380</t>
-  </si>
-  <si>
-    <t>elc_won-CHE_0001,elc_spv-CHE_0001</t>
-  </si>
-  <si>
-    <t>e_CH31-220,e_w132373704-220,e_w232662311-220,e_w44496892-220,e_w55695765-220</t>
-  </si>
-  <si>
-    <t>elc_won-CHE_0006,elc_spv-CHE_0006</t>
-  </si>
-  <si>
-    <t>e_w127004407-400</t>
-  </si>
-  <si>
-    <t>elc_won-CHE_0003,elc_spv-CHE_0003</t>
-  </si>
-  <si>
-    <t>e_CH48-225,e_CH49-225,e_CH53-225,e_CH60-225,e_w234983117-220,e_w234983117-380,e_w238138373-380,e_w260211728-225,e_w260211728-380,e_w55698557-220,e_w55698557-225,e_w802058337-220,e_w802058337-225,e_w936521586-380</t>
   </si>
   <si>
     <t>e_won-CHE_0000</t>
@@ -1806,7 +1806,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D9E1BB19-49DC-C8BD-5D36-F42D3E7EAD4B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CBC9840A-BABF-C400-10A5-499BA172AE21}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1861,7 +1861,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F327D75E-7FFF-0A86-DDD9-1C78100700B1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1F2B2825-6702-59DD-B89A-9BCB191EDDF4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1916,7 +1916,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1A2E4B65-4CFF-DE42-F1FB-42EEFAD01E14}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ECF922EA-3B45-6909-4778-600DB9CD7C0C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1971,7 +1971,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{91902494-60A6-4EDF-BB5E-BC798EBF2CCC}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DD1563CD-E2D8-804E-34D8-827B31B94437}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4474,7 +4474,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7AFF12E-A44F-4DD2-A4D8-F4648BC95315}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{407CF87A-FBF3-4755-98D4-BD309876A403}">
   <dimension ref="A1:AG28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4685,7 +4685,7 @@
         <v>1</v>
       </c>
       <c r="AG4" s="30" t="s">
-        <v>184</v>
+        <v>216</v>
       </c>
     </row>
     <row r="5" spans="1:33">
@@ -4762,7 +4762,7 @@
         <v>1</v>
       </c>
       <c r="AG5" s="31" t="s">
-        <v>206</v>
+        <v>230</v>
       </c>
     </row>
     <row r="6" spans="1:33">
@@ -4839,7 +4839,7 @@
         <v>1</v>
       </c>
       <c r="AG6" s="30" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
     </row>
     <row r="7" spans="1:33">
@@ -4916,7 +4916,7 @@
         <v>1</v>
       </c>
       <c r="AG7" s="31" t="s">
-        <v>210</v>
+        <v>228</v>
       </c>
     </row>
     <row r="8" spans="1:33">
@@ -4993,7 +4993,7 @@
         <v>1</v>
       </c>
       <c r="AG8" s="30" t="s">
-        <v>222</v>
+        <v>192</v>
       </c>
     </row>
     <row r="9" spans="1:33">
@@ -5070,7 +5070,7 @@
         <v>1</v>
       </c>
       <c r="AG9" s="31" t="s">
-        <v>228</v>
+        <v>194</v>
       </c>
     </row>
     <row r="10" spans="1:33">
@@ -5147,7 +5147,7 @@
         <v>1</v>
       </c>
       <c r="AG10" s="30" t="s">
-        <v>216</v>
+        <v>190</v>
       </c>
     </row>
     <row r="11" spans="1:33">
@@ -5224,7 +5224,7 @@
         <v>1</v>
       </c>
       <c r="AG11" s="31" t="s">
-        <v>230</v>
+        <v>198</v>
       </c>
     </row>
     <row r="12" spans="1:33">
@@ -5301,7 +5301,7 @@
         <v>1</v>
       </c>
       <c r="AG12" s="30" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
     </row>
     <row r="13" spans="1:33">
@@ -5378,7 +5378,7 @@
         <v>1</v>
       </c>
       <c r="AG13" s="31" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="14" spans="1:33">
@@ -5455,7 +5455,7 @@
         <v>1</v>
       </c>
       <c r="AG14" s="30" t="s">
-        <v>198</v>
+        <v>212</v>
       </c>
     </row>
     <row r="15" spans="1:33">
@@ -5532,7 +5532,7 @@
         <v>1</v>
       </c>
       <c r="AG15" s="31" t="s">
-        <v>218</v>
+        <v>232</v>
       </c>
     </row>
     <row r="16" spans="1:33">
@@ -5609,7 +5609,7 @@
         <v>1</v>
       </c>
       <c r="AG16" s="30" t="s">
-        <v>188</v>
+        <v>210</v>
       </c>
     </row>
     <row r="17" spans="2:33">
@@ -5686,7 +5686,7 @@
         <v>1</v>
       </c>
       <c r="AG17" s="31" t="s">
-        <v>212</v>
+        <v>222</v>
       </c>
     </row>
     <row r="18" spans="2:33">
@@ -5763,7 +5763,7 @@
         <v>1</v>
       </c>
       <c r="AG18" s="30" t="s">
-        <v>194</v>
+        <v>184</v>
       </c>
     </row>
     <row r="19" spans="2:33">
@@ -5840,7 +5840,7 @@
         <v>1</v>
       </c>
       <c r="AG19" s="31" t="s">
-        <v>196</v>
+        <v>208</v>
       </c>
     </row>
     <row r="20" spans="2:33">
@@ -5917,7 +5917,7 @@
         <v>1</v>
       </c>
       <c r="AG20" s="30" t="s">
-        <v>202</v>
+        <v>186</v>
       </c>
     </row>
     <row r="21" spans="2:33">
@@ -5994,7 +5994,7 @@
         <v>1</v>
       </c>
       <c r="AG21" s="31" t="s">
-        <v>200</v>
+        <v>226</v>
       </c>
     </row>
     <row r="22" spans="2:33">
@@ -6071,7 +6071,7 @@
         <v>1</v>
       </c>
       <c r="AG22" s="30" t="s">
-        <v>204</v>
+        <v>220</v>
       </c>
     </row>
     <row r="23" spans="2:33">
@@ -6148,7 +6148,7 @@
         <v>1</v>
       </c>
       <c r="AG23" s="31" t="s">
-        <v>214</v>
+        <v>200</v>
       </c>
     </row>
     <row r="24" spans="2:33">
@@ -6225,7 +6225,7 @@
         <v>1</v>
       </c>
       <c r="AG24" s="30" t="s">
-        <v>192</v>
+        <v>204</v>
       </c>
     </row>
     <row r="25" spans="2:33">
@@ -6302,7 +6302,7 @@
         <v>1</v>
       </c>
       <c r="AG25" s="31" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
     </row>
     <row r="26" spans="2:33">
@@ -6379,7 +6379,7 @@
         <v>1</v>
       </c>
       <c r="AG26" s="30" t="s">
-        <v>186</v>
+        <v>196</v>
       </c>
     </row>
     <row r="27" spans="2:33">
@@ -6456,7 +6456,7 @@
         <v>1</v>
       </c>
       <c r="AG27" s="31" t="s">
-        <v>226</v>
+        <v>202</v>
       </c>
     </row>
     <row r="28" spans="2:33">
@@ -6533,7 +6533,7 @@
         <v>1</v>
       </c>
       <c r="AG28" s="30" t="s">
-        <v>220</v>
+        <v>206</v>
       </c>
     </row>
   </sheetData>
@@ -6546,7 +6546,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7CF16765-DA2B-4117-8983-5F76C938EF76}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B78C8B8-A88E-40B7-8BB5-AC5F3DF4E3AB}">
   <dimension ref="A1:O29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7624,7 +7624,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{770D557E-9C91-46EF-B281-7F4D115EC9EF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C96DB7BC-7551-47C4-9B79-D397B31ABA87}">
   <dimension ref="A1:Q69"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/VerveStacks_CHE_grids/SubRES_Tmpl/SubRES_New_RE_and_Conventional.xlsx
+++ b/VerveStacks_CHE_grids/SubRES_Tmpl/SubRES_New_RE_and_Conventional.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_CHE_grids\SubRES_Tmpl\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{199B00AC-7883-4134-A895-0662DADA300B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A5BF8B39-20A6-4681-AA1F-8540FCA06908}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="6" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -815,18 +815,66 @@
     <t>pre</t>
   </si>
   <si>
+    <t>distr_elc_won-CHE_0010</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell CHE_10</t>
+  </si>
+  <si>
+    <t>NRGI</t>
+  </si>
+  <si>
+    <t>daynite</t>
+  </si>
+  <si>
+    <t>distr_elc_won-CHE_0022</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell CHE_22</t>
+  </si>
+  <si>
+    <t>distr_elc_won-CHE_0000</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell CHE_0</t>
+  </si>
+  <si>
+    <t>distr_elc_won-CHE_0007</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell CHE_7</t>
+  </si>
+  <si>
+    <t>distr_elc_won-CHE_0003</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell CHE_3</t>
+  </si>
+  <si>
+    <t>distr_elc_won-CHE_0014</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell CHE_14</t>
+  </si>
+  <si>
+    <t>distr_elc_won-CHE_0018</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell CHE_18</t>
+  </si>
+  <si>
+    <t>distr_elc_won-CHE_0012</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell CHE_12</t>
+  </si>
+  <si>
     <t>distr_elc_won-CHE_0024</t>
   </si>
   <si>
     <t>connecting solar and wind to buses in grid cell CHE_24</t>
   </si>
   <si>
-    <t>NRGI</t>
-  </si>
-  <si>
-    <t>daynite</t>
-  </si>
-  <si>
     <t>distr_elc_won-CHE_0008</t>
   </si>
   <si>
@@ -839,16 +887,22 @@
     <t>connecting solar and wind to buses in grid cell CHE_5</t>
   </si>
   <si>
-    <t>distr_elc_won-CHE_0007</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell CHE_7</t>
-  </si>
-  <si>
-    <t>distr_elc_won-CHE_0012</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell CHE_12</t>
+    <t>distr_elc_won-CHE_0011</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell CHE_11</t>
+  </si>
+  <si>
+    <t>distr_elc_won-CHE_0015</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell CHE_15</t>
+  </si>
+  <si>
+    <t>distr_elc_won-CHE_0025</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell CHE_25</t>
   </si>
   <si>
     <t>distr_elc_won-CHE_0013</t>
@@ -857,34 +911,10 @@
     <t>connecting solar and wind to buses in grid cell CHE_13</t>
   </si>
   <si>
-    <t>distr_elc_won-CHE_0011</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell CHE_11</t>
-  </si>
-  <si>
-    <t>distr_elc_won-CHE_0015</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell CHE_15</t>
-  </si>
-  <si>
-    <t>distr_elc_won-CHE_0025</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell CHE_25</t>
-  </si>
-  <si>
-    <t>distr_elc_won-CHE_0010</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell CHE_10</t>
-  </si>
-  <si>
-    <t>distr_elc_won-CHE_0022</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell CHE_22</t>
+    <t>distr_elc_won-CHE_0002</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell CHE_2</t>
   </si>
   <si>
     <t>distr_elc_won-CHE_0009</t>
@@ -905,10 +935,22 @@
     <t>connecting solar and wind to buses in grid cell CHE_4</t>
   </si>
   <si>
-    <t>distr_elc_won-CHE_0000</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell CHE_0</t>
+    <t>distr_elc_won-CHE_0017</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell CHE_17</t>
+  </si>
+  <si>
+    <t>distr_elc_won-CHE_0019</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell CHE_19</t>
+  </si>
+  <si>
+    <t>distr_elc_won-CHE_0023</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell CHE_23</t>
   </si>
   <si>
     <t>distr_elc_won-CHE_0020</t>
@@ -929,54 +971,60 @@
     <t>connecting solar and wind to buses in grid cell CHE_6</t>
   </si>
   <si>
-    <t>distr_elc_won-CHE_0003</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell CHE_3</t>
-  </si>
-  <si>
-    <t>distr_elc_won-CHE_0017</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell CHE_17</t>
-  </si>
-  <si>
-    <t>distr_elc_won-CHE_0019</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell CHE_19</t>
-  </si>
-  <si>
-    <t>distr_elc_won-CHE_0023</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell CHE_23</t>
-  </si>
-  <si>
-    <t>distr_elc_won-CHE_0014</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell CHE_14</t>
-  </si>
-  <si>
-    <t>distr_elc_won-CHE_0018</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell CHE_18</t>
-  </si>
-  <si>
-    <t>distr_elc_won-CHE_0002</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell CHE_2</t>
-  </si>
-  <si>
     <t>comm-in</t>
   </si>
   <si>
     <t>efficiency</t>
   </si>
   <si>
+    <t>elc_won-CHE_0010,elc_spv-CHE_0010</t>
+  </si>
+  <si>
+    <t>e_CH11-220,e_w109037817-220,e_w109037817-380,e_w127004407-380,e_w127004407-400,e_w27435934-220,e_w30350721-220,e_w397960460-380,e_w397960460-400,e_w88901626-380</t>
+  </si>
+  <si>
+    <t>elc_won-CHE_0022,elc_spv-CHE_0022</t>
+  </si>
+  <si>
+    <t>e_CH4-220,e_CH9-220,e_w455120191-220,e_w83861269-220,e_w92798668-220,e_w92873516-220</t>
+  </si>
+  <si>
+    <t>elc_won-CHE_0000,elc_spv-CHE_0000</t>
+  </si>
+  <si>
+    <t>e_CH51-220,e_CH51-225,e_CH51-400,e_CH52-220,e_CH57-220,e_CH57-225,e_w177392130-220,e_w177392130-400,e_w239937062-220</t>
+  </si>
+  <si>
+    <t>elc_won-CHE_0007,elc_spv-CHE_0007</t>
+  </si>
+  <si>
+    <t>e_CH44-220,e_w212722603-220,e_w212722603-380,e_w236819191-220,e_w758943072-220</t>
+  </si>
+  <si>
+    <t>elc_won-CHE_0003,elc_spv-CHE_0003</t>
+  </si>
+  <si>
+    <t>e_CH48-225,e_CH49-225,e_CH53-225,e_CH60-225,e_w234983117-220,e_w234983117-380,e_w238138373-380,e_w260211728-225,e_w260211728-380,e_w55698557-220,e_w55698557-225,e_w802058337-220,e_w802058337-225,e_w936521586-380</t>
+  </si>
+  <si>
+    <t>elc_won-CHE_0014,elc_spv-CHE_0014</t>
+  </si>
+  <si>
+    <t>e_CH1-220,e_CH2-220,e_CH5-220,e_CH7-220,e_w108257952-220,e_w1284913429-220,e_w165513396-220,e_w165513396-380,e_w190819048-220,e_w27107779-220,e_w31308888-220,e_w33271433-220,e_w356292116-220,e_w356292116-380,e_w35840165-380,e_w50319857-220,e_w50319857-380,e_w50319857-400,e_w89405664-220,e_w89977424-220,e_w98648381-220,e_w98648381-380</t>
+  </si>
+  <si>
+    <t>elc_won-CHE_0018,elc_spv-CHE_0018</t>
+  </si>
+  <si>
+    <t>e_CH3-220,e_CH6-220,e_r9310861-220,e_w11282314-220,e_w147714395-220,e_w147714395-380,e_w148015471-220,e_w22899676-220,e_w240575085-220,e_w26843160-220,e_w281809991-220,e_w50561341-220,e_w87281514-220</t>
+  </si>
+  <si>
+    <t>elc_won-CHE_0012,elc_spv-CHE_0012</t>
+  </si>
+  <si>
+    <t>e_CH19-220,e_CH20-220,e_CH25-220,e_CH27-220,e_CH34-220,e_CH34-380,e_CH35-220,e_CH36-220,e_CH38-220,e_CH39-220,e_CH40-220,e_w1086214433-220,e_w1092884227-220,e_w240959264-220,e_w364949845-220,e_w364949845-380</t>
+  </si>
+  <si>
     <t>elc_won-CHE_0024,elc_spv-CHE_0024</t>
   </si>
   <si>
@@ -995,16 +1043,22 @@
     <t>e_r5378910-220,e_w161853746-220</t>
   </si>
   <si>
-    <t>elc_won-CHE_0007,elc_spv-CHE_0007</t>
-  </si>
-  <si>
-    <t>e_CH44-220,e_w212722603-220,e_w212722603-380,e_w236819191-220,e_w758943072-220</t>
-  </si>
-  <si>
-    <t>elc_won-CHE_0012,elc_spv-CHE_0012</t>
-  </si>
-  <si>
-    <t>e_CH19-220,e_CH20-220,e_CH25-220,e_CH27-220,e_CH34-220,e_CH34-380,e_CH35-220,e_CH36-220,e_CH38-220,e_CH39-220,e_CH40-220,e_w1086214433-220,e_w1092884227-220,e_w240959264-220,e_w364949845-220,e_w364949845-380</t>
+    <t>elc_won-CHE_0011,elc_spv-CHE_0011</t>
+  </si>
+  <si>
+    <t>e_CH46-220,e_CH47-220,e_w228003081-220,e_w391576135-220,e_w391577741-220,e_w969819301-220,e_w969819301-380</t>
+  </si>
+  <si>
+    <t>elc_won-CHE_0015,elc_spv-CHE_0015</t>
+  </si>
+  <si>
+    <t>e_CH50-220,e_CH56-220,e_CH58-220,e_CH59-220,e_w1327084723-220,e_w281800404-220,e_w281803398-220,e_w281815404-220,e_w35487135-220</t>
+  </si>
+  <si>
+    <t>elc_won-CHE_0025,elc_spv-CHE_0025</t>
+  </si>
+  <si>
+    <t>e_r7933294-380</t>
   </si>
   <si>
     <t>elc_won-CHE_0013,elc_spv-CHE_0013</t>
@@ -1013,34 +1067,10 @@
     <t>e_CH15-220,e_w146225999-220,e_w159527493-220,e_w242269161-220,e_w281799252-220,e_w35002638-220,e_w35002638-380,e_w97941869-220</t>
   </si>
   <si>
-    <t>elc_won-CHE_0011,elc_spv-CHE_0011</t>
-  </si>
-  <si>
-    <t>e_CH46-220,e_CH47-220,e_w228003081-220,e_w391576135-220,e_w391577741-220,e_w969819301-220,e_w969819301-380</t>
-  </si>
-  <si>
-    <t>elc_won-CHE_0015,elc_spv-CHE_0015</t>
-  </si>
-  <si>
-    <t>e_CH50-220,e_CH56-220,e_CH58-220,e_CH59-220,e_w1327084723-220,e_w281800404-220,e_w281803398-220,e_w281815404-220,e_w35487135-220</t>
-  </si>
-  <si>
-    <t>elc_won-CHE_0025,elc_spv-CHE_0025</t>
-  </si>
-  <si>
-    <t>e_r7933294-380</t>
-  </si>
-  <si>
-    <t>elc_won-CHE_0010,elc_spv-CHE_0010</t>
-  </si>
-  <si>
-    <t>e_CH11-220,e_w109037817-220,e_w109037817-380,e_w127004407-380,e_w127004407-400,e_w27435934-220,e_w30350721-220,e_w397960460-380,e_w397960460-400,e_w88901626-380</t>
-  </si>
-  <si>
-    <t>elc_won-CHE_0022,elc_spv-CHE_0022</t>
-  </si>
-  <si>
-    <t>e_CH4-220,e_CH9-220,e_w455120191-220,e_w83861269-220,e_w92798668-220,e_w92873516-220</t>
+    <t>elc_won-CHE_0002,elc_spv-CHE_0002</t>
+  </si>
+  <si>
+    <t>e_w232662311-220</t>
   </si>
   <si>
     <t>elc_won-CHE_0009,elc_spv-CHE_0009</t>
@@ -1061,10 +1091,22 @@
     <t>e_w111162936-220,e_w111162936-380,e_w111162936-400,e_w122720993-220,e_w194258388-220</t>
   </si>
   <si>
-    <t>elc_won-CHE_0000,elc_spv-CHE_0000</t>
-  </si>
-  <si>
-    <t>e_CH51-220,e_CH51-225,e_CH51-400,e_CH52-220,e_CH57-220,e_CH57-225,e_w177392130-220,e_w177392130-400,e_w239937062-220</t>
+    <t>elc_won-CHE_0017,elc_spv-CHE_0017</t>
+  </si>
+  <si>
+    <t>e_CH12-220,e_CH12-380,e_CH13-220,e_CH16-380,e_CH18-220,e_CH18-380,e_w192677427-220,e_w192677427-380,e_w52738225-220,e_w52738225-380</t>
+  </si>
+  <si>
+    <t>elc_won-CHE_0019,elc_spv-CHE_0019</t>
+  </si>
+  <si>
+    <t>e_CH45-220,e_w281804158-220,e_w281804158-380</t>
+  </si>
+  <si>
+    <t>elc_won-CHE_0023,elc_spv-CHE_0023</t>
+  </si>
+  <si>
+    <t>e_w207991759-380</t>
   </si>
   <si>
     <t>elc_won-CHE_0020,elc_spv-CHE_0020</t>
@@ -1083,48 +1125,6 @@
   </si>
   <si>
     <t>e_w127004407-400</t>
-  </si>
-  <si>
-    <t>elc_won-CHE_0003,elc_spv-CHE_0003</t>
-  </si>
-  <si>
-    <t>e_CH48-225,e_CH49-225,e_CH53-225,e_CH60-225,e_w234983117-220,e_w234983117-380,e_w238138373-380,e_w260211728-225,e_w260211728-380,e_w55698557-220,e_w55698557-225,e_w802058337-220,e_w802058337-225,e_w936521586-380</t>
-  </si>
-  <si>
-    <t>elc_won-CHE_0017,elc_spv-CHE_0017</t>
-  </si>
-  <si>
-    <t>e_CH12-220,e_CH12-380,e_CH13-220,e_CH16-380,e_CH18-220,e_CH18-380,e_w192677427-220,e_w192677427-380,e_w52738225-220,e_w52738225-380</t>
-  </si>
-  <si>
-    <t>elc_won-CHE_0019,elc_spv-CHE_0019</t>
-  </si>
-  <si>
-    <t>e_CH45-220,e_w281804158-220,e_w281804158-380</t>
-  </si>
-  <si>
-    <t>elc_won-CHE_0023,elc_spv-CHE_0023</t>
-  </si>
-  <si>
-    <t>e_w207991759-380</t>
-  </si>
-  <si>
-    <t>elc_won-CHE_0014,elc_spv-CHE_0014</t>
-  </si>
-  <si>
-    <t>e_CH1-220,e_CH2-220,e_CH5-220,e_CH7-220,e_w108257952-220,e_w1284913429-220,e_w165513396-220,e_w165513396-380,e_w190819048-220,e_w27107779-220,e_w31308888-220,e_w33271433-220,e_w356292116-220,e_w356292116-380,e_w35840165-380,e_w50319857-220,e_w50319857-380,e_w50319857-400,e_w89405664-220,e_w89977424-220,e_w98648381-220,e_w98648381-380</t>
-  </si>
-  <si>
-    <t>elc_won-CHE_0018,elc_spv-CHE_0018</t>
-  </si>
-  <si>
-    <t>e_CH3-220,e_CH6-220,e_r9310861-220,e_w11282314-220,e_w147714395-220,e_w147714395-380,e_w148015471-220,e_w22899676-220,e_w240575085-220,e_w26843160-220,e_w281809991-220,e_w50561341-220,e_w87281514-220</t>
-  </si>
-  <si>
-    <t>elc_won-CHE_0002,elc_spv-CHE_0002</t>
-  </si>
-  <si>
-    <t>e_w232662311-220</t>
   </si>
   <si>
     <t>e_won-CHE_0000</t>
@@ -1806,7 +1806,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CBC9840A-BABF-C400-10A5-499BA172AE21}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FF1E36CD-9D5E-17CD-6737-F93E7A54CF16}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1861,7 +1861,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1F2B2825-6702-59DD-B89A-9BCB191EDDF4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C0C2C4C0-DA44-CF6F-AE98-E04B059D905D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1916,7 +1916,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ECF922EA-3B45-6909-4778-600DB9CD7C0C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DFBD3587-4A3D-53F8-9EA4-E97433C0CE36}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1971,7 +1971,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DD1563CD-E2D8-804E-34D8-827B31B94437}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E320453F-D92D-375A-8B64-7AD18BE8BE66}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4474,7 +4474,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{407CF87A-FBF3-4755-98D4-BD309876A403}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C52619D4-EDB2-4957-BC5D-40F0E5C22724}">
   <dimension ref="A1:AG28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4685,7 +4685,7 @@
         <v>1</v>
       </c>
       <c r="AG4" s="30" t="s">
-        <v>216</v>
+        <v>188</v>
       </c>
     </row>
     <row r="5" spans="1:33">
@@ -4762,7 +4762,7 @@
         <v>1</v>
       </c>
       <c r="AG5" s="31" t="s">
-        <v>230</v>
+        <v>212</v>
       </c>
     </row>
     <row r="6" spans="1:33">
@@ -4839,7 +4839,7 @@
         <v>1</v>
       </c>
       <c r="AG6" s="30" t="s">
-        <v>224</v>
+        <v>184</v>
       </c>
     </row>
     <row r="7" spans="1:33">
@@ -4993,7 +4993,7 @@
         <v>1</v>
       </c>
       <c r="AG8" s="30" t="s">
-        <v>192</v>
+        <v>220</v>
       </c>
     </row>
     <row r="9" spans="1:33">
@@ -5070,7 +5070,7 @@
         <v>1</v>
       </c>
       <c r="AG9" s="31" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
     </row>
     <row r="10" spans="1:33">
@@ -5147,7 +5147,7 @@
         <v>1</v>
       </c>
       <c r="AG10" s="30" t="s">
-        <v>190</v>
+        <v>202</v>
       </c>
     </row>
     <row r="11" spans="1:33">
@@ -5224,7 +5224,7 @@
         <v>1</v>
       </c>
       <c r="AG11" s="31" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
     </row>
     <row r="12" spans="1:33">
@@ -5301,7 +5301,7 @@
         <v>1</v>
       </c>
       <c r="AG12" s="30" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="13" spans="1:33">
@@ -5378,7 +5378,7 @@
         <v>1</v>
       </c>
       <c r="AG13" s="31" t="s">
-        <v>188</v>
+        <v>230</v>
       </c>
     </row>
     <row r="14" spans="1:33">
@@ -5455,7 +5455,7 @@
         <v>1</v>
       </c>
       <c r="AG14" s="30" t="s">
-        <v>212</v>
+        <v>224</v>
       </c>
     </row>
     <row r="15" spans="1:33">
@@ -5532,7 +5532,7 @@
         <v>1</v>
       </c>
       <c r="AG15" s="31" t="s">
-        <v>232</v>
+        <v>190</v>
       </c>
     </row>
     <row r="16" spans="1:33">
@@ -5609,7 +5609,7 @@
         <v>1</v>
       </c>
       <c r="AG16" s="30" t="s">
-        <v>210</v>
+        <v>198</v>
       </c>
     </row>
     <row r="17" spans="2:33">
@@ -5686,7 +5686,7 @@
         <v>1</v>
       </c>
       <c r="AG17" s="31" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
     </row>
     <row r="18" spans="2:33">
@@ -5763,7 +5763,7 @@
         <v>1</v>
       </c>
       <c r="AG18" s="30" t="s">
-        <v>184</v>
+        <v>194</v>
       </c>
     </row>
     <row r="19" spans="2:33">
@@ -5840,7 +5840,7 @@
         <v>1</v>
       </c>
       <c r="AG19" s="31" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="20" spans="2:33">
@@ -5917,7 +5917,7 @@
         <v>1</v>
       </c>
       <c r="AG20" s="30" t="s">
-        <v>186</v>
+        <v>232</v>
       </c>
     </row>
     <row r="21" spans="2:33">
@@ -5994,7 +5994,7 @@
         <v>1</v>
       </c>
       <c r="AG21" s="31" t="s">
-        <v>226</v>
+        <v>210</v>
       </c>
     </row>
     <row r="22" spans="2:33">
@@ -6071,7 +6071,7 @@
         <v>1</v>
       </c>
       <c r="AG22" s="30" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
     </row>
     <row r="23" spans="2:33">
@@ -6379,7 +6379,7 @@
         <v>1</v>
       </c>
       <c r="AG26" s="30" t="s">
-        <v>196</v>
+        <v>208</v>
       </c>
     </row>
     <row r="27" spans="2:33">
@@ -6456,7 +6456,7 @@
         <v>1</v>
       </c>
       <c r="AG27" s="31" t="s">
-        <v>202</v>
+        <v>186</v>
       </c>
     </row>
     <row r="28" spans="2:33">
@@ -6533,7 +6533,7 @@
         <v>1</v>
       </c>
       <c r="AG28" s="30" t="s">
-        <v>206</v>
+        <v>226</v>
       </c>
     </row>
   </sheetData>
@@ -6546,7 +6546,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B78C8B8-A88E-40B7-8BB5-AC5F3DF4E3AB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94E13F26-06E3-4C24-8E0E-0CA9FF4DC784}">
   <dimension ref="A1:O29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7624,7 +7624,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C96DB7BC-7551-47C4-9B79-D397B31ABA87}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D6B0D13-1549-4D82-88B8-9C9C45278038}">
   <dimension ref="A1:Q69"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/VerveStacks_CHE_grids/SubRES_Tmpl/SubRES_New_RE_and_Conventional.xlsx
+++ b/VerveStacks_CHE_grids/SubRES_Tmpl/SubRES_New_RE_and_Conventional.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_CHE_grids\SubRES_Tmpl\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A5BF8B39-20A6-4681-AA1F-8540FCA06908}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{54F6CB1B-3B37-4C60-B313-8CE34846D041}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="6" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -815,168 +815,204 @@
     <t>pre</t>
   </si>
   <si>
+    <t>distr_elc_won-CHE_0011</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell CHE_11</t>
+  </si>
+  <si>
+    <t>NRGI</t>
+  </si>
+  <si>
+    <t>daynite</t>
+  </si>
+  <si>
+    <t>distr_elc_won-CHE_0015</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell CHE_15</t>
+  </si>
+  <si>
+    <t>distr_elc_won-CHE_0025</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell CHE_25</t>
+  </si>
+  <si>
+    <t>distr_elc_won-CHE_0007</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell CHE_7</t>
+  </si>
+  <si>
+    <t>distr_elc_won-CHE_0003</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell CHE_3</t>
+  </si>
+  <si>
+    <t>distr_elc_won-CHE_0013</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell CHE_13</t>
+  </si>
+  <si>
     <t>distr_elc_won-CHE_0010</t>
   </si>
   <si>
     <t>connecting solar and wind to buses in grid cell CHE_10</t>
   </si>
   <si>
-    <t>NRGI</t>
-  </si>
-  <si>
-    <t>daynite</t>
-  </si>
-  <si>
     <t>distr_elc_won-CHE_0022</t>
   </si>
   <si>
     <t>connecting solar and wind to buses in grid cell CHE_22</t>
   </si>
   <si>
+    <t>distr_elc_won-CHE_0009</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell CHE_9</t>
+  </si>
+  <si>
+    <t>distr_elc_won-CHE_0021</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell CHE_21</t>
+  </si>
+  <si>
+    <t>distr_elc_won-CHE_0004</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell CHE_4</t>
+  </si>
+  <si>
+    <t>distr_elc_won-CHE_0012</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell CHE_12</t>
+  </si>
+  <si>
+    <t>distr_elc_won-CHE_0020</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell CHE_20</t>
+  </si>
+  <si>
+    <t>distr_elc_won-CHE_0001</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell CHE_1</t>
+  </si>
+  <si>
+    <t>distr_elc_won-CHE_0006</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell CHE_6</t>
+  </si>
+  <si>
+    <t>distr_elc_won-CHE_0017</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell CHE_17</t>
+  </si>
+  <si>
+    <t>distr_elc_won-CHE_0019</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell CHE_19</t>
+  </si>
+  <si>
+    <t>distr_elc_won-CHE_0023</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell CHE_23</t>
+  </si>
+  <si>
+    <t>distr_elc_won-CHE_0014</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell CHE_14</t>
+  </si>
+  <si>
+    <t>distr_elc_won-CHE_0018</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell CHE_18</t>
+  </si>
+  <si>
+    <t>distr_elc_won-CHE_0002</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell CHE_2</t>
+  </si>
+  <si>
+    <t>distr_elc_won-CHE_0024</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell CHE_24</t>
+  </si>
+  <si>
+    <t>distr_elc_won-CHE_0008</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell CHE_8</t>
+  </si>
+  <si>
+    <t>distr_elc_won-CHE_0005</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell CHE_5</t>
+  </si>
+  <si>
     <t>distr_elc_won-CHE_0000</t>
   </si>
   <si>
     <t>connecting solar and wind to buses in grid cell CHE_0</t>
   </si>
   <si>
-    <t>distr_elc_won-CHE_0007</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell CHE_7</t>
-  </si>
-  <si>
-    <t>distr_elc_won-CHE_0003</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell CHE_3</t>
-  </si>
-  <si>
-    <t>distr_elc_won-CHE_0014</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell CHE_14</t>
-  </si>
-  <si>
-    <t>distr_elc_won-CHE_0018</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell CHE_18</t>
-  </si>
-  <si>
-    <t>distr_elc_won-CHE_0012</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell CHE_12</t>
-  </si>
-  <si>
-    <t>distr_elc_won-CHE_0024</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell CHE_24</t>
-  </si>
-  <si>
-    <t>distr_elc_won-CHE_0008</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell CHE_8</t>
-  </si>
-  <si>
-    <t>distr_elc_won-CHE_0005</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell CHE_5</t>
-  </si>
-  <si>
-    <t>distr_elc_won-CHE_0011</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell CHE_11</t>
-  </si>
-  <si>
-    <t>distr_elc_won-CHE_0015</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell CHE_15</t>
-  </si>
-  <si>
-    <t>distr_elc_won-CHE_0025</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell CHE_25</t>
-  </si>
-  <si>
-    <t>distr_elc_won-CHE_0013</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell CHE_13</t>
-  </si>
-  <si>
-    <t>distr_elc_won-CHE_0002</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell CHE_2</t>
-  </si>
-  <si>
-    <t>distr_elc_won-CHE_0009</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell CHE_9</t>
-  </si>
-  <si>
-    <t>distr_elc_won-CHE_0021</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell CHE_21</t>
-  </si>
-  <si>
-    <t>distr_elc_won-CHE_0004</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell CHE_4</t>
-  </si>
-  <si>
-    <t>distr_elc_won-CHE_0017</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell CHE_17</t>
-  </si>
-  <si>
-    <t>distr_elc_won-CHE_0019</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell CHE_19</t>
-  </si>
-  <si>
-    <t>distr_elc_won-CHE_0023</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell CHE_23</t>
-  </si>
-  <si>
-    <t>distr_elc_won-CHE_0020</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell CHE_20</t>
-  </si>
-  <si>
-    <t>distr_elc_won-CHE_0001</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell CHE_1</t>
-  </si>
-  <si>
-    <t>distr_elc_won-CHE_0006</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell CHE_6</t>
-  </si>
-  <si>
     <t>comm-in</t>
   </si>
   <si>
     <t>efficiency</t>
   </si>
   <si>
+    <t>elc_won-CHE_0011,elc_spv-CHE_0011</t>
+  </si>
+  <si>
+    <t>e_CH46-220,e_CH47-220,e_w228003081-220,e_w391576135-220,e_w391577741-220,e_w969819301-220,e_w969819301-380</t>
+  </si>
+  <si>
+    <t>elc_won-CHE_0015,elc_spv-CHE_0015</t>
+  </si>
+  <si>
+    <t>e_CH50-220,e_CH56-220,e_CH58-220,e_CH59-220,e_w1327084723-220,e_w281800404-220,e_w281803398-220,e_w281815404-220,e_w35487135-220</t>
+  </si>
+  <si>
+    <t>elc_won-CHE_0025,elc_spv-CHE_0025</t>
+  </si>
+  <si>
+    <t>e_r7933294-380</t>
+  </si>
+  <si>
+    <t>elc_won-CHE_0007,elc_spv-CHE_0007</t>
+  </si>
+  <si>
+    <t>e_CH44-220,e_w212722603-220,e_w212722603-380,e_w236819191-220,e_w758943072-220</t>
+  </si>
+  <si>
+    <t>elc_won-CHE_0003,elc_spv-CHE_0003</t>
+  </si>
+  <si>
+    <t>e_CH48-225,e_CH49-225,e_CH53-225,e_CH60-225,e_w234983117-220,e_w234983117-380,e_w238138373-380,e_w260211728-225,e_w260211728-380,e_w55698557-220,e_w55698557-225,e_w802058337-220,e_w802058337-225,e_w936521586-380</t>
+  </si>
+  <si>
+    <t>elc_won-CHE_0013,elc_spv-CHE_0013</t>
+  </si>
+  <si>
+    <t>e_CH15-220,e_w146225999-220,e_w159527493-220,e_w242269161-220,e_w281799252-220,e_w35002638-220,e_w35002638-380,e_w97941869-220</t>
+  </si>
+  <si>
     <t>elc_won-CHE_0010,elc_spv-CHE_0010</t>
   </si>
   <si>
@@ -989,142 +1025,106 @@
     <t>e_CH4-220,e_CH9-220,e_w455120191-220,e_w83861269-220,e_w92798668-220,e_w92873516-220</t>
   </si>
   <si>
+    <t>elc_won-CHE_0009,elc_spv-CHE_0009</t>
+  </si>
+  <si>
+    <t>e_CH14-220,e_CH14-380,e_w1105061707-220,e_w1105061707-380,e_w147557680-220,e_w165254212-220,e_w402053379-220</t>
+  </si>
+  <si>
+    <t>elc_won-CHE_0021,elc_spv-CHE_0021</t>
+  </si>
+  <si>
+    <t>e_CH17-380,e_w211907009-220</t>
+  </si>
+  <si>
+    <t>elc_won-CHE_0004,elc_spv-CHE_0004</t>
+  </si>
+  <si>
+    <t>e_w111162936-220,e_w111162936-380,e_w111162936-400,e_w122720993-220,e_w194258388-220</t>
+  </si>
+  <si>
+    <t>elc_won-CHE_0012,elc_spv-CHE_0012</t>
+  </si>
+  <si>
+    <t>e_CH19-220,e_CH20-220,e_CH25-220,e_CH27-220,e_CH34-220,e_CH34-380,e_CH35-220,e_CH36-220,e_CH38-220,e_CH39-220,e_CH40-220,e_w1086214433-220,e_w1092884227-220,e_w240959264-220,e_w364949845-220,e_w364949845-380</t>
+  </si>
+  <si>
+    <t>elc_won-CHE_0020,elc_spv-CHE_0020</t>
+  </si>
+  <si>
+    <t>e_CH21-220,e_CH22-220,e_CH22-380,e_CH29-220,e_CH29-380,e_CH41-380,e_w1208713169-220,e_w207993342-220,e_w207993342-380,e_w208780268-380,e_w212498548-220,e_w36348118-220,e_w365556107-220,e_w71500123-220,e_w71500123-380</t>
+  </si>
+  <si>
+    <t>elc_won-CHE_0001,elc_spv-CHE_0001</t>
+  </si>
+  <si>
+    <t>e_CH31-220,e_w132373704-220,e_w232662311-220,e_w44496892-220,e_w55695765-220</t>
+  </si>
+  <si>
+    <t>elc_won-CHE_0006,elc_spv-CHE_0006</t>
+  </si>
+  <si>
+    <t>e_w127004407-400</t>
+  </si>
+  <si>
+    <t>elc_won-CHE_0017,elc_spv-CHE_0017</t>
+  </si>
+  <si>
+    <t>e_CH12-220,e_CH12-380,e_CH13-220,e_CH16-380,e_CH18-220,e_CH18-380,e_w192677427-220,e_w192677427-380,e_w52738225-220,e_w52738225-380</t>
+  </si>
+  <si>
+    <t>elc_won-CHE_0019,elc_spv-CHE_0019</t>
+  </si>
+  <si>
+    <t>e_CH45-220,e_w281804158-220,e_w281804158-380</t>
+  </si>
+  <si>
+    <t>elc_won-CHE_0023,elc_spv-CHE_0023</t>
+  </si>
+  <si>
+    <t>e_w207991759-380</t>
+  </si>
+  <si>
+    <t>elc_won-CHE_0014,elc_spv-CHE_0014</t>
+  </si>
+  <si>
+    <t>e_CH1-220,e_CH2-220,e_CH5-220,e_CH7-220,e_w108257952-220,e_w1284913429-220,e_w165513396-220,e_w165513396-380,e_w190819048-220,e_w27107779-220,e_w31308888-220,e_w33271433-220,e_w356292116-220,e_w356292116-380,e_w35840165-380,e_w50319857-220,e_w50319857-380,e_w50319857-400,e_w89405664-220,e_w89977424-220,e_w98648381-220,e_w98648381-380</t>
+  </si>
+  <si>
+    <t>elc_won-CHE_0018,elc_spv-CHE_0018</t>
+  </si>
+  <si>
+    <t>e_CH3-220,e_CH6-220,e_r9310861-220,e_w11282314-220,e_w147714395-220,e_w147714395-380,e_w148015471-220,e_w22899676-220,e_w240575085-220,e_w26843160-220,e_w281809991-220,e_w50561341-220,e_w87281514-220</t>
+  </si>
+  <si>
+    <t>elc_won-CHE_0002,elc_spv-CHE_0002</t>
+  </si>
+  <si>
+    <t>e_w232662311-220</t>
+  </si>
+  <si>
+    <t>elc_won-CHE_0024,elc_spv-CHE_0024</t>
+  </si>
+  <si>
+    <t>e_CH30-380,e_CH33-380,e_CH37-380,e_r7933294-380</t>
+  </si>
+  <si>
+    <t>elc_won-CHE_0008,elc_spv-CHE_0008</t>
+  </si>
+  <si>
+    <t>e_CH43-220,e_w209324991-220,e_w26166640-220,e_w402055336-220,e_w758315582-220</t>
+  </si>
+  <si>
+    <t>elc_won-CHE_0005,elc_spv-CHE_0005</t>
+  </si>
+  <si>
+    <t>e_r5378910-220,e_w161853746-220</t>
+  </si>
+  <si>
     <t>elc_won-CHE_0000,elc_spv-CHE_0000</t>
   </si>
   <si>
     <t>e_CH51-220,e_CH51-225,e_CH51-400,e_CH52-220,e_CH57-220,e_CH57-225,e_w177392130-220,e_w177392130-400,e_w239937062-220</t>
-  </si>
-  <si>
-    <t>elc_won-CHE_0007,elc_spv-CHE_0007</t>
-  </si>
-  <si>
-    <t>e_CH44-220,e_w212722603-220,e_w212722603-380,e_w236819191-220,e_w758943072-220</t>
-  </si>
-  <si>
-    <t>elc_won-CHE_0003,elc_spv-CHE_0003</t>
-  </si>
-  <si>
-    <t>e_CH48-225,e_CH49-225,e_CH53-225,e_CH60-225,e_w234983117-220,e_w234983117-380,e_w238138373-380,e_w260211728-225,e_w260211728-380,e_w55698557-220,e_w55698557-225,e_w802058337-220,e_w802058337-225,e_w936521586-380</t>
-  </si>
-  <si>
-    <t>elc_won-CHE_0014,elc_spv-CHE_0014</t>
-  </si>
-  <si>
-    <t>e_CH1-220,e_CH2-220,e_CH5-220,e_CH7-220,e_w108257952-220,e_w1284913429-220,e_w165513396-220,e_w165513396-380,e_w190819048-220,e_w27107779-220,e_w31308888-220,e_w33271433-220,e_w356292116-220,e_w356292116-380,e_w35840165-380,e_w50319857-220,e_w50319857-380,e_w50319857-400,e_w89405664-220,e_w89977424-220,e_w98648381-220,e_w98648381-380</t>
-  </si>
-  <si>
-    <t>elc_won-CHE_0018,elc_spv-CHE_0018</t>
-  </si>
-  <si>
-    <t>e_CH3-220,e_CH6-220,e_r9310861-220,e_w11282314-220,e_w147714395-220,e_w147714395-380,e_w148015471-220,e_w22899676-220,e_w240575085-220,e_w26843160-220,e_w281809991-220,e_w50561341-220,e_w87281514-220</t>
-  </si>
-  <si>
-    <t>elc_won-CHE_0012,elc_spv-CHE_0012</t>
-  </si>
-  <si>
-    <t>e_CH19-220,e_CH20-220,e_CH25-220,e_CH27-220,e_CH34-220,e_CH34-380,e_CH35-220,e_CH36-220,e_CH38-220,e_CH39-220,e_CH40-220,e_w1086214433-220,e_w1092884227-220,e_w240959264-220,e_w364949845-220,e_w364949845-380</t>
-  </si>
-  <si>
-    <t>elc_won-CHE_0024,elc_spv-CHE_0024</t>
-  </si>
-  <si>
-    <t>e_CH30-380,e_CH33-380,e_CH37-380,e_r7933294-380</t>
-  </si>
-  <si>
-    <t>elc_won-CHE_0008,elc_spv-CHE_0008</t>
-  </si>
-  <si>
-    <t>e_CH43-220,e_w209324991-220,e_w26166640-220,e_w402055336-220,e_w758315582-220</t>
-  </si>
-  <si>
-    <t>elc_won-CHE_0005,elc_spv-CHE_0005</t>
-  </si>
-  <si>
-    <t>e_r5378910-220,e_w161853746-220</t>
-  </si>
-  <si>
-    <t>elc_won-CHE_0011,elc_spv-CHE_0011</t>
-  </si>
-  <si>
-    <t>e_CH46-220,e_CH47-220,e_w228003081-220,e_w391576135-220,e_w391577741-220,e_w969819301-220,e_w969819301-380</t>
-  </si>
-  <si>
-    <t>elc_won-CHE_0015,elc_spv-CHE_0015</t>
-  </si>
-  <si>
-    <t>e_CH50-220,e_CH56-220,e_CH58-220,e_CH59-220,e_w1327084723-220,e_w281800404-220,e_w281803398-220,e_w281815404-220,e_w35487135-220</t>
-  </si>
-  <si>
-    <t>elc_won-CHE_0025,elc_spv-CHE_0025</t>
-  </si>
-  <si>
-    <t>e_r7933294-380</t>
-  </si>
-  <si>
-    <t>elc_won-CHE_0013,elc_spv-CHE_0013</t>
-  </si>
-  <si>
-    <t>e_CH15-220,e_w146225999-220,e_w159527493-220,e_w242269161-220,e_w281799252-220,e_w35002638-220,e_w35002638-380,e_w97941869-220</t>
-  </si>
-  <si>
-    <t>elc_won-CHE_0002,elc_spv-CHE_0002</t>
-  </si>
-  <si>
-    <t>e_w232662311-220</t>
-  </si>
-  <si>
-    <t>elc_won-CHE_0009,elc_spv-CHE_0009</t>
-  </si>
-  <si>
-    <t>e_CH14-220,e_CH14-380,e_w1105061707-220,e_w1105061707-380,e_w147557680-220,e_w165254212-220,e_w402053379-220</t>
-  </si>
-  <si>
-    <t>elc_won-CHE_0021,elc_spv-CHE_0021</t>
-  </si>
-  <si>
-    <t>e_CH17-380,e_w211907009-220</t>
-  </si>
-  <si>
-    <t>elc_won-CHE_0004,elc_spv-CHE_0004</t>
-  </si>
-  <si>
-    <t>e_w111162936-220,e_w111162936-380,e_w111162936-400,e_w122720993-220,e_w194258388-220</t>
-  </si>
-  <si>
-    <t>elc_won-CHE_0017,elc_spv-CHE_0017</t>
-  </si>
-  <si>
-    <t>e_CH12-220,e_CH12-380,e_CH13-220,e_CH16-380,e_CH18-220,e_CH18-380,e_w192677427-220,e_w192677427-380,e_w52738225-220,e_w52738225-380</t>
-  </si>
-  <si>
-    <t>elc_won-CHE_0019,elc_spv-CHE_0019</t>
-  </si>
-  <si>
-    <t>e_CH45-220,e_w281804158-220,e_w281804158-380</t>
-  </si>
-  <si>
-    <t>elc_won-CHE_0023,elc_spv-CHE_0023</t>
-  </si>
-  <si>
-    <t>e_w207991759-380</t>
-  </si>
-  <si>
-    <t>elc_won-CHE_0020,elc_spv-CHE_0020</t>
-  </si>
-  <si>
-    <t>e_CH21-220,e_CH22-220,e_CH22-380,e_CH29-220,e_CH29-380,e_CH41-380,e_w1208713169-220,e_w207993342-220,e_w207993342-380,e_w208780268-380,e_w212498548-220,e_w36348118-220,e_w365556107-220,e_w71500123-220,e_w71500123-380</t>
-  </si>
-  <si>
-    <t>elc_won-CHE_0001,elc_spv-CHE_0001</t>
-  </si>
-  <si>
-    <t>e_CH31-220,e_w132373704-220,e_w232662311-220,e_w44496892-220,e_w55695765-220</t>
-  </si>
-  <si>
-    <t>elc_won-CHE_0006,elc_spv-CHE_0006</t>
-  </si>
-  <si>
-    <t>e_w127004407-400</t>
   </si>
   <si>
     <t>e_won-CHE_0000</t>
@@ -1806,7 +1806,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FF1E36CD-9D5E-17CD-6737-F93E7A54CF16}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CC3AD08D-5998-E15C-C737-DC7DF0239B69}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1861,7 +1861,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C0C2C4C0-DA44-CF6F-AE98-E04B059D905D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5D110BB5-35F1-D301-7251-81D284459508}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1916,7 +1916,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DFBD3587-4A3D-53F8-9EA4-E97433C0CE36}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{46A6ADC9-234E-77AF-1BAE-E16483EF04F1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1971,7 +1971,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E320453F-D92D-375A-8B64-7AD18BE8BE66}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5C68F37F-18CF-CE59-C0C7-2CD937F35FD6}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4474,7 +4474,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C52619D4-EDB2-4957-BC5D-40F0E5C22724}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CCB35EF-1A85-4472-9A31-5CEC2182A78B}">
   <dimension ref="A1:AG28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4685,7 +4685,7 @@
         <v>1</v>
       </c>
       <c r="AG4" s="30" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
     </row>
     <row r="5" spans="1:33">
@@ -4762,7 +4762,7 @@
         <v>1</v>
       </c>
       <c r="AG5" s="31" t="s">
-        <v>212</v>
+        <v>198</v>
       </c>
     </row>
     <row r="6" spans="1:33">
@@ -4839,7 +4839,7 @@
         <v>1</v>
       </c>
       <c r="AG6" s="30" t="s">
-        <v>184</v>
+        <v>218</v>
       </c>
     </row>
     <row r="7" spans="1:33">
@@ -5070,7 +5070,7 @@
         <v>1</v>
       </c>
       <c r="AG9" s="31" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="10" spans="1:33">
@@ -5147,7 +5147,7 @@
         <v>1</v>
       </c>
       <c r="AG10" s="30" t="s">
-        <v>202</v>
+        <v>188</v>
       </c>
     </row>
     <row r="11" spans="1:33">
@@ -5224,7 +5224,7 @@
         <v>1</v>
       </c>
       <c r="AG11" s="31" t="s">
-        <v>192</v>
+        <v>212</v>
       </c>
     </row>
     <row r="12" spans="1:33">
@@ -5301,7 +5301,7 @@
         <v>1</v>
       </c>
       <c r="AG12" s="30" t="s">
-        <v>216</v>
+        <v>232</v>
       </c>
     </row>
     <row r="13" spans="1:33">
@@ -5378,7 +5378,7 @@
         <v>1</v>
       </c>
       <c r="AG13" s="31" t="s">
-        <v>230</v>
+        <v>210</v>
       </c>
     </row>
     <row r="14" spans="1:33">
@@ -5455,7 +5455,7 @@
         <v>1</v>
       </c>
       <c r="AG14" s="30" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
     </row>
     <row r="15" spans="1:33">
@@ -5532,7 +5532,7 @@
         <v>1</v>
       </c>
       <c r="AG15" s="31" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
     </row>
     <row r="16" spans="1:33">
@@ -5609,7 +5609,7 @@
         <v>1</v>
       </c>
       <c r="AG16" s="30" t="s">
-        <v>198</v>
+        <v>208</v>
       </c>
     </row>
     <row r="17" spans="2:33">
@@ -5686,7 +5686,7 @@
         <v>1</v>
       </c>
       <c r="AG17" s="31" t="s">
-        <v>218</v>
+        <v>186</v>
       </c>
     </row>
     <row r="18" spans="2:33">
@@ -5763,7 +5763,7 @@
         <v>1</v>
       </c>
       <c r="AG18" s="30" t="s">
-        <v>194</v>
+        <v>226</v>
       </c>
     </row>
     <row r="19" spans="2:33">
@@ -5840,7 +5840,7 @@
         <v>1</v>
       </c>
       <c r="AG19" s="31" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
     </row>
     <row r="20" spans="2:33">
@@ -5917,7 +5917,7 @@
         <v>1</v>
       </c>
       <c r="AG20" s="30" t="s">
-        <v>232</v>
+        <v>204</v>
       </c>
     </row>
     <row r="21" spans="2:33">
@@ -5994,7 +5994,7 @@
         <v>1</v>
       </c>
       <c r="AG21" s="31" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
     </row>
     <row r="22" spans="2:33">
@@ -6071,7 +6071,7 @@
         <v>1</v>
       </c>
       <c r="AG22" s="30" t="s">
-        <v>222</v>
+        <v>196</v>
       </c>
     </row>
     <row r="23" spans="2:33">
@@ -6148,7 +6148,7 @@
         <v>1</v>
       </c>
       <c r="AG23" s="31" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
     </row>
     <row r="24" spans="2:33">
@@ -6225,7 +6225,7 @@
         <v>1</v>
       </c>
       <c r="AG24" s="30" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
     </row>
     <row r="25" spans="2:33">
@@ -6302,7 +6302,7 @@
         <v>1</v>
       </c>
       <c r="AG25" s="31" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
     </row>
     <row r="26" spans="2:33">
@@ -6379,7 +6379,7 @@
         <v>1</v>
       </c>
       <c r="AG26" s="30" t="s">
-        <v>208</v>
+        <v>230</v>
       </c>
     </row>
     <row r="27" spans="2:33">
@@ -6456,7 +6456,7 @@
         <v>1</v>
       </c>
       <c r="AG27" s="31" t="s">
-        <v>186</v>
+        <v>224</v>
       </c>
     </row>
     <row r="28" spans="2:33">
@@ -6533,7 +6533,7 @@
         <v>1</v>
       </c>
       <c r="AG28" s="30" t="s">
-        <v>226</v>
+        <v>184</v>
       </c>
     </row>
   </sheetData>
@@ -6546,7 +6546,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94E13F26-06E3-4C24-8E0E-0CA9FF4DC784}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3CCA0394-6DE2-4DF0-9692-B3A15C0CEB0A}">
   <dimension ref="A1:O29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7624,7 +7624,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D6B0D13-1549-4D82-88B8-9C9C45278038}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95E2E489-32E6-4F99-B0D5-11E2A5B37962}">
   <dimension ref="A1:Q69"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/VerveStacks_CHE_grids/SubRES_Tmpl/SubRES_New_RE_and_Conventional.xlsx
+++ b/VerveStacks_CHE_grids/SubRES_Tmpl/SubRES_New_RE_and_Conventional.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_CHE_grids\SubRES_Tmpl\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{54F6CB1B-3B37-4C60-B313-8CE34846D041}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{79F12A95-7C5F-41BD-91DD-937728ACE7DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="6" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1494" uniqueCount="442">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1476" uniqueCount="441">
   <si>
     <t>~FI_Process</t>
   </si>
@@ -815,18 +815,72 @@
     <t>pre</t>
   </si>
   <si>
+    <t>distr_elc_won-CHE_0014</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell CHE_14</t>
+  </si>
+  <si>
+    <t>NRGI</t>
+  </si>
+  <si>
+    <t>daynite</t>
+  </si>
+  <si>
+    <t>distr_elc_won-CHE_0018</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell CHE_18</t>
+  </si>
+  <si>
+    <t>distr_elc_won-CHE_0024</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell CHE_24</t>
+  </si>
+  <si>
+    <t>distr_elc_won-CHE_0008</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell CHE_8</t>
+  </si>
+  <si>
+    <t>distr_elc_won-CHE_0005</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell CHE_5</t>
+  </si>
+  <si>
+    <t>distr_elc_won-CHE_0013</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell CHE_13</t>
+  </si>
+  <si>
+    <t>distr_elc_won-CHE_0010</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell CHE_10</t>
+  </si>
+  <si>
+    <t>distr_elc_won-CHE_0022</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell CHE_22</t>
+  </si>
+  <si>
+    <t>distr_elc_won-CHE_0007</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell CHE_7</t>
+  </si>
+  <si>
     <t>distr_elc_won-CHE_0011</t>
   </si>
   <si>
     <t>connecting solar and wind to buses in grid cell CHE_11</t>
   </si>
   <si>
-    <t>NRGI</t>
-  </si>
-  <si>
-    <t>daynite</t>
-  </si>
-  <si>
     <t>distr_elc_won-CHE_0015</t>
   </si>
   <si>
@@ -839,10 +893,76 @@
     <t>connecting solar and wind to buses in grid cell CHE_25</t>
   </si>
   <si>
-    <t>distr_elc_won-CHE_0007</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell CHE_7</t>
+    <t>distr_elc_won-CHE_0017</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell CHE_17</t>
+  </si>
+  <si>
+    <t>distr_elc_won-CHE_0019</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell CHE_19</t>
+  </si>
+  <si>
+    <t>distr_elc_won-CHE_0023</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell CHE_23</t>
+  </si>
+  <si>
+    <t>distr_elc_won-CHE_0000</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell CHE_0</t>
+  </si>
+  <si>
+    <t>distr_elc_won-CHE_0009</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell CHE_9</t>
+  </si>
+  <si>
+    <t>distr_elc_won-CHE_0021</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell CHE_21</t>
+  </si>
+  <si>
+    <t>distr_elc_won-CHE_0004</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell CHE_4</t>
+  </si>
+  <si>
+    <t>distr_elc_won-CHE_0002</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell CHE_2</t>
+  </si>
+  <si>
+    <t>distr_elc_won-CHE_0012</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell CHE_12</t>
+  </si>
+  <si>
+    <t>distr_elc_won-CHE_0020</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell CHE_20</t>
+  </si>
+  <si>
+    <t>distr_elc_won-CHE_0001</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell CHE_1</t>
+  </si>
+  <si>
+    <t>distr_elc_won-CHE_0006</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell CHE_6</t>
   </si>
   <si>
     <t>distr_elc_won-CHE_0003</t>
@@ -851,132 +971,66 @@
     <t>connecting solar and wind to buses in grid cell CHE_3</t>
   </si>
   <si>
-    <t>distr_elc_won-CHE_0013</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell CHE_13</t>
-  </si>
-  <si>
-    <t>distr_elc_won-CHE_0010</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell CHE_10</t>
-  </si>
-  <si>
-    <t>distr_elc_won-CHE_0022</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell CHE_22</t>
-  </si>
-  <si>
-    <t>distr_elc_won-CHE_0009</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell CHE_9</t>
-  </si>
-  <si>
-    <t>distr_elc_won-CHE_0021</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell CHE_21</t>
-  </si>
-  <si>
-    <t>distr_elc_won-CHE_0004</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell CHE_4</t>
-  </si>
-  <si>
-    <t>distr_elc_won-CHE_0012</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell CHE_12</t>
-  </si>
-  <si>
-    <t>distr_elc_won-CHE_0020</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell CHE_20</t>
-  </si>
-  <si>
-    <t>distr_elc_won-CHE_0001</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell CHE_1</t>
-  </si>
-  <si>
-    <t>distr_elc_won-CHE_0006</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell CHE_6</t>
-  </si>
-  <si>
-    <t>distr_elc_won-CHE_0017</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell CHE_17</t>
-  </si>
-  <si>
-    <t>distr_elc_won-CHE_0019</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell CHE_19</t>
-  </si>
-  <si>
-    <t>distr_elc_won-CHE_0023</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell CHE_23</t>
-  </si>
-  <si>
-    <t>distr_elc_won-CHE_0014</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell CHE_14</t>
-  </si>
-  <si>
-    <t>distr_elc_won-CHE_0018</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell CHE_18</t>
-  </si>
-  <si>
-    <t>distr_elc_won-CHE_0002</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell CHE_2</t>
-  </si>
-  <si>
-    <t>distr_elc_won-CHE_0024</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell CHE_24</t>
-  </si>
-  <si>
-    <t>distr_elc_won-CHE_0008</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell CHE_8</t>
-  </si>
-  <si>
-    <t>distr_elc_won-CHE_0005</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell CHE_5</t>
-  </si>
-  <si>
-    <t>distr_elc_won-CHE_0000</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell CHE_0</t>
-  </si>
-  <si>
     <t>comm-in</t>
   </si>
   <si>
     <t>efficiency</t>
   </si>
   <si>
+    <t>elc_won-CHE_0014,elc_spv-CHE_0014</t>
+  </si>
+  <si>
+    <t>e_CH1-220,e_CH2-220,e_CH5-220,e_CH7-220,e_w108257952-220,e_w1284913429-220,e_w165513396-220,e_w165513396-380,e_w190819048-220,e_w27107779-220,e_w31308888-220,e_w33271433-220,e_w356292116-220,e_w356292116-380,e_w35840165-380,e_w50319857-220,e_w50319857-380,e_w50319857-400,e_w89405664-220,e_w89977424-220,e_w98648381-220,e_w98648381-380</t>
+  </si>
+  <si>
+    <t>elc_won-CHE_0018,elc_spv-CHE_0018</t>
+  </si>
+  <si>
+    <t>e_CH3-220,e_CH6-220,e_r9310861-220,e_w11282314-220,e_w147714395-220,e_w147714395-380,e_w148015471-220,e_w22899676-220,e_w240575085-220,e_w26843160-220,e_w281809991-220,e_w50561341-220,e_w87281514-220</t>
+  </si>
+  <si>
+    <t>elc_won-CHE_0024,elc_spv-CHE_0024</t>
+  </si>
+  <si>
+    <t>e_CH30-380,e_CH33-380,e_CH37-380,e_r7933294-380</t>
+  </si>
+  <si>
+    <t>elc_won-CHE_0008,elc_spv-CHE_0008</t>
+  </si>
+  <si>
+    <t>e_CH43-220,e_w209324991-220,e_w26166640-220,e_w402055336-220,e_w758315582-220</t>
+  </si>
+  <si>
+    <t>elc_won-CHE_0005,elc_spv-CHE_0005</t>
+  </si>
+  <si>
+    <t>e_r5378910-220,e_w161853746-220</t>
+  </si>
+  <si>
+    <t>elc_won-CHE_0013,elc_spv-CHE_0013</t>
+  </si>
+  <si>
+    <t>e_CH15-220,e_w146225999-220,e_w159527493-220,e_w242269161-220,e_w281799252-220,e_w35002638-220,e_w35002638-380,e_w97941869-220</t>
+  </si>
+  <si>
+    <t>elc_won-CHE_0010,elc_spv-CHE_0010</t>
+  </si>
+  <si>
+    <t>e_CH11-220,e_w109037817-220,e_w109037817-380,e_w127004407-380,e_w127004407-400,e_w27435934-220,e_w30350721-220,e_w397960460-380,e_w397960460-400,e_w88901626-380</t>
+  </si>
+  <si>
+    <t>elc_won-CHE_0022,elc_spv-CHE_0022</t>
+  </si>
+  <si>
+    <t>e_CH4-220,e_CH9-220,e_w455120191-220,e_w83861269-220,e_w92798668-220,e_w92873516-220</t>
+  </si>
+  <si>
+    <t>elc_won-CHE_0007,elc_spv-CHE_0007</t>
+  </si>
+  <si>
+    <t>e_CH44-220,e_w212722603-220,e_w212722603-380,e_w236819191-220,e_w758943072-220</t>
+  </si>
+  <si>
     <t>elc_won-CHE_0011,elc_spv-CHE_0011</t>
   </si>
   <si>
@@ -995,10 +1049,76 @@
     <t>e_r7933294-380</t>
   </si>
   <si>
-    <t>elc_won-CHE_0007,elc_spv-CHE_0007</t>
-  </si>
-  <si>
-    <t>e_CH44-220,e_w212722603-220,e_w212722603-380,e_w236819191-220,e_w758943072-220</t>
+    <t>elc_won-CHE_0017,elc_spv-CHE_0017</t>
+  </si>
+  <si>
+    <t>e_CH12-220,e_CH12-380,e_CH13-220,e_CH16-380,e_CH18-220,e_CH18-380,e_w192677427-220,e_w192677427-380,e_w52738225-220,e_w52738225-380</t>
+  </si>
+  <si>
+    <t>elc_won-CHE_0019,elc_spv-CHE_0019</t>
+  </si>
+  <si>
+    <t>e_CH45-220,e_w281804158-220,e_w281804158-380</t>
+  </si>
+  <si>
+    <t>elc_won-CHE_0023,elc_spv-CHE_0023</t>
+  </si>
+  <si>
+    <t>e_w207991759-380</t>
+  </si>
+  <si>
+    <t>elc_won-CHE_0000,elc_spv-CHE_0000</t>
+  </si>
+  <si>
+    <t>e_CH51-220,e_CH51-225,e_CH51-400,e_CH52-220,e_CH57-220,e_CH57-225,e_w177392130-220,e_w177392130-400,e_w239937062-220</t>
+  </si>
+  <si>
+    <t>elc_won-CHE_0009,elc_spv-CHE_0009</t>
+  </si>
+  <si>
+    <t>e_CH14-220,e_CH14-380,e_w1105061707-220,e_w1105061707-380,e_w147557680-220,e_w165254212-220,e_w402053379-220</t>
+  </si>
+  <si>
+    <t>elc_won-CHE_0021,elc_spv-CHE_0021</t>
+  </si>
+  <si>
+    <t>e_CH17-380,e_w211907009-220</t>
+  </si>
+  <si>
+    <t>elc_won-CHE_0004,elc_spv-CHE_0004</t>
+  </si>
+  <si>
+    <t>e_w111162936-220,e_w111162936-380,e_w111162936-400,e_w122720993-220,e_w194258388-220</t>
+  </si>
+  <si>
+    <t>elc_won-CHE_0002,elc_spv-CHE_0002</t>
+  </si>
+  <si>
+    <t>e_w232662311-220</t>
+  </si>
+  <si>
+    <t>elc_won-CHE_0012,elc_spv-CHE_0012</t>
+  </si>
+  <si>
+    <t>e_CH19-220,e_CH20-220,e_CH25-220,e_CH27-220,e_CH34-220,e_CH34-380,e_CH35-220,e_CH36-220,e_CH38-220,e_CH39-220,e_CH40-220,e_w1086214433-220,e_w1092884227-220,e_w240959264-220,e_w364949845-220,e_w364949845-380</t>
+  </si>
+  <si>
+    <t>elc_won-CHE_0020,elc_spv-CHE_0020</t>
+  </si>
+  <si>
+    <t>e_CH21-220,e_CH22-220,e_CH22-380,e_CH29-220,e_CH29-380,e_CH41-380,e_w1208713169-220,e_w207993342-220,e_w207993342-380,e_w208780268-380,e_w212498548-220,e_w36348118-220,e_w365556107-220,e_w71500123-220,e_w71500123-380</t>
+  </si>
+  <si>
+    <t>elc_won-CHE_0001,elc_spv-CHE_0001</t>
+  </si>
+  <si>
+    <t>e_CH31-220,e_w132373704-220,e_w232662311-220,e_w44496892-220,e_w55695765-220</t>
+  </si>
+  <si>
+    <t>elc_won-CHE_0006,elc_spv-CHE_0006</t>
+  </si>
+  <si>
+    <t>e_w127004407-400</t>
   </si>
   <si>
     <t>elc_won-CHE_0003,elc_spv-CHE_0003</t>
@@ -1007,126 +1127,6 @@
     <t>e_CH48-225,e_CH49-225,e_CH53-225,e_CH60-225,e_w234983117-220,e_w234983117-380,e_w238138373-380,e_w260211728-225,e_w260211728-380,e_w55698557-220,e_w55698557-225,e_w802058337-220,e_w802058337-225,e_w936521586-380</t>
   </si>
   <si>
-    <t>elc_won-CHE_0013,elc_spv-CHE_0013</t>
-  </si>
-  <si>
-    <t>e_CH15-220,e_w146225999-220,e_w159527493-220,e_w242269161-220,e_w281799252-220,e_w35002638-220,e_w35002638-380,e_w97941869-220</t>
-  </si>
-  <si>
-    <t>elc_won-CHE_0010,elc_spv-CHE_0010</t>
-  </si>
-  <si>
-    <t>e_CH11-220,e_w109037817-220,e_w109037817-380,e_w127004407-380,e_w127004407-400,e_w27435934-220,e_w30350721-220,e_w397960460-380,e_w397960460-400,e_w88901626-380</t>
-  </si>
-  <si>
-    <t>elc_won-CHE_0022,elc_spv-CHE_0022</t>
-  </si>
-  <si>
-    <t>e_CH4-220,e_CH9-220,e_w455120191-220,e_w83861269-220,e_w92798668-220,e_w92873516-220</t>
-  </si>
-  <si>
-    <t>elc_won-CHE_0009,elc_spv-CHE_0009</t>
-  </si>
-  <si>
-    <t>e_CH14-220,e_CH14-380,e_w1105061707-220,e_w1105061707-380,e_w147557680-220,e_w165254212-220,e_w402053379-220</t>
-  </si>
-  <si>
-    <t>elc_won-CHE_0021,elc_spv-CHE_0021</t>
-  </si>
-  <si>
-    <t>e_CH17-380,e_w211907009-220</t>
-  </si>
-  <si>
-    <t>elc_won-CHE_0004,elc_spv-CHE_0004</t>
-  </si>
-  <si>
-    <t>e_w111162936-220,e_w111162936-380,e_w111162936-400,e_w122720993-220,e_w194258388-220</t>
-  </si>
-  <si>
-    <t>elc_won-CHE_0012,elc_spv-CHE_0012</t>
-  </si>
-  <si>
-    <t>e_CH19-220,e_CH20-220,e_CH25-220,e_CH27-220,e_CH34-220,e_CH34-380,e_CH35-220,e_CH36-220,e_CH38-220,e_CH39-220,e_CH40-220,e_w1086214433-220,e_w1092884227-220,e_w240959264-220,e_w364949845-220,e_w364949845-380</t>
-  </si>
-  <si>
-    <t>elc_won-CHE_0020,elc_spv-CHE_0020</t>
-  </si>
-  <si>
-    <t>e_CH21-220,e_CH22-220,e_CH22-380,e_CH29-220,e_CH29-380,e_CH41-380,e_w1208713169-220,e_w207993342-220,e_w207993342-380,e_w208780268-380,e_w212498548-220,e_w36348118-220,e_w365556107-220,e_w71500123-220,e_w71500123-380</t>
-  </si>
-  <si>
-    <t>elc_won-CHE_0001,elc_spv-CHE_0001</t>
-  </si>
-  <si>
-    <t>e_CH31-220,e_w132373704-220,e_w232662311-220,e_w44496892-220,e_w55695765-220</t>
-  </si>
-  <si>
-    <t>elc_won-CHE_0006,elc_spv-CHE_0006</t>
-  </si>
-  <si>
-    <t>e_w127004407-400</t>
-  </si>
-  <si>
-    <t>elc_won-CHE_0017,elc_spv-CHE_0017</t>
-  </si>
-  <si>
-    <t>e_CH12-220,e_CH12-380,e_CH13-220,e_CH16-380,e_CH18-220,e_CH18-380,e_w192677427-220,e_w192677427-380,e_w52738225-220,e_w52738225-380</t>
-  </si>
-  <si>
-    <t>elc_won-CHE_0019,elc_spv-CHE_0019</t>
-  </si>
-  <si>
-    <t>e_CH45-220,e_w281804158-220,e_w281804158-380</t>
-  </si>
-  <si>
-    <t>elc_won-CHE_0023,elc_spv-CHE_0023</t>
-  </si>
-  <si>
-    <t>e_w207991759-380</t>
-  </si>
-  <si>
-    <t>elc_won-CHE_0014,elc_spv-CHE_0014</t>
-  </si>
-  <si>
-    <t>e_CH1-220,e_CH2-220,e_CH5-220,e_CH7-220,e_w108257952-220,e_w1284913429-220,e_w165513396-220,e_w165513396-380,e_w190819048-220,e_w27107779-220,e_w31308888-220,e_w33271433-220,e_w356292116-220,e_w356292116-380,e_w35840165-380,e_w50319857-220,e_w50319857-380,e_w50319857-400,e_w89405664-220,e_w89977424-220,e_w98648381-220,e_w98648381-380</t>
-  </si>
-  <si>
-    <t>elc_won-CHE_0018,elc_spv-CHE_0018</t>
-  </si>
-  <si>
-    <t>e_CH3-220,e_CH6-220,e_r9310861-220,e_w11282314-220,e_w147714395-220,e_w147714395-380,e_w148015471-220,e_w22899676-220,e_w240575085-220,e_w26843160-220,e_w281809991-220,e_w50561341-220,e_w87281514-220</t>
-  </si>
-  <si>
-    <t>elc_won-CHE_0002,elc_spv-CHE_0002</t>
-  </si>
-  <si>
-    <t>e_w232662311-220</t>
-  </si>
-  <si>
-    <t>elc_won-CHE_0024,elc_spv-CHE_0024</t>
-  </si>
-  <si>
-    <t>e_CH30-380,e_CH33-380,e_CH37-380,e_r7933294-380</t>
-  </si>
-  <si>
-    <t>elc_won-CHE_0008,elc_spv-CHE_0008</t>
-  </si>
-  <si>
-    <t>e_CH43-220,e_w209324991-220,e_w26166640-220,e_w402055336-220,e_w758315582-220</t>
-  </si>
-  <si>
-    <t>elc_won-CHE_0005,elc_spv-CHE_0005</t>
-  </si>
-  <si>
-    <t>e_r5378910-220,e_w161853746-220</t>
-  </si>
-  <si>
-    <t>elc_won-CHE_0000,elc_spv-CHE_0000</t>
-  </si>
-  <si>
-    <t>e_CH51-220,e_CH51-225,e_CH51-400,e_CH52-220,e_CH57-220,e_CH57-225,e_w177392130-220,e_w177392130-400,e_w239937062-220</t>
-  </si>
-  <si>
     <t>e_won-CHE_0000</t>
   </si>
   <si>
@@ -1389,9 +1389,6 @@
   </si>
   <si>
     <t>Coal + CCS</t>
-  </si>
-  <si>
-    <t>Fuel cell (distributed electricity generation)</t>
   </si>
   <si>
     <t>Gas turbine</t>
@@ -1806,7 +1803,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CC3AD08D-5998-E15C-C737-DC7DF0239B69}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E9C7F556-B30B-89D3-3789-4F5CCDB6C671}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1861,7 +1858,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5D110BB5-35F1-D301-7251-81D284459508}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{232ACB95-8ED0-45D3-CAB1-42A958EE9008}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1916,7 +1913,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{46A6ADC9-234E-77AF-1BAE-E16483EF04F1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9C9C96BF-BA48-6B47-8B8E-0DEB8360C762}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1971,7 +1968,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5C68F37F-18CF-CE59-C0C7-2CD937F35FD6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{62AAE7BF-C93C-7665-BCE1-859D58F00F53}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4474,7 +4471,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CCB35EF-1A85-4472-9A31-5CEC2182A78B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D323E0EA-D3EB-4998-84FD-AE103C5BBDCD}">
   <dimension ref="A1:AG28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4685,7 +4682,7 @@
         <v>1</v>
       </c>
       <c r="AG4" s="30" t="s">
-        <v>190</v>
+        <v>196</v>
       </c>
     </row>
     <row r="5" spans="1:33">
@@ -4762,7 +4759,7 @@
         <v>1</v>
       </c>
       <c r="AG5" s="31" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
     </row>
     <row r="6" spans="1:33">
@@ -4839,7 +4836,7 @@
         <v>1</v>
       </c>
       <c r="AG6" s="30" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="7" spans="1:33">
@@ -4916,7 +4913,7 @@
         <v>1</v>
       </c>
       <c r="AG7" s="31" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
     </row>
     <row r="8" spans="1:33">
@@ -4993,7 +4990,7 @@
         <v>1</v>
       </c>
       <c r="AG8" s="30" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
     </row>
     <row r="9" spans="1:33">
@@ -5301,7 +5298,7 @@
         <v>1</v>
       </c>
       <c r="AG12" s="30" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
     </row>
     <row r="13" spans="1:33">
@@ -5378,7 +5375,7 @@
         <v>1</v>
       </c>
       <c r="AG13" s="31" t="s">
-        <v>210</v>
+        <v>190</v>
       </c>
     </row>
     <row r="14" spans="1:33">
@@ -5455,7 +5452,7 @@
         <v>1</v>
       </c>
       <c r="AG14" s="30" t="s">
-        <v>222</v>
+        <v>198</v>
       </c>
     </row>
     <row r="15" spans="1:33">
@@ -5532,7 +5529,7 @@
         <v>1</v>
       </c>
       <c r="AG15" s="31" t="s">
-        <v>192</v>
+        <v>218</v>
       </c>
     </row>
     <row r="16" spans="1:33">
@@ -5609,7 +5606,7 @@
         <v>1</v>
       </c>
       <c r="AG16" s="30" t="s">
-        <v>208</v>
+        <v>200</v>
       </c>
     </row>
     <row r="17" spans="2:33">
@@ -5686,7 +5683,7 @@
         <v>1</v>
       </c>
       <c r="AG17" s="31" t="s">
-        <v>186</v>
+        <v>204</v>
       </c>
     </row>
     <row r="18" spans="2:33">
@@ -5763,7 +5760,7 @@
         <v>1</v>
       </c>
       <c r="AG18" s="30" t="s">
-        <v>226</v>
+        <v>214</v>
       </c>
     </row>
     <row r="19" spans="2:33">
@@ -5840,7 +5837,7 @@
         <v>1</v>
       </c>
       <c r="AG19" s="31" t="s">
-        <v>200</v>
+        <v>184</v>
       </c>
     </row>
     <row r="20" spans="2:33">
@@ -5917,7 +5914,7 @@
         <v>1</v>
       </c>
       <c r="AG20" s="30" t="s">
-        <v>204</v>
+        <v>232</v>
       </c>
     </row>
     <row r="21" spans="2:33">
@@ -5994,7 +5991,7 @@
         <v>1</v>
       </c>
       <c r="AG21" s="31" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
     </row>
     <row r="22" spans="2:33">
@@ -6071,7 +6068,7 @@
         <v>1</v>
       </c>
       <c r="AG22" s="30" t="s">
-        <v>196</v>
+        <v>222</v>
       </c>
     </row>
     <row r="23" spans="2:33">
@@ -6148,7 +6145,7 @@
         <v>1</v>
       </c>
       <c r="AG23" s="31" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
     </row>
     <row r="24" spans="2:33">
@@ -6225,7 +6222,7 @@
         <v>1</v>
       </c>
       <c r="AG24" s="30" t="s">
-        <v>206</v>
+        <v>192</v>
       </c>
     </row>
     <row r="25" spans="2:33">
@@ -6302,7 +6299,7 @@
         <v>1</v>
       </c>
       <c r="AG25" s="31" t="s">
-        <v>216</v>
+        <v>208</v>
       </c>
     </row>
     <row r="26" spans="2:33">
@@ -6379,7 +6376,7 @@
         <v>1</v>
       </c>
       <c r="AG26" s="30" t="s">
-        <v>230</v>
+        <v>186</v>
       </c>
     </row>
     <row r="27" spans="2:33">
@@ -6456,7 +6453,7 @@
         <v>1</v>
       </c>
       <c r="AG27" s="31" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
     </row>
     <row r="28" spans="2:33">
@@ -6533,7 +6530,7 @@
         <v>1</v>
       </c>
       <c r="AG28" s="30" t="s">
-        <v>184</v>
+        <v>220</v>
       </c>
     </row>
   </sheetData>
@@ -6546,7 +6543,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3CCA0394-6DE2-4DF0-9692-B3A15C0CEB0A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84DE7F1E-34D5-414C-8CC2-DB25DCD0BFEE}">
   <dimension ref="A1:O29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7624,17 +7621,17 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95E2E489-32E6-4F99-B0D5-11E2A5B37962}">
-  <dimension ref="A1:Q69"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98386404-CABD-4873-B289-BD755D36CB71}">
+  <dimension ref="A1:Q66"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="2" max="2" width="30.59765625" customWidth="1"/>
+    <col min="2" max="2" width="27.19921875" bestFit="1" customWidth="1"/>
     <col min="3" max="8" width="10.59765625" customWidth="1"/>
     <col min="11" max="11" width="10.59765625" customWidth="1"/>
-    <col min="12" max="12" width="30.59765625" customWidth="1"/>
+    <col min="12" max="12" width="27.19921875" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="10.59765625" customWidth="1"/>
     <col min="14" max="14" width="12" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="11.265625" bestFit="1" customWidth="1"/>
@@ -7745,7 +7742,7 @@
         <v>239</v>
       </c>
       <c r="Q4" s="30" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -7787,7 +7784,7 @@
         <v>239</v>
       </c>
       <c r="Q5" s="31" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -7829,7 +7826,7 @@
         <v>239</v>
       </c>
       <c r="Q6" s="30" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -7871,7 +7868,7 @@
         <v>239</v>
       </c>
       <c r="Q7" s="31" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -7913,7 +7910,7 @@
         <v>239</v>
       </c>
       <c r="Q8" s="30" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -7955,7 +7952,7 @@
         <v>239</v>
       </c>
       <c r="Q9" s="31" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -7997,7 +7994,7 @@
         <v>239</v>
       </c>
       <c r="Q10" s="30" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -8039,7 +8036,7 @@
         <v>239</v>
       </c>
       <c r="Q11" s="31" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -8081,7 +8078,7 @@
         <v>239</v>
       </c>
       <c r="Q12" s="30" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -8123,7 +8120,7 @@
         <v>239</v>
       </c>
       <c r="Q13" s="31" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -8165,7 +8162,7 @@
         <v>239</v>
       </c>
       <c r="Q14" s="30" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -8207,7 +8204,7 @@
         <v>239</v>
       </c>
       <c r="Q15" s="31" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -8249,7 +8246,7 @@
         <v>239</v>
       </c>
       <c r="Q16" s="30" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
     </row>
     <row r="17" spans="2:17">
@@ -8291,7 +8288,7 @@
         <v>239</v>
       </c>
       <c r="Q17" s="31" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
     </row>
     <row r="18" spans="2:17">
@@ -8333,7 +8330,7 @@
         <v>239</v>
       </c>
       <c r="Q18" s="30" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
     </row>
     <row r="19" spans="2:17">
@@ -8375,7 +8372,7 @@
         <v>239</v>
       </c>
       <c r="Q19" s="31" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
     </row>
     <row r="20" spans="2:17">
@@ -8417,7 +8414,7 @@
         <v>239</v>
       </c>
       <c r="Q20" s="30" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
     </row>
     <row r="21" spans="2:17">
@@ -8442,25 +8439,6 @@
       <c r="H21" s="31" t="s">
         <v>421</v>
       </c>
-      <c r="K21" s="31" t="s">
-        <v>127</v>
-      </c>
-      <c r="L21" s="31" t="s">
-        <v>440</v>
-      </c>
-      <c r="M21" s="31"/>
-      <c r="N21" s="31" t="s">
-        <v>10</v>
-      </c>
-      <c r="O21" s="31" t="s">
-        <v>21</v>
-      </c>
-      <c r="P21" s="31" t="s">
-        <v>239</v>
-      </c>
-      <c r="Q21" s="31" t="s">
-        <v>441</v>
-      </c>
     </row>
     <row r="22" spans="2:17">
       <c r="B22" s="30" t="s">
@@ -8490,19 +8468,19 @@
         <v>428</v>
       </c>
       <c r="C23" s="31" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D23" s="31" t="s">
         <v>19</v>
       </c>
       <c r="E23" s="33">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="F23" s="33">
-        <v>0.54</v>
+        <v>0.41000000000000003</v>
       </c>
       <c r="G23" s="33">
-        <v>0.6</v>
+        <v>0.42</v>
       </c>
       <c r="H23" s="31" t="s">
         <v>289</v>
@@ -8513,19 +8491,19 @@
         <v>428</v>
       </c>
       <c r="C24" s="30" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D24" s="30" t="s">
         <v>19</v>
       </c>
       <c r="E24" s="32">
-        <v>5000</v>
+        <v>500</v>
       </c>
       <c r="F24" s="32">
-        <v>2500</v>
+        <v>500</v>
       </c>
       <c r="G24" s="32">
-        <v>2500</v>
+        <v>500</v>
       </c>
       <c r="H24" s="30" t="s">
         <v>421</v>
@@ -8536,19 +8514,19 @@
         <v>428</v>
       </c>
       <c r="C25" s="31" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D25" s="31" t="s">
         <v>19</v>
       </c>
       <c r="E25" s="33">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="F25" s="33">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="G25" s="33">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="H25" s="31" t="s">
         <v>422</v>
@@ -8559,19 +8537,19 @@
         <v>429</v>
       </c>
       <c r="C26" s="30" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D26" s="30" t="s">
         <v>19</v>
       </c>
       <c r="E26" s="32">
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="F26" s="32">
-        <v>0.41000000000000003</v>
+        <v>1</v>
       </c>
       <c r="G26" s="32">
-        <v>0.42</v>
+        <v>1</v>
       </c>
       <c r="H26" s="30" t="s">
         <v>289</v>
@@ -8582,22 +8560,22 @@
         <v>429</v>
       </c>
       <c r="C27" s="31" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D27" s="31" t="s">
         <v>19</v>
       </c>
       <c r="E27" s="33">
-        <v>500</v>
+        <v>0.35000000000000003</v>
       </c>
       <c r="F27" s="33">
-        <v>500</v>
+        <v>0.35000000000000003</v>
       </c>
       <c r="G27" s="33">
-        <v>500</v>
+        <v>0.35000000000000003</v>
       </c>
       <c r="H27" s="31" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
     </row>
     <row r="28" spans="2:17">
@@ -8605,27 +8583,27 @@
         <v>429</v>
       </c>
       <c r="C28" s="30" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D28" s="30" t="s">
         <v>19</v>
       </c>
       <c r="E28" s="32">
-        <v>20</v>
+        <v>2650</v>
       </c>
       <c r="F28" s="32">
-        <v>20</v>
+        <v>2650</v>
       </c>
       <c r="G28" s="32">
-        <v>20</v>
+        <v>2650</v>
       </c>
       <c r="H28" s="30" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="29" spans="2:17">
       <c r="B29" s="31" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="C29" s="31" t="s">
         <v>30</v>
@@ -8634,21 +8612,21 @@
         <v>19</v>
       </c>
       <c r="E29" s="33">
-        <v>1</v>
+        <v>65</v>
       </c>
       <c r="F29" s="33">
-        <v>1</v>
+        <v>65</v>
       </c>
       <c r="G29" s="33">
-        <v>1</v>
+        <v>65</v>
       </c>
       <c r="H29" s="31" t="s">
-        <v>289</v>
+        <v>422</v>
       </c>
     </row>
     <row r="30" spans="2:17">
       <c r="B30" s="30" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="C30" s="30" t="s">
         <v>30</v>
@@ -8657,16 +8635,16 @@
         <v>19</v>
       </c>
       <c r="E30" s="32">
-        <v>0.35000000000000003</v>
+        <v>4</v>
       </c>
       <c r="F30" s="32">
-        <v>0.35000000000000003</v>
+        <v>4</v>
       </c>
       <c r="G30" s="32">
-        <v>0.35000000000000003</v>
+        <v>4</v>
       </c>
       <c r="H30" s="30" t="s">
-        <v>420</v>
+        <v>423</v>
       </c>
     </row>
     <row r="31" spans="2:17">
@@ -8674,22 +8652,22 @@
         <v>430</v>
       </c>
       <c r="C31" s="31" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="D31" s="31" t="s">
         <v>19</v>
       </c>
       <c r="E31" s="33">
-        <v>2650</v>
+        <v>0.45</v>
       </c>
       <c r="F31" s="33">
-        <v>2650</v>
+        <v>0.47000000000000003</v>
       </c>
       <c r="G31" s="33">
-        <v>2650</v>
+        <v>0.5</v>
       </c>
       <c r="H31" s="31" t="s">
-        <v>421</v>
+        <v>289</v>
       </c>
     </row>
     <row r="32" spans="2:17">
@@ -8697,22 +8675,22 @@
         <v>430</v>
       </c>
       <c r="C32" s="30" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="D32" s="30" t="s">
         <v>19</v>
       </c>
       <c r="E32" s="32">
-        <v>65</v>
+        <v>2500</v>
       </c>
       <c r="F32" s="32">
-        <v>65</v>
+        <v>2350</v>
       </c>
       <c r="G32" s="32">
-        <v>65</v>
+        <v>2300</v>
       </c>
       <c r="H32" s="30" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="33" spans="2:8">
@@ -8720,22 +8698,22 @@
         <v>430</v>
       </c>
       <c r="C33" s="31" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="D33" s="31" t="s">
         <v>19</v>
       </c>
       <c r="E33" s="33">
-        <v>4</v>
+        <v>95</v>
       </c>
       <c r="F33" s="33">
-        <v>4</v>
+        <v>85</v>
       </c>
       <c r="G33" s="33">
-        <v>4</v>
+        <v>80</v>
       </c>
       <c r="H33" s="31" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="34" spans="2:8">
@@ -8743,19 +8721,19 @@
         <v>431</v>
       </c>
       <c r="C34" s="30" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D34" s="30" t="s">
         <v>19</v>
       </c>
       <c r="E34" s="32">
-        <v>0.45</v>
+        <v>0.36</v>
       </c>
       <c r="F34" s="32">
-        <v>0.47000000000000003</v>
+        <v>0.38</v>
       </c>
       <c r="G34" s="32">
-        <v>0.5</v>
+        <v>0.43</v>
       </c>
       <c r="H34" s="30" t="s">
         <v>289</v>
@@ -8766,19 +8744,19 @@
         <v>431</v>
       </c>
       <c r="C35" s="31" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D35" s="31" t="s">
         <v>19</v>
       </c>
       <c r="E35" s="33">
-        <v>2500</v>
+        <v>5850</v>
       </c>
       <c r="F35" s="33">
-        <v>2350</v>
+        <v>5700</v>
       </c>
       <c r="G35" s="33">
-        <v>2300</v>
+        <v>5100</v>
       </c>
       <c r="H35" s="31" t="s">
         <v>421</v>
@@ -8789,19 +8767,19 @@
         <v>431</v>
       </c>
       <c r="C36" s="30" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D36" s="30" t="s">
         <v>19</v>
       </c>
       <c r="E36" s="32">
-        <v>95</v>
+        <v>205</v>
       </c>
       <c r="F36" s="32">
-        <v>85</v>
+        <v>200</v>
       </c>
       <c r="G36" s="32">
-        <v>80</v>
+        <v>180</v>
       </c>
       <c r="H36" s="30" t="s">
         <v>422</v>
@@ -8812,19 +8790,19 @@
         <v>432</v>
       </c>
       <c r="C37" s="31" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="D37" s="31" t="s">
         <v>19</v>
       </c>
       <c r="E37" s="33">
-        <v>0.36</v>
+        <v>0.33</v>
       </c>
       <c r="F37" s="33">
-        <v>0.38</v>
+        <v>0.33</v>
       </c>
       <c r="G37" s="33">
-        <v>0.43</v>
+        <v>0.33</v>
       </c>
       <c r="H37" s="31" t="s">
         <v>289</v>
@@ -8835,19 +8813,19 @@
         <v>432</v>
       </c>
       <c r="C38" s="30" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="D38" s="30" t="s">
         <v>19</v>
       </c>
       <c r="E38" s="32">
-        <v>5850</v>
+        <v>6600</v>
       </c>
       <c r="F38" s="32">
-        <v>5700</v>
+        <v>5100</v>
       </c>
       <c r="G38" s="32">
-        <v>5100</v>
+        <v>4500</v>
       </c>
       <c r="H38" s="30" t="s">
         <v>421</v>
@@ -8858,19 +8836,19 @@
         <v>432</v>
       </c>
       <c r="C39" s="31" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="D39" s="31" t="s">
         <v>19</v>
       </c>
       <c r="E39" s="33">
-        <v>205</v>
+        <v>165</v>
       </c>
       <c r="F39" s="33">
-        <v>200</v>
+        <v>165</v>
       </c>
       <c r="G39" s="33">
-        <v>180</v>
+        <v>160</v>
       </c>
       <c r="H39" s="31" t="s">
         <v>422</v>
@@ -8881,19 +8859,19 @@
         <v>433</v>
       </c>
       <c r="C40" s="30" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="D40" s="30" t="s">
         <v>19</v>
       </c>
       <c r="E40" s="32">
-        <v>0.33</v>
+        <v>0.37</v>
       </c>
       <c r="F40" s="32">
-        <v>0.33</v>
+        <v>0.38</v>
       </c>
       <c r="G40" s="32">
-        <v>0.33</v>
+        <v>0.39</v>
       </c>
       <c r="H40" s="30" t="s">
         <v>289</v>
@@ -8904,19 +8882,19 @@
         <v>433</v>
       </c>
       <c r="C41" s="31" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="D41" s="31" t="s">
         <v>19</v>
       </c>
       <c r="E41" s="33">
-        <v>6600</v>
+        <v>5700</v>
       </c>
       <c r="F41" s="33">
+        <v>5700</v>
+      </c>
+      <c r="G41" s="33">
         <v>5100</v>
-      </c>
-      <c r="G41" s="33">
-        <v>4500</v>
       </c>
       <c r="H41" s="31" t="s">
         <v>421</v>
@@ -8927,19 +8905,19 @@
         <v>433</v>
       </c>
       <c r="C42" s="30" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="D42" s="30" t="s">
         <v>19</v>
       </c>
       <c r="E42" s="32">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="F42" s="32">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="G42" s="32">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="H42" s="30" t="s">
         <v>422</v>
@@ -8950,19 +8928,19 @@
         <v>434</v>
       </c>
       <c r="C43" s="31" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="D43" s="31" t="s">
         <v>19</v>
       </c>
       <c r="E43" s="33">
-        <v>0.37</v>
+        <v>1</v>
       </c>
       <c r="F43" s="33">
-        <v>0.38</v>
+        <v>1</v>
       </c>
       <c r="G43" s="33">
-        <v>0.39</v>
+        <v>1</v>
       </c>
       <c r="H43" s="31" t="s">
         <v>289</v>
@@ -8973,22 +8951,22 @@
         <v>434</v>
       </c>
       <c r="C44" s="30" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="D44" s="30" t="s">
         <v>19</v>
       </c>
       <c r="E44" s="32">
-        <v>5700</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="F44" s="32">
-        <v>5700</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="G44" s="32">
-        <v>5100</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="H44" s="30" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
     </row>
     <row r="45" spans="2:8">
@@ -8996,27 +8974,27 @@
         <v>434</v>
       </c>
       <c r="C45" s="31" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="D45" s="31" t="s">
         <v>19</v>
       </c>
       <c r="E45" s="33">
-        <v>170</v>
+        <v>750</v>
       </c>
       <c r="F45" s="33">
-        <v>170</v>
+        <v>480</v>
       </c>
       <c r="G45" s="33">
-        <v>155</v>
+        <v>340</v>
       </c>
       <c r="H45" s="31" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="46" spans="2:8">
       <c r="B46" s="30" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="C46" s="30" t="s">
         <v>28</v>
@@ -9025,21 +9003,21 @@
         <v>19</v>
       </c>
       <c r="E46" s="32">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="F46" s="32">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="G46" s="32">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="H46" s="30" t="s">
-        <v>289</v>
+        <v>422</v>
       </c>
     </row>
     <row r="47" spans="2:8">
       <c r="B47" s="31" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="C47" s="31" t="s">
         <v>28</v>
@@ -9048,16 +9026,16 @@
         <v>19</v>
       </c>
       <c r="E47" s="33">
-        <v>0.14000000000000001</v>
+        <v>1.5</v>
       </c>
       <c r="F47" s="33">
-        <v>0.14000000000000001</v>
+        <v>1.5</v>
       </c>
       <c r="G47" s="33">
-        <v>0.14000000000000001</v>
+        <v>1.5</v>
       </c>
       <c r="H47" s="31" t="s">
-        <v>420</v>
+        <v>423</v>
       </c>
     </row>
     <row r="48" spans="2:8">
@@ -9065,22 +9043,22 @@
         <v>435</v>
       </c>
       <c r="C48" s="30" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="D48" s="30" t="s">
         <v>19</v>
       </c>
       <c r="E48" s="32">
-        <v>750</v>
+        <v>0.39</v>
       </c>
       <c r="F48" s="32">
-        <v>480</v>
+        <v>0.39</v>
       </c>
       <c r="G48" s="32">
-        <v>340</v>
+        <v>0.39</v>
       </c>
       <c r="H48" s="30" t="s">
-        <v>421</v>
+        <v>289</v>
       </c>
     </row>
     <row r="49" spans="2:8">
@@ -9088,22 +9066,22 @@
         <v>435</v>
       </c>
       <c r="C49" s="31" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="D49" s="31" t="s">
         <v>19</v>
       </c>
       <c r="E49" s="33">
-        <v>12</v>
+        <v>1700</v>
       </c>
       <c r="F49" s="33">
-        <v>10</v>
+        <v>1700</v>
       </c>
       <c r="G49" s="33">
-        <v>10</v>
+        <v>1700</v>
       </c>
       <c r="H49" s="31" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="50" spans="2:8">
@@ -9111,22 +9089,22 @@
         <v>435</v>
       </c>
       <c r="C50" s="30" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="D50" s="30" t="s">
         <v>19</v>
       </c>
       <c r="E50" s="32">
-        <v>1.5</v>
+        <v>45</v>
       </c>
       <c r="F50" s="32">
-        <v>1.5</v>
+        <v>45</v>
       </c>
       <c r="G50" s="32">
-        <v>1.5</v>
+        <v>45</v>
       </c>
       <c r="H50" s="30" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="51" spans="2:8">
@@ -9140,13 +9118,13 @@
         <v>19</v>
       </c>
       <c r="E51" s="33">
-        <v>0.39</v>
+        <v>0.43</v>
       </c>
       <c r="F51" s="33">
-        <v>0.39</v>
+        <v>0.43</v>
       </c>
       <c r="G51" s="33">
-        <v>0.39</v>
+        <v>0.43</v>
       </c>
       <c r="H51" s="31" t="s">
         <v>289</v>
@@ -9163,13 +9141,13 @@
         <v>19</v>
       </c>
       <c r="E52" s="32">
-        <v>1700</v>
+        <v>2000</v>
       </c>
       <c r="F52" s="32">
-        <v>1700</v>
+        <v>2000</v>
       </c>
       <c r="G52" s="32">
-        <v>1700</v>
+        <v>2000</v>
       </c>
       <c r="H52" s="30" t="s">
         <v>421</v>
@@ -9186,13 +9164,13 @@
         <v>19</v>
       </c>
       <c r="E53" s="33">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="F53" s="33">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="G53" s="33">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="H53" s="31" t="s">
         <v>422</v>
@@ -9209,13 +9187,13 @@
         <v>19</v>
       </c>
       <c r="E54" s="32">
-        <v>0.43</v>
+        <v>0.46</v>
       </c>
       <c r="F54" s="32">
-        <v>0.43</v>
+        <v>0.46</v>
       </c>
       <c r="G54" s="32">
-        <v>0.43</v>
+        <v>0.48</v>
       </c>
       <c r="H54" s="30" t="s">
         <v>289</v>
@@ -9232,13 +9210,13 @@
         <v>19</v>
       </c>
       <c r="E55" s="33">
-        <v>2000</v>
+        <v>2200</v>
       </c>
       <c r="F55" s="33">
-        <v>2000</v>
+        <v>2200</v>
       </c>
       <c r="G55" s="33">
-        <v>2000</v>
+        <v>2200</v>
       </c>
       <c r="H55" s="31" t="s">
         <v>421</v>
@@ -9255,13 +9233,13 @@
         <v>19</v>
       </c>
       <c r="E56" s="32">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="F56" s="32">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="G56" s="32">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="H56" s="30" t="s">
         <v>422</v>
@@ -9272,19 +9250,19 @@
         <v>438</v>
       </c>
       <c r="C57" s="31" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="D57" s="31" t="s">
         <v>19</v>
       </c>
       <c r="E57" s="33">
-        <v>0.46</v>
+        <v>1</v>
       </c>
       <c r="F57" s="33">
-        <v>0.46</v>
+        <v>1</v>
       </c>
       <c r="G57" s="33">
-        <v>0.48</v>
+        <v>1</v>
       </c>
       <c r="H57" s="31" t="s">
         <v>289</v>
@@ -9295,22 +9273,22 @@
         <v>438</v>
       </c>
       <c r="C58" s="30" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="D58" s="30" t="s">
         <v>19</v>
       </c>
       <c r="E58" s="32">
-        <v>2200</v>
+        <v>0.5</v>
       </c>
       <c r="F58" s="32">
-        <v>2200</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="G58" s="32">
-        <v>2200</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="H58" s="30" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
     </row>
     <row r="59" spans="2:8">
@@ -9318,27 +9296,27 @@
         <v>438</v>
       </c>
       <c r="C59" s="31" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="D59" s="31" t="s">
         <v>19</v>
       </c>
       <c r="E59" s="33">
-        <v>65</v>
+        <v>3120</v>
       </c>
       <c r="F59" s="33">
-        <v>65</v>
+        <v>2280</v>
       </c>
       <c r="G59" s="33">
-        <v>65</v>
+        <v>1660</v>
       </c>
       <c r="H59" s="31" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="60" spans="2:8">
       <c r="B60" s="30" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="C60" s="30" t="s">
         <v>29</v>
@@ -9347,21 +9325,21 @@
         <v>19</v>
       </c>
       <c r="E60" s="32">
-        <v>1</v>
+        <v>60</v>
       </c>
       <c r="F60" s="32">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="G60" s="32">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="H60" s="30" t="s">
-        <v>289</v>
+        <v>422</v>
       </c>
     </row>
     <row r="61" spans="2:8">
       <c r="B61" s="31" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="C61" s="31" t="s">
         <v>29</v>
@@ -9370,16 +9348,16 @@
         <v>19</v>
       </c>
       <c r="E61" s="33">
-        <v>0.5</v>
+        <v>3</v>
       </c>
       <c r="F61" s="33">
-        <v>0.55000000000000004</v>
+        <v>3</v>
       </c>
       <c r="G61" s="33">
-        <v>0.56000000000000005</v>
+        <v>3</v>
       </c>
       <c r="H61" s="31" t="s">
-        <v>420</v>
+        <v>423</v>
       </c>
     </row>
     <row r="62" spans="2:8">
@@ -9393,16 +9371,16 @@
         <v>19</v>
       </c>
       <c r="E62" s="32">
-        <v>3120</v>
+        <v>1</v>
       </c>
       <c r="F62" s="32">
-        <v>2280</v>
+        <v>1</v>
       </c>
       <c r="G62" s="32">
-        <v>1660</v>
+        <v>1</v>
       </c>
       <c r="H62" s="30" t="s">
-        <v>421</v>
+        <v>289</v>
       </c>
     </row>
     <row r="63" spans="2:8">
@@ -9416,16 +9394,16 @@
         <v>19</v>
       </c>
       <c r="E63" s="33">
-        <v>60</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="F63" s="33">
-        <v>50</v>
+        <v>0.3</v>
       </c>
       <c r="G63" s="33">
-        <v>40</v>
+        <v>0.3</v>
       </c>
       <c r="H63" s="31" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
     </row>
     <row r="64" spans="2:8">
@@ -9439,21 +9417,21 @@
         <v>19</v>
       </c>
       <c r="E64" s="32">
-        <v>3</v>
+        <v>1630</v>
       </c>
       <c r="F64" s="32">
-        <v>3</v>
+        <v>1550</v>
       </c>
       <c r="G64" s="32">
-        <v>3</v>
+        <v>1490</v>
       </c>
       <c r="H64" s="30" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
     </row>
     <row r="65" spans="2:8">
       <c r="B65" s="31" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="C65" s="31" t="s">
         <v>29</v>
@@ -9462,21 +9440,21 @@
         <v>19</v>
       </c>
       <c r="E65" s="33">
-        <v>1</v>
+        <v>42</v>
       </c>
       <c r="F65" s="33">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="G65" s="33">
-        <v>1</v>
+        <v>38</v>
       </c>
       <c r="H65" s="31" t="s">
-        <v>289</v>
+        <v>422</v>
       </c>
     </row>
     <row r="66" spans="2:8">
       <c r="B66" s="30" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="C66" s="30" t="s">
         <v>29</v>
@@ -9485,84 +9463,15 @@
         <v>19</v>
       </c>
       <c r="E66" s="32">
-        <v>0.28999999999999998</v>
+        <v>1.5</v>
       </c>
       <c r="F66" s="32">
-        <v>0.3</v>
+        <v>1.5</v>
       </c>
       <c r="G66" s="32">
-        <v>0.3</v>
+        <v>1.5</v>
       </c>
       <c r="H66" s="30" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="67" spans="2:8">
-      <c r="B67" s="31" t="s">
-        <v>440</v>
-      </c>
-      <c r="C67" s="31" t="s">
-        <v>29</v>
-      </c>
-      <c r="D67" s="31" t="s">
-        <v>19</v>
-      </c>
-      <c r="E67" s="33">
-        <v>1630</v>
-      </c>
-      <c r="F67" s="33">
-        <v>1550</v>
-      </c>
-      <c r="G67" s="33">
-        <v>1490</v>
-      </c>
-      <c r="H67" s="31" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="68" spans="2:8">
-      <c r="B68" s="30" t="s">
-        <v>440</v>
-      </c>
-      <c r="C68" s="30" t="s">
-        <v>29</v>
-      </c>
-      <c r="D68" s="30" t="s">
-        <v>19</v>
-      </c>
-      <c r="E68" s="32">
-        <v>42</v>
-      </c>
-      <c r="F68" s="32">
-        <v>40</v>
-      </c>
-      <c r="G68" s="32">
-        <v>38</v>
-      </c>
-      <c r="H68" s="30" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="69" spans="2:8">
-      <c r="B69" s="31" t="s">
-        <v>440</v>
-      </c>
-      <c r="C69" s="31" t="s">
-        <v>29</v>
-      </c>
-      <c r="D69" s="31" t="s">
-        <v>19</v>
-      </c>
-      <c r="E69" s="33">
-        <v>1.5</v>
-      </c>
-      <c r="F69" s="33">
-        <v>1.5</v>
-      </c>
-      <c r="G69" s="33">
-        <v>1.5</v>
-      </c>
-      <c r="H69" s="31" t="s">
         <v>423</v>
       </c>
     </row>

--- a/VerveStacks_CHE_grids/SubRES_Tmpl/SubRES_New_RE_and_Conventional.xlsx
+++ b/VerveStacks_CHE_grids/SubRES_Tmpl/SubRES_New_RE_and_Conventional.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_CHE_grids\SubRES_Tmpl\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{79F12A95-7C5F-41BD-91DD-937728ACE7DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{65ABD6AC-6D8F-45C0-8A1A-2258EED263CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="6" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -815,40 +815,142 @@
     <t>pre</t>
   </si>
   <si>
+    <t>distr_elc_won-CHE_0011</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell CHE_11</t>
+  </si>
+  <si>
+    <t>NRGI</t>
+  </si>
+  <si>
+    <t>daynite</t>
+  </si>
+  <si>
+    <t>distr_elc_won-CHE_0015</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell CHE_15</t>
+  </si>
+  <si>
+    <t>distr_elc_won-CHE_0025</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell CHE_25</t>
+  </si>
+  <si>
+    <t>distr_elc_won-CHE_0003</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell CHE_3</t>
+  </si>
+  <si>
+    <t>distr_elc_won-CHE_0024</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell CHE_24</t>
+  </si>
+  <si>
+    <t>distr_elc_won-CHE_0008</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell CHE_8</t>
+  </si>
+  <si>
+    <t>distr_elc_won-CHE_0005</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell CHE_5</t>
+  </si>
+  <si>
+    <t>distr_elc_won-CHE_0009</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell CHE_9</t>
+  </si>
+  <si>
+    <t>distr_elc_won-CHE_0021</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell CHE_21</t>
+  </si>
+  <si>
+    <t>distr_elc_won-CHE_0004</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell CHE_4</t>
+  </si>
+  <si>
     <t>distr_elc_won-CHE_0014</t>
   </si>
   <si>
     <t>connecting solar and wind to buses in grid cell CHE_14</t>
   </si>
   <si>
-    <t>NRGI</t>
-  </si>
-  <si>
-    <t>daynite</t>
-  </si>
-  <si>
     <t>distr_elc_won-CHE_0018</t>
   </si>
   <si>
     <t>connecting solar and wind to buses in grid cell CHE_18</t>
   </si>
   <si>
-    <t>distr_elc_won-CHE_0024</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell CHE_24</t>
-  </si>
-  <si>
-    <t>distr_elc_won-CHE_0008</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell CHE_8</t>
-  </si>
-  <si>
-    <t>distr_elc_won-CHE_0005</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell CHE_5</t>
+    <t>distr_elc_won-CHE_0012</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell CHE_12</t>
+  </si>
+  <si>
+    <t>distr_elc_won-CHE_0020</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell CHE_20</t>
+  </si>
+  <si>
+    <t>distr_elc_won-CHE_0001</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell CHE_1</t>
+  </si>
+  <si>
+    <t>distr_elc_won-CHE_0006</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell CHE_6</t>
+  </si>
+  <si>
+    <t>distr_elc_won-CHE_0002</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell CHE_2</t>
+  </si>
+  <si>
+    <t>distr_elc_won-CHE_0017</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell CHE_17</t>
+  </si>
+  <si>
+    <t>distr_elc_won-CHE_0019</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell CHE_19</t>
+  </si>
+  <si>
+    <t>distr_elc_won-CHE_0023</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell CHE_23</t>
+  </si>
+  <si>
+    <t>distr_elc_won-CHE_0010</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell CHE_10</t>
+  </si>
+  <si>
+    <t>distr_elc_won-CHE_0022</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell CHE_22</t>
   </si>
   <si>
     <t>distr_elc_won-CHE_0013</t>
@@ -857,16 +959,10 @@
     <t>connecting solar and wind to buses in grid cell CHE_13</t>
   </si>
   <si>
-    <t>distr_elc_won-CHE_0010</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell CHE_10</t>
-  </si>
-  <si>
-    <t>distr_elc_won-CHE_0022</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell CHE_22</t>
+    <t>distr_elc_won-CHE_0000</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell CHE_0</t>
   </si>
   <si>
     <t>distr_elc_won-CHE_0007</t>
@@ -875,108 +971,72 @@
     <t>connecting solar and wind to buses in grid cell CHE_7</t>
   </si>
   <si>
-    <t>distr_elc_won-CHE_0011</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell CHE_11</t>
-  </si>
-  <si>
-    <t>distr_elc_won-CHE_0015</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell CHE_15</t>
-  </si>
-  <si>
-    <t>distr_elc_won-CHE_0025</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell CHE_25</t>
-  </si>
-  <si>
-    <t>distr_elc_won-CHE_0017</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell CHE_17</t>
-  </si>
-  <si>
-    <t>distr_elc_won-CHE_0019</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell CHE_19</t>
-  </si>
-  <si>
-    <t>distr_elc_won-CHE_0023</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell CHE_23</t>
-  </si>
-  <si>
-    <t>distr_elc_won-CHE_0000</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell CHE_0</t>
-  </si>
-  <si>
-    <t>distr_elc_won-CHE_0009</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell CHE_9</t>
-  </si>
-  <si>
-    <t>distr_elc_won-CHE_0021</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell CHE_21</t>
-  </si>
-  <si>
-    <t>distr_elc_won-CHE_0004</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell CHE_4</t>
-  </si>
-  <si>
-    <t>distr_elc_won-CHE_0002</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell CHE_2</t>
-  </si>
-  <si>
-    <t>distr_elc_won-CHE_0012</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell CHE_12</t>
-  </si>
-  <si>
-    <t>distr_elc_won-CHE_0020</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell CHE_20</t>
-  </si>
-  <si>
-    <t>distr_elc_won-CHE_0001</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell CHE_1</t>
-  </si>
-  <si>
-    <t>distr_elc_won-CHE_0006</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell CHE_6</t>
-  </si>
-  <si>
-    <t>distr_elc_won-CHE_0003</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell CHE_3</t>
-  </si>
-  <si>
     <t>comm-in</t>
   </si>
   <si>
     <t>efficiency</t>
   </si>
   <si>
+    <t>elc_won-CHE_0011,elc_spv-CHE_0011</t>
+  </si>
+  <si>
+    <t>e_CH46-220,e_CH47-220,e_w228003081-220,e_w391576135-220,e_w391577741-220,e_w969819301-220,e_w969819301-380</t>
+  </si>
+  <si>
+    <t>elc_won-CHE_0015,elc_spv-CHE_0015</t>
+  </si>
+  <si>
+    <t>e_CH50-220,e_CH56-220,e_CH58-220,e_CH59-220,e_w1327084723-220,e_w281800404-220,e_w281803398-220,e_w281815404-220,e_w35487135-220</t>
+  </si>
+  <si>
+    <t>elc_won-CHE_0025,elc_spv-CHE_0025</t>
+  </si>
+  <si>
+    <t>e_r7933294-380</t>
+  </si>
+  <si>
+    <t>elc_won-CHE_0003,elc_spv-CHE_0003</t>
+  </si>
+  <si>
+    <t>e_CH48-225,e_CH49-225,e_CH53-225,e_CH60-225,e_w234983117-220,e_w234983117-380,e_w238138373-380,e_w260211728-225,e_w260211728-380,e_w55698557-220,e_w55698557-225,e_w802058337-220,e_w802058337-225,e_w936521586-380</t>
+  </si>
+  <si>
+    <t>elc_won-CHE_0024,elc_spv-CHE_0024</t>
+  </si>
+  <si>
+    <t>e_CH30-380,e_CH33-380,e_CH37-380,e_r7933294-380</t>
+  </si>
+  <si>
+    <t>elc_won-CHE_0008,elc_spv-CHE_0008</t>
+  </si>
+  <si>
+    <t>e_CH43-220,e_w209324991-220,e_w26166640-220,e_w402055336-220,e_w758315582-220</t>
+  </si>
+  <si>
+    <t>elc_won-CHE_0005,elc_spv-CHE_0005</t>
+  </si>
+  <si>
+    <t>e_r5378910-220,e_w161853746-220</t>
+  </si>
+  <si>
+    <t>elc_won-CHE_0009,elc_spv-CHE_0009</t>
+  </si>
+  <si>
+    <t>e_CH14-220,e_CH14-380,e_w1105061707-220,e_w1105061707-380,e_w147557680-220,e_w165254212-220,e_w402053379-220</t>
+  </si>
+  <si>
+    <t>elc_won-CHE_0021,elc_spv-CHE_0021</t>
+  </si>
+  <si>
+    <t>e_CH17-380,e_w211907009-220</t>
+  </si>
+  <si>
+    <t>elc_won-CHE_0004,elc_spv-CHE_0004</t>
+  </si>
+  <si>
+    <t>e_w111162936-220,e_w111162936-380,e_w111162936-400,e_w122720993-220,e_w194258388-220</t>
+  </si>
+  <si>
     <t>elc_won-CHE_0014,elc_spv-CHE_0014</t>
   </si>
   <si>
@@ -989,22 +1049,64 @@
     <t>e_CH3-220,e_CH6-220,e_r9310861-220,e_w11282314-220,e_w147714395-220,e_w147714395-380,e_w148015471-220,e_w22899676-220,e_w240575085-220,e_w26843160-220,e_w281809991-220,e_w50561341-220,e_w87281514-220</t>
   </si>
   <si>
-    <t>elc_won-CHE_0024,elc_spv-CHE_0024</t>
-  </si>
-  <si>
-    <t>e_CH30-380,e_CH33-380,e_CH37-380,e_r7933294-380</t>
-  </si>
-  <si>
-    <t>elc_won-CHE_0008,elc_spv-CHE_0008</t>
-  </si>
-  <si>
-    <t>e_CH43-220,e_w209324991-220,e_w26166640-220,e_w402055336-220,e_w758315582-220</t>
-  </si>
-  <si>
-    <t>elc_won-CHE_0005,elc_spv-CHE_0005</t>
-  </si>
-  <si>
-    <t>e_r5378910-220,e_w161853746-220</t>
+    <t>elc_won-CHE_0012,elc_spv-CHE_0012</t>
+  </si>
+  <si>
+    <t>e_CH19-220,e_CH20-220,e_CH25-220,e_CH27-220,e_CH34-220,e_CH34-380,e_CH35-220,e_CH36-220,e_CH38-220,e_CH39-220,e_CH40-220,e_w1086214433-220,e_w1092884227-220,e_w240959264-220,e_w364949845-220,e_w364949845-380</t>
+  </si>
+  <si>
+    <t>elc_won-CHE_0020,elc_spv-CHE_0020</t>
+  </si>
+  <si>
+    <t>e_CH21-220,e_CH22-220,e_CH22-380,e_CH29-220,e_CH29-380,e_CH41-380,e_w1208713169-220,e_w207993342-220,e_w207993342-380,e_w208780268-380,e_w212498548-220,e_w36348118-220,e_w365556107-220,e_w71500123-220,e_w71500123-380</t>
+  </si>
+  <si>
+    <t>elc_won-CHE_0001,elc_spv-CHE_0001</t>
+  </si>
+  <si>
+    <t>e_CH31-220,e_w132373704-220,e_w232662311-220,e_w44496892-220,e_w55695765-220</t>
+  </si>
+  <si>
+    <t>elc_won-CHE_0006,elc_spv-CHE_0006</t>
+  </si>
+  <si>
+    <t>e_w127004407-400</t>
+  </si>
+  <si>
+    <t>elc_won-CHE_0002,elc_spv-CHE_0002</t>
+  </si>
+  <si>
+    <t>e_w232662311-220</t>
+  </si>
+  <si>
+    <t>elc_won-CHE_0017,elc_spv-CHE_0017</t>
+  </si>
+  <si>
+    <t>e_CH12-220,e_CH12-380,e_CH13-220,e_CH16-380,e_CH18-220,e_CH18-380,e_w192677427-220,e_w192677427-380,e_w52738225-220,e_w52738225-380</t>
+  </si>
+  <si>
+    <t>elc_won-CHE_0019,elc_spv-CHE_0019</t>
+  </si>
+  <si>
+    <t>e_CH45-220,e_w281804158-220,e_w281804158-380</t>
+  </si>
+  <si>
+    <t>elc_won-CHE_0023,elc_spv-CHE_0023</t>
+  </si>
+  <si>
+    <t>e_w207991759-380</t>
+  </si>
+  <si>
+    <t>elc_won-CHE_0010,elc_spv-CHE_0010</t>
+  </si>
+  <si>
+    <t>e_CH11-220,e_w109037817-220,e_w109037817-380,e_w127004407-380,e_w127004407-400,e_w27435934-220,e_w30350721-220,e_w397960460-380,e_w397960460-400,e_w88901626-380</t>
+  </si>
+  <si>
+    <t>elc_won-CHE_0022,elc_spv-CHE_0022</t>
+  </si>
+  <si>
+    <t>e_CH4-220,e_CH9-220,e_w455120191-220,e_w83861269-220,e_w92798668-220,e_w92873516-220</t>
   </si>
   <si>
     <t>elc_won-CHE_0013,elc_spv-CHE_0013</t>
@@ -1013,118 +1115,16 @@
     <t>e_CH15-220,e_w146225999-220,e_w159527493-220,e_w242269161-220,e_w281799252-220,e_w35002638-220,e_w35002638-380,e_w97941869-220</t>
   </si>
   <si>
-    <t>elc_won-CHE_0010,elc_spv-CHE_0010</t>
-  </si>
-  <si>
-    <t>e_CH11-220,e_w109037817-220,e_w109037817-380,e_w127004407-380,e_w127004407-400,e_w27435934-220,e_w30350721-220,e_w397960460-380,e_w397960460-400,e_w88901626-380</t>
-  </si>
-  <si>
-    <t>elc_won-CHE_0022,elc_spv-CHE_0022</t>
-  </si>
-  <si>
-    <t>e_CH4-220,e_CH9-220,e_w455120191-220,e_w83861269-220,e_w92798668-220,e_w92873516-220</t>
+    <t>elc_won-CHE_0000,elc_spv-CHE_0000</t>
+  </si>
+  <si>
+    <t>e_CH51-220,e_CH51-225,e_CH51-400,e_CH52-220,e_CH57-220,e_CH57-225,e_w177392130-220,e_w177392130-400,e_w239937062-220</t>
   </si>
   <si>
     <t>elc_won-CHE_0007,elc_spv-CHE_0007</t>
   </si>
   <si>
     <t>e_CH44-220,e_w212722603-220,e_w212722603-380,e_w236819191-220,e_w758943072-220</t>
-  </si>
-  <si>
-    <t>elc_won-CHE_0011,elc_spv-CHE_0011</t>
-  </si>
-  <si>
-    <t>e_CH46-220,e_CH47-220,e_w228003081-220,e_w391576135-220,e_w391577741-220,e_w969819301-220,e_w969819301-380</t>
-  </si>
-  <si>
-    <t>elc_won-CHE_0015,elc_spv-CHE_0015</t>
-  </si>
-  <si>
-    <t>e_CH50-220,e_CH56-220,e_CH58-220,e_CH59-220,e_w1327084723-220,e_w281800404-220,e_w281803398-220,e_w281815404-220,e_w35487135-220</t>
-  </si>
-  <si>
-    <t>elc_won-CHE_0025,elc_spv-CHE_0025</t>
-  </si>
-  <si>
-    <t>e_r7933294-380</t>
-  </si>
-  <si>
-    <t>elc_won-CHE_0017,elc_spv-CHE_0017</t>
-  </si>
-  <si>
-    <t>e_CH12-220,e_CH12-380,e_CH13-220,e_CH16-380,e_CH18-220,e_CH18-380,e_w192677427-220,e_w192677427-380,e_w52738225-220,e_w52738225-380</t>
-  </si>
-  <si>
-    <t>elc_won-CHE_0019,elc_spv-CHE_0019</t>
-  </si>
-  <si>
-    <t>e_CH45-220,e_w281804158-220,e_w281804158-380</t>
-  </si>
-  <si>
-    <t>elc_won-CHE_0023,elc_spv-CHE_0023</t>
-  </si>
-  <si>
-    <t>e_w207991759-380</t>
-  </si>
-  <si>
-    <t>elc_won-CHE_0000,elc_spv-CHE_0000</t>
-  </si>
-  <si>
-    <t>e_CH51-220,e_CH51-225,e_CH51-400,e_CH52-220,e_CH57-220,e_CH57-225,e_w177392130-220,e_w177392130-400,e_w239937062-220</t>
-  </si>
-  <si>
-    <t>elc_won-CHE_0009,elc_spv-CHE_0009</t>
-  </si>
-  <si>
-    <t>e_CH14-220,e_CH14-380,e_w1105061707-220,e_w1105061707-380,e_w147557680-220,e_w165254212-220,e_w402053379-220</t>
-  </si>
-  <si>
-    <t>elc_won-CHE_0021,elc_spv-CHE_0021</t>
-  </si>
-  <si>
-    <t>e_CH17-380,e_w211907009-220</t>
-  </si>
-  <si>
-    <t>elc_won-CHE_0004,elc_spv-CHE_0004</t>
-  </si>
-  <si>
-    <t>e_w111162936-220,e_w111162936-380,e_w111162936-400,e_w122720993-220,e_w194258388-220</t>
-  </si>
-  <si>
-    <t>elc_won-CHE_0002,elc_spv-CHE_0002</t>
-  </si>
-  <si>
-    <t>e_w232662311-220</t>
-  </si>
-  <si>
-    <t>elc_won-CHE_0012,elc_spv-CHE_0012</t>
-  </si>
-  <si>
-    <t>e_CH19-220,e_CH20-220,e_CH25-220,e_CH27-220,e_CH34-220,e_CH34-380,e_CH35-220,e_CH36-220,e_CH38-220,e_CH39-220,e_CH40-220,e_w1086214433-220,e_w1092884227-220,e_w240959264-220,e_w364949845-220,e_w364949845-380</t>
-  </si>
-  <si>
-    <t>elc_won-CHE_0020,elc_spv-CHE_0020</t>
-  </si>
-  <si>
-    <t>e_CH21-220,e_CH22-220,e_CH22-380,e_CH29-220,e_CH29-380,e_CH41-380,e_w1208713169-220,e_w207993342-220,e_w207993342-380,e_w208780268-380,e_w212498548-220,e_w36348118-220,e_w365556107-220,e_w71500123-220,e_w71500123-380</t>
-  </si>
-  <si>
-    <t>elc_won-CHE_0001,elc_spv-CHE_0001</t>
-  </si>
-  <si>
-    <t>e_CH31-220,e_w132373704-220,e_w232662311-220,e_w44496892-220,e_w55695765-220</t>
-  </si>
-  <si>
-    <t>elc_won-CHE_0006,elc_spv-CHE_0006</t>
-  </si>
-  <si>
-    <t>e_w127004407-400</t>
-  </si>
-  <si>
-    <t>elc_won-CHE_0003,elc_spv-CHE_0003</t>
-  </si>
-  <si>
-    <t>e_CH48-225,e_CH49-225,e_CH53-225,e_CH60-225,e_w234983117-220,e_w234983117-380,e_w238138373-380,e_w260211728-225,e_w260211728-380,e_w55698557-220,e_w55698557-225,e_w802058337-220,e_w802058337-225,e_w936521586-380</t>
   </si>
   <si>
     <t>e_won-CHE_0000</t>
@@ -1803,7 +1803,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E9C7F556-B30B-89D3-3789-4F5CCDB6C671}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C566DD03-B1C5-2CF6-A1A8-D29F3DADFF84}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1858,7 +1858,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{232ACB95-8ED0-45D3-CAB1-42A958EE9008}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{64D01B52-9C68-5D56-1783-F62ADE50A02F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1913,7 +1913,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9C9C96BF-BA48-6B47-8B8E-0DEB8360C762}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{61E00438-D2D9-0679-C9A4-417492CAFE17}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1968,7 +1968,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{62AAE7BF-C93C-7665-BCE1-859D58F00F53}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8805E7AA-D29E-4495-CCDC-79B938D9E4A7}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4471,7 +4471,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D323E0EA-D3EB-4998-84FD-AE103C5BBDCD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C1EFF98-EBFF-4106-B2D7-707B533714B7}">
   <dimension ref="A1:AG28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4682,7 +4682,7 @@
         <v>1</v>
       </c>
       <c r="AG4" s="30" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
     </row>
     <row r="5" spans="1:33">
@@ -4759,7 +4759,7 @@
         <v>1</v>
       </c>
       <c r="AG5" s="31" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
     </row>
     <row r="6" spans="1:33">
@@ -4836,7 +4836,7 @@
         <v>1</v>
       </c>
       <c r="AG6" s="30" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
     </row>
     <row r="7" spans="1:33">
@@ -4913,7 +4913,7 @@
         <v>1</v>
       </c>
       <c r="AG7" s="31" t="s">
-        <v>230</v>
+        <v>220</v>
       </c>
     </row>
     <row r="8" spans="1:33">
@@ -4990,7 +4990,7 @@
         <v>1</v>
       </c>
       <c r="AG8" s="30" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
     </row>
     <row r="9" spans="1:33">
@@ -5067,7 +5067,7 @@
         <v>1</v>
       </c>
       <c r="AG9" s="31" t="s">
-        <v>194</v>
+        <v>230</v>
       </c>
     </row>
     <row r="10" spans="1:33">
@@ -5144,7 +5144,7 @@
         <v>1</v>
       </c>
       <c r="AG10" s="30" t="s">
-        <v>188</v>
+        <v>224</v>
       </c>
     </row>
     <row r="11" spans="1:33">
@@ -5221,7 +5221,7 @@
         <v>1</v>
       </c>
       <c r="AG11" s="31" t="s">
-        <v>212</v>
+        <v>232</v>
       </c>
     </row>
     <row r="12" spans="1:33">
@@ -5298,7 +5298,7 @@
         <v>1</v>
       </c>
       <c r="AG12" s="30" t="s">
-        <v>228</v>
+        <v>210</v>
       </c>
     </row>
     <row r="13" spans="1:33">
@@ -5375,7 +5375,7 @@
         <v>1</v>
       </c>
       <c r="AG13" s="31" t="s">
-        <v>190</v>
+        <v>222</v>
       </c>
     </row>
     <row r="14" spans="1:33">
@@ -5452,7 +5452,7 @@
         <v>1</v>
       </c>
       <c r="AG14" s="30" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="15" spans="1:33">
@@ -5529,7 +5529,7 @@
         <v>1</v>
       </c>
       <c r="AG15" s="31" t="s">
-        <v>218</v>
+        <v>202</v>
       </c>
     </row>
     <row r="16" spans="1:33">
@@ -5606,7 +5606,7 @@
         <v>1</v>
       </c>
       <c r="AG16" s="30" t="s">
-        <v>200</v>
+        <v>192</v>
       </c>
     </row>
     <row r="17" spans="2:33">
@@ -5683,7 +5683,7 @@
         <v>1</v>
       </c>
       <c r="AG17" s="31" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
     </row>
     <row r="18" spans="2:33">
@@ -5760,7 +5760,7 @@
         <v>1</v>
       </c>
       <c r="AG18" s="30" t="s">
-        <v>214</v>
+        <v>186</v>
       </c>
     </row>
     <row r="19" spans="2:33">
@@ -5837,7 +5837,7 @@
         <v>1</v>
       </c>
       <c r="AG19" s="31" t="s">
-        <v>184</v>
+        <v>226</v>
       </c>
     </row>
     <row r="20" spans="2:33">
@@ -5914,7 +5914,7 @@
         <v>1</v>
       </c>
       <c r="AG20" s="30" t="s">
-        <v>232</v>
+        <v>206</v>
       </c>
     </row>
     <row r="21" spans="2:33">
@@ -5991,7 +5991,7 @@
         <v>1</v>
       </c>
       <c r="AG21" s="31" t="s">
-        <v>210</v>
+        <v>200</v>
       </c>
     </row>
     <row r="22" spans="2:33">
@@ -6068,7 +6068,7 @@
         <v>1</v>
       </c>
       <c r="AG22" s="30" t="s">
-        <v>222</v>
+        <v>204</v>
       </c>
     </row>
     <row r="23" spans="2:33">
@@ -6145,7 +6145,7 @@
         <v>1</v>
       </c>
       <c r="AG23" s="31" t="s">
-        <v>206</v>
+        <v>214</v>
       </c>
     </row>
     <row r="24" spans="2:33">
@@ -6222,7 +6222,7 @@
         <v>1</v>
       </c>
       <c r="AG24" s="30" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
     </row>
     <row r="25" spans="2:33">
@@ -6299,7 +6299,7 @@
         <v>1</v>
       </c>
       <c r="AG25" s="31" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
     </row>
     <row r="26" spans="2:33">
@@ -6376,7 +6376,7 @@
         <v>1</v>
       </c>
       <c r="AG26" s="30" t="s">
-        <v>186</v>
+        <v>194</v>
       </c>
     </row>
     <row r="27" spans="2:33">
@@ -6453,7 +6453,7 @@
         <v>1</v>
       </c>
       <c r="AG27" s="31" t="s">
-        <v>226</v>
+        <v>184</v>
       </c>
     </row>
     <row r="28" spans="2:33">
@@ -6530,7 +6530,7 @@
         <v>1</v>
       </c>
       <c r="AG28" s="30" t="s">
-        <v>220</v>
+        <v>228</v>
       </c>
     </row>
   </sheetData>
@@ -6543,7 +6543,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84DE7F1E-34D5-414C-8CC2-DB25DCD0BFEE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FF8269B-8EAF-4D76-BBA7-454A6782B43F}">
   <dimension ref="A1:O29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7621,7 +7621,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98386404-CABD-4873-B289-BD755D36CB71}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E821221-5BCB-4AC6-932F-86654232D58F}">
   <dimension ref="A1:Q66"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/VerveStacks_CHE_grids/SubRES_Tmpl/SubRES_New_RE_and_Conventional.xlsx
+++ b/VerveStacks_CHE_grids/SubRES_Tmpl/SubRES_New_RE_and_Conventional.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_CHE_grids\SubRES_Tmpl\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{65ABD6AC-6D8F-45C0-8A1A-2258EED263CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{AD5718EE-60F9-480A-B715-30BC6C42A7C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="6" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -815,18 +815,54 @@
     <t>pre</t>
   </si>
   <si>
+    <t>distr_elc_won-CHE_0014</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell CHE_14</t>
+  </si>
+  <si>
+    <t>NRGI</t>
+  </si>
+  <si>
+    <t>daynite</t>
+  </si>
+  <si>
+    <t>distr_elc_won-CHE_0018</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell CHE_18</t>
+  </si>
+  <si>
+    <t>distr_elc_won-CHE_0020</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell CHE_20</t>
+  </si>
+  <si>
+    <t>distr_elc_won-CHE_0001</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell CHE_1</t>
+  </si>
+  <si>
+    <t>distr_elc_won-CHE_0006</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell CHE_6</t>
+  </si>
+  <si>
+    <t>distr_elc_won-CHE_0013</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell CHE_13</t>
+  </si>
+  <si>
     <t>distr_elc_won-CHE_0011</t>
   </si>
   <si>
     <t>connecting solar and wind to buses in grid cell CHE_11</t>
   </si>
   <si>
-    <t>NRGI</t>
-  </si>
-  <si>
-    <t>daynite</t>
-  </si>
-  <si>
     <t>distr_elc_won-CHE_0015</t>
   </si>
   <si>
@@ -839,58 +875,94 @@
     <t>connecting solar and wind to buses in grid cell CHE_25</t>
   </si>
   <si>
+    <t>distr_elc_won-CHE_0024</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell CHE_24</t>
+  </si>
+  <si>
+    <t>distr_elc_won-CHE_0008</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell CHE_8</t>
+  </si>
+  <si>
+    <t>distr_elc_won-CHE_0005</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell CHE_5</t>
+  </si>
+  <si>
+    <t>distr_elc_won-CHE_0007</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell CHE_7</t>
+  </si>
+  <si>
+    <t>distr_elc_won-CHE_0010</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell CHE_10</t>
+  </si>
+  <si>
+    <t>distr_elc_won-CHE_0022</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell CHE_22</t>
+  </si>
+  <si>
+    <t>distr_elc_won-CHE_0017</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell CHE_17</t>
+  </si>
+  <si>
+    <t>distr_elc_won-CHE_0019</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell CHE_19</t>
+  </si>
+  <si>
+    <t>distr_elc_won-CHE_0023</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell CHE_23</t>
+  </si>
+  <si>
+    <t>distr_elc_won-CHE_0009</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell CHE_9</t>
+  </si>
+  <si>
+    <t>distr_elc_won-CHE_0021</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell CHE_21</t>
+  </si>
+  <si>
+    <t>distr_elc_won-CHE_0004</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell CHE_4</t>
+  </si>
+  <si>
+    <t>distr_elc_won-CHE_0000</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell CHE_0</t>
+  </si>
+  <si>
     <t>distr_elc_won-CHE_0003</t>
   </si>
   <si>
     <t>connecting solar and wind to buses in grid cell CHE_3</t>
   </si>
   <si>
-    <t>distr_elc_won-CHE_0024</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell CHE_24</t>
-  </si>
-  <si>
-    <t>distr_elc_won-CHE_0008</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell CHE_8</t>
-  </si>
-  <si>
-    <t>distr_elc_won-CHE_0005</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell CHE_5</t>
-  </si>
-  <si>
-    <t>distr_elc_won-CHE_0009</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell CHE_9</t>
-  </si>
-  <si>
-    <t>distr_elc_won-CHE_0021</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell CHE_21</t>
-  </si>
-  <si>
-    <t>distr_elc_won-CHE_0004</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell CHE_4</t>
-  </si>
-  <si>
-    <t>distr_elc_won-CHE_0014</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell CHE_14</t>
-  </si>
-  <si>
-    <t>distr_elc_won-CHE_0018</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell CHE_18</t>
+    <t>distr_elc_won-CHE_0002</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell CHE_2</t>
   </si>
   <si>
     <t>distr_elc_won-CHE_0012</t>
@@ -899,84 +971,48 @@
     <t>connecting solar and wind to buses in grid cell CHE_12</t>
   </si>
   <si>
-    <t>distr_elc_won-CHE_0020</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell CHE_20</t>
-  </si>
-  <si>
-    <t>distr_elc_won-CHE_0001</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell CHE_1</t>
-  </si>
-  <si>
-    <t>distr_elc_won-CHE_0006</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell CHE_6</t>
-  </si>
-  <si>
-    <t>distr_elc_won-CHE_0002</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell CHE_2</t>
-  </si>
-  <si>
-    <t>distr_elc_won-CHE_0017</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell CHE_17</t>
-  </si>
-  <si>
-    <t>distr_elc_won-CHE_0019</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell CHE_19</t>
-  </si>
-  <si>
-    <t>distr_elc_won-CHE_0023</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell CHE_23</t>
-  </si>
-  <si>
-    <t>distr_elc_won-CHE_0010</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell CHE_10</t>
-  </si>
-  <si>
-    <t>distr_elc_won-CHE_0022</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell CHE_22</t>
-  </si>
-  <si>
-    <t>distr_elc_won-CHE_0013</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell CHE_13</t>
-  </si>
-  <si>
-    <t>distr_elc_won-CHE_0000</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell CHE_0</t>
-  </si>
-  <si>
-    <t>distr_elc_won-CHE_0007</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell CHE_7</t>
-  </si>
-  <si>
     <t>comm-in</t>
   </si>
   <si>
     <t>efficiency</t>
   </si>
   <si>
+    <t>elc_won-CHE_0014,elc_spv-CHE_0014</t>
+  </si>
+  <si>
+    <t>e_CH1-220,e_CH2-220,e_CH5-220,e_CH7-220,e_w108257952-220,e_w1284913429-220,e_w165513396-220,e_w165513396-380,e_w190819048-220,e_w27107779-220,e_w31308888-220,e_w33271433-220,e_w356292116-220,e_w356292116-380,e_w35840165-380,e_w50319857-220,e_w50319857-380,e_w50319857-400,e_w89405664-220,e_w89977424-220,e_w98648381-220,e_w98648381-380</t>
+  </si>
+  <si>
+    <t>elc_won-CHE_0018,elc_spv-CHE_0018</t>
+  </si>
+  <si>
+    <t>e_CH3-220,e_CH6-220,e_r9310861-220,e_w11282314-220,e_w147714395-220,e_w147714395-380,e_w148015471-220,e_w22899676-220,e_w240575085-220,e_w26843160-220,e_w281809991-220,e_w50561341-220,e_w87281514-220</t>
+  </si>
+  <si>
+    <t>elc_won-CHE_0020,elc_spv-CHE_0020</t>
+  </si>
+  <si>
+    <t>e_CH21-220,e_CH22-220,e_CH22-380,e_CH29-220,e_CH29-380,e_CH41-380,e_w1208713169-220,e_w207993342-220,e_w207993342-380,e_w208780268-380,e_w212498548-220,e_w36348118-220,e_w365556107-220,e_w71500123-220,e_w71500123-380</t>
+  </si>
+  <si>
+    <t>elc_won-CHE_0001,elc_spv-CHE_0001</t>
+  </si>
+  <si>
+    <t>e_CH31-220,e_w132373704-220,e_w232662311-220,e_w44496892-220,e_w55695765-220</t>
+  </si>
+  <si>
+    <t>elc_won-CHE_0006,elc_spv-CHE_0006</t>
+  </si>
+  <si>
+    <t>e_w127004407-400</t>
+  </si>
+  <si>
+    <t>elc_won-CHE_0013,elc_spv-CHE_0013</t>
+  </si>
+  <si>
+    <t>e_CH15-220,e_w146225999-220,e_w159527493-220,e_w242269161-220,e_w281799252-220,e_w35002638-220,e_w35002638-380,e_w97941869-220</t>
+  </si>
+  <si>
     <t>elc_won-CHE_0011,elc_spv-CHE_0011</t>
   </si>
   <si>
@@ -995,136 +1031,100 @@
     <t>e_r7933294-380</t>
   </si>
   <si>
+    <t>elc_won-CHE_0024,elc_spv-CHE_0024</t>
+  </si>
+  <si>
+    <t>e_CH30-380,e_CH33-380,e_CH37-380,e_r7933294-380</t>
+  </si>
+  <si>
+    <t>elc_won-CHE_0008,elc_spv-CHE_0008</t>
+  </si>
+  <si>
+    <t>e_CH43-220,e_w209324991-220,e_w26166640-220,e_w402055336-220,e_w758315582-220</t>
+  </si>
+  <si>
+    <t>elc_won-CHE_0005,elc_spv-CHE_0005</t>
+  </si>
+  <si>
+    <t>e_r5378910-220,e_w161853746-220</t>
+  </si>
+  <si>
+    <t>elc_won-CHE_0007,elc_spv-CHE_0007</t>
+  </si>
+  <si>
+    <t>e_CH44-220,e_w212722603-220,e_w212722603-380,e_w236819191-220,e_w758943072-220</t>
+  </si>
+  <si>
+    <t>elc_won-CHE_0010,elc_spv-CHE_0010</t>
+  </si>
+  <si>
+    <t>e_CH11-220,e_w109037817-220,e_w109037817-380,e_w127004407-380,e_w127004407-400,e_w27435934-220,e_w30350721-220,e_w397960460-380,e_w397960460-400,e_w88901626-380</t>
+  </si>
+  <si>
+    <t>elc_won-CHE_0022,elc_spv-CHE_0022</t>
+  </si>
+  <si>
+    <t>e_CH4-220,e_CH9-220,e_w455120191-220,e_w83861269-220,e_w92798668-220,e_w92873516-220</t>
+  </si>
+  <si>
+    <t>elc_won-CHE_0017,elc_spv-CHE_0017</t>
+  </si>
+  <si>
+    <t>e_CH12-220,e_CH12-380,e_CH13-220,e_CH16-380,e_CH18-220,e_CH18-380,e_w192677427-220,e_w192677427-380,e_w52738225-220,e_w52738225-380</t>
+  </si>
+  <si>
+    <t>elc_won-CHE_0019,elc_spv-CHE_0019</t>
+  </si>
+  <si>
+    <t>e_CH45-220,e_w281804158-220,e_w281804158-380</t>
+  </si>
+  <si>
+    <t>elc_won-CHE_0023,elc_spv-CHE_0023</t>
+  </si>
+  <si>
+    <t>e_w207991759-380</t>
+  </si>
+  <si>
+    <t>elc_won-CHE_0009,elc_spv-CHE_0009</t>
+  </si>
+  <si>
+    <t>e_CH14-220,e_CH14-380,e_w1105061707-220,e_w1105061707-380,e_w147557680-220,e_w165254212-220,e_w402053379-220</t>
+  </si>
+  <si>
+    <t>elc_won-CHE_0021,elc_spv-CHE_0021</t>
+  </si>
+  <si>
+    <t>e_CH17-380,e_w211907009-220</t>
+  </si>
+  <si>
+    <t>elc_won-CHE_0004,elc_spv-CHE_0004</t>
+  </si>
+  <si>
+    <t>e_w111162936-220,e_w111162936-380,e_w111162936-400,e_w122720993-220,e_w194258388-220</t>
+  </si>
+  <si>
+    <t>elc_won-CHE_0000,elc_spv-CHE_0000</t>
+  </si>
+  <si>
+    <t>e_CH51-220,e_CH51-225,e_CH51-400,e_CH52-220,e_CH57-220,e_CH57-225,e_w177392130-220,e_w177392130-400,e_w239937062-220</t>
+  </si>
+  <si>
     <t>elc_won-CHE_0003,elc_spv-CHE_0003</t>
   </si>
   <si>
     <t>e_CH48-225,e_CH49-225,e_CH53-225,e_CH60-225,e_w234983117-220,e_w234983117-380,e_w238138373-380,e_w260211728-225,e_w260211728-380,e_w55698557-220,e_w55698557-225,e_w802058337-220,e_w802058337-225,e_w936521586-380</t>
   </si>
   <si>
-    <t>elc_won-CHE_0024,elc_spv-CHE_0024</t>
-  </si>
-  <si>
-    <t>e_CH30-380,e_CH33-380,e_CH37-380,e_r7933294-380</t>
-  </si>
-  <si>
-    <t>elc_won-CHE_0008,elc_spv-CHE_0008</t>
-  </si>
-  <si>
-    <t>e_CH43-220,e_w209324991-220,e_w26166640-220,e_w402055336-220,e_w758315582-220</t>
-  </si>
-  <si>
-    <t>elc_won-CHE_0005,elc_spv-CHE_0005</t>
-  </si>
-  <si>
-    <t>e_r5378910-220,e_w161853746-220</t>
-  </si>
-  <si>
-    <t>elc_won-CHE_0009,elc_spv-CHE_0009</t>
-  </si>
-  <si>
-    <t>e_CH14-220,e_CH14-380,e_w1105061707-220,e_w1105061707-380,e_w147557680-220,e_w165254212-220,e_w402053379-220</t>
-  </si>
-  <si>
-    <t>elc_won-CHE_0021,elc_spv-CHE_0021</t>
-  </si>
-  <si>
-    <t>e_CH17-380,e_w211907009-220</t>
-  </si>
-  <si>
-    <t>elc_won-CHE_0004,elc_spv-CHE_0004</t>
-  </si>
-  <si>
-    <t>e_w111162936-220,e_w111162936-380,e_w111162936-400,e_w122720993-220,e_w194258388-220</t>
-  </si>
-  <si>
-    <t>elc_won-CHE_0014,elc_spv-CHE_0014</t>
-  </si>
-  <si>
-    <t>e_CH1-220,e_CH2-220,e_CH5-220,e_CH7-220,e_w108257952-220,e_w1284913429-220,e_w165513396-220,e_w165513396-380,e_w190819048-220,e_w27107779-220,e_w31308888-220,e_w33271433-220,e_w356292116-220,e_w356292116-380,e_w35840165-380,e_w50319857-220,e_w50319857-380,e_w50319857-400,e_w89405664-220,e_w89977424-220,e_w98648381-220,e_w98648381-380</t>
-  </si>
-  <si>
-    <t>elc_won-CHE_0018,elc_spv-CHE_0018</t>
-  </si>
-  <si>
-    <t>e_CH3-220,e_CH6-220,e_r9310861-220,e_w11282314-220,e_w147714395-220,e_w147714395-380,e_w148015471-220,e_w22899676-220,e_w240575085-220,e_w26843160-220,e_w281809991-220,e_w50561341-220,e_w87281514-220</t>
+    <t>elc_won-CHE_0002,elc_spv-CHE_0002</t>
+  </si>
+  <si>
+    <t>e_w232662311-220</t>
   </si>
   <si>
     <t>elc_won-CHE_0012,elc_spv-CHE_0012</t>
   </si>
   <si>
     <t>e_CH19-220,e_CH20-220,e_CH25-220,e_CH27-220,e_CH34-220,e_CH34-380,e_CH35-220,e_CH36-220,e_CH38-220,e_CH39-220,e_CH40-220,e_w1086214433-220,e_w1092884227-220,e_w240959264-220,e_w364949845-220,e_w364949845-380</t>
-  </si>
-  <si>
-    <t>elc_won-CHE_0020,elc_spv-CHE_0020</t>
-  </si>
-  <si>
-    <t>e_CH21-220,e_CH22-220,e_CH22-380,e_CH29-220,e_CH29-380,e_CH41-380,e_w1208713169-220,e_w207993342-220,e_w207993342-380,e_w208780268-380,e_w212498548-220,e_w36348118-220,e_w365556107-220,e_w71500123-220,e_w71500123-380</t>
-  </si>
-  <si>
-    <t>elc_won-CHE_0001,elc_spv-CHE_0001</t>
-  </si>
-  <si>
-    <t>e_CH31-220,e_w132373704-220,e_w232662311-220,e_w44496892-220,e_w55695765-220</t>
-  </si>
-  <si>
-    <t>elc_won-CHE_0006,elc_spv-CHE_0006</t>
-  </si>
-  <si>
-    <t>e_w127004407-400</t>
-  </si>
-  <si>
-    <t>elc_won-CHE_0002,elc_spv-CHE_0002</t>
-  </si>
-  <si>
-    <t>e_w232662311-220</t>
-  </si>
-  <si>
-    <t>elc_won-CHE_0017,elc_spv-CHE_0017</t>
-  </si>
-  <si>
-    <t>e_CH12-220,e_CH12-380,e_CH13-220,e_CH16-380,e_CH18-220,e_CH18-380,e_w192677427-220,e_w192677427-380,e_w52738225-220,e_w52738225-380</t>
-  </si>
-  <si>
-    <t>elc_won-CHE_0019,elc_spv-CHE_0019</t>
-  </si>
-  <si>
-    <t>e_CH45-220,e_w281804158-220,e_w281804158-380</t>
-  </si>
-  <si>
-    <t>elc_won-CHE_0023,elc_spv-CHE_0023</t>
-  </si>
-  <si>
-    <t>e_w207991759-380</t>
-  </si>
-  <si>
-    <t>elc_won-CHE_0010,elc_spv-CHE_0010</t>
-  </si>
-  <si>
-    <t>e_CH11-220,e_w109037817-220,e_w109037817-380,e_w127004407-380,e_w127004407-400,e_w27435934-220,e_w30350721-220,e_w397960460-380,e_w397960460-400,e_w88901626-380</t>
-  </si>
-  <si>
-    <t>elc_won-CHE_0022,elc_spv-CHE_0022</t>
-  </si>
-  <si>
-    <t>e_CH4-220,e_CH9-220,e_w455120191-220,e_w83861269-220,e_w92798668-220,e_w92873516-220</t>
-  </si>
-  <si>
-    <t>elc_won-CHE_0013,elc_spv-CHE_0013</t>
-  </si>
-  <si>
-    <t>e_CH15-220,e_w146225999-220,e_w159527493-220,e_w242269161-220,e_w281799252-220,e_w35002638-220,e_w35002638-380,e_w97941869-220</t>
-  </si>
-  <si>
-    <t>elc_won-CHE_0000,elc_spv-CHE_0000</t>
-  </si>
-  <si>
-    <t>e_CH51-220,e_CH51-225,e_CH51-400,e_CH52-220,e_CH57-220,e_CH57-225,e_w177392130-220,e_w177392130-400,e_w239937062-220</t>
-  </si>
-  <si>
-    <t>elc_won-CHE_0007,elc_spv-CHE_0007</t>
-  </si>
-  <si>
-    <t>e_CH44-220,e_w212722603-220,e_w212722603-380,e_w236819191-220,e_w758943072-220</t>
   </si>
   <si>
     <t>e_won-CHE_0000</t>
@@ -1803,7 +1803,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C566DD03-B1C5-2CF6-A1A8-D29F3DADFF84}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E2B8727F-0180-0104-3F5E-3BAC9C6AA042}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1858,7 +1858,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{64D01B52-9C68-5D56-1783-F62ADE50A02F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4E044831-113F-F702-AA35-F58A8A06D7BD}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1913,7 +1913,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{61E00438-D2D9-0679-C9A4-417492CAFE17}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EBDB7302-0FA1-5B59-CD8B-DC295CAD6810}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1968,7 +1968,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8805E7AA-D29E-4495-CCDC-79B938D9E4A7}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{076BAD89-C0A0-ABBE-5190-8D6FF5ECDD62}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4471,7 +4471,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C1EFF98-EBFF-4106-B2D7-707B533714B7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADBD17A7-AFC1-4198-8CA4-2913CDEE3D4F}">
   <dimension ref="A1:AG28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4682,7 +4682,7 @@
         <v>1</v>
       </c>
       <c r="AG4" s="30" t="s">
-        <v>190</v>
+        <v>196</v>
       </c>
     </row>
     <row r="5" spans="1:33">
@@ -4759,7 +4759,7 @@
         <v>1</v>
       </c>
       <c r="AG5" s="31" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
     </row>
     <row r="6" spans="1:33">
@@ -4836,7 +4836,7 @@
         <v>1</v>
       </c>
       <c r="AG6" s="30" t="s">
-        <v>218</v>
+        <v>208</v>
       </c>
     </row>
     <row r="7" spans="1:33">
@@ -4913,7 +4913,7 @@
         <v>1</v>
       </c>
       <c r="AG7" s="31" t="s">
-        <v>220</v>
+        <v>186</v>
       </c>
     </row>
     <row r="8" spans="1:33">
@@ -4990,7 +4990,7 @@
         <v>1</v>
       </c>
       <c r="AG8" s="30" t="s">
-        <v>216</v>
+        <v>226</v>
       </c>
     </row>
     <row r="9" spans="1:33">
@@ -5067,7 +5067,7 @@
         <v>1</v>
       </c>
       <c r="AG9" s="31" t="s">
-        <v>230</v>
+        <v>194</v>
       </c>
     </row>
     <row r="10" spans="1:33">
@@ -5144,7 +5144,7 @@
         <v>1</v>
       </c>
       <c r="AG10" s="30" t="s">
-        <v>224</v>
+        <v>190</v>
       </c>
     </row>
     <row r="11" spans="1:33">
@@ -5221,7 +5221,7 @@
         <v>1</v>
       </c>
       <c r="AG11" s="31" t="s">
-        <v>232</v>
+        <v>198</v>
       </c>
     </row>
     <row r="12" spans="1:33">
@@ -5298,7 +5298,7 @@
         <v>1</v>
       </c>
       <c r="AG12" s="30" t="s">
-        <v>210</v>
+        <v>218</v>
       </c>
     </row>
     <row r="13" spans="1:33">
@@ -5375,7 +5375,7 @@
         <v>1</v>
       </c>
       <c r="AG13" s="31" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
     </row>
     <row r="14" spans="1:33">
@@ -5452,7 +5452,7 @@
         <v>1</v>
       </c>
       <c r="AG14" s="30" t="s">
-        <v>196</v>
+        <v>230</v>
       </c>
     </row>
     <row r="15" spans="1:33">
@@ -5529,7 +5529,7 @@
         <v>1</v>
       </c>
       <c r="AG15" s="31" t="s">
-        <v>202</v>
+        <v>224</v>
       </c>
     </row>
     <row r="16" spans="1:33">
@@ -5606,7 +5606,7 @@
         <v>1</v>
       </c>
       <c r="AG16" s="30" t="s">
-        <v>192</v>
+        <v>228</v>
       </c>
     </row>
     <row r="17" spans="2:33">
@@ -5683,7 +5683,7 @@
         <v>1</v>
       </c>
       <c r="AG17" s="31" t="s">
-        <v>208</v>
+        <v>188</v>
       </c>
     </row>
     <row r="18" spans="2:33">
@@ -5760,7 +5760,7 @@
         <v>1</v>
       </c>
       <c r="AG18" s="30" t="s">
-        <v>186</v>
+        <v>212</v>
       </c>
     </row>
     <row r="19" spans="2:33">
@@ -5837,7 +5837,7 @@
         <v>1</v>
       </c>
       <c r="AG19" s="31" t="s">
-        <v>226</v>
+        <v>200</v>
       </c>
     </row>
     <row r="20" spans="2:33">
@@ -5914,7 +5914,7 @@
         <v>1</v>
       </c>
       <c r="AG20" s="30" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="21" spans="2:33">
@@ -5991,7 +5991,7 @@
         <v>1</v>
       </c>
       <c r="AG21" s="31" t="s">
-        <v>200</v>
+        <v>214</v>
       </c>
     </row>
     <row r="22" spans="2:33">
@@ -6068,7 +6068,7 @@
         <v>1</v>
       </c>
       <c r="AG22" s="30" t="s">
-        <v>204</v>
+        <v>232</v>
       </c>
     </row>
     <row r="23" spans="2:33">
@@ -6145,7 +6145,7 @@
         <v>1</v>
       </c>
       <c r="AG23" s="31" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
     </row>
     <row r="24" spans="2:33">
@@ -6222,7 +6222,7 @@
         <v>1</v>
       </c>
       <c r="AG24" s="30" t="s">
-        <v>188</v>
+        <v>222</v>
       </c>
     </row>
     <row r="25" spans="2:33">
@@ -6299,7 +6299,7 @@
         <v>1</v>
       </c>
       <c r="AG25" s="31" t="s">
-        <v>212</v>
+        <v>184</v>
       </c>
     </row>
     <row r="26" spans="2:33">
@@ -6376,7 +6376,7 @@
         <v>1</v>
       </c>
       <c r="AG26" s="30" t="s">
-        <v>194</v>
+        <v>220</v>
       </c>
     </row>
     <row r="27" spans="2:33">
@@ -6453,7 +6453,7 @@
         <v>1</v>
       </c>
       <c r="AG27" s="31" t="s">
-        <v>184</v>
+        <v>206</v>
       </c>
     </row>
     <row r="28" spans="2:33">
@@ -6530,7 +6530,7 @@
         <v>1</v>
       </c>
       <c r="AG28" s="30" t="s">
-        <v>228</v>
+        <v>192</v>
       </c>
     </row>
   </sheetData>
@@ -6543,7 +6543,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FF8269B-8EAF-4D76-BBA7-454A6782B43F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E04E1105-E442-42D4-844A-18A3C6796092}">
   <dimension ref="A1:O29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7621,7 +7621,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E821221-5BCB-4AC6-932F-86654232D58F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66A1826D-E338-4079-A91D-E405A37C3CD0}">
   <dimension ref="A1:Q66"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/VerveStacks_CHE_grids/SubRES_Tmpl/SubRES_New_RE_and_Conventional.xlsx
+++ b/VerveStacks_CHE_grids/SubRES_Tmpl/SubRES_New_RE_and_Conventional.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_CHE_grids\SubRES_Tmpl\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AD5718EE-60F9-480A-B715-30BC6C42A7C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B8C7C6C8-97E9-47A9-A4DF-A40650B86B89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="6" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -815,168 +815,282 @@
     <t>pre</t>
   </si>
   <si>
-    <t>distr_elc_won-CHE_0014</t>
+    <t>distr_solelc_won-CHE_0024</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell CHE_24</t>
+  </si>
+  <si>
+    <t>NRGI</t>
+  </si>
+  <si>
+    <t>daynite</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-CHE_0008</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell CHE_8</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-CHE_0005</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell CHE_5</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-CHE_0007</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell CHE_7</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-CHE_0003</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell CHE_3</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-CHE_0020</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell CHE_20</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-CHE_0001</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell CHE_1</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-CHE_0006</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell CHE_6</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-CHE_0011</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell CHE_11</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-CHE_0015</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell CHE_15</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-CHE_0025</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell CHE_25</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-CHE_0013</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell CHE_13</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-CHE_0017</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell CHE_17</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-CHE_0019</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell CHE_19</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-CHE_0023</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell CHE_23</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-CHE_0000</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell CHE_0</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-CHE_0012</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell CHE_12</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-CHE_0010</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell CHE_10</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-CHE_0022</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell CHE_22</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-CHE_0014</t>
   </si>
   <si>
     <t>connecting solar and wind to buses in grid cell CHE_14</t>
   </si>
   <si>
-    <t>NRGI</t>
-  </si>
-  <si>
-    <t>daynite</t>
-  </si>
-  <si>
-    <t>distr_elc_won-CHE_0018</t>
+    <t>distr_solelc_won-CHE_0018</t>
   </si>
   <si>
     <t>connecting solar and wind to buses in grid cell CHE_18</t>
   </si>
   <si>
-    <t>distr_elc_won-CHE_0020</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell CHE_20</t>
-  </si>
-  <si>
-    <t>distr_elc_won-CHE_0001</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell CHE_1</t>
-  </si>
-  <si>
-    <t>distr_elc_won-CHE_0006</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell CHE_6</t>
-  </si>
-  <si>
-    <t>distr_elc_won-CHE_0013</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell CHE_13</t>
-  </si>
-  <si>
-    <t>distr_elc_won-CHE_0011</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell CHE_11</t>
-  </si>
-  <si>
-    <t>distr_elc_won-CHE_0015</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell CHE_15</t>
-  </si>
-  <si>
-    <t>distr_elc_won-CHE_0025</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell CHE_25</t>
-  </si>
-  <si>
-    <t>distr_elc_won-CHE_0024</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell CHE_24</t>
-  </si>
-  <si>
-    <t>distr_elc_won-CHE_0008</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell CHE_8</t>
-  </si>
-  <si>
-    <t>distr_elc_won-CHE_0005</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell CHE_5</t>
-  </si>
-  <si>
-    <t>distr_elc_won-CHE_0007</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell CHE_7</t>
-  </si>
-  <si>
-    <t>distr_elc_won-CHE_0010</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell CHE_10</t>
-  </si>
-  <si>
-    <t>distr_elc_won-CHE_0022</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell CHE_22</t>
-  </si>
-  <si>
-    <t>distr_elc_won-CHE_0017</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell CHE_17</t>
-  </si>
-  <si>
-    <t>distr_elc_won-CHE_0019</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell CHE_19</t>
-  </si>
-  <si>
-    <t>distr_elc_won-CHE_0023</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell CHE_23</t>
-  </si>
-  <si>
-    <t>distr_elc_won-CHE_0009</t>
+    <t>distr_solelc_won-CHE_0009</t>
   </si>
   <si>
     <t>connecting solar and wind to buses in grid cell CHE_9</t>
   </si>
   <si>
-    <t>distr_elc_won-CHE_0021</t>
+    <t>distr_solelc_won-CHE_0021</t>
   </si>
   <si>
     <t>connecting solar and wind to buses in grid cell CHE_21</t>
   </si>
   <si>
-    <t>distr_elc_won-CHE_0004</t>
+    <t>distr_solelc_won-CHE_0004</t>
   </si>
   <si>
     <t>connecting solar and wind to buses in grid cell CHE_4</t>
   </si>
   <si>
-    <t>distr_elc_won-CHE_0000</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell CHE_0</t>
-  </si>
-  <si>
-    <t>distr_elc_won-CHE_0003</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell CHE_3</t>
-  </si>
-  <si>
-    <t>distr_elc_won-CHE_0002</t>
+    <t>distr_solelc_won-CHE_0002</t>
   </si>
   <si>
     <t>connecting solar and wind to buses in grid cell CHE_2</t>
   </si>
   <si>
-    <t>distr_elc_won-CHE_0012</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell CHE_12</t>
-  </si>
-  <si>
     <t>comm-in</t>
   </si>
   <si>
     <t>efficiency</t>
   </si>
   <si>
+    <t>elc_won-CHE_0024,elc_spv-CHE_0024</t>
+  </si>
+  <si>
+    <t>e_CH30-380,e_CH33-380,e_CH37-380,e_r7933294-380</t>
+  </si>
+  <si>
+    <t>elc_won-CHE_0008,elc_spv-CHE_0008</t>
+  </si>
+  <si>
+    <t>e_CH43-220,e_w209324991-220,e_w26166640-220,e_w402055336-220,e_w758315582-220</t>
+  </si>
+  <si>
+    <t>elc_won-CHE_0005,elc_spv-CHE_0005</t>
+  </si>
+  <si>
+    <t>e_r5378910-220,e_w161853746-220</t>
+  </si>
+  <si>
+    <t>elc_won-CHE_0007,elc_spv-CHE_0007</t>
+  </si>
+  <si>
+    <t>e_CH44-220,e_w212722603-220,e_w212722603-380,e_w236819191-220,e_w758943072-220</t>
+  </si>
+  <si>
+    <t>elc_won-CHE_0003,elc_spv-CHE_0003</t>
+  </si>
+  <si>
+    <t>e_CH48-225,e_CH49-225,e_CH53-225,e_CH60-225,e_w234983117-220,e_w234983117-380,e_w238138373-380,e_w260211728-225,e_w260211728-380,e_w55698557-220,e_w55698557-225,e_w802058337-220,e_w802058337-225,e_w936521586-380</t>
+  </si>
+  <si>
+    <t>elc_won-CHE_0020,elc_spv-CHE_0020</t>
+  </si>
+  <si>
+    <t>e_CH21-220,e_CH22-220,e_CH22-380,e_CH29-220,e_CH29-380,e_CH41-380,e_w1208713169-220,e_w207993342-220,e_w207993342-380,e_w208780268-380,e_w212498548-220,e_w36348118-220,e_w365556107-220,e_w71500123-220,e_w71500123-380</t>
+  </si>
+  <si>
+    <t>elc_won-CHE_0001,elc_spv-CHE_0001</t>
+  </si>
+  <si>
+    <t>e_CH31-220,e_w132373704-220,e_w232662311-220,e_w44496892-220,e_w55695765-220</t>
+  </si>
+  <si>
+    <t>elc_won-CHE_0006,elc_spv-CHE_0006</t>
+  </si>
+  <si>
+    <t>e_w127004407-400</t>
+  </si>
+  <si>
+    <t>elc_won-CHE_0011,elc_spv-CHE_0011</t>
+  </si>
+  <si>
+    <t>e_CH46-220,e_CH47-220,e_w228003081-220,e_w391576135-220,e_w391577741-220,e_w969819301-220,e_w969819301-380</t>
+  </si>
+  <si>
+    <t>elc_won-CHE_0015,elc_spv-CHE_0015</t>
+  </si>
+  <si>
+    <t>e_CH50-220,e_CH56-220,e_CH58-220,e_CH59-220,e_w1327084723-220,e_w281800404-220,e_w281803398-220,e_w281815404-220,e_w35487135-220</t>
+  </si>
+  <si>
+    <t>elc_won-CHE_0025,elc_spv-CHE_0025</t>
+  </si>
+  <si>
+    <t>e_r7933294-380</t>
+  </si>
+  <si>
+    <t>elc_won-CHE_0013,elc_spv-CHE_0013</t>
+  </si>
+  <si>
+    <t>e_CH15-220,e_w146225999-220,e_w159527493-220,e_w242269161-220,e_w281799252-220,e_w35002638-220,e_w35002638-380,e_w97941869-220</t>
+  </si>
+  <si>
+    <t>elc_won-CHE_0017,elc_spv-CHE_0017</t>
+  </si>
+  <si>
+    <t>e_CH12-220,e_CH12-380,e_CH13-220,e_CH16-380,e_CH18-220,e_CH18-380,e_w192677427-220,e_w192677427-380,e_w52738225-220,e_w52738225-380</t>
+  </si>
+  <si>
+    <t>elc_won-CHE_0019,elc_spv-CHE_0019</t>
+  </si>
+  <si>
+    <t>e_CH45-220,e_w281804158-220,e_w281804158-380</t>
+  </si>
+  <si>
+    <t>elc_won-CHE_0023,elc_spv-CHE_0023</t>
+  </si>
+  <si>
+    <t>e_w207991759-380</t>
+  </si>
+  <si>
+    <t>elc_won-CHE_0000,elc_spv-CHE_0000</t>
+  </si>
+  <si>
+    <t>e_CH51-220,e_CH51-225,e_CH51-400,e_CH52-220,e_CH57-220,e_CH57-225,e_w177392130-220,e_w177392130-400,e_w239937062-220</t>
+  </si>
+  <si>
+    <t>elc_won-CHE_0012,elc_spv-CHE_0012</t>
+  </si>
+  <si>
+    <t>e_CH19-220,e_CH20-220,e_CH25-220,e_CH27-220,e_CH34-220,e_CH34-380,e_CH35-220,e_CH36-220,e_CH38-220,e_CH39-220,e_CH40-220,e_w1086214433-220,e_w1092884227-220,e_w240959264-220,e_w364949845-220,e_w364949845-380</t>
+  </si>
+  <si>
+    <t>elc_won-CHE_0010,elc_spv-CHE_0010</t>
+  </si>
+  <si>
+    <t>e_CH11-220,e_w109037817-220,e_w109037817-380,e_w127004407-380,e_w127004407-400,e_w27435934-220,e_w30350721-220,e_w397960460-380,e_w397960460-400,e_w88901626-380</t>
+  </si>
+  <si>
+    <t>elc_won-CHE_0022,elc_spv-CHE_0022</t>
+  </si>
+  <si>
+    <t>e_CH4-220,e_CH9-220,e_w455120191-220,e_w83861269-220,e_w92798668-220,e_w92873516-220</t>
+  </si>
+  <si>
     <t>elc_won-CHE_0014,elc_spv-CHE_0014</t>
   </si>
   <si>
@@ -989,102 +1103,6 @@
     <t>e_CH3-220,e_CH6-220,e_r9310861-220,e_w11282314-220,e_w147714395-220,e_w147714395-380,e_w148015471-220,e_w22899676-220,e_w240575085-220,e_w26843160-220,e_w281809991-220,e_w50561341-220,e_w87281514-220</t>
   </si>
   <si>
-    <t>elc_won-CHE_0020,elc_spv-CHE_0020</t>
-  </si>
-  <si>
-    <t>e_CH21-220,e_CH22-220,e_CH22-380,e_CH29-220,e_CH29-380,e_CH41-380,e_w1208713169-220,e_w207993342-220,e_w207993342-380,e_w208780268-380,e_w212498548-220,e_w36348118-220,e_w365556107-220,e_w71500123-220,e_w71500123-380</t>
-  </si>
-  <si>
-    <t>elc_won-CHE_0001,elc_spv-CHE_0001</t>
-  </si>
-  <si>
-    <t>e_CH31-220,e_w132373704-220,e_w232662311-220,e_w44496892-220,e_w55695765-220</t>
-  </si>
-  <si>
-    <t>elc_won-CHE_0006,elc_spv-CHE_0006</t>
-  </si>
-  <si>
-    <t>e_w127004407-400</t>
-  </si>
-  <si>
-    <t>elc_won-CHE_0013,elc_spv-CHE_0013</t>
-  </si>
-  <si>
-    <t>e_CH15-220,e_w146225999-220,e_w159527493-220,e_w242269161-220,e_w281799252-220,e_w35002638-220,e_w35002638-380,e_w97941869-220</t>
-  </si>
-  <si>
-    <t>elc_won-CHE_0011,elc_spv-CHE_0011</t>
-  </si>
-  <si>
-    <t>e_CH46-220,e_CH47-220,e_w228003081-220,e_w391576135-220,e_w391577741-220,e_w969819301-220,e_w969819301-380</t>
-  </si>
-  <si>
-    <t>elc_won-CHE_0015,elc_spv-CHE_0015</t>
-  </si>
-  <si>
-    <t>e_CH50-220,e_CH56-220,e_CH58-220,e_CH59-220,e_w1327084723-220,e_w281800404-220,e_w281803398-220,e_w281815404-220,e_w35487135-220</t>
-  </si>
-  <si>
-    <t>elc_won-CHE_0025,elc_spv-CHE_0025</t>
-  </si>
-  <si>
-    <t>e_r7933294-380</t>
-  </si>
-  <si>
-    <t>elc_won-CHE_0024,elc_spv-CHE_0024</t>
-  </si>
-  <si>
-    <t>e_CH30-380,e_CH33-380,e_CH37-380,e_r7933294-380</t>
-  </si>
-  <si>
-    <t>elc_won-CHE_0008,elc_spv-CHE_0008</t>
-  </si>
-  <si>
-    <t>e_CH43-220,e_w209324991-220,e_w26166640-220,e_w402055336-220,e_w758315582-220</t>
-  </si>
-  <si>
-    <t>elc_won-CHE_0005,elc_spv-CHE_0005</t>
-  </si>
-  <si>
-    <t>e_r5378910-220,e_w161853746-220</t>
-  </si>
-  <si>
-    <t>elc_won-CHE_0007,elc_spv-CHE_0007</t>
-  </si>
-  <si>
-    <t>e_CH44-220,e_w212722603-220,e_w212722603-380,e_w236819191-220,e_w758943072-220</t>
-  </si>
-  <si>
-    <t>elc_won-CHE_0010,elc_spv-CHE_0010</t>
-  </si>
-  <si>
-    <t>e_CH11-220,e_w109037817-220,e_w109037817-380,e_w127004407-380,e_w127004407-400,e_w27435934-220,e_w30350721-220,e_w397960460-380,e_w397960460-400,e_w88901626-380</t>
-  </si>
-  <si>
-    <t>elc_won-CHE_0022,elc_spv-CHE_0022</t>
-  </si>
-  <si>
-    <t>e_CH4-220,e_CH9-220,e_w455120191-220,e_w83861269-220,e_w92798668-220,e_w92873516-220</t>
-  </si>
-  <si>
-    <t>elc_won-CHE_0017,elc_spv-CHE_0017</t>
-  </si>
-  <si>
-    <t>e_CH12-220,e_CH12-380,e_CH13-220,e_CH16-380,e_CH18-220,e_CH18-380,e_w192677427-220,e_w192677427-380,e_w52738225-220,e_w52738225-380</t>
-  </si>
-  <si>
-    <t>elc_won-CHE_0019,elc_spv-CHE_0019</t>
-  </si>
-  <si>
-    <t>e_CH45-220,e_w281804158-220,e_w281804158-380</t>
-  </si>
-  <si>
-    <t>elc_won-CHE_0023,elc_spv-CHE_0023</t>
-  </si>
-  <si>
-    <t>e_w207991759-380</t>
-  </si>
-  <si>
     <t>elc_won-CHE_0009,elc_spv-CHE_0009</t>
   </si>
   <si>
@@ -1103,28 +1121,10 @@
     <t>e_w111162936-220,e_w111162936-380,e_w111162936-400,e_w122720993-220,e_w194258388-220</t>
   </si>
   <si>
-    <t>elc_won-CHE_0000,elc_spv-CHE_0000</t>
-  </si>
-  <si>
-    <t>e_CH51-220,e_CH51-225,e_CH51-400,e_CH52-220,e_CH57-220,e_CH57-225,e_w177392130-220,e_w177392130-400,e_w239937062-220</t>
-  </si>
-  <si>
-    <t>elc_won-CHE_0003,elc_spv-CHE_0003</t>
-  </si>
-  <si>
-    <t>e_CH48-225,e_CH49-225,e_CH53-225,e_CH60-225,e_w234983117-220,e_w234983117-380,e_w238138373-380,e_w260211728-225,e_w260211728-380,e_w55698557-220,e_w55698557-225,e_w802058337-220,e_w802058337-225,e_w936521586-380</t>
-  </si>
-  <si>
     <t>elc_won-CHE_0002,elc_spv-CHE_0002</t>
   </si>
   <si>
     <t>e_w232662311-220</t>
-  </si>
-  <si>
-    <t>elc_won-CHE_0012,elc_spv-CHE_0012</t>
-  </si>
-  <si>
-    <t>e_CH19-220,e_CH20-220,e_CH25-220,e_CH27-220,e_CH34-220,e_CH34-380,e_CH35-220,e_CH36-220,e_CH38-220,e_CH39-220,e_CH40-220,e_w1086214433-220,e_w1092884227-220,e_w240959264-220,e_w364949845-220,e_w364949845-380</t>
   </si>
   <si>
     <t>e_won-CHE_0000</t>
@@ -1803,7 +1803,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E2B8727F-0180-0104-3F5E-3BAC9C6AA042}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6A8E5784-0BE7-F4C5-3C33-D17A4D41FB81}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1858,7 +1858,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4E044831-113F-F702-AA35-F58A8A06D7BD}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1F55ECA2-874F-77B6-8D30-223F171D73E3}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1913,7 +1913,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EBDB7302-0FA1-5B59-CD8B-DC295CAD6810}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{823F9393-DE57-4A9B-1C71-BF2F4FC002DC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1968,7 +1968,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{076BAD89-C0A0-ABBE-5190-8D6FF5ECDD62}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0E35166-367B-7711-1A18-FC16CAB116D9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4471,7 +4471,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADBD17A7-AFC1-4198-8CA4-2913CDEE3D4F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1C34107-A4FA-41A2-BB44-298D61C7FCE2}">
   <dimension ref="A1:AG28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4492,14 +4492,14 @@
     <col min="13" max="13" width="13.59765625" bestFit="1" customWidth="1"/>
     <col min="14" max="15" width="10.59765625" customWidth="1"/>
     <col min="18" max="18" width="10.59765625" customWidth="1"/>
-    <col min="19" max="19" width="18" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="20" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="30.59765625" customWidth="1"/>
     <col min="21" max="21" width="12" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="11.265625" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="10.59765625" customWidth="1"/>
     <col min="24" max="24" width="12.46484375" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="10.59765625" customWidth="1"/>
-    <col min="29" max="29" width="18" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="20" bestFit="1" customWidth="1"/>
     <col min="30" max="30" width="27.53125" bestFit="1" customWidth="1"/>
     <col min="31" max="31" width="30.59765625" customWidth="1"/>
     <col min="32" max="33" width="10.59765625" customWidth="1"/>
@@ -4682,7 +4682,7 @@
         <v>1</v>
       </c>
       <c r="AG4" s="30" t="s">
-        <v>196</v>
+        <v>216</v>
       </c>
     </row>
     <row r="5" spans="1:33">
@@ -4759,7 +4759,7 @@
         <v>1</v>
       </c>
       <c r="AG5" s="31" t="s">
-        <v>202</v>
+        <v>230</v>
       </c>
     </row>
     <row r="6" spans="1:33">
@@ -4836,7 +4836,7 @@
         <v>1</v>
       </c>
       <c r="AG6" s="30" t="s">
-        <v>208</v>
+        <v>224</v>
       </c>
     </row>
     <row r="7" spans="1:33">
@@ -4913,7 +4913,7 @@
         <v>1</v>
       </c>
       <c r="AG7" s="31" t="s">
-        <v>186</v>
+        <v>228</v>
       </c>
     </row>
     <row r="8" spans="1:33">
@@ -4990,7 +4990,7 @@
         <v>1</v>
       </c>
       <c r="AG8" s="30" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
     </row>
     <row r="9" spans="1:33">
@@ -5067,7 +5067,7 @@
         <v>1</v>
       </c>
       <c r="AG9" s="31" t="s">
-        <v>194</v>
+        <v>208</v>
       </c>
     </row>
     <row r="10" spans="1:33">
@@ -5144,7 +5144,7 @@
         <v>1</v>
       </c>
       <c r="AG10" s="30" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
     </row>
     <row r="11" spans="1:33">
@@ -5221,7 +5221,7 @@
         <v>1</v>
       </c>
       <c r="AG11" s="31" t="s">
-        <v>198</v>
+        <v>226</v>
       </c>
     </row>
     <row r="12" spans="1:33">
@@ -5298,7 +5298,7 @@
         <v>1</v>
       </c>
       <c r="AG12" s="30" t="s">
-        <v>218</v>
+        <v>190</v>
       </c>
     </row>
     <row r="13" spans="1:33">
@@ -5375,7 +5375,7 @@
         <v>1</v>
       </c>
       <c r="AG13" s="31" t="s">
-        <v>216</v>
+        <v>198</v>
       </c>
     </row>
     <row r="14" spans="1:33">
@@ -5452,7 +5452,7 @@
         <v>1</v>
       </c>
       <c r="AG14" s="30" t="s">
-        <v>230</v>
+        <v>218</v>
       </c>
     </row>
     <row r="15" spans="1:33">
@@ -5529,7 +5529,7 @@
         <v>1</v>
       </c>
       <c r="AG15" s="31" t="s">
-        <v>224</v>
+        <v>194</v>
       </c>
     </row>
     <row r="16" spans="1:33">
@@ -5606,7 +5606,7 @@
         <v>1</v>
       </c>
       <c r="AG16" s="30" t="s">
-        <v>228</v>
+        <v>200</v>
       </c>
     </row>
     <row r="17" spans="2:33">
@@ -5683,7 +5683,7 @@
         <v>1</v>
       </c>
       <c r="AG17" s="31" t="s">
-        <v>188</v>
+        <v>204</v>
       </c>
     </row>
     <row r="18" spans="2:33">
@@ -5760,7 +5760,7 @@
         <v>1</v>
       </c>
       <c r="AG18" s="30" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
     </row>
     <row r="19" spans="2:33">
@@ -5837,7 +5837,7 @@
         <v>1</v>
       </c>
       <c r="AG19" s="31" t="s">
-        <v>200</v>
+        <v>184</v>
       </c>
     </row>
     <row r="20" spans="2:33">
@@ -5914,7 +5914,7 @@
         <v>1</v>
       </c>
       <c r="AG20" s="30" t="s">
-        <v>204</v>
+        <v>192</v>
       </c>
     </row>
     <row r="21" spans="2:33">
@@ -5991,7 +5991,7 @@
         <v>1</v>
       </c>
       <c r="AG21" s="31" t="s">
-        <v>214</v>
+        <v>188</v>
       </c>
     </row>
     <row r="22" spans="2:33">
@@ -6068,7 +6068,7 @@
         <v>1</v>
       </c>
       <c r="AG22" s="30" t="s">
-        <v>232</v>
+        <v>212</v>
       </c>
     </row>
     <row r="23" spans="2:33">
@@ -6145,7 +6145,7 @@
         <v>1</v>
       </c>
       <c r="AG23" s="31" t="s">
-        <v>210</v>
+        <v>196</v>
       </c>
     </row>
     <row r="24" spans="2:33">
@@ -6222,7 +6222,7 @@
         <v>1</v>
       </c>
       <c r="AG24" s="30" t="s">
-        <v>222</v>
+        <v>202</v>
       </c>
     </row>
     <row r="25" spans="2:33">
@@ -6299,7 +6299,7 @@
         <v>1</v>
       </c>
       <c r="AG25" s="31" t="s">
-        <v>184</v>
+        <v>232</v>
       </c>
     </row>
     <row r="26" spans="2:33">
@@ -6376,7 +6376,7 @@
         <v>1</v>
       </c>
       <c r="AG26" s="30" t="s">
-        <v>220</v>
+        <v>210</v>
       </c>
     </row>
     <row r="27" spans="2:33">
@@ -6453,7 +6453,7 @@
         <v>1</v>
       </c>
       <c r="AG27" s="31" t="s">
-        <v>206</v>
+        <v>222</v>
       </c>
     </row>
     <row r="28" spans="2:33">
@@ -6530,7 +6530,7 @@
         <v>1</v>
       </c>
       <c r="AG28" s="30" t="s">
-        <v>192</v>
+        <v>206</v>
       </c>
     </row>
   </sheetData>
@@ -6543,7 +6543,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E04E1105-E442-42D4-844A-18A3C6796092}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7396BFA1-A32C-48F8-9726-6686ADC6566D}">
   <dimension ref="A1:O29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7621,7 +7621,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66A1826D-E338-4079-A91D-E405A37C3CD0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{501058AB-0F6F-4823-A7D5-E138F8464F98}">
   <dimension ref="A1:Q66"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/VerveStacks_CHE_grids/SubRES_Tmpl/SubRES_New_RE_and_Conventional.xlsx
+++ b/VerveStacks_CHE_grids/SubRES_Tmpl/SubRES_New_RE_and_Conventional.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_CHE_grids\SubRES_Tmpl\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B8C7C6C8-97E9-47A9-A4DF-A40650B86B89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{DE29CFAE-4821-42A5-8DF1-499FDBBB1560}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="6" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -113,9 +113,6 @@
     <t>elc_buildings,elc_industry,elc_transport</t>
   </si>
   <si>
-    <t>elc_demand</t>
-  </si>
-  <si>
     <t>~FI_Comm</t>
   </si>
   <si>
@@ -401,9 +398,6 @@
     <t>Car battery - 6kw/60Kwh - with V2G (optional)</t>
   </si>
   <si>
-    <t>EV_Battery</t>
-  </si>
-  <si>
     <t>elc_roadtransport</t>
   </si>
   <si>
@@ -428,6 +422,12 @@
     <t>~FI_T: USD21~FX~ACT_BND</t>
   </si>
   <si>
+    <t>ev_battery</t>
+  </si>
+  <si>
+    <t>e_demand</t>
+  </si>
+  <si>
     <t>~fi_process</t>
   </si>
   <si>
@@ -815,18 +815,114 @@
     <t>pre</t>
   </si>
   <si>
+    <t>distr_solelc_won-CHE_0000</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell CHE_0</t>
+  </si>
+  <si>
+    <t>NRGI</t>
+  </si>
+  <si>
+    <t>daynite</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-CHE_0011</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell CHE_11</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-CHE_0015</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell CHE_15</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-CHE_0025</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell CHE_25</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-CHE_0002</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell CHE_2</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-CHE_0007</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell CHE_7</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-CHE_0010</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell CHE_10</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-CHE_0022</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell CHE_22</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-CHE_0017</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell CHE_17</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-CHE_0019</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell CHE_19</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-CHE_0023</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell CHE_23</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-CHE_0003</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell CHE_3</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-CHE_0013</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell CHE_13</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-CHE_0020</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell CHE_20</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-CHE_0001</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell CHE_1</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-CHE_0006</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell CHE_6</t>
+  </si>
+  <si>
     <t>distr_solelc_won-CHE_0024</t>
   </si>
   <si>
     <t>connecting solar and wind to buses in grid cell CHE_24</t>
   </si>
   <si>
-    <t>NRGI</t>
-  </si>
-  <si>
-    <t>daynite</t>
-  </si>
-  <si>
     <t>distr_solelc_won-CHE_0008</t>
   </si>
   <si>
@@ -839,82 +935,16 @@
     <t>connecting solar and wind to buses in grid cell CHE_5</t>
   </si>
   <si>
-    <t>distr_solelc_won-CHE_0007</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell CHE_7</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-CHE_0003</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell CHE_3</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-CHE_0020</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell CHE_20</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-CHE_0001</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell CHE_1</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-CHE_0006</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell CHE_6</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-CHE_0011</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell CHE_11</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-CHE_0015</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell CHE_15</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-CHE_0025</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell CHE_25</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-CHE_0013</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell CHE_13</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-CHE_0017</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell CHE_17</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-CHE_0019</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell CHE_19</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-CHE_0023</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell CHE_23</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-CHE_0000</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell CHE_0</t>
+    <t>distr_solelc_won-CHE_0014</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell CHE_14</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-CHE_0018</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell CHE_18</t>
   </si>
   <si>
     <t>distr_solelc_won-CHE_0012</t>
@@ -923,30 +953,6 @@
     <t>connecting solar and wind to buses in grid cell CHE_12</t>
   </si>
   <si>
-    <t>distr_solelc_won-CHE_0010</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell CHE_10</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-CHE_0022</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell CHE_22</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-CHE_0014</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell CHE_14</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-CHE_0018</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell CHE_18</t>
-  </si>
-  <si>
     <t>distr_solelc_won-CHE_0009</t>
   </si>
   <si>
@@ -965,18 +971,108 @@
     <t>connecting solar and wind to buses in grid cell CHE_4</t>
   </si>
   <si>
-    <t>distr_solelc_won-CHE_0002</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell CHE_2</t>
-  </si>
-  <si>
     <t>comm-in</t>
   </si>
   <si>
     <t>efficiency</t>
   </si>
   <si>
+    <t>elc_won-CHE_0000,elc_spv-CHE_0000</t>
+  </si>
+  <si>
+    <t>e_CH51-220,e_CH51-225,e_CH51-400,e_CH52-220,e_CH57-220,e_CH57-225,e_w177392130-220,e_w177392130-400,e_w239937062-220</t>
+  </si>
+  <si>
+    <t>elc_won-CHE_0011,elc_spv-CHE_0011</t>
+  </si>
+  <si>
+    <t>e_CH46-220,e_CH47-220,e_w228003081-220,e_w391576135-220,e_w391577741-220,e_w969819301-220,e_w969819301-380</t>
+  </si>
+  <si>
+    <t>elc_won-CHE_0015,elc_spv-CHE_0015</t>
+  </si>
+  <si>
+    <t>e_CH50-220,e_CH56-220,e_CH58-220,e_CH59-220,e_w1327084723-220,e_w281800404-220,e_w281803398-220,e_w281815404-220,e_w35487135-220</t>
+  </si>
+  <si>
+    <t>elc_won-CHE_0025,elc_spv-CHE_0025</t>
+  </si>
+  <si>
+    <t>e_r7933294-380</t>
+  </si>
+  <si>
+    <t>elc_won-CHE_0002,elc_spv-CHE_0002</t>
+  </si>
+  <si>
+    <t>e_w232662311-220</t>
+  </si>
+  <si>
+    <t>elc_won-CHE_0007,elc_spv-CHE_0007</t>
+  </si>
+  <si>
+    <t>e_CH44-220,e_w212722603-220,e_w212722603-380,e_w236819191-220,e_w758943072-220</t>
+  </si>
+  <si>
+    <t>elc_won-CHE_0010,elc_spv-CHE_0010</t>
+  </si>
+  <si>
+    <t>e_CH11-220,e_w109037817-220,e_w109037817-380,e_w127004407-380,e_w127004407-400,e_w27435934-220,e_w30350721-220,e_w397960460-380,e_w397960460-400,e_w88901626-380</t>
+  </si>
+  <si>
+    <t>elc_won-CHE_0022,elc_spv-CHE_0022</t>
+  </si>
+  <si>
+    <t>e_CH4-220,e_CH9-220,e_w455120191-220,e_w83861269-220,e_w92798668-220,e_w92873516-220</t>
+  </si>
+  <si>
+    <t>elc_won-CHE_0017,elc_spv-CHE_0017</t>
+  </si>
+  <si>
+    <t>e_CH12-220,e_CH12-380,e_CH13-220,e_CH16-380,e_CH18-220,e_CH18-380,e_w192677427-220,e_w192677427-380,e_w52738225-220,e_w52738225-380</t>
+  </si>
+  <si>
+    <t>elc_won-CHE_0019,elc_spv-CHE_0019</t>
+  </si>
+  <si>
+    <t>e_CH45-220,e_w281804158-220,e_w281804158-380</t>
+  </si>
+  <si>
+    <t>elc_won-CHE_0023,elc_spv-CHE_0023</t>
+  </si>
+  <si>
+    <t>e_w207991759-380</t>
+  </si>
+  <si>
+    <t>elc_won-CHE_0003,elc_spv-CHE_0003</t>
+  </si>
+  <si>
+    <t>e_CH48-225,e_CH49-225,e_CH53-225,e_CH60-225,e_w234983117-220,e_w234983117-380,e_w238138373-380,e_w260211728-225,e_w260211728-380,e_w55698557-220,e_w55698557-225,e_w802058337-220,e_w802058337-225,e_w936521586-380</t>
+  </si>
+  <si>
+    <t>elc_won-CHE_0013,elc_spv-CHE_0013</t>
+  </si>
+  <si>
+    <t>e_CH15-220,e_w146225999-220,e_w159527493-220,e_w242269161-220,e_w281799252-220,e_w35002638-220,e_w35002638-380,e_w97941869-220</t>
+  </si>
+  <si>
+    <t>elc_won-CHE_0020,elc_spv-CHE_0020</t>
+  </si>
+  <si>
+    <t>e_CH21-220,e_CH22-220,e_CH22-380,e_CH29-220,e_CH29-380,e_CH41-380,e_w1208713169-220,e_w207993342-220,e_w207993342-380,e_w208780268-380,e_w212498548-220,e_w36348118-220,e_w365556107-220,e_w71500123-220,e_w71500123-380</t>
+  </si>
+  <si>
+    <t>elc_won-CHE_0001,elc_spv-CHE_0001</t>
+  </si>
+  <si>
+    <t>e_CH31-220,e_w132373704-220,e_w232662311-220,e_w44496892-220,e_w55695765-220</t>
+  </si>
+  <si>
+    <t>elc_won-CHE_0006,elc_spv-CHE_0006</t>
+  </si>
+  <si>
+    <t>e_w127004407-400</t>
+  </si>
+  <si>
     <t>elc_won-CHE_0024,elc_spv-CHE_0024</t>
   </si>
   <si>
@@ -995,82 +1091,16 @@
     <t>e_r5378910-220,e_w161853746-220</t>
   </si>
   <si>
-    <t>elc_won-CHE_0007,elc_spv-CHE_0007</t>
-  </si>
-  <si>
-    <t>e_CH44-220,e_w212722603-220,e_w212722603-380,e_w236819191-220,e_w758943072-220</t>
-  </si>
-  <si>
-    <t>elc_won-CHE_0003,elc_spv-CHE_0003</t>
-  </si>
-  <si>
-    <t>e_CH48-225,e_CH49-225,e_CH53-225,e_CH60-225,e_w234983117-220,e_w234983117-380,e_w238138373-380,e_w260211728-225,e_w260211728-380,e_w55698557-220,e_w55698557-225,e_w802058337-220,e_w802058337-225,e_w936521586-380</t>
-  </si>
-  <si>
-    <t>elc_won-CHE_0020,elc_spv-CHE_0020</t>
-  </si>
-  <si>
-    <t>e_CH21-220,e_CH22-220,e_CH22-380,e_CH29-220,e_CH29-380,e_CH41-380,e_w1208713169-220,e_w207993342-220,e_w207993342-380,e_w208780268-380,e_w212498548-220,e_w36348118-220,e_w365556107-220,e_w71500123-220,e_w71500123-380</t>
-  </si>
-  <si>
-    <t>elc_won-CHE_0001,elc_spv-CHE_0001</t>
-  </si>
-  <si>
-    <t>e_CH31-220,e_w132373704-220,e_w232662311-220,e_w44496892-220,e_w55695765-220</t>
-  </si>
-  <si>
-    <t>elc_won-CHE_0006,elc_spv-CHE_0006</t>
-  </si>
-  <si>
-    <t>e_w127004407-400</t>
-  </si>
-  <si>
-    <t>elc_won-CHE_0011,elc_spv-CHE_0011</t>
-  </si>
-  <si>
-    <t>e_CH46-220,e_CH47-220,e_w228003081-220,e_w391576135-220,e_w391577741-220,e_w969819301-220,e_w969819301-380</t>
-  </si>
-  <si>
-    <t>elc_won-CHE_0015,elc_spv-CHE_0015</t>
-  </si>
-  <si>
-    <t>e_CH50-220,e_CH56-220,e_CH58-220,e_CH59-220,e_w1327084723-220,e_w281800404-220,e_w281803398-220,e_w281815404-220,e_w35487135-220</t>
-  </si>
-  <si>
-    <t>elc_won-CHE_0025,elc_spv-CHE_0025</t>
-  </si>
-  <si>
-    <t>e_r7933294-380</t>
-  </si>
-  <si>
-    <t>elc_won-CHE_0013,elc_spv-CHE_0013</t>
-  </si>
-  <si>
-    <t>e_CH15-220,e_w146225999-220,e_w159527493-220,e_w242269161-220,e_w281799252-220,e_w35002638-220,e_w35002638-380,e_w97941869-220</t>
-  </si>
-  <si>
-    <t>elc_won-CHE_0017,elc_spv-CHE_0017</t>
-  </si>
-  <si>
-    <t>e_CH12-220,e_CH12-380,e_CH13-220,e_CH16-380,e_CH18-220,e_CH18-380,e_w192677427-220,e_w192677427-380,e_w52738225-220,e_w52738225-380</t>
-  </si>
-  <si>
-    <t>elc_won-CHE_0019,elc_spv-CHE_0019</t>
-  </si>
-  <si>
-    <t>e_CH45-220,e_w281804158-220,e_w281804158-380</t>
-  </si>
-  <si>
-    <t>elc_won-CHE_0023,elc_spv-CHE_0023</t>
-  </si>
-  <si>
-    <t>e_w207991759-380</t>
-  </si>
-  <si>
-    <t>elc_won-CHE_0000,elc_spv-CHE_0000</t>
-  </si>
-  <si>
-    <t>e_CH51-220,e_CH51-225,e_CH51-400,e_CH52-220,e_CH57-220,e_CH57-225,e_w177392130-220,e_w177392130-400,e_w239937062-220</t>
+    <t>elc_won-CHE_0014,elc_spv-CHE_0014</t>
+  </si>
+  <si>
+    <t>e_CH1-220,e_CH2-220,e_CH5-220,e_CH7-220,e_w108257952-220,e_w1284913429-220,e_w165513396-220,e_w165513396-380,e_w190819048-220,e_w27107779-220,e_w31308888-220,e_w33271433-220,e_w356292116-220,e_w356292116-380,e_w35840165-380,e_w50319857-220,e_w50319857-380,e_w50319857-400,e_w89405664-220,e_w89977424-220,e_w98648381-220,e_w98648381-380</t>
+  </si>
+  <si>
+    <t>elc_won-CHE_0018,elc_spv-CHE_0018</t>
+  </si>
+  <si>
+    <t>e_CH3-220,e_CH6-220,e_r9310861-220,e_w11282314-220,e_w147714395-220,e_w147714395-380,e_w148015471-220,e_w22899676-220,e_w240575085-220,e_w26843160-220,e_w281809991-220,e_w50561341-220,e_w87281514-220</t>
   </si>
   <si>
     <t>elc_won-CHE_0012,elc_spv-CHE_0012</t>
@@ -1079,30 +1109,6 @@
     <t>e_CH19-220,e_CH20-220,e_CH25-220,e_CH27-220,e_CH34-220,e_CH34-380,e_CH35-220,e_CH36-220,e_CH38-220,e_CH39-220,e_CH40-220,e_w1086214433-220,e_w1092884227-220,e_w240959264-220,e_w364949845-220,e_w364949845-380</t>
   </si>
   <si>
-    <t>elc_won-CHE_0010,elc_spv-CHE_0010</t>
-  </si>
-  <si>
-    <t>e_CH11-220,e_w109037817-220,e_w109037817-380,e_w127004407-380,e_w127004407-400,e_w27435934-220,e_w30350721-220,e_w397960460-380,e_w397960460-400,e_w88901626-380</t>
-  </si>
-  <si>
-    <t>elc_won-CHE_0022,elc_spv-CHE_0022</t>
-  </si>
-  <si>
-    <t>e_CH4-220,e_CH9-220,e_w455120191-220,e_w83861269-220,e_w92798668-220,e_w92873516-220</t>
-  </si>
-  <si>
-    <t>elc_won-CHE_0014,elc_spv-CHE_0014</t>
-  </si>
-  <si>
-    <t>e_CH1-220,e_CH2-220,e_CH5-220,e_CH7-220,e_w108257952-220,e_w1284913429-220,e_w165513396-220,e_w165513396-380,e_w190819048-220,e_w27107779-220,e_w31308888-220,e_w33271433-220,e_w356292116-220,e_w356292116-380,e_w35840165-380,e_w50319857-220,e_w50319857-380,e_w50319857-400,e_w89405664-220,e_w89977424-220,e_w98648381-220,e_w98648381-380</t>
-  </si>
-  <si>
-    <t>elc_won-CHE_0018,elc_spv-CHE_0018</t>
-  </si>
-  <si>
-    <t>e_CH3-220,e_CH6-220,e_r9310861-220,e_w11282314-220,e_w147714395-220,e_w147714395-380,e_w148015471-220,e_w22899676-220,e_w240575085-220,e_w26843160-220,e_w281809991-220,e_w50561341-220,e_w87281514-220</t>
-  </si>
-  <si>
     <t>elc_won-CHE_0009,elc_spv-CHE_0009</t>
   </si>
   <si>
@@ -1119,12 +1125,6 @@
   </si>
   <si>
     <t>e_w111162936-220,e_w111162936-380,e_w111162936-400,e_w122720993-220,e_w194258388-220</t>
-  </si>
-  <si>
-    <t>elc_won-CHE_0002,elc_spv-CHE_0002</t>
-  </si>
-  <si>
-    <t>e_w232662311-220</t>
   </si>
   <si>
     <t>e_won-CHE_0000</t>
@@ -1803,7 +1803,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6A8E5784-0BE7-F4C5-3C33-D17A4D41FB81}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DFE90A40-6568-31B7-CB01-C07A1E9A75B4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1858,7 +1858,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1F55ECA2-874F-77B6-8D30-223F171D73E3}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D4C1AF8C-633A-9EB6-313F-E38C1CCB4C76}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1913,7 +1913,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{823F9393-DE57-4A9B-1C71-BF2F4FC002DC}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{72DF9E42-3C51-2EA2-F33E-262F3EED6543}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1968,7 +1968,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0E35166-367B-7711-1A18-FC16CAB116D9}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2EB81723-8901-7B1F-CCFD-C67548C9BC2E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2269,7 +2269,7 @@
   <dimension ref="B2:T18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L3" sqref="L3"/>
+      <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -2294,7 +2294,7 @@
         <v>0</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="N2" s="1"/>
       <c r="O2" s="1"/>
@@ -2336,7 +2336,7 @@
         <v>5</v>
       </c>
       <c r="O3" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="P3" s="1">
         <v>2022</v>
@@ -2418,7 +2418,7 @@
         <v>20</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>106</v>
       </c>
       <c r="D6" s="1"/>
       <c r="E6" s="1" t="s">
@@ -2432,7 +2432,7 @@
       <c r="I6" s="1"/>
       <c r="J6" s="1" t="str">
         <f>C6</f>
-        <v>elc_demand</v>
+        <v>e_demand</v>
       </c>
       <c r="K6" s="1" t="s">
         <v>19</v>
@@ -2450,15 +2450,15 @@
       <c r="P6" s="1"/>
       <c r="Q6" s="1"/>
       <c r="T6" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="7" spans="2:20">
       <c r="B7" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>31</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>32</v>
       </c>
       <c r="D7" s="1"/>
       <c r="E7" s="1" t="s">
@@ -2476,7 +2476,7 @@
       </c>
       <c r="K7" s="1"/>
       <c r="L7" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="M7" s="1"/>
       <c r="N7" s="1"/>
@@ -2491,10 +2491,10 @@
     </row>
     <row r="8" spans="2:20">
       <c r="B8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C8" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D8" s="1"/>
       <c r="E8" s="1" t="s">
@@ -2508,7 +2508,7 @@
       <c r="I8" s="1"/>
       <c r="K8" s="1"/>
       <c r="L8" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M8" s="1"/>
       <c r="N8" s="1"/>
@@ -2523,10 +2523,10 @@
     </row>
     <row r="9" spans="2:20">
       <c r="B9" t="s">
+        <v>99</v>
+      </c>
+      <c r="C9" t="s">
         <v>101</v>
-      </c>
-      <c r="C9" t="s">
-        <v>103</v>
       </c>
       <c r="D9" s="1"/>
       <c r="E9" s="1" t="s">
@@ -2540,7 +2540,7 @@
       <c r="I9" s="1"/>
       <c r="K9" s="1"/>
       <c r="L9" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="M9" s="1"/>
       <c r="N9" s="1"/>
@@ -2565,7 +2565,7 @@
       <c r="J10" s="1"/>
       <c r="K10" s="1"/>
       <c r="L10" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="M10" s="1"/>
       <c r="N10" s="1"/>
@@ -2590,7 +2590,7 @@
       <c r="J11" s="1"/>
       <c r="K11" s="1"/>
       <c r="L11" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="M11" s="1"/>
       <c r="N11" s="1"/>
@@ -2615,7 +2615,7 @@
       <c r="J12" s="1"/>
       <c r="K12" s="1"/>
       <c r="L12" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="M12" s="1"/>
       <c r="N12" s="1"/>
@@ -2640,7 +2640,7 @@
       <c r="J13" s="1"/>
       <c r="K13" s="1"/>
       <c r="L13" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="M13" s="1"/>
       <c r="N13" s="1"/>
@@ -2665,7 +2665,7 @@
       <c r="J14" s="1"/>
       <c r="K14" s="1"/>
       <c r="L14" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M14" s="1"/>
       <c r="N14" s="1"/>
@@ -2690,7 +2690,7 @@
       <c r="J15" s="1"/>
       <c r="K15" s="1"/>
       <c r="L15" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="M15" s="1"/>
       <c r="N15" s="1"/>
@@ -2715,7 +2715,7 @@
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
       <c r="L16" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="M16" s="1"/>
       <c r="N16" s="1"/>
@@ -2867,7 +2867,7 @@
         <v>111</v>
       </c>
       <c r="J4" s="30" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K4" s="30" t="s">
         <v>19</v>
@@ -2901,7 +2901,7 @@
         <v>114</v>
       </c>
       <c r="J5" s="31" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K5" s="31" t="s">
         <v>19</v>
@@ -2935,7 +2935,7 @@
         <v>116</v>
       </c>
       <c r="J6" s="30" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K6" s="30" t="s">
         <v>19</v>
@@ -2959,7 +2959,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FD6D8AA-F8A9-4BBE-94C7-C767CA3BCC03}">
   <dimension ref="B2:W61"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.86328125" defaultRowHeight="14.25"/>
   <cols>
@@ -2987,7 +2989,7 @@
   <sheetData>
     <row r="2" spans="2:23">
       <c r="B2" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
@@ -2999,42 +3001,42 @@
     </row>
     <row r="3" spans="2:23">
       <c r="B3" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="D3" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="E3" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F3" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="E3" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="F3" s="3" t="s">
+      <c r="G3" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="H3" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="I3" s="3" t="s">
         <v>46</v>
-      </c>
-      <c r="I3" s="3" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="4" spans="2:23">
       <c r="B4" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="D4" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="E4" s="3" t="s">
         <v>50</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>51</v>
       </c>
       <c r="F4" s="3"/>
       <c r="G4" s="5" t="s">
@@ -3045,13 +3047,13 @@
     </row>
     <row r="5" spans="2:23">
       <c r="C5" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D5" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="D5" s="3" t="s">
-        <v>53</v>
-      </c>
       <c r="E5" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F5" s="3"/>
       <c r="G5" s="5" t="s">
@@ -3073,7 +3075,7 @@
       <c r="K8" s="6"/>
       <c r="L8" s="6"/>
       <c r="M8" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="O8" s="6"/>
       <c r="P8" s="6"/>
@@ -3096,10 +3098,10 @@
         <v>7</v>
       </c>
       <c r="E9" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="F9" s="5" t="s">
         <v>55</v>
-      </c>
-      <c r="F9" s="5" t="s">
-        <v>56</v>
       </c>
       <c r="G9" s="5" t="s">
         <v>11</v>
@@ -3109,16 +3111,16 @@
         <v>1</v>
       </c>
       <c r="J9" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="K9" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="K9" s="6" t="s">
+      <c r="L9" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="M9" s="7" t="s">
         <v>58</v>
-      </c>
-      <c r="L9" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="M9" s="7" t="s">
-        <v>59</v>
       </c>
       <c r="N9" s="6">
         <f>J35</f>
@@ -3152,24 +3154,24 @@
         <v>3</v>
       </c>
       <c r="V9" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="W9" t="s">
         <v>60</v>
-      </c>
-      <c r="W9" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="10" spans="2:23">
       <c r="B10" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="C10" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="D10" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="D10" s="8" t="s">
-        <v>64</v>
-      </c>
       <c r="E10" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F10" s="5" t="s">
         <v>10</v>
@@ -3179,13 +3181,13 @@
       </c>
       <c r="H10" s="6"/>
       <c r="I10" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="J10" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="J10" s="6" t="s">
-        <v>66</v>
-      </c>
       <c r="K10" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="L10" s="3" t="s">
         <v>19</v>
@@ -3215,13 +3217,13 @@
     <row r="11" spans="2:23">
       <c r="B11" s="5"/>
       <c r="C11" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F11" s="5" t="s">
         <v>10</v>
@@ -3231,13 +3233,13 @@
       </c>
       <c r="H11" s="6"/>
       <c r="I11" s="6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J11" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="K11" s="6" t="s">
         <v>68</v>
-      </c>
-      <c r="K11" s="6" t="s">
-        <v>69</v>
       </c>
       <c r="L11" s="6" t="s">
         <v>19</v>
@@ -3269,13 +3271,13 @@
       <c r="G12" s="5"/>
       <c r="H12" s="6"/>
       <c r="I12" s="6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J12" s="6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="K12" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="L12" s="6"/>
       <c r="M12" s="7" t="s">
@@ -3302,10 +3304,10 @@
       <c r="G13" s="5"/>
       <c r="H13" s="6"/>
       <c r="I13" s="6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J13" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="K13" s="6"/>
       <c r="L13" s="6"/>
@@ -3343,10 +3345,10 @@
     </row>
     <row r="14" spans="2:23">
       <c r="I14" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J14" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="N14" s="4">
         <f>J44</f>
@@ -3379,10 +3381,10 @@
     </row>
     <row r="15" spans="2:23">
       <c r="I15" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J15" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="M15" t="s">
         <v>18</v>
@@ -3399,10 +3401,10 @@
     </row>
     <row r="16" spans="2:23">
       <c r="I16" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J16" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="N16" s="9">
         <v>31.536000000000001</v>
@@ -3416,10 +3418,10 @@
     </row>
     <row r="17" spans="9:23">
       <c r="I17" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J17" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="N17" s="4">
         <v>0.85</v>
@@ -3433,13 +3435,13 @@
     </row>
     <row r="18" spans="9:23">
       <c r="I18" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="K18" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="L18" s="3" t="s">
         <v>19</v>
@@ -3468,13 +3470,13 @@
     </row>
     <row r="19" spans="9:23">
       <c r="I19" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J19" t="s">
+        <v>67</v>
+      </c>
+      <c r="K19" t="s">
         <v>68</v>
-      </c>
-      <c r="K19" t="s">
-        <v>69</v>
       </c>
       <c r="L19" t="s">
         <v>19</v>
@@ -3499,13 +3501,13 @@
     </row>
     <row r="20" spans="9:23">
       <c r="I20" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J20" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="K20" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="M20" t="s">
         <v>14</v>
@@ -3522,10 +3524,10 @@
     </row>
     <row r="21" spans="9:23">
       <c r="I21" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J21" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="N21" s="4">
         <f>J49</f>
@@ -3558,10 +3560,10 @@
     </row>
     <row r="22" spans="9:23">
       <c r="I22" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J22" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="N22" s="4">
         <f>J53</f>
@@ -3594,10 +3596,10 @@
     </row>
     <row r="23" spans="9:23">
       <c r="I23" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J23" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="M23" t="s">
         <v>18</v>
@@ -3614,10 +3616,10 @@
     </row>
     <row r="24" spans="9:23">
       <c r="I24" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J24" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="N24" s="9">
         <v>31.536000000000001</v>
@@ -3631,10 +3633,10 @@
     </row>
     <row r="25" spans="9:23">
       <c r="I25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J25" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="N25" s="4">
         <v>0.85</v>
@@ -3648,7 +3650,7 @@
     </row>
     <row r="31" spans="9:23" ht="15.75">
       <c r="I31" s="10" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J31" s="11"/>
       <c r="K31" s="11"/>
@@ -3660,7 +3662,7 @@
     </row>
     <row r="32" spans="9:23" ht="15.75">
       <c r="I32" s="10" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="J32" s="11"/>
       <c r="K32" s="11"/>
@@ -3682,7 +3684,7 @@
     </row>
     <row r="34" spans="9:16" ht="15.75">
       <c r="I34" s="13" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="J34" s="14"/>
       <c r="K34" s="14"/>
@@ -3718,7 +3720,7 @@
     </row>
     <row r="36" spans="9:16" ht="15.75">
       <c r="I36" s="15" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="J36" s="14"/>
       <c r="K36" s="14"/>
@@ -3730,7 +3732,7 @@
     </row>
     <row r="37" spans="9:16" ht="15.75">
       <c r="I37" s="13" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="J37" s="14"/>
       <c r="K37" s="14"/>
@@ -3742,7 +3744,7 @@
     </row>
     <row r="38" spans="9:16" ht="15.75">
       <c r="I38" s="14" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="J38" s="16">
         <v>1363</v>
@@ -3768,7 +3770,7 @@
     </row>
     <row r="39" spans="9:16" ht="15.75">
       <c r="I39" s="14" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J39" s="16">
         <v>1363</v>
@@ -3794,7 +3796,7 @@
     </row>
     <row r="40" spans="9:16" ht="15.75">
       <c r="I40" s="14" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J40" s="16">
         <v>1363</v>
@@ -3820,7 +3822,7 @@
     </row>
     <row r="41" spans="9:16" ht="15.75">
       <c r="I41" s="13" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J41" s="17"/>
       <c r="K41" s="17"/>
@@ -3832,7 +3834,7 @@
     </row>
     <row r="42" spans="9:16" ht="15.75">
       <c r="I42" s="14" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="J42" s="18">
         <v>34</v>
@@ -3858,7 +3860,7 @@
     </row>
     <row r="43" spans="9:16" ht="15.75">
       <c r="I43" s="14" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J43" s="18">
         <v>34</v>
@@ -3884,7 +3886,7 @@
     </row>
     <row r="44" spans="9:16" ht="15.75">
       <c r="I44" s="14" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J44" s="18">
         <v>34</v>
@@ -3910,7 +3912,7 @@
     </row>
     <row r="45" spans="9:16" ht="15.75">
       <c r="I45" s="15" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J45" s="17"/>
       <c r="K45" s="17"/>
@@ -3922,7 +3924,7 @@
     </row>
     <row r="46" spans="9:16" ht="15.75">
       <c r="I46" s="13" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="J46" s="17"/>
       <c r="K46" s="17"/>
@@ -3934,7 +3936,7 @@
     </row>
     <row r="47" spans="9:16" ht="15.75">
       <c r="I47" s="14" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="J47" s="16">
         <v>2470</v>
@@ -3960,7 +3962,7 @@
     </row>
     <row r="48" spans="9:16" ht="15.75">
       <c r="I48" s="14" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J48" s="16">
         <v>2470</v>
@@ -3986,7 +3988,7 @@
     </row>
     <row r="49" spans="9:16" ht="15.75">
       <c r="I49" s="14" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J49" s="16">
         <v>2470</v>
@@ -4012,7 +4014,7 @@
     </row>
     <row r="50" spans="9:16" ht="15.75">
       <c r="I50" s="13" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J50" s="17"/>
       <c r="K50" s="17"/>
@@ -4024,7 +4026,7 @@
     </row>
     <row r="51" spans="9:16" ht="15.75">
       <c r="I51" s="14" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="J51" s="18">
         <v>62</v>
@@ -4050,7 +4052,7 @@
     </row>
     <row r="52" spans="9:16" ht="15.75">
       <c r="I52" s="14" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J52" s="18">
         <v>62</v>
@@ -4076,7 +4078,7 @@
     </row>
     <row r="53" spans="9:16" ht="15.75">
       <c r="I53" s="14" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J53" s="18">
         <v>62</v>
@@ -4112,7 +4114,7 @@
     </row>
     <row r="55" spans="9:16" ht="15.75">
       <c r="I55" s="11" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J55" s="11">
         <v>0.85</v>
@@ -4126,7 +4128,7 @@
     </row>
     <row r="56" spans="9:16" ht="15.75">
       <c r="I56" s="11" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J56" s="11"/>
       <c r="K56" s="11"/>
@@ -4138,7 +4140,7 @@
     </row>
     <row r="57" spans="9:16" ht="15.75">
       <c r="I57" s="11" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J57" s="11"/>
       <c r="K57" s="11"/>
@@ -4199,7 +4201,7 @@
   <dimension ref="B3:Y8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N6" sqref="N6"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -4236,7 +4238,7 @@
       <c r="F3" s="23"/>
       <c r="G3" s="23"/>
       <c r="H3" s="23" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="I3" s="23"/>
       <c r="J3" s="23"/>
@@ -4269,16 +4271,16 @@
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G4" t="s">
+        <v>88</v>
+      </c>
+      <c r="H4" t="s">
         <v>89</v>
-      </c>
-      <c r="H4" t="s">
-        <v>90</v>
       </c>
       <c r="I4">
         <v>2030</v>
@@ -4287,22 +4289,22 @@
         <v>0</v>
       </c>
       <c r="K4" s="23" t="s">
+        <v>90</v>
+      </c>
+      <c r="L4" s="23" t="s">
         <v>91</v>
       </c>
-      <c r="L4" s="23" t="s">
+      <c r="M4" s="23" t="s">
+        <v>60</v>
+      </c>
+      <c r="N4" s="23" t="s">
+        <v>103</v>
+      </c>
+      <c r="O4" s="23" t="s">
         <v>92</v>
       </c>
-      <c r="M4" s="23" t="s">
-        <v>61</v>
-      </c>
-      <c r="N4" s="23" t="s">
-        <v>105</v>
-      </c>
-      <c r="O4" s="23" t="s">
+      <c r="P4" s="23" t="s">
         <v>93</v>
-      </c>
-      <c r="P4" s="23" t="s">
-        <v>94</v>
       </c>
       <c r="Q4" s="23"/>
       <c r="R4" s="23" t="s">
@@ -4315,30 +4317,30 @@
         <v>7</v>
       </c>
       <c r="U4" s="23" t="s">
+        <v>54</v>
+      </c>
+      <c r="V4" s="23" t="s">
         <v>55</v>
-      </c>
-      <c r="V4" s="23" t="s">
-        <v>56</v>
       </c>
       <c r="W4" s="23" t="s">
         <v>11</v>
       </c>
       <c r="X4" s="23" t="s">
+        <v>94</v>
+      </c>
+      <c r="Y4" s="23" t="s">
         <v>95</v>
       </c>
-      <c r="Y4" s="23" t="s">
-        <v>96</v>
-      </c>
     </row>
     <row r="5" spans="2:25">
-      <c r="B5" s="23" t="s">
-        <v>98</v>
+      <c r="B5" t="s">
+        <v>105</v>
       </c>
       <c r="C5" t="s">
         <v>19</v>
       </c>
       <c r="F5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K5" s="23">
         <v>0.90249999999999997</v>
@@ -4361,14 +4363,14 @@
       </c>
       <c r="Q5" s="23"/>
       <c r="R5" s="23" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="S5" s="23" t="str">
         <f>B5</f>
-        <v>EV_Battery</v>
+        <v>ev_battery</v>
       </c>
       <c r="T5" s="23" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="U5" s="23" t="s">
         <v>21</v>
@@ -4385,7 +4387,7 @@
     <row r="6" spans="2:25">
       <c r="B6" s="23"/>
       <c r="F6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K6" s="23"/>
       <c r="L6" s="24">
@@ -4408,10 +4410,10 @@
     <row r="7" spans="2:25">
       <c r="B7" s="23"/>
       <c r="D7" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K7" s="23"/>
       <c r="L7" s="23"/>
@@ -4441,7 +4443,7 @@
         <v>AuxStoIN</v>
       </c>
       <c r="H8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I8">
         <v>1</v>
@@ -4471,7 +4473,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1C34107-A4FA-41A2-BB44-298D61C7FCE2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA8ED6DB-F5DB-4406-A181-E9533E2DCBB0}">
   <dimension ref="A1:AG28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4682,7 +4684,7 @@
         <v>1</v>
       </c>
       <c r="AG4" s="30" t="s">
-        <v>216</v>
+        <v>184</v>
       </c>
     </row>
     <row r="5" spans="1:33">
@@ -4759,7 +4761,7 @@
         <v>1</v>
       </c>
       <c r="AG5" s="31" t="s">
-        <v>230</v>
+        <v>190</v>
       </c>
     </row>
     <row r="6" spans="1:33">
@@ -4836,7 +4838,7 @@
         <v>1</v>
       </c>
       <c r="AG6" s="30" t="s">
-        <v>224</v>
+        <v>198</v>
       </c>
     </row>
     <row r="7" spans="1:33">
@@ -4913,7 +4915,7 @@
         <v>1</v>
       </c>
       <c r="AG7" s="31" t="s">
-        <v>228</v>
+        <v>218</v>
       </c>
     </row>
     <row r="8" spans="1:33">
@@ -4990,7 +4992,7 @@
         <v>1</v>
       </c>
       <c r="AG8" s="30" t="s">
-        <v>220</v>
+        <v>206</v>
       </c>
     </row>
     <row r="9" spans="1:33">
@@ -5067,7 +5069,7 @@
         <v>1</v>
       </c>
       <c r="AG9" s="31" t="s">
-        <v>208</v>
+        <v>228</v>
       </c>
     </row>
     <row r="10" spans="1:33">
@@ -5144,7 +5146,7 @@
         <v>1</v>
       </c>
       <c r="AG10" s="30" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
     </row>
     <row r="11" spans="1:33">
@@ -5221,7 +5223,7 @@
         <v>1</v>
       </c>
       <c r="AG11" s="31" t="s">
-        <v>226</v>
+        <v>212</v>
       </c>
     </row>
     <row r="12" spans="1:33">
@@ -5298,7 +5300,7 @@
         <v>1</v>
       </c>
       <c r="AG12" s="30" t="s">
-        <v>190</v>
+        <v>200</v>
       </c>
     </row>
     <row r="13" spans="1:33">
@@ -5375,7 +5377,7 @@
         <v>1</v>
       </c>
       <c r="AG13" s="31" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
     </row>
     <row r="14" spans="1:33">
@@ -5452,7 +5454,7 @@
         <v>1</v>
       </c>
       <c r="AG14" s="30" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
     </row>
     <row r="15" spans="1:33">
@@ -5529,7 +5531,7 @@
         <v>1</v>
       </c>
       <c r="AG15" s="31" t="s">
-        <v>194</v>
+        <v>220</v>
       </c>
     </row>
     <row r="16" spans="1:33">
@@ -5606,7 +5608,7 @@
         <v>1</v>
       </c>
       <c r="AG16" s="30" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
     </row>
     <row r="17" spans="2:33">
@@ -5683,7 +5685,7 @@
         <v>1</v>
       </c>
       <c r="AG17" s="31" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
     </row>
     <row r="18" spans="2:33">
@@ -5760,7 +5762,7 @@
         <v>1</v>
       </c>
       <c r="AG18" s="30" t="s">
-        <v>214</v>
+        <v>186</v>
       </c>
     </row>
     <row r="19" spans="2:33">
@@ -5837,7 +5839,7 @@
         <v>1</v>
       </c>
       <c r="AG19" s="31" t="s">
-        <v>184</v>
+        <v>226</v>
       </c>
     </row>
     <row r="20" spans="2:33">
@@ -5914,7 +5916,7 @@
         <v>1</v>
       </c>
       <c r="AG20" s="30" t="s">
-        <v>192</v>
+        <v>216</v>
       </c>
     </row>
     <row r="21" spans="2:33">
@@ -5991,7 +5993,7 @@
         <v>1</v>
       </c>
       <c r="AG21" s="31" t="s">
-        <v>188</v>
+        <v>230</v>
       </c>
     </row>
     <row r="22" spans="2:33">
@@ -6068,7 +6070,7 @@
         <v>1</v>
       </c>
       <c r="AG22" s="30" t="s">
-        <v>212</v>
+        <v>224</v>
       </c>
     </row>
     <row r="23" spans="2:33">
@@ -6299,7 +6301,7 @@
         <v>1</v>
       </c>
       <c r="AG25" s="31" t="s">
-        <v>232</v>
+        <v>192</v>
       </c>
     </row>
     <row r="26" spans="2:33">
@@ -6376,7 +6378,7 @@
         <v>1</v>
       </c>
       <c r="AG26" s="30" t="s">
-        <v>210</v>
+        <v>232</v>
       </c>
     </row>
     <row r="27" spans="2:33">
@@ -6453,7 +6455,7 @@
         <v>1</v>
       </c>
       <c r="AG27" s="31" t="s">
-        <v>222</v>
+        <v>210</v>
       </c>
     </row>
     <row r="28" spans="2:33">
@@ -6530,7 +6532,7 @@
         <v>1</v>
       </c>
       <c r="AG28" s="30" t="s">
-        <v>206</v>
+        <v>222</v>
       </c>
     </row>
   </sheetData>
@@ -6543,7 +6545,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7396BFA1-A32C-48F8-9726-6686ADC6566D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0154C7DB-E3E7-4F2B-9C87-C4BD3AFA1012}">
   <dimension ref="A1:O29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7621,7 +7623,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{501058AB-0F6F-4823-A7D5-E138F8464F98}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DDD62E59-EE38-4783-AF91-7E483830F1B6}">
   <dimension ref="A1:Q66"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -7679,7 +7681,7 @@
         <v>2050</v>
       </c>
       <c r="H3" s="29" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K3" s="29" t="s">
         <v>123</v>
@@ -7708,7 +7710,7 @@
         <v>419</v>
       </c>
       <c r="C4" s="30" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D4" s="30" t="s">
         <v>19</v>
@@ -7750,7 +7752,7 @@
         <v>419</v>
       </c>
       <c r="C5" s="31" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D5" s="31" t="s">
         <v>19</v>
@@ -7792,7 +7794,7 @@
         <v>419</v>
       </c>
       <c r="C6" s="30" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D6" s="30" t="s">
         <v>19</v>
@@ -7834,7 +7836,7 @@
         <v>419</v>
       </c>
       <c r="C7" s="31" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D7" s="31" t="s">
         <v>19</v>
@@ -7876,7 +7878,7 @@
         <v>419</v>
       </c>
       <c r="C8" s="30" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D8" s="30" t="s">
         <v>19</v>
@@ -7918,7 +7920,7 @@
         <v>424</v>
       </c>
       <c r="C9" s="31" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D9" s="31" t="s">
         <v>19</v>
@@ -7960,7 +7962,7 @@
         <v>424</v>
       </c>
       <c r="C10" s="30" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D10" s="30" t="s">
         <v>19</v>
@@ -8002,7 +8004,7 @@
         <v>424</v>
       </c>
       <c r="C11" s="31" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D11" s="31" t="s">
         <v>19</v>
@@ -8044,7 +8046,7 @@
         <v>424</v>
       </c>
       <c r="C12" s="30" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D12" s="30" t="s">
         <v>19</v>
@@ -8086,7 +8088,7 @@
         <v>424</v>
       </c>
       <c r="C13" s="31" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D13" s="31" t="s">
         <v>19</v>
@@ -8128,7 +8130,7 @@
         <v>425</v>
       </c>
       <c r="C14" s="30" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D14" s="30" t="s">
         <v>19</v>
@@ -8170,7 +8172,7 @@
         <v>425</v>
       </c>
       <c r="C15" s="31" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D15" s="31" t="s">
         <v>19</v>
@@ -8212,7 +8214,7 @@
         <v>425</v>
       </c>
       <c r="C16" s="30" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D16" s="30" t="s">
         <v>19</v>
@@ -8254,7 +8256,7 @@
         <v>426</v>
       </c>
       <c r="C17" s="31" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D17" s="31" t="s">
         <v>19</v>
@@ -8296,7 +8298,7 @@
         <v>426</v>
       </c>
       <c r="C18" s="30" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D18" s="30" t="s">
         <v>19</v>
@@ -8338,7 +8340,7 @@
         <v>426</v>
       </c>
       <c r="C19" s="31" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D19" s="31" t="s">
         <v>19</v>
@@ -8380,7 +8382,7 @@
         <v>427</v>
       </c>
       <c r="C20" s="30" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D20" s="30" t="s">
         <v>19</v>
@@ -8422,7 +8424,7 @@
         <v>427</v>
       </c>
       <c r="C21" s="31" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D21" s="31" t="s">
         <v>19</v>
@@ -8445,7 +8447,7 @@
         <v>427</v>
       </c>
       <c r="C22" s="30" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D22" s="30" t="s">
         <v>19</v>
@@ -8468,7 +8470,7 @@
         <v>428</v>
       </c>
       <c r="C23" s="31" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D23" s="31" t="s">
         <v>19</v>
@@ -8491,7 +8493,7 @@
         <v>428</v>
       </c>
       <c r="C24" s="30" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D24" s="30" t="s">
         <v>19</v>
@@ -8514,7 +8516,7 @@
         <v>428</v>
       </c>
       <c r="C25" s="31" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D25" s="31" t="s">
         <v>19</v>
@@ -8537,7 +8539,7 @@
         <v>429</v>
       </c>
       <c r="C26" s="30" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D26" s="30" t="s">
         <v>19</v>
@@ -8560,7 +8562,7 @@
         <v>429</v>
       </c>
       <c r="C27" s="31" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D27" s="31" t="s">
         <v>19</v>
@@ -8583,7 +8585,7 @@
         <v>429</v>
       </c>
       <c r="C28" s="30" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D28" s="30" t="s">
         <v>19</v>
@@ -8606,7 +8608,7 @@
         <v>429</v>
       </c>
       <c r="C29" s="31" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D29" s="31" t="s">
         <v>19</v>
@@ -8629,7 +8631,7 @@
         <v>429</v>
       </c>
       <c r="C30" s="30" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D30" s="30" t="s">
         <v>19</v>
@@ -8652,7 +8654,7 @@
         <v>430</v>
       </c>
       <c r="C31" s="31" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D31" s="31" t="s">
         <v>19</v>
@@ -8675,7 +8677,7 @@
         <v>430</v>
       </c>
       <c r="C32" s="30" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D32" s="30" t="s">
         <v>19</v>
@@ -8698,7 +8700,7 @@
         <v>430</v>
       </c>
       <c r="C33" s="31" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D33" s="31" t="s">
         <v>19</v>
@@ -8721,7 +8723,7 @@
         <v>431</v>
       </c>
       <c r="C34" s="30" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D34" s="30" t="s">
         <v>19</v>
@@ -8744,7 +8746,7 @@
         <v>431</v>
       </c>
       <c r="C35" s="31" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D35" s="31" t="s">
         <v>19</v>
@@ -8767,7 +8769,7 @@
         <v>431</v>
       </c>
       <c r="C36" s="30" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D36" s="30" t="s">
         <v>19</v>
@@ -8790,7 +8792,7 @@
         <v>432</v>
       </c>
       <c r="C37" s="31" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D37" s="31" t="s">
         <v>19</v>
@@ -8813,7 +8815,7 @@
         <v>432</v>
       </c>
       <c r="C38" s="30" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D38" s="30" t="s">
         <v>19</v>
@@ -8836,7 +8838,7 @@
         <v>432</v>
       </c>
       <c r="C39" s="31" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D39" s="31" t="s">
         <v>19</v>
@@ -8859,7 +8861,7 @@
         <v>433</v>
       </c>
       <c r="C40" s="30" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D40" s="30" t="s">
         <v>19</v>
@@ -8882,7 +8884,7 @@
         <v>433</v>
       </c>
       <c r="C41" s="31" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D41" s="31" t="s">
         <v>19</v>
@@ -8905,7 +8907,7 @@
         <v>433</v>
       </c>
       <c r="C42" s="30" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D42" s="30" t="s">
         <v>19</v>
@@ -8928,7 +8930,7 @@
         <v>434</v>
       </c>
       <c r="C43" s="31" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D43" s="31" t="s">
         <v>19</v>
@@ -8951,7 +8953,7 @@
         <v>434</v>
       </c>
       <c r="C44" s="30" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D44" s="30" t="s">
         <v>19</v>
@@ -8974,7 +8976,7 @@
         <v>434</v>
       </c>
       <c r="C45" s="31" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D45" s="31" t="s">
         <v>19</v>
@@ -8997,7 +8999,7 @@
         <v>434</v>
       </c>
       <c r="C46" s="30" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D46" s="30" t="s">
         <v>19</v>
@@ -9020,7 +9022,7 @@
         <v>434</v>
       </c>
       <c r="C47" s="31" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D47" s="31" t="s">
         <v>19</v>
@@ -9043,7 +9045,7 @@
         <v>435</v>
       </c>
       <c r="C48" s="30" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D48" s="30" t="s">
         <v>19</v>
@@ -9066,7 +9068,7 @@
         <v>435</v>
       </c>
       <c r="C49" s="31" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D49" s="31" t="s">
         <v>19</v>
@@ -9089,7 +9091,7 @@
         <v>435</v>
       </c>
       <c r="C50" s="30" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D50" s="30" t="s">
         <v>19</v>
@@ -9112,7 +9114,7 @@
         <v>436</v>
       </c>
       <c r="C51" s="31" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D51" s="31" t="s">
         <v>19</v>
@@ -9135,7 +9137,7 @@
         <v>436</v>
       </c>
       <c r="C52" s="30" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D52" s="30" t="s">
         <v>19</v>
@@ -9158,7 +9160,7 @@
         <v>436</v>
       </c>
       <c r="C53" s="31" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D53" s="31" t="s">
         <v>19</v>
@@ -9181,7 +9183,7 @@
         <v>437</v>
       </c>
       <c r="C54" s="30" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D54" s="30" t="s">
         <v>19</v>
@@ -9204,7 +9206,7 @@
         <v>437</v>
       </c>
       <c r="C55" s="31" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D55" s="31" t="s">
         <v>19</v>
@@ -9227,7 +9229,7 @@
         <v>437</v>
       </c>
       <c r="C56" s="30" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D56" s="30" t="s">
         <v>19</v>
@@ -9250,7 +9252,7 @@
         <v>438</v>
       </c>
       <c r="C57" s="31" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D57" s="31" t="s">
         <v>19</v>
@@ -9273,7 +9275,7 @@
         <v>438</v>
       </c>
       <c r="C58" s="30" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D58" s="30" t="s">
         <v>19</v>
@@ -9296,7 +9298,7 @@
         <v>438</v>
       </c>
       <c r="C59" s="31" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D59" s="31" t="s">
         <v>19</v>
@@ -9319,7 +9321,7 @@
         <v>438</v>
       </c>
       <c r="C60" s="30" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D60" s="30" t="s">
         <v>19</v>
@@ -9342,7 +9344,7 @@
         <v>438</v>
       </c>
       <c r="C61" s="31" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D61" s="31" t="s">
         <v>19</v>
@@ -9365,7 +9367,7 @@
         <v>439</v>
       </c>
       <c r="C62" s="30" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D62" s="30" t="s">
         <v>19</v>
@@ -9388,7 +9390,7 @@
         <v>439</v>
       </c>
       <c r="C63" s="31" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D63" s="31" t="s">
         <v>19</v>
@@ -9411,7 +9413,7 @@
         <v>439</v>
       </c>
       <c r="C64" s="30" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D64" s="30" t="s">
         <v>19</v>
@@ -9434,7 +9436,7 @@
         <v>439</v>
       </c>
       <c r="C65" s="31" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D65" s="31" t="s">
         <v>19</v>
@@ -9457,7 +9459,7 @@
         <v>439</v>
       </c>
       <c r="C66" s="30" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D66" s="30" t="s">
         <v>19</v>

--- a/VerveStacks_CHE_grids/SubRES_Tmpl/SubRES_New_RE_and_Conventional.xlsx
+++ b/VerveStacks_CHE_grids/SubRES_Tmpl/SubRES_New_RE_and_Conventional.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_CHE_grids\SubRES_Tmpl\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DE29CFAE-4821-42A5-8DF1-499FDBBB1560}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A90BA0DE-6D66-4AB6-9645-7EB93A106141}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="6" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1476" uniqueCount="441">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1480" uniqueCount="444">
   <si>
     <t>~FI_Process</t>
   </si>
@@ -428,6 +428,15 @@
     <t>e_demand</t>
   </si>
   <si>
+    <t>life</t>
+  </si>
+  <si>
+    <t>Demand sectors</t>
+  </si>
+  <si>
+    <t>generic fuel supply</t>
+  </si>
+  <si>
     <t>~fi_process</t>
   </si>
   <si>
@@ -815,34 +824,124 @@
     <t>pre</t>
   </si>
   <si>
+    <t>distr_solelc_won-CHE_0007</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell CHE_7</t>
+  </si>
+  <si>
+    <t>NRGI</t>
+  </si>
+  <si>
+    <t>daynite</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-CHE_0017</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell CHE_17</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-CHE_0019</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell CHE_19</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-CHE_0023</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell CHE_23</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-CHE_0012</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell CHE_12</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-CHE_0024</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell CHE_24</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-CHE_0008</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell CHE_8</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-CHE_0005</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell CHE_5</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-CHE_0011</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell CHE_11</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-CHE_0015</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell CHE_15</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-CHE_0025</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell CHE_25</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-CHE_0003</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell CHE_3</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-CHE_0020</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell CHE_20</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-CHE_0001</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell CHE_1</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-CHE_0006</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell CHE_6</t>
+  </si>
+  <si>
     <t>distr_solelc_won-CHE_0000</t>
   </si>
   <si>
     <t>connecting solar and wind to buses in grid cell CHE_0</t>
   </si>
   <si>
-    <t>NRGI</t>
-  </si>
-  <si>
-    <t>daynite</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-CHE_0011</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell CHE_11</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-CHE_0015</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell CHE_15</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-CHE_0025</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell CHE_25</t>
+    <t>distr_solelc_won-CHE_0009</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell CHE_9</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-CHE_0021</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell CHE_21</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-CHE_0004</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell CHE_4</t>
   </si>
   <si>
     <t>distr_solelc_won-CHE_0002</t>
@@ -851,10 +950,16 @@
     <t>connecting solar and wind to buses in grid cell CHE_2</t>
   </si>
   <si>
-    <t>distr_solelc_won-CHE_0007</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell CHE_7</t>
+    <t>distr_solelc_won-CHE_0014</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell CHE_14</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-CHE_0018</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell CHE_18</t>
   </si>
   <si>
     <t>distr_solelc_won-CHE_0010</t>
@@ -869,136 +974,130 @@
     <t>connecting solar and wind to buses in grid cell CHE_22</t>
   </si>
   <si>
-    <t>distr_solelc_won-CHE_0017</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell CHE_17</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-CHE_0019</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell CHE_19</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-CHE_0023</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell CHE_23</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-CHE_0003</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell CHE_3</t>
-  </si>
-  <si>
     <t>distr_solelc_won-CHE_0013</t>
   </si>
   <si>
     <t>connecting solar and wind to buses in grid cell CHE_13</t>
   </si>
   <si>
-    <t>distr_solelc_won-CHE_0020</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell CHE_20</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-CHE_0001</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell CHE_1</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-CHE_0006</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell CHE_6</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-CHE_0024</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell CHE_24</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-CHE_0008</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell CHE_8</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-CHE_0005</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell CHE_5</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-CHE_0014</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell CHE_14</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-CHE_0018</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell CHE_18</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-CHE_0012</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell CHE_12</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-CHE_0009</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell CHE_9</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-CHE_0021</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell CHE_21</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-CHE_0004</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell CHE_4</t>
-  </si>
-  <si>
     <t>comm-in</t>
   </si>
   <si>
     <t>efficiency</t>
   </si>
   <si>
+    <t>elc_won-CHE_0007,elc_spv-CHE_0007</t>
+  </si>
+  <si>
+    <t>e_CH44-220,e_w212722603-220,e_w212722603-380,e_w236819191-220,e_w758943072-220</t>
+  </si>
+  <si>
+    <t>elc_won-CHE_0017,elc_spv-CHE_0017</t>
+  </si>
+  <si>
+    <t>e_CH12-220,e_CH12-380,e_CH13-220,e_CH16-380,e_CH18-220,e_CH18-380,e_w192677427-220,e_w192677427-380,e_w52738225-220,e_w52738225-380</t>
+  </si>
+  <si>
+    <t>elc_won-CHE_0019,elc_spv-CHE_0019</t>
+  </si>
+  <si>
+    <t>e_CH45-220,e_w281804158-220,e_w281804158-380</t>
+  </si>
+  <si>
+    <t>elc_won-CHE_0023,elc_spv-CHE_0023</t>
+  </si>
+  <si>
+    <t>e_w207991759-380</t>
+  </si>
+  <si>
+    <t>elc_won-CHE_0012,elc_spv-CHE_0012</t>
+  </si>
+  <si>
+    <t>e_CH19-220,e_CH20-220,e_CH25-220,e_CH27-220,e_CH34-220,e_CH34-380,e_CH35-220,e_CH36-220,e_CH38-220,e_CH39-220,e_CH40-220,e_w1086214433-220,e_w1092884227-220,e_w240959264-220,e_w364949845-220,e_w364949845-380</t>
+  </si>
+  <si>
+    <t>elc_won-CHE_0024,elc_spv-CHE_0024</t>
+  </si>
+  <si>
+    <t>e_CH30-380,e_CH33-380,e_CH37-380,e_r7933294-380</t>
+  </si>
+  <si>
+    <t>elc_won-CHE_0008,elc_spv-CHE_0008</t>
+  </si>
+  <si>
+    <t>e_CH43-220,e_w209324991-220,e_w26166640-220,e_w402055336-220,e_w758315582-220</t>
+  </si>
+  <si>
+    <t>elc_won-CHE_0005,elc_spv-CHE_0005</t>
+  </si>
+  <si>
+    <t>e_r5378910-220,e_w161853746-220</t>
+  </si>
+  <si>
+    <t>elc_won-CHE_0011,elc_spv-CHE_0011</t>
+  </si>
+  <si>
+    <t>e_CH46-220,e_CH47-220,e_w228003081-220,e_w391576135-220,e_w391577741-220,e_w969819301-220,e_w969819301-380</t>
+  </si>
+  <si>
+    <t>elc_won-CHE_0015,elc_spv-CHE_0015</t>
+  </si>
+  <si>
+    <t>e_CH50-220,e_CH56-220,e_CH58-220,e_CH59-220,e_w1327084723-220,e_w281800404-220,e_w281803398-220,e_w281815404-220,e_w35487135-220</t>
+  </si>
+  <si>
+    <t>elc_won-CHE_0025,elc_spv-CHE_0025</t>
+  </si>
+  <si>
+    <t>e_r7933294-380</t>
+  </si>
+  <si>
+    <t>elc_won-CHE_0003,elc_spv-CHE_0003</t>
+  </si>
+  <si>
+    <t>e_CH48-225,e_CH49-225,e_CH53-225,e_CH60-225,e_w234983117-220,e_w234983117-380,e_w238138373-380,e_w260211728-225,e_w260211728-380,e_w55698557-220,e_w55698557-225,e_w802058337-220,e_w802058337-225,e_w936521586-380</t>
+  </si>
+  <si>
+    <t>elc_won-CHE_0020,elc_spv-CHE_0020</t>
+  </si>
+  <si>
+    <t>e_CH21-220,e_CH22-220,e_CH22-380,e_CH29-220,e_CH29-380,e_CH41-380,e_w1208713169-220,e_w207993342-220,e_w207993342-380,e_w208780268-380,e_w212498548-220,e_w36348118-220,e_w365556107-220,e_w71500123-220,e_w71500123-380</t>
+  </si>
+  <si>
+    <t>elc_won-CHE_0001,elc_spv-CHE_0001</t>
+  </si>
+  <si>
+    <t>e_CH31-220,e_w132373704-220,e_w232662311-220,e_w44496892-220,e_w55695765-220</t>
+  </si>
+  <si>
+    <t>elc_won-CHE_0006,elc_spv-CHE_0006</t>
+  </si>
+  <si>
+    <t>e_w127004407-400</t>
+  </si>
+  <si>
     <t>elc_won-CHE_0000,elc_spv-CHE_0000</t>
   </si>
   <si>
     <t>e_CH51-220,e_CH51-225,e_CH51-400,e_CH52-220,e_CH57-220,e_CH57-225,e_w177392130-220,e_w177392130-400,e_w239937062-220</t>
   </si>
   <si>
-    <t>elc_won-CHE_0011,elc_spv-CHE_0011</t>
-  </si>
-  <si>
-    <t>e_CH46-220,e_CH47-220,e_w228003081-220,e_w391576135-220,e_w391577741-220,e_w969819301-220,e_w969819301-380</t>
-  </si>
-  <si>
-    <t>elc_won-CHE_0015,elc_spv-CHE_0015</t>
-  </si>
-  <si>
-    <t>e_CH50-220,e_CH56-220,e_CH58-220,e_CH59-220,e_w1327084723-220,e_w281800404-220,e_w281803398-220,e_w281815404-220,e_w35487135-220</t>
-  </si>
-  <si>
-    <t>elc_won-CHE_0025,elc_spv-CHE_0025</t>
-  </si>
-  <si>
-    <t>e_r7933294-380</t>
+    <t>elc_won-CHE_0009,elc_spv-CHE_0009</t>
+  </si>
+  <si>
+    <t>e_CH14-220,e_CH14-380,e_w1105061707-220,e_w1105061707-380,e_w147557680-220,e_w165254212-220,e_w402053379-220</t>
+  </si>
+  <si>
+    <t>elc_won-CHE_0021,elc_spv-CHE_0021</t>
+  </si>
+  <si>
+    <t>e_CH17-380,e_w211907009-220</t>
+  </si>
+  <si>
+    <t>elc_won-CHE_0004,elc_spv-CHE_0004</t>
+  </si>
+  <si>
+    <t>e_w111162936-220,e_w111162936-380,e_w111162936-400,e_w122720993-220,e_w194258388-220</t>
   </si>
   <si>
     <t>elc_won-CHE_0002,elc_spv-CHE_0002</t>
@@ -1007,10 +1106,16 @@
     <t>e_w232662311-220</t>
   </si>
   <si>
-    <t>elc_won-CHE_0007,elc_spv-CHE_0007</t>
-  </si>
-  <si>
-    <t>e_CH44-220,e_w212722603-220,e_w212722603-380,e_w236819191-220,e_w758943072-220</t>
+    <t>elc_won-CHE_0014,elc_spv-CHE_0014</t>
+  </si>
+  <si>
+    <t>e_CH1-220,e_CH2-220,e_CH5-220,e_CH7-220,e_w108257952-220,e_w1284913429-220,e_w165513396-220,e_w165513396-380,e_w190819048-220,e_w27107779-220,e_w31308888-220,e_w33271433-220,e_w356292116-220,e_w356292116-380,e_w35840165-380,e_w50319857-220,e_w50319857-380,e_w50319857-400,e_w89405664-220,e_w89977424-220,e_w98648381-220,e_w98648381-380</t>
+  </si>
+  <si>
+    <t>elc_won-CHE_0018,elc_spv-CHE_0018</t>
+  </si>
+  <si>
+    <t>e_CH3-220,e_CH6-220,e_r9310861-220,e_w11282314-220,e_w147714395-220,e_w147714395-380,e_w148015471-220,e_w22899676-220,e_w240575085-220,e_w26843160-220,e_w281809991-220,e_w50561341-220,e_w87281514-220</t>
   </si>
   <si>
     <t>elc_won-CHE_0010,elc_spv-CHE_0010</t>
@@ -1025,106 +1130,10 @@
     <t>e_CH4-220,e_CH9-220,e_w455120191-220,e_w83861269-220,e_w92798668-220,e_w92873516-220</t>
   </si>
   <si>
-    <t>elc_won-CHE_0017,elc_spv-CHE_0017</t>
-  </si>
-  <si>
-    <t>e_CH12-220,e_CH12-380,e_CH13-220,e_CH16-380,e_CH18-220,e_CH18-380,e_w192677427-220,e_w192677427-380,e_w52738225-220,e_w52738225-380</t>
-  </si>
-  <si>
-    <t>elc_won-CHE_0019,elc_spv-CHE_0019</t>
-  </si>
-  <si>
-    <t>e_CH45-220,e_w281804158-220,e_w281804158-380</t>
-  </si>
-  <si>
-    <t>elc_won-CHE_0023,elc_spv-CHE_0023</t>
-  </si>
-  <si>
-    <t>e_w207991759-380</t>
-  </si>
-  <si>
-    <t>elc_won-CHE_0003,elc_spv-CHE_0003</t>
-  </si>
-  <si>
-    <t>e_CH48-225,e_CH49-225,e_CH53-225,e_CH60-225,e_w234983117-220,e_w234983117-380,e_w238138373-380,e_w260211728-225,e_w260211728-380,e_w55698557-220,e_w55698557-225,e_w802058337-220,e_w802058337-225,e_w936521586-380</t>
-  </si>
-  <si>
     <t>elc_won-CHE_0013,elc_spv-CHE_0013</t>
   </si>
   <si>
     <t>e_CH15-220,e_w146225999-220,e_w159527493-220,e_w242269161-220,e_w281799252-220,e_w35002638-220,e_w35002638-380,e_w97941869-220</t>
-  </si>
-  <si>
-    <t>elc_won-CHE_0020,elc_spv-CHE_0020</t>
-  </si>
-  <si>
-    <t>e_CH21-220,e_CH22-220,e_CH22-380,e_CH29-220,e_CH29-380,e_CH41-380,e_w1208713169-220,e_w207993342-220,e_w207993342-380,e_w208780268-380,e_w212498548-220,e_w36348118-220,e_w365556107-220,e_w71500123-220,e_w71500123-380</t>
-  </si>
-  <si>
-    <t>elc_won-CHE_0001,elc_spv-CHE_0001</t>
-  </si>
-  <si>
-    <t>e_CH31-220,e_w132373704-220,e_w232662311-220,e_w44496892-220,e_w55695765-220</t>
-  </si>
-  <si>
-    <t>elc_won-CHE_0006,elc_spv-CHE_0006</t>
-  </si>
-  <si>
-    <t>e_w127004407-400</t>
-  </si>
-  <si>
-    <t>elc_won-CHE_0024,elc_spv-CHE_0024</t>
-  </si>
-  <si>
-    <t>e_CH30-380,e_CH33-380,e_CH37-380,e_r7933294-380</t>
-  </si>
-  <si>
-    <t>elc_won-CHE_0008,elc_spv-CHE_0008</t>
-  </si>
-  <si>
-    <t>e_CH43-220,e_w209324991-220,e_w26166640-220,e_w402055336-220,e_w758315582-220</t>
-  </si>
-  <si>
-    <t>elc_won-CHE_0005,elc_spv-CHE_0005</t>
-  </si>
-  <si>
-    <t>e_r5378910-220,e_w161853746-220</t>
-  </si>
-  <si>
-    <t>elc_won-CHE_0014,elc_spv-CHE_0014</t>
-  </si>
-  <si>
-    <t>e_CH1-220,e_CH2-220,e_CH5-220,e_CH7-220,e_w108257952-220,e_w1284913429-220,e_w165513396-220,e_w165513396-380,e_w190819048-220,e_w27107779-220,e_w31308888-220,e_w33271433-220,e_w356292116-220,e_w356292116-380,e_w35840165-380,e_w50319857-220,e_w50319857-380,e_w50319857-400,e_w89405664-220,e_w89977424-220,e_w98648381-220,e_w98648381-380</t>
-  </si>
-  <si>
-    <t>elc_won-CHE_0018,elc_spv-CHE_0018</t>
-  </si>
-  <si>
-    <t>e_CH3-220,e_CH6-220,e_r9310861-220,e_w11282314-220,e_w147714395-220,e_w147714395-380,e_w148015471-220,e_w22899676-220,e_w240575085-220,e_w26843160-220,e_w281809991-220,e_w50561341-220,e_w87281514-220</t>
-  </si>
-  <si>
-    <t>elc_won-CHE_0012,elc_spv-CHE_0012</t>
-  </si>
-  <si>
-    <t>e_CH19-220,e_CH20-220,e_CH25-220,e_CH27-220,e_CH34-220,e_CH34-380,e_CH35-220,e_CH36-220,e_CH38-220,e_CH39-220,e_CH40-220,e_w1086214433-220,e_w1092884227-220,e_w240959264-220,e_w364949845-220,e_w364949845-380</t>
-  </si>
-  <si>
-    <t>elc_won-CHE_0009,elc_spv-CHE_0009</t>
-  </si>
-  <si>
-    <t>e_CH14-220,e_CH14-380,e_w1105061707-220,e_w1105061707-380,e_w147557680-220,e_w165254212-220,e_w402053379-220</t>
-  </si>
-  <si>
-    <t>elc_won-CHE_0021,elc_spv-CHE_0021</t>
-  </si>
-  <si>
-    <t>e_CH17-380,e_w211907009-220</t>
-  </si>
-  <si>
-    <t>elc_won-CHE_0004,elc_spv-CHE_0004</t>
-  </si>
-  <si>
-    <t>e_w111162936-220,e_w111162936-380,e_w111162936-400,e_w122720993-220,e_w194258388-220</t>
   </si>
   <si>
     <t>e_won-CHE_0000</t>
@@ -1803,7 +1812,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DFE90A40-6568-31B7-CB01-C07A1E9A75B4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E6AFDBFC-7BCF-9067-A031-261E92AFA27E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1858,7 +1867,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D4C1AF8C-633A-9EB6-313F-E38C1CCB4C76}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{342F83EA-D4E1-0510-3B91-74C2E7E84271}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1913,7 +1922,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{72DF9E42-3C51-2EA2-F33E-262F3EED6543}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AAD5C67A-ECF3-4980-BFB9-76950663E0E8}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1968,7 +1977,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2EB81723-8901-7B1F-CCFD-C67548C9BC2E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{749CEB6E-F5E1-41BF-45C1-B6D0D02C50B2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2266,10 +2275,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{034C1C47-C7B1-48B4-9602-2B825216B37E}">
-  <dimension ref="B2:T18"/>
+  <dimension ref="B2:V18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -2289,7 +2298,7 @@
     <col min="17" max="17" width="3.73046875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:20" ht="14.65" thickBot="1">
+    <row r="2" spans="2:22" ht="14.65" thickBot="1">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -2301,7 +2310,7 @@
       <c r="P2" s="1"/>
       <c r="Q2" s="1"/>
     </row>
-    <row r="3" spans="2:20">
+    <row r="3" spans="2:22">
       <c r="B3" s="1" t="s">
         <v>6</v>
       </c>
@@ -2344,8 +2353,14 @@
       <c r="Q3" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="2:20">
+      <c r="R3" t="s">
+        <v>103</v>
+      </c>
+      <c r="S3" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="4" spans="2:22">
       <c r="B4" s="1" t="s">
         <v>17</v>
       </c>
@@ -2378,7 +2393,7 @@
       <c r="P4" s="1"/>
       <c r="Q4" s="1"/>
     </row>
-    <row r="5" spans="2:20">
+    <row r="5" spans="2:22">
       <c r="B5" s="1" t="s">
         <v>17</v>
       </c>
@@ -2413,14 +2428,16 @@
       <c r="P5" s="1"/>
       <c r="Q5" s="1"/>
     </row>
-    <row r="6" spans="2:20">
+    <row r="6" spans="2:22">
       <c r="B6" t="s">
         <v>20</v>
       </c>
       <c r="C6" t="s">
         <v>106</v>
       </c>
-      <c r="D6" s="1"/>
+      <c r="D6" s="1" t="s">
+        <v>108</v>
+      </c>
       <c r="E6" s="1" t="s">
         <v>21</v>
       </c>
@@ -2449,18 +2466,20 @@
       <c r="O6" s="1"/>
       <c r="P6" s="1"/>
       <c r="Q6" s="1"/>
-      <c r="T6" t="s">
+      <c r="V6" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="7" spans="2:20">
+    <row r="7" spans="2:22">
       <c r="B7" s="1" t="s">
         <v>30</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D7" s="1"/>
+      <c r="D7" s="1" t="s">
+        <v>109</v>
+      </c>
       <c r="E7" s="1" t="s">
         <v>21</v>
       </c>
@@ -2481,15 +2500,15 @@
       <c r="M7" s="1"/>
       <c r="N7" s="1"/>
       <c r="O7" s="1">
-        <f t="shared" ref="O7:O16" si="0">T7*3.6</f>
+        <f t="shared" ref="O7:O16" si="0">V7*3.6</f>
         <v>25.2</v>
       </c>
       <c r="P7" s="1"/>
-      <c r="T7" s="1">
+      <c r="V7" s="1">
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="2:20">
+    <row r="8" spans="2:22">
       <c r="B8" t="s">
         <v>30</v>
       </c>
@@ -2517,11 +2536,11 @@
         <v>7.2</v>
       </c>
       <c r="P8" s="1"/>
-      <c r="T8" s="1">
+      <c r="V8" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="2:20">
+    <row r="9" spans="2:22">
       <c r="B9" t="s">
         <v>99</v>
       </c>
@@ -2549,11 +2568,11 @@
         <v>18</v>
       </c>
       <c r="P9" s="1"/>
-      <c r="T9" s="1">
+      <c r="V9" s="1">
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="2:20">
+    <row r="10" spans="2:22">
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
@@ -2574,11 +2593,11 @@
         <v>0.36000000000000004</v>
       </c>
       <c r="P10" s="1"/>
-      <c r="T10">
+      <c r="V10">
         <v>0.1</v>
       </c>
     </row>
-    <row r="11" spans="2:20">
+    <row r="11" spans="2:22">
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
@@ -2599,11 +2618,11 @@
         <v>0.36000000000000004</v>
       </c>
       <c r="P11" s="1"/>
-      <c r="T11">
+      <c r="V11">
         <v>0.1</v>
       </c>
     </row>
-    <row r="12" spans="2:20">
+    <row r="12" spans="2:22">
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
@@ -2624,11 +2643,11 @@
         <v>108</v>
       </c>
       <c r="P12" s="1"/>
-      <c r="T12">
+      <c r="V12">
         <v>30</v>
       </c>
     </row>
-    <row r="13" spans="2:20">
+    <row r="13" spans="2:22">
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
@@ -2649,11 +2668,11 @@
         <v>0.36000000000000004</v>
       </c>
       <c r="P13" s="1"/>
-      <c r="T13">
+      <c r="V13">
         <v>0.1</v>
       </c>
     </row>
-    <row r="14" spans="2:20">
+    <row r="14" spans="2:22">
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
@@ -2674,11 +2693,11 @@
         <v>36</v>
       </c>
       <c r="P14" s="1"/>
-      <c r="T14">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="15" spans="2:20">
+      <c r="V14">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="2:22">
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
@@ -2699,11 +2718,11 @@
         <v>0.36000000000000004</v>
       </c>
       <c r="P15" s="1"/>
-      <c r="T15">
+      <c r="V15">
         <v>0.1</v>
       </c>
     </row>
-    <row r="16" spans="2:20">
+    <row r="16" spans="2:22">
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
@@ -2724,11 +2743,11 @@
         <v>0.36000000000000004</v>
       </c>
       <c r="P16" s="1"/>
-      <c r="T16">
+      <c r="V16">
         <v>0.1</v>
       </c>
     </row>
-    <row r="17" spans="10:17">
+    <row r="17" spans="10:19">
       <c r="J17" t="str">
         <f>C8</f>
         <v>Trd_electricity import</v>
@@ -2742,8 +2761,14 @@
       <c r="Q17">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="10:17">
+      <c r="R17">
+        <v>1000</v>
+      </c>
+      <c r="S17">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="18" spans="10:19">
       <c r="J18" t="str">
         <f>C9</f>
         <v>Trd_electricity export</v>
@@ -2756,6 +2781,12 @@
       </c>
       <c r="Q18">
         <v>3</v>
+      </c>
+      <c r="R18">
+        <v>1000</v>
+      </c>
+      <c r="S18">
+        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -2788,7 +2819,7 @@
   <sheetData>
     <row r="1" spans="1:14" ht="22.05" customHeight="1">
       <c r="A1" s="27" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="B1" s="27"/>
       <c r="C1" s="27"/>
@@ -2800,10 +2831,10 @@
     </row>
     <row r="2" spans="1:14" ht="14.65" thickBot="1">
       <c r="B2" s="28" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="I2" s="28" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
     </row>
     <row r="3" spans="1:14" ht="15.75" thickBot="1">
@@ -2811,10 +2842,10 @@
         <v>6</v>
       </c>
       <c r="C3" s="29" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="D3" s="29" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="E3" s="29" t="s">
         <v>9</v>
@@ -2823,10 +2854,10 @@
         <v>8</v>
       </c>
       <c r="G3" s="29" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="I3" s="29" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="J3" s="29" t="s">
         <v>2</v>
@@ -2835,13 +2866,13 @@
         <v>3</v>
       </c>
       <c r="L3" s="29" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="M3" s="29" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="N3" s="29" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -2849,13 +2880,13 @@
         <v>17</v>
       </c>
       <c r="C4" s="30" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="D4" s="30" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="E4" s="30" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="F4" s="30" t="s">
         <v>10</v>
@@ -2864,7 +2895,7 @@
         <v>14</v>
       </c>
       <c r="I4" s="30" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="J4" s="30" t="s">
         <v>29</v>
@@ -2883,13 +2914,13 @@
         <v>17</v>
       </c>
       <c r="C5" s="31" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="D5" s="31" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="E5" s="31" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="F5" s="31" t="s">
         <v>10</v>
@@ -2898,7 +2929,7 @@
         <v>14</v>
       </c>
       <c r="I5" s="31" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="J5" s="31" t="s">
         <v>29</v>
@@ -2917,13 +2948,13 @@
         <v>17</v>
       </c>
       <c r="C6" s="30" t="s">
+        <v>119</v>
+      </c>
+      <c r="D6" s="30" t="s">
+        <v>120</v>
+      </c>
+      <c r="E6" s="30" t="s">
         <v>116</v>
-      </c>
-      <c r="D6" s="30" t="s">
-        <v>117</v>
-      </c>
-      <c r="E6" s="30" t="s">
-        <v>113</v>
       </c>
       <c r="F6" s="30" t="s">
         <v>10</v>
@@ -2932,7 +2963,7 @@
         <v>14</v>
       </c>
       <c r="I6" s="30" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="J6" s="30" t="s">
         <v>29</v>
@@ -4473,7 +4504,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA8ED6DB-F5DB-4406-A181-E9533E2DCBB0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70C4D652-115A-4D11-B8F2-8A2BA7B65651}">
   <dimension ref="A1:AG28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4509,7 +4540,7 @@
   <sheetData>
     <row r="1" spans="1:33" ht="22.05" customHeight="1">
       <c r="A1" s="27" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="B1" s="27"/>
       <c r="C1" s="27"/>
@@ -4521,104 +4552,104 @@
     </row>
     <row r="2" spans="1:33" ht="14.65" thickBot="1">
       <c r="B2" s="28" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="K2" s="28" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="R2" s="28" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="AC2" s="28" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
     </row>
     <row r="3" spans="1:33" ht="15.75" thickBot="1">
       <c r="B3" s="29" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="C3" s="29" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="D3" s="29" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="E3" s="29" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="F3" s="29" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="G3" s="29" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="H3" s="29" t="s">
+        <v>129</v>
+      </c>
+      <c r="K3" s="29" t="s">
+        <v>183</v>
+      </c>
+      <c r="L3" s="29" t="s">
+        <v>111</v>
+      </c>
+      <c r="M3" s="29" t="s">
+        <v>184</v>
+      </c>
+      <c r="N3" s="29" t="s">
+        <v>185</v>
+      </c>
+      <c r="O3" s="29" t="s">
+        <v>186</v>
+      </c>
+      <c r="R3" s="29" t="s">
         <v>126</v>
       </c>
-      <c r="K3" s="29" t="s">
-        <v>180</v>
-      </c>
-      <c r="L3" s="29" t="s">
-        <v>108</v>
-      </c>
-      <c r="M3" s="29" t="s">
-        <v>181</v>
-      </c>
-      <c r="N3" s="29" t="s">
-        <v>182</v>
-      </c>
-      <c r="O3" s="29" t="s">
+      <c r="S3" s="29" t="s">
+        <v>111</v>
+      </c>
+      <c r="T3" s="29" t="s">
+        <v>112</v>
+      </c>
+      <c r="U3" s="29" t="s">
+        <v>127</v>
+      </c>
+      <c r="V3" s="29" t="s">
+        <v>128</v>
+      </c>
+      <c r="W3" s="29" t="s">
+        <v>237</v>
+      </c>
+      <c r="X3" s="29" t="s">
+        <v>113</v>
+      </c>
+      <c r="Y3" s="29" t="s">
+        <v>129</v>
+      </c>
+      <c r="AC3" s="29" t="s">
+        <v>111</v>
+      </c>
+      <c r="AD3" s="29" t="s">
+        <v>291</v>
+      </c>
+      <c r="AE3" s="29" t="s">
+        <v>184</v>
+      </c>
+      <c r="AF3" s="29" t="s">
+        <v>292</v>
+      </c>
+      <c r="AG3" s="29" t="s">
         <v>183</v>
-      </c>
-      <c r="R3" s="29" t="s">
-        <v>123</v>
-      </c>
-      <c r="S3" s="29" t="s">
-        <v>108</v>
-      </c>
-      <c r="T3" s="29" t="s">
-        <v>109</v>
-      </c>
-      <c r="U3" s="29" t="s">
-        <v>124</v>
-      </c>
-      <c r="V3" s="29" t="s">
-        <v>125</v>
-      </c>
-      <c r="W3" s="29" t="s">
-        <v>234</v>
-      </c>
-      <c r="X3" s="29" t="s">
-        <v>110</v>
-      </c>
-      <c r="Y3" s="29" t="s">
-        <v>126</v>
-      </c>
-      <c r="AC3" s="29" t="s">
-        <v>108</v>
-      </c>
-      <c r="AD3" s="29" t="s">
-        <v>288</v>
-      </c>
-      <c r="AE3" s="29" t="s">
-        <v>181</v>
-      </c>
-      <c r="AF3" s="29" t="s">
-        <v>289</v>
-      </c>
-      <c r="AG3" s="29" t="s">
-        <v>180</v>
       </c>
     </row>
     <row r="4" spans="1:33">
       <c r="B4" s="30" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="C4" s="30" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="D4" s="30" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="E4" s="30" t="s">
         <v>10</v>
@@ -4627,19 +4658,19 @@
         <v>21</v>
       </c>
       <c r="G4" s="30" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="H4" s="30" t="s">
+        <v>134</v>
+      </c>
+      <c r="K4" s="30" t="s">
+        <v>187</v>
+      </c>
+      <c r="L4" s="30" t="s">
         <v>131</v>
       </c>
-      <c r="K4" s="30" t="s">
-        <v>184</v>
-      </c>
-      <c r="L4" s="30" t="s">
-        <v>128</v>
-      </c>
       <c r="M4" s="30" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="N4" s="34">
         <v>2.3692500000000001</v>
@@ -4648,13 +4679,13 @@
         <v>0.14000000000000001</v>
       </c>
       <c r="R4" s="30" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="S4" s="30" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="T4" s="30" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="U4" s="30" t="s">
         <v>10</v>
@@ -4663,60 +4694,60 @@
         <v>21</v>
       </c>
       <c r="W4" s="30" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="X4" s="30" t="s">
+        <v>242</v>
+      </c>
+      <c r="Y4" s="30" t="s">
+        <v>134</v>
+      </c>
+      <c r="AC4" s="30" t="s">
         <v>239</v>
       </c>
-      <c r="Y4" s="30" t="s">
-        <v>131</v>
-      </c>
-      <c r="AC4" s="30" t="s">
-        <v>236</v>
-      </c>
       <c r="AD4" s="30" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="AE4" s="30" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="AF4" s="36">
         <v>1</v>
       </c>
       <c r="AG4" s="30" t="s">
-        <v>184</v>
+        <v>231</v>
       </c>
     </row>
     <row r="5" spans="1:33">
       <c r="B5" s="31" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="C5" s="31" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="D5" s="31" t="s">
+        <v>136</v>
+      </c>
+      <c r="E5" s="31" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="G5" s="31" t="s">
         <v>133</v>
       </c>
-      <c r="E5" s="31" t="s">
-        <v>10</v>
-      </c>
-      <c r="F5" s="31" t="s">
-        <v>21</v>
-      </c>
-      <c r="G5" s="31" t="s">
-        <v>130</v>
-      </c>
       <c r="H5" s="31" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="K5" s="31" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="L5" s="31" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="M5" s="31" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="N5" s="35">
         <v>3.6675</v>
@@ -4725,75 +4756,75 @@
         <v>0.13800000000000001</v>
       </c>
       <c r="R5" s="31" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="S5" s="31" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="T5" s="31" t="s">
+        <v>244</v>
+      </c>
+      <c r="U5" s="31" t="s">
+        <v>10</v>
+      </c>
+      <c r="V5" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="W5" s="31" t="s">
         <v>241</v>
       </c>
-      <c r="U5" s="31" t="s">
-        <v>10</v>
-      </c>
-      <c r="V5" s="31" t="s">
-        <v>21</v>
-      </c>
-      <c r="W5" s="31" t="s">
-        <v>238</v>
-      </c>
       <c r="X5" s="31" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="Y5" s="31" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="AC5" s="31" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="AD5" s="31" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="AE5" s="31" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="AF5" s="37">
         <v>1</v>
       </c>
       <c r="AG5" s="31" t="s">
-        <v>190</v>
+        <v>203</v>
       </c>
     </row>
     <row r="6" spans="1:33">
       <c r="B6" s="30" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="C6" s="30" t="s">
+        <v>137</v>
+      </c>
+      <c r="D6" s="30" t="s">
+        <v>138</v>
+      </c>
+      <c r="E6" s="30" t="s">
+        <v>10</v>
+      </c>
+      <c r="F6" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="G6" s="30" t="s">
+        <v>133</v>
+      </c>
+      <c r="H6" s="30" t="s">
         <v>134</v>
       </c>
-      <c r="D6" s="30" t="s">
-        <v>135</v>
-      </c>
-      <c r="E6" s="30" t="s">
-        <v>10</v>
-      </c>
-      <c r="F6" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="G6" s="30" t="s">
-        <v>130</v>
-      </c>
-      <c r="H6" s="30" t="s">
-        <v>131</v>
-      </c>
       <c r="K6" s="30" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="L6" s="30" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="M6" s="30" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="N6" s="34">
         <v>3.0960000000000001</v>
@@ -4802,54 +4833,54 @@
         <v>0.13</v>
       </c>
       <c r="R6" s="30" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="S6" s="30" t="s">
+        <v>245</v>
+      </c>
+      <c r="T6" s="30" t="s">
+        <v>246</v>
+      </c>
+      <c r="U6" s="30" t="s">
+        <v>10</v>
+      </c>
+      <c r="V6" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="W6" s="30" t="s">
+        <v>241</v>
+      </c>
+      <c r="X6" s="30" t="s">
         <v>242</v>
       </c>
-      <c r="T6" s="30" t="s">
-        <v>243</v>
-      </c>
-      <c r="U6" s="30" t="s">
-        <v>10</v>
-      </c>
-      <c r="V6" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="W6" s="30" t="s">
-        <v>238</v>
-      </c>
-      <c r="X6" s="30" t="s">
-        <v>239</v>
-      </c>
       <c r="Y6" s="30" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="AC6" s="30" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="AD6" s="30" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="AE6" s="30" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="AF6" s="36">
         <v>1</v>
       </c>
       <c r="AG6" s="30" t="s">
-        <v>198</v>
+        <v>207</v>
       </c>
     </row>
     <row r="7" spans="1:33">
       <c r="B7" s="31" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="C7" s="31" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="D7" s="31" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="E7" s="31" t="s">
         <v>10</v>
@@ -4858,19 +4889,19 @@
         <v>21</v>
       </c>
       <c r="G7" s="31" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="H7" s="31" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="K7" s="31" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="L7" s="31" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="M7" s="31" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="N7" s="35">
         <v>0.13950000000000001</v>
@@ -4879,13 +4910,13 @@
         <v>0.14299999999999999</v>
       </c>
       <c r="R7" s="31" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="S7" s="31" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="T7" s="31" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="U7" s="31" t="s">
         <v>10</v>
@@ -4894,39 +4925,39 @@
         <v>21</v>
       </c>
       <c r="W7" s="31" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="X7" s="31" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="Y7" s="31" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="AC7" s="31" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="AD7" s="31" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="AE7" s="31" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="AF7" s="37">
         <v>1</v>
       </c>
       <c r="AG7" s="31" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="8" spans="1:33">
       <c r="B8" s="30" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="C8" s="30" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="D8" s="30" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="E8" s="30" t="s">
         <v>10</v>
@@ -4935,19 +4966,19 @@
         <v>21</v>
       </c>
       <c r="G8" s="30" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="H8" s="30" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="K8" s="30" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="L8" s="30" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="M8" s="30" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="N8" s="34">
         <v>8.2500000000000004E-3</v>
@@ -4956,13 +4987,13 @@
         <v>0.121</v>
       </c>
       <c r="R8" s="30" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="S8" s="30" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="T8" s="30" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="U8" s="30" t="s">
         <v>10</v>
@@ -4971,39 +5002,39 @@
         <v>21</v>
       </c>
       <c r="W8" s="30" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="X8" s="30" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="Y8" s="30" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="AC8" s="30" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="AD8" s="30" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="AE8" s="30" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="AF8" s="36">
         <v>1</v>
       </c>
       <c r="AG8" s="30" t="s">
-        <v>206</v>
+        <v>195</v>
       </c>
     </row>
     <row r="9" spans="1:33">
       <c r="B9" s="31" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="C9" s="31" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="D9" s="31" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="E9" s="31" t="s">
         <v>10</v>
@@ -5012,19 +5043,19 @@
         <v>21</v>
       </c>
       <c r="G9" s="31" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="H9" s="31" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="K9" s="31" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="L9" s="31" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="M9" s="31" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="N9" s="35">
         <v>1.9815</v>
@@ -5033,13 +5064,13 @@
         <v>0.127</v>
       </c>
       <c r="R9" s="31" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="S9" s="31" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="T9" s="31" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="U9" s="31" t="s">
         <v>10</v>
@@ -5048,39 +5079,39 @@
         <v>21</v>
       </c>
       <c r="W9" s="31" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="X9" s="31" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="Y9" s="31" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="AC9" s="31" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="AD9" s="31" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="AE9" s="31" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="AF9" s="37">
         <v>1</v>
       </c>
       <c r="AG9" s="31" t="s">
-        <v>228</v>
+        <v>219</v>
       </c>
     </row>
     <row r="10" spans="1:33">
       <c r="B10" s="30" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="C10" s="30" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="D10" s="30" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="E10" s="30" t="s">
         <v>10</v>
@@ -5089,19 +5120,19 @@
         <v>21</v>
       </c>
       <c r="G10" s="30" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="H10" s="30" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="K10" s="30" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="L10" s="30" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="M10" s="30" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="N10" s="34">
         <v>2.6587499999999999</v>
@@ -5110,13 +5141,13 @@
         <v>0.127</v>
       </c>
       <c r="R10" s="30" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="S10" s="30" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="T10" s="30" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="U10" s="30" t="s">
         <v>10</v>
@@ -5125,39 +5156,39 @@
         <v>21</v>
       </c>
       <c r="W10" s="30" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="X10" s="30" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="Y10" s="30" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="AC10" s="30" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="AD10" s="30" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="AE10" s="30" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="AF10" s="36">
         <v>1</v>
       </c>
       <c r="AG10" s="30" t="s">
-        <v>188</v>
+        <v>233</v>
       </c>
     </row>
     <row r="11" spans="1:33">
       <c r="B11" s="31" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="C11" s="31" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="D11" s="31" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="E11" s="31" t="s">
         <v>10</v>
@@ -5166,19 +5197,19 @@
         <v>21</v>
       </c>
       <c r="G11" s="31" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="H11" s="31" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="K11" s="31" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="L11" s="31" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="M11" s="31" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="N11" s="35">
         <v>0.44700000000000001</v>
@@ -5187,13 +5218,13 @@
         <v>0.14599999999999999</v>
       </c>
       <c r="R11" s="31" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="S11" s="31" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="T11" s="31" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="U11" s="31" t="s">
         <v>10</v>
@@ -5202,39 +5233,39 @@
         <v>21</v>
       </c>
       <c r="W11" s="31" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="X11" s="31" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="Y11" s="31" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="AC11" s="31" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="AD11" s="31" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="AE11" s="31" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="AF11" s="37">
         <v>1</v>
       </c>
       <c r="AG11" s="31" t="s">
-        <v>212</v>
+        <v>227</v>
       </c>
     </row>
     <row r="12" spans="1:33">
       <c r="B12" s="30" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="C12" s="30" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="D12" s="30" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="E12" s="30" t="s">
         <v>10</v>
@@ -5243,19 +5274,19 @@
         <v>21</v>
       </c>
       <c r="G12" s="30" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="H12" s="30" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="K12" s="30" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="L12" s="30" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="M12" s="30" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="N12" s="34">
         <v>0.747</v>
@@ -5264,13 +5295,13 @@
         <v>0.126</v>
       </c>
       <c r="R12" s="30" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="S12" s="30" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="T12" s="30" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="U12" s="30" t="s">
         <v>10</v>
@@ -5279,39 +5310,39 @@
         <v>21</v>
       </c>
       <c r="W12" s="30" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="X12" s="30" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="Y12" s="30" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="AC12" s="30" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="AD12" s="30" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="AE12" s="30" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="AF12" s="36">
         <v>1</v>
       </c>
       <c r="AG12" s="30" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
     </row>
     <row r="13" spans="1:33">
       <c r="B13" s="31" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="C13" s="31" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="D13" s="31" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="E13" s="31" t="s">
         <v>10</v>
@@ -5320,19 +5351,19 @@
         <v>21</v>
       </c>
       <c r="G13" s="31" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="H13" s="31" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="K13" s="31" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="L13" s="31" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="M13" s="31" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="N13" s="35">
         <v>3.5550000000000002</v>
@@ -5341,13 +5372,13 @@
         <v>0.128</v>
       </c>
       <c r="R13" s="31" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="S13" s="31" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="T13" s="31" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="U13" s="31" t="s">
         <v>10</v>
@@ -5356,39 +5387,39 @@
         <v>21</v>
       </c>
       <c r="W13" s="31" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="X13" s="31" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="Y13" s="31" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="AC13" s="31" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="AD13" s="31" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="AE13" s="31" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="AF13" s="37">
         <v>1</v>
       </c>
       <c r="AG13" s="31" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
     </row>
     <row r="14" spans="1:33">
       <c r="B14" s="30" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="C14" s="30" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="D14" s="30" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="E14" s="30" t="s">
         <v>10</v>
@@ -5397,19 +5428,19 @@
         <v>21</v>
       </c>
       <c r="G14" s="30" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="H14" s="30" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="K14" s="30" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="L14" s="30" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="M14" s="30" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="N14" s="34">
         <v>0.32174999999999998</v>
@@ -5418,13 +5449,13 @@
         <v>0.14299999999999999</v>
       </c>
       <c r="R14" s="30" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="S14" s="30" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="T14" s="30" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="U14" s="30" t="s">
         <v>10</v>
@@ -5433,39 +5464,39 @@
         <v>21</v>
       </c>
       <c r="W14" s="30" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="X14" s="30" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="Y14" s="30" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="AC14" s="30" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="AD14" s="30" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="AE14" s="30" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="AF14" s="36">
         <v>1</v>
       </c>
       <c r="AG14" s="30" t="s">
-        <v>214</v>
+        <v>221</v>
       </c>
     </row>
     <row r="15" spans="1:33">
       <c r="B15" s="31" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="C15" s="31" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="D15" s="31" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="E15" s="31" t="s">
         <v>10</v>
@@ -5474,19 +5505,19 @@
         <v>21</v>
       </c>
       <c r="G15" s="31" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="H15" s="31" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="K15" s="31" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="L15" s="31" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="M15" s="31" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="N15" s="35">
         <v>4.0867500000000003</v>
@@ -5495,13 +5526,13 @@
         <v>0.13300000000000001</v>
       </c>
       <c r="R15" s="31" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="S15" s="31" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="T15" s="31" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="U15" s="31" t="s">
         <v>10</v>
@@ -5510,39 +5541,39 @@
         <v>21</v>
       </c>
       <c r="W15" s="31" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="X15" s="31" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="Y15" s="31" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="AC15" s="31" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="AD15" s="31" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="AE15" s="31" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="AF15" s="37">
         <v>1</v>
       </c>
       <c r="AG15" s="31" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
     </row>
     <row r="16" spans="1:33">
       <c r="B16" s="30" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="C16" s="30" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="D16" s="30" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="E16" s="30" t="s">
         <v>10</v>
@@ -5551,19 +5582,19 @@
         <v>21</v>
       </c>
       <c r="G16" s="30" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="H16" s="30" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="K16" s="30" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="L16" s="30" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="M16" s="30" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="N16" s="34">
         <v>1.125E-2</v>
@@ -5572,13 +5603,13 @@
         <v>0.13800000000000001</v>
       </c>
       <c r="R16" s="30" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="S16" s="30" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="T16" s="30" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="U16" s="30" t="s">
         <v>10</v>
@@ -5587,39 +5618,39 @@
         <v>21</v>
       </c>
       <c r="W16" s="30" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="X16" s="30" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="Y16" s="30" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="AC16" s="30" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="AD16" s="30" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="AE16" s="30" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="AF16" s="36">
         <v>1</v>
       </c>
       <c r="AG16" s="30" t="s">
-        <v>194</v>
+        <v>211</v>
       </c>
     </row>
     <row r="17" spans="2:33">
       <c r="B17" s="31" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="C17" s="31" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="D17" s="31" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="E17" s="31" t="s">
         <v>10</v>
@@ -5628,19 +5659,19 @@
         <v>21</v>
       </c>
       <c r="G17" s="31" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="H17" s="31" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="K17" s="31" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="L17" s="31" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="M17" s="31" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="N17" s="35">
         <v>0.48225000000000001</v>
@@ -5649,13 +5680,13 @@
         <v>0.13</v>
       </c>
       <c r="R17" s="31" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="S17" s="31" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="T17" s="31" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="U17" s="31" t="s">
         <v>10</v>
@@ -5664,39 +5695,39 @@
         <v>21</v>
       </c>
       <c r="W17" s="31" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="X17" s="31" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="Y17" s="31" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="AC17" s="31" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="AD17" s="31" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="AE17" s="31" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="AF17" s="37">
         <v>1</v>
       </c>
       <c r="AG17" s="31" t="s">
-        <v>208</v>
+        <v>189</v>
       </c>
     </row>
     <row r="18" spans="2:33">
       <c r="B18" s="30" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="C18" s="30" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="D18" s="30" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="E18" s="30" t="s">
         <v>10</v>
@@ -5705,19 +5736,19 @@
         <v>21</v>
       </c>
       <c r="G18" s="30" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="H18" s="30" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="K18" s="30" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="L18" s="30" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="M18" s="30" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="N18" s="34">
         <v>4.6665000000000001</v>
@@ -5726,13 +5757,13 @@
         <v>0.128</v>
       </c>
       <c r="R18" s="30" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="S18" s="30" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="T18" s="30" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="U18" s="30" t="s">
         <v>10</v>
@@ -5741,39 +5772,39 @@
         <v>21</v>
       </c>
       <c r="W18" s="30" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="X18" s="30" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="Y18" s="30" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="AC18" s="30" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="AD18" s="30" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="AE18" s="30" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="AF18" s="36">
         <v>1</v>
       </c>
       <c r="AG18" s="30" t="s">
-        <v>186</v>
+        <v>229</v>
       </c>
     </row>
     <row r="19" spans="2:33">
       <c r="B19" s="31" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="C19" s="31" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="D19" s="31" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="E19" s="31" t="s">
         <v>10</v>
@@ -5782,19 +5813,19 @@
         <v>21</v>
       </c>
       <c r="G19" s="31" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="H19" s="31" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="K19" s="31" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="L19" s="31" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="M19" s="31" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="N19" s="35">
         <v>1.35E-2</v>
@@ -5803,13 +5834,13 @@
         <v>0.14099999999999999</v>
       </c>
       <c r="R19" s="31" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="S19" s="31" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="T19" s="31" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="U19" s="31" t="s">
         <v>10</v>
@@ -5818,39 +5849,39 @@
         <v>21</v>
       </c>
       <c r="W19" s="31" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="X19" s="31" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="Y19" s="31" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="AC19" s="31" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="AD19" s="31" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="AE19" s="31" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="AF19" s="37">
         <v>1</v>
       </c>
       <c r="AG19" s="31" t="s">
-        <v>226</v>
+        <v>187</v>
       </c>
     </row>
     <row r="20" spans="2:33">
       <c r="B20" s="30" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="C20" s="30" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="D20" s="30" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="E20" s="30" t="s">
         <v>10</v>
@@ -5859,19 +5890,19 @@
         <v>21</v>
       </c>
       <c r="G20" s="30" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="H20" s="30" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="K20" s="30" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="L20" s="30" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="M20" s="30" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="N20" s="34">
         <v>6.7499999999999999E-3</v>
@@ -5880,13 +5911,13 @@
         <v>0.14799999999999999</v>
       </c>
       <c r="R20" s="30" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="S20" s="30" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="T20" s="30" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="U20" s="30" t="s">
         <v>10</v>
@@ -5895,39 +5926,39 @@
         <v>21</v>
       </c>
       <c r="W20" s="30" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="X20" s="30" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="Y20" s="30" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="AC20" s="30" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="AD20" s="30" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="AE20" s="30" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="AF20" s="36">
         <v>1</v>
       </c>
       <c r="AG20" s="30" t="s">
-        <v>216</v>
+        <v>235</v>
       </c>
     </row>
     <row r="21" spans="2:33">
       <c r="B21" s="31" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="C21" s="31" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="D21" s="31" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="E21" s="31" t="s">
         <v>10</v>
@@ -5936,19 +5967,19 @@
         <v>21</v>
       </c>
       <c r="G21" s="31" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="H21" s="31" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="K21" s="31" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="L21" s="31" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="M21" s="31" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="N21" s="35">
         <v>2.2499999999999998E-3</v>
@@ -5957,13 +5988,13 @@
         <v>0.122</v>
       </c>
       <c r="R21" s="31" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="S21" s="31" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="T21" s="31" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="U21" s="31" t="s">
         <v>10</v>
@@ -5972,39 +6003,39 @@
         <v>21</v>
       </c>
       <c r="W21" s="31" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="X21" s="31" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="Y21" s="31" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="AC21" s="31" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="AD21" s="31" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="AE21" s="31" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="AF21" s="37">
         <v>1</v>
       </c>
       <c r="AG21" s="31" t="s">
-        <v>230</v>
+        <v>213</v>
       </c>
     </row>
     <row r="22" spans="2:33">
       <c r="B22" s="30" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="C22" s="30" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="D22" s="30" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="E22" s="30" t="s">
         <v>10</v>
@@ -6013,19 +6044,19 @@
         <v>21</v>
       </c>
       <c r="G22" s="30" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="H22" s="30" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="K22" s="30" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="L22" s="30" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="M22" s="30" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="N22" s="34">
         <v>0.27900000000000003</v>
@@ -6034,13 +6065,13 @@
         <v>0.14000000000000001</v>
       </c>
       <c r="R22" s="30" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="S22" s="30" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="T22" s="30" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="U22" s="30" t="s">
         <v>10</v>
@@ -6049,39 +6080,39 @@
         <v>21</v>
       </c>
       <c r="W22" s="30" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="X22" s="30" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="Y22" s="30" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="AC22" s="30" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="AD22" s="30" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="AE22" s="30" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="AF22" s="36">
         <v>1</v>
       </c>
       <c r="AG22" s="30" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
     </row>
     <row r="23" spans="2:33">
       <c r="B23" s="31" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="C23" s="31" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="D23" s="31" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="E23" s="31" t="s">
         <v>10</v>
@@ -6090,19 +6121,19 @@
         <v>21</v>
       </c>
       <c r="G23" s="31" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="H23" s="31" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="K23" s="31" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="L23" s="31" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="M23" s="31" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="N23" s="35">
         <v>2.7719999999999998</v>
@@ -6111,13 +6142,13 @@
         <v>0.13900000000000001</v>
       </c>
       <c r="R23" s="31" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="S23" s="31" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="T23" s="31" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="U23" s="31" t="s">
         <v>10</v>
@@ -6126,39 +6157,39 @@
         <v>21</v>
       </c>
       <c r="W23" s="31" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="X23" s="31" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="Y23" s="31" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="AC23" s="31" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="AD23" s="31" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="AE23" s="31" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="AF23" s="37">
         <v>1</v>
       </c>
       <c r="AG23" s="31" t="s">
-        <v>196</v>
+        <v>209</v>
       </c>
     </row>
     <row r="24" spans="2:33">
       <c r="B24" s="30" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="C24" s="30" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="D24" s="30" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="E24" s="30" t="s">
         <v>10</v>
@@ -6167,19 +6198,19 @@
         <v>21</v>
       </c>
       <c r="G24" s="30" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="H24" s="30" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="K24" s="30" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="L24" s="30" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="M24" s="30" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="N24" s="34">
         <v>3.3885000000000001</v>
@@ -6188,13 +6219,13 @@
         <v>0.13300000000000001</v>
       </c>
       <c r="R24" s="30" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="S24" s="30" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="T24" s="30" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="U24" s="30" t="s">
         <v>10</v>
@@ -6203,39 +6234,39 @@
         <v>21</v>
       </c>
       <c r="W24" s="30" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="X24" s="30" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="Y24" s="30" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="AC24" s="30" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="AD24" s="30" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="AE24" s="30" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="AF24" s="36">
         <v>1</v>
       </c>
       <c r="AG24" s="30" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
     </row>
     <row r="25" spans="2:33">
       <c r="B25" s="31" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="C25" s="31" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="D25" s="31" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="E25" s="31" t="s">
         <v>10</v>
@@ -6244,19 +6275,19 @@
         <v>21</v>
       </c>
       <c r="G25" s="31" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="H25" s="31" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="K25" s="31" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="L25" s="31" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="M25" s="31" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="N25" s="35">
         <v>4.6897500000000001</v>
@@ -6265,13 +6296,13 @@
         <v>0.13</v>
       </c>
       <c r="R25" s="31" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="S25" s="31" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="T25" s="31" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="U25" s="31" t="s">
         <v>10</v>
@@ -6280,39 +6311,39 @@
         <v>21</v>
       </c>
       <c r="W25" s="31" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="X25" s="31" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="Y25" s="31" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="AC25" s="31" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="AD25" s="31" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="AE25" s="31" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="AF25" s="37">
         <v>1</v>
       </c>
       <c r="AG25" s="31" t="s">
-        <v>192</v>
+        <v>205</v>
       </c>
     </row>
     <row r="26" spans="2:33">
       <c r="B26" s="30" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="C26" s="30" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="D26" s="30" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="E26" s="30" t="s">
         <v>10</v>
@@ -6321,19 +6352,19 @@
         <v>21</v>
       </c>
       <c r="G26" s="30" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="H26" s="30" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="K26" s="30" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="L26" s="30" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="M26" s="30" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="N26" s="34">
         <v>4.725E-2</v>
@@ -6342,13 +6373,13 @@
         <v>0.14799999999999999</v>
       </c>
       <c r="R26" s="30" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="S26" s="30" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="T26" s="30" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="U26" s="30" t="s">
         <v>10</v>
@@ -6357,39 +6388,39 @@
         <v>21</v>
       </c>
       <c r="W26" s="30" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="X26" s="30" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="Y26" s="30" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="AC26" s="30" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="AD26" s="30" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="AE26" s="30" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="AF26" s="36">
         <v>1</v>
       </c>
       <c r="AG26" s="30" t="s">
-        <v>232</v>
+        <v>191</v>
       </c>
     </row>
     <row r="27" spans="2:33">
       <c r="B27" s="31" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="C27" s="31" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="D27" s="31" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="E27" s="31" t="s">
         <v>10</v>
@@ -6398,19 +6429,19 @@
         <v>21</v>
       </c>
       <c r="G27" s="31" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="H27" s="31" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="K27" s="31" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="L27" s="31" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="M27" s="31" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="N27" s="35">
         <v>0.45524999999999999</v>
@@ -6419,13 +6450,13 @@
         <v>0.13100000000000001</v>
       </c>
       <c r="R27" s="31" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="S27" s="31" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="T27" s="31" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="U27" s="31" t="s">
         <v>10</v>
@@ -6434,39 +6465,39 @@
         <v>21</v>
       </c>
       <c r="W27" s="31" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="X27" s="31" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="Y27" s="31" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="AC27" s="31" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="AD27" s="31" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="AE27" s="31" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="AF27" s="37">
         <v>1</v>
       </c>
       <c r="AG27" s="31" t="s">
-        <v>210</v>
+        <v>215</v>
       </c>
     </row>
     <row r="28" spans="2:33">
       <c r="B28" s="30" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="C28" s="30" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="D28" s="30" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="E28" s="30" t="s">
         <v>10</v>
@@ -6475,19 +6506,19 @@
         <v>21</v>
       </c>
       <c r="G28" s="30" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="H28" s="30" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="K28" s="30" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="L28" s="30" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="M28" s="30" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="N28" s="34">
         <v>3.0750000000000002</v>
@@ -6496,13 +6527,13 @@
         <v>0.13300000000000001</v>
       </c>
       <c r="R28" s="30" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="S28" s="30" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="T28" s="30" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="U28" s="30" t="s">
         <v>10</v>
@@ -6511,28 +6542,28 @@
         <v>21</v>
       </c>
       <c r="W28" s="30" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="X28" s="30" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="Y28" s="30" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="AC28" s="30" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="AD28" s="30" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="AE28" s="30" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="AF28" s="36">
         <v>1</v>
       </c>
       <c r="AG28" s="30" t="s">
-        <v>222</v>
+        <v>197</v>
       </c>
     </row>
   </sheetData>
@@ -6545,7 +6576,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0154C7DB-E3E7-4F2B-9C87-C4BD3AFA1012}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E69BBE45-8FED-49B5-9208-305B629253A6}">
   <dimension ref="A1:O29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6569,7 +6600,7 @@
   <sheetData>
     <row r="1" spans="1:15" ht="22.05" customHeight="1">
       <c r="A1" s="27" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="B1" s="27"/>
       <c r="C1" s="27"/>
@@ -6581,59 +6612,59 @@
     </row>
     <row r="2" spans="1:15" ht="14.65" thickBot="1">
       <c r="B2" s="28" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="K2" s="28" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
     </row>
     <row r="3" spans="1:15" ht="15.75" thickBot="1">
       <c r="B3" s="29" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="C3" s="29" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="D3" s="29" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="E3" s="29" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="F3" s="29" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="G3" s="29" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="H3" s="29" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="K3" s="29" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="L3" s="29" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="M3" s="29" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="N3" s="29" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="O3" s="29" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
     </row>
     <row r="4" spans="1:15">
       <c r="B4" s="30" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="C4" s="30" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="D4" s="30" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="E4" s="30" t="s">
         <v>10</v>
@@ -6642,19 +6673,19 @@
         <v>21</v>
       </c>
       <c r="G4" s="30" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="H4" s="30" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="K4" s="30" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="L4" s="30" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="M4" s="30" t="s">
-        <v>392</v>
+        <v>395</v>
       </c>
       <c r="N4" s="36">
         <v>3.3975</v>
@@ -6665,13 +6696,13 @@
     </row>
     <row r="5" spans="1:15">
       <c r="B5" s="31" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="C5" s="31" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="D5" s="31" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="E5" s="31" t="s">
         <v>10</v>
@@ -6680,19 +6711,19 @@
         <v>21</v>
       </c>
       <c r="G5" s="31" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="H5" s="31" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="K5" s="31" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="L5" s="31" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="M5" s="31" t="s">
-        <v>393</v>
+        <v>396</v>
       </c>
       <c r="N5" s="37">
         <v>7.4332500000000001</v>
@@ -6703,13 +6734,13 @@
     </row>
     <row r="6" spans="1:15">
       <c r="B6" s="30" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="C6" s="30" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="D6" s="30" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="E6" s="30" t="s">
         <v>10</v>
@@ -6718,19 +6749,19 @@
         <v>21</v>
       </c>
       <c r="G6" s="30" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="H6" s="30" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="K6" s="30" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="L6" s="30" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="M6" s="30" t="s">
-        <v>394</v>
+        <v>397</v>
       </c>
       <c r="N6" s="36">
         <v>6.3525</v>
@@ -6741,13 +6772,13 @@
     </row>
     <row r="7" spans="1:15">
       <c r="B7" s="31" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="C7" s="31" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="D7" s="31" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="E7" s="31" t="s">
         <v>10</v>
@@ -6756,19 +6787,19 @@
         <v>21</v>
       </c>
       <c r="G7" s="31" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="H7" s="31" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="K7" s="31" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="L7" s="31" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="M7" s="31" t="s">
-        <v>395</v>
+        <v>398</v>
       </c>
       <c r="N7" s="37">
         <v>0.30525000000000002</v>
@@ -6779,13 +6810,13 @@
     </row>
     <row r="8" spans="1:15">
       <c r="B8" s="30" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="C8" s="30" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="D8" s="30" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="E8" s="30" t="s">
         <v>10</v>
@@ -6794,19 +6825,19 @@
         <v>21</v>
       </c>
       <c r="G8" s="30" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="H8" s="30" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="K8" s="30" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="L8" s="30" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="M8" s="30" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="N8" s="36">
         <v>0.46800000000000003</v>
@@ -6817,13 +6848,13 @@
     </row>
     <row r="9" spans="1:15">
       <c r="B9" s="31" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="C9" s="31" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="D9" s="31" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="E9" s="31" t="s">
         <v>10</v>
@@ -6832,19 +6863,19 @@
         <v>21</v>
       </c>
       <c r="G9" s="31" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="H9" s="31" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="K9" s="31" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="L9" s="31" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="M9" s="31" t="s">
-        <v>397</v>
+        <v>400</v>
       </c>
       <c r="N9" s="37">
         <v>2.9737499999999999</v>
@@ -6855,13 +6886,13 @@
     </row>
     <row r="10" spans="1:15">
       <c r="B10" s="30" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="C10" s="30" t="s">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="D10" s="30" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="E10" s="30" t="s">
         <v>10</v>
@@ -6870,19 +6901,19 @@
         <v>21</v>
       </c>
       <c r="G10" s="30" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="H10" s="30" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="K10" s="30" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="L10" s="30" t="s">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="M10" s="30" t="s">
-        <v>398</v>
+        <v>401</v>
       </c>
       <c r="N10" s="36">
         <v>7.33575</v>
@@ -6893,13 +6924,13 @@
     </row>
     <row r="11" spans="1:15">
       <c r="B11" s="31" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="C11" s="31" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="D11" s="31" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="E11" s="31" t="s">
         <v>10</v>
@@ -6908,19 +6939,19 @@
         <v>21</v>
       </c>
       <c r="G11" s="31" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="H11" s="31" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="K11" s="31" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="L11" s="31" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="M11" s="31" t="s">
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="N11" s="37">
         <v>0.10725</v>
@@ -6931,13 +6962,13 @@
     </row>
     <row r="12" spans="1:15">
       <c r="B12" s="30" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="C12" s="30" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="D12" s="30" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="E12" s="30" t="s">
         <v>10</v>
@@ -6946,19 +6977,19 @@
         <v>21</v>
       </c>
       <c r="G12" s="30" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="H12" s="30" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="K12" s="30" t="s">
-        <v>400</v>
+        <v>403</v>
       </c>
       <c r="L12" s="30" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="M12" s="30" t="s">
-        <v>401</v>
+        <v>404</v>
       </c>
       <c r="N12" s="36">
         <v>0.44850000000000001</v>
@@ -6969,13 +7000,13 @@
     </row>
     <row r="13" spans="1:15">
       <c r="B13" s="31" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="C13" s="31" t="s">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="D13" s="31" t="s">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="E13" s="31" t="s">
         <v>10</v>
@@ -6984,19 +7015,19 @@
         <v>21</v>
       </c>
       <c r="G13" s="31" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="H13" s="31" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="K13" s="31" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="L13" s="31" t="s">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="M13" s="31" t="s">
-        <v>402</v>
+        <v>405</v>
       </c>
       <c r="N13" s="37">
         <v>1.2615000000000001</v>
@@ -7007,13 +7038,13 @@
     </row>
     <row r="14" spans="1:15">
       <c r="B14" s="30" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="C14" s="30" t="s">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="D14" s="30" t="s">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="E14" s="30" t="s">
         <v>10</v>
@@ -7022,19 +7053,19 @@
         <v>21</v>
       </c>
       <c r="G14" s="30" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="H14" s="30" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="K14" s="30" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="L14" s="30" t="s">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="M14" s="30" t="s">
-        <v>403</v>
+        <v>406</v>
       </c>
       <c r="N14" s="36">
         <v>6.7882499999999997</v>
@@ -7045,13 +7076,13 @@
     </row>
     <row r="15" spans="1:15">
       <c r="B15" s="31" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="C15" s="31" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="D15" s="31" t="s">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="E15" s="31" t="s">
         <v>10</v>
@@ -7060,19 +7091,19 @@
         <v>21</v>
       </c>
       <c r="G15" s="31" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="H15" s="31" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="K15" s="31" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="L15" s="31" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="M15" s="31" t="s">
-        <v>404</v>
+        <v>407</v>
       </c>
       <c r="N15" s="37">
         <v>0.183</v>
@@ -7083,13 +7114,13 @@
     </row>
     <row r="16" spans="1:15">
       <c r="B16" s="30" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="C16" s="30" t="s">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="D16" s="30" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="E16" s="30" t="s">
         <v>10</v>
@@ -7098,19 +7129,19 @@
         <v>21</v>
       </c>
       <c r="G16" s="30" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="H16" s="30" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="K16" s="30" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="L16" s="30" t="s">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="M16" s="30" t="s">
-        <v>405</v>
+        <v>408</v>
       </c>
       <c r="N16" s="36">
         <v>7.5884999999999998</v>
@@ -7121,13 +7152,13 @@
     </row>
     <row r="17" spans="2:15">
       <c r="B17" s="31" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="C17" s="31" t="s">
-        <v>366</v>
+        <v>369</v>
       </c>
       <c r="D17" s="31" t="s">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="E17" s="31" t="s">
         <v>10</v>
@@ -7136,19 +7167,19 @@
         <v>21</v>
       </c>
       <c r="G17" s="31" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="H17" s="31" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="K17" s="31" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="L17" s="31" t="s">
-        <v>366</v>
+        <v>369</v>
       </c>
       <c r="M17" s="31" t="s">
-        <v>406</v>
+        <v>409</v>
       </c>
       <c r="N17" s="37">
         <v>0.90225</v>
@@ -7159,13 +7190,13 @@
     </row>
     <row r="18" spans="2:15">
       <c r="B18" s="30" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="C18" s="30" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="D18" s="30" t="s">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="E18" s="30" t="s">
         <v>10</v>
@@ -7174,19 +7205,19 @@
         <v>21</v>
       </c>
       <c r="G18" s="30" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="H18" s="30" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="K18" s="30" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="L18" s="30" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="M18" s="30" t="s">
-        <v>407</v>
+        <v>410</v>
       </c>
       <c r="N18" s="36">
         <v>0.89849999999999997</v>
@@ -7197,13 +7228,13 @@
     </row>
     <row r="19" spans="2:15">
       <c r="B19" s="31" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="C19" s="31" t="s">
-        <v>370</v>
+        <v>373</v>
       </c>
       <c r="D19" s="31" t="s">
-        <v>371</v>
+        <v>374</v>
       </c>
       <c r="E19" s="31" t="s">
         <v>10</v>
@@ -7212,19 +7243,19 @@
         <v>21</v>
       </c>
       <c r="G19" s="31" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="H19" s="31" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="K19" s="31" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="L19" s="31" t="s">
-        <v>370</v>
+        <v>373</v>
       </c>
       <c r="M19" s="31" t="s">
-        <v>408</v>
+        <v>411</v>
       </c>
       <c r="N19" s="37">
         <v>4.8682499999999997</v>
@@ -7235,13 +7266,13 @@
     </row>
     <row r="20" spans="2:15">
       <c r="B20" s="30" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="C20" s="30" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="D20" s="30" t="s">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="E20" s="30" t="s">
         <v>10</v>
@@ -7250,19 +7281,19 @@
         <v>21</v>
       </c>
       <c r="G20" s="30" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="H20" s="30" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="K20" s="30" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="L20" s="30" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="M20" s="30" t="s">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="N20" s="36">
         <v>0.27600000000000002</v>
@@ -7273,13 +7304,13 @@
     </row>
     <row r="21" spans="2:15">
       <c r="B21" s="31" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="C21" s="31" t="s">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="D21" s="31" t="s">
-        <v>375</v>
+        <v>378</v>
       </c>
       <c r="E21" s="31" t="s">
         <v>10</v>
@@ -7288,19 +7319,19 @@
         <v>21</v>
       </c>
       <c r="G21" s="31" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="H21" s="31" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="K21" s="31" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="L21" s="31" t="s">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="M21" s="31" t="s">
-        <v>410</v>
+        <v>413</v>
       </c>
       <c r="N21" s="37">
         <v>0.85575000000000001</v>
@@ -7311,13 +7342,13 @@
     </row>
     <row r="22" spans="2:15">
       <c r="B22" s="30" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="C22" s="30" t="s">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="D22" s="30" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="E22" s="30" t="s">
         <v>10</v>
@@ -7326,19 +7357,19 @@
         <v>21</v>
       </c>
       <c r="G22" s="30" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="H22" s="30" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="K22" s="30" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="L22" s="30" t="s">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="M22" s="30" t="s">
-        <v>411</v>
+        <v>414</v>
       </c>
       <c r="N22" s="36">
         <v>0.71025000000000005</v>
@@ -7349,13 +7380,13 @@
     </row>
     <row r="23" spans="2:15">
       <c r="B23" s="31" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="C23" s="31" t="s">
-        <v>378</v>
+        <v>381</v>
       </c>
       <c r="D23" s="31" t="s">
-        <v>379</v>
+        <v>382</v>
       </c>
       <c r="E23" s="31" t="s">
         <v>10</v>
@@ -7364,19 +7395,19 @@
         <v>21</v>
       </c>
       <c r="G23" s="31" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="H23" s="31" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="K23" s="31" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="L23" s="31" t="s">
-        <v>378</v>
+        <v>381</v>
       </c>
       <c r="M23" s="31" t="s">
-        <v>412</v>
+        <v>415</v>
       </c>
       <c r="N23" s="37">
         <v>0.55874999999999997</v>
@@ -7387,13 +7418,13 @@
     </row>
     <row r="24" spans="2:15">
       <c r="B24" s="30" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="C24" s="30" t="s">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="D24" s="30" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="E24" s="30" t="s">
         <v>10</v>
@@ -7402,19 +7433,19 @@
         <v>21</v>
       </c>
       <c r="G24" s="30" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="H24" s="30" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="K24" s="30" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="L24" s="30" t="s">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="M24" s="30" t="s">
-        <v>413</v>
+        <v>416</v>
       </c>
       <c r="N24" s="36">
         <v>4.6582499999999998</v>
@@ -7425,13 +7456,13 @@
     </row>
     <row r="25" spans="2:15">
       <c r="B25" s="31" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="C25" s="31" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="D25" s="31" t="s">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="E25" s="31" t="s">
         <v>10</v>
@@ -7440,19 +7471,19 @@
         <v>21</v>
       </c>
       <c r="G25" s="31" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="H25" s="31" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="K25" s="31" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="L25" s="31" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="M25" s="31" t="s">
-        <v>414</v>
+        <v>417</v>
       </c>
       <c r="N25" s="37">
         <v>6.7035</v>
@@ -7463,13 +7494,13 @@
     </row>
     <row r="26" spans="2:15">
       <c r="B26" s="30" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="C26" s="30" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="D26" s="30" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
       <c r="E26" s="30" t="s">
         <v>10</v>
@@ -7478,19 +7509,19 @@
         <v>21</v>
       </c>
       <c r="G26" s="30" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="H26" s="30" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="K26" s="30" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="L26" s="30" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="M26" s="30" t="s">
-        <v>415</v>
+        <v>418</v>
       </c>
       <c r="N26" s="36">
         <v>7.6980000000000004</v>
@@ -7501,13 +7532,13 @@
     </row>
     <row r="27" spans="2:15">
       <c r="B27" s="31" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="C27" s="31" t="s">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="D27" s="31" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
       <c r="E27" s="31" t="s">
         <v>10</v>
@@ -7516,19 +7547,19 @@
         <v>21</v>
       </c>
       <c r="G27" s="31" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="H27" s="31" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="K27" s="31" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="L27" s="31" t="s">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="M27" s="31" t="s">
-        <v>416</v>
+        <v>419</v>
       </c>
       <c r="N27" s="37">
         <v>0.35399999999999998</v>
@@ -7539,13 +7570,13 @@
     </row>
     <row r="28" spans="2:15">
       <c r="B28" s="30" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="C28" s="30" t="s">
-        <v>388</v>
+        <v>391</v>
       </c>
       <c r="D28" s="30" t="s">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="E28" s="30" t="s">
         <v>10</v>
@@ -7554,19 +7585,19 @@
         <v>21</v>
       </c>
       <c r="G28" s="30" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="H28" s="30" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="K28" s="30" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="L28" s="30" t="s">
-        <v>388</v>
+        <v>391</v>
       </c>
       <c r="M28" s="30" t="s">
-        <v>417</v>
+        <v>420</v>
       </c>
       <c r="N28" s="36">
         <v>1.0920000000000001</v>
@@ -7577,13 +7608,13 @@
     </row>
     <row r="29" spans="2:15">
       <c r="B29" s="31" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="C29" s="31" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="D29" s="31" t="s">
-        <v>391</v>
+        <v>394</v>
       </c>
       <c r="E29" s="31" t="s">
         <v>10</v>
@@ -7592,19 +7623,19 @@
         <v>21</v>
       </c>
       <c r="G29" s="31" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="H29" s="31" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="K29" s="31" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="L29" s="31" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="M29" s="31" t="s">
-        <v>418</v>
+        <v>421</v>
       </c>
       <c r="N29" s="37">
         <v>6.1920000000000002</v>
@@ -7623,7 +7654,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DDD62E59-EE38-4783-AF91-7E483830F1B6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CCBAFE67-9F65-4980-8DF0-8EFE2633AC07}">
   <dimension ref="A1:Q66"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -7643,7 +7674,7 @@
   <sheetData>
     <row r="1" spans="1:17" ht="22.05" customHeight="1">
       <c r="A1" s="27" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="B1" s="27"/>
       <c r="C1" s="27"/>
@@ -7655,21 +7686,21 @@
     </row>
     <row r="2" spans="1:17" ht="14.65" thickBot="1">
       <c r="B2" s="28" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="K2" s="28" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
     </row>
     <row r="3" spans="1:17" ht="15.75" thickBot="1">
       <c r="B3" s="29" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="C3" s="29" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="D3" s="29" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="E3" s="29">
         <v>2023</v>
@@ -7684,30 +7715,30 @@
         <v>56</v>
       </c>
       <c r="K3" s="29" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="L3" s="29" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="M3" s="29" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="N3" s="29" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="O3" s="29" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="P3" s="29" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="Q3" s="29" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
     </row>
     <row r="4" spans="1:17">
       <c r="B4" s="30" t="s">
-        <v>419</v>
+        <v>422</v>
       </c>
       <c r="C4" s="30" t="s">
         <v>33</v>
@@ -7725,13 +7756,13 @@
         <v>0.30000000000000004</v>
       </c>
       <c r="H4" s="30" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="K4" s="30" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="L4" s="30" t="s">
-        <v>419</v>
+        <v>422</v>
       </c>
       <c r="M4" s="30"/>
       <c r="N4" s="30" t="s">
@@ -7741,15 +7772,15 @@
         <v>21</v>
       </c>
       <c r="P4" s="30" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="Q4" s="30" t="s">
-        <v>440</v>
+        <v>443</v>
       </c>
     </row>
     <row r="5" spans="1:17">
       <c r="B5" s="31" t="s">
-        <v>419</v>
+        <v>422</v>
       </c>
       <c r="C5" s="31" t="s">
         <v>33</v>
@@ -7767,13 +7798,13 @@
         <v>0.60000000000000009</v>
       </c>
       <c r="H5" s="31" t="s">
-        <v>420</v>
+        <v>423</v>
       </c>
       <c r="K5" s="31" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="L5" s="31" t="s">
-        <v>424</v>
+        <v>427</v>
       </c>
       <c r="M5" s="31"/>
       <c r="N5" s="31" t="s">
@@ -7783,15 +7814,15 @@
         <v>21</v>
       </c>
       <c r="P5" s="31" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="Q5" s="31" t="s">
-        <v>440</v>
+        <v>443</v>
       </c>
     </row>
     <row r="6" spans="1:17">
       <c r="B6" s="30" t="s">
-        <v>419</v>
+        <v>422</v>
       </c>
       <c r="C6" s="30" t="s">
         <v>33</v>
@@ -7809,13 +7840,13 @@
         <v>5100</v>
       </c>
       <c r="H6" s="30" t="s">
-        <v>421</v>
+        <v>424</v>
       </c>
       <c r="K6" s="30" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="L6" s="30" t="s">
-        <v>425</v>
+        <v>428</v>
       </c>
       <c r="M6" s="30"/>
       <c r="N6" s="30" t="s">
@@ -7825,15 +7856,15 @@
         <v>21</v>
       </c>
       <c r="P6" s="30" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="Q6" s="30" t="s">
-        <v>440</v>
+        <v>443</v>
       </c>
     </row>
     <row r="7" spans="1:17">
       <c r="B7" s="31" t="s">
-        <v>419</v>
+        <v>422</v>
       </c>
       <c r="C7" s="31" t="s">
         <v>33</v>
@@ -7851,13 +7882,13 @@
         <v>175</v>
       </c>
       <c r="H7" s="31" t="s">
-        <v>422</v>
+        <v>425</v>
       </c>
       <c r="K7" s="31" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="L7" s="31" t="s">
-        <v>426</v>
+        <v>429</v>
       </c>
       <c r="M7" s="31"/>
       <c r="N7" s="31" t="s">
@@ -7867,15 +7898,15 @@
         <v>21</v>
       </c>
       <c r="P7" s="31" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="Q7" s="31" t="s">
-        <v>440</v>
+        <v>443</v>
       </c>
     </row>
     <row r="8" spans="1:17">
       <c r="B8" s="30" t="s">
-        <v>419</v>
+        <v>422</v>
       </c>
       <c r="C8" s="30" t="s">
         <v>33</v>
@@ -7893,13 +7924,13 @@
         <v>3</v>
       </c>
       <c r="H8" s="30" t="s">
-        <v>423</v>
+        <v>426</v>
       </c>
       <c r="K8" s="30" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="L8" s="30" t="s">
-        <v>427</v>
+        <v>430</v>
       </c>
       <c r="M8" s="30"/>
       <c r="N8" s="30" t="s">
@@ -7909,15 +7940,15 @@
         <v>21</v>
       </c>
       <c r="P8" s="30" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="Q8" s="30" t="s">
-        <v>440</v>
+        <v>443</v>
       </c>
     </row>
     <row r="9" spans="1:17">
       <c r="B9" s="31" t="s">
-        <v>424</v>
+        <v>427</v>
       </c>
       <c r="C9" s="31" t="s">
         <v>33</v>
@@ -7935,13 +7966,13 @@
         <v>0.35000000000000003</v>
       </c>
       <c r="H9" s="31" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="K9" s="31" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="L9" s="31" t="s">
-        <v>428</v>
+        <v>431</v>
       </c>
       <c r="M9" s="31"/>
       <c r="N9" s="31" t="s">
@@ -7951,15 +7982,15 @@
         <v>21</v>
       </c>
       <c r="P9" s="31" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="Q9" s="31" t="s">
-        <v>440</v>
+        <v>443</v>
       </c>
     </row>
     <row r="10" spans="1:17">
       <c r="B10" s="30" t="s">
-        <v>424</v>
+        <v>427</v>
       </c>
       <c r="C10" s="30" t="s">
         <v>33</v>
@@ -7977,13 +8008,13 @@
         <v>0.60000000000000009</v>
       </c>
       <c r="H10" s="30" t="s">
-        <v>420</v>
+        <v>423</v>
       </c>
       <c r="K10" s="30" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="L10" s="30" t="s">
-        <v>429</v>
+        <v>432</v>
       </c>
       <c r="M10" s="30"/>
       <c r="N10" s="30" t="s">
@@ -7993,15 +8024,15 @@
         <v>21</v>
       </c>
       <c r="P10" s="30" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="Q10" s="30" t="s">
-        <v>440</v>
+        <v>443</v>
       </c>
     </row>
     <row r="11" spans="1:17">
       <c r="B11" s="31" t="s">
-        <v>424</v>
+        <v>427</v>
       </c>
       <c r="C11" s="31" t="s">
         <v>33</v>
@@ -8019,13 +8050,13 @@
         <v>2300</v>
       </c>
       <c r="H11" s="31" t="s">
-        <v>421</v>
+        <v>424</v>
       </c>
       <c r="K11" s="31" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="L11" s="31" t="s">
-        <v>430</v>
+        <v>433</v>
       </c>
       <c r="M11" s="31"/>
       <c r="N11" s="31" t="s">
@@ -8035,15 +8066,15 @@
         <v>21</v>
       </c>
       <c r="P11" s="31" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="Q11" s="31" t="s">
-        <v>440</v>
+        <v>443</v>
       </c>
     </row>
     <row r="12" spans="1:17">
       <c r="B12" s="30" t="s">
-        <v>424</v>
+        <v>427</v>
       </c>
       <c r="C12" s="30" t="s">
         <v>33</v>
@@ -8061,13 +8092,13 @@
         <v>80</v>
       </c>
       <c r="H12" s="30" t="s">
-        <v>422</v>
+        <v>425</v>
       </c>
       <c r="K12" s="30" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="L12" s="30" t="s">
-        <v>431</v>
+        <v>434</v>
       </c>
       <c r="M12" s="30"/>
       <c r="N12" s="30" t="s">
@@ -8077,15 +8108,15 @@
         <v>21</v>
       </c>
       <c r="P12" s="30" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="Q12" s="30" t="s">
-        <v>440</v>
+        <v>443</v>
       </c>
     </row>
     <row r="13" spans="1:17">
       <c r="B13" s="31" t="s">
-        <v>424</v>
+        <v>427</v>
       </c>
       <c r="C13" s="31" t="s">
         <v>33</v>
@@ -8103,13 +8134,13 @@
         <v>3</v>
       </c>
       <c r="H13" s="31" t="s">
-        <v>423</v>
+        <v>426</v>
       </c>
       <c r="K13" s="31" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="L13" s="31" t="s">
-        <v>432</v>
+        <v>435</v>
       </c>
       <c r="M13" s="31"/>
       <c r="N13" s="31" t="s">
@@ -8119,15 +8150,15 @@
         <v>21</v>
       </c>
       <c r="P13" s="31" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="Q13" s="31" t="s">
-        <v>440</v>
+        <v>443</v>
       </c>
     </row>
     <row r="14" spans="1:17">
       <c r="B14" s="30" t="s">
-        <v>425</v>
+        <v>428</v>
       </c>
       <c r="C14" s="30" t="s">
         <v>35</v>
@@ -8145,13 +8176,13 @@
         <v>0.61</v>
       </c>
       <c r="H14" s="30" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="K14" s="30" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="L14" s="30" t="s">
-        <v>433</v>
+        <v>436</v>
       </c>
       <c r="M14" s="30"/>
       <c r="N14" s="30" t="s">
@@ -8161,15 +8192,15 @@
         <v>21</v>
       </c>
       <c r="P14" s="30" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="Q14" s="30" t="s">
-        <v>440</v>
+        <v>443</v>
       </c>
     </row>
     <row r="15" spans="1:17">
       <c r="B15" s="31" t="s">
-        <v>425</v>
+        <v>428</v>
       </c>
       <c r="C15" s="31" t="s">
         <v>35</v>
@@ -8187,13 +8218,13 @@
         <v>1000</v>
       </c>
       <c r="H15" s="31" t="s">
-        <v>421</v>
+        <v>424</v>
       </c>
       <c r="K15" s="31" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="L15" s="31" t="s">
-        <v>434</v>
+        <v>437</v>
       </c>
       <c r="M15" s="31"/>
       <c r="N15" s="31" t="s">
@@ -8203,15 +8234,15 @@
         <v>21</v>
       </c>
       <c r="P15" s="31" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="Q15" s="31" t="s">
-        <v>440</v>
+        <v>443</v>
       </c>
     </row>
     <row r="16" spans="1:17">
       <c r="B16" s="30" t="s">
-        <v>425</v>
+        <v>428</v>
       </c>
       <c r="C16" s="30" t="s">
         <v>35</v>
@@ -8229,13 +8260,13 @@
         <v>25</v>
       </c>
       <c r="H16" s="30" t="s">
-        <v>422</v>
+        <v>425</v>
       </c>
       <c r="K16" s="30" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="L16" s="30" t="s">
-        <v>435</v>
+        <v>438</v>
       </c>
       <c r="M16" s="30"/>
       <c r="N16" s="30" t="s">
@@ -8245,15 +8276,15 @@
         <v>21</v>
       </c>
       <c r="P16" s="30" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="Q16" s="30" t="s">
-        <v>440</v>
+        <v>443</v>
       </c>
     </row>
     <row r="17" spans="2:17">
       <c r="B17" s="31" t="s">
-        <v>426</v>
+        <v>429</v>
       </c>
       <c r="C17" s="31" t="s">
         <v>35</v>
@@ -8271,13 +8302,13 @@
         <v>0.54</v>
       </c>
       <c r="H17" s="31" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="K17" s="31" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="L17" s="31" t="s">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="M17" s="31"/>
       <c r="N17" s="31" t="s">
@@ -8287,15 +8318,15 @@
         <v>21</v>
       </c>
       <c r="P17" s="31" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="Q17" s="31" t="s">
-        <v>440</v>
+        <v>443</v>
       </c>
     </row>
     <row r="18" spans="2:17">
       <c r="B18" s="30" t="s">
-        <v>426</v>
+        <v>429</v>
       </c>
       <c r="C18" s="30" t="s">
         <v>35</v>
@@ -8313,13 +8344,13 @@
         <v>2400</v>
       </c>
       <c r="H18" s="30" t="s">
-        <v>421</v>
+        <v>424</v>
       </c>
       <c r="K18" s="30" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="L18" s="30" t="s">
-        <v>437</v>
+        <v>440</v>
       </c>
       <c r="M18" s="30"/>
       <c r="N18" s="30" t="s">
@@ -8329,15 +8360,15 @@
         <v>21</v>
       </c>
       <c r="P18" s="30" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="Q18" s="30" t="s">
-        <v>440</v>
+        <v>443</v>
       </c>
     </row>
     <row r="19" spans="2:17">
       <c r="B19" s="31" t="s">
-        <v>426</v>
+        <v>429</v>
       </c>
       <c r="C19" s="31" t="s">
         <v>35</v>
@@ -8355,13 +8386,13 @@
         <v>60</v>
       </c>
       <c r="H19" s="31" t="s">
-        <v>422</v>
+        <v>425</v>
       </c>
       <c r="K19" s="31" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="L19" s="31" t="s">
-        <v>438</v>
+        <v>441</v>
       </c>
       <c r="M19" s="31"/>
       <c r="N19" s="31" t="s">
@@ -8371,15 +8402,15 @@
         <v>21</v>
       </c>
       <c r="P19" s="31" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="Q19" s="31" t="s">
-        <v>440</v>
+        <v>443</v>
       </c>
     </row>
     <row r="20" spans="2:17">
       <c r="B20" s="30" t="s">
-        <v>427</v>
+        <v>430</v>
       </c>
       <c r="C20" s="30" t="s">
         <v>34</v>
@@ -8397,13 +8428,13 @@
         <v>0.39</v>
       </c>
       <c r="H20" s="30" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="K20" s="30" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="L20" s="30" t="s">
-        <v>439</v>
+        <v>442</v>
       </c>
       <c r="M20" s="30"/>
       <c r="N20" s="30" t="s">
@@ -8413,15 +8444,15 @@
         <v>21</v>
       </c>
       <c r="P20" s="30" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="Q20" s="30" t="s">
-        <v>440</v>
+        <v>443</v>
       </c>
     </row>
     <row r="21" spans="2:17">
       <c r="B21" s="31" t="s">
-        <v>427</v>
+        <v>430</v>
       </c>
       <c r="C21" s="31" t="s">
         <v>34</v>
@@ -8439,12 +8470,12 @@
         <v>4350</v>
       </c>
       <c r="H21" s="31" t="s">
-        <v>421</v>
+        <v>424</v>
       </c>
     </row>
     <row r="22" spans="2:17">
       <c r="B22" s="30" t="s">
-        <v>427</v>
+        <v>430</v>
       </c>
       <c r="C22" s="30" t="s">
         <v>34</v>
@@ -8462,12 +8493,12 @@
         <v>130</v>
       </c>
       <c r="H22" s="30" t="s">
-        <v>422</v>
+        <v>425</v>
       </c>
     </row>
     <row r="23" spans="2:17">
       <c r="B23" s="31" t="s">
-        <v>428</v>
+        <v>431</v>
       </c>
       <c r="C23" s="31" t="s">
         <v>35</v>
@@ -8485,12 +8516,12 @@
         <v>0.42</v>
       </c>
       <c r="H23" s="31" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
     </row>
     <row r="24" spans="2:17">
       <c r="B24" s="30" t="s">
-        <v>428</v>
+        <v>431</v>
       </c>
       <c r="C24" s="30" t="s">
         <v>35</v>
@@ -8508,12 +8539,12 @@
         <v>500</v>
       </c>
       <c r="H24" s="30" t="s">
-        <v>421</v>
+        <v>424</v>
       </c>
     </row>
     <row r="25" spans="2:17">
       <c r="B25" s="31" t="s">
-        <v>428</v>
+        <v>431</v>
       </c>
       <c r="C25" s="31" t="s">
         <v>35</v>
@@ -8531,12 +8562,12 @@
         <v>20</v>
       </c>
       <c r="H25" s="31" t="s">
-        <v>422</v>
+        <v>425</v>
       </c>
     </row>
     <row r="26" spans="2:17">
       <c r="B26" s="30" t="s">
-        <v>429</v>
+        <v>432</v>
       </c>
       <c r="C26" s="30" t="s">
         <v>29</v>
@@ -8554,12 +8585,12 @@
         <v>1</v>
       </c>
       <c r="H26" s="30" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
     </row>
     <row r="27" spans="2:17">
       <c r="B27" s="31" t="s">
-        <v>429</v>
+        <v>432</v>
       </c>
       <c r="C27" s="31" t="s">
         <v>29</v>
@@ -8577,12 +8608,12 @@
         <v>0.35000000000000003</v>
       </c>
       <c r="H27" s="31" t="s">
-        <v>420</v>
+        <v>423</v>
       </c>
     </row>
     <row r="28" spans="2:17">
       <c r="B28" s="30" t="s">
-        <v>429</v>
+        <v>432</v>
       </c>
       <c r="C28" s="30" t="s">
         <v>29</v>
@@ -8600,12 +8631,12 @@
         <v>2650</v>
       </c>
       <c r="H28" s="30" t="s">
-        <v>421</v>
+        <v>424</v>
       </c>
     </row>
     <row r="29" spans="2:17">
       <c r="B29" s="31" t="s">
-        <v>429</v>
+        <v>432</v>
       </c>
       <c r="C29" s="31" t="s">
         <v>29</v>
@@ -8623,12 +8654,12 @@
         <v>65</v>
       </c>
       <c r="H29" s="31" t="s">
-        <v>422</v>
+        <v>425</v>
       </c>
     </row>
     <row r="30" spans="2:17">
       <c r="B30" s="30" t="s">
-        <v>429</v>
+        <v>432</v>
       </c>
       <c r="C30" s="30" t="s">
         <v>29</v>
@@ -8646,12 +8677,12 @@
         <v>4</v>
       </c>
       <c r="H30" s="30" t="s">
-        <v>423</v>
+        <v>426</v>
       </c>
     </row>
     <row r="31" spans="2:17">
       <c r="B31" s="31" t="s">
-        <v>430</v>
+        <v>433</v>
       </c>
       <c r="C31" s="31" t="s">
         <v>35</v>
@@ -8669,12 +8700,12 @@
         <v>0.5</v>
       </c>
       <c r="H31" s="31" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
     </row>
     <row r="32" spans="2:17">
       <c r="B32" s="30" t="s">
-        <v>430</v>
+        <v>433</v>
       </c>
       <c r="C32" s="30" t="s">
         <v>35</v>
@@ -8692,12 +8723,12 @@
         <v>2300</v>
       </c>
       <c r="H32" s="30" t="s">
-        <v>421</v>
+        <v>424</v>
       </c>
     </row>
     <row r="33" spans="2:8">
       <c r="B33" s="31" t="s">
-        <v>430</v>
+        <v>433</v>
       </c>
       <c r="C33" s="31" t="s">
         <v>35</v>
@@ -8715,12 +8746,12 @@
         <v>80</v>
       </c>
       <c r="H33" s="31" t="s">
-        <v>422</v>
+        <v>425</v>
       </c>
     </row>
     <row r="34" spans="2:8">
       <c r="B34" s="30" t="s">
-        <v>431</v>
+        <v>434</v>
       </c>
       <c r="C34" s="30" t="s">
         <v>34</v>
@@ -8738,12 +8769,12 @@
         <v>0.43</v>
       </c>
       <c r="H34" s="30" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
     </row>
     <row r="35" spans="2:8">
       <c r="B35" s="31" t="s">
-        <v>431</v>
+        <v>434</v>
       </c>
       <c r="C35" s="31" t="s">
         <v>34</v>
@@ -8761,12 +8792,12 @@
         <v>5100</v>
       </c>
       <c r="H35" s="31" t="s">
-        <v>421</v>
+        <v>424</v>
       </c>
     </row>
     <row r="36" spans="2:8">
       <c r="B36" s="30" t="s">
-        <v>431</v>
+        <v>434</v>
       </c>
       <c r="C36" s="30" t="s">
         <v>34</v>
@@ -8784,12 +8815,12 @@
         <v>180</v>
       </c>
       <c r="H36" s="30" t="s">
-        <v>422</v>
+        <v>425</v>
       </c>
     </row>
     <row r="37" spans="2:8">
       <c r="B37" s="31" t="s">
-        <v>432</v>
+        <v>435</v>
       </c>
       <c r="C37" s="31" t="s">
         <v>38</v>
@@ -8807,12 +8838,12 @@
         <v>0.33</v>
       </c>
       <c r="H37" s="31" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
     </row>
     <row r="38" spans="2:8">
       <c r="B38" s="30" t="s">
-        <v>432</v>
+        <v>435</v>
       </c>
       <c r="C38" s="30" t="s">
         <v>38</v>
@@ -8830,12 +8861,12 @@
         <v>4500</v>
       </c>
       <c r="H38" s="30" t="s">
-        <v>421</v>
+        <v>424</v>
       </c>
     </row>
     <row r="39" spans="2:8">
       <c r="B39" s="31" t="s">
-        <v>432</v>
+        <v>435</v>
       </c>
       <c r="C39" s="31" t="s">
         <v>38</v>
@@ -8853,12 +8884,12 @@
         <v>160</v>
       </c>
       <c r="H39" s="31" t="s">
-        <v>422</v>
+        <v>425</v>
       </c>
     </row>
     <row r="40" spans="2:8">
       <c r="B40" s="30" t="s">
-        <v>433</v>
+        <v>436</v>
       </c>
       <c r="C40" s="30" t="s">
         <v>34</v>
@@ -8876,12 +8907,12 @@
         <v>0.39</v>
       </c>
       <c r="H40" s="30" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
     </row>
     <row r="41" spans="2:8">
       <c r="B41" s="31" t="s">
-        <v>433</v>
+        <v>436</v>
       </c>
       <c r="C41" s="31" t="s">
         <v>34</v>
@@ -8899,12 +8930,12 @@
         <v>5100</v>
       </c>
       <c r="H41" s="31" t="s">
-        <v>421</v>
+        <v>424</v>
       </c>
     </row>
     <row r="42" spans="2:8">
       <c r="B42" s="30" t="s">
-        <v>433</v>
+        <v>436</v>
       </c>
       <c r="C42" s="30" t="s">
         <v>34</v>
@@ -8922,12 +8953,12 @@
         <v>155</v>
       </c>
       <c r="H42" s="30" t="s">
-        <v>422</v>
+        <v>425</v>
       </c>
     </row>
     <row r="43" spans="2:8">
       <c r="B43" s="31" t="s">
-        <v>434</v>
+        <v>437</v>
       </c>
       <c r="C43" s="31" t="s">
         <v>27</v>
@@ -8945,12 +8976,12 @@
         <v>1</v>
       </c>
       <c r="H43" s="31" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
     </row>
     <row r="44" spans="2:8">
       <c r="B44" s="30" t="s">
-        <v>434</v>
+        <v>437</v>
       </c>
       <c r="C44" s="30" t="s">
         <v>27</v>
@@ -8968,12 +8999,12 @@
         <v>0.14000000000000001</v>
       </c>
       <c r="H44" s="30" t="s">
-        <v>420</v>
+        <v>423</v>
       </c>
     </row>
     <row r="45" spans="2:8">
       <c r="B45" s="31" t="s">
-        <v>434</v>
+        <v>437</v>
       </c>
       <c r="C45" s="31" t="s">
         <v>27</v>
@@ -8991,12 +9022,12 @@
         <v>340</v>
       </c>
       <c r="H45" s="31" t="s">
-        <v>421</v>
+        <v>424</v>
       </c>
     </row>
     <row r="46" spans="2:8">
       <c r="B46" s="30" t="s">
-        <v>434</v>
+        <v>437</v>
       </c>
       <c r="C46" s="30" t="s">
         <v>27</v>
@@ -9014,12 +9045,12 @@
         <v>10</v>
       </c>
       <c r="H46" s="30" t="s">
-        <v>422</v>
+        <v>425</v>
       </c>
     </row>
     <row r="47" spans="2:8">
       <c r="B47" s="31" t="s">
-        <v>434</v>
+        <v>437</v>
       </c>
       <c r="C47" s="31" t="s">
         <v>27</v>
@@ -9037,12 +9068,12 @@
         <v>1.5</v>
       </c>
       <c r="H47" s="31" t="s">
-        <v>423</v>
+        <v>426</v>
       </c>
     </row>
     <row r="48" spans="2:8">
       <c r="B48" s="30" t="s">
-        <v>435</v>
+        <v>438</v>
       </c>
       <c r="C48" s="30" t="s">
         <v>34</v>
@@ -9060,12 +9091,12 @@
         <v>0.39</v>
       </c>
       <c r="H48" s="30" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
     </row>
     <row r="49" spans="2:8">
       <c r="B49" s="31" t="s">
-        <v>435</v>
+        <v>438</v>
       </c>
       <c r="C49" s="31" t="s">
         <v>34</v>
@@ -9083,12 +9114,12 @@
         <v>1700</v>
       </c>
       <c r="H49" s="31" t="s">
-        <v>421</v>
+        <v>424</v>
       </c>
     </row>
     <row r="50" spans="2:8">
       <c r="B50" s="30" t="s">
-        <v>435</v>
+        <v>438</v>
       </c>
       <c r="C50" s="30" t="s">
         <v>34</v>
@@ -9106,12 +9137,12 @@
         <v>45</v>
       </c>
       <c r="H50" s="30" t="s">
-        <v>422</v>
+        <v>425</v>
       </c>
     </row>
     <row r="51" spans="2:8">
       <c r="B51" s="31" t="s">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="C51" s="31" t="s">
         <v>34</v>
@@ -9129,12 +9160,12 @@
         <v>0.43</v>
       </c>
       <c r="H51" s="31" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
     </row>
     <row r="52" spans="2:8">
       <c r="B52" s="30" t="s">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="C52" s="30" t="s">
         <v>34</v>
@@ -9152,12 +9183,12 @@
         <v>2000</v>
       </c>
       <c r="H52" s="30" t="s">
-        <v>421</v>
+        <v>424</v>
       </c>
     </row>
     <row r="53" spans="2:8">
       <c r="B53" s="31" t="s">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="C53" s="31" t="s">
         <v>34</v>
@@ -9175,12 +9206,12 @@
         <v>60</v>
       </c>
       <c r="H53" s="31" t="s">
-        <v>422</v>
+        <v>425</v>
       </c>
     </row>
     <row r="54" spans="2:8">
       <c r="B54" s="30" t="s">
-        <v>437</v>
+        <v>440</v>
       </c>
       <c r="C54" s="30" t="s">
         <v>34</v>
@@ -9198,12 +9229,12 @@
         <v>0.48</v>
       </c>
       <c r="H54" s="30" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
     </row>
     <row r="55" spans="2:8">
       <c r="B55" s="31" t="s">
-        <v>437</v>
+        <v>440</v>
       </c>
       <c r="C55" s="31" t="s">
         <v>34</v>
@@ -9221,12 +9252,12 @@
         <v>2200</v>
       </c>
       <c r="H55" s="31" t="s">
-        <v>421</v>
+        <v>424</v>
       </c>
     </row>
     <row r="56" spans="2:8">
       <c r="B56" s="30" t="s">
-        <v>437</v>
+        <v>440</v>
       </c>
       <c r="C56" s="30" t="s">
         <v>34</v>
@@ -9244,12 +9275,12 @@
         <v>65</v>
       </c>
       <c r="H56" s="30" t="s">
-        <v>422</v>
+        <v>425</v>
       </c>
     </row>
     <row r="57" spans="2:8">
       <c r="B57" s="31" t="s">
-        <v>438</v>
+        <v>441</v>
       </c>
       <c r="C57" s="31" t="s">
         <v>28</v>
@@ -9267,12 +9298,12 @@
         <v>1</v>
       </c>
       <c r="H57" s="31" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
     </row>
     <row r="58" spans="2:8">
       <c r="B58" s="30" t="s">
-        <v>438</v>
+        <v>441</v>
       </c>
       <c r="C58" s="30" t="s">
         <v>28</v>
@@ -9290,12 +9321,12 @@
         <v>0.56000000000000005</v>
       </c>
       <c r="H58" s="30" t="s">
-        <v>420</v>
+        <v>423</v>
       </c>
     </row>
     <row r="59" spans="2:8">
       <c r="B59" s="31" t="s">
-        <v>438</v>
+        <v>441</v>
       </c>
       <c r="C59" s="31" t="s">
         <v>28</v>
@@ -9313,12 +9344,12 @@
         <v>1660</v>
       </c>
       <c r="H59" s="31" t="s">
-        <v>421</v>
+        <v>424</v>
       </c>
     </row>
     <row r="60" spans="2:8">
       <c r="B60" s="30" t="s">
-        <v>438</v>
+        <v>441</v>
       </c>
       <c r="C60" s="30" t="s">
         <v>28</v>
@@ -9336,12 +9367,12 @@
         <v>40</v>
       </c>
       <c r="H60" s="30" t="s">
-        <v>422</v>
+        <v>425</v>
       </c>
     </row>
     <row r="61" spans="2:8">
       <c r="B61" s="31" t="s">
-        <v>438</v>
+        <v>441</v>
       </c>
       <c r="C61" s="31" t="s">
         <v>28</v>
@@ -9359,12 +9390,12 @@
         <v>3</v>
       </c>
       <c r="H61" s="31" t="s">
-        <v>423</v>
+        <v>426</v>
       </c>
     </row>
     <row r="62" spans="2:8">
       <c r="B62" s="30" t="s">
-        <v>439</v>
+        <v>442</v>
       </c>
       <c r="C62" s="30" t="s">
         <v>28</v>
@@ -9382,12 +9413,12 @@
         <v>1</v>
       </c>
       <c r="H62" s="30" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
     </row>
     <row r="63" spans="2:8">
       <c r="B63" s="31" t="s">
-        <v>439</v>
+        <v>442</v>
       </c>
       <c r="C63" s="31" t="s">
         <v>28</v>
@@ -9405,12 +9436,12 @@
         <v>0.3</v>
       </c>
       <c r="H63" s="31" t="s">
-        <v>420</v>
+        <v>423</v>
       </c>
     </row>
     <row r="64" spans="2:8">
       <c r="B64" s="30" t="s">
-        <v>439</v>
+        <v>442</v>
       </c>
       <c r="C64" s="30" t="s">
         <v>28</v>
@@ -9428,12 +9459,12 @@
         <v>1490</v>
       </c>
       <c r="H64" s="30" t="s">
-        <v>421</v>
+        <v>424</v>
       </c>
     </row>
     <row r="65" spans="2:8">
       <c r="B65" s="31" t="s">
-        <v>439</v>
+        <v>442</v>
       </c>
       <c r="C65" s="31" t="s">
         <v>28</v>
@@ -9451,12 +9482,12 @@
         <v>38</v>
       </c>
       <c r="H65" s="31" t="s">
-        <v>422</v>
+        <v>425</v>
       </c>
     </row>
     <row r="66" spans="2:8">
       <c r="B66" s="30" t="s">
-        <v>439</v>
+        <v>442</v>
       </c>
       <c r="C66" s="30" t="s">
         <v>28</v>
@@ -9474,7 +9505,7 @@
         <v>1.5</v>
       </c>
       <c r="H66" s="30" t="s">
-        <v>423</v>
+        <v>426</v>
       </c>
     </row>
   </sheetData>

--- a/VerveStacks_CHE_grids/SubRES_Tmpl/SubRES_New_RE_and_Conventional.xlsx
+++ b/VerveStacks_CHE_grids/SubRES_Tmpl/SubRES_New_RE_and_Conventional.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_CHE_grids\SubRES_Tmpl\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A90BA0DE-6D66-4AB6-9645-7EB93A106141}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{25560406-F984-48FD-824B-92FEF339AA22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="6" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -824,16 +824,112 @@
     <t>pre</t>
   </si>
   <si>
+    <t>distr_solelc_won-CHE_0010</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell CHE_10</t>
+  </si>
+  <si>
+    <t>NRGI</t>
+  </si>
+  <si>
+    <t>daynite</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-CHE_0022</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell CHE_22</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-CHE_0000</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell CHE_0</t>
+  </si>
+  <si>
     <t>distr_solelc_won-CHE_0007</t>
   </si>
   <si>
     <t>connecting solar and wind to buses in grid cell CHE_7</t>
   </si>
   <si>
-    <t>NRGI</t>
-  </si>
-  <si>
-    <t>daynite</t>
+    <t>distr_solelc_won-CHE_0020</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell CHE_20</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-CHE_0001</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell CHE_1</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-CHE_0006</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell CHE_6</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-CHE_0024</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell CHE_24</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-CHE_0008</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell CHE_8</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-CHE_0005</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell CHE_5</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-CHE_0013</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell CHE_13</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-CHE_0012</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell CHE_12</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-CHE_0002</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell CHE_2</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-CHE_0003</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell CHE_3</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-CHE_0009</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell CHE_9</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-CHE_0021</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell CHE_21</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-CHE_0004</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell CHE_4</t>
   </si>
   <si>
     <t>distr_solelc_won-CHE_0017</t>
@@ -854,28 +950,16 @@
     <t>connecting solar and wind to buses in grid cell CHE_23</t>
   </si>
   <si>
-    <t>distr_solelc_won-CHE_0012</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell CHE_12</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-CHE_0024</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell CHE_24</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-CHE_0008</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell CHE_8</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-CHE_0005</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell CHE_5</t>
+    <t>distr_solelc_won-CHE_0014</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell CHE_14</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-CHE_0018</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell CHE_18</t>
   </si>
   <si>
     <t>distr_solelc_won-CHE_0011</t>
@@ -896,102 +980,114 @@
     <t>connecting solar and wind to buses in grid cell CHE_25</t>
   </si>
   <si>
-    <t>distr_solelc_won-CHE_0003</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell CHE_3</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-CHE_0020</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell CHE_20</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-CHE_0001</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell CHE_1</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-CHE_0006</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell CHE_6</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-CHE_0000</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell CHE_0</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-CHE_0009</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell CHE_9</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-CHE_0021</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell CHE_21</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-CHE_0004</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell CHE_4</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-CHE_0002</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell CHE_2</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-CHE_0014</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell CHE_14</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-CHE_0018</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell CHE_18</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-CHE_0010</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell CHE_10</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-CHE_0022</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell CHE_22</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-CHE_0013</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell CHE_13</t>
-  </si>
-  <si>
     <t>comm-in</t>
   </si>
   <si>
     <t>efficiency</t>
   </si>
   <si>
+    <t>elc_won-CHE_0010,elc_spv-CHE_0010</t>
+  </si>
+  <si>
+    <t>e_CH11-220,e_w109037817-220,e_w109037817-380,e_w127004407-380,e_w127004407-400,e_w27435934-220,e_w30350721-220,e_w397960460-380,e_w397960460-400,e_w88901626-380</t>
+  </si>
+  <si>
+    <t>elc_won-CHE_0022,elc_spv-CHE_0022</t>
+  </si>
+  <si>
+    <t>e_CH4-220,e_CH9-220,e_w455120191-220,e_w83861269-220,e_w92798668-220,e_w92873516-220</t>
+  </si>
+  <si>
+    <t>elc_won-CHE_0000,elc_spv-CHE_0000</t>
+  </si>
+  <si>
+    <t>e_CH51-220,e_CH51-225,e_CH51-400,e_CH52-220,e_CH57-220,e_CH57-225,e_w177392130-220,e_w177392130-400,e_w239937062-220</t>
+  </si>
+  <si>
     <t>elc_won-CHE_0007,elc_spv-CHE_0007</t>
   </si>
   <si>
     <t>e_CH44-220,e_w212722603-220,e_w212722603-380,e_w236819191-220,e_w758943072-220</t>
   </si>
   <si>
+    <t>elc_won-CHE_0020,elc_spv-CHE_0020</t>
+  </si>
+  <si>
+    <t>e_CH21-220,e_CH22-220,e_CH22-380,e_CH29-220,e_CH29-380,e_CH41-380,e_w1208713169-220,e_w207993342-220,e_w207993342-380,e_w208780268-380,e_w212498548-220,e_w36348118-220,e_w365556107-220,e_w71500123-220,e_w71500123-380</t>
+  </si>
+  <si>
+    <t>elc_won-CHE_0001,elc_spv-CHE_0001</t>
+  </si>
+  <si>
+    <t>e_CH31-220,e_w132373704-220,e_w232662311-220,e_w44496892-220,e_w55695765-220</t>
+  </si>
+  <si>
+    <t>elc_won-CHE_0006,elc_spv-CHE_0006</t>
+  </si>
+  <si>
+    <t>e_w127004407-400</t>
+  </si>
+  <si>
+    <t>elc_won-CHE_0024,elc_spv-CHE_0024</t>
+  </si>
+  <si>
+    <t>e_CH30-380,e_CH33-380,e_CH37-380,e_r7933294-380</t>
+  </si>
+  <si>
+    <t>elc_won-CHE_0008,elc_spv-CHE_0008</t>
+  </si>
+  <si>
+    <t>e_CH43-220,e_w209324991-220,e_w26166640-220,e_w402055336-220,e_w758315582-220</t>
+  </si>
+  <si>
+    <t>elc_won-CHE_0005,elc_spv-CHE_0005</t>
+  </si>
+  <si>
+    <t>e_r5378910-220,e_w161853746-220</t>
+  </si>
+  <si>
+    <t>elc_won-CHE_0013,elc_spv-CHE_0013</t>
+  </si>
+  <si>
+    <t>e_CH15-220,e_w146225999-220,e_w159527493-220,e_w242269161-220,e_w281799252-220,e_w35002638-220,e_w35002638-380,e_w97941869-220</t>
+  </si>
+  <si>
+    <t>elc_won-CHE_0012,elc_spv-CHE_0012</t>
+  </si>
+  <si>
+    <t>e_CH19-220,e_CH20-220,e_CH25-220,e_CH27-220,e_CH34-220,e_CH34-380,e_CH35-220,e_CH36-220,e_CH38-220,e_CH39-220,e_CH40-220,e_w1086214433-220,e_w1092884227-220,e_w240959264-220,e_w364949845-220,e_w364949845-380</t>
+  </si>
+  <si>
+    <t>elc_won-CHE_0002,elc_spv-CHE_0002</t>
+  </si>
+  <si>
+    <t>e_w232662311-220</t>
+  </si>
+  <si>
+    <t>elc_won-CHE_0003,elc_spv-CHE_0003</t>
+  </si>
+  <si>
+    <t>e_CH48-225,e_CH49-225,e_CH53-225,e_CH60-225,e_w234983117-220,e_w234983117-380,e_w238138373-380,e_w260211728-225,e_w260211728-380,e_w55698557-220,e_w55698557-225,e_w802058337-220,e_w802058337-225,e_w936521586-380</t>
+  </si>
+  <si>
+    <t>elc_won-CHE_0009,elc_spv-CHE_0009</t>
+  </si>
+  <si>
+    <t>e_CH14-220,e_CH14-380,e_w1105061707-220,e_w1105061707-380,e_w147557680-220,e_w165254212-220,e_w402053379-220</t>
+  </si>
+  <si>
+    <t>elc_won-CHE_0021,elc_spv-CHE_0021</t>
+  </si>
+  <si>
+    <t>e_CH17-380,e_w211907009-220</t>
+  </si>
+  <si>
+    <t>elc_won-CHE_0004,elc_spv-CHE_0004</t>
+  </si>
+  <si>
+    <t>e_w111162936-220,e_w111162936-380,e_w111162936-400,e_w122720993-220,e_w194258388-220</t>
+  </si>
+  <si>
     <t>elc_won-CHE_0017,elc_spv-CHE_0017</t>
   </si>
   <si>
@@ -1010,28 +1106,16 @@
     <t>e_w207991759-380</t>
   </si>
   <si>
-    <t>elc_won-CHE_0012,elc_spv-CHE_0012</t>
-  </si>
-  <si>
-    <t>e_CH19-220,e_CH20-220,e_CH25-220,e_CH27-220,e_CH34-220,e_CH34-380,e_CH35-220,e_CH36-220,e_CH38-220,e_CH39-220,e_CH40-220,e_w1086214433-220,e_w1092884227-220,e_w240959264-220,e_w364949845-220,e_w364949845-380</t>
-  </si>
-  <si>
-    <t>elc_won-CHE_0024,elc_spv-CHE_0024</t>
-  </si>
-  <si>
-    <t>e_CH30-380,e_CH33-380,e_CH37-380,e_r7933294-380</t>
-  </si>
-  <si>
-    <t>elc_won-CHE_0008,elc_spv-CHE_0008</t>
-  </si>
-  <si>
-    <t>e_CH43-220,e_w209324991-220,e_w26166640-220,e_w402055336-220,e_w758315582-220</t>
-  </si>
-  <si>
-    <t>elc_won-CHE_0005,elc_spv-CHE_0005</t>
-  </si>
-  <si>
-    <t>e_r5378910-220,e_w161853746-220</t>
+    <t>elc_won-CHE_0014,elc_spv-CHE_0014</t>
+  </si>
+  <si>
+    <t>e_CH1-220,e_CH2-220,e_CH5-220,e_CH7-220,e_w108257952-220,e_w1284913429-220,e_w165513396-220,e_w165513396-380,e_w190819048-220,e_w27107779-220,e_w31308888-220,e_w33271433-220,e_w356292116-220,e_w356292116-380,e_w35840165-380,e_w50319857-220,e_w50319857-380,e_w50319857-400,e_w89405664-220,e_w89977424-220,e_w98648381-220,e_w98648381-380</t>
+  </si>
+  <si>
+    <t>elc_won-CHE_0018,elc_spv-CHE_0018</t>
+  </si>
+  <si>
+    <t>e_CH3-220,e_CH6-220,e_r9310861-220,e_w11282314-220,e_w147714395-220,e_w147714395-380,e_w148015471-220,e_w22899676-220,e_w240575085-220,e_w26843160-220,e_w281809991-220,e_w50561341-220,e_w87281514-220</t>
   </si>
   <si>
     <t>elc_won-CHE_0011,elc_spv-CHE_0011</t>
@@ -1050,90 +1134,6 @@
   </si>
   <si>
     <t>e_r7933294-380</t>
-  </si>
-  <si>
-    <t>elc_won-CHE_0003,elc_spv-CHE_0003</t>
-  </si>
-  <si>
-    <t>e_CH48-225,e_CH49-225,e_CH53-225,e_CH60-225,e_w234983117-220,e_w234983117-380,e_w238138373-380,e_w260211728-225,e_w260211728-380,e_w55698557-220,e_w55698557-225,e_w802058337-220,e_w802058337-225,e_w936521586-380</t>
-  </si>
-  <si>
-    <t>elc_won-CHE_0020,elc_spv-CHE_0020</t>
-  </si>
-  <si>
-    <t>e_CH21-220,e_CH22-220,e_CH22-380,e_CH29-220,e_CH29-380,e_CH41-380,e_w1208713169-220,e_w207993342-220,e_w207993342-380,e_w208780268-380,e_w212498548-220,e_w36348118-220,e_w365556107-220,e_w71500123-220,e_w71500123-380</t>
-  </si>
-  <si>
-    <t>elc_won-CHE_0001,elc_spv-CHE_0001</t>
-  </si>
-  <si>
-    <t>e_CH31-220,e_w132373704-220,e_w232662311-220,e_w44496892-220,e_w55695765-220</t>
-  </si>
-  <si>
-    <t>elc_won-CHE_0006,elc_spv-CHE_0006</t>
-  </si>
-  <si>
-    <t>e_w127004407-400</t>
-  </si>
-  <si>
-    <t>elc_won-CHE_0000,elc_spv-CHE_0000</t>
-  </si>
-  <si>
-    <t>e_CH51-220,e_CH51-225,e_CH51-400,e_CH52-220,e_CH57-220,e_CH57-225,e_w177392130-220,e_w177392130-400,e_w239937062-220</t>
-  </si>
-  <si>
-    <t>elc_won-CHE_0009,elc_spv-CHE_0009</t>
-  </si>
-  <si>
-    <t>e_CH14-220,e_CH14-380,e_w1105061707-220,e_w1105061707-380,e_w147557680-220,e_w165254212-220,e_w402053379-220</t>
-  </si>
-  <si>
-    <t>elc_won-CHE_0021,elc_spv-CHE_0021</t>
-  </si>
-  <si>
-    <t>e_CH17-380,e_w211907009-220</t>
-  </si>
-  <si>
-    <t>elc_won-CHE_0004,elc_spv-CHE_0004</t>
-  </si>
-  <si>
-    <t>e_w111162936-220,e_w111162936-380,e_w111162936-400,e_w122720993-220,e_w194258388-220</t>
-  </si>
-  <si>
-    <t>elc_won-CHE_0002,elc_spv-CHE_0002</t>
-  </si>
-  <si>
-    <t>e_w232662311-220</t>
-  </si>
-  <si>
-    <t>elc_won-CHE_0014,elc_spv-CHE_0014</t>
-  </si>
-  <si>
-    <t>e_CH1-220,e_CH2-220,e_CH5-220,e_CH7-220,e_w108257952-220,e_w1284913429-220,e_w165513396-220,e_w165513396-380,e_w190819048-220,e_w27107779-220,e_w31308888-220,e_w33271433-220,e_w356292116-220,e_w356292116-380,e_w35840165-380,e_w50319857-220,e_w50319857-380,e_w50319857-400,e_w89405664-220,e_w89977424-220,e_w98648381-220,e_w98648381-380</t>
-  </si>
-  <si>
-    <t>elc_won-CHE_0018,elc_spv-CHE_0018</t>
-  </si>
-  <si>
-    <t>e_CH3-220,e_CH6-220,e_r9310861-220,e_w11282314-220,e_w147714395-220,e_w147714395-380,e_w148015471-220,e_w22899676-220,e_w240575085-220,e_w26843160-220,e_w281809991-220,e_w50561341-220,e_w87281514-220</t>
-  </si>
-  <si>
-    <t>elc_won-CHE_0010,elc_spv-CHE_0010</t>
-  </si>
-  <si>
-    <t>e_CH11-220,e_w109037817-220,e_w109037817-380,e_w127004407-380,e_w127004407-400,e_w27435934-220,e_w30350721-220,e_w397960460-380,e_w397960460-400,e_w88901626-380</t>
-  </si>
-  <si>
-    <t>elc_won-CHE_0022,elc_spv-CHE_0022</t>
-  </si>
-  <si>
-    <t>e_CH4-220,e_CH9-220,e_w455120191-220,e_w83861269-220,e_w92798668-220,e_w92873516-220</t>
-  </si>
-  <si>
-    <t>elc_won-CHE_0013,elc_spv-CHE_0013</t>
-  </si>
-  <si>
-    <t>e_CH15-220,e_w146225999-220,e_w159527493-220,e_w242269161-220,e_w281799252-220,e_w35002638-220,e_w35002638-380,e_w97941869-220</t>
   </si>
   <si>
     <t>e_won-CHE_0000</t>
@@ -1812,7 +1812,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E6AFDBFC-7BCF-9067-A031-261E92AFA27E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8B288C5D-3B52-391B-12D0-120F972F9A49}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1867,7 +1867,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{342F83EA-D4E1-0510-3B91-74C2E7E84271}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{717F4B73-04E1-0CCB-77F1-01BD193997AE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1922,7 +1922,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AAD5C67A-ECF3-4980-BFB9-76950663E0E8}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8C4F272C-C86F-C255-1287-C1C96AFA2C5E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1977,7 +1977,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{749CEB6E-F5E1-41BF-45C1-B6D0D02C50B2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D3A4AD8B-ABBC-2000-83E2-8F4179F2EC40}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4504,7 +4504,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70C4D652-115A-4D11-B8F2-8A2BA7B65651}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4ED5E85-7921-4676-96A2-97105CCDC909}">
   <dimension ref="A1:AG28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4715,7 +4715,7 @@
         <v>1</v>
       </c>
       <c r="AG4" s="30" t="s">
-        <v>231</v>
+        <v>191</v>
       </c>
     </row>
     <row r="5" spans="1:33">
@@ -4792,7 +4792,7 @@
         <v>1</v>
       </c>
       <c r="AG5" s="31" t="s">
-        <v>203</v>
+        <v>215</v>
       </c>
     </row>
     <row r="6" spans="1:33">
@@ -4869,7 +4869,7 @@
         <v>1</v>
       </c>
       <c r="AG6" s="30" t="s">
-        <v>207</v>
+        <v>187</v>
       </c>
     </row>
     <row r="7" spans="1:33">
@@ -4946,7 +4946,7 @@
         <v>1</v>
       </c>
       <c r="AG7" s="31" t="s">
-        <v>217</v>
+        <v>231</v>
       </c>
     </row>
     <row r="8" spans="1:33">
@@ -5023,7 +5023,7 @@
         <v>1</v>
       </c>
       <c r="AG8" s="30" t="s">
-        <v>195</v>
+        <v>211</v>
       </c>
     </row>
     <row r="9" spans="1:33">
@@ -5100,7 +5100,7 @@
         <v>1</v>
       </c>
       <c r="AG9" s="31" t="s">
-        <v>219</v>
+        <v>189</v>
       </c>
     </row>
     <row r="10" spans="1:33">
@@ -5177,7 +5177,7 @@
         <v>1</v>
       </c>
       <c r="AG10" s="30" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
     </row>
     <row r="11" spans="1:33">
@@ -5254,7 +5254,7 @@
         <v>1</v>
       </c>
       <c r="AG11" s="31" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
     </row>
     <row r="12" spans="1:33">
@@ -5331,7 +5331,7 @@
         <v>1</v>
       </c>
       <c r="AG12" s="30" t="s">
-        <v>193</v>
+        <v>233</v>
       </c>
     </row>
     <row r="13" spans="1:33">
@@ -5408,7 +5408,7 @@
         <v>1</v>
       </c>
       <c r="AG13" s="31" t="s">
-        <v>201</v>
+        <v>227</v>
       </c>
     </row>
     <row r="14" spans="1:33">
@@ -5485,7 +5485,7 @@
         <v>1</v>
       </c>
       <c r="AG14" s="30" t="s">
-        <v>221</v>
+        <v>197</v>
       </c>
     </row>
     <row r="15" spans="1:33">
@@ -5562,7 +5562,7 @@
         <v>1</v>
       </c>
       <c r="AG15" s="31" t="s">
-        <v>223</v>
+        <v>195</v>
       </c>
     </row>
     <row r="16" spans="1:33">
@@ -5639,7 +5639,7 @@
         <v>1</v>
       </c>
       <c r="AG16" s="30" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="17" spans="2:33">
@@ -5716,7 +5716,7 @@
         <v>1</v>
       </c>
       <c r="AG17" s="31" t="s">
-        <v>189</v>
+        <v>223</v>
       </c>
     </row>
     <row r="18" spans="2:33">
@@ -5793,7 +5793,7 @@
         <v>1</v>
       </c>
       <c r="AG18" s="30" t="s">
-        <v>229</v>
+        <v>235</v>
       </c>
     </row>
     <row r="19" spans="2:33">
@@ -5870,7 +5870,7 @@
         <v>1</v>
       </c>
       <c r="AG19" s="31" t="s">
-        <v>187</v>
+        <v>213</v>
       </c>
     </row>
     <row r="20" spans="2:33">
@@ -5947,7 +5947,7 @@
         <v>1</v>
       </c>
       <c r="AG20" s="30" t="s">
-        <v>235</v>
+        <v>225</v>
       </c>
     </row>
     <row r="21" spans="2:33">
@@ -6024,7 +6024,7 @@
         <v>1</v>
       </c>
       <c r="AG21" s="31" t="s">
-        <v>213</v>
+        <v>203</v>
       </c>
     </row>
     <row r="22" spans="2:33">
@@ -6101,7 +6101,7 @@
         <v>1</v>
       </c>
       <c r="AG22" s="30" t="s">
-        <v>225</v>
+        <v>207</v>
       </c>
     </row>
     <row r="23" spans="2:33">
@@ -6178,7 +6178,7 @@
         <v>1</v>
       </c>
       <c r="AG23" s="31" t="s">
-        <v>209</v>
+        <v>217</v>
       </c>
     </row>
     <row r="24" spans="2:33">
@@ -6409,7 +6409,7 @@
         <v>1</v>
       </c>
       <c r="AG26" s="30" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
     </row>
     <row r="27" spans="2:33">
@@ -6486,7 +6486,7 @@
         <v>1</v>
       </c>
       <c r="AG27" s="31" t="s">
-        <v>215</v>
+        <v>201</v>
       </c>
     </row>
     <row r="28" spans="2:33">
@@ -6563,7 +6563,7 @@
         <v>1</v>
       </c>
       <c r="AG28" s="30" t="s">
-        <v>197</v>
+        <v>221</v>
       </c>
     </row>
   </sheetData>
@@ -6576,7 +6576,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E69BBE45-8FED-49B5-9208-305B629253A6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83A10511-67EC-4077-B90D-E5D392B2B18A}">
   <dimension ref="A1:O29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7654,7 +7654,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CCBAFE67-9F65-4980-8DF0-8EFE2633AC07}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{309EC6CE-6A83-4BEC-B1D2-A36C10ACA654}">
   <dimension ref="A1:Q66"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/VerveStacks_CHE_grids/SubRES_Tmpl/SubRES_New_RE_and_Conventional.xlsx
+++ b/VerveStacks_CHE_grids/SubRES_Tmpl/SubRES_New_RE_and_Conventional.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_CHE_grids\SubRES_Tmpl\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{617D7756-A045-441B-97A5-65BA02683948}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86918956-0D66-44D9-B810-F9116AABFFEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1484" uniqueCount="446">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1487" uniqueCount="447">
   <si>
     <t>~FI_Process</t>
   </si>
@@ -1443,6 +1443,9 @@
   </si>
   <si>
     <t>elc_buildings,elc_industry,elc_transport,ELCCurt</t>
+  </si>
+  <si>
+    <t>pcg</t>
   </si>
 </sst>
 </file>
@@ -1713,7 +1716,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1"/>
@@ -1766,6 +1769,7 @@
     <xf numFmtId="0" fontId="16" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="16">
     <cellStyle name="20% - Accent3 3 2" xfId="4" xr:uid="{ABC4988B-8BA7-47D0-A9D6-448C999748B6}"/>
@@ -2284,7 +2288,7 @@
   <dimension ref="B2:V18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L7" sqref="L7"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -2335,6 +2339,9 @@
       <c r="G3" s="1" t="s">
         <v>11</v>
       </c>
+      <c r="H3" s="38" t="s">
+        <v>446</v>
+      </c>
       <c r="J3" s="1" t="s">
         <v>12</v>
       </c>
@@ -2529,7 +2536,9 @@
         <v>10</v>
       </c>
       <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
+      <c r="H8" s="38" t="s">
+        <v>25</v>
+      </c>
       <c r="I8" s="1"/>
       <c r="K8" s="1"/>
       <c r="L8" s="1" t="s">
@@ -2561,7 +2570,9 @@
         <v>10</v>
       </c>
       <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
+      <c r="H9" s="38" t="s">
+        <v>25</v>
+      </c>
       <c r="I9" s="1"/>
       <c r="K9" s="1"/>
       <c r="L9" s="1" t="s">

--- a/VerveStacks_CHE_grids/SubRES_Tmpl/SubRES_New_RE_and_Conventional.xlsx
+++ b/VerveStacks_CHE_grids/SubRES_Tmpl/SubRES_New_RE_and_Conventional.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_CHE_grids\SubRES_Tmpl\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{779083A1-D861-4E41-AB8E-264A1F398B61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{17865D7C-E509-40A4-9419-07431C238D60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="7" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -825,18 +825,54 @@
     <t>pre</t>
   </si>
   <si>
+    <t>distr_solelc_won-CHE_0014</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell CHE_14</t>
+  </si>
+  <si>
+    <t>NRGI</t>
+  </si>
+  <si>
+    <t>daynite</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-CHE_0018</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell CHE_18</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-CHE_0009</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell CHE_9</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-CHE_0021</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell CHE_21</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-CHE_0004</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell CHE_4</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-CHE_0000</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell CHE_0</t>
+  </si>
+  <si>
     <t>distr_solelc_won-CHE_0011</t>
   </si>
   <si>
     <t>connecting solar and wind to buses in grid cell CHE_11</t>
   </si>
   <si>
-    <t>NRGI</t>
-  </si>
-  <si>
-    <t>daynite</t>
-  </si>
-  <si>
     <t>distr_solelc_won-CHE_0015</t>
   </si>
   <si>
@@ -849,144 +885,144 @@
     <t>connecting solar and wind to buses in grid cell CHE_25</t>
   </si>
   <si>
+    <t>distr_solelc_won-CHE_0002</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell CHE_2</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-CHE_0010</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell CHE_10</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-CHE_0022</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell CHE_22</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-CHE_0017</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell CHE_17</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-CHE_0019</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell CHE_19</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-CHE_0023</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell CHE_23</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-CHE_0007</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell CHE_7</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-CHE_0013</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell CHE_13</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-CHE_0020</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell CHE_20</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-CHE_0001</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell CHE_1</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-CHE_0006</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell CHE_6</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-CHE_0024</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell CHE_24</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-CHE_0008</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell CHE_8</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-CHE_0005</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell CHE_5</t>
+  </si>
+  <si>
     <t>distr_solelc_won-CHE_0003</t>
   </si>
   <si>
     <t>connecting solar and wind to buses in grid cell CHE_3</t>
   </si>
   <si>
-    <t>distr_solelc_won-CHE_0020</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell CHE_20</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-CHE_0001</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell CHE_1</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-CHE_0006</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell CHE_6</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-CHE_0009</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell CHE_9</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-CHE_0021</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell CHE_21</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-CHE_0004</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell CHE_4</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-CHE_0013</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell CHE_13</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-CHE_0024</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell CHE_24</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-CHE_0008</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell CHE_8</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-CHE_0005</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell CHE_5</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-CHE_0014</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell CHE_14</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-CHE_0018</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell CHE_18</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-CHE_0007</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell CHE_7</t>
-  </si>
-  <si>
     <t>distr_solelc_won-CHE_0012</t>
   </si>
   <si>
     <t>connecting solar and wind to buses in grid cell CHE_12</t>
   </si>
   <si>
-    <t>distr_solelc_won-CHE_0002</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell CHE_2</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-CHE_0017</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell CHE_17</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-CHE_0019</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell CHE_19</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-CHE_0023</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell CHE_23</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-CHE_0000</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell CHE_0</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-CHE_0010</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell CHE_10</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-CHE_0022</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell CHE_22</t>
-  </si>
-  <si>
     <t>comm-in</t>
   </si>
   <si>
     <t>efficiency</t>
   </si>
   <si>
+    <t>elc_won-CHE_0014,elc_spv-CHE_0014</t>
+  </si>
+  <si>
+    <t>e_CH1-220,e_CH2-220,e_CH5-220,e_CH7-220,e_w108257952-220,e_w1284913429-220,e_w165513396-220,e_w165513396-380,e_w190819048-220,e_w27107779-220,e_w31308888-220,e_w33271433-220,e_w356292116-220,e_w356292116-380,e_w35840165-380,e_w50319857-220,e_w50319857-380,e_w50319857-400,e_w89405664-220,e_w89977424-220,e_w98648381-220,e_w98648381-380</t>
+  </si>
+  <si>
+    <t>elc_won-CHE_0018,elc_spv-CHE_0018</t>
+  </si>
+  <si>
+    <t>e_CH3-220,e_CH6-220,e_r9310861-220,e_w11282314-220,e_w147714395-220,e_w147714395-380,e_w148015471-220,e_w22899676-220,e_w240575085-220,e_w26843160-220,e_w281809991-220,e_w50561341-220,e_w87281514-220</t>
+  </si>
+  <si>
+    <t>elc_won-CHE_0009,elc_spv-CHE_0009</t>
+  </si>
+  <si>
+    <t>e_CH14-220,e_CH14-380,e_w1105061707-220,e_w1105061707-380,e_w147557680-220,e_w165254212-220,e_w402053379-220</t>
+  </si>
+  <si>
+    <t>elc_won-CHE_0021,elc_spv-CHE_0021</t>
+  </si>
+  <si>
+    <t>e_CH17-380,e_w211907009-220</t>
+  </si>
+  <si>
+    <t>elc_won-CHE_0004,elc_spv-CHE_0004</t>
+  </si>
+  <si>
+    <t>e_w111162936-220,e_w111162936-380,e_w111162936-400,e_w122720993-220,e_w194258388-220</t>
+  </si>
+  <si>
+    <t>elc_won-CHE_0000,elc_spv-CHE_0000</t>
+  </si>
+  <si>
+    <t>e_CH51-220,e_CH51-225,e_CH51-400,e_CH52-220,e_CH57-220,e_CH57-225,e_w177392130-220,e_w177392130-400,e_w239937062-220</t>
+  </si>
+  <si>
     <t>elc_won-CHE_0011,elc_spv-CHE_0011</t>
   </si>
   <si>
@@ -1005,136 +1041,100 @@
     <t>e_r7933294-380</t>
   </si>
   <si>
+    <t>elc_won-CHE_0002,elc_spv-CHE_0002</t>
+  </si>
+  <si>
+    <t>e_w232662311-220</t>
+  </si>
+  <si>
+    <t>elc_won-CHE_0010,elc_spv-CHE_0010</t>
+  </si>
+  <si>
+    <t>e_CH11-220,e_w109037817-220,e_w109037817-380,e_w127004407-380,e_w127004407-400,e_w27435934-220,e_w30350721-220,e_w397960460-380,e_w397960460-400,e_w88901626-380</t>
+  </si>
+  <si>
+    <t>elc_won-CHE_0022,elc_spv-CHE_0022</t>
+  </si>
+  <si>
+    <t>e_CH4-220,e_CH9-220,e_w455120191-220,e_w83861269-220,e_w92798668-220,e_w92873516-220</t>
+  </si>
+  <si>
+    <t>elc_won-CHE_0017,elc_spv-CHE_0017</t>
+  </si>
+  <si>
+    <t>e_CH12-220,e_CH12-380,e_CH13-220,e_CH16-380,e_CH18-220,e_CH18-380,e_w192677427-220,e_w192677427-380,e_w52738225-220,e_w52738225-380</t>
+  </si>
+  <si>
+    <t>elc_won-CHE_0019,elc_spv-CHE_0019</t>
+  </si>
+  <si>
+    <t>e_CH45-220,e_w281804158-220,e_w281804158-380</t>
+  </si>
+  <si>
+    <t>elc_won-CHE_0023,elc_spv-CHE_0023</t>
+  </si>
+  <si>
+    <t>e_w207991759-380</t>
+  </si>
+  <si>
+    <t>elc_won-CHE_0007,elc_spv-CHE_0007</t>
+  </si>
+  <si>
+    <t>e_CH44-220,e_w212722603-220,e_w212722603-380,e_w236819191-220,e_w758943072-220</t>
+  </si>
+  <si>
+    <t>elc_won-CHE_0013,elc_spv-CHE_0013</t>
+  </si>
+  <si>
+    <t>e_CH15-220,e_w146225999-220,e_w159527493-220,e_w242269161-220,e_w281799252-220,e_w35002638-220,e_w35002638-380,e_w97941869-220</t>
+  </si>
+  <si>
+    <t>elc_won-CHE_0020,elc_spv-CHE_0020</t>
+  </si>
+  <si>
+    <t>e_CH21-220,e_CH22-220,e_CH22-380,e_CH29-220,e_CH29-380,e_CH41-380,e_w1208713169-220,e_w207993342-220,e_w207993342-380,e_w208780268-380,e_w212498548-220,e_w36348118-220,e_w365556107-220,e_w71500123-220,e_w71500123-380</t>
+  </si>
+  <si>
+    <t>elc_won-CHE_0001,elc_spv-CHE_0001</t>
+  </si>
+  <si>
+    <t>e_CH31-220,e_w132373704-220,e_w232662311-220,e_w44496892-220,e_w55695765-220</t>
+  </si>
+  <si>
+    <t>elc_won-CHE_0006,elc_spv-CHE_0006</t>
+  </si>
+  <si>
+    <t>e_w127004407-400</t>
+  </si>
+  <si>
+    <t>elc_won-CHE_0024,elc_spv-CHE_0024</t>
+  </si>
+  <si>
+    <t>e_CH30-380,e_CH33-380,e_CH37-380,e_r7933294-380</t>
+  </si>
+  <si>
+    <t>elc_won-CHE_0008,elc_spv-CHE_0008</t>
+  </si>
+  <si>
+    <t>e_CH43-220,e_w209324991-220,e_w26166640-220,e_w402055336-220,e_w758315582-220</t>
+  </si>
+  <si>
+    <t>elc_won-CHE_0005,elc_spv-CHE_0005</t>
+  </si>
+  <si>
+    <t>e_r5378910-220,e_w161853746-220</t>
+  </si>
+  <si>
     <t>elc_won-CHE_0003,elc_spv-CHE_0003</t>
   </si>
   <si>
     <t>e_CH48-225,e_CH49-225,e_CH53-225,e_CH60-225,e_w234983117-220,e_w234983117-380,e_w238138373-380,e_w260211728-225,e_w260211728-380,e_w55698557-220,e_w55698557-225,e_w802058337-220,e_w802058337-225,e_w936521586-380</t>
   </si>
   <si>
-    <t>elc_won-CHE_0020,elc_spv-CHE_0020</t>
-  </si>
-  <si>
-    <t>e_CH21-220,e_CH22-220,e_CH22-380,e_CH29-220,e_CH29-380,e_CH41-380,e_w1208713169-220,e_w207993342-220,e_w207993342-380,e_w208780268-380,e_w212498548-220,e_w36348118-220,e_w365556107-220,e_w71500123-220,e_w71500123-380</t>
-  </si>
-  <si>
-    <t>elc_won-CHE_0001,elc_spv-CHE_0001</t>
-  </si>
-  <si>
-    <t>e_CH31-220,e_w132373704-220,e_w232662311-220,e_w44496892-220,e_w55695765-220</t>
-  </si>
-  <si>
-    <t>elc_won-CHE_0006,elc_spv-CHE_0006</t>
-  </si>
-  <si>
-    <t>e_w127004407-400</t>
-  </si>
-  <si>
-    <t>elc_won-CHE_0009,elc_spv-CHE_0009</t>
-  </si>
-  <si>
-    <t>e_CH14-220,e_CH14-380,e_w1105061707-220,e_w1105061707-380,e_w147557680-220,e_w165254212-220,e_w402053379-220</t>
-  </si>
-  <si>
-    <t>elc_won-CHE_0021,elc_spv-CHE_0021</t>
-  </si>
-  <si>
-    <t>e_CH17-380,e_w211907009-220</t>
-  </si>
-  <si>
-    <t>elc_won-CHE_0004,elc_spv-CHE_0004</t>
-  </si>
-  <si>
-    <t>e_w111162936-220,e_w111162936-380,e_w111162936-400,e_w122720993-220,e_w194258388-220</t>
-  </si>
-  <si>
-    <t>elc_won-CHE_0013,elc_spv-CHE_0013</t>
-  </si>
-  <si>
-    <t>e_CH15-220,e_w146225999-220,e_w159527493-220,e_w242269161-220,e_w281799252-220,e_w35002638-220,e_w35002638-380,e_w97941869-220</t>
-  </si>
-  <si>
-    <t>elc_won-CHE_0024,elc_spv-CHE_0024</t>
-  </si>
-  <si>
-    <t>e_CH30-380,e_CH33-380,e_CH37-380,e_r7933294-380</t>
-  </si>
-  <si>
-    <t>elc_won-CHE_0008,elc_spv-CHE_0008</t>
-  </si>
-  <si>
-    <t>e_CH43-220,e_w209324991-220,e_w26166640-220,e_w402055336-220,e_w758315582-220</t>
-  </si>
-  <si>
-    <t>elc_won-CHE_0005,elc_spv-CHE_0005</t>
-  </si>
-  <si>
-    <t>e_r5378910-220,e_w161853746-220</t>
-  </si>
-  <si>
-    <t>elc_won-CHE_0014,elc_spv-CHE_0014</t>
-  </si>
-  <si>
-    <t>e_CH1-220,e_CH2-220,e_CH5-220,e_CH7-220,e_w108257952-220,e_w1284913429-220,e_w165513396-220,e_w165513396-380,e_w190819048-220,e_w27107779-220,e_w31308888-220,e_w33271433-220,e_w356292116-220,e_w356292116-380,e_w35840165-380,e_w50319857-220,e_w50319857-380,e_w50319857-400,e_w89405664-220,e_w89977424-220,e_w98648381-220,e_w98648381-380</t>
-  </si>
-  <si>
-    <t>elc_won-CHE_0018,elc_spv-CHE_0018</t>
-  </si>
-  <si>
-    <t>e_CH3-220,e_CH6-220,e_r9310861-220,e_w11282314-220,e_w147714395-220,e_w147714395-380,e_w148015471-220,e_w22899676-220,e_w240575085-220,e_w26843160-220,e_w281809991-220,e_w50561341-220,e_w87281514-220</t>
-  </si>
-  <si>
-    <t>elc_won-CHE_0007,elc_spv-CHE_0007</t>
-  </si>
-  <si>
-    <t>e_CH44-220,e_w212722603-220,e_w212722603-380,e_w236819191-220,e_w758943072-220</t>
-  </si>
-  <si>
     <t>elc_won-CHE_0012,elc_spv-CHE_0012</t>
   </si>
   <si>
     <t>e_CH19-220,e_CH20-220,e_CH25-220,e_CH27-220,e_CH34-220,e_CH34-380,e_CH35-220,e_CH36-220,e_CH38-220,e_CH39-220,e_CH40-220,e_w1086214433-220,e_w1092884227-220,e_w240959264-220,e_w364949845-220,e_w364949845-380</t>
-  </si>
-  <si>
-    <t>elc_won-CHE_0002,elc_spv-CHE_0002</t>
-  </si>
-  <si>
-    <t>e_w232662311-220</t>
-  </si>
-  <si>
-    <t>elc_won-CHE_0017,elc_spv-CHE_0017</t>
-  </si>
-  <si>
-    <t>e_CH12-220,e_CH12-380,e_CH13-220,e_CH16-380,e_CH18-220,e_CH18-380,e_w192677427-220,e_w192677427-380,e_w52738225-220,e_w52738225-380</t>
-  </si>
-  <si>
-    <t>elc_won-CHE_0019,elc_spv-CHE_0019</t>
-  </si>
-  <si>
-    <t>e_CH45-220,e_w281804158-220,e_w281804158-380</t>
-  </si>
-  <si>
-    <t>elc_won-CHE_0023,elc_spv-CHE_0023</t>
-  </si>
-  <si>
-    <t>e_w207991759-380</t>
-  </si>
-  <si>
-    <t>elc_won-CHE_0000,elc_spv-CHE_0000</t>
-  </si>
-  <si>
-    <t>e_CH51-220,e_CH51-225,e_CH51-400,e_CH52-220,e_CH57-220,e_CH57-225,e_w177392130-220,e_w177392130-400,e_w239937062-220</t>
-  </si>
-  <si>
-    <t>elc_won-CHE_0010,elc_spv-CHE_0010</t>
-  </si>
-  <si>
-    <t>e_CH11-220,e_w109037817-220,e_w109037817-380,e_w127004407-380,e_w127004407-400,e_w27435934-220,e_w30350721-220,e_w397960460-380,e_w397960460-400,e_w88901626-380</t>
-  </si>
-  <si>
-    <t>elc_won-CHE_0022,elc_spv-CHE_0022</t>
-  </si>
-  <si>
-    <t>e_CH4-220,e_CH9-220,e_w455120191-220,e_w83861269-220,e_w92798668-220,e_w92873516-220</t>
   </si>
   <si>
     <t>e_won-CHE_0000</t>
@@ -2251,7 +2251,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{64857231-98B8-ED6E-3752-C9426713311A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D78EC20C-7CEF-89BE-50A2-7C1360B9BF23}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2306,7 +2306,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D184C502-1BAB-A9B1-2215-BE69F4DB0281}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{336B81FC-28C5-1EFA-3C8B-35B17523B018}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2361,7 +2361,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B08F4559-A6C7-A0F4-77A8-18E75FDB56E8}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4BBE32B9-F571-68BB-1FCE-DCDECB6C70A8}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2416,7 +2416,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7D2393EF-A85F-DC02-69B3-9072C063C995}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4128AE72-03E5-5BD5-D026-A0E4E56D36CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2471,7 +2471,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B882375E-0EB1-7787-CF8A-3F6214D65397}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CBBC1640-A161-6D4A-F38E-1827AC56C603}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4998,7 +4998,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AACC38AE-28C9-4012-B7F8-9F8B41E49F38}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{303AEFDB-4839-49C2-A54C-7AD44DCB24C1}">
   <dimension ref="A1:AG28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5209,7 +5209,7 @@
         <v>1</v>
       </c>
       <c r="AG4" s="30" t="s">
-        <v>193</v>
+        <v>199</v>
       </c>
     </row>
     <row r="5" spans="1:33">
@@ -5286,7 +5286,7 @@
         <v>1</v>
       </c>
       <c r="AG5" s="31" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
     </row>
     <row r="6" spans="1:33">
@@ -5363,7 +5363,7 @@
         <v>1</v>
       </c>
       <c r="AG6" s="30" t="s">
-        <v>221</v>
+        <v>235</v>
       </c>
     </row>
     <row r="7" spans="1:33">
@@ -5440,7 +5440,7 @@
         <v>1</v>
       </c>
       <c r="AG7" s="31" t="s">
-        <v>223</v>
+        <v>213</v>
       </c>
     </row>
     <row r="8" spans="1:33">
@@ -5517,7 +5517,7 @@
         <v>1</v>
       </c>
       <c r="AG8" s="30" t="s">
-        <v>211</v>
+        <v>225</v>
       </c>
     </row>
     <row r="9" spans="1:33">
@@ -5594,7 +5594,7 @@
         <v>1</v>
       </c>
       <c r="AG9" s="31" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="10" spans="1:33">
@@ -5671,7 +5671,7 @@
         <v>1</v>
       </c>
       <c r="AG10" s="30" t="s">
-        <v>229</v>
+        <v>193</v>
       </c>
     </row>
     <row r="11" spans="1:33">
@@ -5748,7 +5748,7 @@
         <v>1</v>
       </c>
       <c r="AG11" s="31" t="s">
-        <v>235</v>
+        <v>201</v>
       </c>
     </row>
     <row r="12" spans="1:33">
@@ -5825,7 +5825,7 @@
         <v>1</v>
       </c>
       <c r="AG12" s="30" t="s">
-        <v>213</v>
+        <v>221</v>
       </c>
     </row>
     <row r="13" spans="1:33">
@@ -5902,7 +5902,7 @@
         <v>1</v>
       </c>
       <c r="AG13" s="31" t="s">
-        <v>225</v>
+        <v>209</v>
       </c>
     </row>
     <row r="14" spans="1:33">
@@ -5979,7 +5979,7 @@
         <v>1</v>
       </c>
       <c r="AG14" s="30" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
     </row>
     <row r="15" spans="1:33">
@@ -6056,7 +6056,7 @@
         <v>1</v>
       </c>
       <c r="AG15" s="31" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
     </row>
     <row r="16" spans="1:33">
@@ -6133,7 +6133,7 @@
         <v>1</v>
       </c>
       <c r="AG16" s="30" t="s">
-        <v>233</v>
+        <v>203</v>
       </c>
     </row>
     <row r="17" spans="2:33">
@@ -6210,7 +6210,7 @@
         <v>1</v>
       </c>
       <c r="AG17" s="31" t="s">
-        <v>227</v>
+        <v>207</v>
       </c>
     </row>
     <row r="18" spans="2:33">
@@ -6287,7 +6287,7 @@
         <v>1</v>
       </c>
       <c r="AG18" s="30" t="s">
-        <v>199</v>
+        <v>217</v>
       </c>
     </row>
     <row r="19" spans="2:33">
@@ -6364,7 +6364,7 @@
         <v>1</v>
       </c>
       <c r="AG19" s="31" t="s">
-        <v>205</v>
+        <v>231</v>
       </c>
     </row>
     <row r="20" spans="2:33">
@@ -6441,7 +6441,7 @@
         <v>1</v>
       </c>
       <c r="AG20" s="30" t="s">
-        <v>231</v>
+        <v>197</v>
       </c>
     </row>
     <row r="21" spans="2:33">
@@ -6518,7 +6518,7 @@
         <v>1</v>
       </c>
       <c r="AG21" s="31" t="s">
-        <v>195</v>
+        <v>211</v>
       </c>
     </row>
     <row r="22" spans="2:33">
@@ -6595,7 +6595,7 @@
         <v>1</v>
       </c>
       <c r="AG22" s="30" t="s">
-        <v>209</v>
+        <v>189</v>
       </c>
     </row>
     <row r="23" spans="2:33">
@@ -6672,7 +6672,7 @@
         <v>1</v>
       </c>
       <c r="AG23" s="31" t="s">
-        <v>203</v>
+        <v>229</v>
       </c>
     </row>
     <row r="24" spans="2:33">
@@ -6749,7 +6749,7 @@
         <v>1</v>
       </c>
       <c r="AG24" s="30" t="s">
-        <v>207</v>
+        <v>219</v>
       </c>
     </row>
     <row r="25" spans="2:33">
@@ -6826,7 +6826,7 @@
         <v>1</v>
       </c>
       <c r="AG25" s="31" t="s">
-        <v>217</v>
+        <v>233</v>
       </c>
     </row>
     <row r="26" spans="2:33">
@@ -6903,7 +6903,7 @@
         <v>1</v>
       </c>
       <c r="AG26" s="30" t="s">
-        <v>187</v>
+        <v>227</v>
       </c>
     </row>
     <row r="27" spans="2:33">
@@ -6980,7 +6980,7 @@
         <v>1</v>
       </c>
       <c r="AG27" s="31" t="s">
-        <v>191</v>
+        <v>223</v>
       </c>
     </row>
     <row r="28" spans="2:33">
@@ -7057,7 +7057,7 @@
         <v>1</v>
       </c>
       <c r="AG28" s="30" t="s">
-        <v>215</v>
+        <v>195</v>
       </c>
     </row>
   </sheetData>
@@ -7070,7 +7070,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59567881-B722-44AC-9F6F-B0D7A4614F90}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45435668-DD89-41BD-82D7-05E5AE2444F2}">
   <dimension ref="A1:O29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -8148,7 +8148,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3637757-48F6-4CAC-938D-C8F140B954DA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3532A06D-4648-4647-B96B-25B72647B59C}">
   <dimension ref="A1:Q66"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -10014,7 +10014,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F780538-F606-49CA-8E0E-8A319ACC4F3F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9EF19048-875F-4B07-9A8B-6647D4E6FF79}">
   <dimension ref="A1:M40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -10505,7 +10505,7 @@
         <v>481</v>
       </c>
       <c r="C17" s="31" t="s">
-        <v>306</v>
+        <v>332</v>
       </c>
       <c r="D17" s="31" t="s">
         <v>482</v>

--- a/VerveStacks_CHE_grids/SubRES_Tmpl/SubRES_New_RE_and_Conventional.xlsx
+++ b/VerveStacks_CHE_grids/SubRES_Tmpl/SubRES_New_RE_and_Conventional.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_CHE_grids\SubRES_Tmpl\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{17865D7C-E509-40A4-9419-07431C238D60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4A50801B-DECA-4605-9B12-294A9C386203}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="7" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -825,24 +825,114 @@
     <t>pre</t>
   </si>
   <si>
+    <t>distr_solelc_won-CHE_0003</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell CHE_3</t>
+  </si>
+  <si>
+    <t>NRGI</t>
+  </si>
+  <si>
+    <t>daynite</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-CHE_0000</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell CHE_0</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-CHE_0002</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell CHE_2</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-CHE_0017</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell CHE_17</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-CHE_0019</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell CHE_19</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-CHE_0023</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell CHE_23</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-CHE_0010</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell CHE_10</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-CHE_0022</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell CHE_22</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-CHE_0024</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell CHE_24</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-CHE_0008</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell CHE_8</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-CHE_0005</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell CHE_5</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-CHE_0011</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell CHE_11</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-CHE_0015</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell CHE_15</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-CHE_0025</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell CHE_25</t>
+  </si>
+  <si>
     <t>distr_solelc_won-CHE_0014</t>
   </si>
   <si>
     <t>connecting solar and wind to buses in grid cell CHE_14</t>
   </si>
   <si>
-    <t>NRGI</t>
-  </si>
-  <si>
-    <t>daynite</t>
-  </si>
-  <si>
     <t>distr_solelc_won-CHE_0018</t>
   </si>
   <si>
     <t>connecting solar and wind to buses in grid cell CHE_18</t>
   </si>
   <si>
+    <t>distr_solelc_won-CHE_0007</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell CHE_7</t>
+  </si>
+  <si>
     <t>distr_solelc_won-CHE_0009</t>
   </si>
   <si>
@@ -861,70 +951,28 @@
     <t>connecting solar and wind to buses in grid cell CHE_4</t>
   </si>
   <si>
-    <t>distr_solelc_won-CHE_0000</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell CHE_0</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-CHE_0011</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell CHE_11</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-CHE_0015</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell CHE_15</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-CHE_0025</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell CHE_25</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-CHE_0002</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell CHE_2</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-CHE_0010</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell CHE_10</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-CHE_0022</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell CHE_22</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-CHE_0017</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell CHE_17</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-CHE_0019</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell CHE_19</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-CHE_0023</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell CHE_23</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-CHE_0007</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell CHE_7</t>
+    <t>distr_solelc_won-CHE_0012</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell CHE_12</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-CHE_0020</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell CHE_20</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-CHE_0001</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell CHE_1</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-CHE_0006</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell CHE_6</t>
   </si>
   <si>
     <t>distr_solelc_won-CHE_0013</t>
@@ -933,60 +981,96 @@
     <t>connecting solar and wind to buses in grid cell CHE_13</t>
   </si>
   <si>
-    <t>distr_solelc_won-CHE_0020</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell CHE_20</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-CHE_0001</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell CHE_1</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-CHE_0006</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell CHE_6</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-CHE_0024</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell CHE_24</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-CHE_0008</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell CHE_8</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-CHE_0005</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell CHE_5</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-CHE_0003</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell CHE_3</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-CHE_0012</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell CHE_12</t>
-  </si>
-  <si>
     <t>comm-in</t>
   </si>
   <si>
     <t>efficiency</t>
   </si>
   <si>
+    <t>elc_won-CHE_0003,elc_spv-CHE_0003</t>
+  </si>
+  <si>
+    <t>e_CH48-225,e_CH49-225,e_CH53-225,e_CH60-225,e_w234983117-220,e_w234983117-380,e_w238138373-380,e_w260211728-225,e_w260211728-380,e_w55698557-220,e_w55698557-225,e_w802058337-220,e_w802058337-225,e_w936521586-380</t>
+  </si>
+  <si>
+    <t>elc_won-CHE_0000,elc_spv-CHE_0000</t>
+  </si>
+  <si>
+    <t>e_CH51-220,e_CH51-225,e_CH51-400,e_CH52-220,e_CH57-220,e_CH57-225,e_w177392130-220,e_w177392130-400,e_w239937062-220</t>
+  </si>
+  <si>
+    <t>elc_won-CHE_0002,elc_spv-CHE_0002</t>
+  </si>
+  <si>
+    <t>e_w232662311-220</t>
+  </si>
+  <si>
+    <t>elc_won-CHE_0017,elc_spv-CHE_0017</t>
+  </si>
+  <si>
+    <t>e_CH12-220,e_CH12-380,e_CH13-220,e_CH16-380,e_CH18-220,e_CH18-380,e_w192677427-220,e_w192677427-380,e_w52738225-220,e_w52738225-380</t>
+  </si>
+  <si>
+    <t>elc_won-CHE_0019,elc_spv-CHE_0019</t>
+  </si>
+  <si>
+    <t>e_CH45-220,e_w281804158-220,e_w281804158-380</t>
+  </si>
+  <si>
+    <t>elc_won-CHE_0023,elc_spv-CHE_0023</t>
+  </si>
+  <si>
+    <t>e_w207991759-380</t>
+  </si>
+  <si>
+    <t>elc_won-CHE_0010,elc_spv-CHE_0010</t>
+  </si>
+  <si>
+    <t>e_CH11-220,e_w109037817-220,e_w109037817-380,e_w127004407-380,e_w127004407-400,e_w27435934-220,e_w30350721-220,e_w397960460-380,e_w397960460-400,e_w88901626-380</t>
+  </si>
+  <si>
+    <t>elc_won-CHE_0022,elc_spv-CHE_0022</t>
+  </si>
+  <si>
+    <t>e_CH4-220,e_CH9-220,e_w455120191-220,e_w83861269-220,e_w92798668-220,e_w92873516-220</t>
+  </si>
+  <si>
+    <t>elc_won-CHE_0024,elc_spv-CHE_0024</t>
+  </si>
+  <si>
+    <t>e_CH30-380,e_CH33-380,e_CH37-380,e_r7933294-380</t>
+  </si>
+  <si>
+    <t>elc_won-CHE_0008,elc_spv-CHE_0008</t>
+  </si>
+  <si>
+    <t>e_CH43-220,e_w209324991-220,e_w26166640-220,e_w402055336-220,e_w758315582-220</t>
+  </si>
+  <si>
+    <t>elc_won-CHE_0005,elc_spv-CHE_0005</t>
+  </si>
+  <si>
+    <t>e_r5378910-220,e_w161853746-220</t>
+  </si>
+  <si>
+    <t>elc_won-CHE_0011,elc_spv-CHE_0011</t>
+  </si>
+  <si>
+    <t>e_CH46-220,e_CH47-220,e_w228003081-220,e_w391576135-220,e_w391577741-220,e_w969819301-220,e_w969819301-380</t>
+  </si>
+  <si>
+    <t>elc_won-CHE_0015,elc_spv-CHE_0015</t>
+  </si>
+  <si>
+    <t>e_CH50-220,e_CH56-220,e_CH58-220,e_CH59-220,e_w1327084723-220,e_w281800404-220,e_w281803398-220,e_w281815404-220,e_w35487135-220</t>
+  </si>
+  <si>
+    <t>elc_won-CHE_0025,elc_spv-CHE_0025</t>
+  </si>
+  <si>
+    <t>e_r7933294-380</t>
+  </si>
+  <si>
     <t>elc_won-CHE_0014,elc_spv-CHE_0014</t>
   </si>
   <si>
@@ -999,6 +1083,12 @@
     <t>e_CH3-220,e_CH6-220,e_r9310861-220,e_w11282314-220,e_w147714395-220,e_w147714395-380,e_w148015471-220,e_w22899676-220,e_w240575085-220,e_w26843160-220,e_w281809991-220,e_w50561341-220,e_w87281514-220</t>
   </si>
   <si>
+    <t>elc_won-CHE_0007,elc_spv-CHE_0007</t>
+  </si>
+  <si>
+    <t>e_CH44-220,e_w212722603-220,e_w212722603-380,e_w236819191-220,e_w758943072-220</t>
+  </si>
+  <si>
     <t>elc_won-CHE_0009,elc_spv-CHE_0009</t>
   </si>
   <si>
@@ -1017,124 +1107,34 @@
     <t>e_w111162936-220,e_w111162936-380,e_w111162936-400,e_w122720993-220,e_w194258388-220</t>
   </si>
   <si>
-    <t>elc_won-CHE_0000,elc_spv-CHE_0000</t>
-  </si>
-  <si>
-    <t>e_CH51-220,e_CH51-225,e_CH51-400,e_CH52-220,e_CH57-220,e_CH57-225,e_w177392130-220,e_w177392130-400,e_w239937062-220</t>
-  </si>
-  <si>
-    <t>elc_won-CHE_0011,elc_spv-CHE_0011</t>
-  </si>
-  <si>
-    <t>e_CH46-220,e_CH47-220,e_w228003081-220,e_w391576135-220,e_w391577741-220,e_w969819301-220,e_w969819301-380</t>
-  </si>
-  <si>
-    <t>elc_won-CHE_0015,elc_spv-CHE_0015</t>
-  </si>
-  <si>
-    <t>e_CH50-220,e_CH56-220,e_CH58-220,e_CH59-220,e_w1327084723-220,e_w281800404-220,e_w281803398-220,e_w281815404-220,e_w35487135-220</t>
-  </si>
-  <si>
-    <t>elc_won-CHE_0025,elc_spv-CHE_0025</t>
-  </si>
-  <si>
-    <t>e_r7933294-380</t>
-  </si>
-  <si>
-    <t>elc_won-CHE_0002,elc_spv-CHE_0002</t>
-  </si>
-  <si>
-    <t>e_w232662311-220</t>
-  </si>
-  <si>
-    <t>elc_won-CHE_0010,elc_spv-CHE_0010</t>
-  </si>
-  <si>
-    <t>e_CH11-220,e_w109037817-220,e_w109037817-380,e_w127004407-380,e_w127004407-400,e_w27435934-220,e_w30350721-220,e_w397960460-380,e_w397960460-400,e_w88901626-380</t>
-  </si>
-  <si>
-    <t>elc_won-CHE_0022,elc_spv-CHE_0022</t>
-  </si>
-  <si>
-    <t>e_CH4-220,e_CH9-220,e_w455120191-220,e_w83861269-220,e_w92798668-220,e_w92873516-220</t>
-  </si>
-  <si>
-    <t>elc_won-CHE_0017,elc_spv-CHE_0017</t>
-  </si>
-  <si>
-    <t>e_CH12-220,e_CH12-380,e_CH13-220,e_CH16-380,e_CH18-220,e_CH18-380,e_w192677427-220,e_w192677427-380,e_w52738225-220,e_w52738225-380</t>
-  </si>
-  <si>
-    <t>elc_won-CHE_0019,elc_spv-CHE_0019</t>
-  </si>
-  <si>
-    <t>e_CH45-220,e_w281804158-220,e_w281804158-380</t>
-  </si>
-  <si>
-    <t>elc_won-CHE_0023,elc_spv-CHE_0023</t>
-  </si>
-  <si>
-    <t>e_w207991759-380</t>
-  </si>
-  <si>
-    <t>elc_won-CHE_0007,elc_spv-CHE_0007</t>
-  </si>
-  <si>
-    <t>e_CH44-220,e_w212722603-220,e_w212722603-380,e_w236819191-220,e_w758943072-220</t>
+    <t>elc_won-CHE_0012,elc_spv-CHE_0012</t>
+  </si>
+  <si>
+    <t>e_CH19-220,e_CH20-220,e_CH25-220,e_CH27-220,e_CH34-220,e_CH34-380,e_CH35-220,e_CH36-220,e_CH38-220,e_CH39-220,e_CH40-220,e_w1086214433-220,e_w1092884227-220,e_w240959264-220,e_w364949845-220,e_w364949845-380</t>
+  </si>
+  <si>
+    <t>elc_won-CHE_0020,elc_spv-CHE_0020</t>
+  </si>
+  <si>
+    <t>e_CH21-220,e_CH22-220,e_CH22-380,e_CH29-220,e_CH29-380,e_CH41-380,e_w1208713169-220,e_w207993342-220,e_w207993342-380,e_w208780268-380,e_w212498548-220,e_w36348118-220,e_w365556107-220,e_w71500123-220,e_w71500123-380</t>
+  </si>
+  <si>
+    <t>elc_won-CHE_0001,elc_spv-CHE_0001</t>
+  </si>
+  <si>
+    <t>e_CH31-220,e_w132373704-220,e_w232662311-220,e_w44496892-220,e_w55695765-220</t>
+  </si>
+  <si>
+    <t>elc_won-CHE_0006,elc_spv-CHE_0006</t>
+  </si>
+  <si>
+    <t>e_w127004407-400</t>
   </si>
   <si>
     <t>elc_won-CHE_0013,elc_spv-CHE_0013</t>
   </si>
   <si>
     <t>e_CH15-220,e_w146225999-220,e_w159527493-220,e_w242269161-220,e_w281799252-220,e_w35002638-220,e_w35002638-380,e_w97941869-220</t>
-  </si>
-  <si>
-    <t>elc_won-CHE_0020,elc_spv-CHE_0020</t>
-  </si>
-  <si>
-    <t>e_CH21-220,e_CH22-220,e_CH22-380,e_CH29-220,e_CH29-380,e_CH41-380,e_w1208713169-220,e_w207993342-220,e_w207993342-380,e_w208780268-380,e_w212498548-220,e_w36348118-220,e_w365556107-220,e_w71500123-220,e_w71500123-380</t>
-  </si>
-  <si>
-    <t>elc_won-CHE_0001,elc_spv-CHE_0001</t>
-  </si>
-  <si>
-    <t>e_CH31-220,e_w132373704-220,e_w232662311-220,e_w44496892-220,e_w55695765-220</t>
-  </si>
-  <si>
-    <t>elc_won-CHE_0006,elc_spv-CHE_0006</t>
-  </si>
-  <si>
-    <t>e_w127004407-400</t>
-  </si>
-  <si>
-    <t>elc_won-CHE_0024,elc_spv-CHE_0024</t>
-  </si>
-  <si>
-    <t>e_CH30-380,e_CH33-380,e_CH37-380,e_r7933294-380</t>
-  </si>
-  <si>
-    <t>elc_won-CHE_0008,elc_spv-CHE_0008</t>
-  </si>
-  <si>
-    <t>e_CH43-220,e_w209324991-220,e_w26166640-220,e_w402055336-220,e_w758315582-220</t>
-  </si>
-  <si>
-    <t>elc_won-CHE_0005,elc_spv-CHE_0005</t>
-  </si>
-  <si>
-    <t>e_r5378910-220,e_w161853746-220</t>
-  </si>
-  <si>
-    <t>elc_won-CHE_0003,elc_spv-CHE_0003</t>
-  </si>
-  <si>
-    <t>e_CH48-225,e_CH49-225,e_CH53-225,e_CH60-225,e_w234983117-220,e_w234983117-380,e_w238138373-380,e_w260211728-225,e_w260211728-380,e_w55698557-220,e_w55698557-225,e_w802058337-220,e_w802058337-225,e_w936521586-380</t>
-  </si>
-  <si>
-    <t>elc_won-CHE_0012,elc_spv-CHE_0012</t>
-  </si>
-  <si>
-    <t>e_CH19-220,e_CH20-220,e_CH25-220,e_CH27-220,e_CH34-220,e_CH34-380,e_CH35-220,e_CH36-220,e_CH38-220,e_CH39-220,e_CH40-220,e_w1086214433-220,e_w1092884227-220,e_w240959264-220,e_w364949845-220,e_w364949845-380</t>
   </si>
   <si>
     <t>e_won-CHE_0000</t>
@@ -2251,7 +2251,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D78EC20C-7CEF-89BE-50A2-7C1360B9BF23}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{885C1C4C-4C6A-D1E0-56BB-5A546028FEB0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2306,7 +2306,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{336B81FC-28C5-1EFA-3C8B-35B17523B018}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EDE9C5B7-D256-0A68-A732-FE24BD5C7105}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2361,7 +2361,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4BBE32B9-F571-68BB-1FCE-DCDECB6C70A8}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2C70A599-584D-96C9-2BA2-78F301CE690C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2416,7 +2416,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4128AE72-03E5-5BD5-D026-A0E4E56D36CA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A8C15C12-1022-A8DF-FA5A-117DE6FF3609}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2471,7 +2471,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CBBC1640-A161-6D4A-F38E-1827AC56C603}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{69FA455F-C937-E5A5-3202-5B5A0E7A349F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4998,7 +4998,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{303AEFDB-4839-49C2-A54C-7AD44DCB24C1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D47CC9C-8754-4385-BE05-3F017B43397B}">
   <dimension ref="A1:AG28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5209,7 +5209,7 @@
         <v>1</v>
       </c>
       <c r="AG4" s="30" t="s">
-        <v>199</v>
+        <v>223</v>
       </c>
     </row>
     <row r="5" spans="1:33">
@@ -5286,7 +5286,7 @@
         <v>1</v>
       </c>
       <c r="AG5" s="31" t="s">
-        <v>205</v>
+        <v>187</v>
       </c>
     </row>
     <row r="6" spans="1:33">
@@ -5363,7 +5363,7 @@
         <v>1</v>
       </c>
       <c r="AG6" s="30" t="s">
-        <v>235</v>
+        <v>209</v>
       </c>
     </row>
     <row r="7" spans="1:33">
@@ -5440,7 +5440,7 @@
         <v>1</v>
       </c>
       <c r="AG7" s="31" t="s">
-        <v>213</v>
+        <v>203</v>
       </c>
     </row>
     <row r="8" spans="1:33">
@@ -5517,7 +5517,7 @@
         <v>1</v>
       </c>
       <c r="AG8" s="30" t="s">
-        <v>225</v>
+        <v>207</v>
       </c>
     </row>
     <row r="9" spans="1:33">
@@ -5594,7 +5594,7 @@
         <v>1</v>
       </c>
       <c r="AG9" s="31" t="s">
-        <v>187</v>
+        <v>217</v>
       </c>
     </row>
     <row r="10" spans="1:33">
@@ -5671,7 +5671,7 @@
         <v>1</v>
       </c>
       <c r="AG10" s="30" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="11" spans="1:33">
@@ -5748,7 +5748,7 @@
         <v>1</v>
       </c>
       <c r="AG11" s="31" t="s">
-        <v>201</v>
+        <v>215</v>
       </c>
     </row>
     <row r="12" spans="1:33">
@@ -5825,7 +5825,7 @@
         <v>1</v>
       </c>
       <c r="AG12" s="30" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="13" spans="1:33">
@@ -5902,7 +5902,7 @@
         <v>1</v>
       </c>
       <c r="AG13" s="31" t="s">
-        <v>209</v>
+        <v>233</v>
       </c>
     </row>
     <row r="14" spans="1:33">
@@ -5979,7 +5979,7 @@
         <v>1</v>
       </c>
       <c r="AG14" s="30" t="s">
-        <v>191</v>
+        <v>227</v>
       </c>
     </row>
     <row r="15" spans="1:33">
@@ -6056,7 +6056,7 @@
         <v>1</v>
       </c>
       <c r="AG15" s="31" t="s">
-        <v>215</v>
+        <v>193</v>
       </c>
     </row>
     <row r="16" spans="1:33">
@@ -6133,7 +6133,7 @@
         <v>1</v>
       </c>
       <c r="AG16" s="30" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
     <row r="17" spans="2:33">
@@ -6210,7 +6210,7 @@
         <v>1</v>
       </c>
       <c r="AG17" s="31" t="s">
-        <v>207</v>
+        <v>221</v>
       </c>
     </row>
     <row r="18" spans="2:33">
@@ -6287,7 +6287,7 @@
         <v>1</v>
       </c>
       <c r="AG18" s="30" t="s">
-        <v>217</v>
+        <v>199</v>
       </c>
     </row>
     <row r="19" spans="2:33">
@@ -6364,7 +6364,7 @@
         <v>1</v>
       </c>
       <c r="AG19" s="31" t="s">
-        <v>231</v>
+        <v>205</v>
       </c>
     </row>
     <row r="20" spans="2:33">
@@ -6441,7 +6441,7 @@
         <v>1</v>
       </c>
       <c r="AG20" s="30" t="s">
-        <v>197</v>
+        <v>231</v>
       </c>
     </row>
     <row r="21" spans="2:33">
@@ -6518,7 +6518,7 @@
         <v>1</v>
       </c>
       <c r="AG21" s="31" t="s">
-        <v>211</v>
+        <v>235</v>
       </c>
     </row>
     <row r="22" spans="2:33">
@@ -6595,7 +6595,7 @@
         <v>1</v>
       </c>
       <c r="AG22" s="30" t="s">
-        <v>189</v>
+        <v>213</v>
       </c>
     </row>
     <row r="23" spans="2:33">
@@ -6672,7 +6672,7 @@
         <v>1</v>
       </c>
       <c r="AG23" s="31" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
     </row>
     <row r="24" spans="2:33">
@@ -6749,7 +6749,7 @@
         <v>1</v>
       </c>
       <c r="AG24" s="30" t="s">
-        <v>219</v>
+        <v>195</v>
       </c>
     </row>
     <row r="25" spans="2:33">
@@ -6826,7 +6826,7 @@
         <v>1</v>
       </c>
       <c r="AG25" s="31" t="s">
-        <v>233</v>
+        <v>211</v>
       </c>
     </row>
     <row r="26" spans="2:33">
@@ -6903,7 +6903,7 @@
         <v>1</v>
       </c>
       <c r="AG26" s="30" t="s">
-        <v>227</v>
+        <v>189</v>
       </c>
     </row>
     <row r="27" spans="2:33">
@@ -6980,7 +6980,7 @@
         <v>1</v>
       </c>
       <c r="AG27" s="31" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
     </row>
     <row r="28" spans="2:33">
@@ -7057,7 +7057,7 @@
         <v>1</v>
       </c>
       <c r="AG28" s="30" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
     </row>
   </sheetData>
@@ -7070,7 +7070,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45435668-DD89-41BD-82D7-05E5AE2444F2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2F254A4-6A1B-4590-8367-3C0E2DA621D9}">
   <dimension ref="A1:O29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -8148,7 +8148,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3532A06D-4648-4647-B96B-25B72647B59C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC6BE372-B7BB-483A-A06E-C0FA5F62E40F}">
   <dimension ref="A1:Q66"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -10014,7 +10014,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9EF19048-875F-4B07-9A8B-6647D4E6FF79}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B189DDA6-F6B0-49F3-8EFD-9C081A71FAA9}">
   <dimension ref="A1:M40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -10505,7 +10505,7 @@
         <v>481</v>
       </c>
       <c r="C17" s="31" t="s">
-        <v>332</v>
+        <v>340</v>
       </c>
       <c r="D17" s="31" t="s">
         <v>482</v>

--- a/VerveStacks_CHE_grids/SubRES_Tmpl/SubRES_New_RE_and_Conventional.xlsx
+++ b/VerveStacks_CHE_grids/SubRES_Tmpl/SubRES_New_RE_and_Conventional.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_CHE_grids\SubRES_Tmpl\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B6A61548-2622-4212-962D-4A706401B026}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0E4A45F2-0533-4788-9644-2BEE119206B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="7" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -825,40 +825,118 @@
     <t>pre</t>
   </si>
   <si>
+    <t>distr_solelc_won-CHE_0014</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell CHE_14</t>
+  </si>
+  <si>
+    <t>NRGI</t>
+  </si>
+  <si>
+    <t>daynite</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-CHE_0018</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell CHE_18</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-CHE_0011</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell CHE_11</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-CHE_0015</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell CHE_15</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-CHE_0025</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell CHE_25</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-CHE_0012</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell CHE_12</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-CHE_0024</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell CHE_24</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-CHE_0008</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell CHE_8</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-CHE_0005</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell CHE_5</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-CHE_0009</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell CHE_9</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-CHE_0021</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell CHE_21</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-CHE_0004</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell CHE_4</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-CHE_0003</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell CHE_3</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-CHE_0010</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell CHE_10</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-CHE_0022</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell CHE_22</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-CHE_0002</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell CHE_2</t>
+  </si>
+  <si>
     <t>distr_solelc_won-CHE_0000</t>
   </si>
   <si>
     <t>connecting solar and wind to buses in grid cell CHE_0</t>
   </si>
   <si>
-    <t>NRGI</t>
-  </si>
-  <si>
-    <t>daynite</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-CHE_0003</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell CHE_3</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-CHE_0010</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell CHE_10</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-CHE_0022</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell CHE_22</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-CHE_0012</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell CHE_12</t>
+    <t>distr_solelc_won-CHE_0013</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell CHE_13</t>
   </si>
   <si>
     <t>distr_solelc_won-CHE_0017</t>
@@ -879,52 +957,22 @@
     <t>connecting solar and wind to buses in grid cell CHE_23</t>
   </si>
   <si>
-    <t>distr_solelc_won-CHE_0024</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell CHE_24</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-CHE_0008</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell CHE_8</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-CHE_0005</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell CHE_5</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-CHE_0011</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell CHE_11</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-CHE_0015</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell CHE_15</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-CHE_0025</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell CHE_25</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-CHE_0014</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell CHE_14</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-CHE_0018</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell CHE_18</t>
+    <t>distr_solelc_won-CHE_0020</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell CHE_20</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-CHE_0001</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell CHE_1</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-CHE_0006</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell CHE_6</t>
   </si>
   <si>
     <t>distr_solelc_won-CHE_0007</t>
@@ -933,88 +981,118 @@
     <t>connecting solar and wind to buses in grid cell CHE_7</t>
   </si>
   <si>
-    <t>distr_solelc_won-CHE_0013</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell CHE_13</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-CHE_0009</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell CHE_9</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-CHE_0021</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell CHE_21</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-CHE_0004</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell CHE_4</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-CHE_0020</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell CHE_20</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-CHE_0001</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell CHE_1</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-CHE_0006</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell CHE_6</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-CHE_0002</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell CHE_2</t>
-  </si>
-  <si>
     <t>comm-in</t>
   </si>
   <si>
     <t>efficiency</t>
   </si>
   <si>
+    <t>elc_won-CHE_0014,elc_spv-CHE_0014</t>
+  </si>
+  <si>
+    <t>e_CH1-220,e_CH2-220,e_CH5-220,e_CH7-220,e_w108257952-220,e_w1284913429-220,e_w165513396-220,e_w165513396-380,e_w190819048-220,e_w27107779-220,e_w31308888-220,e_w33271433-220,e_w356292116-220,e_w356292116-380,e_w35840165-380,e_w50319857-220,e_w50319857-380,e_w50319857-400,e_w89405664-220,e_w89977424-220,e_w98648381-220,e_w98648381-380</t>
+  </si>
+  <si>
+    <t>elc_won-CHE_0018,elc_spv-CHE_0018</t>
+  </si>
+  <si>
+    <t>e_CH3-220,e_CH6-220,e_r9310861-220,e_w11282314-220,e_w147714395-220,e_w147714395-380,e_w148015471-220,e_w22899676-220,e_w240575085-220,e_w26843160-220,e_w281809991-220,e_w50561341-220,e_w87281514-220</t>
+  </si>
+  <si>
+    <t>elc_won-CHE_0011,elc_spv-CHE_0011</t>
+  </si>
+  <si>
+    <t>e_CH46-220,e_CH47-220,e_w228003081-220,e_w391576135-220,e_w391577741-220,e_w969819301-220,e_w969819301-380</t>
+  </si>
+  <si>
+    <t>elc_won-CHE_0015,elc_spv-CHE_0015</t>
+  </si>
+  <si>
+    <t>e_CH50-220,e_CH56-220,e_CH58-220,e_CH59-220,e_w1327084723-220,e_w281800404-220,e_w281803398-220,e_w281815404-220,e_w35487135-220</t>
+  </si>
+  <si>
+    <t>elc_won-CHE_0025,elc_spv-CHE_0025</t>
+  </si>
+  <si>
+    <t>e_r7933294-380</t>
+  </si>
+  <si>
+    <t>elc_won-CHE_0012,elc_spv-CHE_0012</t>
+  </si>
+  <si>
+    <t>e_CH19-220,e_CH20-220,e_CH25-220,e_CH27-220,e_CH34-220,e_CH34-380,e_CH35-220,e_CH36-220,e_CH38-220,e_CH39-220,e_CH40-220,e_w1086214433-220,e_w1092884227-220,e_w240959264-220,e_w364949845-220,e_w364949845-380</t>
+  </si>
+  <si>
+    <t>elc_won-CHE_0024,elc_spv-CHE_0024</t>
+  </si>
+  <si>
+    <t>e_CH30-380,e_CH33-380,e_CH37-380,e_r7933294-380</t>
+  </si>
+  <si>
+    <t>elc_won-CHE_0008,elc_spv-CHE_0008</t>
+  </si>
+  <si>
+    <t>e_CH43-220,e_w209324991-220,e_w26166640-220,e_w402055336-220,e_w758315582-220</t>
+  </si>
+  <si>
+    <t>elc_won-CHE_0005,elc_spv-CHE_0005</t>
+  </si>
+  <si>
+    <t>e_r5378910-220,e_w161853746-220</t>
+  </si>
+  <si>
+    <t>elc_won-CHE_0009,elc_spv-CHE_0009</t>
+  </si>
+  <si>
+    <t>e_CH14-220,e_CH14-380,e_w1105061707-220,e_w1105061707-380,e_w147557680-220,e_w165254212-220,e_w402053379-220</t>
+  </si>
+  <si>
+    <t>elc_won-CHE_0021,elc_spv-CHE_0021</t>
+  </si>
+  <si>
+    <t>e_CH17-380,e_w211907009-220</t>
+  </si>
+  <si>
+    <t>elc_won-CHE_0004,elc_spv-CHE_0004</t>
+  </si>
+  <si>
+    <t>e_w111162936-220,e_w111162936-380,e_w111162936-400,e_w122720993-220,e_w194258388-220</t>
+  </si>
+  <si>
+    <t>elc_won-CHE_0003,elc_spv-CHE_0003</t>
+  </si>
+  <si>
+    <t>e_CH48-225,e_CH49-225,e_CH53-225,e_CH60-225,e_w234983117-220,e_w234983117-380,e_w238138373-380,e_w260211728-225,e_w260211728-380,e_w55698557-220,e_w55698557-225,e_w802058337-220,e_w802058337-225,e_w936521586-380</t>
+  </si>
+  <si>
+    <t>elc_won-CHE_0010,elc_spv-CHE_0010</t>
+  </si>
+  <si>
+    <t>e_CH11-220,e_w109037817-220,e_w109037817-380,e_w127004407-380,e_w127004407-400,e_w27435934-220,e_w30350721-220,e_w397960460-380,e_w397960460-400,e_w88901626-380</t>
+  </si>
+  <si>
+    <t>elc_won-CHE_0022,elc_spv-CHE_0022</t>
+  </si>
+  <si>
+    <t>e_CH4-220,e_CH9-220,e_w455120191-220,e_w83861269-220,e_w92798668-220,e_w92873516-220</t>
+  </si>
+  <si>
+    <t>elc_won-CHE_0002,elc_spv-CHE_0002</t>
+  </si>
+  <si>
+    <t>e_w232662311-220</t>
+  </si>
+  <si>
     <t>elc_won-CHE_0000,elc_spv-CHE_0000</t>
   </si>
   <si>
     <t>e_CH51-220,e_CH51-225,e_CH51-400,e_CH52-220,e_CH57-220,e_CH57-225,e_w177392130-220,e_w177392130-400,e_w239937062-220</t>
   </si>
   <si>
-    <t>elc_won-CHE_0003,elc_spv-CHE_0003</t>
-  </si>
-  <si>
-    <t>e_CH48-225,e_CH49-225,e_CH53-225,e_CH60-225,e_w234983117-220,e_w234983117-380,e_w238138373-380,e_w260211728-225,e_w260211728-380,e_w55698557-220,e_w55698557-225,e_w802058337-220,e_w802058337-225,e_w936521586-380</t>
-  </si>
-  <si>
-    <t>elc_won-CHE_0010,elc_spv-CHE_0010</t>
-  </si>
-  <si>
-    <t>e_CH11-220,e_w109037817-220,e_w109037817-380,e_w127004407-380,e_w127004407-400,e_w27435934-220,e_w30350721-220,e_w397960460-380,e_w397960460-400,e_w88901626-380</t>
-  </si>
-  <si>
-    <t>elc_won-CHE_0022,elc_spv-CHE_0022</t>
-  </si>
-  <si>
-    <t>e_CH4-220,e_CH9-220,e_w455120191-220,e_w83861269-220,e_w92798668-220,e_w92873516-220</t>
-  </si>
-  <si>
-    <t>elc_won-CHE_0012,elc_spv-CHE_0012</t>
-  </si>
-  <si>
-    <t>e_CH19-220,e_CH20-220,e_CH25-220,e_CH27-220,e_CH34-220,e_CH34-380,e_CH35-220,e_CH36-220,e_CH38-220,e_CH39-220,e_CH40-220,e_w1086214433-220,e_w1092884227-220,e_w240959264-220,e_w364949845-220,e_w364949845-380</t>
+    <t>elc_won-CHE_0013,elc_spv-CHE_0013</t>
+  </si>
+  <si>
+    <t>e_CH15-220,e_w146225999-220,e_w159527493-220,e_w242269161-220,e_w281799252-220,e_w35002638-220,e_w35002638-380,e_w97941869-220</t>
   </si>
   <si>
     <t>elc_won-CHE_0017,elc_spv-CHE_0017</t>
@@ -1035,106 +1113,28 @@
     <t>e_w207991759-380</t>
   </si>
   <si>
-    <t>elc_won-CHE_0024,elc_spv-CHE_0024</t>
-  </si>
-  <si>
-    <t>e_CH30-380,e_CH33-380,e_CH37-380,e_r7933294-380</t>
-  </si>
-  <si>
-    <t>elc_won-CHE_0008,elc_spv-CHE_0008</t>
-  </si>
-  <si>
-    <t>e_CH43-220,e_w209324991-220,e_w26166640-220,e_w402055336-220,e_w758315582-220</t>
-  </si>
-  <si>
-    <t>elc_won-CHE_0005,elc_spv-CHE_0005</t>
-  </si>
-  <si>
-    <t>e_r5378910-220,e_w161853746-220</t>
-  </si>
-  <si>
-    <t>elc_won-CHE_0011,elc_spv-CHE_0011</t>
-  </si>
-  <si>
-    <t>e_CH46-220,e_CH47-220,e_w228003081-220,e_w391576135-220,e_w391577741-220,e_w969819301-220,e_w969819301-380</t>
-  </si>
-  <si>
-    <t>elc_won-CHE_0015,elc_spv-CHE_0015</t>
-  </si>
-  <si>
-    <t>e_CH50-220,e_CH56-220,e_CH58-220,e_CH59-220,e_w1327084723-220,e_w281800404-220,e_w281803398-220,e_w281815404-220,e_w35487135-220</t>
-  </si>
-  <si>
-    <t>elc_won-CHE_0025,elc_spv-CHE_0025</t>
-  </si>
-  <si>
-    <t>e_r7933294-380</t>
-  </si>
-  <si>
-    <t>elc_won-CHE_0014,elc_spv-CHE_0014</t>
-  </si>
-  <si>
-    <t>e_CH1-220,e_CH2-220,e_CH5-220,e_CH7-220,e_w108257952-220,e_w1284913429-220,e_w165513396-220,e_w165513396-380,e_w190819048-220,e_w27107779-220,e_w31308888-220,e_w33271433-220,e_w356292116-220,e_w356292116-380,e_w35840165-380,e_w50319857-220,e_w50319857-380,e_w50319857-400,e_w89405664-220,e_w89977424-220,e_w98648381-220,e_w98648381-380</t>
-  </si>
-  <si>
-    <t>elc_won-CHE_0018,elc_spv-CHE_0018</t>
-  </si>
-  <si>
-    <t>e_CH3-220,e_CH6-220,e_r9310861-220,e_w11282314-220,e_w147714395-220,e_w147714395-380,e_w148015471-220,e_w22899676-220,e_w240575085-220,e_w26843160-220,e_w281809991-220,e_w50561341-220,e_w87281514-220</t>
+    <t>elc_won-CHE_0020,elc_spv-CHE_0020</t>
+  </si>
+  <si>
+    <t>e_CH21-220,e_CH22-220,e_CH22-380,e_CH29-220,e_CH29-380,e_CH41-380,e_w1208713169-220,e_w207993342-220,e_w207993342-380,e_w208780268-380,e_w212498548-220,e_w36348118-220,e_w365556107-220,e_w71500123-220,e_w71500123-380</t>
+  </si>
+  <si>
+    <t>elc_won-CHE_0001,elc_spv-CHE_0001</t>
+  </si>
+  <si>
+    <t>e_CH31-220,e_w132373704-220,e_w232662311-220,e_w44496892-220,e_w55695765-220</t>
+  </si>
+  <si>
+    <t>elc_won-CHE_0006,elc_spv-CHE_0006</t>
+  </si>
+  <si>
+    <t>e_w127004407-400</t>
   </si>
   <si>
     <t>elc_won-CHE_0007,elc_spv-CHE_0007</t>
   </si>
   <si>
     <t>e_CH44-220,e_w212722603-220,e_w212722603-380,e_w236819191-220,e_w758943072-220</t>
-  </si>
-  <si>
-    <t>elc_won-CHE_0013,elc_spv-CHE_0013</t>
-  </si>
-  <si>
-    <t>e_CH15-220,e_w146225999-220,e_w159527493-220,e_w242269161-220,e_w281799252-220,e_w35002638-220,e_w35002638-380,e_w97941869-220</t>
-  </si>
-  <si>
-    <t>elc_won-CHE_0009,elc_spv-CHE_0009</t>
-  </si>
-  <si>
-    <t>e_CH14-220,e_CH14-380,e_w1105061707-220,e_w1105061707-380,e_w147557680-220,e_w165254212-220,e_w402053379-220</t>
-  </si>
-  <si>
-    <t>elc_won-CHE_0021,elc_spv-CHE_0021</t>
-  </si>
-  <si>
-    <t>e_CH17-380,e_w211907009-220</t>
-  </si>
-  <si>
-    <t>elc_won-CHE_0004,elc_spv-CHE_0004</t>
-  </si>
-  <si>
-    <t>e_w111162936-220,e_w111162936-380,e_w111162936-400,e_w122720993-220,e_w194258388-220</t>
-  </si>
-  <si>
-    <t>elc_won-CHE_0020,elc_spv-CHE_0020</t>
-  </si>
-  <si>
-    <t>e_CH21-220,e_CH22-220,e_CH22-380,e_CH29-220,e_CH29-380,e_CH41-380,e_w1208713169-220,e_w207993342-220,e_w207993342-380,e_w208780268-380,e_w212498548-220,e_w36348118-220,e_w365556107-220,e_w71500123-220,e_w71500123-380</t>
-  </si>
-  <si>
-    <t>elc_won-CHE_0001,elc_spv-CHE_0001</t>
-  </si>
-  <si>
-    <t>e_CH31-220,e_w132373704-220,e_w232662311-220,e_w44496892-220,e_w55695765-220</t>
-  </si>
-  <si>
-    <t>elc_won-CHE_0006,elc_spv-CHE_0006</t>
-  </si>
-  <si>
-    <t>e_w127004407-400</t>
-  </si>
-  <si>
-    <t>elc_won-CHE_0002,elc_spv-CHE_0002</t>
-  </si>
-  <si>
-    <t>e_w232662311-220</t>
   </si>
   <si>
     <t>e_won-CHE_0000</t>
@@ -2473,7 +2473,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{52D6FF07-CBF6-9D63-29A1-E66718A21E2D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B594228B-2DC4-5A5F-8923-9CD146D7F516}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2528,7 +2528,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{71EBCCC4-1B2D-388E-7523-38B49F0D3013}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{72C75E09-A1C1-68B2-08D3-7B758A67AA68}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2583,7 +2583,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{45D4C217-3CD5-B3A0-B106-C35281F30876}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9CEF43AA-724C-1143-1B6B-A0CD70BC5F88}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2638,7 +2638,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D1E83E76-C46F-3C7E-5814-E5E9538F427A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0C562EF6-989D-ED85-274C-B1F82FDE83D0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2693,7 +2693,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D6F98EF2-9EBF-9285-403F-6A7F7B861C0D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5EE90587-A292-81EA-1E98-177143CC827E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5220,7 +5220,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{855C79AE-E61E-40E6-BC75-6478A762A107}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31B63023-AC02-450F-8CF7-AB4A1BDD51A7}">
   <dimension ref="A1:AG28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5431,7 +5431,7 @@
         <v>1</v>
       </c>
       <c r="AG4" s="30" t="s">
-        <v>187</v>
+        <v>199</v>
       </c>
     </row>
     <row r="5" spans="1:33">
@@ -5508,7 +5508,7 @@
         <v>1</v>
       </c>
       <c r="AG5" s="31" t="s">
-        <v>223</v>
+        <v>205</v>
       </c>
     </row>
     <row r="6" spans="1:33">
@@ -5585,7 +5585,7 @@
         <v>1</v>
       </c>
       <c r="AG6" s="30" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
     </row>
     <row r="7" spans="1:33">
@@ -5662,7 +5662,7 @@
         <v>1</v>
       </c>
       <c r="AG7" s="31" t="s">
-        <v>215</v>
+        <v>201</v>
       </c>
     </row>
     <row r="8" spans="1:33">
@@ -5739,7 +5739,7 @@
         <v>1</v>
       </c>
       <c r="AG8" s="30" t="s">
-        <v>195</v>
+        <v>221</v>
       </c>
     </row>
     <row r="9" spans="1:33">
@@ -5816,7 +5816,7 @@
         <v>1</v>
       </c>
       <c r="AG9" s="31" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
     </row>
     <row r="10" spans="1:33">
@@ -5893,7 +5893,7 @@
         <v>1</v>
       </c>
       <c r="AG10" s="30" t="s">
-        <v>207</v>
+        <v>219</v>
       </c>
     </row>
     <row r="11" spans="1:33">
@@ -5970,7 +5970,7 @@
         <v>1</v>
       </c>
       <c r="AG11" s="31" t="s">
-        <v>217</v>
+        <v>233</v>
       </c>
     </row>
     <row r="12" spans="1:33">
@@ -6047,7 +6047,7 @@
         <v>1</v>
       </c>
       <c r="AG12" s="30" t="s">
-        <v>219</v>
+        <v>227</v>
       </c>
     </row>
     <row r="13" spans="1:33">
@@ -6124,7 +6124,7 @@
         <v>1</v>
       </c>
       <c r="AG13" s="31" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
     </row>
     <row r="14" spans="1:33">
@@ -6201,7 +6201,7 @@
         <v>1</v>
       </c>
       <c r="AG14" s="30" t="s">
-        <v>227</v>
+        <v>213</v>
       </c>
     </row>
     <row r="15" spans="1:33">
@@ -6278,7 +6278,7 @@
         <v>1</v>
       </c>
       <c r="AG15" s="31" t="s">
-        <v>193</v>
+        <v>225</v>
       </c>
     </row>
     <row r="16" spans="1:33">
@@ -6355,7 +6355,7 @@
         <v>1</v>
       </c>
       <c r="AG16" s="30" t="s">
-        <v>201</v>
+        <v>223</v>
       </c>
     </row>
     <row r="17" spans="2:33">
@@ -6432,7 +6432,7 @@
         <v>1</v>
       </c>
       <c r="AG17" s="31" t="s">
-        <v>221</v>
+        <v>191</v>
       </c>
     </row>
     <row r="18" spans="2:33">
@@ -6509,7 +6509,7 @@
         <v>1</v>
       </c>
       <c r="AG18" s="30" t="s">
-        <v>199</v>
+        <v>215</v>
       </c>
     </row>
     <row r="19" spans="2:33">
@@ -6586,7 +6586,7 @@
         <v>1</v>
       </c>
       <c r="AG19" s="31" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
     </row>
     <row r="20" spans="2:33">
@@ -6663,7 +6663,7 @@
         <v>1</v>
       </c>
       <c r="AG20" s="30" t="s">
-        <v>231</v>
+        <v>187</v>
       </c>
     </row>
     <row r="21" spans="2:33">
@@ -6817,7 +6817,7 @@
         <v>1</v>
       </c>
       <c r="AG22" s="30" t="s">
-        <v>235</v>
+        <v>203</v>
       </c>
     </row>
     <row r="23" spans="2:33">
@@ -6894,7 +6894,7 @@
         <v>1</v>
       </c>
       <c r="AG23" s="31" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
     </row>
     <row r="24" spans="2:33">
@@ -6971,7 +6971,7 @@
         <v>1</v>
       </c>
       <c r="AG24" s="30" t="s">
-        <v>225</v>
+        <v>217</v>
       </c>
     </row>
     <row r="25" spans="2:33">
@@ -7279,7 +7279,7 @@
         <v>1</v>
       </c>
       <c r="AG28" s="30" t="s">
-        <v>209</v>
+        <v>231</v>
       </c>
     </row>
   </sheetData>
@@ -7292,7 +7292,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF3BF0DD-B24A-48C4-AEDF-21BDA16E06B2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90A2FD6C-459B-4882-A45A-1A097A0664C4}">
   <dimension ref="A1:O29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -8370,7 +8370,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D9DF311-DD15-4856-91BF-FF7BE160FEF2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{067B9437-447E-4B7C-9459-630252328267}">
   <dimension ref="A1:Q66"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -10236,7 +10236,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A161F21C-D67F-4B06-995D-FB91D51F5A03}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B8D2DA2-4A08-4587-82DE-F547D7116D87}">
   <dimension ref="A1:M77"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/VerveStacks_CHE_grids/SubRES_Tmpl/SubRES_New_RE_and_Conventional.xlsx
+++ b/VerveStacks_CHE_grids/SubRES_Tmpl/SubRES_New_RE_and_Conventional.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_CHE_grids\SubRES_Tmpl\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0E4A45F2-0533-4788-9644-2BEE119206B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{29A43D4F-2961-45E3-9271-0B76FF157F9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="7" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -843,6 +843,42 @@
     <t>connecting solar and wind to buses in grid cell CHE_18</t>
   </si>
   <si>
+    <t>distr_solelc_won-CHE_0024</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell CHE_24</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-CHE_0008</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell CHE_8</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-CHE_0005</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell CHE_5</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-CHE_0007</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell CHE_7</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-CHE_0012</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell CHE_12</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-CHE_0000</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell CHE_0</t>
+  </si>
+  <si>
     <t>distr_solelc_won-CHE_0011</t>
   </si>
   <si>
@@ -861,28 +897,10 @@
     <t>connecting solar and wind to buses in grid cell CHE_25</t>
   </si>
   <si>
-    <t>distr_solelc_won-CHE_0012</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell CHE_12</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-CHE_0024</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell CHE_24</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-CHE_0008</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell CHE_8</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-CHE_0005</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell CHE_5</t>
+    <t>distr_solelc_won-CHE_0013</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell CHE_13</t>
   </si>
   <si>
     <t>distr_solelc_won-CHE_0009</t>
@@ -921,42 +939,30 @@
     <t>connecting solar and wind to buses in grid cell CHE_22</t>
   </si>
   <si>
+    <t>distr_solelc_won-CHE_0017</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell CHE_17</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-CHE_0019</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell CHE_19</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-CHE_0023</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell CHE_23</t>
+  </si>
+  <si>
     <t>distr_solelc_won-CHE_0002</t>
   </si>
   <si>
     <t>connecting solar and wind to buses in grid cell CHE_2</t>
   </si>
   <si>
-    <t>distr_solelc_won-CHE_0000</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell CHE_0</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-CHE_0013</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell CHE_13</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-CHE_0017</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell CHE_17</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-CHE_0019</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell CHE_19</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-CHE_0023</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell CHE_23</t>
-  </si>
-  <si>
     <t>distr_solelc_won-CHE_0020</t>
   </si>
   <si>
@@ -975,12 +981,6 @@
     <t>connecting solar and wind to buses in grid cell CHE_6</t>
   </si>
   <si>
-    <t>distr_solelc_won-CHE_0007</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell CHE_7</t>
-  </si>
-  <si>
     <t>comm-in</t>
   </si>
   <si>
@@ -999,6 +999,42 @@
     <t>e_CH3-220,e_CH6-220,e_r9310861-220,e_w11282314-220,e_w147714395-220,e_w147714395-380,e_w148015471-220,e_w22899676-220,e_w240575085-220,e_w26843160-220,e_w281809991-220,e_w50561341-220,e_w87281514-220</t>
   </si>
   <si>
+    <t>elc_won-CHE_0024,elc_spv-CHE_0024</t>
+  </si>
+  <si>
+    <t>e_CH30-380,e_CH33-380,e_CH37-380,e_r7933294-380</t>
+  </si>
+  <si>
+    <t>elc_won-CHE_0008,elc_spv-CHE_0008</t>
+  </si>
+  <si>
+    <t>e_CH43-220,e_w209324991-220,e_w26166640-220,e_w402055336-220,e_w758315582-220</t>
+  </si>
+  <si>
+    <t>elc_won-CHE_0005,elc_spv-CHE_0005</t>
+  </si>
+  <si>
+    <t>e_r5378910-220,e_w161853746-220</t>
+  </si>
+  <si>
+    <t>elc_won-CHE_0007,elc_spv-CHE_0007</t>
+  </si>
+  <si>
+    <t>e_CH44-220,e_w212722603-220,e_w212722603-380,e_w236819191-220,e_w758943072-220</t>
+  </si>
+  <si>
+    <t>elc_won-CHE_0012,elc_spv-CHE_0012</t>
+  </si>
+  <si>
+    <t>e_CH19-220,e_CH20-220,e_CH25-220,e_CH27-220,e_CH34-220,e_CH34-380,e_CH35-220,e_CH36-220,e_CH38-220,e_CH39-220,e_CH40-220,e_w1086214433-220,e_w1092884227-220,e_w240959264-220,e_w364949845-220,e_w364949845-380</t>
+  </si>
+  <si>
+    <t>elc_won-CHE_0000,elc_spv-CHE_0000</t>
+  </si>
+  <si>
+    <t>e_CH51-220,e_CH51-225,e_CH51-400,e_CH52-220,e_CH57-220,e_CH57-225,e_w177392130-220,e_w177392130-400,e_w239937062-220</t>
+  </si>
+  <si>
     <t>elc_won-CHE_0011,elc_spv-CHE_0011</t>
   </si>
   <si>
@@ -1017,28 +1053,10 @@
     <t>e_r7933294-380</t>
   </si>
   <si>
-    <t>elc_won-CHE_0012,elc_spv-CHE_0012</t>
-  </si>
-  <si>
-    <t>e_CH19-220,e_CH20-220,e_CH25-220,e_CH27-220,e_CH34-220,e_CH34-380,e_CH35-220,e_CH36-220,e_CH38-220,e_CH39-220,e_CH40-220,e_w1086214433-220,e_w1092884227-220,e_w240959264-220,e_w364949845-220,e_w364949845-380</t>
-  </si>
-  <si>
-    <t>elc_won-CHE_0024,elc_spv-CHE_0024</t>
-  </si>
-  <si>
-    <t>e_CH30-380,e_CH33-380,e_CH37-380,e_r7933294-380</t>
-  </si>
-  <si>
-    <t>elc_won-CHE_0008,elc_spv-CHE_0008</t>
-  </si>
-  <si>
-    <t>e_CH43-220,e_w209324991-220,e_w26166640-220,e_w402055336-220,e_w758315582-220</t>
-  </si>
-  <si>
-    <t>elc_won-CHE_0005,elc_spv-CHE_0005</t>
-  </si>
-  <si>
-    <t>e_r5378910-220,e_w161853746-220</t>
+    <t>elc_won-CHE_0013,elc_spv-CHE_0013</t>
+  </si>
+  <si>
+    <t>e_CH15-220,e_w146225999-220,e_w159527493-220,e_w242269161-220,e_w281799252-220,e_w35002638-220,e_w35002638-380,e_w97941869-220</t>
   </si>
   <si>
     <t>elc_won-CHE_0009,elc_spv-CHE_0009</t>
@@ -1077,42 +1095,30 @@
     <t>e_CH4-220,e_CH9-220,e_w455120191-220,e_w83861269-220,e_w92798668-220,e_w92873516-220</t>
   </si>
   <si>
+    <t>elc_won-CHE_0017,elc_spv-CHE_0017</t>
+  </si>
+  <si>
+    <t>e_CH12-220,e_CH12-380,e_CH13-220,e_CH16-380,e_CH18-220,e_CH18-380,e_w192677427-220,e_w192677427-380,e_w52738225-220,e_w52738225-380</t>
+  </si>
+  <si>
+    <t>elc_won-CHE_0019,elc_spv-CHE_0019</t>
+  </si>
+  <si>
+    <t>e_CH45-220,e_w281804158-220,e_w281804158-380</t>
+  </si>
+  <si>
+    <t>elc_won-CHE_0023,elc_spv-CHE_0023</t>
+  </si>
+  <si>
+    <t>e_w207991759-380</t>
+  </si>
+  <si>
     <t>elc_won-CHE_0002,elc_spv-CHE_0002</t>
   </si>
   <si>
     <t>e_w232662311-220</t>
   </si>
   <si>
-    <t>elc_won-CHE_0000,elc_spv-CHE_0000</t>
-  </si>
-  <si>
-    <t>e_CH51-220,e_CH51-225,e_CH51-400,e_CH52-220,e_CH57-220,e_CH57-225,e_w177392130-220,e_w177392130-400,e_w239937062-220</t>
-  </si>
-  <si>
-    <t>elc_won-CHE_0013,elc_spv-CHE_0013</t>
-  </si>
-  <si>
-    <t>e_CH15-220,e_w146225999-220,e_w159527493-220,e_w242269161-220,e_w281799252-220,e_w35002638-220,e_w35002638-380,e_w97941869-220</t>
-  </si>
-  <si>
-    <t>elc_won-CHE_0017,elc_spv-CHE_0017</t>
-  </si>
-  <si>
-    <t>e_CH12-220,e_CH12-380,e_CH13-220,e_CH16-380,e_CH18-220,e_CH18-380,e_w192677427-220,e_w192677427-380,e_w52738225-220,e_w52738225-380</t>
-  </si>
-  <si>
-    <t>elc_won-CHE_0019,elc_spv-CHE_0019</t>
-  </si>
-  <si>
-    <t>e_CH45-220,e_w281804158-220,e_w281804158-380</t>
-  </si>
-  <si>
-    <t>elc_won-CHE_0023,elc_spv-CHE_0023</t>
-  </si>
-  <si>
-    <t>e_w207991759-380</t>
-  </si>
-  <si>
     <t>elc_won-CHE_0020,elc_spv-CHE_0020</t>
   </si>
   <si>
@@ -1129,12 +1135,6 @@
   </si>
   <si>
     <t>e_w127004407-400</t>
-  </si>
-  <si>
-    <t>elc_won-CHE_0007,elc_spv-CHE_0007</t>
-  </si>
-  <si>
-    <t>e_CH44-220,e_w212722603-220,e_w212722603-380,e_w236819191-220,e_w758943072-220</t>
   </si>
   <si>
     <t>e_won-CHE_0000</t>
@@ -2473,7 +2473,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B594228B-2DC4-5A5F-8923-9CD146D7F516}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B2E513A0-FA77-FF50-1E62-0D86EBC15083}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2528,7 +2528,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{72C75E09-A1C1-68B2-08D3-7B758A67AA68}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CAF2189F-AF85-FC55-E18A-D09EA28DC2F3}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2583,7 +2583,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9CEF43AA-724C-1143-1B6B-A0CD70BC5F88}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3D40748A-A32D-BD6C-8BD1-3B4D4F0862EC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2638,7 +2638,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0C562EF6-989D-ED85-274C-B1F82FDE83D0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B4F6F41E-655A-3C2F-F089-61E4FCF0271B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2693,7 +2693,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5EE90587-A292-81EA-1E98-177143CC827E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{44D95147-2499-45A7-0777-64454FAB22CC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5220,7 +5220,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31B63023-AC02-450F-8CF7-AB4A1BDD51A7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92C6C3ED-DC1A-482A-B72B-EB42DCC5755C}">
   <dimension ref="A1:AG28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5585,7 +5585,7 @@
         <v>1</v>
       </c>
       <c r="AG6" s="30" t="s">
-        <v>193</v>
+        <v>219</v>
       </c>
     </row>
     <row r="7" spans="1:33">
@@ -5662,7 +5662,7 @@
         <v>1</v>
       </c>
       <c r="AG7" s="31" t="s">
-        <v>201</v>
+        <v>233</v>
       </c>
     </row>
     <row r="8" spans="1:33">
@@ -5739,7 +5739,7 @@
         <v>1</v>
       </c>
       <c r="AG8" s="30" t="s">
-        <v>221</v>
+        <v>227</v>
       </c>
     </row>
     <row r="9" spans="1:33">
@@ -5816,7 +5816,7 @@
         <v>1</v>
       </c>
       <c r="AG9" s="31" t="s">
-        <v>195</v>
+        <v>231</v>
       </c>
     </row>
     <row r="10" spans="1:33">
@@ -5893,7 +5893,7 @@
         <v>1</v>
       </c>
       <c r="AG10" s="30" t="s">
-        <v>219</v>
+        <v>195</v>
       </c>
     </row>
     <row r="11" spans="1:33">
@@ -5970,7 +5970,7 @@
         <v>1</v>
       </c>
       <c r="AG11" s="31" t="s">
-        <v>233</v>
+        <v>187</v>
       </c>
     </row>
     <row r="12" spans="1:33">
@@ -6047,7 +6047,7 @@
         <v>1</v>
       </c>
       <c r="AG12" s="30" t="s">
-        <v>227</v>
+        <v>193</v>
       </c>
     </row>
     <row r="13" spans="1:33">
@@ -6124,7 +6124,7 @@
         <v>1</v>
       </c>
       <c r="AG13" s="31" t="s">
-        <v>235</v>
+        <v>201</v>
       </c>
     </row>
     <row r="14" spans="1:33">
@@ -6201,7 +6201,7 @@
         <v>1</v>
       </c>
       <c r="AG14" s="30" t="s">
-        <v>213</v>
+        <v>221</v>
       </c>
     </row>
     <row r="15" spans="1:33">
@@ -6278,7 +6278,7 @@
         <v>1</v>
       </c>
       <c r="AG15" s="31" t="s">
-        <v>225</v>
+        <v>197</v>
       </c>
     </row>
     <row r="16" spans="1:33">
@@ -6355,7 +6355,7 @@
         <v>1</v>
       </c>
       <c r="AG16" s="30" t="s">
-        <v>223</v>
+        <v>235</v>
       </c>
     </row>
     <row r="17" spans="2:33">
@@ -6432,7 +6432,7 @@
         <v>1</v>
       </c>
       <c r="AG17" s="31" t="s">
-        <v>191</v>
+        <v>213</v>
       </c>
     </row>
     <row r="18" spans="2:33">
@@ -6509,7 +6509,7 @@
         <v>1</v>
       </c>
       <c r="AG18" s="30" t="s">
-        <v>215</v>
+        <v>225</v>
       </c>
     </row>
     <row r="19" spans="2:33">
@@ -6586,7 +6586,7 @@
         <v>1</v>
       </c>
       <c r="AG19" s="31" t="s">
-        <v>209</v>
+        <v>223</v>
       </c>
     </row>
     <row r="20" spans="2:33">
@@ -6663,7 +6663,7 @@
         <v>1</v>
       </c>
       <c r="AG20" s="30" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
     </row>
     <row r="21" spans="2:33">
@@ -6740,7 +6740,7 @@
         <v>1</v>
       </c>
       <c r="AG21" s="31" t="s">
-        <v>197</v>
+        <v>215</v>
       </c>
     </row>
     <row r="22" spans="2:33">
@@ -7048,7 +7048,7 @@
         <v>1</v>
       </c>
       <c r="AG25" s="31" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="26" spans="2:33">
@@ -7125,7 +7125,7 @@
         <v>1</v>
       </c>
       <c r="AG26" s="30" t="s">
-        <v>189</v>
+        <v>211</v>
       </c>
     </row>
     <row r="27" spans="2:33">
@@ -7202,7 +7202,7 @@
         <v>1</v>
       </c>
       <c r="AG27" s="31" t="s">
-        <v>229</v>
+        <v>189</v>
       </c>
     </row>
     <row r="28" spans="2:33">
@@ -7279,7 +7279,7 @@
         <v>1</v>
       </c>
       <c r="AG28" s="30" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
     </row>
   </sheetData>
@@ -7292,7 +7292,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90A2FD6C-459B-4882-A45A-1A097A0664C4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73EE69DC-511A-4684-85F5-6F84FE670CB4}">
   <dimension ref="A1:O29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -8370,7 +8370,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{067B9437-447E-4B7C-9459-630252328267}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B417C81B-62E7-4D27-BB30-E82AFBA99D86}">
   <dimension ref="A1:Q66"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -10236,7 +10236,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B8D2DA2-4A08-4587-82DE-F547D7116D87}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1D62D18-ACE8-4148-9C6D-8909CEF6E052}">
   <dimension ref="A1:M77"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -11143,7 +11143,7 @@
         <v>494</v>
       </c>
       <c r="C30" s="30" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="D30" s="30" t="s">
         <v>495</v>
@@ -11178,7 +11178,7 @@
         <v>495</v>
       </c>
       <c r="D31" s="31" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="E31" s="37">
         <v>1</v>

--- a/VerveStacks_CHE_grids/SubRES_Tmpl/SubRES_New_RE_and_Conventional.xlsx
+++ b/VerveStacks_CHE_grids/SubRES_Tmpl/SubRES_New_RE_and_Conventional.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_CHE_grids\SubRES_Tmpl\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E501F663-113D-495C-9836-74C47B7C288F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{90713FB2-3158-40C2-86B1-8B25EE0101A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="8" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -974,16 +974,130 @@
     <t>pre</t>
   </si>
   <si>
+    <t>distr_solelc_won-CHE_0024</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell CHE_24</t>
+  </si>
+  <si>
+    <t>NRGI</t>
+  </si>
+  <si>
+    <t>daynite</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-CHE_0008</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell CHE_8</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-CHE_0005</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell CHE_5</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-CHE_0007</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell CHE_7</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-CHE_0013</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell CHE_13</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-CHE_0017</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell CHE_17</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-CHE_0019</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell CHE_19</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-CHE_0023</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell CHE_23</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-CHE_0012</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell CHE_12</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-CHE_0011</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell CHE_11</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-CHE_0015</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell CHE_15</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-CHE_0025</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell CHE_25</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-CHE_0020</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell CHE_20</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-CHE_0001</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell CHE_1</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-CHE_0006</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell CHE_6</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-CHE_0000</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell CHE_0</t>
+  </si>
+  <si>
     <t>distr_solelc_won-CHE_0003</t>
   </si>
   <si>
     <t>connecting solar and wind to buses in grid cell CHE_3</t>
   </si>
   <si>
-    <t>NRGI</t>
-  </si>
-  <si>
-    <t>daynite</t>
+    <t>distr_solelc_won-CHE_0009</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell CHE_9</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-CHE_0021</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell CHE_21</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-CHE_0004</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell CHE_4</t>
   </si>
   <si>
     <t>distr_solelc_won-CHE_0014</t>
@@ -998,126 +1112,12 @@
     <t>connecting solar and wind to buses in grid cell CHE_18</t>
   </si>
   <si>
-    <t>distr_solelc_won-CHE_0017</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell CHE_17</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-CHE_0019</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell CHE_19</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-CHE_0023</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell CHE_23</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-CHE_0020</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell CHE_20</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-CHE_0001</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell CHE_1</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-CHE_0006</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell CHE_6</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-CHE_0013</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell CHE_13</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-CHE_0011</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell CHE_11</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-CHE_0015</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell CHE_15</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-CHE_0025</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell CHE_25</t>
-  </si>
-  <si>
     <t>distr_solelc_won-CHE_0002</t>
   </si>
   <si>
     <t>connecting solar and wind to buses in grid cell CHE_2</t>
   </si>
   <si>
-    <t>distr_solelc_won-CHE_0012</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell CHE_12</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-CHE_0024</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell CHE_24</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-CHE_0008</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell CHE_8</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-CHE_0005</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell CHE_5</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-CHE_0000</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell CHE_0</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-CHE_0009</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell CHE_9</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-CHE_0021</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell CHE_21</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-CHE_0004</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell CHE_4</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-CHE_0007</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell CHE_7</t>
-  </si>
-  <si>
     <t>distr_solelc_won-CHE_0010</t>
   </si>
   <si>
@@ -1133,12 +1133,126 @@
     <t>comm-in</t>
   </si>
   <si>
+    <t>elc_won-CHE_0024,elc_spv-CHE_0024</t>
+  </si>
+  <si>
+    <t>e_CH30-380,e_CH33-380,e_CH37-380,e_r7933294-380</t>
+  </si>
+  <si>
+    <t>elc_won-CHE_0008,elc_spv-CHE_0008</t>
+  </si>
+  <si>
+    <t>e_CH43-220,e_w209324991-220,e_w26166640-220,e_w402055336-220,e_w758315582-220</t>
+  </si>
+  <si>
+    <t>elc_won-CHE_0005,elc_spv-CHE_0005</t>
+  </si>
+  <si>
+    <t>e_r5378910-220,e_w161853746-220</t>
+  </si>
+  <si>
+    <t>elc_won-CHE_0007,elc_spv-CHE_0007</t>
+  </si>
+  <si>
+    <t>e_CH44-220,e_w212722603-220,e_w212722603-380,e_w236819191-220,e_w758943072-220</t>
+  </si>
+  <si>
+    <t>elc_won-CHE_0013,elc_spv-CHE_0013</t>
+  </si>
+  <si>
+    <t>e_CH15-220,e_w146225999-220,e_w159527493-220,e_w242269161-220,e_w281799252-220,e_w35002638-220,e_w35002638-380,e_w97941869-220</t>
+  </si>
+  <si>
+    <t>elc_won-CHE_0017,elc_spv-CHE_0017</t>
+  </si>
+  <si>
+    <t>e_CH12-220,e_CH12-380,e_CH13-220,e_CH16-380,e_CH18-220,e_CH18-380,e_w192677427-220,e_w192677427-380,e_w52738225-220,e_w52738225-380</t>
+  </si>
+  <si>
+    <t>elc_won-CHE_0019,elc_spv-CHE_0019</t>
+  </si>
+  <si>
+    <t>e_CH45-220,e_w281804158-220,e_w281804158-380</t>
+  </si>
+  <si>
+    <t>elc_won-CHE_0023,elc_spv-CHE_0023</t>
+  </si>
+  <si>
+    <t>e_w207991759-380</t>
+  </si>
+  <si>
+    <t>elc_won-CHE_0012,elc_spv-CHE_0012</t>
+  </si>
+  <si>
+    <t>e_CH19-220,e_CH20-220,e_CH25-220,e_CH27-220,e_CH34-220,e_CH34-380,e_CH35-220,e_CH36-220,e_CH38-220,e_CH39-220,e_CH40-220,e_w1086214433-220,e_w1092884227-220,e_w240959264-220,e_w364949845-220,e_w364949845-380</t>
+  </si>
+  <si>
+    <t>elc_won-CHE_0011,elc_spv-CHE_0011</t>
+  </si>
+  <si>
+    <t>e_CH46-220,e_CH47-220,e_w228003081-220,e_w391576135-220,e_w391577741-220,e_w969819301-220,e_w969819301-380</t>
+  </si>
+  <si>
+    <t>elc_won-CHE_0015,elc_spv-CHE_0015</t>
+  </si>
+  <si>
+    <t>e_CH50-220,e_CH56-220,e_CH58-220,e_CH59-220,e_w1327084723-220,e_w281800404-220,e_w281803398-220,e_w281815404-220,e_w35487135-220</t>
+  </si>
+  <si>
+    <t>elc_won-CHE_0025,elc_spv-CHE_0025</t>
+  </si>
+  <si>
+    <t>e_r7933294-380</t>
+  </si>
+  <si>
+    <t>elc_won-CHE_0020,elc_spv-CHE_0020</t>
+  </si>
+  <si>
+    <t>e_CH21-220,e_CH22-220,e_CH22-380,e_CH29-220,e_CH29-380,e_CH41-380,e_w1208713169-220,e_w207993342-220,e_w207993342-380,e_w208780268-380,e_w212498548-220,e_w36348118-220,e_w365556107-220,e_w71500123-220,e_w71500123-380</t>
+  </si>
+  <si>
+    <t>elc_won-CHE_0001,elc_spv-CHE_0001</t>
+  </si>
+  <si>
+    <t>e_CH31-220,e_w132373704-220,e_w232662311-220,e_w44496892-220,e_w55695765-220</t>
+  </si>
+  <si>
+    <t>elc_won-CHE_0006,elc_spv-CHE_0006</t>
+  </si>
+  <si>
+    <t>e_w127004407-400</t>
+  </si>
+  <si>
+    <t>elc_won-CHE_0000,elc_spv-CHE_0000</t>
+  </si>
+  <si>
+    <t>e_CH51-220,e_CH51-225,e_CH51-400,e_CH52-220,e_CH57-220,e_CH57-225,e_w177392130-220,e_w177392130-400,e_w239937062-220</t>
+  </si>
+  <si>
     <t>elc_won-CHE_0003,elc_spv-CHE_0003</t>
   </si>
   <si>
     <t>e_CH48-225,e_CH49-225,e_CH53-225,e_CH60-225,e_w234983117-220,e_w234983117-380,e_w238138373-380,e_w260211728-225,e_w260211728-380,e_w55698557-220,e_w55698557-225,e_w802058337-220,e_w802058337-225,e_w936521586-380</t>
   </si>
   <si>
+    <t>elc_won-CHE_0009,elc_spv-CHE_0009</t>
+  </si>
+  <si>
+    <t>e_CH14-220,e_CH14-380,e_w1105061707-220,e_w1105061707-380,e_w147557680-220,e_w165254212-220,e_w402053379-220</t>
+  </si>
+  <si>
+    <t>elc_won-CHE_0021,elc_spv-CHE_0021</t>
+  </si>
+  <si>
+    <t>e_CH17-380,e_w211907009-220</t>
+  </si>
+  <si>
+    <t>elc_won-CHE_0004,elc_spv-CHE_0004</t>
+  </si>
+  <si>
+    <t>e_w111162936-220,e_w111162936-380,e_w111162936-400,e_w122720993-220,e_w194258388-220</t>
+  </si>
+  <si>
     <t>elc_won-CHE_0014,elc_spv-CHE_0014</t>
   </si>
   <si>
@@ -1151,124 +1265,10 @@
     <t>e_CH3-220,e_CH6-220,e_r9310861-220,e_w11282314-220,e_w147714395-220,e_w147714395-380,e_w148015471-220,e_w22899676-220,e_w240575085-220,e_w26843160-220,e_w281809991-220,e_w50561341-220,e_w87281514-220</t>
   </si>
   <si>
-    <t>elc_won-CHE_0017,elc_spv-CHE_0017</t>
-  </si>
-  <si>
-    <t>e_CH12-220,e_CH12-380,e_CH13-220,e_CH16-380,e_CH18-220,e_CH18-380,e_w192677427-220,e_w192677427-380,e_w52738225-220,e_w52738225-380</t>
-  </si>
-  <si>
-    <t>elc_won-CHE_0019,elc_spv-CHE_0019</t>
-  </si>
-  <si>
-    <t>e_CH45-220,e_w281804158-220,e_w281804158-380</t>
-  </si>
-  <si>
-    <t>elc_won-CHE_0023,elc_spv-CHE_0023</t>
-  </si>
-  <si>
-    <t>e_w207991759-380</t>
-  </si>
-  <si>
-    <t>elc_won-CHE_0020,elc_spv-CHE_0020</t>
-  </si>
-  <si>
-    <t>e_CH21-220,e_CH22-220,e_CH22-380,e_CH29-220,e_CH29-380,e_CH41-380,e_w1208713169-220,e_w207993342-220,e_w207993342-380,e_w208780268-380,e_w212498548-220,e_w36348118-220,e_w365556107-220,e_w71500123-220,e_w71500123-380</t>
-  </si>
-  <si>
-    <t>elc_won-CHE_0001,elc_spv-CHE_0001</t>
-  </si>
-  <si>
-    <t>e_CH31-220,e_w132373704-220,e_w232662311-220,e_w44496892-220,e_w55695765-220</t>
-  </si>
-  <si>
-    <t>elc_won-CHE_0006,elc_spv-CHE_0006</t>
-  </si>
-  <si>
-    <t>e_w127004407-400</t>
-  </si>
-  <si>
-    <t>elc_won-CHE_0013,elc_spv-CHE_0013</t>
-  </si>
-  <si>
-    <t>e_CH15-220,e_w146225999-220,e_w159527493-220,e_w242269161-220,e_w281799252-220,e_w35002638-220,e_w35002638-380,e_w97941869-220</t>
-  </si>
-  <si>
-    <t>elc_won-CHE_0011,elc_spv-CHE_0011</t>
-  </si>
-  <si>
-    <t>e_CH46-220,e_CH47-220,e_w228003081-220,e_w391576135-220,e_w391577741-220,e_w969819301-220,e_w969819301-380</t>
-  </si>
-  <si>
-    <t>elc_won-CHE_0015,elc_spv-CHE_0015</t>
-  </si>
-  <si>
-    <t>e_CH50-220,e_CH56-220,e_CH58-220,e_CH59-220,e_w1327084723-220,e_w281800404-220,e_w281803398-220,e_w281815404-220,e_w35487135-220</t>
-  </si>
-  <si>
-    <t>elc_won-CHE_0025,elc_spv-CHE_0025</t>
-  </si>
-  <si>
-    <t>e_r7933294-380</t>
-  </si>
-  <si>
     <t>elc_won-CHE_0002,elc_spv-CHE_0002</t>
   </si>
   <si>
     <t>e_w232662311-220</t>
-  </si>
-  <si>
-    <t>elc_won-CHE_0012,elc_spv-CHE_0012</t>
-  </si>
-  <si>
-    <t>e_CH19-220,e_CH20-220,e_CH25-220,e_CH27-220,e_CH34-220,e_CH34-380,e_CH35-220,e_CH36-220,e_CH38-220,e_CH39-220,e_CH40-220,e_w1086214433-220,e_w1092884227-220,e_w240959264-220,e_w364949845-220,e_w364949845-380</t>
-  </si>
-  <si>
-    <t>elc_won-CHE_0024,elc_spv-CHE_0024</t>
-  </si>
-  <si>
-    <t>e_CH30-380,e_CH33-380,e_CH37-380,e_r7933294-380</t>
-  </si>
-  <si>
-    <t>elc_won-CHE_0008,elc_spv-CHE_0008</t>
-  </si>
-  <si>
-    <t>e_CH43-220,e_w209324991-220,e_w26166640-220,e_w402055336-220,e_w758315582-220</t>
-  </si>
-  <si>
-    <t>elc_won-CHE_0005,elc_spv-CHE_0005</t>
-  </si>
-  <si>
-    <t>e_r5378910-220,e_w161853746-220</t>
-  </si>
-  <si>
-    <t>elc_won-CHE_0000,elc_spv-CHE_0000</t>
-  </si>
-  <si>
-    <t>e_CH51-220,e_CH51-225,e_CH51-400,e_CH52-220,e_CH57-220,e_CH57-225,e_w177392130-220,e_w177392130-400,e_w239937062-220</t>
-  </si>
-  <si>
-    <t>elc_won-CHE_0009,elc_spv-CHE_0009</t>
-  </si>
-  <si>
-    <t>e_CH14-220,e_CH14-380,e_w1105061707-220,e_w1105061707-380,e_w147557680-220,e_w165254212-220,e_w402053379-220</t>
-  </si>
-  <si>
-    <t>elc_won-CHE_0021,elc_spv-CHE_0021</t>
-  </si>
-  <si>
-    <t>e_CH17-380,e_w211907009-220</t>
-  </si>
-  <si>
-    <t>elc_won-CHE_0004,elc_spv-CHE_0004</t>
-  </si>
-  <si>
-    <t>e_w111162936-220,e_w111162936-380,e_w111162936-400,e_w122720993-220,e_w194258388-220</t>
-  </si>
-  <si>
-    <t>elc_won-CHE_0007,elc_spv-CHE_0007</t>
-  </si>
-  <si>
-    <t>e_CH44-220,e_w212722603-220,e_w212722603-380,e_w236819191-220,e_w758943072-220</t>
   </si>
   <si>
     <t>elc_won-CHE_0010,elc_spv-CHE_0010</t>
@@ -3287,7 +3287,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B782108E-6514-41D7-CE47-DDA788F8DDF0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0E3A3E55-7280-F8C5-FF57-9B4F9EE2903A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3342,7 +3342,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DC7E7AE6-66F6-884A-5244-76C3F59D297A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E36E1183-5EC8-A98C-03E3-2A79DD56FCBE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3397,7 +3397,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{57A62E79-A36C-8EC8-CC3F-E1F52F761D39}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{97B83512-A165-0502-834A-40A25947DE47}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3452,7 +3452,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{42104559-467A-C0AE-5D4C-A4922F0FE440}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5FE317BB-2CB0-F6D1-93F4-C4E03FD74880}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3507,7 +3507,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5CD4A26C-3189-6276-3FEB-F30DCC01ED7B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{73DBE311-E167-41F2-1F62-4A36DB78A044}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7437,7 +7437,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6B6EB0A-7441-4100-A82E-30A9BCD7B83D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D916E84-6066-4C19-AA1C-EC1785366E03}">
   <dimension ref="A1:AG28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7648,7 +7648,7 @@
         <v>1</v>
       </c>
       <c r="AG4" s="156" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
     </row>
     <row r="5" spans="1:33">
@@ -7725,7 +7725,7 @@
         <v>1</v>
       </c>
       <c r="AG5" s="157" t="s">
-        <v>241</v>
+        <v>275</v>
       </c>
     </row>
     <row r="6" spans="1:33">
@@ -7802,7 +7802,7 @@
         <v>1</v>
       </c>
       <c r="AG6" s="156" t="s">
-        <v>247</v>
+        <v>269</v>
       </c>
     </row>
     <row r="7" spans="1:33">
@@ -7879,7 +7879,7 @@
         <v>1</v>
       </c>
       <c r="AG7" s="157" t="s">
-        <v>245</v>
+        <v>273</v>
       </c>
     </row>
     <row r="8" spans="1:33">
@@ -7956,7 +7956,7 @@
         <v>1</v>
       </c>
       <c r="AG8" s="156" t="s">
-        <v>249</v>
+        <v>239</v>
       </c>
     </row>
     <row r="9" spans="1:33">
@@ -8033,7 +8033,7 @@
         <v>1</v>
       </c>
       <c r="AG9" s="157" t="s">
-        <v>259</v>
+        <v>245</v>
       </c>
     </row>
     <row r="10" spans="1:33">
@@ -8110,7 +8110,7 @@
         <v>1</v>
       </c>
       <c r="AG10" s="156" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
     </row>
     <row r="11" spans="1:33">
@@ -8187,7 +8187,7 @@
         <v>1</v>
       </c>
       <c r="AG11" s="157" t="s">
-        <v>231</v>
+        <v>259</v>
       </c>
     </row>
     <row r="12" spans="1:33">
@@ -8264,7 +8264,7 @@
         <v>1</v>
       </c>
       <c r="AG12" s="156" t="s">
-        <v>271</v>
+        <v>237</v>
       </c>
     </row>
     <row r="13" spans="1:33">
@@ -8341,7 +8341,7 @@
         <v>1</v>
       </c>
       <c r="AG13" s="157" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
     </row>
     <row r="14" spans="1:33">
@@ -8418,7 +8418,7 @@
         <v>1</v>
       </c>
       <c r="AG14" s="156" t="s">
-        <v>235</v>
+        <v>243</v>
       </c>
     </row>
     <row r="15" spans="1:33">
@@ -8495,7 +8495,7 @@
         <v>1</v>
       </c>
       <c r="AG15" s="157" t="s">
-        <v>243</v>
+        <v>263</v>
       </c>
     </row>
     <row r="16" spans="1:33">
@@ -8572,7 +8572,7 @@
         <v>1</v>
       </c>
       <c r="AG16" s="156" t="s">
-        <v>263</v>
+        <v>253</v>
       </c>
     </row>
     <row r="17" spans="2:33">
@@ -8649,7 +8649,7 @@
         <v>1</v>
       </c>
       <c r="AG17" s="157" t="s">
-        <v>251</v>
+        <v>231</v>
       </c>
     </row>
     <row r="18" spans="2:33">
@@ -8726,7 +8726,7 @@
         <v>1</v>
       </c>
       <c r="AG18" s="156" t="s">
-        <v>237</v>
+        <v>271</v>
       </c>
     </row>
     <row r="19" spans="2:33">
@@ -8803,7 +8803,7 @@
         <v>1</v>
       </c>
       <c r="AG19" s="157" t="s">
-        <v>261</v>
+        <v>229</v>
       </c>
     </row>
     <row r="20" spans="2:33">
@@ -8880,7 +8880,7 @@
         <v>1</v>
       </c>
       <c r="AG20" s="156" t="s">
-        <v>275</v>
+        <v>265</v>
       </c>
     </row>
     <row r="21" spans="2:33">
@@ -8957,7 +8957,7 @@
         <v>1</v>
       </c>
       <c r="AG21" s="157" t="s">
-        <v>269</v>
+        <v>277</v>
       </c>
     </row>
     <row r="22" spans="2:33">
@@ -9034,7 +9034,7 @@
         <v>1</v>
       </c>
       <c r="AG22" s="156" t="s">
-        <v>229</v>
+        <v>255</v>
       </c>
     </row>
     <row r="23" spans="2:33">
@@ -9111,7 +9111,7 @@
         <v>1</v>
       </c>
       <c r="AG23" s="157" t="s">
-        <v>277</v>
+        <v>267</v>
       </c>
     </row>
     <row r="24" spans="2:33">
@@ -9188,7 +9188,7 @@
         <v>1</v>
       </c>
       <c r="AG24" s="156" t="s">
-        <v>255</v>
+        <v>241</v>
       </c>
     </row>
     <row r="25" spans="2:33">
@@ -9265,7 +9265,7 @@
         <v>1</v>
       </c>
       <c r="AG25" s="157" t="s">
-        <v>267</v>
+        <v>247</v>
       </c>
     </row>
     <row r="26" spans="2:33">
@@ -9342,7 +9342,7 @@
         <v>1</v>
       </c>
       <c r="AG26" s="156" t="s">
-        <v>273</v>
+        <v>251</v>
       </c>
     </row>
     <row r="27" spans="2:33">
@@ -9509,7 +9509,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A38A234B-65CE-4B62-B03B-3217E59B5A3F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8CC2774-4482-4BB3-B18E-86CAE1E5501A}">
   <dimension ref="A1:O29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -10587,7 +10587,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA580656-F0E8-4384-A7B5-DADB4188F789}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F5DAA6F-203C-4B0E-954C-FD952F4E7B53}">
   <dimension ref="A1:Q66"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -12453,7 +12453,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3DC4180C-D93F-480A-9681-11BD9CFACF3A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0F96ED8-4714-4A03-893E-4D3EC91984F6}">
   <dimension ref="A1:M77"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -13360,7 +13360,7 @@
         <v>535</v>
       </c>
       <c r="C30" s="156" t="s">
-        <v>351</v>
+        <v>363</v>
       </c>
       <c r="D30" s="156" t="s">
         <v>536</v>
@@ -13395,7 +13395,7 @@
         <v>536</v>
       </c>
       <c r="D31" s="157" t="s">
-        <v>351</v>
+        <v>363</v>
       </c>
       <c r="E31" s="163">
         <v>1</v>

--- a/VerveStacks_CHE_grids/SubRES_Tmpl/SubRES_New_RE_and_Conventional.xlsx
+++ b/VerveStacks_CHE_grids/SubRES_Tmpl/SubRES_New_RE_and_Conventional.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_CHE_grids\SubRES_Tmpl\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{90713FB2-3158-40C2-86B1-8B25EE0101A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0B57557B-3796-47A3-A8BE-5BFDAA9AE65A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="8" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -974,18 +974,102 @@
     <t>pre</t>
   </si>
   <si>
+    <t>distr_solelc_won-CHE_0007</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell CHE_7</t>
+  </si>
+  <si>
+    <t>NRGI</t>
+  </si>
+  <si>
+    <t>daynite</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-CHE_0011</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell CHE_11</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-CHE_0015</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell CHE_15</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-CHE_0025</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell CHE_25</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-CHE_0020</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell CHE_20</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-CHE_0001</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell CHE_1</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-CHE_0006</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell CHE_6</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-CHE_0010</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell CHE_10</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-CHE_0022</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell CHE_22</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-CHE_0017</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell CHE_17</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-CHE_0019</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell CHE_19</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-CHE_0023</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell CHE_23</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-CHE_0013</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell CHE_13</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-CHE_0002</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell CHE_2</t>
+  </si>
+  <si>
     <t>distr_solelc_won-CHE_0024</t>
   </si>
   <si>
     <t>connecting solar and wind to buses in grid cell CHE_24</t>
   </si>
   <si>
-    <t>NRGI</t>
-  </si>
-  <si>
-    <t>daynite</t>
-  </si>
-  <si>
     <t>distr_solelc_won-CHE_0008</t>
   </si>
   <si>
@@ -998,34 +1082,46 @@
     <t>connecting solar and wind to buses in grid cell CHE_5</t>
   </si>
   <si>
-    <t>distr_solelc_won-CHE_0007</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell CHE_7</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-CHE_0013</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell CHE_13</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-CHE_0017</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell CHE_17</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-CHE_0019</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell CHE_19</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-CHE_0023</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell CHE_23</t>
+    <t>distr_solelc_won-CHE_0014</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell CHE_14</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-CHE_0018</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell CHE_18</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-CHE_0009</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell CHE_9</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-CHE_0021</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell CHE_21</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-CHE_0004</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell CHE_4</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-CHE_0000</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell CHE_0</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-CHE_0003</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell CHE_3</t>
   </si>
   <si>
     <t>distr_solelc_won-CHE_0012</t>
@@ -1034,105 +1130,93 @@
     <t>connecting solar and wind to buses in grid cell CHE_12</t>
   </si>
   <si>
-    <t>distr_solelc_won-CHE_0011</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell CHE_11</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-CHE_0015</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell CHE_15</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-CHE_0025</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell CHE_25</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-CHE_0020</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell CHE_20</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-CHE_0001</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell CHE_1</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-CHE_0006</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell CHE_6</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-CHE_0000</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell CHE_0</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-CHE_0003</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell CHE_3</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-CHE_0009</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell CHE_9</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-CHE_0021</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell CHE_21</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-CHE_0004</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell CHE_4</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-CHE_0014</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell CHE_14</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-CHE_0018</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell CHE_18</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-CHE_0002</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell CHE_2</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-CHE_0010</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell CHE_10</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-CHE_0022</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell CHE_22</t>
-  </si>
-  <si>
     <t>comm-in</t>
   </si>
   <si>
+    <t>elc_won-CHE_0007,elc_spv-CHE_0007</t>
+  </si>
+  <si>
+    <t>e_CH44-220,e_w212722603-220,e_w212722603-380,e_w236819191-220,e_w758943072-220</t>
+  </si>
+  <si>
+    <t>elc_won-CHE_0011,elc_spv-CHE_0011</t>
+  </si>
+  <si>
+    <t>e_CH46-220,e_CH47-220,e_w228003081-220,e_w391576135-220,e_w391577741-220,e_w969819301-220,e_w969819301-380</t>
+  </si>
+  <si>
+    <t>elc_won-CHE_0015,elc_spv-CHE_0015</t>
+  </si>
+  <si>
+    <t>e_CH50-220,e_CH56-220,e_CH58-220,e_CH59-220,e_w1327084723-220,e_w281800404-220,e_w281803398-220,e_w281815404-220,e_w35487135-220</t>
+  </si>
+  <si>
+    <t>elc_won-CHE_0025,elc_spv-CHE_0025</t>
+  </si>
+  <si>
+    <t>e_r7933294-380</t>
+  </si>
+  <si>
+    <t>elc_won-CHE_0020,elc_spv-CHE_0020</t>
+  </si>
+  <si>
+    <t>e_CH21-220,e_CH22-220,e_CH22-380,e_CH29-220,e_CH29-380,e_CH41-380,e_w1208713169-220,e_w207993342-220,e_w207993342-380,e_w208780268-380,e_w212498548-220,e_w36348118-220,e_w365556107-220,e_w71500123-220,e_w71500123-380</t>
+  </si>
+  <si>
+    <t>elc_won-CHE_0001,elc_spv-CHE_0001</t>
+  </si>
+  <si>
+    <t>e_CH31-220,e_w132373704-220,e_w232662311-220,e_w44496892-220,e_w55695765-220</t>
+  </si>
+  <si>
+    <t>elc_won-CHE_0006,elc_spv-CHE_0006</t>
+  </si>
+  <si>
+    <t>e_w127004407-400</t>
+  </si>
+  <si>
+    <t>elc_won-CHE_0010,elc_spv-CHE_0010</t>
+  </si>
+  <si>
+    <t>e_CH11-220,e_w109037817-220,e_w109037817-380,e_w127004407-380,e_w127004407-400,e_w27435934-220,e_w30350721-220,e_w397960460-380,e_w397960460-400,e_w88901626-380</t>
+  </si>
+  <si>
+    <t>elc_won-CHE_0022,elc_spv-CHE_0022</t>
+  </si>
+  <si>
+    <t>e_CH4-220,e_CH9-220,e_w455120191-220,e_w83861269-220,e_w92798668-220,e_w92873516-220</t>
+  </si>
+  <si>
+    <t>elc_won-CHE_0017,elc_spv-CHE_0017</t>
+  </si>
+  <si>
+    <t>e_CH12-220,e_CH12-380,e_CH13-220,e_CH16-380,e_CH18-220,e_CH18-380,e_w192677427-220,e_w192677427-380,e_w52738225-220,e_w52738225-380</t>
+  </si>
+  <si>
+    <t>elc_won-CHE_0019,elc_spv-CHE_0019</t>
+  </si>
+  <si>
+    <t>e_CH45-220,e_w281804158-220,e_w281804158-380</t>
+  </si>
+  <si>
+    <t>elc_won-CHE_0023,elc_spv-CHE_0023</t>
+  </si>
+  <si>
+    <t>e_w207991759-380</t>
+  </si>
+  <si>
+    <t>elc_won-CHE_0013,elc_spv-CHE_0013</t>
+  </si>
+  <si>
+    <t>e_CH15-220,e_w146225999-220,e_w159527493-220,e_w242269161-220,e_w281799252-220,e_w35002638-220,e_w35002638-380,e_w97941869-220</t>
+  </si>
+  <si>
+    <t>elc_won-CHE_0002,elc_spv-CHE_0002</t>
+  </si>
+  <si>
+    <t>e_w232662311-220</t>
+  </si>
+  <si>
     <t>elc_won-CHE_0024,elc_spv-CHE_0024</t>
   </si>
   <si>
@@ -1151,136 +1235,52 @@
     <t>e_r5378910-220,e_w161853746-220</t>
   </si>
   <si>
-    <t>elc_won-CHE_0007,elc_spv-CHE_0007</t>
-  </si>
-  <si>
-    <t>e_CH44-220,e_w212722603-220,e_w212722603-380,e_w236819191-220,e_w758943072-220</t>
-  </si>
-  <si>
-    <t>elc_won-CHE_0013,elc_spv-CHE_0013</t>
-  </si>
-  <si>
-    <t>e_CH15-220,e_w146225999-220,e_w159527493-220,e_w242269161-220,e_w281799252-220,e_w35002638-220,e_w35002638-380,e_w97941869-220</t>
-  </si>
-  <si>
-    <t>elc_won-CHE_0017,elc_spv-CHE_0017</t>
-  </si>
-  <si>
-    <t>e_CH12-220,e_CH12-380,e_CH13-220,e_CH16-380,e_CH18-220,e_CH18-380,e_w192677427-220,e_w192677427-380,e_w52738225-220,e_w52738225-380</t>
-  </si>
-  <si>
-    <t>elc_won-CHE_0019,elc_spv-CHE_0019</t>
-  </si>
-  <si>
-    <t>e_CH45-220,e_w281804158-220,e_w281804158-380</t>
-  </si>
-  <si>
-    <t>elc_won-CHE_0023,elc_spv-CHE_0023</t>
-  </si>
-  <si>
-    <t>e_w207991759-380</t>
+    <t>elc_won-CHE_0014,elc_spv-CHE_0014</t>
+  </si>
+  <si>
+    <t>e_CH1-220,e_CH2-220,e_CH5-220,e_CH7-220,e_w108257952-220,e_w1284913429-220,e_w165513396-220,e_w165513396-380,e_w190819048-220,e_w27107779-220,e_w31308888-220,e_w33271433-220,e_w356292116-220,e_w356292116-380,e_w35840165-380,e_w50319857-220,e_w50319857-380,e_w50319857-400,e_w89405664-220,e_w89977424-220,e_w98648381-220,e_w98648381-380</t>
+  </si>
+  <si>
+    <t>elc_won-CHE_0018,elc_spv-CHE_0018</t>
+  </si>
+  <si>
+    <t>e_CH3-220,e_CH6-220,e_r9310861-220,e_w11282314-220,e_w147714395-220,e_w147714395-380,e_w148015471-220,e_w22899676-220,e_w240575085-220,e_w26843160-220,e_w281809991-220,e_w50561341-220,e_w87281514-220</t>
+  </si>
+  <si>
+    <t>elc_won-CHE_0009,elc_spv-CHE_0009</t>
+  </si>
+  <si>
+    <t>e_CH14-220,e_CH14-380,e_w1105061707-220,e_w1105061707-380,e_w147557680-220,e_w165254212-220,e_w402053379-220</t>
+  </si>
+  <si>
+    <t>elc_won-CHE_0021,elc_spv-CHE_0021</t>
+  </si>
+  <si>
+    <t>e_CH17-380,e_w211907009-220</t>
+  </si>
+  <si>
+    <t>elc_won-CHE_0004,elc_spv-CHE_0004</t>
+  </si>
+  <si>
+    <t>e_w111162936-220,e_w111162936-380,e_w111162936-400,e_w122720993-220,e_w194258388-220</t>
+  </si>
+  <si>
+    <t>elc_won-CHE_0000,elc_spv-CHE_0000</t>
+  </si>
+  <si>
+    <t>e_CH51-220,e_CH51-225,e_CH51-400,e_CH52-220,e_CH57-220,e_CH57-225,e_w177392130-220,e_w177392130-400,e_w239937062-220</t>
+  </si>
+  <si>
+    <t>elc_won-CHE_0003,elc_spv-CHE_0003</t>
+  </si>
+  <si>
+    <t>e_CH48-225,e_CH49-225,e_CH53-225,e_CH60-225,e_w234983117-220,e_w234983117-380,e_w238138373-380,e_w260211728-225,e_w260211728-380,e_w55698557-220,e_w55698557-225,e_w802058337-220,e_w802058337-225,e_w936521586-380</t>
   </si>
   <si>
     <t>elc_won-CHE_0012,elc_spv-CHE_0012</t>
   </si>
   <si>
     <t>e_CH19-220,e_CH20-220,e_CH25-220,e_CH27-220,e_CH34-220,e_CH34-380,e_CH35-220,e_CH36-220,e_CH38-220,e_CH39-220,e_CH40-220,e_w1086214433-220,e_w1092884227-220,e_w240959264-220,e_w364949845-220,e_w364949845-380</t>
-  </si>
-  <si>
-    <t>elc_won-CHE_0011,elc_spv-CHE_0011</t>
-  </si>
-  <si>
-    <t>e_CH46-220,e_CH47-220,e_w228003081-220,e_w391576135-220,e_w391577741-220,e_w969819301-220,e_w969819301-380</t>
-  </si>
-  <si>
-    <t>elc_won-CHE_0015,elc_spv-CHE_0015</t>
-  </si>
-  <si>
-    <t>e_CH50-220,e_CH56-220,e_CH58-220,e_CH59-220,e_w1327084723-220,e_w281800404-220,e_w281803398-220,e_w281815404-220,e_w35487135-220</t>
-  </si>
-  <si>
-    <t>elc_won-CHE_0025,elc_spv-CHE_0025</t>
-  </si>
-  <si>
-    <t>e_r7933294-380</t>
-  </si>
-  <si>
-    <t>elc_won-CHE_0020,elc_spv-CHE_0020</t>
-  </si>
-  <si>
-    <t>e_CH21-220,e_CH22-220,e_CH22-380,e_CH29-220,e_CH29-380,e_CH41-380,e_w1208713169-220,e_w207993342-220,e_w207993342-380,e_w208780268-380,e_w212498548-220,e_w36348118-220,e_w365556107-220,e_w71500123-220,e_w71500123-380</t>
-  </si>
-  <si>
-    <t>elc_won-CHE_0001,elc_spv-CHE_0001</t>
-  </si>
-  <si>
-    <t>e_CH31-220,e_w132373704-220,e_w232662311-220,e_w44496892-220,e_w55695765-220</t>
-  </si>
-  <si>
-    <t>elc_won-CHE_0006,elc_spv-CHE_0006</t>
-  </si>
-  <si>
-    <t>e_w127004407-400</t>
-  </si>
-  <si>
-    <t>elc_won-CHE_0000,elc_spv-CHE_0000</t>
-  </si>
-  <si>
-    <t>e_CH51-220,e_CH51-225,e_CH51-400,e_CH52-220,e_CH57-220,e_CH57-225,e_w177392130-220,e_w177392130-400,e_w239937062-220</t>
-  </si>
-  <si>
-    <t>elc_won-CHE_0003,elc_spv-CHE_0003</t>
-  </si>
-  <si>
-    <t>e_CH48-225,e_CH49-225,e_CH53-225,e_CH60-225,e_w234983117-220,e_w234983117-380,e_w238138373-380,e_w260211728-225,e_w260211728-380,e_w55698557-220,e_w55698557-225,e_w802058337-220,e_w802058337-225,e_w936521586-380</t>
-  </si>
-  <si>
-    <t>elc_won-CHE_0009,elc_spv-CHE_0009</t>
-  </si>
-  <si>
-    <t>e_CH14-220,e_CH14-380,e_w1105061707-220,e_w1105061707-380,e_w147557680-220,e_w165254212-220,e_w402053379-220</t>
-  </si>
-  <si>
-    <t>elc_won-CHE_0021,elc_spv-CHE_0021</t>
-  </si>
-  <si>
-    <t>e_CH17-380,e_w211907009-220</t>
-  </si>
-  <si>
-    <t>elc_won-CHE_0004,elc_spv-CHE_0004</t>
-  </si>
-  <si>
-    <t>e_w111162936-220,e_w111162936-380,e_w111162936-400,e_w122720993-220,e_w194258388-220</t>
-  </si>
-  <si>
-    <t>elc_won-CHE_0014,elc_spv-CHE_0014</t>
-  </si>
-  <si>
-    <t>e_CH1-220,e_CH2-220,e_CH5-220,e_CH7-220,e_w108257952-220,e_w1284913429-220,e_w165513396-220,e_w165513396-380,e_w190819048-220,e_w27107779-220,e_w31308888-220,e_w33271433-220,e_w356292116-220,e_w356292116-380,e_w35840165-380,e_w50319857-220,e_w50319857-380,e_w50319857-400,e_w89405664-220,e_w89977424-220,e_w98648381-220,e_w98648381-380</t>
-  </si>
-  <si>
-    <t>elc_won-CHE_0018,elc_spv-CHE_0018</t>
-  </si>
-  <si>
-    <t>e_CH3-220,e_CH6-220,e_r9310861-220,e_w11282314-220,e_w147714395-220,e_w147714395-380,e_w148015471-220,e_w22899676-220,e_w240575085-220,e_w26843160-220,e_w281809991-220,e_w50561341-220,e_w87281514-220</t>
-  </si>
-  <si>
-    <t>elc_won-CHE_0002,elc_spv-CHE_0002</t>
-  </si>
-  <si>
-    <t>e_w232662311-220</t>
-  </si>
-  <si>
-    <t>elc_won-CHE_0010,elc_spv-CHE_0010</t>
-  </si>
-  <si>
-    <t>e_CH11-220,e_w109037817-220,e_w109037817-380,e_w127004407-380,e_w127004407-400,e_w27435934-220,e_w30350721-220,e_w397960460-380,e_w397960460-400,e_w88901626-380</t>
-  </si>
-  <si>
-    <t>elc_won-CHE_0022,elc_spv-CHE_0022</t>
-  </si>
-  <si>
-    <t>e_CH4-220,e_CH9-220,e_w455120191-220,e_w83861269-220,e_w92798668-220,e_w92873516-220</t>
   </si>
   <si>
     <t>e_won-CHE_0000</t>
@@ -3287,7 +3287,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0E3A3E55-7280-F8C5-FF57-9B4F9EE2903A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{98007C88-DB27-51B0-90B5-AD562F086AC8}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3342,7 +3342,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E36E1183-5EC8-A98C-03E3-2A79DD56FCBE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ECD7BF4B-F8C6-6D43-169E-66AC0C276451}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3397,7 +3397,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{97B83512-A165-0502-834A-40A25947DE47}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{224E2690-8AE7-D624-6454-2D3C205FFBF5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3452,7 +3452,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5FE317BB-2CB0-F6D1-93F4-C4E03FD74880}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E6847C86-7CD4-DFEC-BB31-F52B40663412}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3507,7 +3507,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{73DBE311-E167-41F2-1F62-4A36DB78A044}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B0EF15F5-4FAE-476F-FD8C-93E15A0B75B0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7437,7 +7437,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D916E84-6066-4C19-AA1C-EC1785366E03}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C35276E-82D0-42C9-8A8D-671A05E9406F}">
   <dimension ref="A1:AG28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7648,7 +7648,7 @@
         <v>1</v>
       </c>
       <c r="AG4" s="156" t="s">
-        <v>261</v>
+        <v>273</v>
       </c>
     </row>
     <row r="5" spans="1:33">
@@ -7725,7 +7725,7 @@
         <v>1</v>
       </c>
       <c r="AG5" s="157" t="s">
-        <v>275</v>
+        <v>235</v>
       </c>
     </row>
     <row r="6" spans="1:33">
@@ -7802,7 +7802,7 @@
         <v>1</v>
       </c>
       <c r="AG6" s="156" t="s">
-        <v>269</v>
+        <v>243</v>
       </c>
     </row>
     <row r="7" spans="1:33">
@@ -7879,7 +7879,7 @@
         <v>1</v>
       </c>
       <c r="AG7" s="157" t="s">
-        <v>273</v>
+        <v>263</v>
       </c>
     </row>
     <row r="8" spans="1:33">
@@ -7956,7 +7956,7 @@
         <v>1</v>
       </c>
       <c r="AG8" s="156" t="s">
-        <v>239</v>
+        <v>253</v>
       </c>
     </row>
     <row r="9" spans="1:33">
@@ -8033,7 +8033,7 @@
         <v>1</v>
       </c>
       <c r="AG9" s="157" t="s">
-        <v>245</v>
+        <v>231</v>
       </c>
     </row>
     <row r="10" spans="1:33">
@@ -8110,7 +8110,7 @@
         <v>1</v>
       </c>
       <c r="AG10" s="156" t="s">
-        <v>249</v>
+        <v>271</v>
       </c>
     </row>
     <row r="11" spans="1:33">
@@ -8187,7 +8187,7 @@
         <v>1</v>
       </c>
       <c r="AG11" s="157" t="s">
-        <v>259</v>
+        <v>233</v>
       </c>
     </row>
     <row r="12" spans="1:33">
@@ -8264,7 +8264,7 @@
         <v>1</v>
       </c>
       <c r="AG12" s="156" t="s">
-        <v>237</v>
+        <v>257</v>
       </c>
     </row>
     <row r="13" spans="1:33">
@@ -8341,7 +8341,7 @@
         <v>1</v>
       </c>
       <c r="AG13" s="157" t="s">
-        <v>235</v>
+        <v>245</v>
       </c>
     </row>
     <row r="14" spans="1:33">
@@ -8418,7 +8418,7 @@
         <v>1</v>
       </c>
       <c r="AG14" s="156" t="s">
-        <v>243</v>
+        <v>249</v>
       </c>
     </row>
     <row r="15" spans="1:33">
@@ -8495,7 +8495,7 @@
         <v>1</v>
       </c>
       <c r="AG15" s="157" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
     </row>
     <row r="16" spans="1:33">
@@ -8572,7 +8572,7 @@
         <v>1</v>
       </c>
       <c r="AG16" s="156" t="s">
-        <v>253</v>
+        <v>239</v>
       </c>
     </row>
     <row r="17" spans="2:33">
@@ -8649,7 +8649,7 @@
         <v>1</v>
       </c>
       <c r="AG17" s="157" t="s">
-        <v>231</v>
+        <v>251</v>
       </c>
     </row>
     <row r="18" spans="2:33">
@@ -8726,7 +8726,7 @@
         <v>1</v>
       </c>
       <c r="AG18" s="156" t="s">
-        <v>271</v>
+        <v>261</v>
       </c>
     </row>
     <row r="19" spans="2:33">
@@ -8803,7 +8803,7 @@
         <v>1</v>
       </c>
       <c r="AG19" s="157" t="s">
-        <v>229</v>
+        <v>275</v>
       </c>
     </row>
     <row r="20" spans="2:33">
@@ -8880,7 +8880,7 @@
         <v>1</v>
       </c>
       <c r="AG20" s="156" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
     </row>
     <row r="21" spans="2:33">
@@ -8957,7 +8957,7 @@
         <v>1</v>
       </c>
       <c r="AG21" s="157" t="s">
-        <v>277</v>
+        <v>241</v>
       </c>
     </row>
     <row r="22" spans="2:33">
@@ -9034,7 +9034,7 @@
         <v>1</v>
       </c>
       <c r="AG22" s="156" t="s">
-        <v>255</v>
+        <v>247</v>
       </c>
     </row>
     <row r="23" spans="2:33">
@@ -9111,7 +9111,7 @@
         <v>1</v>
       </c>
       <c r="AG23" s="157" t="s">
-        <v>267</v>
+        <v>277</v>
       </c>
     </row>
     <row r="24" spans="2:33">
@@ -9188,7 +9188,7 @@
         <v>1</v>
       </c>
       <c r="AG24" s="156" t="s">
-        <v>241</v>
+        <v>255</v>
       </c>
     </row>
     <row r="25" spans="2:33">
@@ -9265,7 +9265,7 @@
         <v>1</v>
       </c>
       <c r="AG25" s="157" t="s">
-        <v>247</v>
+        <v>267</v>
       </c>
     </row>
     <row r="26" spans="2:33">
@@ -9342,7 +9342,7 @@
         <v>1</v>
       </c>
       <c r="AG26" s="156" t="s">
-        <v>251</v>
+        <v>229</v>
       </c>
     </row>
     <row r="27" spans="2:33">
@@ -9419,7 +9419,7 @@
         <v>1</v>
       </c>
       <c r="AG27" s="157" t="s">
-        <v>233</v>
+        <v>265</v>
       </c>
     </row>
     <row r="28" spans="2:33">
@@ -9496,7 +9496,7 @@
         <v>1</v>
       </c>
       <c r="AG28" s="156" t="s">
-        <v>257</v>
+        <v>237</v>
       </c>
     </row>
   </sheetData>
@@ -9509,7 +9509,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8CC2774-4482-4BB3-B18E-86CAE1E5501A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4AEEA30-1B40-4B35-AD5F-D4FE27BCAA8B}">
   <dimension ref="A1:O29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -10587,7 +10587,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F5DAA6F-203C-4B0E-954C-FD952F4E7B53}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1AEE6B2-AB13-4064-AF13-959AEA71A24E}">
   <dimension ref="A1:Q66"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -12453,7 +12453,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0F96ED8-4714-4A03-893E-4D3EC91984F6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B5930E1-6D7F-4020-B464-9D0DC397DC4F}">
   <dimension ref="A1:M77"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -13360,7 +13360,7 @@
         <v>535</v>
       </c>
       <c r="C30" s="156" t="s">
-        <v>363</v>
+        <v>347</v>
       </c>
       <c r="D30" s="156" t="s">
         <v>536</v>
@@ -13395,7 +13395,7 @@
         <v>536</v>
       </c>
       <c r="D31" s="157" t="s">
-        <v>363</v>
+        <v>347</v>
       </c>
       <c r="E31" s="163">
         <v>1</v>

--- a/VerveStacks_CHE_grids/SubRES_Tmpl/SubRES_New_RE_and_Conventional.xlsx
+++ b/VerveStacks_CHE_grids/SubRES_Tmpl/SubRES_New_RE_and_Conventional.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_CHE_grids\SubRES_Tmpl\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0B57557B-3796-47A3-A8BE-5BFDAA9AE65A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{FEEF127D-3628-4E10-9221-34571D43B5A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="8" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -974,54 +974,108 @@
     <t>pre</t>
   </si>
   <si>
+    <t>distr_solelc_won-CHE_0024</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell CHE_24</t>
+  </si>
+  <si>
+    <t>NRGI</t>
+  </si>
+  <si>
+    <t>daynite</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-CHE_0008</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell CHE_8</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-CHE_0005</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell CHE_5</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-CHE_0003</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell CHE_3</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-CHE_0009</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell CHE_9</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-CHE_0021</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell CHE_21</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-CHE_0004</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell CHE_4</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-CHE_0020</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell CHE_20</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-CHE_0001</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell CHE_1</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-CHE_0006</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell CHE_6</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-CHE_0011</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell CHE_11</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-CHE_0015</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell CHE_15</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-CHE_0025</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell CHE_25</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-CHE_0013</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell CHE_13</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-CHE_0000</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell CHE_0</t>
+  </si>
+  <si>
     <t>distr_solelc_won-CHE_0007</t>
   </si>
   <si>
     <t>connecting solar and wind to buses in grid cell CHE_7</t>
   </si>
   <si>
-    <t>NRGI</t>
-  </si>
-  <si>
-    <t>daynite</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-CHE_0011</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell CHE_11</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-CHE_0015</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell CHE_15</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-CHE_0025</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell CHE_25</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-CHE_0020</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell CHE_20</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-CHE_0001</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell CHE_1</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-CHE_0006</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell CHE_6</t>
-  </si>
-  <si>
     <t>distr_solelc_won-CHE_0010</t>
   </si>
   <si>
@@ -1034,6 +1088,30 @@
     <t>connecting solar and wind to buses in grid cell CHE_22</t>
   </si>
   <si>
+    <t>distr_solelc_won-CHE_0014</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell CHE_14</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-CHE_0018</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell CHE_18</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-CHE_0002</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell CHE_2</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-CHE_0012</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell CHE_12</t>
+  </si>
+  <si>
     <t>distr_solelc_won-CHE_0017</t>
   </si>
   <si>
@@ -1052,129 +1130,105 @@
     <t>connecting solar and wind to buses in grid cell CHE_23</t>
   </si>
   <si>
-    <t>distr_solelc_won-CHE_0013</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell CHE_13</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-CHE_0002</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell CHE_2</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-CHE_0024</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell CHE_24</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-CHE_0008</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell CHE_8</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-CHE_0005</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell CHE_5</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-CHE_0014</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell CHE_14</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-CHE_0018</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell CHE_18</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-CHE_0009</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell CHE_9</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-CHE_0021</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell CHE_21</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-CHE_0004</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell CHE_4</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-CHE_0000</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell CHE_0</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-CHE_0003</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell CHE_3</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-CHE_0012</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell CHE_12</t>
-  </si>
-  <si>
     <t>comm-in</t>
   </si>
   <si>
+    <t>elc_won-CHE_0024,elc_spv-CHE_0024</t>
+  </si>
+  <si>
+    <t>e_CH30-380,e_CH33-380,e_CH37-380,e_r7933294-380</t>
+  </si>
+  <si>
+    <t>elc_won-CHE_0008,elc_spv-CHE_0008</t>
+  </si>
+  <si>
+    <t>e_CH43-220,e_w209324991-220,e_w26166640-220,e_w402055336-220,e_w758315582-220</t>
+  </si>
+  <si>
+    <t>elc_won-CHE_0005,elc_spv-CHE_0005</t>
+  </si>
+  <si>
+    <t>e_r5378910-220,e_w161853746-220</t>
+  </si>
+  <si>
+    <t>elc_won-CHE_0003,elc_spv-CHE_0003</t>
+  </si>
+  <si>
+    <t>e_CH48-225,e_CH49-225,e_CH53-225,e_CH60-225,e_w234983117-220,e_w234983117-380,e_w238138373-380,e_w260211728-225,e_w260211728-380,e_w55698557-220,e_w55698557-225,e_w802058337-220,e_w802058337-225,e_w936521586-380</t>
+  </si>
+  <si>
+    <t>elc_won-CHE_0009,elc_spv-CHE_0009</t>
+  </si>
+  <si>
+    <t>e_CH14-220,e_CH14-380,e_w1105061707-220,e_w1105061707-380,e_w147557680-220,e_w165254212-220,e_w402053379-220</t>
+  </si>
+  <si>
+    <t>elc_won-CHE_0021,elc_spv-CHE_0021</t>
+  </si>
+  <si>
+    <t>e_CH17-380,e_w211907009-220</t>
+  </si>
+  <si>
+    <t>elc_won-CHE_0004,elc_spv-CHE_0004</t>
+  </si>
+  <si>
+    <t>e_w111162936-220,e_w111162936-380,e_w111162936-400,e_w122720993-220,e_w194258388-220</t>
+  </si>
+  <si>
+    <t>elc_won-CHE_0020,elc_spv-CHE_0020</t>
+  </si>
+  <si>
+    <t>e_CH21-220,e_CH22-220,e_CH22-380,e_CH29-220,e_CH29-380,e_CH41-380,e_w1208713169-220,e_w207993342-220,e_w207993342-380,e_w208780268-380,e_w212498548-220,e_w36348118-220,e_w365556107-220,e_w71500123-220,e_w71500123-380</t>
+  </si>
+  <si>
+    <t>elc_won-CHE_0001,elc_spv-CHE_0001</t>
+  </si>
+  <si>
+    <t>e_CH31-220,e_w132373704-220,e_w232662311-220,e_w44496892-220,e_w55695765-220</t>
+  </si>
+  <si>
+    <t>elc_won-CHE_0006,elc_spv-CHE_0006</t>
+  </si>
+  <si>
+    <t>e_w127004407-400</t>
+  </si>
+  <si>
+    <t>elc_won-CHE_0011,elc_spv-CHE_0011</t>
+  </si>
+  <si>
+    <t>e_CH46-220,e_CH47-220,e_w228003081-220,e_w391576135-220,e_w391577741-220,e_w969819301-220,e_w969819301-380</t>
+  </si>
+  <si>
+    <t>elc_won-CHE_0015,elc_spv-CHE_0015</t>
+  </si>
+  <si>
+    <t>e_CH50-220,e_CH56-220,e_CH58-220,e_CH59-220,e_w1327084723-220,e_w281800404-220,e_w281803398-220,e_w281815404-220,e_w35487135-220</t>
+  </si>
+  <si>
+    <t>elc_won-CHE_0025,elc_spv-CHE_0025</t>
+  </si>
+  <si>
+    <t>e_r7933294-380</t>
+  </si>
+  <si>
+    <t>elc_won-CHE_0013,elc_spv-CHE_0013</t>
+  </si>
+  <si>
+    <t>e_CH15-220,e_w146225999-220,e_w159527493-220,e_w242269161-220,e_w281799252-220,e_w35002638-220,e_w35002638-380,e_w97941869-220</t>
+  </si>
+  <si>
+    <t>elc_won-CHE_0000,elc_spv-CHE_0000</t>
+  </si>
+  <si>
+    <t>e_CH51-220,e_CH51-225,e_CH51-400,e_CH52-220,e_CH57-220,e_CH57-225,e_w177392130-220,e_w177392130-400,e_w239937062-220</t>
+  </si>
+  <si>
     <t>elc_won-CHE_0007,elc_spv-CHE_0007</t>
   </si>
   <si>
     <t>e_CH44-220,e_w212722603-220,e_w212722603-380,e_w236819191-220,e_w758943072-220</t>
   </si>
   <si>
-    <t>elc_won-CHE_0011,elc_spv-CHE_0011</t>
-  </si>
-  <si>
-    <t>e_CH46-220,e_CH47-220,e_w228003081-220,e_w391576135-220,e_w391577741-220,e_w969819301-220,e_w969819301-380</t>
-  </si>
-  <si>
-    <t>elc_won-CHE_0015,elc_spv-CHE_0015</t>
-  </si>
-  <si>
-    <t>e_CH50-220,e_CH56-220,e_CH58-220,e_CH59-220,e_w1327084723-220,e_w281800404-220,e_w281803398-220,e_w281815404-220,e_w35487135-220</t>
-  </si>
-  <si>
-    <t>elc_won-CHE_0025,elc_spv-CHE_0025</t>
-  </si>
-  <si>
-    <t>e_r7933294-380</t>
-  </si>
-  <si>
-    <t>elc_won-CHE_0020,elc_spv-CHE_0020</t>
-  </si>
-  <si>
-    <t>e_CH21-220,e_CH22-220,e_CH22-380,e_CH29-220,e_CH29-380,e_CH41-380,e_w1208713169-220,e_w207993342-220,e_w207993342-380,e_w208780268-380,e_w212498548-220,e_w36348118-220,e_w365556107-220,e_w71500123-220,e_w71500123-380</t>
-  </si>
-  <si>
-    <t>elc_won-CHE_0001,elc_spv-CHE_0001</t>
-  </si>
-  <si>
-    <t>e_CH31-220,e_w132373704-220,e_w232662311-220,e_w44496892-220,e_w55695765-220</t>
-  </si>
-  <si>
-    <t>elc_won-CHE_0006,elc_spv-CHE_0006</t>
-  </si>
-  <si>
-    <t>e_w127004407-400</t>
-  </si>
-  <si>
     <t>elc_won-CHE_0010,elc_spv-CHE_0010</t>
   </si>
   <si>
@@ -1187,6 +1241,30 @@
     <t>e_CH4-220,e_CH9-220,e_w455120191-220,e_w83861269-220,e_w92798668-220,e_w92873516-220</t>
   </si>
   <si>
+    <t>elc_won-CHE_0014,elc_spv-CHE_0014</t>
+  </si>
+  <si>
+    <t>e_CH1-220,e_CH2-220,e_CH5-220,e_CH7-220,e_w108257952-220,e_w1284913429-220,e_w165513396-220,e_w165513396-380,e_w190819048-220,e_w27107779-220,e_w31308888-220,e_w33271433-220,e_w356292116-220,e_w356292116-380,e_w35840165-380,e_w50319857-220,e_w50319857-380,e_w50319857-400,e_w89405664-220,e_w89977424-220,e_w98648381-220,e_w98648381-380</t>
+  </si>
+  <si>
+    <t>elc_won-CHE_0018,elc_spv-CHE_0018</t>
+  </si>
+  <si>
+    <t>e_CH3-220,e_CH6-220,e_r9310861-220,e_w11282314-220,e_w147714395-220,e_w147714395-380,e_w148015471-220,e_w22899676-220,e_w240575085-220,e_w26843160-220,e_w281809991-220,e_w50561341-220,e_w87281514-220</t>
+  </si>
+  <si>
+    <t>elc_won-CHE_0002,elc_spv-CHE_0002</t>
+  </si>
+  <si>
+    <t>e_w232662311-220</t>
+  </si>
+  <si>
+    <t>elc_won-CHE_0012,elc_spv-CHE_0012</t>
+  </si>
+  <si>
+    <t>e_CH19-220,e_CH20-220,e_CH25-220,e_CH27-220,e_CH34-220,e_CH34-380,e_CH35-220,e_CH36-220,e_CH38-220,e_CH39-220,e_CH40-220,e_w1086214433-220,e_w1092884227-220,e_w240959264-220,e_w364949845-220,e_w364949845-380</t>
+  </si>
+  <si>
     <t>elc_won-CHE_0017,elc_spv-CHE_0017</t>
   </si>
   <si>
@@ -1203,84 +1281,6 @@
   </si>
   <si>
     <t>e_w207991759-380</t>
-  </si>
-  <si>
-    <t>elc_won-CHE_0013,elc_spv-CHE_0013</t>
-  </si>
-  <si>
-    <t>e_CH15-220,e_w146225999-220,e_w159527493-220,e_w242269161-220,e_w281799252-220,e_w35002638-220,e_w35002638-380,e_w97941869-220</t>
-  </si>
-  <si>
-    <t>elc_won-CHE_0002,elc_spv-CHE_0002</t>
-  </si>
-  <si>
-    <t>e_w232662311-220</t>
-  </si>
-  <si>
-    <t>elc_won-CHE_0024,elc_spv-CHE_0024</t>
-  </si>
-  <si>
-    <t>e_CH30-380,e_CH33-380,e_CH37-380,e_r7933294-380</t>
-  </si>
-  <si>
-    <t>elc_won-CHE_0008,elc_spv-CHE_0008</t>
-  </si>
-  <si>
-    <t>e_CH43-220,e_w209324991-220,e_w26166640-220,e_w402055336-220,e_w758315582-220</t>
-  </si>
-  <si>
-    <t>elc_won-CHE_0005,elc_spv-CHE_0005</t>
-  </si>
-  <si>
-    <t>e_r5378910-220,e_w161853746-220</t>
-  </si>
-  <si>
-    <t>elc_won-CHE_0014,elc_spv-CHE_0014</t>
-  </si>
-  <si>
-    <t>e_CH1-220,e_CH2-220,e_CH5-220,e_CH7-220,e_w108257952-220,e_w1284913429-220,e_w165513396-220,e_w165513396-380,e_w190819048-220,e_w27107779-220,e_w31308888-220,e_w33271433-220,e_w356292116-220,e_w356292116-380,e_w35840165-380,e_w50319857-220,e_w50319857-380,e_w50319857-400,e_w89405664-220,e_w89977424-220,e_w98648381-220,e_w98648381-380</t>
-  </si>
-  <si>
-    <t>elc_won-CHE_0018,elc_spv-CHE_0018</t>
-  </si>
-  <si>
-    <t>e_CH3-220,e_CH6-220,e_r9310861-220,e_w11282314-220,e_w147714395-220,e_w147714395-380,e_w148015471-220,e_w22899676-220,e_w240575085-220,e_w26843160-220,e_w281809991-220,e_w50561341-220,e_w87281514-220</t>
-  </si>
-  <si>
-    <t>elc_won-CHE_0009,elc_spv-CHE_0009</t>
-  </si>
-  <si>
-    <t>e_CH14-220,e_CH14-380,e_w1105061707-220,e_w1105061707-380,e_w147557680-220,e_w165254212-220,e_w402053379-220</t>
-  </si>
-  <si>
-    <t>elc_won-CHE_0021,elc_spv-CHE_0021</t>
-  </si>
-  <si>
-    <t>e_CH17-380,e_w211907009-220</t>
-  </si>
-  <si>
-    <t>elc_won-CHE_0004,elc_spv-CHE_0004</t>
-  </si>
-  <si>
-    <t>e_w111162936-220,e_w111162936-380,e_w111162936-400,e_w122720993-220,e_w194258388-220</t>
-  </si>
-  <si>
-    <t>elc_won-CHE_0000,elc_spv-CHE_0000</t>
-  </si>
-  <si>
-    <t>e_CH51-220,e_CH51-225,e_CH51-400,e_CH52-220,e_CH57-220,e_CH57-225,e_w177392130-220,e_w177392130-400,e_w239937062-220</t>
-  </si>
-  <si>
-    <t>elc_won-CHE_0003,elc_spv-CHE_0003</t>
-  </si>
-  <si>
-    <t>e_CH48-225,e_CH49-225,e_CH53-225,e_CH60-225,e_w234983117-220,e_w234983117-380,e_w238138373-380,e_w260211728-225,e_w260211728-380,e_w55698557-220,e_w55698557-225,e_w802058337-220,e_w802058337-225,e_w936521586-380</t>
-  </si>
-  <si>
-    <t>elc_won-CHE_0012,elc_spv-CHE_0012</t>
-  </si>
-  <si>
-    <t>e_CH19-220,e_CH20-220,e_CH25-220,e_CH27-220,e_CH34-220,e_CH34-380,e_CH35-220,e_CH36-220,e_CH38-220,e_CH39-220,e_CH40-220,e_w1086214433-220,e_w1092884227-220,e_w240959264-220,e_w364949845-220,e_w364949845-380</t>
   </si>
   <si>
     <t>e_won-CHE_0000</t>
@@ -3287,7 +3287,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{98007C88-DB27-51B0-90B5-AD562F086AC8}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2469CEA3-725A-65E5-DAF2-68AB4619A63D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3342,7 +3342,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ECD7BF4B-F8C6-6D43-169E-66AC0C276451}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D74725F7-1730-FBE6-3D37-B3227E88B235}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3397,7 +3397,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{224E2690-8AE7-D624-6454-2D3C205FFBF5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D4B77ADD-A242-768D-C5C2-9EA88A31E503}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3452,7 +3452,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E6847C86-7CD4-DFEC-BB31-F52B40663412}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E63A364B-0116-5C36-D03E-A5D677318170}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3507,7 +3507,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B0EF15F5-4FAE-476F-FD8C-93E15A0B75B0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0B8D6B01-CE28-3AAD-4E07-288C03086748}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7437,7 +7437,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C35276E-82D0-42C9-8A8D-671A05E9406F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6BCDAF55-BBD1-4BCE-895D-1DCC01EC7F28}">
   <dimension ref="A1:AG28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7648,7 +7648,7 @@
         <v>1</v>
       </c>
       <c r="AG4" s="156" t="s">
-        <v>273</v>
+        <v>261</v>
       </c>
     </row>
     <row r="5" spans="1:33">
@@ -7725,7 +7725,7 @@
         <v>1</v>
       </c>
       <c r="AG5" s="157" t="s">
-        <v>235</v>
+        <v>275</v>
       </c>
     </row>
     <row r="6" spans="1:33">
@@ -7802,7 +7802,7 @@
         <v>1</v>
       </c>
       <c r="AG6" s="156" t="s">
-        <v>243</v>
+        <v>269</v>
       </c>
     </row>
     <row r="7" spans="1:33">
@@ -7879,7 +7879,7 @@
         <v>1</v>
       </c>
       <c r="AG7" s="157" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
     </row>
     <row r="8" spans="1:33">
@@ -7956,7 +7956,7 @@
         <v>1</v>
       </c>
       <c r="AG8" s="156" t="s">
-        <v>253</v>
+        <v>277</v>
       </c>
     </row>
     <row r="9" spans="1:33">
@@ -8033,7 +8033,7 @@
         <v>1</v>
       </c>
       <c r="AG9" s="157" t="s">
-        <v>231</v>
+        <v>255</v>
       </c>
     </row>
     <row r="10" spans="1:33">
@@ -8110,7 +8110,7 @@
         <v>1</v>
       </c>
       <c r="AG10" s="156" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
     </row>
     <row r="11" spans="1:33">
@@ -8187,7 +8187,7 @@
         <v>1</v>
       </c>
       <c r="AG11" s="157" t="s">
-        <v>233</v>
+        <v>253</v>
       </c>
     </row>
     <row r="12" spans="1:33">
@@ -8264,7 +8264,7 @@
         <v>1</v>
       </c>
       <c r="AG12" s="156" t="s">
-        <v>257</v>
+        <v>231</v>
       </c>
     </row>
     <row r="13" spans="1:33">
@@ -8341,7 +8341,7 @@
         <v>1</v>
       </c>
       <c r="AG13" s="157" t="s">
-        <v>245</v>
+        <v>271</v>
       </c>
     </row>
     <row r="14" spans="1:33">
@@ -8418,7 +8418,7 @@
         <v>1</v>
       </c>
       <c r="AG14" s="156" t="s">
-        <v>249</v>
+        <v>235</v>
       </c>
     </row>
     <row r="15" spans="1:33">
@@ -8495,7 +8495,7 @@
         <v>1</v>
       </c>
       <c r="AG15" s="157" t="s">
-        <v>259</v>
+        <v>243</v>
       </c>
     </row>
     <row r="16" spans="1:33">
@@ -8572,7 +8572,7 @@
         <v>1</v>
       </c>
       <c r="AG16" s="156" t="s">
-        <v>239</v>
+        <v>263</v>
       </c>
     </row>
     <row r="17" spans="2:33">
@@ -8649,7 +8649,7 @@
         <v>1</v>
       </c>
       <c r="AG17" s="157" t="s">
-        <v>251</v>
+        <v>239</v>
       </c>
     </row>
     <row r="18" spans="2:33">
@@ -8726,7 +8726,7 @@
         <v>1</v>
       </c>
       <c r="AG18" s="156" t="s">
-        <v>261</v>
+        <v>229</v>
       </c>
     </row>
     <row r="19" spans="2:33">
@@ -8803,7 +8803,7 @@
         <v>1</v>
       </c>
       <c r="AG19" s="157" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
     </row>
     <row r="20" spans="2:33">
@@ -8880,7 +8880,7 @@
         <v>1</v>
       </c>
       <c r="AG20" s="156" t="s">
-        <v>269</v>
+        <v>233</v>
       </c>
     </row>
     <row r="21" spans="2:33">
@@ -8957,7 +8957,7 @@
         <v>1</v>
       </c>
       <c r="AG21" s="157" t="s">
-        <v>241</v>
+        <v>257</v>
       </c>
     </row>
     <row r="22" spans="2:33">
@@ -9034,7 +9034,7 @@
         <v>1</v>
       </c>
       <c r="AG22" s="156" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
     </row>
     <row r="23" spans="2:33">
@@ -9111,7 +9111,7 @@
         <v>1</v>
       </c>
       <c r="AG23" s="157" t="s">
-        <v>277</v>
+        <v>247</v>
       </c>
     </row>
     <row r="24" spans="2:33">
@@ -9188,7 +9188,7 @@
         <v>1</v>
       </c>
       <c r="AG24" s="156" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
     </row>
     <row r="25" spans="2:33">
@@ -9265,7 +9265,7 @@
         <v>1</v>
       </c>
       <c r="AG25" s="157" t="s">
-        <v>267</v>
+        <v>237</v>
       </c>
     </row>
     <row r="26" spans="2:33">
@@ -9342,7 +9342,7 @@
         <v>1</v>
       </c>
       <c r="AG26" s="156" t="s">
-        <v>229</v>
+        <v>245</v>
       </c>
     </row>
     <row r="27" spans="2:33">
@@ -9419,7 +9419,7 @@
         <v>1</v>
       </c>
       <c r="AG27" s="157" t="s">
-        <v>265</v>
+        <v>249</v>
       </c>
     </row>
     <row r="28" spans="2:33">
@@ -9496,7 +9496,7 @@
         <v>1</v>
       </c>
       <c r="AG28" s="156" t="s">
-        <v>237</v>
+        <v>259</v>
       </c>
     </row>
   </sheetData>
@@ -9509,7 +9509,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4AEEA30-1B40-4B35-AD5F-D4FE27BCAA8B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E50FAF63-FE00-4641-91F7-E9A2D926F8A9}">
   <dimension ref="A1:O29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -10587,7 +10587,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1AEE6B2-AB13-4064-AF13-959AEA71A24E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4BF38DE-6B81-4C86-9A13-2D6B6837558D}">
   <dimension ref="A1:Q66"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -12453,7 +12453,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B5930E1-6D7F-4020-B464-9D0DC397DC4F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{724F10CF-3C08-4A28-8CDF-8B47E437618B}">
   <dimension ref="A1:M77"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -13360,7 +13360,7 @@
         <v>535</v>
       </c>
       <c r="C30" s="156" t="s">
-        <v>347</v>
+        <v>353</v>
       </c>
       <c r="D30" s="156" t="s">
         <v>536</v>
@@ -13395,7 +13395,7 @@
         <v>536</v>
       </c>
       <c r="D31" s="157" t="s">
-        <v>347</v>
+        <v>353</v>
       </c>
       <c r="E31" s="163">
         <v>1</v>

--- a/VerveStacks_CHE_grids/SubRES_Tmpl/SubRES_New_RE_and_Conventional.xlsx
+++ b/VerveStacks_CHE_grids/SubRES_Tmpl/SubRES_New_RE_and_Conventional.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_CHE_grids\SubRES_Tmpl\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FEEF127D-3628-4E10-9221-34571D43B5A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{EB597D70-D8C3-43BD-BB96-63B8C9CF9DDA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="8" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -974,18 +974,132 @@
     <t>pre</t>
   </si>
   <si>
+    <t>distr_solelc_won-CHE_0003</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell CHE_3</t>
+  </si>
+  <si>
+    <t>NRGI</t>
+  </si>
+  <si>
+    <t>daynite</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-CHE_0020</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell CHE_20</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-CHE_0001</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell CHE_1</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-CHE_0006</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell CHE_6</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-CHE_0013</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell CHE_13</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-CHE_0017</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell CHE_17</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-CHE_0019</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell CHE_19</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-CHE_0023</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell CHE_23</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-CHE_0000</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell CHE_0</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-CHE_0012</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell CHE_12</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-CHE_0010</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell CHE_10</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-CHE_0022</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell CHE_22</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-CHE_0002</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell CHE_2</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-CHE_0009</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell CHE_9</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-CHE_0021</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell CHE_21</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-CHE_0004</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell CHE_4</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-CHE_0011</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell CHE_11</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-CHE_0015</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell CHE_15</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-CHE_0025</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell CHE_25</t>
+  </si>
+  <si>
     <t>distr_solelc_won-CHE_0024</t>
   </si>
   <si>
     <t>connecting solar and wind to buses in grid cell CHE_24</t>
   </si>
   <si>
-    <t>NRGI</t>
-  </si>
-  <si>
-    <t>daynite</t>
-  </si>
-  <si>
     <t>distr_solelc_won-CHE_0008</t>
   </si>
   <si>
@@ -998,76 +1112,16 @@
     <t>connecting solar and wind to buses in grid cell CHE_5</t>
   </si>
   <si>
-    <t>distr_solelc_won-CHE_0003</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell CHE_3</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-CHE_0009</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell CHE_9</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-CHE_0021</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell CHE_21</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-CHE_0004</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell CHE_4</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-CHE_0020</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell CHE_20</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-CHE_0001</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell CHE_1</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-CHE_0006</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell CHE_6</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-CHE_0011</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell CHE_11</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-CHE_0015</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell CHE_15</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-CHE_0025</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell CHE_25</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-CHE_0013</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell CHE_13</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-CHE_0000</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell CHE_0</t>
+    <t>distr_solelc_won-CHE_0014</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell CHE_14</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-CHE_0018</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell CHE_18</t>
   </si>
   <si>
     <t>distr_solelc_won-CHE_0007</t>
@@ -1076,63 +1130,123 @@
     <t>connecting solar and wind to buses in grid cell CHE_7</t>
   </si>
   <si>
-    <t>distr_solelc_won-CHE_0010</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell CHE_10</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-CHE_0022</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell CHE_22</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-CHE_0014</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell CHE_14</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-CHE_0018</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell CHE_18</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-CHE_0002</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell CHE_2</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-CHE_0012</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell CHE_12</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-CHE_0017</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell CHE_17</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-CHE_0019</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell CHE_19</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-CHE_0023</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell CHE_23</t>
-  </si>
-  <si>
     <t>comm-in</t>
   </si>
   <si>
+    <t>elc_won-CHE_0003,elc_spv-CHE_0003</t>
+  </si>
+  <si>
+    <t>e_CH48-225,e_CH49-225,e_CH53-225,e_CH60-225,e_w234983117-220,e_w234983117-380,e_w238138373-380,e_w260211728-225,e_w260211728-380,e_w55698557-220,e_w55698557-225,e_w802058337-220,e_w802058337-225,e_w936521586-380</t>
+  </si>
+  <si>
+    <t>elc_won-CHE_0020,elc_spv-CHE_0020</t>
+  </si>
+  <si>
+    <t>e_CH21-220,e_CH22-220,e_CH22-380,e_CH29-220,e_CH29-380,e_CH41-380,e_w1208713169-220,e_w207993342-220,e_w207993342-380,e_w208780268-380,e_w212498548-220,e_w36348118-220,e_w365556107-220,e_w71500123-220,e_w71500123-380</t>
+  </si>
+  <si>
+    <t>elc_won-CHE_0001,elc_spv-CHE_0001</t>
+  </si>
+  <si>
+    <t>e_CH31-220,e_w132373704-220,e_w232662311-220,e_w44496892-220,e_w55695765-220</t>
+  </si>
+  <si>
+    <t>elc_won-CHE_0006,elc_spv-CHE_0006</t>
+  </si>
+  <si>
+    <t>e_w127004407-400</t>
+  </si>
+  <si>
+    <t>elc_won-CHE_0013,elc_spv-CHE_0013</t>
+  </si>
+  <si>
+    <t>e_CH15-220,e_w146225999-220,e_w159527493-220,e_w242269161-220,e_w281799252-220,e_w35002638-220,e_w35002638-380,e_w97941869-220</t>
+  </si>
+  <si>
+    <t>elc_won-CHE_0017,elc_spv-CHE_0017</t>
+  </si>
+  <si>
+    <t>e_CH12-220,e_CH12-380,e_CH13-220,e_CH16-380,e_CH18-220,e_CH18-380,e_w192677427-220,e_w192677427-380,e_w52738225-220,e_w52738225-380</t>
+  </si>
+  <si>
+    <t>elc_won-CHE_0019,elc_spv-CHE_0019</t>
+  </si>
+  <si>
+    <t>e_CH45-220,e_w281804158-220,e_w281804158-380</t>
+  </si>
+  <si>
+    <t>elc_won-CHE_0023,elc_spv-CHE_0023</t>
+  </si>
+  <si>
+    <t>e_w207991759-380</t>
+  </si>
+  <si>
+    <t>elc_won-CHE_0000,elc_spv-CHE_0000</t>
+  </si>
+  <si>
+    <t>e_CH51-220,e_CH51-225,e_CH51-400,e_CH52-220,e_CH57-220,e_CH57-225,e_w177392130-220,e_w177392130-400,e_w239937062-220</t>
+  </si>
+  <si>
+    <t>elc_won-CHE_0012,elc_spv-CHE_0012</t>
+  </si>
+  <si>
+    <t>e_CH19-220,e_CH20-220,e_CH25-220,e_CH27-220,e_CH34-220,e_CH34-380,e_CH35-220,e_CH36-220,e_CH38-220,e_CH39-220,e_CH40-220,e_w1086214433-220,e_w1092884227-220,e_w240959264-220,e_w364949845-220,e_w364949845-380</t>
+  </si>
+  <si>
+    <t>elc_won-CHE_0010,elc_spv-CHE_0010</t>
+  </si>
+  <si>
+    <t>e_CH11-220,e_w109037817-220,e_w109037817-380,e_w127004407-380,e_w127004407-400,e_w27435934-220,e_w30350721-220,e_w397960460-380,e_w397960460-400,e_w88901626-380</t>
+  </si>
+  <si>
+    <t>elc_won-CHE_0022,elc_spv-CHE_0022</t>
+  </si>
+  <si>
+    <t>e_CH4-220,e_CH9-220,e_w455120191-220,e_w83861269-220,e_w92798668-220,e_w92873516-220</t>
+  </si>
+  <si>
+    <t>elc_won-CHE_0002,elc_spv-CHE_0002</t>
+  </si>
+  <si>
+    <t>e_w232662311-220</t>
+  </si>
+  <si>
+    <t>elc_won-CHE_0009,elc_spv-CHE_0009</t>
+  </si>
+  <si>
+    <t>e_CH14-220,e_CH14-380,e_w1105061707-220,e_w1105061707-380,e_w147557680-220,e_w165254212-220,e_w402053379-220</t>
+  </si>
+  <si>
+    <t>elc_won-CHE_0021,elc_spv-CHE_0021</t>
+  </si>
+  <si>
+    <t>e_CH17-380,e_w211907009-220</t>
+  </si>
+  <si>
+    <t>elc_won-CHE_0004,elc_spv-CHE_0004</t>
+  </si>
+  <si>
+    <t>e_w111162936-220,e_w111162936-380,e_w111162936-400,e_w122720993-220,e_w194258388-220</t>
+  </si>
+  <si>
+    <t>elc_won-CHE_0011,elc_spv-CHE_0011</t>
+  </si>
+  <si>
+    <t>e_CH46-220,e_CH47-220,e_w228003081-220,e_w391576135-220,e_w391577741-220,e_w969819301-220,e_w969819301-380</t>
+  </si>
+  <si>
+    <t>elc_won-CHE_0015,elc_spv-CHE_0015</t>
+  </si>
+  <si>
+    <t>e_CH50-220,e_CH56-220,e_CH58-220,e_CH59-220,e_w1327084723-220,e_w281800404-220,e_w281803398-220,e_w281815404-220,e_w35487135-220</t>
+  </si>
+  <si>
+    <t>elc_won-CHE_0025,elc_spv-CHE_0025</t>
+  </si>
+  <si>
+    <t>e_r7933294-380</t>
+  </si>
+  <si>
     <t>elc_won-CHE_0024,elc_spv-CHE_0024</t>
   </si>
   <si>
@@ -1151,136 +1265,22 @@
     <t>e_r5378910-220,e_w161853746-220</t>
   </si>
   <si>
-    <t>elc_won-CHE_0003,elc_spv-CHE_0003</t>
-  </si>
-  <si>
-    <t>e_CH48-225,e_CH49-225,e_CH53-225,e_CH60-225,e_w234983117-220,e_w234983117-380,e_w238138373-380,e_w260211728-225,e_w260211728-380,e_w55698557-220,e_w55698557-225,e_w802058337-220,e_w802058337-225,e_w936521586-380</t>
-  </si>
-  <si>
-    <t>elc_won-CHE_0009,elc_spv-CHE_0009</t>
-  </si>
-  <si>
-    <t>e_CH14-220,e_CH14-380,e_w1105061707-220,e_w1105061707-380,e_w147557680-220,e_w165254212-220,e_w402053379-220</t>
-  </si>
-  <si>
-    <t>elc_won-CHE_0021,elc_spv-CHE_0021</t>
-  </si>
-  <si>
-    <t>e_CH17-380,e_w211907009-220</t>
-  </si>
-  <si>
-    <t>elc_won-CHE_0004,elc_spv-CHE_0004</t>
-  </si>
-  <si>
-    <t>e_w111162936-220,e_w111162936-380,e_w111162936-400,e_w122720993-220,e_w194258388-220</t>
-  </si>
-  <si>
-    <t>elc_won-CHE_0020,elc_spv-CHE_0020</t>
-  </si>
-  <si>
-    <t>e_CH21-220,e_CH22-220,e_CH22-380,e_CH29-220,e_CH29-380,e_CH41-380,e_w1208713169-220,e_w207993342-220,e_w207993342-380,e_w208780268-380,e_w212498548-220,e_w36348118-220,e_w365556107-220,e_w71500123-220,e_w71500123-380</t>
-  </si>
-  <si>
-    <t>elc_won-CHE_0001,elc_spv-CHE_0001</t>
-  </si>
-  <si>
-    <t>e_CH31-220,e_w132373704-220,e_w232662311-220,e_w44496892-220,e_w55695765-220</t>
-  </si>
-  <si>
-    <t>elc_won-CHE_0006,elc_spv-CHE_0006</t>
-  </si>
-  <si>
-    <t>e_w127004407-400</t>
-  </si>
-  <si>
-    <t>elc_won-CHE_0011,elc_spv-CHE_0011</t>
-  </si>
-  <si>
-    <t>e_CH46-220,e_CH47-220,e_w228003081-220,e_w391576135-220,e_w391577741-220,e_w969819301-220,e_w969819301-380</t>
-  </si>
-  <si>
-    <t>elc_won-CHE_0015,elc_spv-CHE_0015</t>
-  </si>
-  <si>
-    <t>e_CH50-220,e_CH56-220,e_CH58-220,e_CH59-220,e_w1327084723-220,e_w281800404-220,e_w281803398-220,e_w281815404-220,e_w35487135-220</t>
-  </si>
-  <si>
-    <t>elc_won-CHE_0025,elc_spv-CHE_0025</t>
-  </si>
-  <si>
-    <t>e_r7933294-380</t>
-  </si>
-  <si>
-    <t>elc_won-CHE_0013,elc_spv-CHE_0013</t>
-  </si>
-  <si>
-    <t>e_CH15-220,e_w146225999-220,e_w159527493-220,e_w242269161-220,e_w281799252-220,e_w35002638-220,e_w35002638-380,e_w97941869-220</t>
-  </si>
-  <si>
-    <t>elc_won-CHE_0000,elc_spv-CHE_0000</t>
-  </si>
-  <si>
-    <t>e_CH51-220,e_CH51-225,e_CH51-400,e_CH52-220,e_CH57-220,e_CH57-225,e_w177392130-220,e_w177392130-400,e_w239937062-220</t>
+    <t>elc_won-CHE_0014,elc_spv-CHE_0014</t>
+  </si>
+  <si>
+    <t>e_CH1-220,e_CH2-220,e_CH5-220,e_CH7-220,e_w108257952-220,e_w1284913429-220,e_w165513396-220,e_w165513396-380,e_w190819048-220,e_w27107779-220,e_w31308888-220,e_w33271433-220,e_w356292116-220,e_w356292116-380,e_w35840165-380,e_w50319857-220,e_w50319857-380,e_w50319857-400,e_w89405664-220,e_w89977424-220,e_w98648381-220,e_w98648381-380</t>
+  </si>
+  <si>
+    <t>elc_won-CHE_0018,elc_spv-CHE_0018</t>
+  </si>
+  <si>
+    <t>e_CH3-220,e_CH6-220,e_r9310861-220,e_w11282314-220,e_w147714395-220,e_w147714395-380,e_w148015471-220,e_w22899676-220,e_w240575085-220,e_w26843160-220,e_w281809991-220,e_w50561341-220,e_w87281514-220</t>
   </si>
   <si>
     <t>elc_won-CHE_0007,elc_spv-CHE_0007</t>
   </si>
   <si>
     <t>e_CH44-220,e_w212722603-220,e_w212722603-380,e_w236819191-220,e_w758943072-220</t>
-  </si>
-  <si>
-    <t>elc_won-CHE_0010,elc_spv-CHE_0010</t>
-  </si>
-  <si>
-    <t>e_CH11-220,e_w109037817-220,e_w109037817-380,e_w127004407-380,e_w127004407-400,e_w27435934-220,e_w30350721-220,e_w397960460-380,e_w397960460-400,e_w88901626-380</t>
-  </si>
-  <si>
-    <t>elc_won-CHE_0022,elc_spv-CHE_0022</t>
-  </si>
-  <si>
-    <t>e_CH4-220,e_CH9-220,e_w455120191-220,e_w83861269-220,e_w92798668-220,e_w92873516-220</t>
-  </si>
-  <si>
-    <t>elc_won-CHE_0014,elc_spv-CHE_0014</t>
-  </si>
-  <si>
-    <t>e_CH1-220,e_CH2-220,e_CH5-220,e_CH7-220,e_w108257952-220,e_w1284913429-220,e_w165513396-220,e_w165513396-380,e_w190819048-220,e_w27107779-220,e_w31308888-220,e_w33271433-220,e_w356292116-220,e_w356292116-380,e_w35840165-380,e_w50319857-220,e_w50319857-380,e_w50319857-400,e_w89405664-220,e_w89977424-220,e_w98648381-220,e_w98648381-380</t>
-  </si>
-  <si>
-    <t>elc_won-CHE_0018,elc_spv-CHE_0018</t>
-  </si>
-  <si>
-    <t>e_CH3-220,e_CH6-220,e_r9310861-220,e_w11282314-220,e_w147714395-220,e_w147714395-380,e_w148015471-220,e_w22899676-220,e_w240575085-220,e_w26843160-220,e_w281809991-220,e_w50561341-220,e_w87281514-220</t>
-  </si>
-  <si>
-    <t>elc_won-CHE_0002,elc_spv-CHE_0002</t>
-  </si>
-  <si>
-    <t>e_w232662311-220</t>
-  </si>
-  <si>
-    <t>elc_won-CHE_0012,elc_spv-CHE_0012</t>
-  </si>
-  <si>
-    <t>e_CH19-220,e_CH20-220,e_CH25-220,e_CH27-220,e_CH34-220,e_CH34-380,e_CH35-220,e_CH36-220,e_CH38-220,e_CH39-220,e_CH40-220,e_w1086214433-220,e_w1092884227-220,e_w240959264-220,e_w364949845-220,e_w364949845-380</t>
-  </si>
-  <si>
-    <t>elc_won-CHE_0017,elc_spv-CHE_0017</t>
-  </si>
-  <si>
-    <t>e_CH12-220,e_CH12-380,e_CH13-220,e_CH16-380,e_CH18-220,e_CH18-380,e_w192677427-220,e_w192677427-380,e_w52738225-220,e_w52738225-380</t>
-  </si>
-  <si>
-    <t>elc_won-CHE_0019,elc_spv-CHE_0019</t>
-  </si>
-  <si>
-    <t>e_CH45-220,e_w281804158-220,e_w281804158-380</t>
-  </si>
-  <si>
-    <t>elc_won-CHE_0023,elc_spv-CHE_0023</t>
-  </si>
-  <si>
-    <t>e_w207991759-380</t>
   </si>
   <si>
     <t>e_won-CHE_0000</t>
@@ -3287,7 +3287,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2469CEA3-725A-65E5-DAF2-68AB4619A63D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{43C9377B-54FE-DE66-FBB6-7B947CD666CF}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3342,7 +3342,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D74725F7-1730-FBE6-3D37-B3227E88B235}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{494C4BDF-723B-B66B-8C9E-0F2DEBACE513}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3397,7 +3397,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D4B77ADD-A242-768D-C5C2-9EA88A31E503}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{599CC6DC-B995-A63D-956B-6DAB7C2209AD}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3452,7 +3452,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E63A364B-0116-5C36-D03E-A5D677318170}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7B3E4CCF-0E83-6EB7-E307-D27FF0A613F6}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3507,7 +3507,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0B8D6B01-CE28-3AAD-4E07-288C03086748}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE3C3B61-8E55-B392-0629-8B2C19907428}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7437,7 +7437,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6BCDAF55-BBD1-4BCE-895D-1DCC01EC7F28}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB206668-C339-4C69-83A7-4FE4B413F236}">
   <dimension ref="A1:AG28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7648,7 +7648,7 @@
         <v>1</v>
       </c>
       <c r="AG4" s="156" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
     </row>
     <row r="5" spans="1:33">
@@ -7725,7 +7725,7 @@
         <v>1</v>
       </c>
       <c r="AG5" s="157" t="s">
-        <v>275</v>
+        <v>253</v>
       </c>
     </row>
     <row r="6" spans="1:33">
@@ -7802,7 +7802,7 @@
         <v>1</v>
       </c>
       <c r="AG6" s="156" t="s">
-        <v>269</v>
+        <v>231</v>
       </c>
     </row>
     <row r="7" spans="1:33">
@@ -7879,7 +7879,7 @@
         <v>1</v>
       </c>
       <c r="AG7" s="157" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
     </row>
     <row r="8" spans="1:33">
@@ -7956,7 +7956,7 @@
         <v>1</v>
       </c>
       <c r="AG8" s="156" t="s">
-        <v>277</v>
+        <v>239</v>
       </c>
     </row>
     <row r="9" spans="1:33">
@@ -8033,7 +8033,7 @@
         <v>1</v>
       </c>
       <c r="AG9" s="157" t="s">
-        <v>255</v>
+        <v>245</v>
       </c>
     </row>
     <row r="10" spans="1:33">
@@ -8110,7 +8110,7 @@
         <v>1</v>
       </c>
       <c r="AG10" s="156" t="s">
-        <v>267</v>
+        <v>249</v>
       </c>
     </row>
     <row r="11" spans="1:33">
@@ -8187,7 +8187,7 @@
         <v>1</v>
       </c>
       <c r="AG11" s="157" t="s">
-        <v>253</v>
+        <v>259</v>
       </c>
     </row>
     <row r="12" spans="1:33">
@@ -8264,7 +8264,7 @@
         <v>1</v>
       </c>
       <c r="AG12" s="156" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
     </row>
     <row r="13" spans="1:33">
@@ -8341,7 +8341,7 @@
         <v>1</v>
       </c>
       <c r="AG13" s="157" t="s">
-        <v>271</v>
+        <v>237</v>
       </c>
     </row>
     <row r="14" spans="1:33">
@@ -8418,7 +8418,7 @@
         <v>1</v>
       </c>
       <c r="AG14" s="156" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="15" spans="1:33">
@@ -8495,7 +8495,7 @@
         <v>1</v>
       </c>
       <c r="AG15" s="157" t="s">
-        <v>243</v>
+        <v>257</v>
       </c>
     </row>
     <row r="16" spans="1:33">
@@ -8572,7 +8572,7 @@
         <v>1</v>
       </c>
       <c r="AG16" s="156" t="s">
-        <v>263</v>
+        <v>251</v>
       </c>
     </row>
     <row r="17" spans="2:33">
@@ -8649,7 +8649,7 @@
         <v>1</v>
       </c>
       <c r="AG17" s="157" t="s">
-        <v>239</v>
+        <v>277</v>
       </c>
     </row>
     <row r="18" spans="2:33">
@@ -8726,7 +8726,7 @@
         <v>1</v>
       </c>
       <c r="AG18" s="156" t="s">
-        <v>229</v>
+        <v>255</v>
       </c>
     </row>
     <row r="19" spans="2:33">
@@ -8803,7 +8803,7 @@
         <v>1</v>
       </c>
       <c r="AG19" s="157" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
     </row>
     <row r="20" spans="2:33">
@@ -8880,7 +8880,7 @@
         <v>1</v>
       </c>
       <c r="AG20" s="156" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
     </row>
     <row r="21" spans="2:33">
@@ -8957,7 +8957,7 @@
         <v>1</v>
       </c>
       <c r="AG21" s="157" t="s">
-        <v>257</v>
+        <v>243</v>
       </c>
     </row>
     <row r="22" spans="2:33">
@@ -9034,7 +9034,7 @@
         <v>1</v>
       </c>
       <c r="AG22" s="156" t="s">
-        <v>241</v>
+        <v>263</v>
       </c>
     </row>
     <row r="23" spans="2:33">
@@ -9111,7 +9111,7 @@
         <v>1</v>
       </c>
       <c r="AG23" s="157" t="s">
-        <v>247</v>
+        <v>261</v>
       </c>
     </row>
     <row r="24" spans="2:33">
@@ -9188,7 +9188,7 @@
         <v>1</v>
       </c>
       <c r="AG24" s="156" t="s">
-        <v>251</v>
+        <v>275</v>
       </c>
     </row>
     <row r="25" spans="2:33">
@@ -9265,7 +9265,7 @@
         <v>1</v>
       </c>
       <c r="AG25" s="157" t="s">
-        <v>237</v>
+        <v>269</v>
       </c>
     </row>
     <row r="26" spans="2:33">
@@ -9342,7 +9342,7 @@
         <v>1</v>
       </c>
       <c r="AG26" s="156" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
     </row>
     <row r="27" spans="2:33">
@@ -9419,7 +9419,7 @@
         <v>1</v>
       </c>
       <c r="AG27" s="157" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
     </row>
     <row r="28" spans="2:33">
@@ -9496,7 +9496,7 @@
         <v>1</v>
       </c>
       <c r="AG28" s="156" t="s">
-        <v>259</v>
+        <v>273</v>
       </c>
     </row>
   </sheetData>
@@ -9509,7 +9509,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E50FAF63-FE00-4641-91F7-E9A2D926F8A9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{606A2BFC-97AB-46A9-A30F-2EB8480CF1D3}">
   <dimension ref="A1:O29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -10587,7 +10587,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4BF38DE-6B81-4C86-9A13-2D6B6837558D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FAD85325-78BF-4F1B-AF38-2C7A86A38FB5}">
   <dimension ref="A1:Q66"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -12453,7 +12453,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{724F10CF-3C08-4A28-8CDF-8B47E437618B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CFC23F73-68A2-4020-824F-DDE4BABB31DC}">
   <dimension ref="A1:M77"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -13360,7 +13360,7 @@
         <v>535</v>
       </c>
       <c r="C30" s="156" t="s">
-        <v>353</v>
+        <v>341</v>
       </c>
       <c r="D30" s="156" t="s">
         <v>536</v>
@@ -13395,7 +13395,7 @@
         <v>536</v>
       </c>
       <c r="D31" s="157" t="s">
-        <v>353</v>
+        <v>341</v>
       </c>
       <c r="E31" s="163">
         <v>1</v>

--- a/VerveStacks_CHE_grids/SubRES_Tmpl/SubRES_New_RE_and_Conventional.xlsx
+++ b/VerveStacks_CHE_grids/SubRES_Tmpl/SubRES_New_RE_and_Conventional.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_CHE_grids\SubRES_Tmpl\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EB597D70-D8C3-43BD-BB96-63B8C9CF9DDA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B86E8246-3F69-44FD-82E5-45AE6DB13B7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="8" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -974,16 +974,118 @@
     <t>pre</t>
   </si>
   <si>
+    <t>distr_solelc_won-CHE_0000</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell CHE_0</t>
+  </si>
+  <si>
+    <t>NRGI</t>
+  </si>
+  <si>
+    <t>daynite</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-CHE_0017</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell CHE_17</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-CHE_0019</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell CHE_19</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-CHE_0023</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell CHE_23</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-CHE_0009</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell CHE_9</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-CHE_0021</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell CHE_21</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-CHE_0004</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell CHE_4</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-CHE_0024</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell CHE_24</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-CHE_0008</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell CHE_8</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-CHE_0005</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell CHE_5</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-CHE_0007</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell CHE_7</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-CHE_0010</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell CHE_10</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-CHE_0022</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell CHE_22</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-CHE_0012</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell CHE_12</t>
+  </si>
+  <si>
     <t>distr_solelc_won-CHE_0003</t>
   </si>
   <si>
     <t>connecting solar and wind to buses in grid cell CHE_3</t>
   </si>
   <si>
-    <t>NRGI</t>
-  </si>
-  <si>
-    <t>daynite</t>
+    <t>distr_solelc_won-CHE_0002</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell CHE_2</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-CHE_0014</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell CHE_14</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-CHE_0018</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell CHE_18</t>
   </si>
   <si>
     <t>distr_solelc_won-CHE_0020</t>
@@ -1004,141 +1106,141 @@
     <t>connecting solar and wind to buses in grid cell CHE_6</t>
   </si>
   <si>
+    <t>distr_solelc_won-CHE_0011</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell CHE_11</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-CHE_0015</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell CHE_15</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-CHE_0025</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell CHE_25</t>
+  </si>
+  <si>
     <t>distr_solelc_won-CHE_0013</t>
   </si>
   <si>
     <t>connecting solar and wind to buses in grid cell CHE_13</t>
   </si>
   <si>
-    <t>distr_solelc_won-CHE_0017</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell CHE_17</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-CHE_0019</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell CHE_19</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-CHE_0023</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell CHE_23</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-CHE_0000</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell CHE_0</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-CHE_0012</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell CHE_12</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-CHE_0010</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell CHE_10</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-CHE_0022</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell CHE_22</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-CHE_0002</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell CHE_2</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-CHE_0009</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell CHE_9</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-CHE_0021</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell CHE_21</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-CHE_0004</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell CHE_4</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-CHE_0011</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell CHE_11</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-CHE_0015</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell CHE_15</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-CHE_0025</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell CHE_25</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-CHE_0024</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell CHE_24</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-CHE_0008</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell CHE_8</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-CHE_0005</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell CHE_5</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-CHE_0014</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell CHE_14</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-CHE_0018</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell CHE_18</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-CHE_0007</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell CHE_7</t>
-  </si>
-  <si>
     <t>comm-in</t>
   </si>
   <si>
+    <t>elc_won-CHE_0000,elc_spv-CHE_0000</t>
+  </si>
+  <si>
+    <t>e_CH51-220,e_CH51-225,e_CH51-400,e_CH52-220,e_CH57-220,e_CH57-225,e_w177392130-220,e_w177392130-400,e_w239937062-220</t>
+  </si>
+  <si>
+    <t>elc_won-CHE_0017,elc_spv-CHE_0017</t>
+  </si>
+  <si>
+    <t>e_CH12-220,e_CH12-380,e_CH13-220,e_CH16-380,e_CH18-220,e_CH18-380,e_w192677427-220,e_w192677427-380,e_w52738225-220,e_w52738225-380</t>
+  </si>
+  <si>
+    <t>elc_won-CHE_0019,elc_spv-CHE_0019</t>
+  </si>
+  <si>
+    <t>e_CH45-220,e_w281804158-220,e_w281804158-380</t>
+  </si>
+  <si>
+    <t>elc_won-CHE_0023,elc_spv-CHE_0023</t>
+  </si>
+  <si>
+    <t>e_w207991759-380</t>
+  </si>
+  <si>
+    <t>elc_won-CHE_0009,elc_spv-CHE_0009</t>
+  </si>
+  <si>
+    <t>e_CH14-220,e_CH14-380,e_w1105061707-220,e_w1105061707-380,e_w147557680-220,e_w165254212-220,e_w402053379-220</t>
+  </si>
+  <si>
+    <t>elc_won-CHE_0021,elc_spv-CHE_0021</t>
+  </si>
+  <si>
+    <t>e_CH17-380,e_w211907009-220</t>
+  </si>
+  <si>
+    <t>elc_won-CHE_0004,elc_spv-CHE_0004</t>
+  </si>
+  <si>
+    <t>e_w111162936-220,e_w111162936-380,e_w111162936-400,e_w122720993-220,e_w194258388-220</t>
+  </si>
+  <si>
+    <t>elc_won-CHE_0024,elc_spv-CHE_0024</t>
+  </si>
+  <si>
+    <t>e_CH30-380,e_CH33-380,e_CH37-380,e_r7933294-380</t>
+  </si>
+  <si>
+    <t>elc_won-CHE_0008,elc_spv-CHE_0008</t>
+  </si>
+  <si>
+    <t>e_CH43-220,e_w209324991-220,e_w26166640-220,e_w402055336-220,e_w758315582-220</t>
+  </si>
+  <si>
+    <t>elc_won-CHE_0005,elc_spv-CHE_0005</t>
+  </si>
+  <si>
+    <t>e_r5378910-220,e_w161853746-220</t>
+  </si>
+  <si>
+    <t>elc_won-CHE_0007,elc_spv-CHE_0007</t>
+  </si>
+  <si>
+    <t>e_CH44-220,e_w212722603-220,e_w212722603-380,e_w236819191-220,e_w758943072-220</t>
+  </si>
+  <si>
+    <t>elc_won-CHE_0010,elc_spv-CHE_0010</t>
+  </si>
+  <si>
+    <t>e_CH11-220,e_w109037817-220,e_w109037817-380,e_w127004407-380,e_w127004407-400,e_w27435934-220,e_w30350721-220,e_w397960460-380,e_w397960460-400,e_w88901626-380</t>
+  </si>
+  <si>
+    <t>elc_won-CHE_0022,elc_spv-CHE_0022</t>
+  </si>
+  <si>
+    <t>e_CH4-220,e_CH9-220,e_w455120191-220,e_w83861269-220,e_w92798668-220,e_w92873516-220</t>
+  </si>
+  <si>
+    <t>elc_won-CHE_0012,elc_spv-CHE_0012</t>
+  </si>
+  <si>
+    <t>e_CH19-220,e_CH20-220,e_CH25-220,e_CH27-220,e_CH34-220,e_CH34-380,e_CH35-220,e_CH36-220,e_CH38-220,e_CH39-220,e_CH40-220,e_w1086214433-220,e_w1092884227-220,e_w240959264-220,e_w364949845-220,e_w364949845-380</t>
+  </si>
+  <si>
     <t>elc_won-CHE_0003,elc_spv-CHE_0003</t>
   </si>
   <si>
     <t>e_CH48-225,e_CH49-225,e_CH53-225,e_CH60-225,e_w234983117-220,e_w234983117-380,e_w238138373-380,e_w260211728-225,e_w260211728-380,e_w55698557-220,e_w55698557-225,e_w802058337-220,e_w802058337-225,e_w936521586-380</t>
   </si>
   <si>
+    <t>elc_won-CHE_0002,elc_spv-CHE_0002</t>
+  </si>
+  <si>
+    <t>e_w232662311-220</t>
+  </si>
+  <si>
+    <t>elc_won-CHE_0014,elc_spv-CHE_0014</t>
+  </si>
+  <si>
+    <t>e_CH1-220,e_CH2-220,e_CH5-220,e_CH7-220,e_w108257952-220,e_w1284913429-220,e_w165513396-220,e_w165513396-380,e_w190819048-220,e_w27107779-220,e_w31308888-220,e_w33271433-220,e_w356292116-220,e_w356292116-380,e_w35840165-380,e_w50319857-220,e_w50319857-380,e_w50319857-400,e_w89405664-220,e_w89977424-220,e_w98648381-220,e_w98648381-380</t>
+  </si>
+  <si>
+    <t>elc_won-CHE_0018,elc_spv-CHE_0018</t>
+  </si>
+  <si>
+    <t>e_CH3-220,e_CH6-220,e_r9310861-220,e_w11282314-220,e_w147714395-220,e_w147714395-380,e_w148015471-220,e_w22899676-220,e_w240575085-220,e_w26843160-220,e_w281809991-220,e_w50561341-220,e_w87281514-220</t>
+  </si>
+  <si>
     <t>elc_won-CHE_0020,elc_spv-CHE_0020</t>
   </si>
   <si>
@@ -1157,130 +1259,28 @@
     <t>e_w127004407-400</t>
   </si>
   <si>
+    <t>elc_won-CHE_0011,elc_spv-CHE_0011</t>
+  </si>
+  <si>
+    <t>e_CH46-220,e_CH47-220,e_w228003081-220,e_w391576135-220,e_w391577741-220,e_w969819301-220,e_w969819301-380</t>
+  </si>
+  <si>
+    <t>elc_won-CHE_0015,elc_spv-CHE_0015</t>
+  </si>
+  <si>
+    <t>e_CH50-220,e_CH56-220,e_CH58-220,e_CH59-220,e_w1327084723-220,e_w281800404-220,e_w281803398-220,e_w281815404-220,e_w35487135-220</t>
+  </si>
+  <si>
+    <t>elc_won-CHE_0025,elc_spv-CHE_0025</t>
+  </si>
+  <si>
+    <t>e_r7933294-380</t>
+  </si>
+  <si>
     <t>elc_won-CHE_0013,elc_spv-CHE_0013</t>
   </si>
   <si>
     <t>e_CH15-220,e_w146225999-220,e_w159527493-220,e_w242269161-220,e_w281799252-220,e_w35002638-220,e_w35002638-380,e_w97941869-220</t>
-  </si>
-  <si>
-    <t>elc_won-CHE_0017,elc_spv-CHE_0017</t>
-  </si>
-  <si>
-    <t>e_CH12-220,e_CH12-380,e_CH13-220,e_CH16-380,e_CH18-220,e_CH18-380,e_w192677427-220,e_w192677427-380,e_w52738225-220,e_w52738225-380</t>
-  </si>
-  <si>
-    <t>elc_won-CHE_0019,elc_spv-CHE_0019</t>
-  </si>
-  <si>
-    <t>e_CH45-220,e_w281804158-220,e_w281804158-380</t>
-  </si>
-  <si>
-    <t>elc_won-CHE_0023,elc_spv-CHE_0023</t>
-  </si>
-  <si>
-    <t>e_w207991759-380</t>
-  </si>
-  <si>
-    <t>elc_won-CHE_0000,elc_spv-CHE_0000</t>
-  </si>
-  <si>
-    <t>e_CH51-220,e_CH51-225,e_CH51-400,e_CH52-220,e_CH57-220,e_CH57-225,e_w177392130-220,e_w177392130-400,e_w239937062-220</t>
-  </si>
-  <si>
-    <t>elc_won-CHE_0012,elc_spv-CHE_0012</t>
-  </si>
-  <si>
-    <t>e_CH19-220,e_CH20-220,e_CH25-220,e_CH27-220,e_CH34-220,e_CH34-380,e_CH35-220,e_CH36-220,e_CH38-220,e_CH39-220,e_CH40-220,e_w1086214433-220,e_w1092884227-220,e_w240959264-220,e_w364949845-220,e_w364949845-380</t>
-  </si>
-  <si>
-    <t>elc_won-CHE_0010,elc_spv-CHE_0010</t>
-  </si>
-  <si>
-    <t>e_CH11-220,e_w109037817-220,e_w109037817-380,e_w127004407-380,e_w127004407-400,e_w27435934-220,e_w30350721-220,e_w397960460-380,e_w397960460-400,e_w88901626-380</t>
-  </si>
-  <si>
-    <t>elc_won-CHE_0022,elc_spv-CHE_0022</t>
-  </si>
-  <si>
-    <t>e_CH4-220,e_CH9-220,e_w455120191-220,e_w83861269-220,e_w92798668-220,e_w92873516-220</t>
-  </si>
-  <si>
-    <t>elc_won-CHE_0002,elc_spv-CHE_0002</t>
-  </si>
-  <si>
-    <t>e_w232662311-220</t>
-  </si>
-  <si>
-    <t>elc_won-CHE_0009,elc_spv-CHE_0009</t>
-  </si>
-  <si>
-    <t>e_CH14-220,e_CH14-380,e_w1105061707-220,e_w1105061707-380,e_w147557680-220,e_w165254212-220,e_w402053379-220</t>
-  </si>
-  <si>
-    <t>elc_won-CHE_0021,elc_spv-CHE_0021</t>
-  </si>
-  <si>
-    <t>e_CH17-380,e_w211907009-220</t>
-  </si>
-  <si>
-    <t>elc_won-CHE_0004,elc_spv-CHE_0004</t>
-  </si>
-  <si>
-    <t>e_w111162936-220,e_w111162936-380,e_w111162936-400,e_w122720993-220,e_w194258388-220</t>
-  </si>
-  <si>
-    <t>elc_won-CHE_0011,elc_spv-CHE_0011</t>
-  </si>
-  <si>
-    <t>e_CH46-220,e_CH47-220,e_w228003081-220,e_w391576135-220,e_w391577741-220,e_w969819301-220,e_w969819301-380</t>
-  </si>
-  <si>
-    <t>elc_won-CHE_0015,elc_spv-CHE_0015</t>
-  </si>
-  <si>
-    <t>e_CH50-220,e_CH56-220,e_CH58-220,e_CH59-220,e_w1327084723-220,e_w281800404-220,e_w281803398-220,e_w281815404-220,e_w35487135-220</t>
-  </si>
-  <si>
-    <t>elc_won-CHE_0025,elc_spv-CHE_0025</t>
-  </si>
-  <si>
-    <t>e_r7933294-380</t>
-  </si>
-  <si>
-    <t>elc_won-CHE_0024,elc_spv-CHE_0024</t>
-  </si>
-  <si>
-    <t>e_CH30-380,e_CH33-380,e_CH37-380,e_r7933294-380</t>
-  </si>
-  <si>
-    <t>elc_won-CHE_0008,elc_spv-CHE_0008</t>
-  </si>
-  <si>
-    <t>e_CH43-220,e_w209324991-220,e_w26166640-220,e_w402055336-220,e_w758315582-220</t>
-  </si>
-  <si>
-    <t>elc_won-CHE_0005,elc_spv-CHE_0005</t>
-  </si>
-  <si>
-    <t>e_r5378910-220,e_w161853746-220</t>
-  </si>
-  <si>
-    <t>elc_won-CHE_0014,elc_spv-CHE_0014</t>
-  </si>
-  <si>
-    <t>e_CH1-220,e_CH2-220,e_CH5-220,e_CH7-220,e_w108257952-220,e_w1284913429-220,e_w165513396-220,e_w165513396-380,e_w190819048-220,e_w27107779-220,e_w31308888-220,e_w33271433-220,e_w356292116-220,e_w356292116-380,e_w35840165-380,e_w50319857-220,e_w50319857-380,e_w50319857-400,e_w89405664-220,e_w89977424-220,e_w98648381-220,e_w98648381-380</t>
-  </si>
-  <si>
-    <t>elc_won-CHE_0018,elc_spv-CHE_0018</t>
-  </si>
-  <si>
-    <t>e_CH3-220,e_CH6-220,e_r9310861-220,e_w11282314-220,e_w147714395-220,e_w147714395-380,e_w148015471-220,e_w22899676-220,e_w240575085-220,e_w26843160-220,e_w281809991-220,e_w50561341-220,e_w87281514-220</t>
-  </si>
-  <si>
-    <t>elc_won-CHE_0007,elc_spv-CHE_0007</t>
-  </si>
-  <si>
-    <t>e_CH44-220,e_w212722603-220,e_w212722603-380,e_w236819191-220,e_w758943072-220</t>
   </si>
   <si>
     <t>e_won-CHE_0000</t>
@@ -3287,7 +3287,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{43C9377B-54FE-DE66-FBB6-7B947CD666CF}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C31D5D29-49A6-DF2A-0111-7065D71F65F7}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3342,7 +3342,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{494C4BDF-723B-B66B-8C9E-0F2DEBACE513}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{36E993EE-F2DD-7E69-E84B-0C3313B6BE80}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3397,7 +3397,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{599CC6DC-B995-A63D-956B-6DAB7C2209AD}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BA87A75A-8E29-082D-CB29-C56E7ABC2511}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3452,7 +3452,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7B3E4CCF-0E83-6EB7-E307-D27FF0A613F6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{01AC3DB8-8A2E-7E48-C955-321F8DF69558}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3507,7 +3507,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE3C3B61-8E55-B392-0629-8B2C19907428}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3A8F39A0-618F-779D-8DA9-2E56B95E2858}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7437,7 +7437,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB206668-C339-4C69-83A7-4FE4B413F236}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2CB16E4-7892-4AE3-A212-1EFC77372AD6}">
   <dimension ref="A1:AG28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7648,7 +7648,7 @@
         <v>1</v>
       </c>
       <c r="AG4" s="156" t="s">
-        <v>265</v>
+        <v>229</v>
       </c>
     </row>
     <row r="5" spans="1:33">
@@ -7725,7 +7725,7 @@
         <v>1</v>
       </c>
       <c r="AG5" s="157" t="s">
-        <v>253</v>
+        <v>245</v>
       </c>
     </row>
     <row r="6" spans="1:33">
@@ -7802,7 +7802,7 @@
         <v>1</v>
       </c>
       <c r="AG6" s="156" t="s">
-        <v>231</v>
+        <v>249</v>
       </c>
     </row>
     <row r="7" spans="1:33">
@@ -7879,7 +7879,7 @@
         <v>1</v>
       </c>
       <c r="AG7" s="157" t="s">
-        <v>271</v>
+        <v>259</v>
       </c>
     </row>
     <row r="8" spans="1:33">
@@ -7956,7 +7956,7 @@
         <v>1</v>
       </c>
       <c r="AG8" s="156" t="s">
-        <v>239</v>
+        <v>277</v>
       </c>
     </row>
     <row r="9" spans="1:33">
@@ -8033,7 +8033,7 @@
         <v>1</v>
       </c>
       <c r="AG9" s="157" t="s">
-        <v>245</v>
+        <v>255</v>
       </c>
     </row>
     <row r="10" spans="1:33">
@@ -8110,7 +8110,7 @@
         <v>1</v>
       </c>
       <c r="AG10" s="156" t="s">
-        <v>249</v>
+        <v>267</v>
       </c>
     </row>
     <row r="11" spans="1:33">
@@ -8187,7 +8187,7 @@
         <v>1</v>
       </c>
       <c r="AG11" s="157" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
     </row>
     <row r="12" spans="1:33">
@@ -8264,7 +8264,7 @@
         <v>1</v>
       </c>
       <c r="AG12" s="156" t="s">
-        <v>229</v>
+        <v>275</v>
       </c>
     </row>
     <row r="13" spans="1:33">
@@ -8341,7 +8341,7 @@
         <v>1</v>
       </c>
       <c r="AG13" s="157" t="s">
-        <v>237</v>
+        <v>269</v>
       </c>
     </row>
     <row r="14" spans="1:33">
@@ -8418,7 +8418,7 @@
         <v>1</v>
       </c>
       <c r="AG14" s="156" t="s">
-        <v>233</v>
+        <v>273</v>
       </c>
     </row>
     <row r="15" spans="1:33">
@@ -8495,7 +8495,7 @@
         <v>1</v>
       </c>
       <c r="AG15" s="157" t="s">
-        <v>257</v>
+        <v>233</v>
       </c>
     </row>
     <row r="16" spans="1:33">
@@ -8572,7 +8572,7 @@
         <v>1</v>
       </c>
       <c r="AG16" s="156" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
     </row>
     <row r="17" spans="2:33">
@@ -8649,7 +8649,7 @@
         <v>1</v>
       </c>
       <c r="AG17" s="157" t="s">
-        <v>277</v>
+        <v>237</v>
       </c>
     </row>
     <row r="18" spans="2:33">
@@ -8726,7 +8726,7 @@
         <v>1</v>
       </c>
       <c r="AG18" s="156" t="s">
-        <v>255</v>
+        <v>265</v>
       </c>
     </row>
     <row r="19" spans="2:33">
@@ -8803,7 +8803,7 @@
         <v>1</v>
       </c>
       <c r="AG19" s="157" t="s">
-        <v>267</v>
+        <v>251</v>
       </c>
     </row>
     <row r="20" spans="2:33">
@@ -8880,7 +8880,7 @@
         <v>1</v>
       </c>
       <c r="AG20" s="156" t="s">
-        <v>235</v>
+        <v>241</v>
       </c>
     </row>
     <row r="21" spans="2:33">
@@ -8957,7 +8957,7 @@
         <v>1</v>
       </c>
       <c r="AG21" s="157" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
     </row>
     <row r="22" spans="2:33">
@@ -9034,7 +9034,7 @@
         <v>1</v>
       </c>
       <c r="AG22" s="156" t="s">
-        <v>263</v>
+        <v>253</v>
       </c>
     </row>
     <row r="23" spans="2:33">
@@ -9111,7 +9111,7 @@
         <v>1</v>
       </c>
       <c r="AG23" s="157" t="s">
-        <v>261</v>
+        <v>231</v>
       </c>
     </row>
     <row r="24" spans="2:33">
@@ -9188,7 +9188,7 @@
         <v>1</v>
       </c>
       <c r="AG24" s="156" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
     </row>
     <row r="25" spans="2:33">
@@ -9265,7 +9265,7 @@
         <v>1</v>
       </c>
       <c r="AG25" s="157" t="s">
-        <v>269</v>
+        <v>235</v>
       </c>
     </row>
     <row r="26" spans="2:33">
@@ -9342,7 +9342,7 @@
         <v>1</v>
       </c>
       <c r="AG26" s="156" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
     </row>
     <row r="27" spans="2:33">
@@ -9419,7 +9419,7 @@
         <v>1</v>
       </c>
       <c r="AG27" s="157" t="s">
-        <v>247</v>
+        <v>263</v>
       </c>
     </row>
     <row r="28" spans="2:33">
@@ -9496,7 +9496,7 @@
         <v>1</v>
       </c>
       <c r="AG28" s="156" t="s">
-        <v>273</v>
+        <v>239</v>
       </c>
     </row>
   </sheetData>
@@ -9509,7 +9509,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{606A2BFC-97AB-46A9-A30F-2EB8480CF1D3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84711A4C-1A0F-4CEB-AD26-D59F8204A12B}">
   <dimension ref="A1:O29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -10587,7 +10587,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FAD85325-78BF-4F1B-AF38-2C7A86A38FB5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C19F790B-F2FA-4660-BC5A-22C68AD1D5BF}">
   <dimension ref="A1:Q66"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -12453,7 +12453,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CFC23F73-68A2-4020-824F-DDE4BABB31DC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{534635B4-FAE7-4538-B775-BE71F930B563}">
   <dimension ref="A1:M77"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -13360,7 +13360,7 @@
         <v>535</v>
       </c>
       <c r="C30" s="156" t="s">
-        <v>341</v>
+        <v>375</v>
       </c>
       <c r="D30" s="156" t="s">
         <v>536</v>
@@ -13395,7 +13395,7 @@
         <v>536</v>
       </c>
       <c r="D31" s="157" t="s">
-        <v>341</v>
+        <v>375</v>
       </c>
       <c r="E31" s="163">
         <v>1</v>

--- a/VerveStacks_CHE_grids/SubRES_Tmpl/SubRES_New_RE_and_Conventional.xlsx
+++ b/VerveStacks_CHE_grids/SubRES_Tmpl/SubRES_New_RE_and_Conventional.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_CHE_grids\SubRES_Tmpl\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B86E8246-3F69-44FD-82E5-45AE6DB13B7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{08E97576-F89E-4B82-A947-5A76712FE999}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="8" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -974,16 +974,142 @@
     <t>pre</t>
   </si>
   <si>
+    <t>distr_solelc_won-CHE_0014</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell CHE_14</t>
+  </si>
+  <si>
+    <t>NRGI</t>
+  </si>
+  <si>
+    <t>daynite</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-CHE_0018</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell CHE_18</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-CHE_0010</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell CHE_10</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-CHE_0022</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell CHE_22</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-CHE_0011</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell CHE_11</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-CHE_0015</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell CHE_15</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-CHE_0025</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell CHE_25</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-CHE_0012</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell CHE_12</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-CHE_0009</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell CHE_9</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-CHE_0021</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell CHE_21</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-CHE_0004</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell CHE_4</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-CHE_0002</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell CHE_2</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-CHE_0007</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell CHE_7</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-CHE_0024</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell CHE_24</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-CHE_0008</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell CHE_8</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-CHE_0005</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell CHE_5</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-CHE_0013</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell CHE_13</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-CHE_0003</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell CHE_3</t>
+  </si>
+  <si>
     <t>distr_solelc_won-CHE_0000</t>
   </si>
   <si>
     <t>connecting solar and wind to buses in grid cell CHE_0</t>
   </si>
   <si>
-    <t>NRGI</t>
-  </si>
-  <si>
-    <t>daynite</t>
+    <t>distr_solelc_won-CHE_0020</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell CHE_20</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-CHE_0001</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell CHE_1</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-CHE_0006</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell CHE_6</t>
   </si>
   <si>
     <t>distr_solelc_won-CHE_0017</t>
@@ -1004,141 +1130,141 @@
     <t>connecting solar and wind to buses in grid cell CHE_23</t>
   </si>
   <si>
-    <t>distr_solelc_won-CHE_0009</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell CHE_9</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-CHE_0021</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell CHE_21</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-CHE_0004</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell CHE_4</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-CHE_0024</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell CHE_24</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-CHE_0008</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell CHE_8</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-CHE_0005</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell CHE_5</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-CHE_0007</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell CHE_7</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-CHE_0010</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell CHE_10</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-CHE_0022</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell CHE_22</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-CHE_0012</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell CHE_12</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-CHE_0003</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell CHE_3</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-CHE_0002</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell CHE_2</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-CHE_0014</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell CHE_14</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-CHE_0018</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell CHE_18</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-CHE_0020</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell CHE_20</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-CHE_0001</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell CHE_1</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-CHE_0006</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell CHE_6</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-CHE_0011</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell CHE_11</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-CHE_0015</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell CHE_15</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-CHE_0025</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell CHE_25</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-CHE_0013</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell CHE_13</t>
-  </si>
-  <si>
     <t>comm-in</t>
   </si>
   <si>
+    <t>elc_won-CHE_0014,elc_spv-CHE_0014</t>
+  </si>
+  <si>
+    <t>e_CH1-220,e_CH2-220,e_CH5-220,e_CH7-220,e_w108257952-220,e_w1284913429-220,e_w165513396-220,e_w165513396-380,e_w190819048-220,e_w27107779-220,e_w31308888-220,e_w33271433-220,e_w356292116-220,e_w356292116-380,e_w35840165-380,e_w50319857-220,e_w50319857-380,e_w50319857-400,e_w89405664-220,e_w89977424-220,e_w98648381-220,e_w98648381-380</t>
+  </si>
+  <si>
+    <t>elc_won-CHE_0018,elc_spv-CHE_0018</t>
+  </si>
+  <si>
+    <t>e_CH3-220,e_CH6-220,e_r9310861-220,e_w11282314-220,e_w147714395-220,e_w147714395-380,e_w148015471-220,e_w22899676-220,e_w240575085-220,e_w26843160-220,e_w281809991-220,e_w50561341-220,e_w87281514-220</t>
+  </si>
+  <si>
+    <t>elc_won-CHE_0010,elc_spv-CHE_0010</t>
+  </si>
+  <si>
+    <t>e_CH11-220,e_w109037817-220,e_w109037817-380,e_w127004407-380,e_w127004407-400,e_w27435934-220,e_w30350721-220,e_w397960460-380,e_w397960460-400,e_w88901626-380</t>
+  </si>
+  <si>
+    <t>elc_won-CHE_0022,elc_spv-CHE_0022</t>
+  </si>
+  <si>
+    <t>e_CH4-220,e_CH9-220,e_w455120191-220,e_w83861269-220,e_w92798668-220,e_w92873516-220</t>
+  </si>
+  <si>
+    <t>elc_won-CHE_0011,elc_spv-CHE_0011</t>
+  </si>
+  <si>
+    <t>e_CH46-220,e_CH47-220,e_w228003081-220,e_w391576135-220,e_w391577741-220,e_w969819301-220,e_w969819301-380</t>
+  </si>
+  <si>
+    <t>elc_won-CHE_0015,elc_spv-CHE_0015</t>
+  </si>
+  <si>
+    <t>e_CH50-220,e_CH56-220,e_CH58-220,e_CH59-220,e_w1327084723-220,e_w281800404-220,e_w281803398-220,e_w281815404-220,e_w35487135-220</t>
+  </si>
+  <si>
+    <t>elc_won-CHE_0025,elc_spv-CHE_0025</t>
+  </si>
+  <si>
+    <t>e_r7933294-380</t>
+  </si>
+  <si>
+    <t>elc_won-CHE_0012,elc_spv-CHE_0012</t>
+  </si>
+  <si>
+    <t>e_CH19-220,e_CH20-220,e_CH25-220,e_CH27-220,e_CH34-220,e_CH34-380,e_CH35-220,e_CH36-220,e_CH38-220,e_CH39-220,e_CH40-220,e_w1086214433-220,e_w1092884227-220,e_w240959264-220,e_w364949845-220,e_w364949845-380</t>
+  </si>
+  <si>
+    <t>elc_won-CHE_0009,elc_spv-CHE_0009</t>
+  </si>
+  <si>
+    <t>e_CH14-220,e_CH14-380,e_w1105061707-220,e_w1105061707-380,e_w147557680-220,e_w165254212-220,e_w402053379-220</t>
+  </si>
+  <si>
+    <t>elc_won-CHE_0021,elc_spv-CHE_0021</t>
+  </si>
+  <si>
+    <t>e_CH17-380,e_w211907009-220</t>
+  </si>
+  <si>
+    <t>elc_won-CHE_0004,elc_spv-CHE_0004</t>
+  </si>
+  <si>
+    <t>e_w111162936-220,e_w111162936-380,e_w111162936-400,e_w122720993-220,e_w194258388-220</t>
+  </si>
+  <si>
+    <t>elc_won-CHE_0002,elc_spv-CHE_0002</t>
+  </si>
+  <si>
+    <t>e_w232662311-220</t>
+  </si>
+  <si>
+    <t>elc_won-CHE_0007,elc_spv-CHE_0007</t>
+  </si>
+  <si>
+    <t>e_CH44-220,e_w212722603-220,e_w212722603-380,e_w236819191-220,e_w758943072-220</t>
+  </si>
+  <si>
+    <t>elc_won-CHE_0024,elc_spv-CHE_0024</t>
+  </si>
+  <si>
+    <t>e_CH30-380,e_CH33-380,e_CH37-380,e_r7933294-380</t>
+  </si>
+  <si>
+    <t>elc_won-CHE_0008,elc_spv-CHE_0008</t>
+  </si>
+  <si>
+    <t>e_CH43-220,e_w209324991-220,e_w26166640-220,e_w402055336-220,e_w758315582-220</t>
+  </si>
+  <si>
+    <t>elc_won-CHE_0005,elc_spv-CHE_0005</t>
+  </si>
+  <si>
+    <t>e_r5378910-220,e_w161853746-220</t>
+  </si>
+  <si>
+    <t>elc_won-CHE_0013,elc_spv-CHE_0013</t>
+  </si>
+  <si>
+    <t>e_CH15-220,e_w146225999-220,e_w159527493-220,e_w242269161-220,e_w281799252-220,e_w35002638-220,e_w35002638-380,e_w97941869-220</t>
+  </si>
+  <si>
+    <t>elc_won-CHE_0003,elc_spv-CHE_0003</t>
+  </si>
+  <si>
+    <t>e_CH48-225,e_CH49-225,e_CH53-225,e_CH60-225,e_w234983117-220,e_w234983117-380,e_w238138373-380,e_w260211728-225,e_w260211728-380,e_w55698557-220,e_w55698557-225,e_w802058337-220,e_w802058337-225,e_w936521586-380</t>
+  </si>
+  <si>
     <t>elc_won-CHE_0000,elc_spv-CHE_0000</t>
   </si>
   <si>
     <t>e_CH51-220,e_CH51-225,e_CH51-400,e_CH52-220,e_CH57-220,e_CH57-225,e_w177392130-220,e_w177392130-400,e_w239937062-220</t>
   </si>
   <si>
+    <t>elc_won-CHE_0020,elc_spv-CHE_0020</t>
+  </si>
+  <si>
+    <t>e_CH21-220,e_CH22-220,e_CH22-380,e_CH29-220,e_CH29-380,e_CH41-380,e_w1208713169-220,e_w207993342-220,e_w207993342-380,e_w208780268-380,e_w212498548-220,e_w36348118-220,e_w365556107-220,e_w71500123-220,e_w71500123-380</t>
+  </si>
+  <si>
+    <t>elc_won-CHE_0001,elc_spv-CHE_0001</t>
+  </si>
+  <si>
+    <t>e_CH31-220,e_w132373704-220,e_w232662311-220,e_w44496892-220,e_w55695765-220</t>
+  </si>
+  <si>
+    <t>elc_won-CHE_0006,elc_spv-CHE_0006</t>
+  </si>
+  <si>
+    <t>e_w127004407-400</t>
+  </si>
+  <si>
     <t>elc_won-CHE_0017,elc_spv-CHE_0017</t>
   </si>
   <si>
@@ -1155,132 +1281,6 @@
   </si>
   <si>
     <t>e_w207991759-380</t>
-  </si>
-  <si>
-    <t>elc_won-CHE_0009,elc_spv-CHE_0009</t>
-  </si>
-  <si>
-    <t>e_CH14-220,e_CH14-380,e_w1105061707-220,e_w1105061707-380,e_w147557680-220,e_w165254212-220,e_w402053379-220</t>
-  </si>
-  <si>
-    <t>elc_won-CHE_0021,elc_spv-CHE_0021</t>
-  </si>
-  <si>
-    <t>e_CH17-380,e_w211907009-220</t>
-  </si>
-  <si>
-    <t>elc_won-CHE_0004,elc_spv-CHE_0004</t>
-  </si>
-  <si>
-    <t>e_w111162936-220,e_w111162936-380,e_w111162936-400,e_w122720993-220,e_w194258388-220</t>
-  </si>
-  <si>
-    <t>elc_won-CHE_0024,elc_spv-CHE_0024</t>
-  </si>
-  <si>
-    <t>e_CH30-380,e_CH33-380,e_CH37-380,e_r7933294-380</t>
-  </si>
-  <si>
-    <t>elc_won-CHE_0008,elc_spv-CHE_0008</t>
-  </si>
-  <si>
-    <t>e_CH43-220,e_w209324991-220,e_w26166640-220,e_w402055336-220,e_w758315582-220</t>
-  </si>
-  <si>
-    <t>elc_won-CHE_0005,elc_spv-CHE_0005</t>
-  </si>
-  <si>
-    <t>e_r5378910-220,e_w161853746-220</t>
-  </si>
-  <si>
-    <t>elc_won-CHE_0007,elc_spv-CHE_0007</t>
-  </si>
-  <si>
-    <t>e_CH44-220,e_w212722603-220,e_w212722603-380,e_w236819191-220,e_w758943072-220</t>
-  </si>
-  <si>
-    <t>elc_won-CHE_0010,elc_spv-CHE_0010</t>
-  </si>
-  <si>
-    <t>e_CH11-220,e_w109037817-220,e_w109037817-380,e_w127004407-380,e_w127004407-400,e_w27435934-220,e_w30350721-220,e_w397960460-380,e_w397960460-400,e_w88901626-380</t>
-  </si>
-  <si>
-    <t>elc_won-CHE_0022,elc_spv-CHE_0022</t>
-  </si>
-  <si>
-    <t>e_CH4-220,e_CH9-220,e_w455120191-220,e_w83861269-220,e_w92798668-220,e_w92873516-220</t>
-  </si>
-  <si>
-    <t>elc_won-CHE_0012,elc_spv-CHE_0012</t>
-  </si>
-  <si>
-    <t>e_CH19-220,e_CH20-220,e_CH25-220,e_CH27-220,e_CH34-220,e_CH34-380,e_CH35-220,e_CH36-220,e_CH38-220,e_CH39-220,e_CH40-220,e_w1086214433-220,e_w1092884227-220,e_w240959264-220,e_w364949845-220,e_w364949845-380</t>
-  </si>
-  <si>
-    <t>elc_won-CHE_0003,elc_spv-CHE_0003</t>
-  </si>
-  <si>
-    <t>e_CH48-225,e_CH49-225,e_CH53-225,e_CH60-225,e_w234983117-220,e_w234983117-380,e_w238138373-380,e_w260211728-225,e_w260211728-380,e_w55698557-220,e_w55698557-225,e_w802058337-220,e_w802058337-225,e_w936521586-380</t>
-  </si>
-  <si>
-    <t>elc_won-CHE_0002,elc_spv-CHE_0002</t>
-  </si>
-  <si>
-    <t>e_w232662311-220</t>
-  </si>
-  <si>
-    <t>elc_won-CHE_0014,elc_spv-CHE_0014</t>
-  </si>
-  <si>
-    <t>e_CH1-220,e_CH2-220,e_CH5-220,e_CH7-220,e_w108257952-220,e_w1284913429-220,e_w165513396-220,e_w165513396-380,e_w190819048-220,e_w27107779-220,e_w31308888-220,e_w33271433-220,e_w356292116-220,e_w356292116-380,e_w35840165-380,e_w50319857-220,e_w50319857-380,e_w50319857-400,e_w89405664-220,e_w89977424-220,e_w98648381-220,e_w98648381-380</t>
-  </si>
-  <si>
-    <t>elc_won-CHE_0018,elc_spv-CHE_0018</t>
-  </si>
-  <si>
-    <t>e_CH3-220,e_CH6-220,e_r9310861-220,e_w11282314-220,e_w147714395-220,e_w147714395-380,e_w148015471-220,e_w22899676-220,e_w240575085-220,e_w26843160-220,e_w281809991-220,e_w50561341-220,e_w87281514-220</t>
-  </si>
-  <si>
-    <t>elc_won-CHE_0020,elc_spv-CHE_0020</t>
-  </si>
-  <si>
-    <t>e_CH21-220,e_CH22-220,e_CH22-380,e_CH29-220,e_CH29-380,e_CH41-380,e_w1208713169-220,e_w207993342-220,e_w207993342-380,e_w208780268-380,e_w212498548-220,e_w36348118-220,e_w365556107-220,e_w71500123-220,e_w71500123-380</t>
-  </si>
-  <si>
-    <t>elc_won-CHE_0001,elc_spv-CHE_0001</t>
-  </si>
-  <si>
-    <t>e_CH31-220,e_w132373704-220,e_w232662311-220,e_w44496892-220,e_w55695765-220</t>
-  </si>
-  <si>
-    <t>elc_won-CHE_0006,elc_spv-CHE_0006</t>
-  </si>
-  <si>
-    <t>e_w127004407-400</t>
-  </si>
-  <si>
-    <t>elc_won-CHE_0011,elc_spv-CHE_0011</t>
-  </si>
-  <si>
-    <t>e_CH46-220,e_CH47-220,e_w228003081-220,e_w391576135-220,e_w391577741-220,e_w969819301-220,e_w969819301-380</t>
-  </si>
-  <si>
-    <t>elc_won-CHE_0015,elc_spv-CHE_0015</t>
-  </si>
-  <si>
-    <t>e_CH50-220,e_CH56-220,e_CH58-220,e_CH59-220,e_w1327084723-220,e_w281800404-220,e_w281803398-220,e_w281815404-220,e_w35487135-220</t>
-  </si>
-  <si>
-    <t>elc_won-CHE_0025,elc_spv-CHE_0025</t>
-  </si>
-  <si>
-    <t>e_r7933294-380</t>
-  </si>
-  <si>
-    <t>elc_won-CHE_0013,elc_spv-CHE_0013</t>
-  </si>
-  <si>
-    <t>e_CH15-220,e_w146225999-220,e_w159527493-220,e_w242269161-220,e_w281799252-220,e_w35002638-220,e_w35002638-380,e_w97941869-220</t>
   </si>
   <si>
     <t>e_won-CHE_0000</t>
@@ -3287,7 +3287,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C31D5D29-49A6-DF2A-0111-7065D71F65F7}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9759D4D6-D382-25A8-C517-5FFF371267B6}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3342,7 +3342,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{36E993EE-F2DD-7E69-E84B-0C3313B6BE80}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DF46E36-2B0E-7F86-28FB-7453EB2A8157}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3397,7 +3397,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BA87A75A-8E29-082D-CB29-C56E7ABC2511}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A69BD91F-0F58-B9CF-976F-7926C13B57A5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3452,7 +3452,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{01AC3DB8-8A2E-7E48-C955-321F8DF69558}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4E93CABE-3828-157B-DC00-976CE40A5CDA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3507,7 +3507,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3A8F39A0-618F-779D-8DA9-2E56B95E2858}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{687DFCF6-B4FA-E802-7ED4-9AEF67D5C00C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7437,7 +7437,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2CB16E4-7892-4AE3-A212-1EFC77372AD6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D741E234-47CE-4862-A298-32DD7863BF88}">
   <dimension ref="A1:AG28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7648,7 +7648,7 @@
         <v>1</v>
       </c>
       <c r="AG4" s="156" t="s">
-        <v>229</v>
+        <v>241</v>
       </c>
     </row>
     <row r="5" spans="1:33">
@@ -7725,7 +7725,7 @@
         <v>1</v>
       </c>
       <c r="AG5" s="157" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
     </row>
     <row r="6" spans="1:33">
@@ -7802,7 +7802,7 @@
         <v>1</v>
       </c>
       <c r="AG6" s="156" t="s">
-        <v>249</v>
+        <v>233</v>
       </c>
     </row>
     <row r="7" spans="1:33">
@@ -7879,7 +7879,7 @@
         <v>1</v>
       </c>
       <c r="AG7" s="157" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
     </row>
     <row r="8" spans="1:33">
@@ -7956,7 +7956,7 @@
         <v>1</v>
       </c>
       <c r="AG8" s="156" t="s">
-        <v>277</v>
+        <v>235</v>
       </c>
     </row>
     <row r="9" spans="1:33">
@@ -8033,7 +8033,7 @@
         <v>1</v>
       </c>
       <c r="AG9" s="157" t="s">
-        <v>255</v>
+        <v>243</v>
       </c>
     </row>
     <row r="10" spans="1:33">
@@ -8110,7 +8110,7 @@
         <v>1</v>
       </c>
       <c r="AG10" s="156" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
     </row>
     <row r="11" spans="1:33">
@@ -8187,7 +8187,7 @@
         <v>1</v>
       </c>
       <c r="AG11" s="157" t="s">
-        <v>261</v>
+        <v>237</v>
       </c>
     </row>
     <row r="12" spans="1:33">
@@ -8264,7 +8264,7 @@
         <v>1</v>
       </c>
       <c r="AG12" s="156" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
     </row>
     <row r="13" spans="1:33">
@@ -8341,7 +8341,7 @@
         <v>1</v>
       </c>
       <c r="AG13" s="157" t="s">
-        <v>269</v>
+        <v>255</v>
       </c>
     </row>
     <row r="14" spans="1:33">
@@ -8418,7 +8418,7 @@
         <v>1</v>
       </c>
       <c r="AG14" s="156" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
     </row>
     <row r="15" spans="1:33">
@@ -8495,7 +8495,7 @@
         <v>1</v>
       </c>
       <c r="AG15" s="157" t="s">
-        <v>233</v>
+        <v>251</v>
       </c>
     </row>
     <row r="16" spans="1:33">
@@ -8572,7 +8572,7 @@
         <v>1</v>
       </c>
       <c r="AG16" s="156" t="s">
-        <v>257</v>
+        <v>273</v>
       </c>
     </row>
     <row r="17" spans="2:33">
@@ -8649,7 +8649,7 @@
         <v>1</v>
       </c>
       <c r="AG17" s="157" t="s">
-        <v>237</v>
+        <v>261</v>
       </c>
     </row>
     <row r="18" spans="2:33">
@@ -8726,7 +8726,7 @@
         <v>1</v>
       </c>
       <c r="AG18" s="156" t="s">
-        <v>265</v>
+        <v>275</v>
       </c>
     </row>
     <row r="19" spans="2:33">
@@ -8803,7 +8803,7 @@
         <v>1</v>
       </c>
       <c r="AG19" s="157" t="s">
-        <v>251</v>
+        <v>269</v>
       </c>
     </row>
     <row r="20" spans="2:33">
@@ -8880,7 +8880,7 @@
         <v>1</v>
       </c>
       <c r="AG20" s="156" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
     </row>
     <row r="21" spans="2:33">
@@ -8957,7 +8957,7 @@
         <v>1</v>
       </c>
       <c r="AG21" s="157" t="s">
-        <v>247</v>
+        <v>265</v>
       </c>
     </row>
     <row r="22" spans="2:33">
@@ -9034,7 +9034,7 @@
         <v>1</v>
       </c>
       <c r="AG22" s="156" t="s">
-        <v>253</v>
+        <v>229</v>
       </c>
     </row>
     <row r="23" spans="2:33">
@@ -9111,7 +9111,7 @@
         <v>1</v>
       </c>
       <c r="AG23" s="157" t="s">
-        <v>231</v>
+        <v>253</v>
       </c>
     </row>
     <row r="24" spans="2:33">
@@ -9188,7 +9188,7 @@
         <v>1</v>
       </c>
       <c r="AG24" s="156" t="s">
-        <v>271</v>
+        <v>231</v>
       </c>
     </row>
     <row r="25" spans="2:33">
@@ -9265,7 +9265,7 @@
         <v>1</v>
       </c>
       <c r="AG25" s="157" t="s">
-        <v>235</v>
+        <v>271</v>
       </c>
     </row>
     <row r="26" spans="2:33">
@@ -9342,7 +9342,7 @@
         <v>1</v>
       </c>
       <c r="AG26" s="156" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
     </row>
     <row r="27" spans="2:33">
@@ -9419,7 +9419,7 @@
         <v>1</v>
       </c>
       <c r="AG27" s="157" t="s">
-        <v>263</v>
+        <v>249</v>
       </c>
     </row>
     <row r="28" spans="2:33">
@@ -9496,7 +9496,7 @@
         <v>1</v>
       </c>
       <c r="AG28" s="156" t="s">
-        <v>239</v>
+        <v>259</v>
       </c>
     </row>
   </sheetData>
@@ -9509,7 +9509,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84711A4C-1A0F-4CEB-AD26-D59F8204A12B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98D2066D-F08B-4E7C-9407-F7497DCCDC3A}">
   <dimension ref="A1:O29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -10587,7 +10587,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C19F790B-F2FA-4660-BC5A-22C68AD1D5BF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80AE870D-FF0A-4898-98A3-043AA62B32E8}">
   <dimension ref="A1:Q66"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -12453,7 +12453,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{534635B4-FAE7-4538-B775-BE71F930B563}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D65371F-1F32-45BF-9289-639F43A2F39A}">
   <dimension ref="A1:M77"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -13360,7 +13360,7 @@
         <v>535</v>
       </c>
       <c r="C30" s="156" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="D30" s="156" t="s">
         <v>536</v>
@@ -13395,7 +13395,7 @@
         <v>536</v>
       </c>
       <c r="D31" s="157" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="E31" s="163">
         <v>1</v>

--- a/VerveStacks_CHE_grids/SubRES_Tmpl/SubRES_New_RE_and_Conventional.xlsx
+++ b/VerveStacks_CHE_grids/SubRES_Tmpl/SubRES_New_RE_and_Conventional.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_CHE_grids\SubRES_Tmpl\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{08E97576-F89E-4B82-A947-5A76712FE999}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E7654B45-4E2E-4155-B36F-77FAB7AD12C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="8" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1022,34 +1022,88 @@
     <t>connecting solar and wind to buses in grid cell CHE_25</t>
   </si>
   <si>
+    <t>distr_solelc_won-CHE_0013</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell CHE_13</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-CHE_0000</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell CHE_0</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-CHE_0017</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell CHE_17</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-CHE_0019</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell CHE_19</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-CHE_0023</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell CHE_23</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-CHE_0002</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell CHE_2</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-CHE_0009</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell CHE_9</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-CHE_0021</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell CHE_21</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-CHE_0004</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell CHE_4</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-CHE_0003</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell CHE_3</t>
+  </si>
+  <si>
     <t>distr_solelc_won-CHE_0012</t>
   </si>
   <si>
     <t>connecting solar and wind to buses in grid cell CHE_12</t>
   </si>
   <si>
-    <t>distr_solelc_won-CHE_0009</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell CHE_9</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-CHE_0021</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell CHE_21</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-CHE_0004</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell CHE_4</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-CHE_0002</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell CHE_2</t>
+    <t>distr_solelc_won-CHE_0024</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell CHE_24</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-CHE_0008</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell CHE_8</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-CHE_0005</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell CHE_5</t>
   </si>
   <si>
     <t>distr_solelc_won-CHE_0007</t>
@@ -1058,42 +1112,6 @@
     <t>connecting solar and wind to buses in grid cell CHE_7</t>
   </si>
   <si>
-    <t>distr_solelc_won-CHE_0024</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell CHE_24</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-CHE_0008</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell CHE_8</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-CHE_0005</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell CHE_5</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-CHE_0013</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell CHE_13</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-CHE_0003</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell CHE_3</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-CHE_0000</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell CHE_0</t>
-  </si>
-  <si>
     <t>distr_solelc_won-CHE_0020</t>
   </si>
   <si>
@@ -1112,24 +1130,6 @@
     <t>connecting solar and wind to buses in grid cell CHE_6</t>
   </si>
   <si>
-    <t>distr_solelc_won-CHE_0017</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell CHE_17</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-CHE_0019</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell CHE_19</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-CHE_0023</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell CHE_23</t>
-  </si>
-  <si>
     <t>comm-in</t>
   </si>
   <si>
@@ -1175,34 +1175,88 @@
     <t>e_r7933294-380</t>
   </si>
   <si>
+    <t>elc_won-CHE_0013,elc_spv-CHE_0013</t>
+  </si>
+  <si>
+    <t>e_CH15-220,e_w146225999-220,e_w159527493-220,e_w242269161-220,e_w281799252-220,e_w35002638-220,e_w35002638-380,e_w97941869-220</t>
+  </si>
+  <si>
+    <t>elc_won-CHE_0000,elc_spv-CHE_0000</t>
+  </si>
+  <si>
+    <t>e_CH51-220,e_CH51-225,e_CH51-400,e_CH52-220,e_CH57-220,e_CH57-225,e_w177392130-220,e_w177392130-400,e_w239937062-220</t>
+  </si>
+  <si>
+    <t>elc_won-CHE_0017,elc_spv-CHE_0017</t>
+  </si>
+  <si>
+    <t>e_CH12-220,e_CH12-380,e_CH13-220,e_CH16-380,e_CH18-220,e_CH18-380,e_w192677427-220,e_w192677427-380,e_w52738225-220,e_w52738225-380</t>
+  </si>
+  <si>
+    <t>elc_won-CHE_0019,elc_spv-CHE_0019</t>
+  </si>
+  <si>
+    <t>e_CH45-220,e_w281804158-220,e_w281804158-380</t>
+  </si>
+  <si>
+    <t>elc_won-CHE_0023,elc_spv-CHE_0023</t>
+  </si>
+  <si>
+    <t>e_w207991759-380</t>
+  </si>
+  <si>
+    <t>elc_won-CHE_0002,elc_spv-CHE_0002</t>
+  </si>
+  <si>
+    <t>e_w232662311-220</t>
+  </si>
+  <si>
+    <t>elc_won-CHE_0009,elc_spv-CHE_0009</t>
+  </si>
+  <si>
+    <t>e_CH14-220,e_CH14-380,e_w1105061707-220,e_w1105061707-380,e_w147557680-220,e_w165254212-220,e_w402053379-220</t>
+  </si>
+  <si>
+    <t>elc_won-CHE_0021,elc_spv-CHE_0021</t>
+  </si>
+  <si>
+    <t>e_CH17-380,e_w211907009-220</t>
+  </si>
+  <si>
+    <t>elc_won-CHE_0004,elc_spv-CHE_0004</t>
+  </si>
+  <si>
+    <t>e_w111162936-220,e_w111162936-380,e_w111162936-400,e_w122720993-220,e_w194258388-220</t>
+  </si>
+  <si>
+    <t>elc_won-CHE_0003,elc_spv-CHE_0003</t>
+  </si>
+  <si>
+    <t>e_CH48-225,e_CH49-225,e_CH53-225,e_CH60-225,e_w234983117-220,e_w234983117-380,e_w238138373-380,e_w260211728-225,e_w260211728-380,e_w55698557-220,e_w55698557-225,e_w802058337-220,e_w802058337-225,e_w936521586-380</t>
+  </si>
+  <si>
     <t>elc_won-CHE_0012,elc_spv-CHE_0012</t>
   </si>
   <si>
     <t>e_CH19-220,e_CH20-220,e_CH25-220,e_CH27-220,e_CH34-220,e_CH34-380,e_CH35-220,e_CH36-220,e_CH38-220,e_CH39-220,e_CH40-220,e_w1086214433-220,e_w1092884227-220,e_w240959264-220,e_w364949845-220,e_w364949845-380</t>
   </si>
   <si>
-    <t>elc_won-CHE_0009,elc_spv-CHE_0009</t>
-  </si>
-  <si>
-    <t>e_CH14-220,e_CH14-380,e_w1105061707-220,e_w1105061707-380,e_w147557680-220,e_w165254212-220,e_w402053379-220</t>
-  </si>
-  <si>
-    <t>elc_won-CHE_0021,elc_spv-CHE_0021</t>
-  </si>
-  <si>
-    <t>e_CH17-380,e_w211907009-220</t>
-  </si>
-  <si>
-    <t>elc_won-CHE_0004,elc_spv-CHE_0004</t>
-  </si>
-  <si>
-    <t>e_w111162936-220,e_w111162936-380,e_w111162936-400,e_w122720993-220,e_w194258388-220</t>
-  </si>
-  <si>
-    <t>elc_won-CHE_0002,elc_spv-CHE_0002</t>
-  </si>
-  <si>
-    <t>e_w232662311-220</t>
+    <t>elc_won-CHE_0024,elc_spv-CHE_0024</t>
+  </si>
+  <si>
+    <t>e_CH30-380,e_CH33-380,e_CH37-380,e_r7933294-380</t>
+  </si>
+  <si>
+    <t>elc_won-CHE_0008,elc_spv-CHE_0008</t>
+  </si>
+  <si>
+    <t>e_CH43-220,e_w209324991-220,e_w26166640-220,e_w402055336-220,e_w758315582-220</t>
+  </si>
+  <si>
+    <t>elc_won-CHE_0005,elc_spv-CHE_0005</t>
+  </si>
+  <si>
+    <t>e_r5378910-220,e_w161853746-220</t>
   </si>
   <si>
     <t>elc_won-CHE_0007,elc_spv-CHE_0007</t>
@@ -1211,42 +1265,6 @@
     <t>e_CH44-220,e_w212722603-220,e_w212722603-380,e_w236819191-220,e_w758943072-220</t>
   </si>
   <si>
-    <t>elc_won-CHE_0024,elc_spv-CHE_0024</t>
-  </si>
-  <si>
-    <t>e_CH30-380,e_CH33-380,e_CH37-380,e_r7933294-380</t>
-  </si>
-  <si>
-    <t>elc_won-CHE_0008,elc_spv-CHE_0008</t>
-  </si>
-  <si>
-    <t>e_CH43-220,e_w209324991-220,e_w26166640-220,e_w402055336-220,e_w758315582-220</t>
-  </si>
-  <si>
-    <t>elc_won-CHE_0005,elc_spv-CHE_0005</t>
-  </si>
-  <si>
-    <t>e_r5378910-220,e_w161853746-220</t>
-  </si>
-  <si>
-    <t>elc_won-CHE_0013,elc_spv-CHE_0013</t>
-  </si>
-  <si>
-    <t>e_CH15-220,e_w146225999-220,e_w159527493-220,e_w242269161-220,e_w281799252-220,e_w35002638-220,e_w35002638-380,e_w97941869-220</t>
-  </si>
-  <si>
-    <t>elc_won-CHE_0003,elc_spv-CHE_0003</t>
-  </si>
-  <si>
-    <t>e_CH48-225,e_CH49-225,e_CH53-225,e_CH60-225,e_w234983117-220,e_w234983117-380,e_w238138373-380,e_w260211728-225,e_w260211728-380,e_w55698557-220,e_w55698557-225,e_w802058337-220,e_w802058337-225,e_w936521586-380</t>
-  </si>
-  <si>
-    <t>elc_won-CHE_0000,elc_spv-CHE_0000</t>
-  </si>
-  <si>
-    <t>e_CH51-220,e_CH51-225,e_CH51-400,e_CH52-220,e_CH57-220,e_CH57-225,e_w177392130-220,e_w177392130-400,e_w239937062-220</t>
-  </si>
-  <si>
     <t>elc_won-CHE_0020,elc_spv-CHE_0020</t>
   </si>
   <si>
@@ -1263,24 +1281,6 @@
   </si>
   <si>
     <t>e_w127004407-400</t>
-  </si>
-  <si>
-    <t>elc_won-CHE_0017,elc_spv-CHE_0017</t>
-  </si>
-  <si>
-    <t>e_CH12-220,e_CH12-380,e_CH13-220,e_CH16-380,e_CH18-220,e_CH18-380,e_w192677427-220,e_w192677427-380,e_w52738225-220,e_w52738225-380</t>
-  </si>
-  <si>
-    <t>elc_won-CHE_0019,elc_spv-CHE_0019</t>
-  </si>
-  <si>
-    <t>e_CH45-220,e_w281804158-220,e_w281804158-380</t>
-  </si>
-  <si>
-    <t>elc_won-CHE_0023,elc_spv-CHE_0023</t>
-  </si>
-  <si>
-    <t>e_w207991759-380</t>
   </si>
   <si>
     <t>e_won-CHE_0000</t>
@@ -3287,7 +3287,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9759D4D6-D382-25A8-C517-5FFF371267B6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8F6099F4-D117-C13D-FEAF-E286C1EEDB52}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3342,7 +3342,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DF46E36-2B0E-7F86-28FB-7453EB2A8157}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{10D41083-84E9-50A6-0998-2E7AE38FD675}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3397,7 +3397,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A69BD91F-0F58-B9CF-976F-7926C13B57A5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{58AEC864-0E3C-E283-7C08-3DD78A1A6E60}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3452,7 +3452,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4E93CABE-3828-157B-DC00-976CE40A5CDA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DC84F2A0-87F6-185C-80EC-2BD24CD43E89}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3507,7 +3507,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{687DFCF6-B4FA-E802-7ED4-9AEF67D5C00C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D15D5045-E7D0-5ED8-6471-D1AAF08BE376}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7437,7 +7437,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D741E234-47CE-4862-A298-32DD7863BF88}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D6C6AF1-DF92-40BD-BA38-1B8F37FD828C}">
   <dimension ref="A1:AG28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -8187,7 +8187,7 @@
         <v>1</v>
       </c>
       <c r="AG11" s="157" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
     </row>
     <row r="12" spans="1:33">
@@ -8264,7 +8264,7 @@
         <v>1</v>
       </c>
       <c r="AG12" s="156" t="s">
-        <v>277</v>
+        <v>229</v>
       </c>
     </row>
     <row r="13" spans="1:33">
@@ -8341,7 +8341,7 @@
         <v>1</v>
       </c>
       <c r="AG13" s="157" t="s">
-        <v>255</v>
+        <v>245</v>
       </c>
     </row>
     <row r="14" spans="1:33">
@@ -8418,7 +8418,7 @@
         <v>1</v>
       </c>
       <c r="AG14" s="156" t="s">
-        <v>267</v>
+        <v>249</v>
       </c>
     </row>
     <row r="15" spans="1:33">
@@ -8495,7 +8495,7 @@
         <v>1</v>
       </c>
       <c r="AG15" s="157" t="s">
-        <v>251</v>
+        <v>259</v>
       </c>
     </row>
     <row r="16" spans="1:33">
@@ -8572,7 +8572,7 @@
         <v>1</v>
       </c>
       <c r="AG16" s="156" t="s">
-        <v>273</v>
+        <v>251</v>
       </c>
     </row>
     <row r="17" spans="2:33">
@@ -8649,7 +8649,7 @@
         <v>1</v>
       </c>
       <c r="AG17" s="157" t="s">
-        <v>261</v>
+        <v>277</v>
       </c>
     </row>
     <row r="18" spans="2:33">
@@ -8726,7 +8726,7 @@
         <v>1</v>
       </c>
       <c r="AG18" s="156" t="s">
-        <v>275</v>
+        <v>255</v>
       </c>
     </row>
     <row r="19" spans="2:33">
@@ -8803,7 +8803,7 @@
         <v>1</v>
       </c>
       <c r="AG19" s="157" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
     </row>
     <row r="20" spans="2:33">
@@ -8880,7 +8880,7 @@
         <v>1</v>
       </c>
       <c r="AG20" s="156" t="s">
-        <v>239</v>
+        <v>265</v>
       </c>
     </row>
     <row r="21" spans="2:33">
@@ -8957,7 +8957,7 @@
         <v>1</v>
       </c>
       <c r="AG21" s="157" t="s">
-        <v>265</v>
+        <v>237</v>
       </c>
     </row>
     <row r="22" spans="2:33">
@@ -9034,7 +9034,7 @@
         <v>1</v>
       </c>
       <c r="AG22" s="156" t="s">
-        <v>229</v>
+        <v>261</v>
       </c>
     </row>
     <row r="23" spans="2:33">
@@ -9111,7 +9111,7 @@
         <v>1</v>
       </c>
       <c r="AG23" s="157" t="s">
-        <v>253</v>
+        <v>275</v>
       </c>
     </row>
     <row r="24" spans="2:33">
@@ -9188,7 +9188,7 @@
         <v>1</v>
       </c>
       <c r="AG24" s="156" t="s">
-        <v>231</v>
+        <v>269</v>
       </c>
     </row>
     <row r="25" spans="2:33">
@@ -9265,7 +9265,7 @@
         <v>1</v>
       </c>
       <c r="AG25" s="157" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
     </row>
     <row r="26" spans="2:33">
@@ -9342,7 +9342,7 @@
         <v>1</v>
       </c>
       <c r="AG26" s="156" t="s">
-        <v>245</v>
+        <v>253</v>
       </c>
     </row>
     <row r="27" spans="2:33">
@@ -9419,7 +9419,7 @@
         <v>1</v>
       </c>
       <c r="AG27" s="157" t="s">
-        <v>249</v>
+        <v>231</v>
       </c>
     </row>
     <row r="28" spans="2:33">
@@ -9496,7 +9496,7 @@
         <v>1</v>
       </c>
       <c r="AG28" s="156" t="s">
-        <v>259</v>
+        <v>271</v>
       </c>
     </row>
   </sheetData>
@@ -9509,7 +9509,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98D2066D-F08B-4E7C-9407-F7497DCCDC3A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3FFC9FA3-9745-4180-A561-78252131838B}">
   <dimension ref="A1:O29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -10587,7 +10587,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80AE870D-FF0A-4898-98A3-043AA62B32E8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{962D9C8F-E4C5-480D-83E4-40E4453927F1}">
   <dimension ref="A1:Q66"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -12453,7 +12453,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D65371F-1F32-45BF-9289-639F43A2F39A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AEDB1CFF-1A44-4D3F-A777-CDB70E493804}">
   <dimension ref="A1:M77"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -13360,7 +13360,7 @@
         <v>535</v>
       </c>
       <c r="C30" s="156" t="s">
-        <v>377</v>
+        <v>383</v>
       </c>
       <c r="D30" s="156" t="s">
         <v>536</v>
@@ -13395,7 +13395,7 @@
         <v>536</v>
       </c>
       <c r="D31" s="157" t="s">
-        <v>377</v>
+        <v>383</v>
       </c>
       <c r="E31" s="163">
         <v>1</v>

--- a/VerveStacks_CHE_grids/SubRES_Tmpl/SubRES_New_RE_and_Conventional.xlsx
+++ b/VerveStacks_CHE_grids/SubRES_Tmpl/SubRES_New_RE_and_Conventional.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_CHE_grids\SubRES_Tmpl\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E7654B45-4E2E-4155-B36F-77FAB7AD12C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6F1FE8C3-FE9B-4283-9652-A282E5513A58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="8" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -974,24 +974,84 @@
     <t>pre</t>
   </si>
   <si>
+    <t>distr_solelc_won-CHE_0003</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell CHE_3</t>
+  </si>
+  <si>
+    <t>NRGI</t>
+  </si>
+  <si>
+    <t>daynite</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-CHE_0000</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell CHE_0</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-CHE_0017</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell CHE_17</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-CHE_0019</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell CHE_19</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-CHE_0023</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell CHE_23</t>
+  </si>
+  <si>
     <t>distr_solelc_won-CHE_0014</t>
   </si>
   <si>
     <t>connecting solar and wind to buses in grid cell CHE_14</t>
   </si>
   <si>
-    <t>NRGI</t>
-  </si>
-  <si>
-    <t>daynite</t>
-  </si>
-  <si>
     <t>distr_solelc_won-CHE_0018</t>
   </si>
   <si>
     <t>connecting solar and wind to buses in grid cell CHE_18</t>
   </si>
   <si>
+    <t>distr_solelc_won-CHE_0011</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell CHE_11</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-CHE_0015</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell CHE_15</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-CHE_0025</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell CHE_25</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-CHE_0002</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell CHE_2</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-CHE_0007</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell CHE_7</t>
+  </si>
+  <si>
     <t>distr_solelc_won-CHE_0010</t>
   </si>
   <si>
@@ -1004,22 +1064,46 @@
     <t>connecting solar and wind to buses in grid cell CHE_22</t>
   </si>
   <si>
-    <t>distr_solelc_won-CHE_0011</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell CHE_11</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-CHE_0015</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell CHE_15</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-CHE_0025</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell CHE_25</t>
+    <t>distr_solelc_won-CHE_0020</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell CHE_20</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-CHE_0001</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell CHE_1</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-CHE_0006</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell CHE_6</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-CHE_0024</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell CHE_24</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-CHE_0008</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell CHE_8</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-CHE_0005</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell CHE_5</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-CHE_0012</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell CHE_12</t>
   </si>
   <si>
     <t>distr_solelc_won-CHE_0013</t>
@@ -1028,36 +1112,6 @@
     <t>connecting solar and wind to buses in grid cell CHE_13</t>
   </si>
   <si>
-    <t>distr_solelc_won-CHE_0000</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell CHE_0</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-CHE_0017</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell CHE_17</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-CHE_0019</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell CHE_19</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-CHE_0023</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell CHE_23</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-CHE_0002</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell CHE_2</t>
-  </si>
-  <si>
     <t>distr_solelc_won-CHE_0009</t>
   </si>
   <si>
@@ -1076,63 +1130,39 @@
     <t>connecting solar and wind to buses in grid cell CHE_4</t>
   </si>
   <si>
-    <t>distr_solelc_won-CHE_0003</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell CHE_3</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-CHE_0012</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell CHE_12</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-CHE_0024</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell CHE_24</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-CHE_0008</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell CHE_8</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-CHE_0005</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell CHE_5</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-CHE_0007</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell CHE_7</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-CHE_0020</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell CHE_20</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-CHE_0001</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell CHE_1</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-CHE_0006</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell CHE_6</t>
-  </si>
-  <si>
     <t>comm-in</t>
   </si>
   <si>
+    <t>elc_won-CHE_0003,elc_spv-CHE_0003</t>
+  </si>
+  <si>
+    <t>e_CH48-225,e_CH49-225,e_CH53-225,e_CH60-225,e_w234983117-220,e_w234983117-380,e_w238138373-380,e_w260211728-225,e_w260211728-380,e_w55698557-220,e_w55698557-225,e_w802058337-220,e_w802058337-225,e_w936521586-380</t>
+  </si>
+  <si>
+    <t>elc_won-CHE_0000,elc_spv-CHE_0000</t>
+  </si>
+  <si>
+    <t>e_CH51-220,e_CH51-225,e_CH51-400,e_CH52-220,e_CH57-220,e_CH57-225,e_w177392130-220,e_w177392130-400,e_w239937062-220</t>
+  </si>
+  <si>
+    <t>elc_won-CHE_0017,elc_spv-CHE_0017</t>
+  </si>
+  <si>
+    <t>e_CH12-220,e_CH12-380,e_CH13-220,e_CH16-380,e_CH18-220,e_CH18-380,e_w192677427-220,e_w192677427-380,e_w52738225-220,e_w52738225-380</t>
+  </si>
+  <si>
+    <t>elc_won-CHE_0019,elc_spv-CHE_0019</t>
+  </si>
+  <si>
+    <t>e_CH45-220,e_w281804158-220,e_w281804158-380</t>
+  </si>
+  <si>
+    <t>elc_won-CHE_0023,elc_spv-CHE_0023</t>
+  </si>
+  <si>
+    <t>e_w207991759-380</t>
+  </si>
+  <si>
     <t>elc_won-CHE_0014,elc_spv-CHE_0014</t>
   </si>
   <si>
@@ -1145,6 +1175,36 @@
     <t>e_CH3-220,e_CH6-220,e_r9310861-220,e_w11282314-220,e_w147714395-220,e_w147714395-380,e_w148015471-220,e_w22899676-220,e_w240575085-220,e_w26843160-220,e_w281809991-220,e_w50561341-220,e_w87281514-220</t>
   </si>
   <si>
+    <t>elc_won-CHE_0011,elc_spv-CHE_0011</t>
+  </si>
+  <si>
+    <t>e_CH46-220,e_CH47-220,e_w228003081-220,e_w391576135-220,e_w391577741-220,e_w969819301-220,e_w969819301-380</t>
+  </si>
+  <si>
+    <t>elc_won-CHE_0015,elc_spv-CHE_0015</t>
+  </si>
+  <si>
+    <t>e_CH50-220,e_CH56-220,e_CH58-220,e_CH59-220,e_w1327084723-220,e_w281800404-220,e_w281803398-220,e_w281815404-220,e_w35487135-220</t>
+  </si>
+  <si>
+    <t>elc_won-CHE_0025,elc_spv-CHE_0025</t>
+  </si>
+  <si>
+    <t>e_r7933294-380</t>
+  </si>
+  <si>
+    <t>elc_won-CHE_0002,elc_spv-CHE_0002</t>
+  </si>
+  <si>
+    <t>e_w232662311-220</t>
+  </si>
+  <si>
+    <t>elc_won-CHE_0007,elc_spv-CHE_0007</t>
+  </si>
+  <si>
+    <t>e_CH44-220,e_w212722603-220,e_w212722603-380,e_w236819191-220,e_w758943072-220</t>
+  </si>
+  <si>
     <t>elc_won-CHE_0010,elc_spv-CHE_0010</t>
   </si>
   <si>
@@ -1157,22 +1217,46 @@
     <t>e_CH4-220,e_CH9-220,e_w455120191-220,e_w83861269-220,e_w92798668-220,e_w92873516-220</t>
   </si>
   <si>
-    <t>elc_won-CHE_0011,elc_spv-CHE_0011</t>
-  </si>
-  <si>
-    <t>e_CH46-220,e_CH47-220,e_w228003081-220,e_w391576135-220,e_w391577741-220,e_w969819301-220,e_w969819301-380</t>
-  </si>
-  <si>
-    <t>elc_won-CHE_0015,elc_spv-CHE_0015</t>
-  </si>
-  <si>
-    <t>e_CH50-220,e_CH56-220,e_CH58-220,e_CH59-220,e_w1327084723-220,e_w281800404-220,e_w281803398-220,e_w281815404-220,e_w35487135-220</t>
-  </si>
-  <si>
-    <t>elc_won-CHE_0025,elc_spv-CHE_0025</t>
-  </si>
-  <si>
-    <t>e_r7933294-380</t>
+    <t>elc_won-CHE_0020,elc_spv-CHE_0020</t>
+  </si>
+  <si>
+    <t>e_CH21-220,e_CH22-220,e_CH22-380,e_CH29-220,e_CH29-380,e_CH41-380,e_w1208713169-220,e_w207993342-220,e_w207993342-380,e_w208780268-380,e_w212498548-220,e_w36348118-220,e_w365556107-220,e_w71500123-220,e_w71500123-380</t>
+  </si>
+  <si>
+    <t>elc_won-CHE_0001,elc_spv-CHE_0001</t>
+  </si>
+  <si>
+    <t>e_CH31-220,e_w132373704-220,e_w232662311-220,e_w44496892-220,e_w55695765-220</t>
+  </si>
+  <si>
+    <t>elc_won-CHE_0006,elc_spv-CHE_0006</t>
+  </si>
+  <si>
+    <t>e_w127004407-400</t>
+  </si>
+  <si>
+    <t>elc_won-CHE_0024,elc_spv-CHE_0024</t>
+  </si>
+  <si>
+    <t>e_CH30-380,e_CH33-380,e_CH37-380,e_r7933294-380</t>
+  </si>
+  <si>
+    <t>elc_won-CHE_0008,elc_spv-CHE_0008</t>
+  </si>
+  <si>
+    <t>e_CH43-220,e_w209324991-220,e_w26166640-220,e_w402055336-220,e_w758315582-220</t>
+  </si>
+  <si>
+    <t>elc_won-CHE_0005,elc_spv-CHE_0005</t>
+  </si>
+  <si>
+    <t>e_r5378910-220,e_w161853746-220</t>
+  </si>
+  <si>
+    <t>elc_won-CHE_0012,elc_spv-CHE_0012</t>
+  </si>
+  <si>
+    <t>e_CH19-220,e_CH20-220,e_CH25-220,e_CH27-220,e_CH34-220,e_CH34-380,e_CH35-220,e_CH36-220,e_CH38-220,e_CH39-220,e_CH40-220,e_w1086214433-220,e_w1092884227-220,e_w240959264-220,e_w364949845-220,e_w364949845-380</t>
   </si>
   <si>
     <t>elc_won-CHE_0013,elc_spv-CHE_0013</t>
@@ -1181,36 +1265,6 @@
     <t>e_CH15-220,e_w146225999-220,e_w159527493-220,e_w242269161-220,e_w281799252-220,e_w35002638-220,e_w35002638-380,e_w97941869-220</t>
   </si>
   <si>
-    <t>elc_won-CHE_0000,elc_spv-CHE_0000</t>
-  </si>
-  <si>
-    <t>e_CH51-220,e_CH51-225,e_CH51-400,e_CH52-220,e_CH57-220,e_CH57-225,e_w177392130-220,e_w177392130-400,e_w239937062-220</t>
-  </si>
-  <si>
-    <t>elc_won-CHE_0017,elc_spv-CHE_0017</t>
-  </si>
-  <si>
-    <t>e_CH12-220,e_CH12-380,e_CH13-220,e_CH16-380,e_CH18-220,e_CH18-380,e_w192677427-220,e_w192677427-380,e_w52738225-220,e_w52738225-380</t>
-  </si>
-  <si>
-    <t>elc_won-CHE_0019,elc_spv-CHE_0019</t>
-  </si>
-  <si>
-    <t>e_CH45-220,e_w281804158-220,e_w281804158-380</t>
-  </si>
-  <si>
-    <t>elc_won-CHE_0023,elc_spv-CHE_0023</t>
-  </si>
-  <si>
-    <t>e_w207991759-380</t>
-  </si>
-  <si>
-    <t>elc_won-CHE_0002,elc_spv-CHE_0002</t>
-  </si>
-  <si>
-    <t>e_w232662311-220</t>
-  </si>
-  <si>
     <t>elc_won-CHE_0009,elc_spv-CHE_0009</t>
   </si>
   <si>
@@ -1227,60 +1281,6 @@
   </si>
   <si>
     <t>e_w111162936-220,e_w111162936-380,e_w111162936-400,e_w122720993-220,e_w194258388-220</t>
-  </si>
-  <si>
-    <t>elc_won-CHE_0003,elc_spv-CHE_0003</t>
-  </si>
-  <si>
-    <t>e_CH48-225,e_CH49-225,e_CH53-225,e_CH60-225,e_w234983117-220,e_w234983117-380,e_w238138373-380,e_w260211728-225,e_w260211728-380,e_w55698557-220,e_w55698557-225,e_w802058337-220,e_w802058337-225,e_w936521586-380</t>
-  </si>
-  <si>
-    <t>elc_won-CHE_0012,elc_spv-CHE_0012</t>
-  </si>
-  <si>
-    <t>e_CH19-220,e_CH20-220,e_CH25-220,e_CH27-220,e_CH34-220,e_CH34-380,e_CH35-220,e_CH36-220,e_CH38-220,e_CH39-220,e_CH40-220,e_w1086214433-220,e_w1092884227-220,e_w240959264-220,e_w364949845-220,e_w364949845-380</t>
-  </si>
-  <si>
-    <t>elc_won-CHE_0024,elc_spv-CHE_0024</t>
-  </si>
-  <si>
-    <t>e_CH30-380,e_CH33-380,e_CH37-380,e_r7933294-380</t>
-  </si>
-  <si>
-    <t>elc_won-CHE_0008,elc_spv-CHE_0008</t>
-  </si>
-  <si>
-    <t>e_CH43-220,e_w209324991-220,e_w26166640-220,e_w402055336-220,e_w758315582-220</t>
-  </si>
-  <si>
-    <t>elc_won-CHE_0005,elc_spv-CHE_0005</t>
-  </si>
-  <si>
-    <t>e_r5378910-220,e_w161853746-220</t>
-  </si>
-  <si>
-    <t>elc_won-CHE_0007,elc_spv-CHE_0007</t>
-  </si>
-  <si>
-    <t>e_CH44-220,e_w212722603-220,e_w212722603-380,e_w236819191-220,e_w758943072-220</t>
-  </si>
-  <si>
-    <t>elc_won-CHE_0020,elc_spv-CHE_0020</t>
-  </si>
-  <si>
-    <t>e_CH21-220,e_CH22-220,e_CH22-380,e_CH29-220,e_CH29-380,e_CH41-380,e_w1208713169-220,e_w207993342-220,e_w207993342-380,e_w208780268-380,e_w212498548-220,e_w36348118-220,e_w365556107-220,e_w71500123-220,e_w71500123-380</t>
-  </si>
-  <si>
-    <t>elc_won-CHE_0001,elc_spv-CHE_0001</t>
-  </si>
-  <si>
-    <t>e_CH31-220,e_w132373704-220,e_w232662311-220,e_w44496892-220,e_w55695765-220</t>
-  </si>
-  <si>
-    <t>elc_won-CHE_0006,elc_spv-CHE_0006</t>
-  </si>
-  <si>
-    <t>e_w127004407-400</t>
   </si>
   <si>
     <t>e_won-CHE_0000</t>
@@ -3287,7 +3287,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8F6099F4-D117-C13D-FEAF-E286C1EEDB52}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2F5ED1DC-39DE-2500-E0D9-EEEE6F182991}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3342,7 +3342,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{10D41083-84E9-50A6-0998-2E7AE38FD675}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{58C93522-3D1B-AACB-0718-4C3EAF506E1D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3397,7 +3397,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{58AEC864-0E3C-E283-7C08-3DD78A1A6E60}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6E66E5CF-DA5D-2BE6-AC8D-C23D55A1B83B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3452,7 +3452,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DC84F2A0-87F6-185C-80EC-2BD24CD43E89}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{904091CD-8D78-50EA-B1E6-6AE4CBB975C1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3507,7 +3507,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D15D5045-E7D0-5ED8-6471-D1AAF08BE376}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7EFF7235-3F4B-3CC6-51CA-11E7EAB6CE05}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7437,7 +7437,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D6C6AF1-DF92-40BD-BA38-1B8F37FD828C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BFF209D9-576F-46D5-81A4-431B42DFDF13}">
   <dimension ref="A1:AG28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7648,7 +7648,7 @@
         <v>1</v>
       </c>
       <c r="AG4" s="156" t="s">
-        <v>241</v>
+        <v>265</v>
       </c>
     </row>
     <row r="5" spans="1:33">
@@ -7725,7 +7725,7 @@
         <v>1</v>
       </c>
       <c r="AG5" s="157" t="s">
-        <v>247</v>
+        <v>229</v>
       </c>
     </row>
     <row r="6" spans="1:33">
@@ -7802,7 +7802,7 @@
         <v>1</v>
       </c>
       <c r="AG6" s="156" t="s">
-        <v>233</v>
+        <v>245</v>
       </c>
     </row>
     <row r="7" spans="1:33">
@@ -7879,7 +7879,7 @@
         <v>1</v>
       </c>
       <c r="AG7" s="157" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
     </row>
     <row r="8" spans="1:33">
@@ -7956,7 +7956,7 @@
         <v>1</v>
       </c>
       <c r="AG8" s="156" t="s">
-        <v>235</v>
+        <v>259</v>
       </c>
     </row>
     <row r="9" spans="1:33">
@@ -8033,7 +8033,7 @@
         <v>1</v>
       </c>
       <c r="AG9" s="157" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
     <row r="10" spans="1:33">
@@ -8110,7 +8110,7 @@
         <v>1</v>
       </c>
       <c r="AG10" s="156" t="s">
-        <v>263</v>
+        <v>247</v>
       </c>
     </row>
     <row r="11" spans="1:33">
@@ -8187,7 +8187,7 @@
         <v>1</v>
       </c>
       <c r="AG11" s="157" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
     </row>
     <row r="12" spans="1:33">
@@ -8264,7 +8264,7 @@
         <v>1</v>
       </c>
       <c r="AG12" s="156" t="s">
-        <v>229</v>
+        <v>243</v>
       </c>
     </row>
     <row r="13" spans="1:33">
@@ -8341,7 +8341,7 @@
         <v>1</v>
       </c>
       <c r="AG13" s="157" t="s">
-        <v>245</v>
+        <v>263</v>
       </c>
     </row>
     <row r="14" spans="1:33">
@@ -8418,7 +8418,7 @@
         <v>1</v>
       </c>
       <c r="AG14" s="156" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
     </row>
     <row r="15" spans="1:33">
@@ -8495,7 +8495,7 @@
         <v>1</v>
       </c>
       <c r="AG15" s="157" t="s">
-        <v>259</v>
+        <v>273</v>
       </c>
     </row>
     <row r="16" spans="1:33">
@@ -8572,7 +8572,7 @@
         <v>1</v>
       </c>
       <c r="AG16" s="156" t="s">
-        <v>251</v>
+        <v>233</v>
       </c>
     </row>
     <row r="17" spans="2:33">
@@ -8649,7 +8649,7 @@
         <v>1</v>
       </c>
       <c r="AG17" s="157" t="s">
-        <v>277</v>
+        <v>257</v>
       </c>
     </row>
     <row r="18" spans="2:33">
@@ -8726,7 +8726,7 @@
         <v>1</v>
       </c>
       <c r="AG18" s="156" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="19" spans="2:33">
@@ -8803,7 +8803,7 @@
         <v>1</v>
       </c>
       <c r="AG19" s="157" t="s">
-        <v>267</v>
+        <v>231</v>
       </c>
     </row>
     <row r="20" spans="2:33">
@@ -8880,7 +8880,7 @@
         <v>1</v>
       </c>
       <c r="AG20" s="156" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
     </row>
     <row r="21" spans="2:33">
@@ -8957,7 +8957,7 @@
         <v>1</v>
       </c>
       <c r="AG21" s="157" t="s">
-        <v>237</v>
+        <v>261</v>
       </c>
     </row>
     <row r="22" spans="2:33">
@@ -9034,7 +9034,7 @@
         <v>1</v>
       </c>
       <c r="AG22" s="156" t="s">
-        <v>261</v>
+        <v>275</v>
       </c>
     </row>
     <row r="23" spans="2:33">
@@ -9111,7 +9111,7 @@
         <v>1</v>
       </c>
       <c r="AG23" s="157" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
     </row>
     <row r="24" spans="2:33">
@@ -9188,7 +9188,7 @@
         <v>1</v>
       </c>
       <c r="AG24" s="156" t="s">
-        <v>269</v>
+        <v>237</v>
       </c>
     </row>
     <row r="25" spans="2:33">
@@ -9265,7 +9265,7 @@
         <v>1</v>
       </c>
       <c r="AG25" s="157" t="s">
-        <v>273</v>
+        <v>239</v>
       </c>
     </row>
     <row r="26" spans="2:33">
@@ -9342,7 +9342,7 @@
         <v>1</v>
       </c>
       <c r="AG26" s="156" t="s">
-        <v>253</v>
+        <v>277</v>
       </c>
     </row>
     <row r="27" spans="2:33">
@@ -9419,7 +9419,7 @@
         <v>1</v>
       </c>
       <c r="AG27" s="157" t="s">
-        <v>231</v>
+        <v>255</v>
       </c>
     </row>
     <row r="28" spans="2:33">
@@ -9496,7 +9496,7 @@
         <v>1</v>
       </c>
       <c r="AG28" s="156" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
     </row>
   </sheetData>
@@ -9509,7 +9509,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3FFC9FA3-9745-4180-A561-78252131838B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82E8E4CD-CEC3-4B5C-92A4-8D7842778A10}">
   <dimension ref="A1:O29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -10587,7 +10587,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{962D9C8F-E4C5-480D-83E4-40E4453927F1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C66409C9-9E33-4A23-86F5-044A38C67A66}">
   <dimension ref="A1:Q66"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -12453,7 +12453,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AEDB1CFF-1A44-4D3F-A777-CDB70E493804}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E1E1D40-4077-4DDD-AA7C-2DB6AD756761}">
   <dimension ref="A1:M77"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -13360,7 +13360,7 @@
         <v>535</v>
       </c>
       <c r="C30" s="156" t="s">
-        <v>383</v>
+        <v>367</v>
       </c>
       <c r="D30" s="156" t="s">
         <v>536</v>
@@ -13395,7 +13395,7 @@
         <v>536</v>
       </c>
       <c r="D31" s="157" t="s">
-        <v>383</v>
+        <v>367</v>
       </c>
       <c r="E31" s="163">
         <v>1</v>

--- a/VerveStacks_CHE_grids/SubRES_Tmpl/SubRES_New_RE_and_Conventional.xlsx
+++ b/VerveStacks_CHE_grids/SubRES_Tmpl/SubRES_New_RE_and_Conventional.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_CHE_grids\SubRES_Tmpl\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FED7EC39-31F4-43AB-BD22-C358C9D3D869}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{82CF7DC2-3BAD-4660-92F0-368B4214475D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="8" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2990,7 +2990,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B6DF3A38-F0AE-40C6-23D1-80C2940F1C29}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3F4E938C-9EC3-A9C8-22E5-67658D08ED9E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3045,7 +3045,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6972AB3A-F50A-D0B6-BE95-81802483A9B3}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{46E594A4-0840-BCE7-F14F-CAC3E1FF2733}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3100,7 +3100,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1B0357AB-3B19-2964-0455-4E82FAC29EEB}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{55E4D8C0-C7AA-9E10-0783-82F1CBEE6E5D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3155,7 +3155,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5626977E-239E-9351-6F64-FF939B4511BE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1A0028E6-CC45-8574-5F41-ACF264CAEDA4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3210,7 +3210,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{97F59116-4507-D22E-F6A2-C17EB1B9BB9F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3FBBB5AC-D7C0-A463-E375-ED7B1FF4F5D9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7140,7 +7140,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B6BF169-6882-4A4C-9220-4B040EB7CB83}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35595207-8291-46E9-877B-45C2015231A5}">
   <dimension ref="A1:AC35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -8232,7 +8232,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B58EE12-4DCD-4A68-85A6-9311F6A2EA6D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A4256DF-7B15-4470-BEE5-6C0BB7E23F1F}">
   <dimension ref="A1:AB36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -9358,7 +9358,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7EB0751C-9BE3-48AE-B22D-481178F42EF5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38AD05AC-9736-4391-97E9-D4EABB5261BC}">
   <dimension ref="A1:P73"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -11224,7 +11224,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A45A6D9-E60F-48F1-81FA-B73506FFA624}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{317C3EC8-C0EC-43FA-B93F-BFCD0081087C}">
   <dimension ref="A1:M77"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/VerveStacks_CHE_grids/SubRES_Tmpl/SubRES_New_RE_and_Conventional.xlsx
+++ b/VerveStacks_CHE_grids/SubRES_Tmpl/SubRES_New_RE_and_Conventional.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_CHE_grids\SubRES_Tmpl\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{82CF7DC2-3BAD-4660-92F0-368B4214475D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{AB3C7A36-67D1-4914-BFFF-D139D1664CF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="8" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2990,7 +2990,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3F4E938C-9EC3-A9C8-22E5-67658D08ED9E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7AF585A9-3EC3-24AB-21E4-C6589D39185B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3045,7 +3045,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{46E594A4-0840-BCE7-F14F-CAC3E1FF2733}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{959265A3-F923-2AF6-7407-C5C99A31512C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3100,7 +3100,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{55E4D8C0-C7AA-9E10-0783-82F1CBEE6E5D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{651958B7-645C-6B8C-9450-302849C5E9E4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3155,7 +3155,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1A0028E6-CC45-8574-5F41-ACF264CAEDA4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A3DB6745-2C5C-7DB5-BB78-C0E66D8FEA1B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3210,7 +3210,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3FBBB5AC-D7C0-A463-E375-ED7B1FF4F5D9}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0474EBDF-FAA3-764E-4EF0-4E50E98BF39A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7140,7 +7140,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35595207-8291-46E9-877B-45C2015231A5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B0BFC10-DB9A-4923-973B-B4A0EFE9A8CB}">
   <dimension ref="A1:AC35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -8232,7 +8232,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A4256DF-7B15-4470-BEE5-6C0BB7E23F1F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{746C8CAC-C4BF-4FC5-9118-13F484DE77E9}">
   <dimension ref="A1:AB36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -9358,7 +9358,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38AD05AC-9736-4391-97E9-D4EABB5261BC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35026F73-B7A3-4044-A44B-B9BE9A640EC2}">
   <dimension ref="A1:P73"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -11224,7 +11224,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{317C3EC8-C0EC-43FA-B93F-BFCD0081087C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16598B4A-E346-4D28-A4EB-F03C200E1FD5}">
   <dimension ref="A1:M77"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/VerveStacks_CHE_grids/SubRES_Tmpl/SubRES_New_RE_and_Conventional.xlsx
+++ b/VerveStacks_CHE_grids/SubRES_Tmpl/SubRES_New_RE_and_Conventional.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_CHE_grids\SubRES_Tmpl\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AB3C7A36-67D1-4914-BFFF-D139D1664CF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2DCBD19A-6B5E-4C1F-BA9C-AEED045C6775}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="8" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2990,7 +2990,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7AF585A9-3EC3-24AB-21E4-C6589D39185B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AAA138A2-8AE3-8C70-E4A5-EDAF0F1E82FB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3045,7 +3045,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{959265A3-F923-2AF6-7407-C5C99A31512C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{16A2822C-3BA5-7A51-3338-2EE08CF7A69B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3100,7 +3100,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{651958B7-645C-6B8C-9450-302849C5E9E4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8DD4AA34-461D-ADE9-4F66-7C5D482C76D6}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3155,7 +3155,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A3DB6745-2C5C-7DB5-BB78-C0E66D8FEA1B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1C865BE7-4F7C-ED38-91EE-1B0E9F8A588C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3210,7 +3210,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0474EBDF-FAA3-764E-4EF0-4E50E98BF39A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0166AF1E-230B-866C-0B48-582AFD921F01}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7140,7 +7140,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B0BFC10-DB9A-4923-973B-B4A0EFE9A8CB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{467EA32E-8C5E-4F76-96F3-CC56FD82DC3A}">
   <dimension ref="A1:AC35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -8232,7 +8232,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{746C8CAC-C4BF-4FC5-9118-13F484DE77E9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1453C57-CF7E-452B-98CA-635F65D5B255}">
   <dimension ref="A1:AB36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -9358,7 +9358,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35026F73-B7A3-4044-A44B-B9BE9A640EC2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7812A7AB-1C56-49A1-933C-3B67EDF6FFB9}">
   <dimension ref="A1:P73"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -11224,7 +11224,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16598B4A-E346-4D28-A4EB-F03C200E1FD5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32FB9E60-1B02-42F3-9481-AD0C8B35CDDC}">
   <dimension ref="A1:M77"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/VerveStacks_CHE_grids/SubRES_Tmpl/SubRES_New_RE_and_Conventional.xlsx
+++ b/VerveStacks_CHE_grids/SubRES_Tmpl/SubRES_New_RE_and_Conventional.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_CHE_grids\SubRES_Tmpl\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5F2A507C-E315-4750-A5F9-4ED0BFD7B96D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C4B0F881-CD83-46F7-840F-06437D49A5CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="8" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1004,48 +1004,108 @@
     <t>pre</t>
   </si>
   <si>
+    <t>distr_solelc_won-CHE_0014</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell CHE_14</t>
+  </si>
+  <si>
+    <t>NRGI</t>
+  </si>
+  <si>
+    <t>daynite</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-CHE_0018</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell CHE_18</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-CHE_0000</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell CHE_0</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-CHE_0009</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell CHE_9</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-CHE_0021</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell CHE_21</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-CHE_0004</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell CHE_4</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-CHE_0010</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell CHE_10</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-CHE_0022</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell CHE_22</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-CHE_0011</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell CHE_11</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-CHE_0015</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell CHE_15</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-CHE_0025</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell CHE_25</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-CHE_0003</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell CHE_3</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-CHE_0020</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell CHE_20</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-CHE_0001</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell CHE_1</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-CHE_0006</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell CHE_6</t>
+  </si>
+  <si>
     <t>distr_solelc_won-CHE_0013</t>
   </si>
   <si>
     <t>connecting solar and wind to buses in grid cell CHE_13</t>
   </si>
   <si>
-    <t>NRGI</t>
-  </si>
-  <si>
-    <t>daynite</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-CHE_0020</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell CHE_20</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-CHE_0001</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell CHE_1</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-CHE_0006</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell CHE_6</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-CHE_0000</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell CHE_0</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-CHE_0003</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell CHE_3</t>
-  </si>
-  <si>
     <t>distr_solelc_won-CHE_0024</t>
   </si>
   <si>
@@ -1064,52 +1124,22 @@
     <t>connecting solar and wind to buses in grid cell CHE_5</t>
   </si>
   <si>
-    <t>distr_solelc_won-CHE_0009</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell CHE_9</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-CHE_0021</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell CHE_21</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-CHE_0004</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell CHE_4</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-CHE_0010</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell CHE_10</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-CHE_0022</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell CHE_22</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-CHE_0011</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell CHE_11</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-CHE_0015</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell CHE_15</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-CHE_0025</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell CHE_25</t>
+    <t>distr_solelc_won-CHE_0017</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell CHE_17</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-CHE_0019</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell CHE_19</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-CHE_0023</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell CHE_23</t>
   </si>
   <si>
     <t>distr_solelc_won-CHE_0007</t>
@@ -1118,22 +1148,10 @@
     <t>connecting solar and wind to buses in grid cell CHE_7</t>
   </si>
   <si>
-    <t>distr_solelc_won-CHE_0017</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell CHE_17</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-CHE_0019</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell CHE_19</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-CHE_0023</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell CHE_23</t>
+    <t>distr_solelc_won-CHE_0002</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell CHE_2</t>
   </si>
   <si>
     <t>distr_solelc_won-CHE_0012</t>
@@ -1142,63 +1160,105 @@
     <t>connecting solar and wind to buses in grid cell CHE_12</t>
   </si>
   <si>
-    <t>distr_solelc_won-CHE_0014</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell CHE_14</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-CHE_0018</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell CHE_18</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-CHE_0002</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell CHE_2</t>
-  </si>
-  <si>
     <t>comm-in</t>
   </si>
   <si>
+    <t>elc_won-CHE_0014,elc_spv-CHE_0014</t>
+  </si>
+  <si>
+    <t>e_CH1-220,e_CH2-220,e_CH5-220,e_CH7-220,e_w108257952-220,e_w1284913429-220,e_w165513396-220,e_w165513396-380,e_w190819048-220,e_w27107779-220,e_w31308888-220,e_w33271433-220,e_w356292116-220,e_w356292116-380,e_w35840165-380,e_w50319857-220,e_w50319857-380,e_w50319857-400,e_w89405664-220,e_w89977424-220,e_w98648381-220,e_w98648381-380</t>
+  </si>
+  <si>
+    <t>elc_won-CHE_0018,elc_spv-CHE_0018</t>
+  </si>
+  <si>
+    <t>e_CH3-220,e_CH6-220,e_r9310861-220,e_w11282314-220,e_w147714395-220,e_w147714395-380,e_w148015471-220,e_w22899676-220,e_w240575085-220,e_w26843160-220,e_w281809991-220,e_w50561341-220,e_w87281514-220</t>
+  </si>
+  <si>
+    <t>elc_won-CHE_0000,elc_spv-CHE_0000</t>
+  </si>
+  <si>
+    <t>e_CH51-220,e_CH51-225,e_CH51-400,e_CH52-220,e_CH57-220,e_CH57-225,e_w177392130-220,e_w177392130-400,e_w239937062-220</t>
+  </si>
+  <si>
+    <t>elc_won-CHE_0009,elc_spv-CHE_0009</t>
+  </si>
+  <si>
+    <t>e_CH14-220,e_CH14-380,e_w1105061707-220,e_w1105061707-380,e_w147557680-220,e_w165254212-220,e_w402053379-220</t>
+  </si>
+  <si>
+    <t>elc_won-CHE_0021,elc_spv-CHE_0021</t>
+  </si>
+  <si>
+    <t>e_CH17-380,e_w211907009-220</t>
+  </si>
+  <si>
+    <t>elc_won-CHE_0004,elc_spv-CHE_0004</t>
+  </si>
+  <si>
+    <t>e_w111162936-220,e_w111162936-380,e_w111162936-400,e_w122720993-220,e_w194258388-220</t>
+  </si>
+  <si>
+    <t>elc_won-CHE_0010,elc_spv-CHE_0010</t>
+  </si>
+  <si>
+    <t>e_CH11-220,e_w109037817-220,e_w109037817-380,e_w127004407-380,e_w127004407-400,e_w27435934-220,e_w30350721-220,e_w397960460-380,e_w397960460-400,e_w88901626-380</t>
+  </si>
+  <si>
+    <t>elc_won-CHE_0022,elc_spv-CHE_0022</t>
+  </si>
+  <si>
+    <t>e_CH4-220,e_CH9-220,e_w455120191-220,e_w83861269-220,e_w92798668-220,e_w92873516-220</t>
+  </si>
+  <si>
+    <t>elc_won-CHE_0011,elc_spv-CHE_0011</t>
+  </si>
+  <si>
+    <t>e_CH46-220,e_CH47-220,e_w228003081-220,e_w391576135-220,e_w391577741-220,e_w969819301-220,e_w969819301-380</t>
+  </si>
+  <si>
+    <t>elc_won-CHE_0015,elc_spv-CHE_0015</t>
+  </si>
+  <si>
+    <t>e_CH50-220,e_CH56-220,e_CH58-220,e_CH59-220,e_w1327084723-220,e_w281800404-220,e_w281803398-220,e_w281815404-220,e_w35487135-220</t>
+  </si>
+  <si>
+    <t>elc_won-CHE_0025,elc_spv-CHE_0025</t>
+  </si>
+  <si>
+    <t>e_r7933294-380</t>
+  </si>
+  <si>
+    <t>elc_won-CHE_0003,elc_spv-CHE_0003</t>
+  </si>
+  <si>
+    <t>e_CH48-225,e_CH49-225,e_CH53-225,e_CH60-225,e_w234983117-220,e_w234983117-380,e_w238138373-380,e_w260211728-225,e_w260211728-380,e_w55698557-220,e_w55698557-225,e_w802058337-220,e_w802058337-225,e_w936521586-380</t>
+  </si>
+  <si>
+    <t>elc_won-CHE_0020,elc_spv-CHE_0020</t>
+  </si>
+  <si>
+    <t>e_CH21-220,e_CH22-220,e_CH22-380,e_CH29-220,e_CH29-380,e_CH41-380,e_w1208713169-220,e_w207993342-220,e_w207993342-380,e_w208780268-380,e_w212498548-220,e_w36348118-220,e_w365556107-220,e_w71500123-220,e_w71500123-380</t>
+  </si>
+  <si>
+    <t>elc_won-CHE_0001,elc_spv-CHE_0001</t>
+  </si>
+  <si>
+    <t>e_CH31-220,e_w132373704-220,e_w232662311-220,e_w44496892-220,e_w55695765-220</t>
+  </si>
+  <si>
+    <t>elc_won-CHE_0006,elc_spv-CHE_0006</t>
+  </si>
+  <si>
+    <t>e_w127004407-400</t>
+  </si>
+  <si>
     <t>elc_won-CHE_0013,elc_spv-CHE_0013</t>
   </si>
   <si>
     <t>e_CH15-220,e_w146225999-220,e_w159527493-220,e_w242269161-220,e_w281799252-220,e_w35002638-220,e_w35002638-380,e_w97941869-220</t>
   </si>
   <si>
-    <t>elc_won-CHE_0020,elc_spv-CHE_0020</t>
-  </si>
-  <si>
-    <t>e_CH21-220,e_CH22-220,e_CH22-380,e_CH29-220,e_CH29-380,e_CH41-380,e_w1208713169-220,e_w207993342-220,e_w207993342-380,e_w208780268-380,e_w212498548-220,e_w36348118-220,e_w365556107-220,e_w71500123-220,e_w71500123-380</t>
-  </si>
-  <si>
-    <t>elc_won-CHE_0001,elc_spv-CHE_0001</t>
-  </si>
-  <si>
-    <t>e_CH31-220,e_w132373704-220,e_w232662311-220,e_w44496892-220,e_w55695765-220</t>
-  </si>
-  <si>
-    <t>elc_won-CHE_0006,elc_spv-CHE_0006</t>
-  </si>
-  <si>
-    <t>e_w127004407-400</t>
-  </si>
-  <si>
-    <t>elc_won-CHE_0000,elc_spv-CHE_0000</t>
-  </si>
-  <si>
-    <t>e_CH51-220,e_CH51-225,e_CH51-400,e_CH52-220,e_CH57-220,e_CH57-225,e_w177392130-220,e_w177392130-400,e_w239937062-220</t>
-  </si>
-  <si>
-    <t>elc_won-CHE_0003,elc_spv-CHE_0003</t>
-  </si>
-  <si>
-    <t>e_CH48-225,e_CH49-225,e_CH53-225,e_CH60-225,e_w234983117-220,e_w234983117-380,e_w238138373-380,e_w260211728-225,e_w260211728-380,e_w55698557-220,e_w55698557-225,e_w802058337-220,e_w802058337-225,e_w936521586-380</t>
-  </si>
-  <si>
     <t>elc_won-CHE_0024,elc_spv-CHE_0024</t>
   </si>
   <si>
@@ -1217,52 +1277,22 @@
     <t>e_r5378910-220,e_w161853746-220</t>
   </si>
   <si>
-    <t>elc_won-CHE_0009,elc_spv-CHE_0009</t>
-  </si>
-  <si>
-    <t>e_CH14-220,e_CH14-380,e_w1105061707-220,e_w1105061707-380,e_w147557680-220,e_w165254212-220,e_w402053379-220</t>
-  </si>
-  <si>
-    <t>elc_won-CHE_0021,elc_spv-CHE_0021</t>
-  </si>
-  <si>
-    <t>e_CH17-380,e_w211907009-220</t>
-  </si>
-  <si>
-    <t>elc_won-CHE_0004,elc_spv-CHE_0004</t>
-  </si>
-  <si>
-    <t>e_w111162936-220,e_w111162936-380,e_w111162936-400,e_w122720993-220,e_w194258388-220</t>
-  </si>
-  <si>
-    <t>elc_won-CHE_0010,elc_spv-CHE_0010</t>
-  </si>
-  <si>
-    <t>e_CH11-220,e_w109037817-220,e_w109037817-380,e_w127004407-380,e_w127004407-400,e_w27435934-220,e_w30350721-220,e_w397960460-380,e_w397960460-400,e_w88901626-380</t>
-  </si>
-  <si>
-    <t>elc_won-CHE_0022,elc_spv-CHE_0022</t>
-  </si>
-  <si>
-    <t>e_CH4-220,e_CH9-220,e_w455120191-220,e_w83861269-220,e_w92798668-220,e_w92873516-220</t>
-  </si>
-  <si>
-    <t>elc_won-CHE_0011,elc_spv-CHE_0011</t>
-  </si>
-  <si>
-    <t>e_CH46-220,e_CH47-220,e_w228003081-220,e_w391576135-220,e_w391577741-220,e_w969819301-220,e_w969819301-380</t>
-  </si>
-  <si>
-    <t>elc_won-CHE_0015,elc_spv-CHE_0015</t>
-  </si>
-  <si>
-    <t>e_CH50-220,e_CH56-220,e_CH58-220,e_CH59-220,e_w1327084723-220,e_w281800404-220,e_w281803398-220,e_w281815404-220,e_w35487135-220</t>
-  </si>
-  <si>
-    <t>elc_won-CHE_0025,elc_spv-CHE_0025</t>
-  </si>
-  <si>
-    <t>e_r7933294-380</t>
+    <t>elc_won-CHE_0017,elc_spv-CHE_0017</t>
+  </si>
+  <si>
+    <t>e_CH12-220,e_CH12-380,e_CH13-220,e_CH16-380,e_CH18-220,e_CH18-380,e_w192677427-220,e_w192677427-380,e_w52738225-220,e_w52738225-380</t>
+  </si>
+  <si>
+    <t>elc_won-CHE_0019,elc_spv-CHE_0019</t>
+  </si>
+  <si>
+    <t>e_CH45-220,e_w281804158-220,e_w281804158-380</t>
+  </si>
+  <si>
+    <t>elc_won-CHE_0023,elc_spv-CHE_0023</t>
+  </si>
+  <si>
+    <t>e_w207991759-380</t>
   </si>
   <si>
     <t>elc_won-CHE_0007,elc_spv-CHE_0007</t>
@@ -1271,46 +1301,16 @@
     <t>e_CH44-220,e_w212722603-220,e_w212722603-380,e_w236819191-220,e_w758943072-220</t>
   </si>
   <si>
-    <t>elc_won-CHE_0017,elc_spv-CHE_0017</t>
-  </si>
-  <si>
-    <t>e_CH12-220,e_CH12-380,e_CH13-220,e_CH16-380,e_CH18-220,e_CH18-380,e_w192677427-220,e_w192677427-380,e_w52738225-220,e_w52738225-380</t>
-  </si>
-  <si>
-    <t>elc_won-CHE_0019,elc_spv-CHE_0019</t>
-  </si>
-  <si>
-    <t>e_CH45-220,e_w281804158-220,e_w281804158-380</t>
-  </si>
-  <si>
-    <t>elc_won-CHE_0023,elc_spv-CHE_0023</t>
-  </si>
-  <si>
-    <t>e_w207991759-380</t>
+    <t>elc_won-CHE_0002,elc_spv-CHE_0002</t>
+  </si>
+  <si>
+    <t>e_w232662311-220</t>
   </si>
   <si>
     <t>elc_won-CHE_0012,elc_spv-CHE_0012</t>
   </si>
   <si>
     <t>e_CH19-220,e_CH20-220,e_CH25-220,e_CH27-220,e_CH34-220,e_CH34-380,e_CH35-220,e_CH36-220,e_CH38-220,e_CH39-220,e_CH40-220,e_w1086214433-220,e_w1092884227-220,e_w240959264-220,e_w364949845-220,e_w364949845-380</t>
-  </si>
-  <si>
-    <t>elc_won-CHE_0014,elc_spv-CHE_0014</t>
-  </si>
-  <si>
-    <t>e_CH1-220,e_CH2-220,e_CH5-220,e_CH7-220,e_w108257952-220,e_w1284913429-220,e_w165513396-220,e_w165513396-380,e_w190819048-220,e_w27107779-220,e_w31308888-220,e_w33271433-220,e_w356292116-220,e_w356292116-380,e_w35840165-380,e_w50319857-220,e_w50319857-380,e_w50319857-400,e_w89405664-220,e_w89977424-220,e_w98648381-220,e_w98648381-380</t>
-  </si>
-  <si>
-    <t>elc_won-CHE_0018,elc_spv-CHE_0018</t>
-  </si>
-  <si>
-    <t>e_CH3-220,e_CH6-220,e_r9310861-220,e_w11282314-220,e_w147714395-220,e_w147714395-380,e_w148015471-220,e_w22899676-220,e_w240575085-220,e_w26843160-220,e_w281809991-220,e_w50561341-220,e_w87281514-220</t>
-  </si>
-  <si>
-    <t>elc_won-CHE_0002,elc_spv-CHE_0002</t>
-  </si>
-  <si>
-    <t>e_w232662311-220</t>
   </si>
   <si>
     <t>e_won-CHE_0000</t>
@@ -7159,7 +7159,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6D4DE4F-E352-4682-9394-2B62371D1156}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BEDE5DE-66BE-42C5-8671-505329FDD233}">
   <dimension ref="B9:AR35"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -7376,7 +7376,7 @@
         <v>1</v>
       </c>
       <c r="AC11" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
     </row>
     <row r="12" spans="2:44">
@@ -7453,7 +7453,7 @@
         <v>1</v>
       </c>
       <c r="AC12" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
     </row>
     <row r="13" spans="2:44">
@@ -7530,7 +7530,7 @@
         <v>1</v>
       </c>
       <c r="AC13" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
     </row>
     <row r="14" spans="2:44">
@@ -7607,7 +7607,7 @@
         <v>1</v>
       </c>
       <c r="AC14" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
     </row>
     <row r="15" spans="2:44">
@@ -7684,7 +7684,7 @@
         <v>1</v>
       </c>
       <c r="AC15" t="s">
-        <v>239</v>
+        <v>279</v>
       </c>
     </row>
     <row r="16" spans="2:44">
@@ -7761,7 +7761,7 @@
         <v>1</v>
       </c>
       <c r="AC16" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
     </row>
     <row r="17" spans="2:29">
@@ -7838,7 +7838,7 @@
         <v>1</v>
       </c>
       <c r="AC17" t="s">
-        <v>285</v>
+        <v>259</v>
       </c>
     </row>
     <row r="18" spans="2:29">
@@ -7915,7 +7915,7 @@
         <v>1</v>
       </c>
       <c r="AC18" t="s">
-        <v>255</v>
+        <v>281</v>
       </c>
     </row>
     <row r="19" spans="2:29">
@@ -7992,7 +7992,7 @@
         <v>1</v>
       </c>
       <c r="AC19" t="s">
-        <v>249</v>
+        <v>261</v>
       </c>
     </row>
     <row r="20" spans="2:29">
@@ -8069,7 +8069,7 @@
         <v>1</v>
       </c>
       <c r="AC20" t="s">
-        <v>257</v>
+        <v>269</v>
       </c>
     </row>
     <row r="21" spans="2:29">
@@ -8146,7 +8146,7 @@
         <v>1</v>
       </c>
       <c r="AC21" t="s">
-        <v>279</v>
+        <v>287</v>
       </c>
     </row>
     <row r="22" spans="2:29">
@@ -8223,7 +8223,7 @@
         <v>1</v>
       </c>
       <c r="AC22" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="23" spans="2:29">
@@ -8300,7 +8300,7 @@
         <v>1</v>
       </c>
       <c r="AC23" t="s">
-        <v>259</v>
+        <v>277</v>
       </c>
     </row>
     <row r="24" spans="2:29">
@@ -8377,7 +8377,7 @@
         <v>1</v>
       </c>
       <c r="AC24" t="s">
-        <v>281</v>
+        <v>241</v>
       </c>
     </row>
     <row r="25" spans="2:29">
@@ -8454,7 +8454,7 @@
         <v>1</v>
       </c>
       <c r="AC25" t="s">
-        <v>261</v>
+        <v>251</v>
       </c>
     </row>
     <row r="26" spans="2:29">
@@ -8531,7 +8531,7 @@
         <v>1</v>
       </c>
       <c r="AC26" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
     </row>
     <row r="27" spans="2:29">
@@ -8608,7 +8608,7 @@
         <v>1</v>
       </c>
       <c r="AC27" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="28" spans="2:29">
@@ -8685,7 +8685,7 @@
         <v>1</v>
       </c>
       <c r="AC28" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
     </row>
     <row r="29" spans="2:29">
@@ -8762,7 +8762,7 @@
         <v>1</v>
       </c>
       <c r="AC29" t="s">
-        <v>271</v>
+        <v>249</v>
       </c>
     </row>
     <row r="30" spans="2:29">
@@ -8839,7 +8839,7 @@
         <v>1</v>
       </c>
       <c r="AC30" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
     </row>
     <row r="31" spans="2:29">
@@ -8916,7 +8916,7 @@
         <v>1</v>
       </c>
       <c r="AC31" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
     </row>
     <row r="32" spans="2:29">
@@ -8993,7 +8993,7 @@
         <v>1</v>
       </c>
       <c r="AC32" t="s">
-        <v>263</v>
+        <v>283</v>
       </c>
     </row>
     <row r="33" spans="2:29">
@@ -9070,7 +9070,7 @@
         <v>1</v>
       </c>
       <c r="AC33" t="s">
-        <v>267</v>
+        <v>253</v>
       </c>
     </row>
     <row r="34" spans="2:29">
@@ -9147,7 +9147,7 @@
         <v>1</v>
       </c>
       <c r="AC34" t="s">
-        <v>273</v>
+        <v>243</v>
       </c>
     </row>
     <row r="35" spans="2:29">
@@ -9224,7 +9224,7 @@
         <v>1</v>
       </c>
       <c r="AC35" t="s">
-        <v>243</v>
+        <v>263</v>
       </c>
     </row>
   </sheetData>
@@ -9233,7 +9233,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B63B71BC-2BBD-4BAE-9A56-94BC1FED35E5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94D74092-A6FC-4713-A600-86A3CF861D3B}">
   <dimension ref="B9:AB36"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -10322,7 +10322,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39143876-0216-4549-8A1D-17C5FB8C75A8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D7680DB-0951-4003-9016-C8D23623C239}">
   <dimension ref="B9:P73"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -12142,7 +12142,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2DE7B204-73A0-4883-B6BF-6A43EA367C81}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FFA10EED-A46D-4CEA-8B55-8F3D58CE0C86}">
   <dimension ref="B2:M77"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -13026,7 +13026,7 @@
         <v>546</v>
       </c>
       <c r="C30" t="s">
-        <v>351</v>
+        <v>373</v>
       </c>
       <c r="D30" t="s">
         <v>547</v>
@@ -13061,7 +13061,7 @@
         <v>547</v>
       </c>
       <c r="D31" t="s">
-        <v>351</v>
+        <v>373</v>
       </c>
       <c r="E31">
         <v>1</v>

--- a/VerveStacks_CHE_grids/SubRES_Tmpl/SubRES_New_RE_and_Conventional.xlsx
+++ b/VerveStacks_CHE_grids/SubRES_Tmpl/SubRES_New_RE_and_Conventional.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_CHE_grids\SubRES_Tmpl\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C4B0F881-CD83-46F7-840F-06437D49A5CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{434BBAC9-6DD3-48D3-B132-FF3E494C3F28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="8" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1022,12 +1022,120 @@
     <t>connecting solar and wind to buses in grid cell CHE_18</t>
   </si>
   <si>
+    <t>distr_solelc_won-CHE_0007</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell CHE_7</t>
+  </si>
+  <si>
     <t>distr_solelc_won-CHE_0000</t>
   </si>
   <si>
     <t>connecting solar and wind to buses in grid cell CHE_0</t>
   </si>
   <si>
+    <t>distr_solelc_won-CHE_0012</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell CHE_12</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-CHE_0003</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell CHE_3</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-CHE_0017</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell CHE_17</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-CHE_0019</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell CHE_19</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-CHE_0023</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell CHE_23</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-CHE_0024</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell CHE_24</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-CHE_0008</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell CHE_8</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-CHE_0005</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell CHE_5</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-CHE_0020</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell CHE_20</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-CHE_0001</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell CHE_1</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-CHE_0006</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell CHE_6</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-CHE_0011</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell CHE_11</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-CHE_0015</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell CHE_15</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-CHE_0025</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell CHE_25</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-CHE_0010</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell CHE_10</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-CHE_0022</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell CHE_22</t>
+  </si>
+  <si>
+    <t>distr_solelc_won-CHE_0013</t>
+  </si>
+  <si>
+    <t>connecting solar and wind to buses in grid cell CHE_13</t>
+  </si>
+  <si>
     <t>distr_solelc_won-CHE_0009</t>
   </si>
   <si>
@@ -1046,120 +1154,12 @@
     <t>connecting solar and wind to buses in grid cell CHE_4</t>
   </si>
   <si>
-    <t>distr_solelc_won-CHE_0010</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell CHE_10</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-CHE_0022</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell CHE_22</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-CHE_0011</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell CHE_11</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-CHE_0015</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell CHE_15</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-CHE_0025</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell CHE_25</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-CHE_0003</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell CHE_3</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-CHE_0020</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell CHE_20</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-CHE_0001</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell CHE_1</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-CHE_0006</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell CHE_6</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-CHE_0013</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell CHE_13</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-CHE_0024</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell CHE_24</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-CHE_0008</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell CHE_8</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-CHE_0005</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell CHE_5</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-CHE_0017</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell CHE_17</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-CHE_0019</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell CHE_19</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-CHE_0023</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell CHE_23</t>
-  </si>
-  <si>
-    <t>distr_solelc_won-CHE_0007</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell CHE_7</t>
-  </si>
-  <si>
     <t>distr_solelc_won-CHE_0002</t>
   </si>
   <si>
     <t>connecting solar and wind to buses in grid cell CHE_2</t>
   </si>
   <si>
-    <t>distr_solelc_won-CHE_0012</t>
-  </si>
-  <si>
-    <t>connecting solar and wind to buses in grid cell CHE_12</t>
-  </si>
-  <si>
     <t>comm-in</t>
   </si>
   <si>
@@ -1175,12 +1175,120 @@
     <t>e_CH3-220,e_CH6-220,e_r9310861-220,e_w11282314-220,e_w147714395-220,e_w147714395-380,e_w148015471-220,e_w22899676-220,e_w240575085-220,e_w26843160-220,e_w281809991-220,e_w50561341-220,e_w87281514-220</t>
   </si>
   <si>
+    <t>elc_won-CHE_0007,elc_spv-CHE_0007</t>
+  </si>
+  <si>
+    <t>e_CH44-220,e_w212722603-220,e_w212722603-380,e_w236819191-220,e_w758943072-220</t>
+  </si>
+  <si>
     <t>elc_won-CHE_0000,elc_spv-CHE_0000</t>
   </si>
   <si>
     <t>e_CH51-220,e_CH51-225,e_CH51-400,e_CH52-220,e_CH57-220,e_CH57-225,e_w177392130-220,e_w177392130-400,e_w239937062-220</t>
   </si>
   <si>
+    <t>elc_won-CHE_0012,elc_spv-CHE_0012</t>
+  </si>
+  <si>
+    <t>e_CH19-220,e_CH20-220,e_CH25-220,e_CH27-220,e_CH34-220,e_CH34-380,e_CH35-220,e_CH36-220,e_CH38-220,e_CH39-220,e_CH40-220,e_w1086214433-220,e_w1092884227-220,e_w240959264-220,e_w364949845-220,e_w364949845-380</t>
+  </si>
+  <si>
+    <t>elc_won-CHE_0003,elc_spv-CHE_0003</t>
+  </si>
+  <si>
+    <t>e_CH48-225,e_CH49-225,e_CH53-225,e_CH60-225,e_w234983117-220,e_w234983117-380,e_w238138373-380,e_w260211728-225,e_w260211728-380,e_w55698557-220,e_w55698557-225,e_w802058337-220,e_w802058337-225,e_w936521586-380</t>
+  </si>
+  <si>
+    <t>elc_won-CHE_0017,elc_spv-CHE_0017</t>
+  </si>
+  <si>
+    <t>e_CH12-220,e_CH12-380,e_CH13-220,e_CH16-380,e_CH18-220,e_CH18-380,e_w192677427-220,e_w192677427-380,e_w52738225-220,e_w52738225-380</t>
+  </si>
+  <si>
+    <t>elc_won-CHE_0019,elc_spv-CHE_0019</t>
+  </si>
+  <si>
+    <t>e_CH45-220,e_w281804158-220,e_w281804158-380</t>
+  </si>
+  <si>
+    <t>elc_won-CHE_0023,elc_spv-CHE_0023</t>
+  </si>
+  <si>
+    <t>e_w207991759-380</t>
+  </si>
+  <si>
+    <t>elc_won-CHE_0024,elc_spv-CHE_0024</t>
+  </si>
+  <si>
+    <t>e_CH30-380,e_CH33-380,e_CH37-380,e_r7933294-380</t>
+  </si>
+  <si>
+    <t>elc_won-CHE_0008,elc_spv-CHE_0008</t>
+  </si>
+  <si>
+    <t>e_CH43-220,e_w209324991-220,e_w26166640-220,e_w402055336-220,e_w758315582-220</t>
+  </si>
+  <si>
+    <t>elc_won-CHE_0005,elc_spv-CHE_0005</t>
+  </si>
+  <si>
+    <t>e_r5378910-220,e_w161853746-220</t>
+  </si>
+  <si>
+    <t>elc_won-CHE_0020,elc_spv-CHE_0020</t>
+  </si>
+  <si>
+    <t>e_CH21-220,e_CH22-220,e_CH22-380,e_CH29-220,e_CH29-380,e_CH41-380,e_w1208713169-220,e_w207993342-220,e_w207993342-380,e_w208780268-380,e_w212498548-220,e_w36348118-220,e_w365556107-220,e_w71500123-220,e_w71500123-380</t>
+  </si>
+  <si>
+    <t>elc_won-CHE_0001,elc_spv-CHE_0001</t>
+  </si>
+  <si>
+    <t>e_CH31-220,e_w132373704-220,e_w232662311-220,e_w44496892-220,e_w55695765-220</t>
+  </si>
+  <si>
+    <t>elc_won-CHE_0006,elc_spv-CHE_0006</t>
+  </si>
+  <si>
+    <t>e_w127004407-400</t>
+  </si>
+  <si>
+    <t>elc_won-CHE_0011,elc_spv-CHE_0011</t>
+  </si>
+  <si>
+    <t>e_CH46-220,e_CH47-220,e_w228003081-220,e_w391576135-220,e_w391577741-220,e_w969819301-220,e_w969819301-380</t>
+  </si>
+  <si>
+    <t>elc_won-CHE_0015,elc_spv-CHE_0015</t>
+  </si>
+  <si>
+    <t>e_CH50-220,e_CH56-220,e_CH58-220,e_CH59-220,e_w1327084723-220,e_w281800404-220,e_w281803398-220,e_w281815404-220,e_w35487135-220</t>
+  </si>
+  <si>
+    <t>elc_won-CHE_0025,elc_spv-CHE_0025</t>
+  </si>
+  <si>
+    <t>e_r7933294-380</t>
+  </si>
+  <si>
+    <t>elc_won-CHE_0010,elc_spv-CHE_0010</t>
+  </si>
+  <si>
+    <t>e_CH11-220,e_w109037817-220,e_w109037817-380,e_w127004407-380,e_w127004407-400,e_w27435934-220,e_w30350721-220,e_w397960460-380,e_w397960460-400,e_w88901626-380</t>
+  </si>
+  <si>
+    <t>elc_won-CHE_0022,elc_spv-CHE_0022</t>
+  </si>
+  <si>
+    <t>e_CH4-220,e_CH9-220,e_w455120191-220,e_w83861269-220,e_w92798668-220,e_w92873516-220</t>
+  </si>
+  <si>
+    <t>elc_won-CHE_0013,elc_spv-CHE_0013</t>
+  </si>
+  <si>
+    <t>e_CH15-220,e_w146225999-220,e_w159527493-220,e_w242269161-220,e_w281799252-220,e_w35002638-220,e_w35002638-380,e_w97941869-220</t>
+  </si>
+  <si>
     <t>elc_won-CHE_0009,elc_spv-CHE_0009</t>
   </si>
   <si>
@@ -1199,118 +1307,10 @@
     <t>e_w111162936-220,e_w111162936-380,e_w111162936-400,e_w122720993-220,e_w194258388-220</t>
   </si>
   <si>
-    <t>elc_won-CHE_0010,elc_spv-CHE_0010</t>
-  </si>
-  <si>
-    <t>e_CH11-220,e_w109037817-220,e_w109037817-380,e_w127004407-380,e_w127004407-400,e_w27435934-220,e_w30350721-220,e_w397960460-380,e_w397960460-400,e_w88901626-380</t>
-  </si>
-  <si>
-    <t>elc_won-CHE_0022,elc_spv-CHE_0022</t>
-  </si>
-  <si>
-    <t>e_CH4-220,e_CH9-220,e_w455120191-220,e_w83861269-220,e_w92798668-220,e_w92873516-220</t>
-  </si>
-  <si>
-    <t>elc_won-CHE_0011,elc_spv-CHE_0011</t>
-  </si>
-  <si>
-    <t>e_CH46-220,e_CH47-220,e_w228003081-220,e_w391576135-220,e_w391577741-220,e_w969819301-220,e_w969819301-380</t>
-  </si>
-  <si>
-    <t>elc_won-CHE_0015,elc_spv-CHE_0015</t>
-  </si>
-  <si>
-    <t>e_CH50-220,e_CH56-220,e_CH58-220,e_CH59-220,e_w1327084723-220,e_w281800404-220,e_w281803398-220,e_w281815404-220,e_w35487135-220</t>
-  </si>
-  <si>
-    <t>elc_won-CHE_0025,elc_spv-CHE_0025</t>
-  </si>
-  <si>
-    <t>e_r7933294-380</t>
-  </si>
-  <si>
-    <t>elc_won-CHE_0003,elc_spv-CHE_0003</t>
-  </si>
-  <si>
-    <t>e_CH48-225,e_CH49-225,e_CH53-225,e_CH60-225,e_w234983117-220,e_w234983117-380,e_w238138373-380,e_w260211728-225,e_w260211728-380,e_w55698557-220,e_w55698557-225,e_w802058337-220,e_w802058337-225,e_w936521586-380</t>
-  </si>
-  <si>
-    <t>elc_won-CHE_0020,elc_spv-CHE_0020</t>
-  </si>
-  <si>
-    <t>e_CH21-220,e_CH22-220,e_CH22-380,e_CH29-220,e_CH29-380,e_CH41-380,e_w1208713169-220,e_w207993342-220,e_w207993342-380,e_w208780268-380,e_w212498548-220,e_w36348118-220,e_w365556107-220,e_w71500123-220,e_w71500123-380</t>
-  </si>
-  <si>
-    <t>elc_won-CHE_0001,elc_spv-CHE_0001</t>
-  </si>
-  <si>
-    <t>e_CH31-220,e_w132373704-220,e_w232662311-220,e_w44496892-220,e_w55695765-220</t>
-  </si>
-  <si>
-    <t>elc_won-CHE_0006,elc_spv-CHE_0006</t>
-  </si>
-  <si>
-    <t>e_w127004407-400</t>
-  </si>
-  <si>
-    <t>elc_won-CHE_0013,elc_spv-CHE_0013</t>
-  </si>
-  <si>
-    <t>e_CH15-220,e_w146225999-220,e_w159527493-220,e_w242269161-220,e_w281799252-220,e_w35002638-220,e_w35002638-380,e_w97941869-220</t>
-  </si>
-  <si>
-    <t>elc_won-CHE_0024,elc_spv-CHE_0024</t>
-  </si>
-  <si>
-    <t>e_CH30-380,e_CH33-380,e_CH37-380,e_r7933294-380</t>
-  </si>
-  <si>
-    <t>elc_won-CHE_0008,elc_spv-CHE_0008</t>
-  </si>
-  <si>
-    <t>e_CH43-220,e_w209324991-220,e_w26166640-220,e_w402055336-220,e_w758315582-220</t>
-  </si>
-  <si>
-    <t>elc_won-CHE_0005,elc_spv-CHE_0005</t>
-  </si>
-  <si>
-    <t>e_r5378910-220,e_w161853746-220</t>
-  </si>
-  <si>
-    <t>elc_won-CHE_0017,elc_spv-CHE_0017</t>
-  </si>
-  <si>
-    <t>e_CH12-220,e_CH12-380,e_CH13-220,e_CH16-380,e_CH18-220,e_CH18-380,e_w192677427-220,e_w192677427-380,e_w52738225-220,e_w52738225-380</t>
-  </si>
-  <si>
-    <t>elc_won-CHE_0019,elc_spv-CHE_0019</t>
-  </si>
-  <si>
-    <t>e_CH45-220,e_w281804158-220,e_w281804158-380</t>
-  </si>
-  <si>
-    <t>elc_won-CHE_0023,elc_spv-CHE_0023</t>
-  </si>
-  <si>
-    <t>e_w207991759-380</t>
-  </si>
-  <si>
-    <t>elc_won-CHE_0007,elc_spv-CHE_0007</t>
-  </si>
-  <si>
-    <t>e_CH44-220,e_w212722603-220,e_w212722603-380,e_w236819191-220,e_w758943072-220</t>
-  </si>
-  <si>
     <t>elc_won-CHE_0002,elc_spv-CHE_0002</t>
   </si>
   <si>
     <t>e_w232662311-220</t>
-  </si>
-  <si>
-    <t>elc_won-CHE_0012,elc_spv-CHE_0012</t>
-  </si>
-  <si>
-    <t>e_CH19-220,e_CH20-220,e_CH25-220,e_CH27-220,e_CH34-220,e_CH34-380,e_CH35-220,e_CH36-220,e_CH38-220,e_CH39-220,e_CH40-220,e_w1086214433-220,e_w1092884227-220,e_w240959264-220,e_w364949845-220,e_w364949845-380</t>
   </si>
   <si>
     <t>e_won-CHE_0000</t>
@@ -7159,7 +7159,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BEDE5DE-66BE-42C5-8671-505329FDD233}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33BD3534-D231-4CC9-A3C4-D262AFA6178C}">
   <dimension ref="B9:AR35"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -7530,7 +7530,7 @@
         <v>1</v>
       </c>
       <c r="AC13" t="s">
-        <v>239</v>
+        <v>253</v>
       </c>
     </row>
     <row r="14" spans="2:44">
@@ -7607,7 +7607,7 @@
         <v>1</v>
       </c>
       <c r="AC14" t="s">
-        <v>257</v>
+        <v>239</v>
       </c>
     </row>
     <row r="15" spans="2:44">
@@ -7684,7 +7684,7 @@
         <v>1</v>
       </c>
       <c r="AC15" t="s">
-        <v>279</v>
+        <v>263</v>
       </c>
     </row>
     <row r="16" spans="2:44">
@@ -7761,7 +7761,7 @@
         <v>1</v>
       </c>
       <c r="AC16" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="17" spans="2:29">
@@ -7838,7 +7838,7 @@
         <v>1</v>
       </c>
       <c r="AC17" t="s">
-        <v>259</v>
+        <v>271</v>
       </c>
     </row>
     <row r="18" spans="2:29">
@@ -7915,7 +7915,7 @@
         <v>1</v>
       </c>
       <c r="AC18" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
     </row>
     <row r="19" spans="2:29">
@@ -7992,7 +7992,7 @@
         <v>1</v>
       </c>
       <c r="AC19" t="s">
-        <v>261</v>
+        <v>283</v>
       </c>
     </row>
     <row r="20" spans="2:29">
@@ -8069,7 +8069,7 @@
         <v>1</v>
       </c>
       <c r="AC20" t="s">
-        <v>269</v>
+        <v>285</v>
       </c>
     </row>
     <row r="21" spans="2:29">
@@ -8146,7 +8146,7 @@
         <v>1</v>
       </c>
       <c r="AC21" t="s">
-        <v>287</v>
+        <v>255</v>
       </c>
     </row>
     <row r="22" spans="2:29">
@@ -8223,7 +8223,7 @@
         <v>1</v>
       </c>
       <c r="AC22" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
     </row>
     <row r="23" spans="2:29">
@@ -8531,7 +8531,7 @@
         <v>1</v>
       </c>
       <c r="AC26" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
     </row>
     <row r="27" spans="2:29">
@@ -8608,7 +8608,7 @@
         <v>1</v>
       </c>
       <c r="AC27" t="s">
-        <v>285</v>
+        <v>269</v>
       </c>
     </row>
     <row r="28" spans="2:29">
@@ -8685,7 +8685,7 @@
         <v>1</v>
       </c>
       <c r="AC28" t="s">
-        <v>255</v>
+        <v>287</v>
       </c>
     </row>
     <row r="29" spans="2:29">
@@ -8762,7 +8762,7 @@
         <v>1</v>
       </c>
       <c r="AC29" t="s">
-        <v>249</v>
+        <v>259</v>
       </c>
     </row>
     <row r="30" spans="2:29">
@@ -8839,7 +8839,7 @@
         <v>1</v>
       </c>
       <c r="AC30" t="s">
-        <v>271</v>
+        <v>281</v>
       </c>
     </row>
     <row r="31" spans="2:29">
@@ -8916,7 +8916,7 @@
         <v>1</v>
       </c>
       <c r="AC31" t="s">
-        <v>275</v>
+        <v>265</v>
       </c>
     </row>
     <row r="32" spans="2:29">
@@ -8993,7 +8993,7 @@
         <v>1</v>
       </c>
       <c r="AC32" t="s">
-        <v>283</v>
+        <v>257</v>
       </c>
     </row>
     <row r="33" spans="2:29">
@@ -9070,7 +9070,7 @@
         <v>1</v>
       </c>
       <c r="AC33" t="s">
-        <v>253</v>
+        <v>279</v>
       </c>
     </row>
     <row r="34" spans="2:29">
@@ -9147,7 +9147,7 @@
         <v>1</v>
       </c>
       <c r="AC34" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
     </row>
     <row r="35" spans="2:29">
@@ -9224,7 +9224,7 @@
         <v>1</v>
       </c>
       <c r="AC35" t="s">
-        <v>263</v>
+        <v>243</v>
       </c>
     </row>
   </sheetData>
@@ -9233,7 +9233,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94D74092-A6FC-4713-A600-86A3CF861D3B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48E46D59-DA1F-42AA-8E22-F3F16073750C}">
   <dimension ref="B9:AB36"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -10322,7 +10322,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D7680DB-0951-4003-9016-C8D23623C239}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18966998-E24E-47C1-838D-6969C60FF586}">
   <dimension ref="B9:P73"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -12142,7 +12142,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FFA10EED-A46D-4CEA-8B55-8F3D58CE0C86}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A1EF3D7-5832-48EE-A24F-C50FA5A1BFC5}">
   <dimension ref="B2:M77"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
